--- a/src/modules/mail/templates/excels/ni_mcit_p_01_5.xlsx
+++ b/src/modules/mail/templates/excels/ni_mcit_p_01_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GF63\Desktop\REGXI\Metrocal-admin-backend\src\modules\mail\templates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD82D3C-A9BC-4FB6-8329-8F37251298B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BADBE90-F0DB-4D1C-9848-284390E6DC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="887" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36578,8 +36578,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AB149"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="L113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T105" sqref="T105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45710,8 +45710,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A5:Y129"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A105" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45849,7 +45849,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="426">
         <f ca="1">NOW()</f>
-        <v>45392.434240625</v>
+        <v>45398.730872800923</v>
       </c>
       <c r="O11" s="426"/>
       <c r="P11" s="426"/>
@@ -49019,7 +49019,7 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="str">
-        <f>IF(General!F16=General!W124,General!Y131,IF(General!F16=General!W125,General!Y133,IF(General!F16=General!W126,General!Y140,IF(General!F16=General!W127,General!Y121,IF(General!F16=General!W128,General!Y141,IF(General!F16=General!W129,General!Y139,IF(General!F16=General!W130,General!Y125,IF(General!F16=General!W131,General!Y136,IF(General!F16=General!W132,General!Y137,IF(General!F16=General!W133,General!Y138,IF(General!F16=General!W134,General!Y147,IF(General!F16=General!W135,General!Y148,IF(General!F16=General!W136,General!Y134,IF(General!F16=General!W137,General!Y145,IF(General!F16=General!W138,General!Y149)))))))))))))))</f>
+        <f>IF(General!F16=General!W124,General!Y131,IF(General!F16=General!W125,General!Y133,IF(General!F16=General!W126,General!Y140,IF(General!F16=General!W127,General!Y121,IF(General!F16=General!W128,General!Y141,IF(General!F16=General!W129,General!Y139,IF(General!F16=General!W130,General!Y125,IF(General!F16=General!W131,General!Y136,IF(General!F16=General!W132,General!Y137,IF(General!F16=General!W133,General!Y138,IF(General!F16=General!W134,General!Y147,IF(General!F16=General!W135,General!Y148,IF(General!F16=General!W136,General!Y134,IF(General!F16=General!W137,General!Y145,IF(General!F16=General!W138,General!Y149,"")))))))))))))))</f>
         <v>El factor de conversión al SI corresponde a 1 psi = 6,894 757 kPa</v>
       </c>
       <c r="B119" s="9"/>
@@ -49557,7 +49557,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="426">
         <f ca="1">NOW()</f>
-        <v>45392.434240625</v>
+        <v>45398.730872800923</v>
       </c>
       <c r="O11" s="426"/>
       <c r="P11" s="426"/>

--- a/src/modules/mail/templates/excels/ni_mcit_p_01_5.xlsx
+++ b/src/modules/mail/templates/excels/ni_mcit_p_01_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MamaGuevooooo\Desktop\Regxi\Metrocal-admin-backend\src\modules\mail\templates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9070F057-CDE2-4BC9-9403-52E85CC975B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA508B3-687A-4AD8-8F1B-91F41DA8ED9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="887" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="887" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="2" r:id="rId1"/>
@@ -7759,23 +7759,27 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7807,6 +7811,24 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7828,56 +7850,35 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -7900,53 +7901,71 @@
     <xf numFmtId="164" fontId="47" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7957,32 +7976,26 @@
     <xf numFmtId="0" fontId="52" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8020,6 +8033,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -8027,28 +8049,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21952,10 +21952,10 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="N10" s="316" t="s">
+      <c r="N10" s="318" t="s">
         <v>475</v>
       </c>
-      <c r="O10" s="317"/>
+      <c r="O10" s="319"/>
       <c r="P10" s="263" t="str">
         <f>IFERROR(AVERAGE(P3,P5,P7),"")</f>
         <v/>
@@ -21985,10 +21985,10 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="318" t="s">
+      <c r="N11" s="320" t="s">
         <v>476</v>
       </c>
-      <c r="O11" s="319"/>
+      <c r="O11" s="321"/>
       <c r="P11" s="265" t="str">
         <f>IFERROR(AVERAGE(P4,P6,P8),"")</f>
         <v/>
@@ -22213,288 +22213,268 @@
       </c>
     </row>
     <row r="123" spans="23:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Y123" s="320" t="s">
+      <c r="Y123" s="322" t="s">
         <v>482</v>
       </c>
-      <c r="Z123" s="321"/>
-      <c r="AA123" s="321"/>
-      <c r="AB123" s="322"/>
+      <c r="Z123" s="323"/>
+      <c r="AA123" s="323"/>
+      <c r="AB123" s="324"/>
     </row>
     <row r="124" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W124" s="202" t="s">
         <v>276</v>
       </c>
-      <c r="Y124" s="323" t="s">
+      <c r="Y124" s="325" t="s">
         <v>483</v>
       </c>
-      <c r="Z124" s="324"/>
-      <c r="AA124" s="324"/>
-      <c r="AB124" s="325"/>
+      <c r="Z124" s="326"/>
+      <c r="AA124" s="326"/>
+      <c r="AB124" s="327"/>
     </row>
     <row r="125" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W125" s="202" t="s">
         <v>275</v>
       </c>
-      <c r="Y125" s="310" t="s">
+      <c r="Y125" s="328" t="s">
         <v>516</v>
       </c>
-      <c r="Z125" s="311"/>
-      <c r="AA125" s="311"/>
-      <c r="AB125" s="312"/>
+      <c r="Z125" s="329"/>
+      <c r="AA125" s="329"/>
+      <c r="AB125" s="330"/>
     </row>
     <row r="126" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W126" s="202" t="s">
         <v>277</v>
       </c>
-      <c r="Y126" s="310" t="s">
+      <c r="Y126" s="328" t="s">
         <v>485</v>
       </c>
-      <c r="Z126" s="311"/>
-      <c r="AA126" s="311"/>
-      <c r="AB126" s="312"/>
+      <c r="Z126" s="329"/>
+      <c r="AA126" s="329"/>
+      <c r="AB126" s="330"/>
     </row>
     <row r="127" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W127" s="202" t="s">
         <v>338</v>
       </c>
-      <c r="Y127" s="310" t="s">
+      <c r="Y127" s="328" t="s">
         <v>486</v>
       </c>
-      <c r="Z127" s="311"/>
-      <c r="AA127" s="311"/>
-      <c r="AB127" s="312"/>
+      <c r="Z127" s="329"/>
+      <c r="AA127" s="329"/>
+      <c r="AB127" s="330"/>
     </row>
     <row r="128" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W128" s="202" t="s">
         <v>278</v>
       </c>
-      <c r="Y128" s="310" t="s">
+      <c r="Y128" s="328" t="s">
         <v>487</v>
       </c>
-      <c r="Z128" s="311"/>
-      <c r="AA128" s="311"/>
-      <c r="AB128" s="312"/>
+      <c r="Z128" s="329"/>
+      <c r="AA128" s="329"/>
+      <c r="AB128" s="330"/>
     </row>
     <row r="129" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W129" s="202" t="s">
         <v>506</v>
       </c>
-      <c r="Y129" s="310" t="s">
+      <c r="Y129" s="328" t="s">
         <v>488</v>
       </c>
-      <c r="Z129" s="311"/>
-      <c r="AA129" s="311"/>
-      <c r="AB129" s="312"/>
+      <c r="Z129" s="329"/>
+      <c r="AA129" s="329"/>
+      <c r="AB129" s="330"/>
     </row>
     <row r="130" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W130" s="202" t="s">
         <v>507</v>
       </c>
-      <c r="Y130" s="310" t="s">
+      <c r="Y130" s="328" t="s">
         <v>489</v>
       </c>
-      <c r="Z130" s="311"/>
-      <c r="AA130" s="311"/>
-      <c r="AB130" s="312"/>
+      <c r="Z130" s="329"/>
+      <c r="AA130" s="329"/>
+      <c r="AB130" s="330"/>
     </row>
     <row r="131" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W131" s="202" t="s">
         <v>352</v>
       </c>
-      <c r="Y131" s="310" t="s">
+      <c r="Y131" s="328" t="s">
         <v>490</v>
       </c>
-      <c r="Z131" s="311"/>
-      <c r="AA131" s="311"/>
-      <c r="AB131" s="312"/>
+      <c r="Z131" s="329"/>
+      <c r="AA131" s="329"/>
+      <c r="AB131" s="330"/>
     </row>
     <row r="132" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W132" s="202" t="s">
         <v>353</v>
       </c>
-      <c r="Y132" s="310" t="s">
+      <c r="Y132" s="328" t="s">
         <v>491</v>
       </c>
-      <c r="Z132" s="311"/>
-      <c r="AA132" s="311"/>
-      <c r="AB132" s="312"/>
+      <c r="Z132" s="329"/>
+      <c r="AA132" s="329"/>
+      <c r="AB132" s="330"/>
     </row>
     <row r="133" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W133" s="202" t="s">
         <v>354</v>
       </c>
-      <c r="Y133" s="310" t="s">
+      <c r="Y133" s="328" t="s">
         <v>492</v>
       </c>
-      <c r="Z133" s="311"/>
-      <c r="AA133" s="311"/>
-      <c r="AB133" s="312"/>
+      <c r="Z133" s="329"/>
+      <c r="AA133" s="329"/>
+      <c r="AB133" s="330"/>
     </row>
     <row r="134" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W134" s="202" t="s">
         <v>508</v>
       </c>
-      <c r="Y134" s="310" t="s">
+      <c r="Y134" s="328" t="s">
         <v>511</v>
       </c>
-      <c r="Z134" s="311"/>
-      <c r="AA134" s="311"/>
-      <c r="AB134" s="312"/>
+      <c r="Z134" s="329"/>
+      <c r="AA134" s="329"/>
+      <c r="AB134" s="330"/>
     </row>
     <row r="135" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W135" s="202" t="s">
         <v>509</v>
       </c>
-      <c r="Y135" s="310" t="s">
+      <c r="Y135" s="328" t="s">
         <v>512</v>
       </c>
-      <c r="Z135" s="311"/>
-      <c r="AA135" s="311"/>
-      <c r="AB135" s="312"/>
+      <c r="Z135" s="329"/>
+      <c r="AA135" s="329"/>
+      <c r="AB135" s="330"/>
     </row>
     <row r="136" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W136" s="202" t="s">
         <v>510</v>
       </c>
-      <c r="Y136" s="310" t="s">
+      <c r="Y136" s="328" t="s">
         <v>495</v>
       </c>
-      <c r="Z136" s="311"/>
-      <c r="AA136" s="311"/>
-      <c r="AB136" s="312"/>
+      <c r="Z136" s="329"/>
+      <c r="AA136" s="329"/>
+      <c r="AB136" s="330"/>
     </row>
     <row r="137" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W137" s="202" t="s">
         <v>351</v>
       </c>
-      <c r="Y137" s="310" t="s">
+      <c r="Y137" s="328" t="s">
         <v>496</v>
       </c>
-      <c r="Z137" s="311"/>
-      <c r="AA137" s="311"/>
-      <c r="AB137" s="312"/>
+      <c r="Z137" s="329"/>
+      <c r="AA137" s="329"/>
+      <c r="AB137" s="330"/>
     </row>
     <row r="138" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W138" s="202" t="s">
         <v>517</v>
       </c>
-      <c r="Y138" s="310" t="s">
+      <c r="Y138" s="328" t="s">
         <v>518</v>
       </c>
-      <c r="Z138" s="311"/>
-      <c r="AA138" s="311"/>
-      <c r="AB138" s="312"/>
+      <c r="Z138" s="329"/>
+      <c r="AA138" s="329"/>
+      <c r="AB138" s="330"/>
     </row>
     <row r="139" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y139" s="310" t="s">
+      <c r="Y139" s="328" t="s">
         <v>498</v>
       </c>
-      <c r="Z139" s="311"/>
-      <c r="AA139" s="311"/>
-      <c r="AB139" s="312"/>
+      <c r="Z139" s="329"/>
+      <c r="AA139" s="329"/>
+      <c r="AB139" s="330"/>
     </row>
     <row r="140" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y140" s="310" t="s">
+      <c r="Y140" s="328" t="s">
         <v>499</v>
       </c>
-      <c r="Z140" s="311"/>
-      <c r="AA140" s="311"/>
-      <c r="AB140" s="312"/>
+      <c r="Z140" s="329"/>
+      <c r="AA140" s="329"/>
+      <c r="AB140" s="330"/>
     </row>
     <row r="141" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y141" s="310" t="s">
+      <c r="Y141" s="328" t="s">
         <v>500</v>
       </c>
-      <c r="Z141" s="311"/>
-      <c r="AA141" s="311"/>
-      <c r="AB141" s="312"/>
+      <c r="Z141" s="329"/>
+      <c r="AA141" s="329"/>
+      <c r="AB141" s="330"/>
     </row>
     <row r="142" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y142" s="310" t="s">
+      <c r="Y142" s="328" t="s">
         <v>513</v>
       </c>
-      <c r="Z142" s="311"/>
-      <c r="AA142" s="311"/>
-      <c r="AB142" s="312"/>
+      <c r="Z142" s="329"/>
+      <c r="AA142" s="329"/>
+      <c r="AB142" s="330"/>
     </row>
     <row r="143" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y143" s="310" t="s">
+      <c r="Y143" s="328" t="s">
         <v>502</v>
       </c>
-      <c r="Z143" s="311"/>
-      <c r="AA143" s="311"/>
-      <c r="AB143" s="312"/>
+      <c r="Z143" s="329"/>
+      <c r="AA143" s="329"/>
+      <c r="AB143" s="330"/>
     </row>
     <row r="144" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y144" s="310" t="s">
+      <c r="Y144" s="328" t="s">
         <v>503</v>
       </c>
-      <c r="Z144" s="311"/>
-      <c r="AA144" s="311"/>
-      <c r="AB144" s="312"/>
+      <c r="Z144" s="329"/>
+      <c r="AA144" s="329"/>
+      <c r="AB144" s="330"/>
     </row>
     <row r="145" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y145" s="310" t="s">
+      <c r="Y145" s="328" t="s">
         <v>504</v>
       </c>
-      <c r="Z145" s="311"/>
-      <c r="AA145" s="311"/>
-      <c r="AB145" s="312"/>
+      <c r="Z145" s="329"/>
+      <c r="AA145" s="329"/>
+      <c r="AB145" s="330"/>
     </row>
     <row r="146" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y146" s="310" t="s">
+      <c r="Y146" s="328" t="s">
         <v>505</v>
       </c>
-      <c r="Z146" s="311"/>
-      <c r="AA146" s="311"/>
-      <c r="AB146" s="312"/>
+      <c r="Z146" s="329"/>
+      <c r="AA146" s="329"/>
+      <c r="AB146" s="330"/>
     </row>
     <row r="147" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y147" s="310" t="s">
+      <c r="Y147" s="328" t="s">
         <v>514</v>
       </c>
-      <c r="Z147" s="311"/>
-      <c r="AA147" s="311"/>
-      <c r="AB147" s="312"/>
+      <c r="Z147" s="329"/>
+      <c r="AA147" s="329"/>
+      <c r="AB147" s="330"/>
     </row>
     <row r="148" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y148" s="310" t="s">
+      <c r="Y148" s="328" t="s">
         <v>515</v>
       </c>
-      <c r="Z148" s="311"/>
-      <c r="AA148" s="311"/>
-      <c r="AB148" s="312"/>
+      <c r="Z148" s="329"/>
+      <c r="AA148" s="329"/>
+      <c r="AB148" s="330"/>
     </row>
     <row r="149" spans="25:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Y149" s="313" t="s">
+      <c r="Y149" s="331" t="s">
         <v>519</v>
       </c>
-      <c r="Z149" s="314"/>
-      <c r="AA149" s="314"/>
-      <c r="AB149" s="315"/>
+      <c r="Z149" s="332"/>
+      <c r="AA149" s="332"/>
+      <c r="AB149" s="333"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Y123:AB123"/>
-    <mergeCell ref="Y124:AB124"/>
-    <mergeCell ref="Y125:AB125"/>
-    <mergeCell ref="Y126:AB126"/>
-    <mergeCell ref="Y127:AB127"/>
-    <mergeCell ref="Y128:AB128"/>
-    <mergeCell ref="Y129:AB129"/>
-    <mergeCell ref="Y130:AB130"/>
-    <mergeCell ref="Y131:AB131"/>
-    <mergeCell ref="Y132:AB132"/>
-    <mergeCell ref="Y133:AB133"/>
-    <mergeCell ref="Y134:AB134"/>
-    <mergeCell ref="Y135:AB135"/>
-    <mergeCell ref="Y136:AB136"/>
-    <mergeCell ref="Y137:AB137"/>
-    <mergeCell ref="Y138:AB138"/>
-    <mergeCell ref="Y139:AB139"/>
-    <mergeCell ref="Y140:AB140"/>
     <mergeCell ref="Y146:AB146"/>
     <mergeCell ref="Y147:AB147"/>
     <mergeCell ref="Y148:AB148"/>
@@ -22504,6 +22484,26 @@
     <mergeCell ref="Y143:AB143"/>
     <mergeCell ref="Y144:AB144"/>
     <mergeCell ref="Y145:AB145"/>
+    <mergeCell ref="Y136:AB136"/>
+    <mergeCell ref="Y137:AB137"/>
+    <mergeCell ref="Y138:AB138"/>
+    <mergeCell ref="Y139:AB139"/>
+    <mergeCell ref="Y140:AB140"/>
+    <mergeCell ref="Y131:AB131"/>
+    <mergeCell ref="Y132:AB132"/>
+    <mergeCell ref="Y133:AB133"/>
+    <mergeCell ref="Y134:AB134"/>
+    <mergeCell ref="Y135:AB135"/>
+    <mergeCell ref="Y126:AB126"/>
+    <mergeCell ref="Y127:AB127"/>
+    <mergeCell ref="Y128:AB128"/>
+    <mergeCell ref="Y129:AB129"/>
+    <mergeCell ref="Y130:AB130"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Y123:AB123"/>
+    <mergeCell ref="Y124:AB124"/>
+    <mergeCell ref="Y125:AB125"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -22564,18 +22564,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="397" t="s">
+      <c r="A2" s="405" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
+      <c r="B2" s="405"/>
+      <c r="C2" s="405"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
-      <c r="B3" s="398" t="s">
+      <c r="B3" s="406" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="398"/>
+      <c r="C3" s="406"/>
     </row>
     <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
@@ -28966,24 +28966,24 @@
       <c r="AV11" s="25"/>
     </row>
     <row r="12" spans="2:62" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C12" s="327" t="s">
+      <c r="C12" s="335" t="s">
         <v>316</v>
       </c>
-      <c r="D12" s="327"/>
-      <c r="E12" s="327"/>
-      <c r="F12" s="327"/>
-      <c r="G12" s="327" t="s">
+      <c r="D12" s="335"/>
+      <c r="E12" s="335"/>
+      <c r="F12" s="335"/>
+      <c r="G12" s="335" t="s">
         <v>315</v>
       </c>
-      <c r="H12" s="327"/>
-      <c r="I12" s="327"/>
-      <c r="J12" s="327"/>
-      <c r="K12" s="327" t="s">
+      <c r="H12" s="335"/>
+      <c r="I12" s="335"/>
+      <c r="J12" s="335"/>
+      <c r="K12" s="335" t="s">
         <v>317</v>
       </c>
-      <c r="L12" s="327"/>
-      <c r="M12" s="327"/>
-      <c r="N12" s="327"/>
+      <c r="L12" s="335"/>
+      <c r="M12" s="335"/>
+      <c r="N12" s="335"/>
       <c r="AE12" s="28"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
@@ -29007,30 +29007,30 @@
       <c r="B13" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="326" t="s">
+      <c r="C13" s="334" t="s">
         <v>318</v>
       </c>
-      <c r="D13" s="326"/>
-      <c r="E13" s="326" t="s">
+      <c r="D13" s="334"/>
+      <c r="E13" s="334" t="s">
         <v>319</v>
       </c>
-      <c r="F13" s="326"/>
-      <c r="G13" s="326" t="s">
+      <c r="F13" s="334"/>
+      <c r="G13" s="334" t="s">
         <v>320</v>
       </c>
-      <c r="H13" s="326"/>
-      <c r="I13" s="326" t="s">
+      <c r="H13" s="334"/>
+      <c r="I13" s="334" t="s">
         <v>321</v>
       </c>
-      <c r="J13" s="326"/>
-      <c r="K13" s="326" t="s">
+      <c r="J13" s="334"/>
+      <c r="K13" s="334" t="s">
         <v>322</v>
       </c>
-      <c r="L13" s="326"/>
-      <c r="M13" s="326" t="s">
+      <c r="L13" s="334"/>
+      <c r="M13" s="334" t="s">
         <v>323</v>
       </c>
-      <c r="N13" s="326"/>
+      <c r="N13" s="334"/>
       <c r="S13" s="15" t="str">
         <f>CONCATENATE("Todo en [",unidad,"]")</f>
         <v>Todo en [psi]</v>
@@ -33540,7 +33540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -33575,17 +33575,17 @@
       <c r="N2" s="92"/>
       <c r="O2" s="92"/>
       <c r="P2" s="92"/>
-      <c r="U2" s="331" t="s">
+      <c r="U2" s="339" t="s">
         <v>364</v>
       </c>
-      <c r="V2" s="331"/>
-      <c r="W2" s="331"/>
-      <c r="X2" s="331"/>
-      <c r="Y2" s="331"/>
-      <c r="Z2" s="331"/>
-      <c r="AA2" s="331"/>
-      <c r="AB2" s="331"/>
-      <c r="AC2" s="331"/>
+      <c r="V2" s="339"/>
+      <c r="W2" s="339"/>
+      <c r="X2" s="339"/>
+      <c r="Y2" s="339"/>
+      <c r="Z2" s="339"/>
+      <c r="AA2" s="339"/>
+      <c r="AB2" s="339"/>
+      <c r="AC2" s="339"/>
       <c r="AD2" s="290" t="s">
         <v>277</v>
       </c>
@@ -33724,21 +33724,21 @@
       <c r="E5" s="75">
         <v>30</v>
       </c>
-      <c r="U5" s="331" t="s">
+      <c r="U5" s="339" t="s">
         <v>364</v>
       </c>
-      <c r="V5" s="331"/>
-      <c r="W5" s="331"/>
-      <c r="X5" s="331"/>
-      <c r="Y5" s="331"/>
-      <c r="Z5" s="331"/>
-      <c r="AA5" s="331"/>
-      <c r="AB5" s="331"/>
-      <c r="AC5" s="332" t="str">
+      <c r="V5" s="339"/>
+      <c r="W5" s="339"/>
+      <c r="X5" s="339"/>
+      <c r="Y5" s="339"/>
+      <c r="Z5" s="339"/>
+      <c r="AA5" s="339"/>
+      <c r="AB5" s="339"/>
+      <c r="AC5" s="340" t="str">
         <f>CONCATENATE("Todo en [",unidad,"]")</f>
         <v>Todo en [psi]</v>
       </c>
-      <c r="AD5" s="332"/>
+      <c r="AD5" s="340"/>
       <c r="AG5" s="288" t="s">
         <v>277</v>
       </c>
@@ -33877,34 +33877,34 @@
       <c r="F8" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="402" t="s">
+      <c r="G8" s="313" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="402" t="s">
+      <c r="H8" s="313" t="s">
         <v>189</v>
       </c>
-      <c r="I8" s="402" t="s">
+      <c r="I8" s="313" t="s">
         <v>190</v>
       </c>
-      <c r="J8" s="402" t="s">
+      <c r="J8" s="313" t="s">
         <v>191</v>
       </c>
-      <c r="K8" s="402" t="s">
+      <c r="K8" s="313" t="s">
         <v>192</v>
       </c>
-      <c r="L8" s="402" t="s">
+      <c r="L8" s="313" t="s">
         <v>193</v>
       </c>
-      <c r="M8" s="402" t="s">
+      <c r="M8" s="313" t="s">
         <v>194</v>
       </c>
-      <c r="N8" s="402" t="s">
+      <c r="N8" s="313" t="s">
         <v>195</v>
       </c>
-      <c r="O8" s="402" t="s">
+      <c r="O8" s="313" t="s">
         <v>196</v>
       </c>
-      <c r="P8" s="402" t="s">
+      <c r="P8" s="313" t="s">
         <v>197</v>
       </c>
       <c r="AG8" s="288" t="s">
@@ -33919,7 +33919,7 @@
       </c>
     </row>
     <row r="9" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B9" s="399" t="s">
+      <c r="B9" s="310" t="s">
         <v>159</v>
       </c>
       <c r="C9" s="55" t="s">
@@ -33987,7 +33987,7 @@
       </c>
     </row>
     <row r="10" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B10" s="399" t="s">
+      <c r="B10" s="310" t="s">
         <v>175</v>
       </c>
       <c r="C10" s="55" t="s">
@@ -34054,7 +34054,7 @@
       </c>
     </row>
     <row r="11" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B11" s="399" t="s">
+      <c r="B11" s="310" t="s">
         <v>184</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -34122,7 +34122,7 @@
       </c>
     </row>
     <row r="12" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B12" s="399" t="s">
+      <c r="B12" s="310" t="s">
         <v>160</v>
       </c>
       <c r="C12" s="55" t="s">
@@ -34190,7 +34190,7 @@
       </c>
     </row>
     <row r="13" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B13" s="399" t="s">
+      <c r="B13" s="310" t="s">
         <v>363</v>
       </c>
       <c r="C13" s="55" t="s">
@@ -34258,7 +34258,7 @@
       </c>
     </row>
     <row r="14" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B14" s="400" t="s">
+      <c r="B14" s="311" t="s">
         <v>364</v>
       </c>
       <c r="C14" s="203" t="s">
@@ -34325,7 +34325,7 @@
       </c>
     </row>
     <row r="15" spans="2:35" ht="15" x14ac:dyDescent="0.3">
-      <c r="B15" s="399" t="s">
+      <c r="B15" s="310" t="s">
         <v>158</v>
       </c>
       <c r="C15" s="55" t="s">
@@ -34393,7 +34393,7 @@
       </c>
     </row>
     <row r="16" spans="2:35" ht="15" x14ac:dyDescent="0.3">
-      <c r="B16" s="399" t="s">
+      <c r="B16" s="310" t="s">
         <v>157</v>
       </c>
       <c r="C16" s="55" t="s">
@@ -34461,7 +34461,7 @@
       </c>
     </row>
     <row r="17" spans="2:35" ht="15" x14ac:dyDescent="0.3">
-      <c r="B17" s="401" t="s">
+      <c r="B17" s="312" t="s">
         <v>384</v>
       </c>
       <c r="C17" s="55" t="s">
@@ -34529,7 +34529,7 @@
       </c>
     </row>
     <row r="18" spans="2:35" ht="15" x14ac:dyDescent="0.3">
-      <c r="B18" s="400" t="s">
+      <c r="B18" s="311" t="s">
         <v>386</v>
       </c>
       <c r="C18" s="55" t="s">
@@ -34587,20 +34587,20 @@
       </c>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B19" s="399" t="s">
+      <c r="B19" s="310" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="403" t="s">
+      <c r="C19" s="314" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="404" t="s">
+      <c r="D19" s="315" t="s">
         <v>246</v>
       </c>
-      <c r="E19" s="405" t="str">
+      <c r="E19" s="316" t="str">
         <f>CONCATENATE("Todo en [psi]")</f>
         <v>Todo en [psi]</v>
       </c>
-      <c r="F19" s="406"/>
+      <c r="F19" s="317"/>
       <c r="G19" s="102">
         <f t="shared" ref="G19:P19" ca="1" si="2">SQRT(SUMSQ(G9:G18))</f>
         <v>0</v>
@@ -35877,30 +35877,30 @@
       </c>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C68" s="328" t="s">
+      <c r="C68" s="336" t="s">
         <v>702</v>
       </c>
-      <c r="D68" s="329"/>
-      <c r="E68" s="329"/>
-      <c r="F68" s="329"/>
-      <c r="G68" s="329"/>
-      <c r="H68" s="329"/>
-      <c r="I68" s="329"/>
-      <c r="J68" s="329"/>
-      <c r="K68" s="329"/>
-      <c r="L68" s="329"/>
-      <c r="M68" s="329"/>
-      <c r="N68" s="329"/>
-      <c r="O68" s="329"/>
-      <c r="P68" s="329"/>
-      <c r="Q68" s="329"/>
-      <c r="R68" s="329"/>
-      <c r="S68" s="329"/>
-      <c r="T68" s="329"/>
-      <c r="U68" s="329"/>
-      <c r="V68" s="329"/>
-      <c r="W68" s="329"/>
-      <c r="X68" s="330"/>
+      <c r="D68" s="337"/>
+      <c r="E68" s="337"/>
+      <c r="F68" s="337"/>
+      <c r="G68" s="337"/>
+      <c r="H68" s="337"/>
+      <c r="I68" s="337"/>
+      <c r="J68" s="337"/>
+      <c r="K68" s="337"/>
+      <c r="L68" s="337"/>
+      <c r="M68" s="337"/>
+      <c r="N68" s="337"/>
+      <c r="O68" s="337"/>
+      <c r="P68" s="337"/>
+      <c r="Q68" s="337"/>
+      <c r="R68" s="337"/>
+      <c r="S68" s="337"/>
+      <c r="T68" s="337"/>
+      <c r="U68" s="337"/>
+      <c r="V68" s="337"/>
+      <c r="W68" s="337"/>
+      <c r="X68" s="338"/>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C69" s="286" t="s">
@@ -36156,8 +36156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A6:Y116"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="B62" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T80" sqref="T80:U80"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B64" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36203,20 +36203,20 @@
       <c r="K8" s="227"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="333" t="str">
+      <c r="N8" s="374" t="str">
         <f>General!F3</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O8" s="334"/>
-      <c r="P8" s="334"/>
-      <c r="Q8" s="334"/>
-      <c r="R8" s="334"/>
-      <c r="S8" s="334"/>
-      <c r="T8" s="334"/>
-      <c r="U8" s="334"/>
-      <c r="V8" s="334"/>
-      <c r="W8" s="334"/>
-      <c r="X8" s="334"/>
+      <c r="O8" s="362"/>
+      <c r="P8" s="362"/>
+      <c r="Q8" s="362"/>
+      <c r="R8" s="362"/>
+      <c r="S8" s="362"/>
+      <c r="T8" s="362"/>
+      <c r="U8" s="362"/>
+      <c r="V8" s="362"/>
+      <c r="W8" s="362"/>
+      <c r="X8" s="362"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="224" t="s">
@@ -36233,20 +36233,20 @@
       <c r="K9" s="227"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="335" t="str">
+      <c r="N9" s="373" t="str">
         <f>General!F4</f>
         <v>NI-CS-XXXX-XX</v>
       </c>
-      <c r="O9" s="336"/>
-      <c r="P9" s="336"/>
-      <c r="Q9" s="336"/>
-      <c r="R9" s="336"/>
-      <c r="S9" s="336"/>
-      <c r="T9" s="336"/>
-      <c r="U9" s="336"/>
-      <c r="V9" s="336"/>
-      <c r="W9" s="336"/>
-      <c r="X9" s="336"/>
+      <c r="O9" s="364"/>
+      <c r="P9" s="364"/>
+      <c r="Q9" s="364"/>
+      <c r="R9" s="364"/>
+      <c r="S9" s="364"/>
+      <c r="T9" s="364"/>
+      <c r="U9" s="364"/>
+      <c r="V9" s="364"/>
+      <c r="W9" s="364"/>
+      <c r="X9" s="364"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="224" t="s">
@@ -36263,20 +36263,20 @@
       <c r="K10" s="227"/>
       <c r="L10" s="228"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="337">
+      <c r="N10" s="375">
         <f>General!F5</f>
         <v>43299</v>
       </c>
-      <c r="O10" s="337"/>
-      <c r="P10" s="337"/>
-      <c r="Q10" s="337"/>
-      <c r="R10" s="337"/>
-      <c r="S10" s="337"/>
-      <c r="T10" s="337"/>
-      <c r="U10" s="337"/>
-      <c r="V10" s="337"/>
-      <c r="W10" s="337"/>
-      <c r="X10" s="337"/>
+      <c r="O10" s="375"/>
+      <c r="P10" s="375"/>
+      <c r="Q10" s="375"/>
+      <c r="R10" s="375"/>
+      <c r="S10" s="375"/>
+      <c r="T10" s="375"/>
+      <c r="U10" s="375"/>
+      <c r="V10" s="375"/>
+      <c r="W10" s="375"/>
+      <c r="X10" s="375"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="224" t="s">
@@ -36293,13 +36293,13 @@
       <c r="K11" s="227"/>
       <c r="L11" s="228"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="337">
+      <c r="N11" s="375">
         <f ca="1">NOW()</f>
-        <v>45483.458301967592</v>
-      </c>
-      <c r="O11" s="337"/>
-      <c r="P11" s="337"/>
-      <c r="Q11" s="337"/>
+        <v>45489.709634606479</v>
+      </c>
+      <c r="O11" s="375"/>
+      <c r="P11" s="375"/>
+      <c r="Q11" s="375"/>
       <c r="R11" s="279"/>
       <c r="S11" s="279"/>
       <c r="T11" s="279"/>
@@ -36323,20 +36323,20 @@
       <c r="K12" s="227"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="335" t="str">
+      <c r="N12" s="373" t="str">
         <f>General!F7</f>
         <v xml:space="preserve">Manómetro </v>
       </c>
-      <c r="O12" s="336"/>
-      <c r="P12" s="336"/>
-      <c r="Q12" s="336"/>
-      <c r="R12" s="336"/>
-      <c r="S12" s="336"/>
-      <c r="T12" s="336"/>
-      <c r="U12" s="336"/>
-      <c r="V12" s="336"/>
-      <c r="W12" s="336"/>
-      <c r="X12" s="336"/>
+      <c r="O12" s="364"/>
+      <c r="P12" s="364"/>
+      <c r="Q12" s="364"/>
+      <c r="R12" s="364"/>
+      <c r="S12" s="364"/>
+      <c r="T12" s="364"/>
+      <c r="U12" s="364"/>
+      <c r="V12" s="364"/>
+      <c r="W12" s="364"/>
+      <c r="X12" s="364"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="224" t="s">
@@ -36353,20 +36353,20 @@
       <c r="K13" s="227"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="335" t="str">
+      <c r="N13" s="373" t="str">
         <f>General!F10</f>
         <v>HEISE</v>
       </c>
-      <c r="O13" s="336"/>
-      <c r="P13" s="336"/>
-      <c r="Q13" s="336"/>
-      <c r="R13" s="336"/>
-      <c r="S13" s="336"/>
-      <c r="T13" s="336"/>
-      <c r="U13" s="336"/>
-      <c r="V13" s="336"/>
-      <c r="W13" s="336"/>
-      <c r="X13" s="336"/>
+      <c r="O13" s="364"/>
+      <c r="P13" s="364"/>
+      <c r="Q13" s="364"/>
+      <c r="R13" s="364"/>
+      <c r="S13" s="364"/>
+      <c r="T13" s="364"/>
+      <c r="U13" s="364"/>
+      <c r="V13" s="364"/>
+      <c r="W13" s="364"/>
+      <c r="X13" s="364"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="224" t="s">
@@ -36383,20 +36383,20 @@
       <c r="K14" s="227"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="335" t="str">
+      <c r="N14" s="373" t="str">
         <f>General!F12</f>
         <v>706340</v>
       </c>
-      <c r="O14" s="336"/>
-      <c r="P14" s="336"/>
-      <c r="Q14" s="336"/>
-      <c r="R14" s="336"/>
-      <c r="S14" s="336"/>
-      <c r="T14" s="336"/>
-      <c r="U14" s="336"/>
-      <c r="V14" s="336"/>
-      <c r="W14" s="336"/>
-      <c r="X14" s="336"/>
+      <c r="O14" s="364"/>
+      <c r="P14" s="364"/>
+      <c r="Q14" s="364"/>
+      <c r="R14" s="364"/>
+      <c r="S14" s="364"/>
+      <c r="T14" s="364"/>
+      <c r="U14" s="364"/>
+      <c r="V14" s="364"/>
+      <c r="W14" s="364"/>
+      <c r="X14" s="364"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="224" t="s">
@@ -36413,20 +36413,20 @@
       <c r="K15" s="227"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="335" t="str">
+      <c r="N15" s="373" t="str">
         <f>General!F11</f>
         <v>CC</v>
       </c>
-      <c r="O15" s="336"/>
-      <c r="P15" s="336"/>
-      <c r="Q15" s="336"/>
-      <c r="R15" s="336"/>
-      <c r="S15" s="336"/>
-      <c r="T15" s="336"/>
-      <c r="U15" s="336"/>
-      <c r="V15" s="336"/>
-      <c r="W15" s="336"/>
-      <c r="X15" s="336"/>
+      <c r="O15" s="364"/>
+      <c r="P15" s="364"/>
+      <c r="Q15" s="364"/>
+      <c r="R15" s="364"/>
+      <c r="S15" s="364"/>
+      <c r="T15" s="364"/>
+      <c r="U15" s="364"/>
+      <c r="V15" s="364"/>
+      <c r="W15" s="364"/>
+      <c r="X15" s="364"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="224" t="s">
@@ -36443,20 +36443,20 @@
       <c r="K16" s="227"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="335" t="str">
+      <c r="N16" s="373" t="str">
         <f>General!F18</f>
         <v>0 psi a 200 psi</v>
       </c>
-      <c r="O16" s="336"/>
-      <c r="P16" s="336"/>
-      <c r="Q16" s="336"/>
-      <c r="R16" s="336"/>
-      <c r="S16" s="336"/>
-      <c r="T16" s="336"/>
-      <c r="U16" s="336"/>
-      <c r="V16" s="336"/>
-      <c r="W16" s="336"/>
-      <c r="X16" s="336"/>
+      <c r="O16" s="364"/>
+      <c r="P16" s="364"/>
+      <c r="Q16" s="364"/>
+      <c r="R16" s="364"/>
+      <c r="S16" s="364"/>
+      <c r="T16" s="364"/>
+      <c r="U16" s="364"/>
+      <c r="V16" s="364"/>
+      <c r="W16" s="364"/>
+      <c r="X16" s="364"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="224" t="s">
@@ -36473,16 +36473,16 @@
       <c r="K17" s="227"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="335" t="str">
+      <c r="N17" s="373" t="str">
         <f>General!F15</f>
         <v>1</v>
       </c>
-      <c r="O17" s="336"/>
-      <c r="P17" s="335" t="str">
+      <c r="O17" s="364"/>
+      <c r="P17" s="373" t="str">
         <f>General!F16</f>
         <v>psi</v>
       </c>
-      <c r="Q17" s="336"/>
+      <c r="Q17" s="364"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -36506,20 +36506,20 @@
       <c r="K18" s="227"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="335" t="str">
+      <c r="N18" s="373" t="str">
         <f>General!F6</f>
         <v>706340</v>
       </c>
-      <c r="O18" s="336"/>
-      <c r="P18" s="336"/>
-      <c r="Q18" s="336"/>
-      <c r="R18" s="336"/>
-      <c r="S18" s="336"/>
-      <c r="T18" s="336"/>
-      <c r="U18" s="336"/>
-      <c r="V18" s="336"/>
-      <c r="W18" s="336"/>
-      <c r="X18" s="336"/>
+      <c r="O18" s="364"/>
+      <c r="P18" s="364"/>
+      <c r="Q18" s="364"/>
+      <c r="R18" s="364"/>
+      <c r="S18" s="364"/>
+      <c r="T18" s="364"/>
+      <c r="U18" s="364"/>
+      <c r="V18" s="364"/>
+      <c r="W18" s="364"/>
+      <c r="X18" s="364"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="224" t="s">
@@ -36536,20 +36536,20 @@
       <c r="K19" s="227"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="335" t="str">
+      <c r="N19" s="373" t="str">
         <f>General!L3</f>
         <v xml:space="preserve">A&amp;T Nicaragua S.A. </v>
       </c>
-      <c r="O19" s="336"/>
-      <c r="P19" s="336"/>
-      <c r="Q19" s="336"/>
-      <c r="R19" s="336"/>
-      <c r="S19" s="336"/>
-      <c r="T19" s="336"/>
-      <c r="U19" s="336"/>
-      <c r="V19" s="336"/>
-      <c r="W19" s="336"/>
-      <c r="X19" s="336"/>
+      <c r="O19" s="364"/>
+      <c r="P19" s="364"/>
+      <c r="Q19" s="364"/>
+      <c r="R19" s="364"/>
+      <c r="S19" s="364"/>
+      <c r="T19" s="364"/>
+      <c r="U19" s="364"/>
+      <c r="V19" s="364"/>
+      <c r="W19" s="364"/>
+      <c r="X19" s="364"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
@@ -36566,20 +36566,20 @@
       <c r="K20" s="227"/>
       <c r="L20" s="10"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="336" t="str">
+      <c r="N20" s="364" t="str">
         <f>General!L4</f>
         <v xml:space="preserve">Coyotepe, 800 m norte               </v>
       </c>
-      <c r="O20" s="336"/>
-      <c r="P20" s="336"/>
-      <c r="Q20" s="336"/>
-      <c r="R20" s="336"/>
-      <c r="S20" s="336"/>
-      <c r="T20" s="336"/>
-      <c r="U20" s="336"/>
-      <c r="V20" s="336"/>
-      <c r="W20" s="336"/>
-      <c r="X20" s="336"/>
+      <c r="O20" s="364"/>
+      <c r="P20" s="364"/>
+      <c r="Q20" s="364"/>
+      <c r="R20" s="364"/>
+      <c r="S20" s="364"/>
+      <c r="T20" s="364"/>
+      <c r="U20" s="364"/>
+      <c r="V20" s="364"/>
+      <c r="W20" s="364"/>
+      <c r="X20" s="364"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="224" t="s">
@@ -36596,34 +36596,34 @@
       <c r="K21" s="227"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="338" t="str">
+      <c r="N21" s="376" t="str">
         <f>General!L6</f>
         <v xml:space="preserve">Laboratorio #2 Metrocal </v>
       </c>
-      <c r="O21" s="338"/>
-      <c r="P21" s="338"/>
-      <c r="Q21" s="338"/>
-      <c r="R21" s="338"/>
-      <c r="S21" s="338"/>
-      <c r="T21" s="338"/>
-      <c r="U21" s="338"/>
-      <c r="V21" s="338"/>
-      <c r="W21" s="338"/>
-      <c r="X21" s="338"/>
+      <c r="O21" s="376"/>
+      <c r="P21" s="376"/>
+      <c r="Q21" s="376"/>
+      <c r="R21" s="376"/>
+      <c r="S21" s="376"/>
+      <c r="T21" s="376"/>
+      <c r="U21" s="376"/>
+      <c r="V21" s="376"/>
+      <c r="W21" s="376"/>
+      <c r="X21" s="376"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="224"/>
-      <c r="N22" s="338"/>
-      <c r="O22" s="338"/>
-      <c r="P22" s="338"/>
-      <c r="Q22" s="338"/>
-      <c r="R22" s="338"/>
-      <c r="S22" s="338"/>
-      <c r="T22" s="338"/>
-      <c r="U22" s="338"/>
-      <c r="V22" s="338"/>
-      <c r="W22" s="338"/>
-      <c r="X22" s="338"/>
+      <c r="N22" s="376"/>
+      <c r="O22" s="376"/>
+      <c r="P22" s="376"/>
+      <c r="Q22" s="376"/>
+      <c r="R22" s="376"/>
+      <c r="S22" s="376"/>
+      <c r="T22" s="376"/>
+      <c r="U22" s="376"/>
+      <c r="V22" s="376"/>
+      <c r="W22" s="376"/>
+      <c r="X22" s="376"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="224" t="s">
@@ -36638,442 +36638,478 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="339" t="s">
+      <c r="D24" s="366" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="339"/>
-      <c r="F24" s="339"/>
-      <c r="G24" s="339"/>
-      <c r="H24" s="339"/>
-      <c r="I24" s="339"/>
-      <c r="J24" s="339"/>
-      <c r="K24" s="339"/>
-      <c r="L24" s="339"/>
-      <c r="M24" s="339"/>
-      <c r="N24" s="339"/>
-      <c r="O24" s="339"/>
-      <c r="P24" s="339"/>
-      <c r="Q24" s="339"/>
-      <c r="R24" s="339"/>
-      <c r="S24" s="339"/>
-      <c r="T24" s="339"/>
-      <c r="U24" s="339"/>
-      <c r="V24" s="339"/>
-      <c r="W24" s="339"/>
+      <c r="E24" s="366"/>
+      <c r="F24" s="366"/>
+      <c r="G24" s="366"/>
+      <c r="H24" s="366"/>
+      <c r="I24" s="366"/>
+      <c r="J24" s="366"/>
+      <c r="K24" s="366"/>
+      <c r="L24" s="366"/>
+      <c r="M24" s="366"/>
+      <c r="N24" s="366"/>
+      <c r="O24" s="366"/>
+      <c r="P24" s="366"/>
+      <c r="Q24" s="366"/>
+      <c r="R24" s="366"/>
+      <c r="S24" s="366"/>
+      <c r="T24" s="366"/>
+      <c r="U24" s="366"/>
+      <c r="V24" s="366"/>
+      <c r="W24" s="366"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="340" t="s">
+      <c r="D25" s="367" t="s">
         <v>360</v>
       </c>
-      <c r="E25" s="340"/>
-      <c r="F25" s="341" t="s">
+      <c r="E25" s="367"/>
+      <c r="F25" s="368" t="s">
         <v>425</v>
       </c>
-      <c r="G25" s="341"/>
-      <c r="H25" s="341"/>
-      <c r="I25" s="341"/>
-      <c r="J25" s="341"/>
-      <c r="K25" s="341"/>
-      <c r="L25" s="341" t="s">
+      <c r="G25" s="368"/>
+      <c r="H25" s="368"/>
+      <c r="I25" s="368"/>
+      <c r="J25" s="368"/>
+      <c r="K25" s="368"/>
+      <c r="L25" s="368" t="s">
         <v>96</v>
       </c>
-      <c r="M25" s="341"/>
-      <c r="N25" s="341"/>
-      <c r="O25" s="341"/>
-      <c r="P25" s="341"/>
-      <c r="Q25" s="341"/>
-      <c r="R25" s="340" t="s">
+      <c r="M25" s="368"/>
+      <c r="N25" s="368"/>
+      <c r="O25" s="368"/>
+      <c r="P25" s="368"/>
+      <c r="Q25" s="368"/>
+      <c r="R25" s="367" t="s">
         <v>426</v>
       </c>
-      <c r="S25" s="340"/>
-      <c r="T25" s="340"/>
-      <c r="U25" s="340"/>
-      <c r="V25" s="340"/>
-      <c r="W25" s="340"/>
+      <c r="S25" s="367"/>
+      <c r="T25" s="367"/>
+      <c r="U25" s="367"/>
+      <c r="V25" s="367"/>
+      <c r="W25" s="367"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="340"/>
-      <c r="E26" s="340"/>
-      <c r="F26" s="341"/>
-      <c r="G26" s="341"/>
-      <c r="H26" s="341"/>
-      <c r="I26" s="341"/>
-      <c r="J26" s="341"/>
-      <c r="K26" s="341"/>
-      <c r="L26" s="341"/>
-      <c r="M26" s="341"/>
-      <c r="N26" s="341"/>
-      <c r="O26" s="341"/>
-      <c r="P26" s="341"/>
-      <c r="Q26" s="341"/>
-      <c r="R26" s="340"/>
-      <c r="S26" s="340"/>
-      <c r="T26" s="340"/>
-      <c r="U26" s="340"/>
-      <c r="V26" s="340"/>
-      <c r="W26" s="340"/>
+      <c r="D26" s="367"/>
+      <c r="E26" s="367"/>
+      <c r="F26" s="368"/>
+      <c r="G26" s="368"/>
+      <c r="H26" s="368"/>
+      <c r="I26" s="368"/>
+      <c r="J26" s="368"/>
+      <c r="K26" s="368"/>
+      <c r="L26" s="368"/>
+      <c r="M26" s="368"/>
+      <c r="N26" s="368"/>
+      <c r="O26" s="368"/>
+      <c r="P26" s="368"/>
+      <c r="Q26" s="368"/>
+      <c r="R26" s="367"/>
+      <c r="S26" s="367"/>
+      <c r="T26" s="367"/>
+      <c r="U26" s="367"/>
+      <c r="V26" s="367"/>
+      <c r="W26" s="367"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="346" t="str">
+      <c r="D27" s="369" t="str">
         <f>Calibración!C37</f>
         <v>psi</v>
       </c>
-      <c r="E27" s="346"/>
-      <c r="F27" s="347" t="str">
+      <c r="E27" s="369"/>
+      <c r="F27" s="370" t="str">
         <f>Calibración!D37</f>
         <v>psi</v>
       </c>
-      <c r="G27" s="348"/>
-      <c r="H27" s="348"/>
-      <c r="I27" s="348"/>
-      <c r="J27" s="348"/>
-      <c r="K27" s="349"/>
-      <c r="L27" s="347" t="str">
+      <c r="G27" s="371"/>
+      <c r="H27" s="371"/>
+      <c r="I27" s="371"/>
+      <c r="J27" s="371"/>
+      <c r="K27" s="372"/>
+      <c r="L27" s="370" t="str">
         <f>Calibración!E37</f>
         <v>psi</v>
       </c>
-      <c r="M27" s="348"/>
-      <c r="N27" s="348"/>
-      <c r="O27" s="348"/>
-      <c r="P27" s="348"/>
-      <c r="Q27" s="349"/>
-      <c r="R27" s="347" t="str">
+      <c r="M27" s="371"/>
+      <c r="N27" s="371"/>
+      <c r="O27" s="371"/>
+      <c r="P27" s="371"/>
+      <c r="Q27" s="372"/>
+      <c r="R27" s="370" t="str">
         <f>Calibración!F37</f>
         <v>psi</v>
       </c>
-      <c r="S27" s="348"/>
-      <c r="T27" s="348"/>
-      <c r="U27" s="348"/>
-      <c r="V27" s="348"/>
-      <c r="W27" s="349"/>
+      <c r="S27" s="371"/>
+      <c r="T27" s="371"/>
+      <c r="U27" s="371"/>
+      <c r="V27" s="371"/>
+      <c r="W27" s="372"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="342" t="str">
+      <c r="D28" s="358" t="str">
         <f ca="1">Calibración!C38</f>
         <v/>
       </c>
-      <c r="E28" s="342"/>
-      <c r="F28" s="343" t="str">
+      <c r="E28" s="358"/>
+      <c r="F28" s="359" t="str">
         <f ca="1">Calibración!D38</f>
         <v/>
       </c>
-      <c r="G28" s="344"/>
-      <c r="H28" s="344"/>
-      <c r="I28" s="344"/>
-      <c r="J28" s="344"/>
-      <c r="K28" s="345"/>
-      <c r="L28" s="343" t="str">
+      <c r="G28" s="360"/>
+      <c r="H28" s="360"/>
+      <c r="I28" s="360"/>
+      <c r="J28" s="360"/>
+      <c r="K28" s="361"/>
+      <c r="L28" s="359" t="str">
         <f ca="1">Calibración!E38</f>
         <v/>
       </c>
-      <c r="M28" s="344"/>
-      <c r="N28" s="344"/>
-      <c r="O28" s="344"/>
-      <c r="P28" s="344"/>
-      <c r="Q28" s="345"/>
-      <c r="R28" s="343" t="str">
+      <c r="M28" s="360"/>
+      <c r="N28" s="360"/>
+      <c r="O28" s="360"/>
+      <c r="P28" s="360"/>
+      <c r="Q28" s="361"/>
+      <c r="R28" s="359" t="str">
         <f ca="1">Calibración!F38</f>
         <v/>
       </c>
-      <c r="S28" s="344"/>
-      <c r="T28" s="344"/>
-      <c r="U28" s="344"/>
-      <c r="V28" s="344"/>
-      <c r="W28" s="345"/>
+      <c r="S28" s="360"/>
+      <c r="T28" s="360"/>
+      <c r="U28" s="360"/>
+      <c r="V28" s="360"/>
+      <c r="W28" s="361"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="342" t="str">
+      <c r="D29" s="358" t="str">
         <f ca="1">Calibración!C39</f>
         <v/>
       </c>
-      <c r="E29" s="342"/>
-      <c r="F29" s="343" t="str">
+      <c r="E29" s="358"/>
+      <c r="F29" s="359" t="str">
         <f ca="1">Calibración!D39</f>
         <v/>
       </c>
-      <c r="G29" s="344"/>
-      <c r="H29" s="344"/>
-      <c r="I29" s="344"/>
-      <c r="J29" s="344"/>
-      <c r="K29" s="345"/>
-      <c r="L29" s="343" t="str">
+      <c r="G29" s="360"/>
+      <c r="H29" s="360"/>
+      <c r="I29" s="360"/>
+      <c r="J29" s="360"/>
+      <c r="K29" s="361"/>
+      <c r="L29" s="359" t="str">
         <f ca="1">Calibración!E39</f>
         <v/>
       </c>
-      <c r="M29" s="344"/>
-      <c r="N29" s="344"/>
-      <c r="O29" s="344"/>
-      <c r="P29" s="344"/>
-      <c r="Q29" s="345"/>
-      <c r="R29" s="343" t="str">
+      <c r="M29" s="360"/>
+      <c r="N29" s="360"/>
+      <c r="O29" s="360"/>
+      <c r="P29" s="360"/>
+      <c r="Q29" s="361"/>
+      <c r="R29" s="359" t="str">
         <f ca="1">Calibración!F39</f>
         <v/>
       </c>
-      <c r="S29" s="344"/>
-      <c r="T29" s="344"/>
-      <c r="U29" s="344"/>
-      <c r="V29" s="344"/>
-      <c r="W29" s="345"/>
+      <c r="S29" s="360"/>
+      <c r="T29" s="360"/>
+      <c r="U29" s="360"/>
+      <c r="V29" s="360"/>
+      <c r="W29" s="361"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="342" t="str">
+      <c r="D30" s="358" t="str">
         <f ca="1">Calibración!C40</f>
         <v/>
       </c>
-      <c r="E30" s="342"/>
-      <c r="F30" s="343" t="str">
+      <c r="E30" s="358"/>
+      <c r="F30" s="359" t="str">
         <f ca="1">Calibración!D40</f>
         <v/>
       </c>
-      <c r="G30" s="344"/>
-      <c r="H30" s="344"/>
-      <c r="I30" s="344"/>
-      <c r="J30" s="344"/>
-      <c r="K30" s="345"/>
-      <c r="L30" s="343" t="str">
+      <c r="G30" s="360"/>
+      <c r="H30" s="360"/>
+      <c r="I30" s="360"/>
+      <c r="J30" s="360"/>
+      <c r="K30" s="361"/>
+      <c r="L30" s="359" t="str">
         <f ca="1">Calibración!E40</f>
         <v/>
       </c>
-      <c r="M30" s="344"/>
-      <c r="N30" s="344"/>
-      <c r="O30" s="344"/>
-      <c r="P30" s="344"/>
-      <c r="Q30" s="345"/>
-      <c r="R30" s="343" t="str">
+      <c r="M30" s="360"/>
+      <c r="N30" s="360"/>
+      <c r="O30" s="360"/>
+      <c r="P30" s="360"/>
+      <c r="Q30" s="361"/>
+      <c r="R30" s="359" t="str">
         <f ca="1">Calibración!F40</f>
         <v/>
       </c>
-      <c r="S30" s="344"/>
-      <c r="T30" s="344"/>
-      <c r="U30" s="344"/>
-      <c r="V30" s="344"/>
-      <c r="W30" s="345"/>
+      <c r="S30" s="360"/>
+      <c r="T30" s="360"/>
+      <c r="U30" s="360"/>
+      <c r="V30" s="360"/>
+      <c r="W30" s="361"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="342" t="str">
+      <c r="D31" s="358" t="str">
         <f ca="1">Calibración!C41</f>
         <v/>
       </c>
-      <c r="E31" s="342"/>
-      <c r="F31" s="343" t="str">
+      <c r="E31" s="358"/>
+      <c r="F31" s="359" t="str">
         <f ca="1">Calibración!D41</f>
         <v/>
       </c>
-      <c r="G31" s="344"/>
-      <c r="H31" s="344"/>
-      <c r="I31" s="344"/>
-      <c r="J31" s="344"/>
-      <c r="K31" s="345"/>
-      <c r="L31" s="343" t="str">
+      <c r="G31" s="360"/>
+      <c r="H31" s="360"/>
+      <c r="I31" s="360"/>
+      <c r="J31" s="360"/>
+      <c r="K31" s="361"/>
+      <c r="L31" s="359" t="str">
         <f ca="1">Calibración!E41</f>
         <v/>
       </c>
-      <c r="M31" s="344"/>
-      <c r="N31" s="344"/>
-      <c r="O31" s="344"/>
-      <c r="P31" s="344"/>
-      <c r="Q31" s="345"/>
-      <c r="R31" s="343" t="str">
+      <c r="M31" s="360"/>
+      <c r="N31" s="360"/>
+      <c r="O31" s="360"/>
+      <c r="P31" s="360"/>
+      <c r="Q31" s="361"/>
+      <c r="R31" s="359" t="str">
         <f ca="1">Calibración!F41</f>
         <v/>
       </c>
-      <c r="S31" s="344"/>
-      <c r="T31" s="344"/>
-      <c r="U31" s="344"/>
-      <c r="V31" s="344"/>
-      <c r="W31" s="345"/>
+      <c r="S31" s="360"/>
+      <c r="T31" s="360"/>
+      <c r="U31" s="360"/>
+      <c r="V31" s="360"/>
+      <c r="W31" s="361"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="342" t="str">
+      <c r="D32" s="358" t="str">
         <f ca="1">Calibración!C42</f>
         <v/>
       </c>
-      <c r="E32" s="342"/>
-      <c r="F32" s="343" t="str">
+      <c r="E32" s="358"/>
+      <c r="F32" s="359" t="str">
         <f ca="1">Calibración!D42</f>
         <v/>
       </c>
-      <c r="G32" s="344"/>
-      <c r="H32" s="344"/>
-      <c r="I32" s="344"/>
-      <c r="J32" s="344"/>
-      <c r="K32" s="345"/>
-      <c r="L32" s="343" t="str">
+      <c r="G32" s="360"/>
+      <c r="H32" s="360"/>
+      <c r="I32" s="360"/>
+      <c r="J32" s="360"/>
+      <c r="K32" s="361"/>
+      <c r="L32" s="359" t="str">
         <f ca="1">Calibración!E42</f>
         <v/>
       </c>
-      <c r="M32" s="344"/>
-      <c r="N32" s="344"/>
-      <c r="O32" s="344"/>
-      <c r="P32" s="344"/>
-      <c r="Q32" s="345"/>
-      <c r="R32" s="343" t="str">
+      <c r="M32" s="360"/>
+      <c r="N32" s="360"/>
+      <c r="O32" s="360"/>
+      <c r="P32" s="360"/>
+      <c r="Q32" s="361"/>
+      <c r="R32" s="359" t="str">
         <f ca="1">Calibración!F42</f>
         <v/>
       </c>
-      <c r="S32" s="344"/>
-      <c r="T32" s="344"/>
-      <c r="U32" s="344"/>
-      <c r="V32" s="344"/>
-      <c r="W32" s="345"/>
+      <c r="S32" s="360"/>
+      <c r="T32" s="360"/>
+      <c r="U32" s="360"/>
+      <c r="V32" s="360"/>
+      <c r="W32" s="361"/>
     </row>
     <row r="33" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D33" s="342" t="str">
+      <c r="D33" s="358" t="str">
         <f ca="1">Calibración!C43</f>
         <v/>
       </c>
-      <c r="E33" s="342"/>
-      <c r="F33" s="343" t="str">
+      <c r="E33" s="358"/>
+      <c r="F33" s="359" t="str">
         <f ca="1">Calibración!D43</f>
         <v/>
       </c>
-      <c r="G33" s="344"/>
-      <c r="H33" s="344"/>
-      <c r="I33" s="344"/>
-      <c r="J33" s="344"/>
-      <c r="K33" s="345"/>
-      <c r="L33" s="343" t="str">
+      <c r="G33" s="360"/>
+      <c r="H33" s="360"/>
+      <c r="I33" s="360"/>
+      <c r="J33" s="360"/>
+      <c r="K33" s="361"/>
+      <c r="L33" s="359" t="str">
         <f ca="1">Calibración!E43</f>
         <v/>
       </c>
-      <c r="M33" s="344"/>
-      <c r="N33" s="344"/>
-      <c r="O33" s="344"/>
-      <c r="P33" s="344"/>
-      <c r="Q33" s="345"/>
-      <c r="R33" s="343" t="str">
+      <c r="M33" s="360"/>
+      <c r="N33" s="360"/>
+      <c r="O33" s="360"/>
+      <c r="P33" s="360"/>
+      <c r="Q33" s="361"/>
+      <c r="R33" s="359" t="str">
         <f ca="1">Calibración!F43</f>
         <v/>
       </c>
-      <c r="S33" s="344"/>
-      <c r="T33" s="344"/>
-      <c r="U33" s="344"/>
-      <c r="V33" s="344"/>
-      <c r="W33" s="345"/>
+      <c r="S33" s="360"/>
+      <c r="T33" s="360"/>
+      <c r="U33" s="360"/>
+      <c r="V33" s="360"/>
+      <c r="W33" s="361"/>
     </row>
     <row r="34" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D34" s="342" t="str">
+      <c r="D34" s="358" t="str">
         <f ca="1">Calibración!C44</f>
         <v/>
       </c>
-      <c r="E34" s="342"/>
-      <c r="F34" s="343" t="str">
+      <c r="E34" s="358"/>
+      <c r="F34" s="359" t="str">
         <f ca="1">Calibración!D44</f>
         <v/>
       </c>
-      <c r="G34" s="344"/>
-      <c r="H34" s="344"/>
-      <c r="I34" s="344"/>
-      <c r="J34" s="344"/>
-      <c r="K34" s="345"/>
-      <c r="L34" s="343" t="str">
+      <c r="G34" s="360"/>
+      <c r="H34" s="360"/>
+      <c r="I34" s="360"/>
+      <c r="J34" s="360"/>
+      <c r="K34" s="361"/>
+      <c r="L34" s="359" t="str">
         <f ca="1">Calibración!E44</f>
         <v/>
       </c>
-      <c r="M34" s="344"/>
-      <c r="N34" s="344"/>
-      <c r="O34" s="344"/>
-      <c r="P34" s="344"/>
-      <c r="Q34" s="345"/>
-      <c r="R34" s="343" t="str">
+      <c r="M34" s="360"/>
+      <c r="N34" s="360"/>
+      <c r="O34" s="360"/>
+      <c r="P34" s="360"/>
+      <c r="Q34" s="361"/>
+      <c r="R34" s="359" t="str">
         <f ca="1">Calibración!F44</f>
         <v/>
       </c>
-      <c r="S34" s="344"/>
-      <c r="T34" s="344"/>
-      <c r="U34" s="344"/>
-      <c r="V34" s="344"/>
-      <c r="W34" s="345"/>
+      <c r="S34" s="360"/>
+      <c r="T34" s="360"/>
+      <c r="U34" s="360"/>
+      <c r="V34" s="360"/>
+      <c r="W34" s="361"/>
     </row>
     <row r="35" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D35" s="309"/>
-      <c r="E35" s="309"/>
-      <c r="F35" s="309"/>
-      <c r="G35" s="309"/>
-      <c r="H35" s="309"/>
-      <c r="I35" s="309"/>
-      <c r="J35" s="309"/>
-      <c r="K35" s="309"/>
-      <c r="L35" s="309"/>
-      <c r="M35" s="309"/>
-      <c r="N35" s="309"/>
-      <c r="O35" s="309"/>
-      <c r="P35" s="309"/>
-      <c r="Q35" s="309"/>
-      <c r="R35" s="309"/>
-      <c r="S35" s="309"/>
-      <c r="T35" s="309"/>
-      <c r="U35" s="309"/>
-      <c r="V35" s="309"/>
-      <c r="W35" s="309"/>
+      <c r="D35" s="358" t="str">
+        <f ca="1">Calibración!C45</f>
+        <v/>
+      </c>
+      <c r="E35" s="358"/>
+      <c r="F35" s="359" t="str">
+        <f ca="1">Calibración!D45</f>
+        <v/>
+      </c>
+      <c r="G35" s="360"/>
+      <c r="H35" s="360"/>
+      <c r="I35" s="360"/>
+      <c r="J35" s="360"/>
+      <c r="K35" s="361"/>
+      <c r="L35" s="359" t="str">
+        <f ca="1">Calibración!E45</f>
+        <v/>
+      </c>
+      <c r="M35" s="360"/>
+      <c r="N35" s="360"/>
+      <c r="O35" s="360"/>
+      <c r="P35" s="360"/>
+      <c r="Q35" s="361"/>
+      <c r="R35" s="359" t="str">
+        <f ca="1">Calibración!F45</f>
+        <v/>
+      </c>
+      <c r="S35" s="360"/>
+      <c r="T35" s="360"/>
+      <c r="U35" s="360"/>
+      <c r="V35" s="360"/>
+      <c r="W35" s="361"/>
     </row>
     <row r="36" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D36" s="309"/>
-      <c r="E36" s="309"/>
-      <c r="F36" s="309"/>
-      <c r="G36" s="309"/>
-      <c r="H36" s="309"/>
-      <c r="I36" s="309"/>
-      <c r="J36" s="309"/>
-      <c r="K36" s="309"/>
-      <c r="L36" s="309"/>
-      <c r="M36" s="309"/>
-      <c r="N36" s="309"/>
-      <c r="O36" s="309"/>
-      <c r="P36" s="309"/>
-      <c r="Q36" s="309"/>
-      <c r="R36" s="309"/>
-      <c r="S36" s="309"/>
-      <c r="T36" s="309"/>
-      <c r="U36" s="309"/>
-      <c r="V36" s="309"/>
-      <c r="W36" s="309"/>
+      <c r="D36" s="358" t="str">
+        <f ca="1">Calibración!C46</f>
+        <v/>
+      </c>
+      <c r="E36" s="358"/>
+      <c r="F36" s="359" t="str">
+        <f ca="1">Calibración!D46</f>
+        <v/>
+      </c>
+      <c r="G36" s="360"/>
+      <c r="H36" s="360"/>
+      <c r="I36" s="360"/>
+      <c r="J36" s="360"/>
+      <c r="K36" s="361"/>
+      <c r="L36" s="359" t="str">
+        <f ca="1">Calibración!E46</f>
+        <v/>
+      </c>
+      <c r="M36" s="360"/>
+      <c r="N36" s="360"/>
+      <c r="O36" s="360"/>
+      <c r="P36" s="360"/>
+      <c r="Q36" s="361"/>
+      <c r="R36" s="359" t="str">
+        <f ca="1">Calibración!F46</f>
+        <v/>
+      </c>
+      <c r="S36" s="360"/>
+      <c r="T36" s="360"/>
+      <c r="U36" s="360"/>
+      <c r="V36" s="360"/>
+      <c r="W36" s="361"/>
     </row>
     <row r="37" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D37" s="309"/>
-      <c r="E37" s="309"/>
-      <c r="F37" s="309"/>
-      <c r="G37" s="309"/>
-      <c r="H37" s="309"/>
-      <c r="I37" s="309"/>
-      <c r="J37" s="309"/>
-      <c r="K37" s="309"/>
-      <c r="L37" s="309"/>
-      <c r="M37" s="309"/>
-      <c r="N37" s="309"/>
-      <c r="O37" s="309"/>
-      <c r="P37" s="309"/>
-      <c r="Q37" s="309"/>
-      <c r="R37" s="309"/>
-      <c r="S37" s="309"/>
-      <c r="T37" s="309"/>
-      <c r="U37" s="309"/>
-      <c r="V37" s="309"/>
-      <c r="W37" s="309"/>
+      <c r="D37" s="358" t="str">
+        <f ca="1">Calibración!C47</f>
+        <v/>
+      </c>
+      <c r="E37" s="358"/>
+      <c r="F37" s="359" t="str">
+        <f ca="1">Calibración!D47</f>
+        <v/>
+      </c>
+      <c r="G37" s="360"/>
+      <c r="H37" s="360"/>
+      <c r="I37" s="360"/>
+      <c r="J37" s="360"/>
+      <c r="K37" s="361"/>
+      <c r="L37" s="359" t="str">
+        <f ca="1">Calibración!E47</f>
+        <v/>
+      </c>
+      <c r="M37" s="360"/>
+      <c r="N37" s="360"/>
+      <c r="O37" s="360"/>
+      <c r="P37" s="360"/>
+      <c r="Q37" s="361"/>
+      <c r="R37" s="359" t="str">
+        <f ca="1">Calibración!F47</f>
+        <v/>
+      </c>
+      <c r="S37" s="360"/>
+      <c r="T37" s="360"/>
+      <c r="U37" s="360"/>
+      <c r="V37" s="360"/>
+      <c r="W37" s="361"/>
     </row>
     <row r="38" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D38" s="309"/>
@@ -37588,385 +37624,478 @@
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="339" t="s">
+      <c r="D61" s="366" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="339"/>
-      <c r="F61" s="339"/>
-      <c r="G61" s="339"/>
-      <c r="H61" s="339"/>
-      <c r="I61" s="339"/>
-      <c r="J61" s="339"/>
-      <c r="K61" s="339"/>
-      <c r="L61" s="339"/>
-      <c r="M61" s="339"/>
-      <c r="N61" s="339"/>
-      <c r="O61" s="339"/>
-      <c r="P61" s="339"/>
-      <c r="Q61" s="339"/>
-      <c r="R61" s="339"/>
-      <c r="S61" s="339"/>
-      <c r="T61" s="339"/>
-      <c r="U61" s="339"/>
-      <c r="V61" s="339"/>
-      <c r="W61" s="339"/>
+      <c r="E61" s="366"/>
+      <c r="F61" s="366"/>
+      <c r="G61" s="366"/>
+      <c r="H61" s="366"/>
+      <c r="I61" s="366"/>
+      <c r="J61" s="366"/>
+      <c r="K61" s="366"/>
+      <c r="L61" s="366"/>
+      <c r="M61" s="366"/>
+      <c r="N61" s="366"/>
+      <c r="O61" s="366"/>
+      <c r="P61" s="366"/>
+      <c r="Q61" s="366"/>
+      <c r="R61" s="366"/>
+      <c r="S61" s="366"/>
+      <c r="T61" s="366"/>
+      <c r="U61" s="366"/>
+      <c r="V61" s="366"/>
+      <c r="W61" s="366"/>
     </row>
     <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="340" t="s">
+      <c r="D62" s="367" t="s">
         <v>360</v>
       </c>
-      <c r="E62" s="340"/>
-      <c r="F62" s="341" t="s">
+      <c r="E62" s="367"/>
+      <c r="F62" s="368" t="s">
         <v>425</v>
       </c>
-      <c r="G62" s="341"/>
-      <c r="H62" s="341"/>
-      <c r="I62" s="341"/>
-      <c r="J62" s="341"/>
-      <c r="K62" s="341"/>
-      <c r="L62" s="341" t="s">
+      <c r="G62" s="368"/>
+      <c r="H62" s="368"/>
+      <c r="I62" s="368"/>
+      <c r="J62" s="368"/>
+      <c r="K62" s="368"/>
+      <c r="L62" s="368" t="s">
         <v>96</v>
       </c>
-      <c r="M62" s="341"/>
-      <c r="N62" s="341"/>
-      <c r="O62" s="341"/>
-      <c r="P62" s="341"/>
-      <c r="Q62" s="341"/>
-      <c r="R62" s="340" t="s">
+      <c r="M62" s="368"/>
+      <c r="N62" s="368"/>
+      <c r="O62" s="368"/>
+      <c r="P62" s="368"/>
+      <c r="Q62" s="368"/>
+      <c r="R62" s="367" t="s">
         <v>426</v>
       </c>
-      <c r="S62" s="340"/>
-      <c r="T62" s="340"/>
-      <c r="U62" s="340"/>
-      <c r="V62" s="340"/>
-      <c r="W62" s="340"/>
+      <c r="S62" s="367"/>
+      <c r="T62" s="367"/>
+      <c r="U62" s="367"/>
+      <c r="V62" s="367"/>
+      <c r="W62" s="367"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="340"/>
-      <c r="E63" s="340"/>
-      <c r="F63" s="341"/>
-      <c r="G63" s="341"/>
-      <c r="H63" s="341"/>
-      <c r="I63" s="341"/>
-      <c r="J63" s="341"/>
-      <c r="K63" s="341"/>
-      <c r="L63" s="341"/>
-      <c r="M63" s="341"/>
-      <c r="N63" s="341"/>
-      <c r="O63" s="341"/>
-      <c r="P63" s="341"/>
-      <c r="Q63" s="341"/>
-      <c r="R63" s="340"/>
-      <c r="S63" s="340"/>
-      <c r="T63" s="340"/>
-      <c r="U63" s="340"/>
-      <c r="V63" s="340"/>
-      <c r="W63" s="340"/>
+      <c r="D63" s="367"/>
+      <c r="E63" s="367"/>
+      <c r="F63" s="368"/>
+      <c r="G63" s="368"/>
+      <c r="H63" s="368"/>
+      <c r="I63" s="368"/>
+      <c r="J63" s="368"/>
+      <c r="K63" s="368"/>
+      <c r="L63" s="368"/>
+      <c r="M63" s="368"/>
+      <c r="N63" s="368"/>
+      <c r="O63" s="368"/>
+      <c r="P63" s="368"/>
+      <c r="Q63" s="368"/>
+      <c r="R63" s="367"/>
+      <c r="S63" s="367"/>
+      <c r="T63" s="367"/>
+      <c r="U63" s="367"/>
+      <c r="V63" s="367"/>
+      <c r="W63" s="367"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="346" t="str">
+      <c r="D64" s="369" t="str">
         <f>Calibración!G37</f>
         <v>kPa</v>
       </c>
-      <c r="E64" s="346"/>
-      <c r="F64" s="347" t="str">
+      <c r="E64" s="369"/>
+      <c r="F64" s="370" t="str">
         <f>Calibración!H37</f>
         <v>kPa</v>
       </c>
-      <c r="G64" s="348"/>
-      <c r="H64" s="348"/>
-      <c r="I64" s="348"/>
-      <c r="J64" s="348"/>
-      <c r="K64" s="349"/>
-      <c r="L64" s="346" t="str">
+      <c r="G64" s="371"/>
+      <c r="H64" s="371"/>
+      <c r="I64" s="371"/>
+      <c r="J64" s="371"/>
+      <c r="K64" s="372"/>
+      <c r="L64" s="369" t="str">
         <f>Calibración!I37</f>
         <v>kPa</v>
       </c>
-      <c r="M64" s="346"/>
-      <c r="N64" s="346"/>
-      <c r="O64" s="346"/>
-      <c r="P64" s="346"/>
-      <c r="Q64" s="346"/>
-      <c r="R64" s="346" t="str">
+      <c r="M64" s="369"/>
+      <c r="N64" s="369"/>
+      <c r="O64" s="369"/>
+      <c r="P64" s="369"/>
+      <c r="Q64" s="369"/>
+      <c r="R64" s="369" t="str">
         <f>Calibración!J37</f>
         <v>kPa</v>
       </c>
-      <c r="S64" s="346"/>
-      <c r="T64" s="346"/>
-      <c r="U64" s="346"/>
-      <c r="V64" s="346"/>
-      <c r="W64" s="346"/>
+      <c r="S64" s="369"/>
+      <c r="T64" s="369"/>
+      <c r="U64" s="369"/>
+      <c r="V64" s="369"/>
+      <c r="W64" s="369"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="342" t="str">
+      <c r="D65" s="358" t="str">
         <f ca="1">Calibración!G38</f>
         <v/>
       </c>
-      <c r="E65" s="342"/>
-      <c r="F65" s="343" t="str">
+      <c r="E65" s="358"/>
+      <c r="F65" s="359" t="str">
         <f ca="1">Calibración!H38</f>
         <v/>
       </c>
-      <c r="G65" s="344"/>
-      <c r="H65" s="344"/>
-      <c r="I65" s="344"/>
-      <c r="J65" s="344"/>
-      <c r="K65" s="345"/>
-      <c r="L65" s="342" t="str">
+      <c r="G65" s="360"/>
+      <c r="H65" s="360"/>
+      <c r="I65" s="360"/>
+      <c r="J65" s="360"/>
+      <c r="K65" s="361"/>
+      <c r="L65" s="358" t="str">
         <f ca="1">Calibración!I38</f>
         <v/>
       </c>
-      <c r="M65" s="342"/>
-      <c r="N65" s="342"/>
-      <c r="O65" s="342"/>
-      <c r="P65" s="342"/>
-      <c r="Q65" s="342"/>
-      <c r="R65" s="342" t="str">
+      <c r="M65" s="358"/>
+      <c r="N65" s="358"/>
+      <c r="O65" s="358"/>
+      <c r="P65" s="358"/>
+      <c r="Q65" s="358"/>
+      <c r="R65" s="358" t="str">
         <f ca="1">Calibración!J38</f>
         <v/>
       </c>
-      <c r="S65" s="342"/>
-      <c r="T65" s="342"/>
-      <c r="U65" s="342"/>
-      <c r="V65" s="342"/>
-      <c r="W65" s="342"/>
+      <c r="S65" s="358"/>
+      <c r="T65" s="358"/>
+      <c r="U65" s="358"/>
+      <c r="V65" s="358"/>
+      <c r="W65" s="358"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="342" t="str">
+      <c r="D66" s="358" t="str">
         <f ca="1">Calibración!G39</f>
         <v/>
       </c>
-      <c r="E66" s="342"/>
-      <c r="F66" s="343" t="str">
+      <c r="E66" s="358"/>
+      <c r="F66" s="359" t="str">
         <f ca="1">Calibración!H39</f>
         <v/>
       </c>
-      <c r="G66" s="344"/>
-      <c r="H66" s="344"/>
-      <c r="I66" s="344"/>
-      <c r="J66" s="344"/>
-      <c r="K66" s="345"/>
-      <c r="L66" s="342" t="str">
+      <c r="G66" s="360"/>
+      <c r="H66" s="360"/>
+      <c r="I66" s="360"/>
+      <c r="J66" s="360"/>
+      <c r="K66" s="361"/>
+      <c r="L66" s="358" t="str">
         <f ca="1">Calibración!I39</f>
         <v/>
       </c>
-      <c r="M66" s="342"/>
-      <c r="N66" s="342"/>
-      <c r="O66" s="342"/>
-      <c r="P66" s="342"/>
-      <c r="Q66" s="342"/>
-      <c r="R66" s="342" t="str">
+      <c r="M66" s="358"/>
+      <c r="N66" s="358"/>
+      <c r="O66" s="358"/>
+      <c r="P66" s="358"/>
+      <c r="Q66" s="358"/>
+      <c r="R66" s="358" t="str">
         <f ca="1">Calibración!J39</f>
         <v/>
       </c>
-      <c r="S66" s="342"/>
-      <c r="T66" s="342"/>
-      <c r="U66" s="342"/>
-      <c r="V66" s="342"/>
-      <c r="W66" s="342"/>
+      <c r="S66" s="358"/>
+      <c r="T66" s="358"/>
+      <c r="U66" s="358"/>
+      <c r="V66" s="358"/>
+      <c r="W66" s="358"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="342" t="str">
+      <c r="D67" s="358" t="str">
         <f ca="1">Calibración!G40</f>
         <v/>
       </c>
-      <c r="E67" s="342"/>
-      <c r="F67" s="343" t="str">
+      <c r="E67" s="358"/>
+      <c r="F67" s="359" t="str">
         <f ca="1">Calibración!H40</f>
         <v/>
       </c>
-      <c r="G67" s="344"/>
-      <c r="H67" s="344"/>
-      <c r="I67" s="344"/>
-      <c r="J67" s="344"/>
-      <c r="K67" s="345"/>
-      <c r="L67" s="342" t="str">
+      <c r="G67" s="360"/>
+      <c r="H67" s="360"/>
+      <c r="I67" s="360"/>
+      <c r="J67" s="360"/>
+      <c r="K67" s="361"/>
+      <c r="L67" s="358" t="str">
         <f ca="1">Calibración!I40</f>
         <v/>
       </c>
-      <c r="M67" s="342"/>
-      <c r="N67" s="342"/>
-      <c r="O67" s="342"/>
-      <c r="P67" s="342"/>
-      <c r="Q67" s="342"/>
-      <c r="R67" s="342" t="str">
+      <c r="M67" s="358"/>
+      <c r="N67" s="358"/>
+      <c r="O67" s="358"/>
+      <c r="P67" s="358"/>
+      <c r="Q67" s="358"/>
+      <c r="R67" s="358" t="str">
         <f ca="1">Calibración!J40</f>
         <v/>
       </c>
-      <c r="S67" s="342"/>
-      <c r="T67" s="342"/>
-      <c r="U67" s="342"/>
-      <c r="V67" s="342"/>
-      <c r="W67" s="342"/>
+      <c r="S67" s="358"/>
+      <c r="T67" s="358"/>
+      <c r="U67" s="358"/>
+      <c r="V67" s="358"/>
+      <c r="W67" s="358"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="342" t="str">
+      <c r="D68" s="358" t="str">
         <f ca="1">Calibración!G41</f>
         <v/>
       </c>
-      <c r="E68" s="342"/>
-      <c r="F68" s="343" t="str">
+      <c r="E68" s="358"/>
+      <c r="F68" s="359" t="str">
         <f ca="1">Calibración!H41</f>
         <v/>
       </c>
-      <c r="G68" s="344"/>
-      <c r="H68" s="344"/>
-      <c r="I68" s="344"/>
-      <c r="J68" s="344"/>
-      <c r="K68" s="345"/>
-      <c r="L68" s="342" t="str">
+      <c r="G68" s="360"/>
+      <c r="H68" s="360"/>
+      <c r="I68" s="360"/>
+      <c r="J68" s="360"/>
+      <c r="K68" s="361"/>
+      <c r="L68" s="358" t="str">
         <f ca="1">Calibración!I41</f>
         <v/>
       </c>
-      <c r="M68" s="342"/>
-      <c r="N68" s="342"/>
-      <c r="O68" s="342"/>
-      <c r="P68" s="342"/>
-      <c r="Q68" s="342"/>
-      <c r="R68" s="342" t="str">
+      <c r="M68" s="358"/>
+      <c r="N68" s="358"/>
+      <c r="O68" s="358"/>
+      <c r="P68" s="358"/>
+      <c r="Q68" s="358"/>
+      <c r="R68" s="358" t="str">
         <f ca="1">Calibración!J41</f>
         <v/>
       </c>
-      <c r="S68" s="342"/>
-      <c r="T68" s="342"/>
-      <c r="U68" s="342"/>
-      <c r="V68" s="342"/>
-      <c r="W68" s="342"/>
+      <c r="S68" s="358"/>
+      <c r="T68" s="358"/>
+      <c r="U68" s="358"/>
+      <c r="V68" s="358"/>
+      <c r="W68" s="358"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="342" t="str">
+      <c r="D69" s="358" t="str">
         <f ca="1">Calibración!G42</f>
         <v/>
       </c>
-      <c r="E69" s="342"/>
-      <c r="F69" s="343" t="str">
+      <c r="E69" s="358"/>
+      <c r="F69" s="359" t="str">
         <f ca="1">Calibración!H42</f>
         <v/>
       </c>
-      <c r="G69" s="344"/>
-      <c r="H69" s="344"/>
-      <c r="I69" s="344"/>
-      <c r="J69" s="344"/>
-      <c r="K69" s="345"/>
-      <c r="L69" s="342" t="str">
+      <c r="G69" s="360"/>
+      <c r="H69" s="360"/>
+      <c r="I69" s="360"/>
+      <c r="J69" s="360"/>
+      <c r="K69" s="361"/>
+      <c r="L69" s="358" t="str">
         <f ca="1">Calibración!I42</f>
         <v/>
       </c>
-      <c r="M69" s="342"/>
-      <c r="N69" s="342"/>
-      <c r="O69" s="342"/>
-      <c r="P69" s="342"/>
-      <c r="Q69" s="342"/>
-      <c r="R69" s="342" t="str">
+      <c r="M69" s="358"/>
+      <c r="N69" s="358"/>
+      <c r="O69" s="358"/>
+      <c r="P69" s="358"/>
+      <c r="Q69" s="358"/>
+      <c r="R69" s="358" t="str">
         <f ca="1">Calibración!J42</f>
         <v/>
       </c>
-      <c r="S69" s="342"/>
-      <c r="T69" s="342"/>
-      <c r="U69" s="342"/>
-      <c r="V69" s="342"/>
-      <c r="W69" s="342"/>
+      <c r="S69" s="358"/>
+      <c r="T69" s="358"/>
+      <c r="U69" s="358"/>
+      <c r="V69" s="358"/>
+      <c r="W69" s="358"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D70" s="342" t="str">
+      <c r="D70" s="358" t="str">
         <f ca="1">Calibración!G43</f>
         <v/>
       </c>
-      <c r="E70" s="342"/>
-      <c r="F70" s="343" t="str">
+      <c r="E70" s="358"/>
+      <c r="F70" s="359" t="str">
         <f ca="1">Calibración!H43</f>
         <v/>
       </c>
-      <c r="G70" s="344"/>
-      <c r="H70" s="344"/>
-      <c r="I70" s="344"/>
-      <c r="J70" s="344"/>
-      <c r="K70" s="345"/>
-      <c r="L70" s="342" t="str">
+      <c r="G70" s="360"/>
+      <c r="H70" s="360"/>
+      <c r="I70" s="360"/>
+      <c r="J70" s="360"/>
+      <c r="K70" s="361"/>
+      <c r="L70" s="358" t="str">
         <f ca="1">Calibración!I43</f>
         <v/>
       </c>
-      <c r="M70" s="342"/>
-      <c r="N70" s="342"/>
-      <c r="O70" s="342"/>
-      <c r="P70" s="342"/>
-      <c r="Q70" s="342"/>
-      <c r="R70" s="342" t="str">
+      <c r="M70" s="358"/>
+      <c r="N70" s="358"/>
+      <c r="O70" s="358"/>
+      <c r="P70" s="358"/>
+      <c r="Q70" s="358"/>
+      <c r="R70" s="358" t="str">
         <f ca="1">Calibración!J43</f>
         <v/>
       </c>
-      <c r="S70" s="342"/>
-      <c r="T70" s="342"/>
-      <c r="U70" s="342"/>
-      <c r="V70" s="342"/>
-      <c r="W70" s="342"/>
+      <c r="S70" s="358"/>
+      <c r="T70" s="358"/>
+      <c r="U70" s="358"/>
+      <c r="V70" s="358"/>
+      <c r="W70" s="358"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D71" s="342" t="str">
+      <c r="D71" s="358" t="str">
         <f ca="1">Calibración!G44</f>
         <v/>
       </c>
-      <c r="E71" s="342"/>
-      <c r="F71" s="343" t="str">
+      <c r="E71" s="358"/>
+      <c r="F71" s="359" t="str">
         <f ca="1">Calibración!H44</f>
         <v/>
       </c>
-      <c r="G71" s="344"/>
-      <c r="H71" s="344"/>
-      <c r="I71" s="344"/>
-      <c r="J71" s="344"/>
-      <c r="K71" s="345"/>
-      <c r="L71" s="342" t="str">
+      <c r="G71" s="360"/>
+      <c r="H71" s="360"/>
+      <c r="I71" s="360"/>
+      <c r="J71" s="360"/>
+      <c r="K71" s="361"/>
+      <c r="L71" s="358" t="str">
         <f ca="1">Calibración!I44</f>
         <v/>
       </c>
-      <c r="M71" s="342"/>
-      <c r="N71" s="342"/>
-      <c r="O71" s="342"/>
-      <c r="P71" s="342"/>
-      <c r="Q71" s="342"/>
-      <c r="R71" s="342" t="str">
+      <c r="M71" s="358"/>
+      <c r="N71" s="358"/>
+      <c r="O71" s="358"/>
+      <c r="P71" s="358"/>
+      <c r="Q71" s="358"/>
+      <c r="R71" s="358" t="str">
         <f ca="1">Calibración!J44</f>
         <v/>
       </c>
-      <c r="S71" s="342"/>
-      <c r="T71" s="342"/>
-      <c r="U71" s="342"/>
-      <c r="V71" s="342"/>
-      <c r="W71" s="342"/>
+      <c r="S71" s="358"/>
+      <c r="T71" s="358"/>
+      <c r="U71" s="358"/>
+      <c r="V71" s="358"/>
+      <c r="W71" s="358"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="O72" s="232"/>
+      <c r="D72" s="358" t="str">
+        <f ca="1">Calibración!G45</f>
+        <v/>
+      </c>
+      <c r="E72" s="358"/>
+      <c r="F72" s="359" t="str">
+        <f ca="1">Calibración!H45</f>
+        <v/>
+      </c>
+      <c r="G72" s="360"/>
+      <c r="H72" s="360"/>
+      <c r="I72" s="360"/>
+      <c r="J72" s="360"/>
+      <c r="K72" s="361"/>
+      <c r="L72" s="358" t="str">
+        <f ca="1">Calibración!I45</f>
+        <v/>
+      </c>
+      <c r="M72" s="358"/>
+      <c r="N72" s="358"/>
+      <c r="O72" s="358"/>
+      <c r="P72" s="358"/>
+      <c r="Q72" s="358"/>
+      <c r="R72" s="358" t="str">
+        <f ca="1">Calibración!J45</f>
+        <v/>
+      </c>
+      <c r="S72" s="358"/>
+      <c r="T72" s="358"/>
+      <c r="U72" s="358"/>
+      <c r="V72" s="358"/>
+      <c r="W72" s="358"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="O73" s="232"/>
+      <c r="D73" s="358" t="str">
+        <f ca="1">Calibración!G46</f>
+        <v/>
+      </c>
+      <c r="E73" s="358"/>
+      <c r="F73" s="359" t="str">
+        <f ca="1">Calibración!H46</f>
+        <v/>
+      </c>
+      <c r="G73" s="360"/>
+      <c r="H73" s="360"/>
+      <c r="I73" s="360"/>
+      <c r="J73" s="360"/>
+      <c r="K73" s="361"/>
+      <c r="L73" s="358" t="str">
+        <f ca="1">Calibración!I46</f>
+        <v/>
+      </c>
+      <c r="M73" s="358"/>
+      <c r="N73" s="358"/>
+      <c r="O73" s="358"/>
+      <c r="P73" s="358"/>
+      <c r="Q73" s="358"/>
+      <c r="R73" s="358" t="str">
+        <f ca="1">Calibración!J46</f>
+        <v/>
+      </c>
+      <c r="S73" s="358"/>
+      <c r="T73" s="358"/>
+      <c r="U73" s="358"/>
+      <c r="V73" s="358"/>
+      <c r="W73" s="358"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="O74" s="232"/>
+      <c r="D74" s="358" t="str">
+        <f ca="1">Calibración!G47</f>
+        <v/>
+      </c>
+      <c r="E74" s="358"/>
+      <c r="F74" s="359" t="str">
+        <f ca="1">Calibración!H47</f>
+        <v/>
+      </c>
+      <c r="G74" s="360"/>
+      <c r="H74" s="360"/>
+      <c r="I74" s="360"/>
+      <c r="J74" s="360"/>
+      <c r="K74" s="361"/>
+      <c r="L74" s="358" t="str">
+        <f ca="1">Calibración!I47</f>
+        <v/>
+      </c>
+      <c r="M74" s="358"/>
+      <c r="N74" s="358"/>
+      <c r="O74" s="358"/>
+      <c r="P74" s="358"/>
+      <c r="Q74" s="358"/>
+      <c r="R74" s="358" t="str">
+        <f ca="1">Calibración!J47</f>
+        <v/>
+      </c>
+      <c r="S74" s="358"/>
+      <c r="T74" s="358"/>
+      <c r="U74" s="358"/>
+      <c r="V74" s="358"/>
+      <c r="W74" s="358"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O75" s="232"/>
@@ -37990,20 +38119,20 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
-      <c r="N77" s="334" t="str">
+      <c r="N77" s="362" t="str">
         <f>N8</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O77" s="334"/>
-      <c r="P77" s="334"/>
-      <c r="Q77" s="334"/>
-      <c r="R77" s="334"/>
-      <c r="S77" s="334"/>
-      <c r="T77" s="334"/>
-      <c r="U77" s="334"/>
-      <c r="V77" s="334"/>
-      <c r="W77" s="334"/>
-      <c r="X77" s="334"/>
+      <c r="O77" s="362"/>
+      <c r="P77" s="362"/>
+      <c r="Q77" s="362"/>
+      <c r="R77" s="362"/>
+      <c r="S77" s="362"/>
+      <c r="T77" s="362"/>
+      <c r="U77" s="362"/>
+      <c r="V77" s="362"/>
+      <c r="W77" s="362"/>
+      <c r="X77" s="362"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O78" s="232"/>
@@ -38042,11 +38171,11 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="234"/>
-      <c r="B80" s="357" t="s">
+      <c r="B80" s="363" t="s">
         <v>430</v>
       </c>
-      <c r="C80" s="357"/>
-      <c r="D80" s="357"/>
+      <c r="C80" s="363"/>
+      <c r="D80" s="363"/>
       <c r="E80" s="235" t="str">
         <f>CertTempC</f>
         <v/>
@@ -38063,8 +38192,8 @@
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="336"/>
-      <c r="L80" s="336"/>
+      <c r="K80" s="364"/>
+      <c r="L80" s="364"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
@@ -38074,11 +38203,11 @@
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
-      <c r="T80" s="358" t="str">
+      <c r="T80" s="365" t="str">
         <f>General!I18</f>
         <v/>
       </c>
-      <c r="U80" s="358"/>
+      <c r="U80" s="365"/>
       <c r="V80" s="236" t="s">
         <v>432</v>
       </c>
@@ -38180,32 +38309,32 @@
       <c r="W83" s="9"/>
     </row>
     <row r="84" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="350" t="s">
+      <c r="A84" s="351" t="s">
         <v>715</v>
       </c>
-      <c r="B84" s="350"/>
-      <c r="C84" s="350"/>
-      <c r="D84" s="350"/>
-      <c r="E84" s="350"/>
-      <c r="F84" s="350"/>
-      <c r="G84" s="350"/>
-      <c r="H84" s="350"/>
-      <c r="I84" s="350"/>
-      <c r="J84" s="350"/>
-      <c r="K84" s="350"/>
-      <c r="L84" s="350"/>
-      <c r="M84" s="350"/>
-      <c r="N84" s="350"/>
-      <c r="O84" s="350"/>
-      <c r="P84" s="350"/>
-      <c r="Q84" s="350"/>
-      <c r="R84" s="350"/>
-      <c r="S84" s="350"/>
-      <c r="T84" s="350"/>
-      <c r="U84" s="350"/>
-      <c r="V84" s="350"/>
-      <c r="W84" s="350"/>
-      <c r="X84" s="350"/>
+      <c r="B84" s="351"/>
+      <c r="C84" s="351"/>
+      <c r="D84" s="351"/>
+      <c r="E84" s="351"/>
+      <c r="F84" s="351"/>
+      <c r="G84" s="351"/>
+      <c r="H84" s="351"/>
+      <c r="I84" s="351"/>
+      <c r="J84" s="351"/>
+      <c r="K84" s="351"/>
+      <c r="L84" s="351"/>
+      <c r="M84" s="351"/>
+      <c r="N84" s="351"/>
+      <c r="O84" s="351"/>
+      <c r="P84" s="351"/>
+      <c r="Q84" s="351"/>
+      <c r="R84" s="351"/>
+      <c r="S84" s="351"/>
+      <c r="T84" s="351"/>
+      <c r="U84" s="351"/>
+      <c r="V84" s="351"/>
+      <c r="W84" s="351"/>
+      <c r="X84" s="351"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B85" s="14"/>
@@ -38260,136 +38389,136 @@
       <c r="X86" s="14"/>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A87" s="350" t="s">
+      <c r="A87" s="351" t="s">
         <v>438</v>
       </c>
-      <c r="B87" s="350"/>
-      <c r="C87" s="350"/>
-      <c r="D87" s="350"/>
-      <c r="E87" s="350"/>
-      <c r="F87" s="350"/>
-      <c r="G87" s="350"/>
-      <c r="H87" s="350"/>
-      <c r="I87" s="350"/>
-      <c r="J87" s="350"/>
-      <c r="K87" s="350"/>
-      <c r="L87" s="350"/>
-      <c r="M87" s="350"/>
-      <c r="N87" s="350"/>
-      <c r="O87" s="350"/>
-      <c r="P87" s="350"/>
-      <c r="Q87" s="350"/>
-      <c r="R87" s="350"/>
-      <c r="S87" s="350"/>
-      <c r="T87" s="350"/>
-      <c r="U87" s="350"/>
-      <c r="V87" s="350"/>
-      <c r="W87" s="350"/>
-      <c r="X87" s="350"/>
+      <c r="B87" s="351"/>
+      <c r="C87" s="351"/>
+      <c r="D87" s="351"/>
+      <c r="E87" s="351"/>
+      <c r="F87" s="351"/>
+      <c r="G87" s="351"/>
+      <c r="H87" s="351"/>
+      <c r="I87" s="351"/>
+      <c r="J87" s="351"/>
+      <c r="K87" s="351"/>
+      <c r="L87" s="351"/>
+      <c r="M87" s="351"/>
+      <c r="N87" s="351"/>
+      <c r="O87" s="351"/>
+      <c r="P87" s="351"/>
+      <c r="Q87" s="351"/>
+      <c r="R87" s="351"/>
+      <c r="S87" s="351"/>
+      <c r="T87" s="351"/>
+      <c r="U87" s="351"/>
+      <c r="V87" s="351"/>
+      <c r="W87" s="351"/>
+      <c r="X87" s="351"/>
     </row>
     <row r="88" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="350"/>
-      <c r="B88" s="350"/>
-      <c r="C88" s="350"/>
-      <c r="D88" s="350"/>
-      <c r="E88" s="350"/>
-      <c r="F88" s="350"/>
-      <c r="G88" s="350"/>
-      <c r="H88" s="350"/>
-      <c r="I88" s="350"/>
-      <c r="J88" s="350"/>
-      <c r="K88" s="350"/>
-      <c r="L88" s="350"/>
-      <c r="M88" s="350"/>
-      <c r="N88" s="350"/>
-      <c r="O88" s="350"/>
-      <c r="P88" s="350"/>
-      <c r="Q88" s="350"/>
-      <c r="R88" s="350"/>
-      <c r="S88" s="350"/>
-      <c r="T88" s="350"/>
-      <c r="U88" s="350"/>
-      <c r="V88" s="350"/>
-      <c r="W88" s="350"/>
-      <c r="X88" s="350"/>
+      <c r="A88" s="351"/>
+      <c r="B88" s="351"/>
+      <c r="C88" s="351"/>
+      <c r="D88" s="351"/>
+      <c r="E88" s="351"/>
+      <c r="F88" s="351"/>
+      <c r="G88" s="351"/>
+      <c r="H88" s="351"/>
+      <c r="I88" s="351"/>
+      <c r="J88" s="351"/>
+      <c r="K88" s="351"/>
+      <c r="L88" s="351"/>
+      <c r="M88" s="351"/>
+      <c r="N88" s="351"/>
+      <c r="O88" s="351"/>
+      <c r="P88" s="351"/>
+      <c r="Q88" s="351"/>
+      <c r="R88" s="351"/>
+      <c r="S88" s="351"/>
+      <c r="T88" s="351"/>
+      <c r="U88" s="351"/>
+      <c r="V88" s="351"/>
+      <c r="W88" s="351"/>
+      <c r="X88" s="351"/>
     </row>
     <row r="89" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="350"/>
-      <c r="B89" s="350"/>
-      <c r="C89" s="350"/>
-      <c r="D89" s="350"/>
-      <c r="E89" s="350"/>
-      <c r="F89" s="350"/>
-      <c r="G89" s="350"/>
-      <c r="H89" s="350"/>
-      <c r="I89" s="350"/>
-      <c r="J89" s="350"/>
-      <c r="K89" s="350"/>
-      <c r="L89" s="350"/>
-      <c r="M89" s="350"/>
-      <c r="N89" s="350"/>
-      <c r="O89" s="350"/>
-      <c r="P89" s="350"/>
-      <c r="Q89" s="350"/>
-      <c r="R89" s="350"/>
-      <c r="S89" s="350"/>
-      <c r="T89" s="350"/>
-      <c r="U89" s="350"/>
-      <c r="V89" s="350"/>
-      <c r="W89" s="350"/>
-      <c r="X89" s="350"/>
+      <c r="A89" s="351"/>
+      <c r="B89" s="351"/>
+      <c r="C89" s="351"/>
+      <c r="D89" s="351"/>
+      <c r="E89" s="351"/>
+      <c r="F89" s="351"/>
+      <c r="G89" s="351"/>
+      <c r="H89" s="351"/>
+      <c r="I89" s="351"/>
+      <c r="J89" s="351"/>
+      <c r="K89" s="351"/>
+      <c r="L89" s="351"/>
+      <c r="M89" s="351"/>
+      <c r="N89" s="351"/>
+      <c r="O89" s="351"/>
+      <c r="P89" s="351"/>
+      <c r="Q89" s="351"/>
+      <c r="R89" s="351"/>
+      <c r="S89" s="351"/>
+      <c r="T89" s="351"/>
+      <c r="U89" s="351"/>
+      <c r="V89" s="351"/>
+      <c r="W89" s="351"/>
+      <c r="X89" s="351"/>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A90" s="350"/>
-      <c r="B90" s="350"/>
-      <c r="C90" s="350"/>
-      <c r="D90" s="350"/>
-      <c r="E90" s="350"/>
-      <c r="F90" s="350"/>
-      <c r="G90" s="350"/>
-      <c r="H90" s="350"/>
-      <c r="I90" s="350"/>
-      <c r="J90" s="350"/>
-      <c r="K90" s="350"/>
-      <c r="L90" s="350"/>
-      <c r="M90" s="350"/>
-      <c r="N90" s="350"/>
-      <c r="O90" s="350"/>
-      <c r="P90" s="350"/>
-      <c r="Q90" s="350"/>
-      <c r="R90" s="350"/>
-      <c r="S90" s="350"/>
-      <c r="T90" s="350"/>
-      <c r="U90" s="350"/>
-      <c r="V90" s="350"/>
-      <c r="W90" s="350"/>
-      <c r="X90" s="350"/>
+      <c r="A90" s="351"/>
+      <c r="B90" s="351"/>
+      <c r="C90" s="351"/>
+      <c r="D90" s="351"/>
+      <c r="E90" s="351"/>
+      <c r="F90" s="351"/>
+      <c r="G90" s="351"/>
+      <c r="H90" s="351"/>
+      <c r="I90" s="351"/>
+      <c r="J90" s="351"/>
+      <c r="K90" s="351"/>
+      <c r="L90" s="351"/>
+      <c r="M90" s="351"/>
+      <c r="N90" s="351"/>
+      <c r="O90" s="351"/>
+      <c r="P90" s="351"/>
+      <c r="Q90" s="351"/>
+      <c r="R90" s="351"/>
+      <c r="S90" s="351"/>
+      <c r="T90" s="351"/>
+      <c r="U90" s="351"/>
+      <c r="V90" s="351"/>
+      <c r="W90" s="351"/>
+      <c r="X90" s="351"/>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A91" s="350"/>
-      <c r="B91" s="350"/>
-      <c r="C91" s="350"/>
-      <c r="D91" s="350"/>
-      <c r="E91" s="350"/>
-      <c r="F91" s="350"/>
-      <c r="G91" s="350"/>
-      <c r="H91" s="350"/>
-      <c r="I91" s="350"/>
-      <c r="J91" s="350"/>
-      <c r="K91" s="350"/>
-      <c r="L91" s="350"/>
-      <c r="M91" s="350"/>
-      <c r="N91" s="350"/>
-      <c r="O91" s="350"/>
-      <c r="P91" s="350"/>
-      <c r="Q91" s="350"/>
-      <c r="R91" s="350"/>
-      <c r="S91" s="350"/>
-      <c r="T91" s="350"/>
-      <c r="U91" s="350"/>
-      <c r="V91" s="350"/>
-      <c r="W91" s="350"/>
-      <c r="X91" s="350"/>
+      <c r="A91" s="351"/>
+      <c r="B91" s="351"/>
+      <c r="C91" s="351"/>
+      <c r="D91" s="351"/>
+      <c r="E91" s="351"/>
+      <c r="F91" s="351"/>
+      <c r="G91" s="351"/>
+      <c r="H91" s="351"/>
+      <c r="I91" s="351"/>
+      <c r="J91" s="351"/>
+      <c r="K91" s="351"/>
+      <c r="L91" s="351"/>
+      <c r="M91" s="351"/>
+      <c r="N91" s="351"/>
+      <c r="O91" s="351"/>
+      <c r="P91" s="351"/>
+      <c r="Q91" s="351"/>
+      <c r="R91" s="351"/>
+      <c r="S91" s="351"/>
+      <c r="T91" s="351"/>
+      <c r="U91" s="351"/>
+      <c r="V91" s="351"/>
+      <c r="W91" s="351"/>
+      <c r="X91" s="351"/>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
@@ -38443,204 +38572,204 @@
       <c r="V93" s="9"/>
     </row>
     <row r="94" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="351" t="s">
+      <c r="A94" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="352"/>
-      <c r="C94" s="352"/>
-      <c r="D94" s="352"/>
-      <c r="E94" s="352"/>
-      <c r="F94" s="353"/>
-      <c r="G94" s="351" t="s">
+      <c r="B94" s="353"/>
+      <c r="C94" s="353"/>
+      <c r="D94" s="353"/>
+      <c r="E94" s="353"/>
+      <c r="F94" s="354"/>
+      <c r="G94" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="352"/>
-      <c r="I94" s="353"/>
-      <c r="J94" s="354" t="s">
+      <c r="H94" s="353"/>
+      <c r="I94" s="354"/>
+      <c r="J94" s="355" t="s">
         <v>101</v>
       </c>
-      <c r="K94" s="355"/>
-      <c r="L94" s="355"/>
-      <c r="M94" s="355"/>
-      <c r="N94" s="356"/>
-      <c r="O94" s="351" t="s">
+      <c r="K94" s="356"/>
+      <c r="L94" s="356"/>
+      <c r="M94" s="356"/>
+      <c r="N94" s="357"/>
+      <c r="O94" s="352" t="s">
         <v>440</v>
       </c>
-      <c r="P94" s="352"/>
-      <c r="Q94" s="352"/>
-      <c r="R94" s="352"/>
-      <c r="S94" s="352"/>
-      <c r="T94" s="353"/>
-      <c r="U94" s="354" t="s">
+      <c r="P94" s="353"/>
+      <c r="Q94" s="353"/>
+      <c r="R94" s="353"/>
+      <c r="S94" s="353"/>
+      <c r="T94" s="354"/>
+      <c r="U94" s="355" t="s">
         <v>441</v>
       </c>
-      <c r="V94" s="355"/>
-      <c r="W94" s="355"/>
-      <c r="X94" s="356"/>
+      <c r="V94" s="356"/>
+      <c r="W94" s="356"/>
+      <c r="X94" s="357"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A95" s="359" t="s">
+      <c r="A95" s="345" t="s">
         <v>709</v>
       </c>
-      <c r="B95" s="360" t="s">
+      <c r="B95" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="C95" s="360" t="s">
+      <c r="C95" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="D95" s="360" t="s">
+      <c r="D95" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="E95" s="360" t="s">
+      <c r="E95" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="F95" s="361" t="s">
+      <c r="F95" s="347" t="s">
         <v>449</v>
       </c>
-      <c r="G95" s="359" t="s">
+      <c r="G95" s="345" t="s">
         <v>477</v>
       </c>
-      <c r="H95" s="360" t="s">
+      <c r="H95" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I95" s="361" t="s">
+      <c r="I95" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J95" s="362" t="s">
+      <c r="J95" s="348" t="s">
         <v>700</v>
       </c>
-      <c r="K95" s="363" t="s">
+      <c r="K95" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L95" s="363">
+      <c r="L95" s="349">
         <v>43393</v>
       </c>
-      <c r="M95" s="363" t="s">
+      <c r="M95" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="N95" s="364" t="s">
+      <c r="N95" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O95" s="359" t="s">
+      <c r="O95" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P95" s="360" t="s">
+      <c r="P95" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q95" s="360" t="s">
+      <c r="Q95" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R95" s="360" t="s">
+      <c r="R95" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S95" s="360" t="s">
+      <c r="S95" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T95" s="361" t="s">
+      <c r="T95" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U95" s="362">
+      <c r="U95" s="348">
         <v>44878</v>
       </c>
-      <c r="V95" s="363" t="s">
+      <c r="V95" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="W95" s="363" t="s">
+      <c r="W95" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X95" s="364">
+      <c r="X95" s="350">
         <v>43393</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="359" t="s">
+      <c r="A96" s="345" t="s">
         <v>710</v>
       </c>
-      <c r="B96" s="360"/>
-      <c r="C96" s="360"/>
-      <c r="D96" s="360"/>
-      <c r="E96" s="360"/>
-      <c r="F96" s="361"/>
-      <c r="G96" s="359" t="s">
+      <c r="B96" s="346"/>
+      <c r="C96" s="346"/>
+      <c r="D96" s="346"/>
+      <c r="E96" s="346"/>
+      <c r="F96" s="347"/>
+      <c r="G96" s="345" t="s">
         <v>311</v>
       </c>
-      <c r="H96" s="360" t="s">
+      <c r="H96" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I96" s="361" t="s">
+      <c r="I96" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J96" s="362" t="s">
+      <c r="J96" s="348" t="s">
         <v>714</v>
       </c>
-      <c r="K96" s="363" t="s">
+      <c r="K96" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L96" s="363">
+      <c r="L96" s="349">
         <v>43394</v>
       </c>
-      <c r="M96" s="363" t="s">
+      <c r="M96" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="N96" s="364" t="s">
+      <c r="N96" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O96" s="359" t="s">
+      <c r="O96" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P96" s="360" t="s">
+      <c r="P96" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q96" s="360" t="s">
+      <c r="Q96" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R96" s="360" t="s">
+      <c r="R96" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S96" s="360" t="s">
+      <c r="S96" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T96" s="361" t="s">
+      <c r="T96" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U96" s="362">
+      <c r="U96" s="348">
         <v>44878</v>
       </c>
-      <c r="V96" s="363" t="s">
+      <c r="V96" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="W96" s="363" t="s">
+      <c r="W96" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X96" s="364">
+      <c r="X96" s="350">
         <v>43394</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="359"/>
-      <c r="B97" s="360"/>
-      <c r="C97" s="360"/>
-      <c r="D97" s="360"/>
-      <c r="E97" s="360"/>
-      <c r="F97" s="361"/>
-      <c r="G97" s="359"/>
-      <c r="H97" s="360"/>
-      <c r="I97" s="361"/>
-      <c r="J97" s="362"/>
-      <c r="K97" s="363"/>
-      <c r="L97" s="363"/>
-      <c r="M97" s="363"/>
-      <c r="N97" s="364"/>
-      <c r="O97" s="359"/>
-      <c r="P97" s="360"/>
-      <c r="Q97" s="360"/>
-      <c r="R97" s="360"/>
-      <c r="S97" s="360"/>
-      <c r="T97" s="361"/>
-      <c r="U97" s="362"/>
-      <c r="V97" s="363"/>
-      <c r="W97" s="363"/>
-      <c r="X97" s="364"/>
+      <c r="A97" s="345"/>
+      <c r="B97" s="346"/>
+      <c r="C97" s="346"/>
+      <c r="D97" s="346"/>
+      <c r="E97" s="346"/>
+      <c r="F97" s="347"/>
+      <c r="G97" s="345"/>
+      <c r="H97" s="346"/>
+      <c r="I97" s="347"/>
+      <c r="J97" s="348"/>
+      <c r="K97" s="349"/>
+      <c r="L97" s="349"/>
+      <c r="M97" s="349"/>
+      <c r="N97" s="350"/>
+      <c r="O97" s="345"/>
+      <c r="P97" s="346"/>
+      <c r="Q97" s="346"/>
+      <c r="R97" s="346"/>
+      <c r="S97" s="346"/>
+      <c r="T97" s="347"/>
+      <c r="U97" s="348"/>
+      <c r="V97" s="349"/>
+      <c r="W97" s="349"/>
+      <c r="X97" s="350"/>
     </row>
     <row r="98" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="238"/>
@@ -38752,59 +38881,59 @@
       <c r="X101" s="9"/>
     </row>
     <row r="102" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="350" t="str">
+      <c r="A102" s="351" t="str">
         <f>IF(Calibración!E10="2",Calibración!BJ6,Calibración!BJ7)</f>
         <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
       </c>
-      <c r="B102" s="350"/>
-      <c r="C102" s="350"/>
-      <c r="D102" s="350"/>
-      <c r="E102" s="350"/>
-      <c r="F102" s="350"/>
-      <c r="G102" s="350"/>
-      <c r="H102" s="350"/>
-      <c r="I102" s="350"/>
-      <c r="J102" s="350"/>
-      <c r="K102" s="350"/>
-      <c r="L102" s="350"/>
-      <c r="M102" s="350"/>
-      <c r="N102" s="350"/>
-      <c r="O102" s="350"/>
-      <c r="P102" s="350"/>
-      <c r="Q102" s="350"/>
-      <c r="R102" s="350"/>
-      <c r="S102" s="350"/>
-      <c r="T102" s="350"/>
-      <c r="U102" s="350"/>
-      <c r="V102" s="350"/>
-      <c r="W102" s="350"/>
-      <c r="X102" s="350"/>
+      <c r="B102" s="351"/>
+      <c r="C102" s="351"/>
+      <c r="D102" s="351"/>
+      <c r="E102" s="351"/>
+      <c r="F102" s="351"/>
+      <c r="G102" s="351"/>
+      <c r="H102" s="351"/>
+      <c r="I102" s="351"/>
+      <c r="J102" s="351"/>
+      <c r="K102" s="351"/>
+      <c r="L102" s="351"/>
+      <c r="M102" s="351"/>
+      <c r="N102" s="351"/>
+      <c r="O102" s="351"/>
+      <c r="P102" s="351"/>
+      <c r="Q102" s="351"/>
+      <c r="R102" s="351"/>
+      <c r="S102" s="351"/>
+      <c r="T102" s="351"/>
+      <c r="U102" s="351"/>
+      <c r="V102" s="351"/>
+      <c r="W102" s="351"/>
+      <c r="X102" s="351"/>
     </row>
     <row r="103" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="350"/>
-      <c r="B103" s="350"/>
-      <c r="C103" s="350"/>
-      <c r="D103" s="350"/>
-      <c r="E103" s="350"/>
-      <c r="F103" s="350"/>
-      <c r="G103" s="350"/>
-      <c r="H103" s="350"/>
-      <c r="I103" s="350"/>
-      <c r="J103" s="350"/>
-      <c r="K103" s="350"/>
-      <c r="L103" s="350"/>
-      <c r="M103" s="350"/>
-      <c r="N103" s="350"/>
-      <c r="O103" s="350"/>
-      <c r="P103" s="350"/>
-      <c r="Q103" s="350"/>
-      <c r="R103" s="350"/>
-      <c r="S103" s="350"/>
-      <c r="T103" s="350"/>
-      <c r="U103" s="350"/>
-      <c r="V103" s="350"/>
-      <c r="W103" s="350"/>
-      <c r="X103" s="350"/>
+      <c r="A103" s="351"/>
+      <c r="B103" s="351"/>
+      <c r="C103" s="351"/>
+      <c r="D103" s="351"/>
+      <c r="E103" s="351"/>
+      <c r="F103" s="351"/>
+      <c r="G103" s="351"/>
+      <c r="H103" s="351"/>
+      <c r="I103" s="351"/>
+      <c r="J103" s="351"/>
+      <c r="K103" s="351"/>
+      <c r="L103" s="351"/>
+      <c r="M103" s="351"/>
+      <c r="N103" s="351"/>
+      <c r="O103" s="351"/>
+      <c r="P103" s="351"/>
+      <c r="Q103" s="351"/>
+      <c r="R103" s="351"/>
+      <c r="S103" s="351"/>
+      <c r="T103" s="351"/>
+      <c r="U103" s="351"/>
+      <c r="V103" s="351"/>
+      <c r="W103" s="351"/>
+      <c r="X103" s="351"/>
     </row>
     <row r="104" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="239" t="s">
@@ -38979,108 +39108,130 @@
       <c r="Y112" s="9"/>
     </row>
     <row r="113" spans="9:25" x14ac:dyDescent="0.3">
-      <c r="I113" s="365" t="s">
+      <c r="I113" s="341" t="s">
         <v>30</v>
       </c>
-      <c r="J113" s="365"/>
-      <c r="K113" s="365"/>
-      <c r="L113" s="365"/>
-      <c r="M113" s="365"/>
-      <c r="N113" s="365"/>
-      <c r="O113" s="365"/>
-      <c r="P113" s="365"/>
+      <c r="J113" s="341"/>
+      <c r="K113" s="341"/>
+      <c r="L113" s="341"/>
+      <c r="M113" s="341"/>
+      <c r="N113" s="341"/>
+      <c r="O113" s="341"/>
+      <c r="P113" s="341"/>
       <c r="Y113" s="9"/>
     </row>
     <row r="114" spans="9:25" x14ac:dyDescent="0.3">
-      <c r="I114" s="366" t="str">
+      <c r="I114" s="342" t="str">
         <f>IF(I113=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
         <v>Director Técnico</v>
       </c>
-      <c r="J114" s="366"/>
-      <c r="K114" s="366"/>
-      <c r="L114" s="366"/>
-      <c r="M114" s="366"/>
-      <c r="N114" s="366"/>
-      <c r="O114" s="366"/>
-      <c r="P114" s="366"/>
+      <c r="J114" s="342"/>
+      <c r="K114" s="342"/>
+      <c r="L114" s="342"/>
+      <c r="M114" s="342"/>
+      <c r="N114" s="342"/>
+      <c r="O114" s="342"/>
+      <c r="P114" s="342"/>
     </row>
     <row r="115" spans="9:25" x14ac:dyDescent="0.3">
-      <c r="I115" s="367" t="s">
+      <c r="I115" s="343" t="s">
         <v>446</v>
       </c>
-      <c r="J115" s="367"/>
-      <c r="K115" s="367"/>
-      <c r="L115" s="367"/>
-      <c r="M115" s="367"/>
-      <c r="N115" s="367"/>
-      <c r="O115" s="367"/>
-      <c r="P115" s="367"/>
+      <c r="J115" s="343"/>
+      <c r="K115" s="343"/>
+      <c r="L115" s="343"/>
+      <c r="M115" s="343"/>
+      <c r="N115" s="343"/>
+      <c r="O115" s="343"/>
+      <c r="P115" s="343"/>
     </row>
     <row r="116" spans="9:25" x14ac:dyDescent="0.3">
-      <c r="I116" s="368" t="s">
+      <c r="I116" s="344" t="s">
         <v>447</v>
       </c>
-      <c r="J116" s="368"/>
-      <c r="K116" s="368"/>
-      <c r="L116" s="368"/>
-      <c r="M116" s="368"/>
-      <c r="N116" s="368"/>
-      <c r="O116" s="368"/>
-      <c r="P116" s="368"/>
+      <c r="J116" s="344"/>
+      <c r="K116" s="344"/>
+      <c r="L116" s="344"/>
+      <c r="M116" s="344"/>
+      <c r="N116" s="344"/>
+      <c r="O116" s="344"/>
+      <c r="P116" s="344"/>
     </row>
   </sheetData>
-  <mergeCells count="120">
-    <mergeCell ref="I113:P113"/>
-    <mergeCell ref="I114:P114"/>
-    <mergeCell ref="I115:P115"/>
-    <mergeCell ref="I116:P116"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="O97:T97"/>
-    <mergeCell ref="U97:X97"/>
-    <mergeCell ref="A102:X103"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="O95:T95"/>
-    <mergeCell ref="U95:X95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="O96:T96"/>
-    <mergeCell ref="U96:X96"/>
-    <mergeCell ref="A84:X84"/>
-    <mergeCell ref="A87:X91"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="O94:T94"/>
-    <mergeCell ref="U94:X94"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:K71"/>
-    <mergeCell ref="L71:Q71"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="N77:X77"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:K69"/>
-    <mergeCell ref="L69:Q69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:K70"/>
-    <mergeCell ref="L70:Q70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:K67"/>
-    <mergeCell ref="L67:Q67"/>
-    <mergeCell ref="R67:W67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:K68"/>
-    <mergeCell ref="L68:Q68"/>
-    <mergeCell ref="R68:W68"/>
+  <mergeCells count="144">
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="L72:Q72"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="F72:K72"/>
+    <mergeCell ref="F73:K73"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="R35:W35"/>
+    <mergeCell ref="R36:W36"/>
+    <mergeCell ref="R37:W37"/>
+    <mergeCell ref="L35:Q35"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="L37:Q37"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N21:X22"/>
+    <mergeCell ref="D24:W24"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="F25:K26"/>
+    <mergeCell ref="L25:Q26"/>
+    <mergeCell ref="R25:W26"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="R32:W32"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="F65:K65"/>
     <mergeCell ref="L65:Q65"/>
@@ -39098,58 +39249,60 @@
     <mergeCell ref="F64:K64"/>
     <mergeCell ref="L64:Q64"/>
     <mergeCell ref="R64:W64"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="F25:K26"/>
-    <mergeCell ref="L25:Q26"/>
-    <mergeCell ref="R25:W26"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N21:X22"/>
-    <mergeCell ref="D24:W24"/>
-    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:K69"/>
+    <mergeCell ref="L69:Q69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:K70"/>
+    <mergeCell ref="L70:Q70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:K67"/>
+    <mergeCell ref="L67:Q67"/>
+    <mergeCell ref="R67:W67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:K68"/>
+    <mergeCell ref="L68:Q68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="A84:X84"/>
+    <mergeCell ref="A87:X91"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="O94:T94"/>
+    <mergeCell ref="U94:X94"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:K71"/>
+    <mergeCell ref="L71:Q71"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="N77:X77"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="R73:W73"/>
+    <mergeCell ref="R74:W74"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="O95:T95"/>
+    <mergeCell ref="U95:X95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="O96:T96"/>
+    <mergeCell ref="U96:X96"/>
+    <mergeCell ref="I113:P113"/>
+    <mergeCell ref="I114:P114"/>
+    <mergeCell ref="I115:P115"/>
+    <mergeCell ref="I116:P116"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="O97:T97"/>
+    <mergeCell ref="U97:X97"/>
+    <mergeCell ref="A102:X103"/>
   </mergeCells>
   <conditionalFormatting sqref="A106">
     <cfRule type="cellIs" priority="1" operator="equal">
@@ -39236,20 +39389,20 @@
       <c r="K8" s="227"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="333" t="str">
+      <c r="N8" s="374" t="str">
         <f>General!F3</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O8" s="334"/>
-      <c r="P8" s="334"/>
-      <c r="Q8" s="334"/>
-      <c r="R8" s="334"/>
-      <c r="S8" s="334"/>
-      <c r="T8" s="334"/>
-      <c r="U8" s="334"/>
-      <c r="V8" s="334"/>
-      <c r="W8" s="334"/>
-      <c r="X8" s="334"/>
+      <c r="O8" s="362"/>
+      <c r="P8" s="362"/>
+      <c r="Q8" s="362"/>
+      <c r="R8" s="362"/>
+      <c r="S8" s="362"/>
+      <c r="T8" s="362"/>
+      <c r="U8" s="362"/>
+      <c r="V8" s="362"/>
+      <c r="W8" s="362"/>
+      <c r="X8" s="362"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="224" t="s">
@@ -39266,20 +39419,20 @@
       <c r="K9" s="227"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="335" t="str">
+      <c r="N9" s="373" t="str">
         <f>General!F4</f>
         <v>NI-CS-XXXX-XX</v>
       </c>
-      <c r="O9" s="336"/>
-      <c r="P9" s="336"/>
-      <c r="Q9" s="336"/>
-      <c r="R9" s="336"/>
-      <c r="S9" s="336"/>
-      <c r="T9" s="336"/>
-      <c r="U9" s="336"/>
-      <c r="V9" s="336"/>
-      <c r="W9" s="336"/>
-      <c r="X9" s="336"/>
+      <c r="O9" s="364"/>
+      <c r="P9" s="364"/>
+      <c r="Q9" s="364"/>
+      <c r="R9" s="364"/>
+      <c r="S9" s="364"/>
+      <c r="T9" s="364"/>
+      <c r="U9" s="364"/>
+      <c r="V9" s="364"/>
+      <c r="W9" s="364"/>
+      <c r="X9" s="364"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="224" t="s">
@@ -39296,20 +39449,20 @@
       <c r="K10" s="227"/>
       <c r="L10" s="228"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="337">
+      <c r="N10" s="375">
         <f>General!F5</f>
         <v>43299</v>
       </c>
-      <c r="O10" s="337"/>
-      <c r="P10" s="337"/>
-      <c r="Q10" s="337"/>
-      <c r="R10" s="337"/>
-      <c r="S10" s="337"/>
-      <c r="T10" s="337"/>
-      <c r="U10" s="337"/>
-      <c r="V10" s="337"/>
-      <c r="W10" s="337"/>
-      <c r="X10" s="337"/>
+      <c r="O10" s="375"/>
+      <c r="P10" s="375"/>
+      <c r="Q10" s="375"/>
+      <c r="R10" s="375"/>
+      <c r="S10" s="375"/>
+      <c r="T10" s="375"/>
+      <c r="U10" s="375"/>
+      <c r="V10" s="375"/>
+      <c r="W10" s="375"/>
+      <c r="X10" s="375"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="224" t="s">
@@ -39326,12 +39479,12 @@
       <c r="K11" s="227"/>
       <c r="L11" s="228"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="337">
+      <c r="N11" s="375">
         <v>43610.729139583331</v>
       </c>
-      <c r="O11" s="337"/>
-      <c r="P11" s="337"/>
-      <c r="Q11" s="337"/>
+      <c r="O11" s="375"/>
+      <c r="P11" s="375"/>
+      <c r="Q11" s="375"/>
       <c r="R11" s="279"/>
       <c r="S11" s="279"/>
       <c r="T11" s="279"/>
@@ -39355,20 +39508,20 @@
       <c r="K12" s="227"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="335" t="str">
+      <c r="N12" s="373" t="str">
         <f>General!F7</f>
         <v xml:space="preserve">Manómetro </v>
       </c>
-      <c r="O12" s="336"/>
-      <c r="P12" s="336"/>
-      <c r="Q12" s="336"/>
-      <c r="R12" s="336"/>
-      <c r="S12" s="336"/>
-      <c r="T12" s="336"/>
-      <c r="U12" s="336"/>
-      <c r="V12" s="336"/>
-      <c r="W12" s="336"/>
-      <c r="X12" s="336"/>
+      <c r="O12" s="364"/>
+      <c r="P12" s="364"/>
+      <c r="Q12" s="364"/>
+      <c r="R12" s="364"/>
+      <c r="S12" s="364"/>
+      <c r="T12" s="364"/>
+      <c r="U12" s="364"/>
+      <c r="V12" s="364"/>
+      <c r="W12" s="364"/>
+      <c r="X12" s="364"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="224" t="s">
@@ -39385,20 +39538,20 @@
       <c r="K13" s="227"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="335" t="str">
+      <c r="N13" s="373" t="str">
         <f>General!F10</f>
         <v>HEISE</v>
       </c>
-      <c r="O13" s="336"/>
-      <c r="P13" s="336"/>
-      <c r="Q13" s="336"/>
-      <c r="R13" s="336"/>
-      <c r="S13" s="336"/>
-      <c r="T13" s="336"/>
-      <c r="U13" s="336"/>
-      <c r="V13" s="336"/>
-      <c r="W13" s="336"/>
-      <c r="X13" s="336"/>
+      <c r="O13" s="364"/>
+      <c r="P13" s="364"/>
+      <c r="Q13" s="364"/>
+      <c r="R13" s="364"/>
+      <c r="S13" s="364"/>
+      <c r="T13" s="364"/>
+      <c r="U13" s="364"/>
+      <c r="V13" s="364"/>
+      <c r="W13" s="364"/>
+      <c r="X13" s="364"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="224" t="s">
@@ -39415,20 +39568,20 @@
       <c r="K14" s="227"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="335" t="str">
+      <c r="N14" s="373" t="str">
         <f>General!F12</f>
         <v>706340</v>
       </c>
-      <c r="O14" s="336"/>
-      <c r="P14" s="336"/>
-      <c r="Q14" s="336"/>
-      <c r="R14" s="336"/>
-      <c r="S14" s="336"/>
-      <c r="T14" s="336"/>
-      <c r="U14" s="336"/>
-      <c r="V14" s="336"/>
-      <c r="W14" s="336"/>
-      <c r="X14" s="336"/>
+      <c r="O14" s="364"/>
+      <c r="P14" s="364"/>
+      <c r="Q14" s="364"/>
+      <c r="R14" s="364"/>
+      <c r="S14" s="364"/>
+      <c r="T14" s="364"/>
+      <c r="U14" s="364"/>
+      <c r="V14" s="364"/>
+      <c r="W14" s="364"/>
+      <c r="X14" s="364"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="224" t="s">
@@ -39445,20 +39598,20 @@
       <c r="K15" s="227"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="335" t="str">
+      <c r="N15" s="373" t="str">
         <f>General!F11</f>
         <v>CC</v>
       </c>
-      <c r="O15" s="336"/>
-      <c r="P15" s="336"/>
-      <c r="Q15" s="336"/>
-      <c r="R15" s="336"/>
-      <c r="S15" s="336"/>
-      <c r="T15" s="336"/>
-      <c r="U15" s="336"/>
-      <c r="V15" s="336"/>
-      <c r="W15" s="336"/>
-      <c r="X15" s="336"/>
+      <c r="O15" s="364"/>
+      <c r="P15" s="364"/>
+      <c r="Q15" s="364"/>
+      <c r="R15" s="364"/>
+      <c r="S15" s="364"/>
+      <c r="T15" s="364"/>
+      <c r="U15" s="364"/>
+      <c r="V15" s="364"/>
+      <c r="W15" s="364"/>
+      <c r="X15" s="364"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="224" t="s">
@@ -39475,20 +39628,20 @@
       <c r="K16" s="227"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="335" t="str">
+      <c r="N16" s="373" t="str">
         <f>General!F18</f>
         <v>0 psi a 200 psi</v>
       </c>
-      <c r="O16" s="336"/>
-      <c r="P16" s="336"/>
-      <c r="Q16" s="336"/>
-      <c r="R16" s="336"/>
-      <c r="S16" s="336"/>
-      <c r="T16" s="336"/>
-      <c r="U16" s="336"/>
-      <c r="V16" s="336"/>
-      <c r="W16" s="336"/>
-      <c r="X16" s="336"/>
+      <c r="O16" s="364"/>
+      <c r="P16" s="364"/>
+      <c r="Q16" s="364"/>
+      <c r="R16" s="364"/>
+      <c r="S16" s="364"/>
+      <c r="T16" s="364"/>
+      <c r="U16" s="364"/>
+      <c r="V16" s="364"/>
+      <c r="W16" s="364"/>
+      <c r="X16" s="364"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="224" t="s">
@@ -39505,16 +39658,16 @@
       <c r="K17" s="227"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="335" t="str">
+      <c r="N17" s="373" t="str">
         <f>General!F15</f>
         <v>1</v>
       </c>
-      <c r="O17" s="336"/>
-      <c r="P17" s="335" t="str">
+      <c r="O17" s="364"/>
+      <c r="P17" s="373" t="str">
         <f>General!F16</f>
         <v>psi</v>
       </c>
-      <c r="Q17" s="336"/>
+      <c r="Q17" s="364"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -39538,20 +39691,20 @@
       <c r="K18" s="227"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="335" t="str">
+      <c r="N18" s="373" t="str">
         <f>General!F6</f>
         <v>706340</v>
       </c>
-      <c r="O18" s="336"/>
-      <c r="P18" s="336"/>
-      <c r="Q18" s="336"/>
-      <c r="R18" s="336"/>
-      <c r="S18" s="336"/>
-      <c r="T18" s="336"/>
-      <c r="U18" s="336"/>
-      <c r="V18" s="336"/>
-      <c r="W18" s="336"/>
-      <c r="X18" s="336"/>
+      <c r="O18" s="364"/>
+      <c r="P18" s="364"/>
+      <c r="Q18" s="364"/>
+      <c r="R18" s="364"/>
+      <c r="S18" s="364"/>
+      <c r="T18" s="364"/>
+      <c r="U18" s="364"/>
+      <c r="V18" s="364"/>
+      <c r="W18" s="364"/>
+      <c r="X18" s="364"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="224" t="s">
@@ -39568,20 +39721,20 @@
       <c r="K19" s="227"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="335" t="str">
+      <c r="N19" s="373" t="str">
         <f>General!L3</f>
         <v xml:space="preserve">A&amp;T Nicaragua S.A. </v>
       </c>
-      <c r="O19" s="336"/>
-      <c r="P19" s="336"/>
-      <c r="Q19" s="336"/>
-      <c r="R19" s="336"/>
-      <c r="S19" s="336"/>
-      <c r="T19" s="336"/>
-      <c r="U19" s="336"/>
-      <c r="V19" s="336"/>
-      <c r="W19" s="336"/>
-      <c r="X19" s="336"/>
+      <c r="O19" s="364"/>
+      <c r="P19" s="364"/>
+      <c r="Q19" s="364"/>
+      <c r="R19" s="364"/>
+      <c r="S19" s="364"/>
+      <c r="T19" s="364"/>
+      <c r="U19" s="364"/>
+      <c r="V19" s="364"/>
+      <c r="W19" s="364"/>
+      <c r="X19" s="364"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
@@ -39598,20 +39751,20 @@
       <c r="K20" s="227"/>
       <c r="L20" s="10"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="336" t="str">
+      <c r="N20" s="364" t="str">
         <f>General!L4</f>
         <v xml:space="preserve">Coyotepe, 800 m norte               </v>
       </c>
-      <c r="O20" s="336"/>
-      <c r="P20" s="336"/>
-      <c r="Q20" s="336"/>
-      <c r="R20" s="336"/>
-      <c r="S20" s="336"/>
-      <c r="T20" s="336"/>
-      <c r="U20" s="336"/>
-      <c r="V20" s="336"/>
-      <c r="W20" s="336"/>
-      <c r="X20" s="336"/>
+      <c r="O20" s="364"/>
+      <c r="P20" s="364"/>
+      <c r="Q20" s="364"/>
+      <c r="R20" s="364"/>
+      <c r="S20" s="364"/>
+      <c r="T20" s="364"/>
+      <c r="U20" s="364"/>
+      <c r="V20" s="364"/>
+      <c r="W20" s="364"/>
+      <c r="X20" s="364"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="224" t="s">
@@ -39628,34 +39781,34 @@
       <c r="K21" s="227"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="338" t="str">
+      <c r="N21" s="376" t="str">
         <f>General!L6</f>
         <v xml:space="preserve">Laboratorio #2 Metrocal </v>
       </c>
-      <c r="O21" s="338"/>
-      <c r="P21" s="338"/>
-      <c r="Q21" s="338"/>
-      <c r="R21" s="338"/>
-      <c r="S21" s="338"/>
-      <c r="T21" s="338"/>
-      <c r="U21" s="338"/>
-      <c r="V21" s="338"/>
-      <c r="W21" s="338"/>
-      <c r="X21" s="338"/>
+      <c r="O21" s="376"/>
+      <c r="P21" s="376"/>
+      <c r="Q21" s="376"/>
+      <c r="R21" s="376"/>
+      <c r="S21" s="376"/>
+      <c r="T21" s="376"/>
+      <c r="U21" s="376"/>
+      <c r="V21" s="376"/>
+      <c r="W21" s="376"/>
+      <c r="X21" s="376"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="224"/>
-      <c r="N22" s="338"/>
-      <c r="O22" s="338"/>
-      <c r="P22" s="338"/>
-      <c r="Q22" s="338"/>
-      <c r="R22" s="338"/>
-      <c r="S22" s="338"/>
-      <c r="T22" s="338"/>
-      <c r="U22" s="338"/>
-      <c r="V22" s="338"/>
-      <c r="W22" s="338"/>
-      <c r="X22" s="338"/>
+      <c r="N22" s="376"/>
+      <c r="O22" s="376"/>
+      <c r="P22" s="376"/>
+      <c r="Q22" s="376"/>
+      <c r="R22" s="376"/>
+      <c r="S22" s="376"/>
+      <c r="T22" s="376"/>
+      <c r="U22" s="376"/>
+      <c r="V22" s="376"/>
+      <c r="W22" s="376"/>
+      <c r="X22" s="376"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="224"/>
@@ -39684,376 +39837,376 @@
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="339" t="s">
+      <c r="D25" s="366" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="339"/>
-      <c r="F25" s="339"/>
-      <c r="G25" s="339"/>
-      <c r="H25" s="339"/>
-      <c r="I25" s="339"/>
-      <c r="J25" s="339"/>
-      <c r="K25" s="339"/>
-      <c r="L25" s="339"/>
-      <c r="M25" s="339"/>
-      <c r="N25" s="339"/>
-      <c r="O25" s="339"/>
-      <c r="P25" s="339"/>
-      <c r="Q25" s="339"/>
-      <c r="R25" s="339"/>
-      <c r="S25" s="339"/>
-      <c r="T25" s="339"/>
-      <c r="U25" s="339"/>
-      <c r="V25" s="339"/>
-      <c r="W25" s="339"/>
+      <c r="E25" s="366"/>
+      <c r="F25" s="366"/>
+      <c r="G25" s="366"/>
+      <c r="H25" s="366"/>
+      <c r="I25" s="366"/>
+      <c r="J25" s="366"/>
+      <c r="K25" s="366"/>
+      <c r="L25" s="366"/>
+      <c r="M25" s="366"/>
+      <c r="N25" s="366"/>
+      <c r="O25" s="366"/>
+      <c r="P25" s="366"/>
+      <c r="Q25" s="366"/>
+      <c r="R25" s="366"/>
+      <c r="S25" s="366"/>
+      <c r="T25" s="366"/>
+      <c r="U25" s="366"/>
+      <c r="V25" s="366"/>
+      <c r="W25" s="366"/>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="340" t="s">
+      <c r="D26" s="367" t="s">
         <v>360</v>
       </c>
-      <c r="E26" s="340"/>
-      <c r="F26" s="341" t="s">
+      <c r="E26" s="367"/>
+      <c r="F26" s="368" t="s">
         <v>425</v>
       </c>
-      <c r="G26" s="341"/>
-      <c r="H26" s="341"/>
-      <c r="I26" s="341"/>
-      <c r="J26" s="341"/>
-      <c r="K26" s="341"/>
-      <c r="L26" s="341" t="s">
+      <c r="G26" s="368"/>
+      <c r="H26" s="368"/>
+      <c r="I26" s="368"/>
+      <c r="J26" s="368"/>
+      <c r="K26" s="368"/>
+      <c r="L26" s="368" t="s">
         <v>96</v>
       </c>
-      <c r="M26" s="341"/>
-      <c r="N26" s="341"/>
-      <c r="O26" s="341"/>
-      <c r="P26" s="341"/>
-      <c r="Q26" s="341"/>
-      <c r="R26" s="340" t="s">
+      <c r="M26" s="368"/>
+      <c r="N26" s="368"/>
+      <c r="O26" s="368"/>
+      <c r="P26" s="368"/>
+      <c r="Q26" s="368"/>
+      <c r="R26" s="367" t="s">
         <v>426</v>
       </c>
-      <c r="S26" s="340"/>
-      <c r="T26" s="340"/>
-      <c r="U26" s="340"/>
-      <c r="V26" s="340"/>
-      <c r="W26" s="340"/>
+      <c r="S26" s="367"/>
+      <c r="T26" s="367"/>
+      <c r="U26" s="367"/>
+      <c r="V26" s="367"/>
+      <c r="W26" s="367"/>
     </row>
     <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="340"/>
-      <c r="E27" s="340"/>
-      <c r="F27" s="341"/>
-      <c r="G27" s="341"/>
-      <c r="H27" s="341"/>
-      <c r="I27" s="341"/>
-      <c r="J27" s="341"/>
-      <c r="K27" s="341"/>
-      <c r="L27" s="341"/>
-      <c r="M27" s="341"/>
-      <c r="N27" s="341"/>
-      <c r="O27" s="341"/>
-      <c r="P27" s="341"/>
-      <c r="Q27" s="341"/>
-      <c r="R27" s="340"/>
-      <c r="S27" s="340"/>
-      <c r="T27" s="340"/>
-      <c r="U27" s="340"/>
-      <c r="V27" s="340"/>
-      <c r="W27" s="340"/>
+      <c r="D27" s="367"/>
+      <c r="E27" s="367"/>
+      <c r="F27" s="368"/>
+      <c r="G27" s="368"/>
+      <c r="H27" s="368"/>
+      <c r="I27" s="368"/>
+      <c r="J27" s="368"/>
+      <c r="K27" s="368"/>
+      <c r="L27" s="368"/>
+      <c r="M27" s="368"/>
+      <c r="N27" s="368"/>
+      <c r="O27" s="368"/>
+      <c r="P27" s="368"/>
+      <c r="Q27" s="368"/>
+      <c r="R27" s="367"/>
+      <c r="S27" s="367"/>
+      <c r="T27" s="367"/>
+      <c r="U27" s="367"/>
+      <c r="V27" s="367"/>
+      <c r="W27" s="367"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="346" t="str">
+      <c r="D28" s="369" t="str">
         <f>Calibración!C37</f>
         <v>psi</v>
       </c>
-      <c r="E28" s="346"/>
-      <c r="F28" s="347" t="str">
+      <c r="E28" s="369"/>
+      <c r="F28" s="370" t="str">
         <f>Calibración!D37</f>
         <v>psi</v>
       </c>
-      <c r="G28" s="348"/>
-      <c r="H28" s="348"/>
-      <c r="I28" s="348"/>
-      <c r="J28" s="348"/>
-      <c r="K28" s="349"/>
-      <c r="L28" s="347" t="str">
+      <c r="G28" s="371"/>
+      <c r="H28" s="371"/>
+      <c r="I28" s="371"/>
+      <c r="J28" s="371"/>
+      <c r="K28" s="372"/>
+      <c r="L28" s="370" t="str">
         <f>Calibración!E37</f>
         <v>psi</v>
       </c>
-      <c r="M28" s="348"/>
-      <c r="N28" s="348"/>
-      <c r="O28" s="348"/>
-      <c r="P28" s="348"/>
-      <c r="Q28" s="349"/>
-      <c r="R28" s="347" t="str">
+      <c r="M28" s="371"/>
+      <c r="N28" s="371"/>
+      <c r="O28" s="371"/>
+      <c r="P28" s="371"/>
+      <c r="Q28" s="372"/>
+      <c r="R28" s="370" t="str">
         <f>Calibración!F37</f>
         <v>psi</v>
       </c>
-      <c r="S28" s="348"/>
-      <c r="T28" s="348"/>
-      <c r="U28" s="348"/>
-      <c r="V28" s="348"/>
-      <c r="W28" s="349"/>
+      <c r="S28" s="371"/>
+      <c r="T28" s="371"/>
+      <c r="U28" s="371"/>
+      <c r="V28" s="371"/>
+      <c r="W28" s="372"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="342" t="str">
+      <c r="D29" s="358" t="str">
         <f ca="1">Calibración!C38</f>
         <v/>
       </c>
-      <c r="E29" s="342"/>
-      <c r="F29" s="343" t="str">
+      <c r="E29" s="358"/>
+      <c r="F29" s="359" t="str">
         <f ca="1">Calibración!D38</f>
         <v/>
       </c>
-      <c r="G29" s="344"/>
-      <c r="H29" s="344"/>
-      <c r="I29" s="344"/>
-      <c r="J29" s="344"/>
-      <c r="K29" s="345"/>
-      <c r="L29" s="343" t="str">
+      <c r="G29" s="360"/>
+      <c r="H29" s="360"/>
+      <c r="I29" s="360"/>
+      <c r="J29" s="360"/>
+      <c r="K29" s="361"/>
+      <c r="L29" s="359" t="str">
         <f ca="1">Calibración!E38</f>
         <v/>
       </c>
-      <c r="M29" s="344"/>
-      <c r="N29" s="344"/>
-      <c r="O29" s="344"/>
-      <c r="P29" s="344"/>
-      <c r="Q29" s="345"/>
-      <c r="R29" s="343" t="str">
+      <c r="M29" s="360"/>
+      <c r="N29" s="360"/>
+      <c r="O29" s="360"/>
+      <c r="P29" s="360"/>
+      <c r="Q29" s="361"/>
+      <c r="R29" s="359" t="str">
         <f ca="1">Calibración!F38</f>
         <v/>
       </c>
-      <c r="S29" s="344"/>
-      <c r="T29" s="344"/>
-      <c r="U29" s="344"/>
-      <c r="V29" s="344"/>
-      <c r="W29" s="345"/>
+      <c r="S29" s="360"/>
+      <c r="T29" s="360"/>
+      <c r="U29" s="360"/>
+      <c r="V29" s="360"/>
+      <c r="W29" s="361"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="342" t="str">
+      <c r="D30" s="358" t="str">
         <f ca="1">Calibración!C39</f>
         <v/>
       </c>
-      <c r="E30" s="342"/>
-      <c r="F30" s="343" t="str">
+      <c r="E30" s="358"/>
+      <c r="F30" s="359" t="str">
         <f ca="1">Calibración!D39</f>
         <v/>
       </c>
-      <c r="G30" s="344"/>
-      <c r="H30" s="344"/>
-      <c r="I30" s="344"/>
-      <c r="J30" s="344"/>
-      <c r="K30" s="345"/>
-      <c r="L30" s="343" t="str">
+      <c r="G30" s="360"/>
+      <c r="H30" s="360"/>
+      <c r="I30" s="360"/>
+      <c r="J30" s="360"/>
+      <c r="K30" s="361"/>
+      <c r="L30" s="359" t="str">
         <f ca="1">Calibración!E39</f>
         <v/>
       </c>
-      <c r="M30" s="344"/>
-      <c r="N30" s="344"/>
-      <c r="O30" s="344"/>
-      <c r="P30" s="344"/>
-      <c r="Q30" s="345"/>
-      <c r="R30" s="343" t="str">
+      <c r="M30" s="360"/>
+      <c r="N30" s="360"/>
+      <c r="O30" s="360"/>
+      <c r="P30" s="360"/>
+      <c r="Q30" s="361"/>
+      <c r="R30" s="359" t="str">
         <f ca="1">Calibración!F39</f>
         <v/>
       </c>
-      <c r="S30" s="344"/>
-      <c r="T30" s="344"/>
-      <c r="U30" s="344"/>
-      <c r="V30" s="344"/>
-      <c r="W30" s="345"/>
+      <c r="S30" s="360"/>
+      <c r="T30" s="360"/>
+      <c r="U30" s="360"/>
+      <c r="V30" s="360"/>
+      <c r="W30" s="361"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="342" t="str">
+      <c r="D31" s="358" t="str">
         <f ca="1">Calibración!C40</f>
         <v/>
       </c>
-      <c r="E31" s="342"/>
-      <c r="F31" s="343" t="str">
+      <c r="E31" s="358"/>
+      <c r="F31" s="359" t="str">
         <f ca="1">Calibración!D40</f>
         <v/>
       </c>
-      <c r="G31" s="344"/>
-      <c r="H31" s="344"/>
-      <c r="I31" s="344"/>
-      <c r="J31" s="344"/>
-      <c r="K31" s="345"/>
-      <c r="L31" s="343" t="str">
+      <c r="G31" s="360"/>
+      <c r="H31" s="360"/>
+      <c r="I31" s="360"/>
+      <c r="J31" s="360"/>
+      <c r="K31" s="361"/>
+      <c r="L31" s="359" t="str">
         <f ca="1">Calibración!E40</f>
         <v/>
       </c>
-      <c r="M31" s="344"/>
-      <c r="N31" s="344"/>
-      <c r="O31" s="344"/>
-      <c r="P31" s="344"/>
-      <c r="Q31" s="345"/>
-      <c r="R31" s="343" t="str">
+      <c r="M31" s="360"/>
+      <c r="N31" s="360"/>
+      <c r="O31" s="360"/>
+      <c r="P31" s="360"/>
+      <c r="Q31" s="361"/>
+      <c r="R31" s="359" t="str">
         <f ca="1">Calibración!F40</f>
         <v/>
       </c>
-      <c r="S31" s="344"/>
-      <c r="T31" s="344"/>
-      <c r="U31" s="344"/>
-      <c r="V31" s="344"/>
-      <c r="W31" s="345"/>
+      <c r="S31" s="360"/>
+      <c r="T31" s="360"/>
+      <c r="U31" s="360"/>
+      <c r="V31" s="360"/>
+      <c r="W31" s="361"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="342" t="str">
+      <c r="D32" s="358" t="str">
         <f ca="1">Calibración!C41</f>
         <v/>
       </c>
-      <c r="E32" s="342"/>
-      <c r="F32" s="343" t="str">
+      <c r="E32" s="358"/>
+      <c r="F32" s="359" t="str">
         <f ca="1">Calibración!D41</f>
         <v/>
       </c>
-      <c r="G32" s="344"/>
-      <c r="H32" s="344"/>
-      <c r="I32" s="344"/>
-      <c r="J32" s="344"/>
-      <c r="K32" s="345"/>
-      <c r="L32" s="343" t="str">
+      <c r="G32" s="360"/>
+      <c r="H32" s="360"/>
+      <c r="I32" s="360"/>
+      <c r="J32" s="360"/>
+      <c r="K32" s="361"/>
+      <c r="L32" s="359" t="str">
         <f ca="1">Calibración!E41</f>
         <v/>
       </c>
-      <c r="M32" s="344"/>
-      <c r="N32" s="344"/>
-      <c r="O32" s="344"/>
-      <c r="P32" s="344"/>
-      <c r="Q32" s="345"/>
-      <c r="R32" s="343" t="str">
+      <c r="M32" s="360"/>
+      <c r="N32" s="360"/>
+      <c r="O32" s="360"/>
+      <c r="P32" s="360"/>
+      <c r="Q32" s="361"/>
+      <c r="R32" s="359" t="str">
         <f ca="1">Calibración!F41</f>
         <v/>
       </c>
-      <c r="S32" s="344"/>
-      <c r="T32" s="344"/>
-      <c r="U32" s="344"/>
-      <c r="V32" s="344"/>
-      <c r="W32" s="345"/>
+      <c r="S32" s="360"/>
+      <c r="T32" s="360"/>
+      <c r="U32" s="360"/>
+      <c r="V32" s="360"/>
+      <c r="W32" s="361"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="342" t="str">
+      <c r="D33" s="358" t="str">
         <f ca="1">Calibración!C42</f>
         <v/>
       </c>
-      <c r="E33" s="342"/>
-      <c r="F33" s="343" t="str">
+      <c r="E33" s="358"/>
+      <c r="F33" s="359" t="str">
         <f ca="1">Calibración!D42</f>
         <v/>
       </c>
-      <c r="G33" s="344"/>
-      <c r="H33" s="344"/>
-      <c r="I33" s="344"/>
-      <c r="J33" s="344"/>
-      <c r="K33" s="345"/>
-      <c r="L33" s="343" t="str">
+      <c r="G33" s="360"/>
+      <c r="H33" s="360"/>
+      <c r="I33" s="360"/>
+      <c r="J33" s="360"/>
+      <c r="K33" s="361"/>
+      <c r="L33" s="359" t="str">
         <f ca="1">Calibración!E42</f>
         <v/>
       </c>
-      <c r="M33" s="344"/>
-      <c r="N33" s="344"/>
-      <c r="O33" s="344"/>
-      <c r="P33" s="344"/>
-      <c r="Q33" s="345"/>
-      <c r="R33" s="343" t="str">
+      <c r="M33" s="360"/>
+      <c r="N33" s="360"/>
+      <c r="O33" s="360"/>
+      <c r="P33" s="360"/>
+      <c r="Q33" s="361"/>
+      <c r="R33" s="359" t="str">
         <f ca="1">Calibración!F42</f>
         <v/>
       </c>
-      <c r="S33" s="344"/>
-      <c r="T33" s="344"/>
-      <c r="U33" s="344"/>
-      <c r="V33" s="344"/>
-      <c r="W33" s="345"/>
+      <c r="S33" s="360"/>
+      <c r="T33" s="360"/>
+      <c r="U33" s="360"/>
+      <c r="V33" s="360"/>
+      <c r="W33" s="361"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D34" s="342" t="str">
+      <c r="D34" s="358" t="str">
         <f ca="1">Calibración!C43</f>
         <v/>
       </c>
-      <c r="E34" s="342"/>
-      <c r="F34" s="343" t="str">
+      <c r="E34" s="358"/>
+      <c r="F34" s="359" t="str">
         <f ca="1">Calibración!D43</f>
         <v/>
       </c>
-      <c r="G34" s="344"/>
-      <c r="H34" s="344"/>
-      <c r="I34" s="344"/>
-      <c r="J34" s="344"/>
-      <c r="K34" s="345"/>
-      <c r="L34" s="343" t="str">
+      <c r="G34" s="360"/>
+      <c r="H34" s="360"/>
+      <c r="I34" s="360"/>
+      <c r="J34" s="360"/>
+      <c r="K34" s="361"/>
+      <c r="L34" s="359" t="str">
         <f ca="1">Calibración!E43</f>
         <v/>
       </c>
-      <c r="M34" s="344"/>
-      <c r="N34" s="344"/>
-      <c r="O34" s="344"/>
-      <c r="P34" s="344"/>
-      <c r="Q34" s="345"/>
-      <c r="R34" s="343" t="str">
+      <c r="M34" s="360"/>
+      <c r="N34" s="360"/>
+      <c r="O34" s="360"/>
+      <c r="P34" s="360"/>
+      <c r="Q34" s="361"/>
+      <c r="R34" s="359" t="str">
         <f ca="1">Calibración!F43</f>
         <v/>
       </c>
-      <c r="S34" s="344"/>
-      <c r="T34" s="344"/>
-      <c r="U34" s="344"/>
-      <c r="V34" s="344"/>
-      <c r="W34" s="345"/>
+      <c r="S34" s="360"/>
+      <c r="T34" s="360"/>
+      <c r="U34" s="360"/>
+      <c r="V34" s="360"/>
+      <c r="W34" s="361"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D35" s="342" t="str">
+      <c r="D35" s="358" t="str">
         <f ca="1">Calibración!C44</f>
         <v/>
       </c>
-      <c r="E35" s="342"/>
-      <c r="F35" s="343" t="str">
+      <c r="E35" s="358"/>
+      <c r="F35" s="359" t="str">
         <f ca="1">Calibración!D44</f>
         <v/>
       </c>
-      <c r="G35" s="344"/>
-      <c r="H35" s="344"/>
-      <c r="I35" s="344"/>
-      <c r="J35" s="344"/>
-      <c r="K35" s="345"/>
-      <c r="L35" s="343" t="str">
+      <c r="G35" s="360"/>
+      <c r="H35" s="360"/>
+      <c r="I35" s="360"/>
+      <c r="J35" s="360"/>
+      <c r="K35" s="361"/>
+      <c r="L35" s="359" t="str">
         <f ca="1">Calibración!E44</f>
         <v/>
       </c>
-      <c r="M35" s="344"/>
-      <c r="N35" s="344"/>
-      <c r="O35" s="344"/>
-      <c r="P35" s="344"/>
-      <c r="Q35" s="345"/>
-      <c r="R35" s="343" t="str">
+      <c r="M35" s="360"/>
+      <c r="N35" s="360"/>
+      <c r="O35" s="360"/>
+      <c r="P35" s="360"/>
+      <c r="Q35" s="361"/>
+      <c r="R35" s="359" t="str">
         <f ca="1">Calibración!F44</f>
         <v/>
       </c>
-      <c r="S35" s="344"/>
-      <c r="T35" s="344"/>
-      <c r="U35" s="344"/>
-      <c r="V35" s="344"/>
-      <c r="W35" s="345"/>
+      <c r="S35" s="360"/>
+      <c r="T35" s="360"/>
+      <c r="U35" s="360"/>
+      <c r="V35" s="360"/>
+      <c r="W35" s="361"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D36" s="230"/>
@@ -40106,376 +40259,376 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="339" t="s">
+      <c r="D38" s="366" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="339"/>
-      <c r="F38" s="339"/>
-      <c r="G38" s="339"/>
-      <c r="H38" s="339"/>
-      <c r="I38" s="339"/>
-      <c r="J38" s="339"/>
-      <c r="K38" s="339"/>
-      <c r="L38" s="339"/>
-      <c r="M38" s="339"/>
-      <c r="N38" s="339"/>
-      <c r="O38" s="339"/>
-      <c r="P38" s="339"/>
-      <c r="Q38" s="339"/>
-      <c r="R38" s="339"/>
-      <c r="S38" s="339"/>
-      <c r="T38" s="339"/>
-      <c r="U38" s="339"/>
-      <c r="V38" s="339"/>
-      <c r="W38" s="339"/>
+      <c r="E38" s="366"/>
+      <c r="F38" s="366"/>
+      <c r="G38" s="366"/>
+      <c r="H38" s="366"/>
+      <c r="I38" s="366"/>
+      <c r="J38" s="366"/>
+      <c r="K38" s="366"/>
+      <c r="L38" s="366"/>
+      <c r="M38" s="366"/>
+      <c r="N38" s="366"/>
+      <c r="O38" s="366"/>
+      <c r="P38" s="366"/>
+      <c r="Q38" s="366"/>
+      <c r="R38" s="366"/>
+      <c r="S38" s="366"/>
+      <c r="T38" s="366"/>
+      <c r="U38" s="366"/>
+      <c r="V38" s="366"/>
+      <c r="W38" s="366"/>
     </row>
     <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="340" t="s">
+      <c r="D39" s="367" t="s">
         <v>360</v>
       </c>
-      <c r="E39" s="340"/>
-      <c r="F39" s="341" t="s">
+      <c r="E39" s="367"/>
+      <c r="F39" s="368" t="s">
         <v>425</v>
       </c>
-      <c r="G39" s="341"/>
-      <c r="H39" s="341"/>
-      <c r="I39" s="341"/>
-      <c r="J39" s="341"/>
-      <c r="K39" s="341"/>
-      <c r="L39" s="341" t="s">
+      <c r="G39" s="368"/>
+      <c r="H39" s="368"/>
+      <c r="I39" s="368"/>
+      <c r="J39" s="368"/>
+      <c r="K39" s="368"/>
+      <c r="L39" s="368" t="s">
         <v>96</v>
       </c>
-      <c r="M39" s="341"/>
-      <c r="N39" s="341"/>
-      <c r="O39" s="341"/>
-      <c r="P39" s="341"/>
-      <c r="Q39" s="341"/>
-      <c r="R39" s="340" t="s">
+      <c r="M39" s="368"/>
+      <c r="N39" s="368"/>
+      <c r="O39" s="368"/>
+      <c r="P39" s="368"/>
+      <c r="Q39" s="368"/>
+      <c r="R39" s="367" t="s">
         <v>426</v>
       </c>
-      <c r="S39" s="340"/>
-      <c r="T39" s="340"/>
-      <c r="U39" s="340"/>
-      <c r="V39" s="340"/>
-      <c r="W39" s="340"/>
+      <c r="S39" s="367"/>
+      <c r="T39" s="367"/>
+      <c r="U39" s="367"/>
+      <c r="V39" s="367"/>
+      <c r="W39" s="367"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="340"/>
-      <c r="E40" s="340"/>
-      <c r="F40" s="341"/>
-      <c r="G40" s="341"/>
-      <c r="H40" s="341"/>
-      <c r="I40" s="341"/>
-      <c r="J40" s="341"/>
-      <c r="K40" s="341"/>
-      <c r="L40" s="341"/>
-      <c r="M40" s="341"/>
-      <c r="N40" s="341"/>
-      <c r="O40" s="341"/>
-      <c r="P40" s="341"/>
-      <c r="Q40" s="341"/>
-      <c r="R40" s="340"/>
-      <c r="S40" s="340"/>
-      <c r="T40" s="340"/>
-      <c r="U40" s="340"/>
-      <c r="V40" s="340"/>
-      <c r="W40" s="340"/>
+      <c r="D40" s="367"/>
+      <c r="E40" s="367"/>
+      <c r="F40" s="368"/>
+      <c r="G40" s="368"/>
+      <c r="H40" s="368"/>
+      <c r="I40" s="368"/>
+      <c r="J40" s="368"/>
+      <c r="K40" s="368"/>
+      <c r="L40" s="368"/>
+      <c r="M40" s="368"/>
+      <c r="N40" s="368"/>
+      <c r="O40" s="368"/>
+      <c r="P40" s="368"/>
+      <c r="Q40" s="368"/>
+      <c r="R40" s="367"/>
+      <c r="S40" s="367"/>
+      <c r="T40" s="367"/>
+      <c r="U40" s="367"/>
+      <c r="V40" s="367"/>
+      <c r="W40" s="367"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="346" t="str">
+      <c r="D41" s="369" t="str">
         <f>Calibración!G37</f>
         <v>kPa</v>
       </c>
-      <c r="E41" s="346"/>
-      <c r="F41" s="347" t="str">
+      <c r="E41" s="369"/>
+      <c r="F41" s="370" t="str">
         <f>Calibración!H37</f>
         <v>kPa</v>
       </c>
-      <c r="G41" s="348"/>
-      <c r="H41" s="348"/>
-      <c r="I41" s="348"/>
-      <c r="J41" s="348"/>
-      <c r="K41" s="349"/>
-      <c r="L41" s="346" t="str">
+      <c r="G41" s="371"/>
+      <c r="H41" s="371"/>
+      <c r="I41" s="371"/>
+      <c r="J41" s="371"/>
+      <c r="K41" s="372"/>
+      <c r="L41" s="369" t="str">
         <f>Calibración!I37</f>
         <v>kPa</v>
       </c>
-      <c r="M41" s="346"/>
-      <c r="N41" s="346"/>
-      <c r="O41" s="346"/>
-      <c r="P41" s="346"/>
-      <c r="Q41" s="346"/>
-      <c r="R41" s="346" t="str">
+      <c r="M41" s="369"/>
+      <c r="N41" s="369"/>
+      <c r="O41" s="369"/>
+      <c r="P41" s="369"/>
+      <c r="Q41" s="369"/>
+      <c r="R41" s="369" t="str">
         <f>Calibración!J37</f>
         <v>kPa</v>
       </c>
-      <c r="S41" s="346"/>
-      <c r="T41" s="346"/>
-      <c r="U41" s="346"/>
-      <c r="V41" s="346"/>
-      <c r="W41" s="346"/>
+      <c r="S41" s="369"/>
+      <c r="T41" s="369"/>
+      <c r="U41" s="369"/>
+      <c r="V41" s="369"/>
+      <c r="W41" s="369"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="342" t="str">
+      <c r="D42" s="358" t="str">
         <f ca="1">Calibración!G38</f>
         <v/>
       </c>
-      <c r="E42" s="342"/>
-      <c r="F42" s="343" t="str">
+      <c r="E42" s="358"/>
+      <c r="F42" s="359" t="str">
         <f ca="1">Calibración!H38</f>
         <v/>
       </c>
-      <c r="G42" s="344"/>
-      <c r="H42" s="344"/>
-      <c r="I42" s="344"/>
-      <c r="J42" s="344"/>
-      <c r="K42" s="345"/>
-      <c r="L42" s="342" t="str">
+      <c r="G42" s="360"/>
+      <c r="H42" s="360"/>
+      <c r="I42" s="360"/>
+      <c r="J42" s="360"/>
+      <c r="K42" s="361"/>
+      <c r="L42" s="358" t="str">
         <f ca="1">Calibración!I38</f>
         <v/>
       </c>
-      <c r="M42" s="342"/>
-      <c r="N42" s="342"/>
-      <c r="O42" s="342"/>
-      <c r="P42" s="342"/>
-      <c r="Q42" s="342"/>
-      <c r="R42" s="342" t="str">
+      <c r="M42" s="358"/>
+      <c r="N42" s="358"/>
+      <c r="O42" s="358"/>
+      <c r="P42" s="358"/>
+      <c r="Q42" s="358"/>
+      <c r="R42" s="358" t="str">
         <f ca="1">Calibración!J38</f>
         <v/>
       </c>
-      <c r="S42" s="342"/>
-      <c r="T42" s="342"/>
-      <c r="U42" s="342"/>
-      <c r="V42" s="342"/>
-      <c r="W42" s="342"/>
+      <c r="S42" s="358"/>
+      <c r="T42" s="358"/>
+      <c r="U42" s="358"/>
+      <c r="V42" s="358"/>
+      <c r="W42" s="358"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="342" t="str">
+      <c r="D43" s="358" t="str">
         <f ca="1">Calibración!G39</f>
         <v/>
       </c>
-      <c r="E43" s="342"/>
-      <c r="F43" s="343" t="str">
+      <c r="E43" s="358"/>
+      <c r="F43" s="359" t="str">
         <f ca="1">Calibración!H39</f>
         <v/>
       </c>
-      <c r="G43" s="344"/>
-      <c r="H43" s="344"/>
-      <c r="I43" s="344"/>
-      <c r="J43" s="344"/>
-      <c r="K43" s="345"/>
-      <c r="L43" s="342" t="str">
+      <c r="G43" s="360"/>
+      <c r="H43" s="360"/>
+      <c r="I43" s="360"/>
+      <c r="J43" s="360"/>
+      <c r="K43" s="361"/>
+      <c r="L43" s="358" t="str">
         <f ca="1">Calibración!I39</f>
         <v/>
       </c>
-      <c r="M43" s="342"/>
-      <c r="N43" s="342"/>
-      <c r="O43" s="342"/>
-      <c r="P43" s="342"/>
-      <c r="Q43" s="342"/>
-      <c r="R43" s="342" t="str">
+      <c r="M43" s="358"/>
+      <c r="N43" s="358"/>
+      <c r="O43" s="358"/>
+      <c r="P43" s="358"/>
+      <c r="Q43" s="358"/>
+      <c r="R43" s="358" t="str">
         <f ca="1">Calibración!J39</f>
         <v/>
       </c>
-      <c r="S43" s="342"/>
-      <c r="T43" s="342"/>
-      <c r="U43" s="342"/>
-      <c r="V43" s="342"/>
-      <c r="W43" s="342"/>
+      <c r="S43" s="358"/>
+      <c r="T43" s="358"/>
+      <c r="U43" s="358"/>
+      <c r="V43" s="358"/>
+      <c r="W43" s="358"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="342" t="str">
+      <c r="D44" s="358" t="str">
         <f ca="1">Calibración!G40</f>
         <v/>
       </c>
-      <c r="E44" s="342"/>
-      <c r="F44" s="343" t="str">
+      <c r="E44" s="358"/>
+      <c r="F44" s="359" t="str">
         <f ca="1">Calibración!H40</f>
         <v/>
       </c>
-      <c r="G44" s="344"/>
-      <c r="H44" s="344"/>
-      <c r="I44" s="344"/>
-      <c r="J44" s="344"/>
-      <c r="K44" s="345"/>
-      <c r="L44" s="342" t="str">
+      <c r="G44" s="360"/>
+      <c r="H44" s="360"/>
+      <c r="I44" s="360"/>
+      <c r="J44" s="360"/>
+      <c r="K44" s="361"/>
+      <c r="L44" s="358" t="str">
         <f ca="1">Calibración!I40</f>
         <v/>
       </c>
-      <c r="M44" s="342"/>
-      <c r="N44" s="342"/>
-      <c r="O44" s="342"/>
-      <c r="P44" s="342"/>
-      <c r="Q44" s="342"/>
-      <c r="R44" s="342" t="str">
+      <c r="M44" s="358"/>
+      <c r="N44" s="358"/>
+      <c r="O44" s="358"/>
+      <c r="P44" s="358"/>
+      <c r="Q44" s="358"/>
+      <c r="R44" s="358" t="str">
         <f ca="1">Calibración!J40</f>
         <v/>
       </c>
-      <c r="S44" s="342"/>
-      <c r="T44" s="342"/>
-      <c r="U44" s="342"/>
-      <c r="V44" s="342"/>
-      <c r="W44" s="342"/>
+      <c r="S44" s="358"/>
+      <c r="T44" s="358"/>
+      <c r="U44" s="358"/>
+      <c r="V44" s="358"/>
+      <c r="W44" s="358"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="342" t="str">
+      <c r="D45" s="358" t="str">
         <f ca="1">Calibración!G41</f>
         <v/>
       </c>
-      <c r="E45" s="342"/>
-      <c r="F45" s="343" t="str">
+      <c r="E45" s="358"/>
+      <c r="F45" s="359" t="str">
         <f ca="1">Calibración!H41</f>
         <v/>
       </c>
-      <c r="G45" s="344"/>
-      <c r="H45" s="344"/>
-      <c r="I45" s="344"/>
-      <c r="J45" s="344"/>
-      <c r="K45" s="345"/>
-      <c r="L45" s="342" t="str">
+      <c r="G45" s="360"/>
+      <c r="H45" s="360"/>
+      <c r="I45" s="360"/>
+      <c r="J45" s="360"/>
+      <c r="K45" s="361"/>
+      <c r="L45" s="358" t="str">
         <f ca="1">Calibración!I41</f>
         <v/>
       </c>
-      <c r="M45" s="342"/>
-      <c r="N45" s="342"/>
-      <c r="O45" s="342"/>
-      <c r="P45" s="342"/>
-      <c r="Q45" s="342"/>
-      <c r="R45" s="342" t="str">
+      <c r="M45" s="358"/>
+      <c r="N45" s="358"/>
+      <c r="O45" s="358"/>
+      <c r="P45" s="358"/>
+      <c r="Q45" s="358"/>
+      <c r="R45" s="358" t="str">
         <f ca="1">Calibración!J41</f>
         <v/>
       </c>
-      <c r="S45" s="342"/>
-      <c r="T45" s="342"/>
-      <c r="U45" s="342"/>
-      <c r="V45" s="342"/>
-      <c r="W45" s="342"/>
+      <c r="S45" s="358"/>
+      <c r="T45" s="358"/>
+      <c r="U45" s="358"/>
+      <c r="V45" s="358"/>
+      <c r="W45" s="358"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="342" t="str">
+      <c r="D46" s="358" t="str">
         <f ca="1">Calibración!G42</f>
         <v/>
       </c>
-      <c r="E46" s="342"/>
-      <c r="F46" s="343" t="str">
+      <c r="E46" s="358"/>
+      <c r="F46" s="359" t="str">
         <f ca="1">Calibración!H42</f>
         <v/>
       </c>
-      <c r="G46" s="344"/>
-      <c r="H46" s="344"/>
-      <c r="I46" s="344"/>
-      <c r="J46" s="344"/>
-      <c r="K46" s="345"/>
-      <c r="L46" s="342" t="str">
+      <c r="G46" s="360"/>
+      <c r="H46" s="360"/>
+      <c r="I46" s="360"/>
+      <c r="J46" s="360"/>
+      <c r="K46" s="361"/>
+      <c r="L46" s="358" t="str">
         <f ca="1">Calibración!I42</f>
         <v/>
       </c>
-      <c r="M46" s="342"/>
-      <c r="N46" s="342"/>
-      <c r="O46" s="342"/>
-      <c r="P46" s="342"/>
-      <c r="Q46" s="342"/>
-      <c r="R46" s="342" t="str">
+      <c r="M46" s="358"/>
+      <c r="N46" s="358"/>
+      <c r="O46" s="358"/>
+      <c r="P46" s="358"/>
+      <c r="Q46" s="358"/>
+      <c r="R46" s="358" t="str">
         <f ca="1">Calibración!J42</f>
         <v/>
       </c>
-      <c r="S46" s="342"/>
-      <c r="T46" s="342"/>
-      <c r="U46" s="342"/>
-      <c r="V46" s="342"/>
-      <c r="W46" s="342"/>
+      <c r="S46" s="358"/>
+      <c r="T46" s="358"/>
+      <c r="U46" s="358"/>
+      <c r="V46" s="358"/>
+      <c r="W46" s="358"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D47" s="342" t="str">
+      <c r="D47" s="358" t="str">
         <f ca="1">Calibración!G43</f>
         <v/>
       </c>
-      <c r="E47" s="342"/>
-      <c r="F47" s="343" t="str">
+      <c r="E47" s="358"/>
+      <c r="F47" s="359" t="str">
         <f ca="1">Calibración!H43</f>
         <v/>
       </c>
-      <c r="G47" s="344"/>
-      <c r="H47" s="344"/>
-      <c r="I47" s="344"/>
-      <c r="J47" s="344"/>
-      <c r="K47" s="345"/>
-      <c r="L47" s="342" t="str">
+      <c r="G47" s="360"/>
+      <c r="H47" s="360"/>
+      <c r="I47" s="360"/>
+      <c r="J47" s="360"/>
+      <c r="K47" s="361"/>
+      <c r="L47" s="358" t="str">
         <f ca="1">Calibración!I43</f>
         <v/>
       </c>
-      <c r="M47" s="342"/>
-      <c r="N47" s="342"/>
-      <c r="O47" s="342"/>
-      <c r="P47" s="342"/>
-      <c r="Q47" s="342"/>
-      <c r="R47" s="342" t="str">
+      <c r="M47" s="358"/>
+      <c r="N47" s="358"/>
+      <c r="O47" s="358"/>
+      <c r="P47" s="358"/>
+      <c r="Q47" s="358"/>
+      <c r="R47" s="358" t="str">
         <f ca="1">Calibración!J43</f>
         <v/>
       </c>
-      <c r="S47" s="342"/>
-      <c r="T47" s="342"/>
-      <c r="U47" s="342"/>
-      <c r="V47" s="342"/>
-      <c r="W47" s="342"/>
+      <c r="S47" s="358"/>
+      <c r="T47" s="358"/>
+      <c r="U47" s="358"/>
+      <c r="V47" s="358"/>
+      <c r="W47" s="358"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D48" s="342" t="str">
+      <c r="D48" s="358" t="str">
         <f ca="1">Calibración!G44</f>
         <v/>
       </c>
-      <c r="E48" s="342"/>
-      <c r="F48" s="343" t="str">
+      <c r="E48" s="358"/>
+      <c r="F48" s="359" t="str">
         <f ca="1">Calibración!H44</f>
         <v/>
       </c>
-      <c r="G48" s="344"/>
-      <c r="H48" s="344"/>
-      <c r="I48" s="344"/>
-      <c r="J48" s="344"/>
-      <c r="K48" s="345"/>
-      <c r="L48" s="342" t="str">
+      <c r="G48" s="360"/>
+      <c r="H48" s="360"/>
+      <c r="I48" s="360"/>
+      <c r="J48" s="360"/>
+      <c r="K48" s="361"/>
+      <c r="L48" s="358" t="str">
         <f ca="1">Calibración!I44</f>
         <v/>
       </c>
-      <c r="M48" s="342"/>
-      <c r="N48" s="342"/>
-      <c r="O48" s="342"/>
-      <c r="P48" s="342"/>
-      <c r="Q48" s="342"/>
-      <c r="R48" s="342" t="str">
+      <c r="M48" s="358"/>
+      <c r="N48" s="358"/>
+      <c r="O48" s="358"/>
+      <c r="P48" s="358"/>
+      <c r="Q48" s="358"/>
+      <c r="R48" s="358" t="str">
         <f ca="1">Calibración!J44</f>
         <v/>
       </c>
-      <c r="S48" s="342"/>
-      <c r="T48" s="342"/>
-      <c r="U48" s="342"/>
-      <c r="V48" s="342"/>
-      <c r="W48" s="342"/>
+      <c r="S48" s="358"/>
+      <c r="T48" s="358"/>
+      <c r="U48" s="358"/>
+      <c r="V48" s="358"/>
+      <c r="W48" s="358"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O49" s="232"/>
@@ -40517,20 +40670,20 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
-      <c r="N57" s="334" t="str">
+      <c r="N57" s="362" t="str">
         <f>N8</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O57" s="334"/>
-      <c r="P57" s="334"/>
-      <c r="Q57" s="334"/>
-      <c r="R57" s="334"/>
-      <c r="S57" s="334"/>
-      <c r="T57" s="334"/>
-      <c r="U57" s="334"/>
-      <c r="V57" s="334"/>
-      <c r="W57" s="334"/>
-      <c r="X57" s="334"/>
+      <c r="O57" s="362"/>
+      <c r="P57" s="362"/>
+      <c r="Q57" s="362"/>
+      <c r="R57" s="362"/>
+      <c r="S57" s="362"/>
+      <c r="T57" s="362"/>
+      <c r="U57" s="362"/>
+      <c r="V57" s="362"/>
+      <c r="W57" s="362"/>
+      <c r="X57" s="362"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O58" s="232"/>
@@ -40569,11 +40722,11 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="234"/>
-      <c r="B60" s="357" t="s">
+      <c r="B60" s="363" t="s">
         <v>430</v>
       </c>
-      <c r="C60" s="357"/>
-      <c r="D60" s="357"/>
+      <c r="C60" s="363"/>
+      <c r="D60" s="363"/>
       <c r="E60" s="235" t="str">
         <f>CertTempC</f>
         <v/>
@@ -40590,8 +40743,8 @@
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="336"/>
-      <c r="L60" s="336"/>
+      <c r="K60" s="364"/>
+      <c r="L60" s="364"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
@@ -40601,11 +40754,11 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
-      <c r="T60" s="358" t="str">
+      <c r="T60" s="365" t="str">
         <f>General!I18</f>
         <v/>
       </c>
-      <c r="U60" s="358"/>
+      <c r="U60" s="365"/>
       <c r="V60" s="236" t="s">
         <v>432</v>
       </c>
@@ -40707,58 +40860,58 @@
       <c r="W63" s="9"/>
     </row>
     <row r="64" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="350" t="s">
+      <c r="A64" s="351" t="s">
         <v>715</v>
       </c>
-      <c r="B64" s="350"/>
-      <c r="C64" s="350"/>
-      <c r="D64" s="350"/>
-      <c r="E64" s="350"/>
-      <c r="F64" s="350"/>
-      <c r="G64" s="350"/>
-      <c r="H64" s="350"/>
-      <c r="I64" s="350"/>
-      <c r="J64" s="350"/>
-      <c r="K64" s="350"/>
-      <c r="L64" s="350"/>
-      <c r="M64" s="350"/>
-      <c r="N64" s="350"/>
-      <c r="O64" s="350"/>
-      <c r="P64" s="350"/>
-      <c r="Q64" s="350"/>
-      <c r="R64" s="350"/>
-      <c r="S64" s="350"/>
-      <c r="T64" s="350"/>
-      <c r="U64" s="350"/>
-      <c r="V64" s="350"/>
-      <c r="W64" s="350"/>
-      <c r="X64" s="350"/>
+      <c r="B64" s="351"/>
+      <c r="C64" s="351"/>
+      <c r="D64" s="351"/>
+      <c r="E64" s="351"/>
+      <c r="F64" s="351"/>
+      <c r="G64" s="351"/>
+      <c r="H64" s="351"/>
+      <c r="I64" s="351"/>
+      <c r="J64" s="351"/>
+      <c r="K64" s="351"/>
+      <c r="L64" s="351"/>
+      <c r="M64" s="351"/>
+      <c r="N64" s="351"/>
+      <c r="O64" s="351"/>
+      <c r="P64" s="351"/>
+      <c r="Q64" s="351"/>
+      <c r="R64" s="351"/>
+      <c r="S64" s="351"/>
+      <c r="T64" s="351"/>
+      <c r="U64" s="351"/>
+      <c r="V64" s="351"/>
+      <c r="W64" s="351"/>
+      <c r="X64" s="351"/>
     </row>
     <row r="65" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="350"/>
-      <c r="B65" s="350"/>
-      <c r="C65" s="350"/>
-      <c r="D65" s="350"/>
-      <c r="E65" s="350"/>
-      <c r="F65" s="350"/>
-      <c r="G65" s="350"/>
-      <c r="H65" s="350"/>
-      <c r="I65" s="350"/>
-      <c r="J65" s="350"/>
-      <c r="K65" s="350"/>
-      <c r="L65" s="350"/>
-      <c r="M65" s="350"/>
-      <c r="N65" s="350"/>
-      <c r="O65" s="350"/>
-      <c r="P65" s="350"/>
-      <c r="Q65" s="350"/>
-      <c r="R65" s="350"/>
-      <c r="S65" s="350"/>
-      <c r="T65" s="350"/>
-      <c r="U65" s="350"/>
-      <c r="V65" s="350"/>
-      <c r="W65" s="350"/>
-      <c r="X65" s="350"/>
+      <c r="A65" s="351"/>
+      <c r="B65" s="351"/>
+      <c r="C65" s="351"/>
+      <c r="D65" s="351"/>
+      <c r="E65" s="351"/>
+      <c r="F65" s="351"/>
+      <c r="G65" s="351"/>
+      <c r="H65" s="351"/>
+      <c r="I65" s="351"/>
+      <c r="J65" s="351"/>
+      <c r="K65" s="351"/>
+      <c r="L65" s="351"/>
+      <c r="M65" s="351"/>
+      <c r="N65" s="351"/>
+      <c r="O65" s="351"/>
+      <c r="P65" s="351"/>
+      <c r="Q65" s="351"/>
+      <c r="R65" s="351"/>
+      <c r="S65" s="351"/>
+      <c r="T65" s="351"/>
+      <c r="U65" s="351"/>
+      <c r="V65" s="351"/>
+      <c r="W65" s="351"/>
+      <c r="X65" s="351"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B66" s="14"/>
@@ -40813,136 +40966,136 @@
       <c r="X67" s="14"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A68" s="350" t="s">
+      <c r="A68" s="351" t="s">
         <v>438</v>
       </c>
-      <c r="B68" s="350"/>
-      <c r="C68" s="350"/>
-      <c r="D68" s="350"/>
-      <c r="E68" s="350"/>
-      <c r="F68" s="350"/>
-      <c r="G68" s="350"/>
-      <c r="H68" s="350"/>
-      <c r="I68" s="350"/>
-      <c r="J68" s="350"/>
-      <c r="K68" s="350"/>
-      <c r="L68" s="350"/>
-      <c r="M68" s="350"/>
-      <c r="N68" s="350"/>
-      <c r="O68" s="350"/>
-      <c r="P68" s="350"/>
-      <c r="Q68" s="350"/>
-      <c r="R68" s="350"/>
-      <c r="S68" s="350"/>
-      <c r="T68" s="350"/>
-      <c r="U68" s="350"/>
-      <c r="V68" s="350"/>
-      <c r="W68" s="350"/>
-      <c r="X68" s="350"/>
+      <c r="B68" s="351"/>
+      <c r="C68" s="351"/>
+      <c r="D68" s="351"/>
+      <c r="E68" s="351"/>
+      <c r="F68" s="351"/>
+      <c r="G68" s="351"/>
+      <c r="H68" s="351"/>
+      <c r="I68" s="351"/>
+      <c r="J68" s="351"/>
+      <c r="K68" s="351"/>
+      <c r="L68" s="351"/>
+      <c r="M68" s="351"/>
+      <c r="N68" s="351"/>
+      <c r="O68" s="351"/>
+      <c r="P68" s="351"/>
+      <c r="Q68" s="351"/>
+      <c r="R68" s="351"/>
+      <c r="S68" s="351"/>
+      <c r="T68" s="351"/>
+      <c r="U68" s="351"/>
+      <c r="V68" s="351"/>
+      <c r="W68" s="351"/>
+      <c r="X68" s="351"/>
     </row>
     <row r="69" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="350"/>
-      <c r="B69" s="350"/>
-      <c r="C69" s="350"/>
-      <c r="D69" s="350"/>
-      <c r="E69" s="350"/>
-      <c r="F69" s="350"/>
-      <c r="G69" s="350"/>
-      <c r="H69" s="350"/>
-      <c r="I69" s="350"/>
-      <c r="J69" s="350"/>
-      <c r="K69" s="350"/>
-      <c r="L69" s="350"/>
-      <c r="M69" s="350"/>
-      <c r="N69" s="350"/>
-      <c r="O69" s="350"/>
-      <c r="P69" s="350"/>
-      <c r="Q69" s="350"/>
-      <c r="R69" s="350"/>
-      <c r="S69" s="350"/>
-      <c r="T69" s="350"/>
-      <c r="U69" s="350"/>
-      <c r="V69" s="350"/>
-      <c r="W69" s="350"/>
-      <c r="X69" s="350"/>
+      <c r="A69" s="351"/>
+      <c r="B69" s="351"/>
+      <c r="C69" s="351"/>
+      <c r="D69" s="351"/>
+      <c r="E69" s="351"/>
+      <c r="F69" s="351"/>
+      <c r="G69" s="351"/>
+      <c r="H69" s="351"/>
+      <c r="I69" s="351"/>
+      <c r="J69" s="351"/>
+      <c r="K69" s="351"/>
+      <c r="L69" s="351"/>
+      <c r="M69" s="351"/>
+      <c r="N69" s="351"/>
+      <c r="O69" s="351"/>
+      <c r="P69" s="351"/>
+      <c r="Q69" s="351"/>
+      <c r="R69" s="351"/>
+      <c r="S69" s="351"/>
+      <c r="T69" s="351"/>
+      <c r="U69" s="351"/>
+      <c r="V69" s="351"/>
+      <c r="W69" s="351"/>
+      <c r="X69" s="351"/>
     </row>
     <row r="70" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="350"/>
-      <c r="B70" s="350"/>
-      <c r="C70" s="350"/>
-      <c r="D70" s="350"/>
-      <c r="E70" s="350"/>
-      <c r="F70" s="350"/>
-      <c r="G70" s="350"/>
-      <c r="H70" s="350"/>
-      <c r="I70" s="350"/>
-      <c r="J70" s="350"/>
-      <c r="K70" s="350"/>
-      <c r="L70" s="350"/>
-      <c r="M70" s="350"/>
-      <c r="N70" s="350"/>
-      <c r="O70" s="350"/>
-      <c r="P70" s="350"/>
-      <c r="Q70" s="350"/>
-      <c r="R70" s="350"/>
-      <c r="S70" s="350"/>
-      <c r="T70" s="350"/>
-      <c r="U70" s="350"/>
-      <c r="V70" s="350"/>
-      <c r="W70" s="350"/>
-      <c r="X70" s="350"/>
+      <c r="A70" s="351"/>
+      <c r="B70" s="351"/>
+      <c r="C70" s="351"/>
+      <c r="D70" s="351"/>
+      <c r="E70" s="351"/>
+      <c r="F70" s="351"/>
+      <c r="G70" s="351"/>
+      <c r="H70" s="351"/>
+      <c r="I70" s="351"/>
+      <c r="J70" s="351"/>
+      <c r="K70" s="351"/>
+      <c r="L70" s="351"/>
+      <c r="M70" s="351"/>
+      <c r="N70" s="351"/>
+      <c r="O70" s="351"/>
+      <c r="P70" s="351"/>
+      <c r="Q70" s="351"/>
+      <c r="R70" s="351"/>
+      <c r="S70" s="351"/>
+      <c r="T70" s="351"/>
+      <c r="U70" s="351"/>
+      <c r="V70" s="351"/>
+      <c r="W70" s="351"/>
+      <c r="X70" s="351"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A71" s="350"/>
-      <c r="B71" s="350"/>
-      <c r="C71" s="350"/>
-      <c r="D71" s="350"/>
-      <c r="E71" s="350"/>
-      <c r="F71" s="350"/>
-      <c r="G71" s="350"/>
-      <c r="H71" s="350"/>
-      <c r="I71" s="350"/>
-      <c r="J71" s="350"/>
-      <c r="K71" s="350"/>
-      <c r="L71" s="350"/>
-      <c r="M71" s="350"/>
-      <c r="N71" s="350"/>
-      <c r="O71" s="350"/>
-      <c r="P71" s="350"/>
-      <c r="Q71" s="350"/>
-      <c r="R71" s="350"/>
-      <c r="S71" s="350"/>
-      <c r="T71" s="350"/>
-      <c r="U71" s="350"/>
-      <c r="V71" s="350"/>
-      <c r="W71" s="350"/>
-      <c r="X71" s="350"/>
+      <c r="A71" s="351"/>
+      <c r="B71" s="351"/>
+      <c r="C71" s="351"/>
+      <c r="D71" s="351"/>
+      <c r="E71" s="351"/>
+      <c r="F71" s="351"/>
+      <c r="G71" s="351"/>
+      <c r="H71" s="351"/>
+      <c r="I71" s="351"/>
+      <c r="J71" s="351"/>
+      <c r="K71" s="351"/>
+      <c r="L71" s="351"/>
+      <c r="M71" s="351"/>
+      <c r="N71" s="351"/>
+      <c r="O71" s="351"/>
+      <c r="P71" s="351"/>
+      <c r="Q71" s="351"/>
+      <c r="R71" s="351"/>
+      <c r="S71" s="351"/>
+      <c r="T71" s="351"/>
+      <c r="U71" s="351"/>
+      <c r="V71" s="351"/>
+      <c r="W71" s="351"/>
+      <c r="X71" s="351"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A72" s="350"/>
-      <c r="B72" s="350"/>
-      <c r="C72" s="350"/>
-      <c r="D72" s="350"/>
-      <c r="E72" s="350"/>
-      <c r="F72" s="350"/>
-      <c r="G72" s="350"/>
-      <c r="H72" s="350"/>
-      <c r="I72" s="350"/>
-      <c r="J72" s="350"/>
-      <c r="K72" s="350"/>
-      <c r="L72" s="350"/>
-      <c r="M72" s="350"/>
-      <c r="N72" s="350"/>
-      <c r="O72" s="350"/>
-      <c r="P72" s="350"/>
-      <c r="Q72" s="350"/>
-      <c r="R72" s="350"/>
-      <c r="S72" s="350"/>
-      <c r="T72" s="350"/>
-      <c r="U72" s="350"/>
-      <c r="V72" s="350"/>
-      <c r="W72" s="350"/>
-      <c r="X72" s="350"/>
+      <c r="A72" s="351"/>
+      <c r="B72" s="351"/>
+      <c r="C72" s="351"/>
+      <c r="D72" s="351"/>
+      <c r="E72" s="351"/>
+      <c r="F72" s="351"/>
+      <c r="G72" s="351"/>
+      <c r="H72" s="351"/>
+      <c r="I72" s="351"/>
+      <c r="J72" s="351"/>
+      <c r="K72" s="351"/>
+      <c r="L72" s="351"/>
+      <c r="M72" s="351"/>
+      <c r="N72" s="351"/>
+      <c r="O72" s="351"/>
+      <c r="P72" s="351"/>
+      <c r="Q72" s="351"/>
+      <c r="R72" s="351"/>
+      <c r="S72" s="351"/>
+      <c r="T72" s="351"/>
+      <c r="U72" s="351"/>
+      <c r="V72" s="351"/>
+      <c r="W72" s="351"/>
+      <c r="X72" s="351"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -40996,204 +41149,204 @@
       <c r="V74" s="9"/>
     </row>
     <row r="75" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="351" t="s">
+      <c r="A75" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="352"/>
-      <c r="C75" s="352"/>
-      <c r="D75" s="352"/>
-      <c r="E75" s="352"/>
-      <c r="F75" s="353"/>
-      <c r="G75" s="351" t="s">
+      <c r="B75" s="353"/>
+      <c r="C75" s="353"/>
+      <c r="D75" s="353"/>
+      <c r="E75" s="353"/>
+      <c r="F75" s="354"/>
+      <c r="G75" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="H75" s="352"/>
-      <c r="I75" s="353"/>
-      <c r="J75" s="354" t="s">
+      <c r="H75" s="353"/>
+      <c r="I75" s="354"/>
+      <c r="J75" s="355" t="s">
         <v>101</v>
       </c>
-      <c r="K75" s="355"/>
-      <c r="L75" s="355"/>
-      <c r="M75" s="355"/>
-      <c r="N75" s="356"/>
-      <c r="O75" s="351" t="s">
+      <c r="K75" s="356"/>
+      <c r="L75" s="356"/>
+      <c r="M75" s="356"/>
+      <c r="N75" s="357"/>
+      <c r="O75" s="352" t="s">
         <v>440</v>
       </c>
-      <c r="P75" s="352"/>
-      <c r="Q75" s="352"/>
-      <c r="R75" s="352"/>
-      <c r="S75" s="352"/>
-      <c r="T75" s="353"/>
-      <c r="U75" s="354" t="s">
+      <c r="P75" s="353"/>
+      <c r="Q75" s="353"/>
+      <c r="R75" s="353"/>
+      <c r="S75" s="353"/>
+      <c r="T75" s="354"/>
+      <c r="U75" s="355" t="s">
         <v>441</v>
       </c>
-      <c r="V75" s="355"/>
-      <c r="W75" s="355"/>
-      <c r="X75" s="356"/>
+      <c r="V75" s="356"/>
+      <c r="W75" s="356"/>
+      <c r="X75" s="357"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A76" s="359" t="s">
+      <c r="A76" s="345" t="s">
         <v>709</v>
       </c>
-      <c r="B76" s="360" t="s">
+      <c r="B76" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="C76" s="360" t="s">
+      <c r="C76" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="D76" s="360" t="s">
+      <c r="D76" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="E76" s="360" t="s">
+      <c r="E76" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="F76" s="361" t="s">
+      <c r="F76" s="347" t="s">
         <v>449</v>
       </c>
-      <c r="G76" s="359" t="s">
+      <c r="G76" s="345" t="s">
         <v>477</v>
       </c>
-      <c r="H76" s="360" t="s">
+      <c r="H76" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I76" s="361" t="s">
+      <c r="I76" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J76" s="362" t="s">
+      <c r="J76" s="348" t="s">
         <v>700</v>
       </c>
-      <c r="K76" s="363" t="s">
+      <c r="K76" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L76" s="363">
+      <c r="L76" s="349">
         <v>43393</v>
       </c>
-      <c r="M76" s="363" t="s">
+      <c r="M76" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="N76" s="364" t="s">
+      <c r="N76" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O76" s="359" t="s">
+      <c r="O76" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P76" s="360" t="s">
+      <c r="P76" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q76" s="360" t="s">
+      <c r="Q76" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R76" s="360" t="s">
+      <c r="R76" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S76" s="360" t="s">
+      <c r="S76" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T76" s="361" t="s">
+      <c r="T76" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U76" s="362">
+      <c r="U76" s="348">
         <v>44878</v>
       </c>
-      <c r="V76" s="363" t="s">
+      <c r="V76" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="W76" s="363" t="s">
+      <c r="W76" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X76" s="364">
+      <c r="X76" s="350">
         <v>43393</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="359" t="s">
+      <c r="A77" s="345" t="s">
         <v>710</v>
       </c>
-      <c r="B77" s="360"/>
-      <c r="C77" s="360"/>
-      <c r="D77" s="360"/>
-      <c r="E77" s="360"/>
-      <c r="F77" s="361"/>
-      <c r="G77" s="359" t="s">
+      <c r="B77" s="346"/>
+      <c r="C77" s="346"/>
+      <c r="D77" s="346"/>
+      <c r="E77" s="346"/>
+      <c r="F77" s="347"/>
+      <c r="G77" s="345" t="s">
         <v>311</v>
       </c>
-      <c r="H77" s="360" t="s">
+      <c r="H77" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I77" s="361" t="s">
+      <c r="I77" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J77" s="362" t="s">
+      <c r="J77" s="348" t="s">
         <v>714</v>
       </c>
-      <c r="K77" s="363" t="s">
+      <c r="K77" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L77" s="363">
+      <c r="L77" s="349">
         <v>43394</v>
       </c>
-      <c r="M77" s="363" t="s">
+      <c r="M77" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="N77" s="364" t="s">
+      <c r="N77" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O77" s="359" t="s">
+      <c r="O77" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P77" s="360" t="s">
+      <c r="P77" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q77" s="360" t="s">
+      <c r="Q77" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R77" s="360" t="s">
+      <c r="R77" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S77" s="360" t="s">
+      <c r="S77" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T77" s="361" t="s">
+      <c r="T77" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U77" s="362">
+      <c r="U77" s="348">
         <v>44878</v>
       </c>
-      <c r="V77" s="363" t="s">
+      <c r="V77" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="W77" s="363" t="s">
+      <c r="W77" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X77" s="364">
+      <c r="X77" s="350">
         <v>43394</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="359"/>
-      <c r="B78" s="360"/>
-      <c r="C78" s="360"/>
-      <c r="D78" s="360"/>
-      <c r="E78" s="360"/>
-      <c r="F78" s="361"/>
-      <c r="G78" s="359"/>
-      <c r="H78" s="360"/>
-      <c r="I78" s="361"/>
-      <c r="J78" s="362"/>
-      <c r="K78" s="363"/>
-      <c r="L78" s="363"/>
-      <c r="M78" s="363"/>
-      <c r="N78" s="364"/>
-      <c r="O78" s="359"/>
-      <c r="P78" s="360"/>
-      <c r="Q78" s="360"/>
-      <c r="R78" s="360"/>
-      <c r="S78" s="360"/>
-      <c r="T78" s="361"/>
-      <c r="U78" s="362"/>
-      <c r="V78" s="363"/>
-      <c r="W78" s="363"/>
-      <c r="X78" s="364"/>
+      <c r="A78" s="345"/>
+      <c r="B78" s="346"/>
+      <c r="C78" s="346"/>
+      <c r="D78" s="346"/>
+      <c r="E78" s="346"/>
+      <c r="F78" s="347"/>
+      <c r="G78" s="345"/>
+      <c r="H78" s="346"/>
+      <c r="I78" s="347"/>
+      <c r="J78" s="348"/>
+      <c r="K78" s="349"/>
+      <c r="L78" s="349"/>
+      <c r="M78" s="349"/>
+      <c r="N78" s="350"/>
+      <c r="O78" s="345"/>
+      <c r="P78" s="346"/>
+      <c r="Q78" s="346"/>
+      <c r="R78" s="346"/>
+      <c r="S78" s="346"/>
+      <c r="T78" s="347"/>
+      <c r="U78" s="348"/>
+      <c r="V78" s="349"/>
+      <c r="W78" s="349"/>
+      <c r="X78" s="350"/>
     </row>
     <row r="79" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="238"/>
@@ -41305,59 +41458,59 @@
       <c r="X82" s="9"/>
     </row>
     <row r="83" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="350" t="str">
+      <c r="A83" s="351" t="str">
         <f>IF(Calibración!E10="2",Calibración!BJ6,Calibración!BJ7)</f>
         <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
       </c>
-      <c r="B83" s="350"/>
-      <c r="C83" s="350"/>
-      <c r="D83" s="350"/>
-      <c r="E83" s="350"/>
-      <c r="F83" s="350"/>
-      <c r="G83" s="350"/>
-      <c r="H83" s="350"/>
-      <c r="I83" s="350"/>
-      <c r="J83" s="350"/>
-      <c r="K83" s="350"/>
-      <c r="L83" s="350"/>
-      <c r="M83" s="350"/>
-      <c r="N83" s="350"/>
-      <c r="O83" s="350"/>
-      <c r="P83" s="350"/>
-      <c r="Q83" s="350"/>
-      <c r="R83" s="350"/>
-      <c r="S83" s="350"/>
-      <c r="T83" s="350"/>
-      <c r="U83" s="350"/>
-      <c r="V83" s="350"/>
-      <c r="W83" s="350"/>
-      <c r="X83" s="350"/>
+      <c r="B83" s="351"/>
+      <c r="C83" s="351"/>
+      <c r="D83" s="351"/>
+      <c r="E83" s="351"/>
+      <c r="F83" s="351"/>
+      <c r="G83" s="351"/>
+      <c r="H83" s="351"/>
+      <c r="I83" s="351"/>
+      <c r="J83" s="351"/>
+      <c r="K83" s="351"/>
+      <c r="L83" s="351"/>
+      <c r="M83" s="351"/>
+      <c r="N83" s="351"/>
+      <c r="O83" s="351"/>
+      <c r="P83" s="351"/>
+      <c r="Q83" s="351"/>
+      <c r="R83" s="351"/>
+      <c r="S83" s="351"/>
+      <c r="T83" s="351"/>
+      <c r="U83" s="351"/>
+      <c r="V83" s="351"/>
+      <c r="W83" s="351"/>
+      <c r="X83" s="351"/>
     </row>
     <row r="84" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="350"/>
-      <c r="B84" s="350"/>
-      <c r="C84" s="350"/>
-      <c r="D84" s="350"/>
-      <c r="E84" s="350"/>
-      <c r="F84" s="350"/>
-      <c r="G84" s="350"/>
-      <c r="H84" s="350"/>
-      <c r="I84" s="350"/>
-      <c r="J84" s="350"/>
-      <c r="K84" s="350"/>
-      <c r="L84" s="350"/>
-      <c r="M84" s="350"/>
-      <c r="N84" s="350"/>
-      <c r="O84" s="350"/>
-      <c r="P84" s="350"/>
-      <c r="Q84" s="350"/>
-      <c r="R84" s="350"/>
-      <c r="S84" s="350"/>
-      <c r="T84" s="350"/>
-      <c r="U84" s="350"/>
-      <c r="V84" s="350"/>
-      <c r="W84" s="350"/>
-      <c r="X84" s="350"/>
+      <c r="A84" s="351"/>
+      <c r="B84" s="351"/>
+      <c r="C84" s="351"/>
+      <c r="D84" s="351"/>
+      <c r="E84" s="351"/>
+      <c r="F84" s="351"/>
+      <c r="G84" s="351"/>
+      <c r="H84" s="351"/>
+      <c r="I84" s="351"/>
+      <c r="J84" s="351"/>
+      <c r="K84" s="351"/>
+      <c r="L84" s="351"/>
+      <c r="M84" s="351"/>
+      <c r="N84" s="351"/>
+      <c r="O84" s="351"/>
+      <c r="P84" s="351"/>
+      <c r="Q84" s="351"/>
+      <c r="R84" s="351"/>
+      <c r="S84" s="351"/>
+      <c r="T84" s="351"/>
+      <c r="U84" s="351"/>
+      <c r="V84" s="351"/>
+      <c r="W84" s="351"/>
+      <c r="X84" s="351"/>
     </row>
     <row r="85" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="239" t="s">
@@ -41532,57 +41685,153 @@
       <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I94" s="365" t="s">
+      <c r="I94" s="341" t="s">
         <v>30</v>
       </c>
-      <c r="J94" s="365"/>
-      <c r="K94" s="365"/>
-      <c r="L94" s="365"/>
-      <c r="M94" s="365"/>
-      <c r="N94" s="365"/>
-      <c r="O94" s="365"/>
-      <c r="P94" s="365"/>
+      <c r="J94" s="341"/>
+      <c r="K94" s="341"/>
+      <c r="L94" s="341"/>
+      <c r="M94" s="341"/>
+      <c r="N94" s="341"/>
+      <c r="O94" s="341"/>
+      <c r="P94" s="341"/>
       <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I95" s="366" t="str">
+      <c r="I95" s="342" t="str">
         <f>IF(I94=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
         <v>Director Técnico</v>
       </c>
-      <c r="J95" s="366"/>
-      <c r="K95" s="366"/>
-      <c r="L95" s="366"/>
-      <c r="M95" s="366"/>
-      <c r="N95" s="366"/>
-      <c r="O95" s="366"/>
-      <c r="P95" s="366"/>
+      <c r="J95" s="342"/>
+      <c r="K95" s="342"/>
+      <c r="L95" s="342"/>
+      <c r="M95" s="342"/>
+      <c r="N95" s="342"/>
+      <c r="O95" s="342"/>
+      <c r="P95" s="342"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I96" s="367" t="s">
+      <c r="I96" s="343" t="s">
         <v>446</v>
       </c>
-      <c r="J96" s="367"/>
-      <c r="K96" s="367"/>
-      <c r="L96" s="367"/>
-      <c r="M96" s="367"/>
-      <c r="N96" s="367"/>
-      <c r="O96" s="367"/>
-      <c r="P96" s="367"/>
+      <c r="J96" s="343"/>
+      <c r="K96" s="343"/>
+      <c r="L96" s="343"/>
+      <c r="M96" s="343"/>
+      <c r="N96" s="343"/>
+      <c r="O96" s="343"/>
+      <c r="P96" s="343"/>
     </row>
     <row r="98" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I98" s="368" t="s">
+      <c r="I98" s="344" t="s">
         <v>447</v>
       </c>
-      <c r="J98" s="368"/>
-      <c r="K98" s="368"/>
-      <c r="L98" s="368"/>
-      <c r="M98" s="368"/>
-      <c r="N98" s="368"/>
-      <c r="O98" s="368"/>
-      <c r="P98" s="368"/>
+      <c r="J98" s="344"/>
+      <c r="K98" s="344"/>
+      <c r="L98" s="344"/>
+      <c r="M98" s="344"/>
+      <c r="N98" s="344"/>
+      <c r="O98" s="344"/>
+      <c r="P98" s="344"/>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="N21:X22"/>
+    <mergeCell ref="D25:W25"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:K27"/>
+    <mergeCell ref="L26:Q27"/>
+    <mergeCell ref="R26:W27"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="D38:W38"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="F39:K40"/>
+    <mergeCell ref="L39:Q40"/>
+    <mergeCell ref="R39:W40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="A64:X65"/>
+    <mergeCell ref="A68:X72"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:T75"/>
+    <mergeCell ref="U75:X75"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="L46:Q46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="L45:Q45"/>
+    <mergeCell ref="R45:W45"/>
+    <mergeCell ref="L42:Q42"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="I94:P94"/>
+    <mergeCell ref="I95:P95"/>
+    <mergeCell ref="I96:P96"/>
+    <mergeCell ref="I98:P98"/>
+    <mergeCell ref="A83:X84"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="O76:T76"/>
+    <mergeCell ref="U76:X76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="O77:T77"/>
+    <mergeCell ref="U77:X77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="O78:T78"/>
+    <mergeCell ref="U78:X78"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:K34"/>
     <mergeCell ref="L34:Q34"/>
@@ -41607,102 +41856,6 @@
     <mergeCell ref="L44:Q44"/>
     <mergeCell ref="R44:W44"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="I94:P94"/>
-    <mergeCell ref="I95:P95"/>
-    <mergeCell ref="I96:P96"/>
-    <mergeCell ref="I98:P98"/>
-    <mergeCell ref="A83:X84"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="O76:T76"/>
-    <mergeCell ref="U76:X76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="O77:T77"/>
-    <mergeCell ref="U77:X77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="O78:T78"/>
-    <mergeCell ref="U78:X78"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="L45:Q45"/>
-    <mergeCell ref="R45:W45"/>
-    <mergeCell ref="L42:Q42"/>
-    <mergeCell ref="R42:W42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="R43:W43"/>
-    <mergeCell ref="A64:X65"/>
-    <mergeCell ref="A68:X72"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:T75"/>
-    <mergeCell ref="U75:X75"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="L46:Q46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="D38:W38"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="F39:K40"/>
-    <mergeCell ref="L39:Q40"/>
-    <mergeCell ref="R39:W40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="L41:Q41"/>
-    <mergeCell ref="R41:W41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="N21:X22"/>
-    <mergeCell ref="D25:W25"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:K27"/>
-    <mergeCell ref="L26:Q27"/>
-    <mergeCell ref="R26:W27"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N11:Q11"/>
   </mergeCells>
   <conditionalFormatting sqref="A87">
     <cfRule type="cellIs" priority="1" operator="equal">
@@ -41758,14 +41911,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B2" s="370" t="s">
+      <c r="B2" s="387" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="370"/>
-      <c r="D2" s="370"/>
-      <c r="E2" s="370"/>
-      <c r="F2" s="370"/>
-      <c r="G2" s="370"/>
+      <c r="C2" s="387"/>
+      <c r="D2" s="387"/>
+      <c r="E2" s="387"/>
+      <c r="F2" s="387"/>
+      <c r="G2" s="387"/>
       <c r="I2" s="268"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
@@ -41777,22 +41930,22 @@
       <c r="G3" s="269"/>
     </row>
     <row r="4" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="371" t="s">
+      <c r="B4" s="379" t="s">
         <v>529</v>
       </c>
-      <c r="C4" s="371"/>
+      <c r="C4" s="379"/>
       <c r="D4" s="269"/>
       <c r="E4" s="269"/>
       <c r="F4" s="269"/>
       <c r="G4" s="269"/>
-      <c r="I4" s="372" t="s">
+      <c r="I4" s="388" t="s">
         <v>530</v>
       </c>
-      <c r="J4" s="372"/>
-      <c r="K4" s="372" t="s">
+      <c r="J4" s="388"/>
+      <c r="K4" s="388" t="s">
         <v>531</v>
       </c>
-      <c r="L4" s="372"/>
+      <c r="L4" s="388"/>
       <c r="N4" s="15" t="s">
         <v>532</v>
       </c>
@@ -41805,12 +41958,12 @@
       <c r="C5" s="271" t="s">
         <v>534</v>
       </c>
-      <c r="D5" s="373" t="s">
+      <c r="D5" s="380" t="s">
         <v>535</v>
       </c>
-      <c r="E5" s="374"/>
-      <c r="F5" s="374"/>
-      <c r="G5" s="375"/>
+      <c r="E5" s="381"/>
+      <c r="F5" s="381"/>
+      <c r="G5" s="382"/>
       <c r="I5" s="272" t="s">
         <v>135</v>
       </c>
@@ -41838,32 +41991,32 @@
       <c r="Q5" s="272" t="s">
         <v>540</v>
       </c>
-      <c r="W5" s="369" t="s">
+      <c r="W5" s="386" t="s">
         <v>727</v>
       </c>
-      <c r="X5" s="369"/>
-      <c r="Y5" s="369"/>
-      <c r="Z5" s="369"/>
-      <c r="AA5" s="369"/>
-      <c r="AB5" s="369"/>
-      <c r="AC5" s="369"/>
-      <c r="AD5" s="369"/>
+      <c r="X5" s="386"/>
+      <c r="Y5" s="386"/>
+      <c r="Z5" s="386"/>
+      <c r="AA5" s="386"/>
+      <c r="AB5" s="386"/>
+      <c r="AC5" s="386"/>
+      <c r="AD5" s="386"/>
     </row>
     <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="376">
+      <c r="B6" s="377">
         <v>-82.74</v>
       </c>
-      <c r="C6" s="376">
+      <c r="C6" s="377">
         <v>-0.06</v>
       </c>
-      <c r="D6" s="378" t="s">
+      <c r="D6" s="385" t="s">
         <v>721</v>
       </c>
-      <c r="E6" s="375"/>
-      <c r="F6" s="373" t="s">
+      <c r="E6" s="382"/>
+      <c r="F6" s="380" t="s">
         <v>722</v>
       </c>
-      <c r="G6" s="375"/>
+      <c r="G6" s="382"/>
       <c r="I6" s="27">
         <v>-82.74</v>
       </c>
@@ -41899,16 +42052,16 @@
       <c r="AD6" s="295"/>
     </row>
     <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="377"/>
-      <c r="C7" s="377"/>
-      <c r="D7" s="373" t="s">
+      <c r="B7" s="378"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="380" t="s">
         <v>541</v>
       </c>
-      <c r="E7" s="375"/>
-      <c r="F7" s="373" t="s">
+      <c r="E7" s="382"/>
+      <c r="F7" s="380" t="s">
         <v>542</v>
       </c>
-      <c r="G7" s="375"/>
+      <c r="G7" s="382"/>
       <c r="I7" s="27">
         <v>0.01</v>
       </c>
@@ -41985,10 +42138,10 @@
       <c r="AD8" s="295"/>
     </row>
     <row r="9" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="371" t="s">
+      <c r="B9" s="379" t="s">
         <v>529</v>
       </c>
-      <c r="C9" s="371"/>
+      <c r="C9" s="379"/>
       <c r="D9" s="269"/>
       <c r="E9" s="269"/>
       <c r="F9" s="269"/>
@@ -42034,40 +42187,40 @@
       <c r="C10" s="271" t="s">
         <v>534</v>
       </c>
-      <c r="D10" s="373" t="s">
+      <c r="D10" s="380" t="s">
         <v>535</v>
       </c>
-      <c r="E10" s="374"/>
-      <c r="F10" s="374"/>
-      <c r="G10" s="375"/>
+      <c r="E10" s="381"/>
+      <c r="F10" s="381"/>
+      <c r="G10" s="382"/>
     </row>
     <row r="11" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="376">
+      <c r="B11" s="377">
         <v>0.01</v>
       </c>
-      <c r="C11" s="376">
+      <c r="C11" s="377">
         <v>699.75</v>
       </c>
-      <c r="D11" s="378" t="s">
+      <c r="D11" s="385" t="s">
         <v>723</v>
       </c>
-      <c r="E11" s="375"/>
-      <c r="F11" s="373" t="s">
+      <c r="E11" s="382"/>
+      <c r="F11" s="380" t="s">
         <v>724</v>
       </c>
-      <c r="G11" s="375"/>
+      <c r="G11" s="382"/>
     </row>
     <row r="12" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="377"/>
-      <c r="C12" s="377"/>
-      <c r="D12" s="373" t="s">
+      <c r="B12" s="378"/>
+      <c r="C12" s="378"/>
+      <c r="D12" s="380" t="s">
         <v>541</v>
       </c>
-      <c r="E12" s="375"/>
-      <c r="F12" s="373" t="s">
+      <c r="E12" s="382"/>
+      <c r="F12" s="380" t="s">
         <v>542</v>
       </c>
-      <c r="G12" s="375"/>
+      <c r="G12" s="382"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B13" s="269"/>
@@ -42078,10 +42231,10 @@
       <c r="G13" s="269"/>
     </row>
     <row r="14" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="371" t="s">
+      <c r="B14" s="379" t="s">
         <v>529</v>
       </c>
-      <c r="C14" s="371"/>
+      <c r="C14" s="379"/>
       <c r="D14" s="269"/>
       <c r="E14" s="269"/>
       <c r="F14" s="269"/>
@@ -42090,38 +42243,38 @@
         <v>532</v>
       </c>
       <c r="J14" s="15"/>
-      <c r="K14" s="379" t="s">
+      <c r="K14" s="383" t="s">
         <v>732</v>
       </c>
-      <c r="L14" s="379"/>
-      <c r="M14" s="379"/>
+      <c r="L14" s="383"/>
+      <c r="M14" s="383"/>
       <c r="P14" s="15" t="s">
         <v>532</v>
       </c>
       <c r="Q14" s="15"/>
-      <c r="R14" s="379" t="s">
+      <c r="R14" s="383" t="s">
         <v>733</v>
       </c>
-      <c r="S14" s="379"/>
-      <c r="T14" s="379"/>
+      <c r="S14" s="383"/>
+      <c r="T14" s="383"/>
       <c r="W14" s="15" t="s">
         <v>532</v>
       </c>
       <c r="X14" s="15"/>
-      <c r="Y14" s="380" t="s">
+      <c r="Y14" s="384" t="s">
         <v>734</v>
       </c>
-      <c r="Z14" s="380"/>
-      <c r="AA14" s="380"/>
+      <c r="Z14" s="384"/>
+      <c r="AA14" s="384"/>
       <c r="AD14" s="15" t="s">
         <v>532</v>
       </c>
       <c r="AE14" s="15"/>
-      <c r="AF14" s="380" t="s">
+      <c r="AF14" s="384" t="s">
         <v>726</v>
       </c>
-      <c r="AG14" s="380"/>
-      <c r="AH14" s="380"/>
+      <c r="AG14" s="384"/>
+      <c r="AH14" s="384"/>
     </row>
     <row r="15" spans="2:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="270" t="s">
@@ -42130,12 +42283,12 @@
       <c r="C15" s="271" t="s">
         <v>534</v>
       </c>
-      <c r="D15" s="373" t="s">
+      <c r="D15" s="380" t="s">
         <v>535</v>
       </c>
-      <c r="E15" s="374"/>
-      <c r="F15" s="374"/>
-      <c r="G15" s="375"/>
+      <c r="E15" s="381"/>
+      <c r="F15" s="381"/>
+      <c r="G15" s="382"/>
       <c r="I15" s="274" t="s">
         <v>543</v>
       </c>
@@ -42198,20 +42351,20 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="376">
+      <c r="B16" s="377">
         <v>700</v>
       </c>
-      <c r="C16" s="376">
+      <c r="C16" s="377">
         <v>7000</v>
       </c>
-      <c r="D16" s="373" t="s">
+      <c r="D16" s="380" t="s">
         <v>547</v>
       </c>
-      <c r="E16" s="375"/>
-      <c r="F16" s="373" t="s">
+      <c r="E16" s="382"/>
+      <c r="F16" s="380" t="s">
         <v>725</v>
       </c>
-      <c r="G16" s="375"/>
+      <c r="G16" s="382"/>
       <c r="I16" s="20" t="s">
         <v>548</v>
       </c>
@@ -42290,16 +42443,16 @@
       </c>
     </row>
     <row r="17" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="377"/>
-      <c r="C17" s="377"/>
-      <c r="D17" s="373" t="s">
+      <c r="B17" s="378"/>
+      <c r="C17" s="378"/>
+      <c r="D17" s="380" t="s">
         <v>541</v>
       </c>
-      <c r="E17" s="375"/>
-      <c r="F17" s="373" t="s">
+      <c r="E17" s="382"/>
+      <c r="F17" s="380" t="s">
         <v>542</v>
       </c>
-      <c r="G17" s="375"/>
+      <c r="G17" s="382"/>
       <c r="I17" s="20" t="s">
         <v>549</v>
       </c>
@@ -42457,10 +42610,10 @@
       </c>
     </row>
     <row r="19" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="371" t="s">
+      <c r="B19" s="379" t="s">
         <v>529</v>
       </c>
-      <c r="C19" s="371"/>
+      <c r="C19" s="379"/>
       <c r="D19" s="269"/>
       <c r="E19" s="269"/>
       <c r="F19" s="269"/>
@@ -42549,12 +42702,12 @@
       <c r="C20" s="271" t="s">
         <v>534</v>
       </c>
-      <c r="D20" s="373" t="s">
+      <c r="D20" s="380" t="s">
         <v>535</v>
       </c>
-      <c r="E20" s="374"/>
-      <c r="F20" s="374"/>
-      <c r="G20" s="375"/>
+      <c r="E20" s="381"/>
+      <c r="F20" s="381"/>
+      <c r="G20" s="382"/>
       <c r="I20" s="20" t="s">
         <v>552</v>
       </c>
@@ -42633,20 +42786,20 @@
       </c>
     </row>
     <row r="21" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="376">
+      <c r="B21" s="377">
         <v>7001</v>
       </c>
-      <c r="C21" s="376">
+      <c r="C21" s="377">
         <v>34500</v>
       </c>
-      <c r="D21" s="373" t="s">
+      <c r="D21" s="380" t="s">
         <v>553</v>
       </c>
-      <c r="E21" s="375"/>
-      <c r="F21" s="373" t="s">
+      <c r="E21" s="382"/>
+      <c r="F21" s="380" t="s">
         <v>726</v>
       </c>
-      <c r="G21" s="375"/>
+      <c r="G21" s="382"/>
       <c r="I21" s="20" t="s">
         <v>554</v>
       </c>
@@ -42725,16 +42878,16 @@
       </c>
     </row>
     <row r="22" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="377"/>
-      <c r="C22" s="377"/>
-      <c r="D22" s="373" t="s">
+      <c r="B22" s="378"/>
+      <c r="C22" s="378"/>
+      <c r="D22" s="380" t="s">
         <v>541</v>
       </c>
-      <c r="E22" s="375"/>
-      <c r="F22" s="373" t="s">
+      <c r="E22" s="382"/>
+      <c r="F22" s="380" t="s">
         <v>542</v>
       </c>
-      <c r="G22" s="375"/>
+      <c r="G22" s="382"/>
       <c r="I22" s="20" t="s">
         <v>555</v>
       </c>
@@ -43047,22 +43200,22 @@
       </c>
     </row>
     <row r="26" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I26" s="371" t="s">
+      <c r="I26" s="379" t="s">
         <v>529</v>
       </c>
-      <c r="J26" s="371"/>
-      <c r="P26" s="371" t="s">
+      <c r="J26" s="379"/>
+      <c r="P26" s="379" t="s">
         <v>529</v>
       </c>
-      <c r="Q26" s="371"/>
-      <c r="W26" s="371" t="s">
+      <c r="Q26" s="379"/>
+      <c r="W26" s="379" t="s">
         <v>529</v>
       </c>
-      <c r="X26" s="371"/>
-      <c r="AD26" s="371" t="s">
+      <c r="X26" s="379"/>
+      <c r="AD26" s="379" t="s">
         <v>529</v>
       </c>
-      <c r="AE26" s="371"/>
+      <c r="AE26" s="379"/>
     </row>
     <row r="27" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I27" s="270" t="s">
@@ -43091,75 +43244,49 @@
       </c>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="I28" s="376">
+      <c r="I28" s="377">
         <v>-82.74</v>
       </c>
-      <c r="J28" s="376">
+      <c r="J28" s="377">
         <v>-0.06</v>
       </c>
-      <c r="P28" s="376">
+      <c r="P28" s="377">
         <v>0.01</v>
       </c>
-      <c r="Q28" s="376">
+      <c r="Q28" s="377">
         <v>699.75</v>
       </c>
-      <c r="W28" s="376">
+      <c r="W28" s="377">
         <v>700</v>
       </c>
-      <c r="X28" s="376">
+      <c r="X28" s="377">
         <v>7000</v>
       </c>
-      <c r="AD28" s="376">
+      <c r="AD28" s="377">
         <v>7001</v>
       </c>
-      <c r="AE28" s="376">
+      <c r="AE28" s="377">
         <v>34500</v>
       </c>
     </row>
     <row r="29" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I29" s="377"/>
-      <c r="J29" s="377"/>
-      <c r="P29" s="377"/>
-      <c r="Q29" s="377"/>
-      <c r="W29" s="377"/>
-      <c r="X29" s="377"/>
-      <c r="AD29" s="377"/>
-      <c r="AE29" s="377"/>
+      <c r="I29" s="378"/>
+      <c r="J29" s="378"/>
+      <c r="P29" s="378"/>
+      <c r="Q29" s="378"/>
+      <c r="W29" s="378"/>
+      <c r="X29" s="378"/>
+      <c r="AD29" s="378"/>
+      <c r="AE29" s="378"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="W5:AD5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D5:G5"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D10:G10"/>
@@ -43174,12 +43301,38 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="W5:AD5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="135" orientation="landscape" r:id="rId1"/>
@@ -43223,32 +43376,32 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="381" t="s">
+      <c r="A5" s="389" t="s">
         <v>454</v>
       </c>
-      <c r="B5" s="381"/>
-      <c r="C5" s="381"/>
-      <c r="D5" s="381"/>
-      <c r="E5" s="381"/>
-      <c r="F5" s="381"/>
-      <c r="G5" s="381"/>
-      <c r="H5" s="381"/>
-      <c r="I5" s="381"/>
-      <c r="J5" s="381"/>
-      <c r="K5" s="381"/>
-      <c r="L5" s="381"/>
-      <c r="M5" s="381"/>
-      <c r="N5" s="381"/>
-      <c r="O5" s="381"/>
-      <c r="P5" s="381"/>
-      <c r="Q5" s="381"/>
-      <c r="R5" s="381"/>
-      <c r="S5" s="381"/>
-      <c r="T5" s="381"/>
-      <c r="U5" s="381"/>
-      <c r="V5" s="381"/>
-      <c r="W5" s="381"/>
-      <c r="X5" s="381"/>
+      <c r="B5" s="389"/>
+      <c r="C5" s="389"/>
+      <c r="D5" s="389"/>
+      <c r="E5" s="389"/>
+      <c r="F5" s="389"/>
+      <c r="G5" s="389"/>
+      <c r="H5" s="389"/>
+      <c r="I5" s="389"/>
+      <c r="J5" s="389"/>
+      <c r="K5" s="389"/>
+      <c r="L5" s="389"/>
+      <c r="M5" s="389"/>
+      <c r="N5" s="389"/>
+      <c r="O5" s="389"/>
+      <c r="P5" s="389"/>
+      <c r="Q5" s="389"/>
+      <c r="R5" s="389"/>
+      <c r="S5" s="389"/>
+      <c r="T5" s="389"/>
+      <c r="U5" s="389"/>
+      <c r="V5" s="389"/>
+      <c r="W5" s="389"/>
+      <c r="X5" s="389"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
@@ -43302,748 +43455,778 @@
       <c r="V7" s="9"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="351" t="s">
+      <c r="A8" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="352"/>
-      <c r="C8" s="352"/>
-      <c r="D8" s="352"/>
-      <c r="E8" s="352"/>
-      <c r="F8" s="353"/>
-      <c r="G8" s="351" t="s">
+      <c r="B8" s="353"/>
+      <c r="C8" s="353"/>
+      <c r="D8" s="353"/>
+      <c r="E8" s="353"/>
+      <c r="F8" s="354"/>
+      <c r="G8" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="352"/>
-      <c r="I8" s="353"/>
-      <c r="J8" s="354" t="s">
+      <c r="H8" s="353"/>
+      <c r="I8" s="354"/>
+      <c r="J8" s="355" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="355"/>
-      <c r="L8" s="355"/>
-      <c r="M8" s="355"/>
-      <c r="N8" s="356"/>
-      <c r="O8" s="351" t="s">
+      <c r="K8" s="356"/>
+      <c r="L8" s="356"/>
+      <c r="M8" s="356"/>
+      <c r="N8" s="357"/>
+      <c r="O8" s="352" t="s">
         <v>440</v>
       </c>
-      <c r="P8" s="352"/>
-      <c r="Q8" s="352"/>
-      <c r="R8" s="352"/>
-      <c r="S8" s="352"/>
-      <c r="T8" s="353"/>
-      <c r="U8" s="354" t="s">
+      <c r="P8" s="353"/>
+      <c r="Q8" s="353"/>
+      <c r="R8" s="353"/>
+      <c r="S8" s="353"/>
+      <c r="T8" s="354"/>
+      <c r="U8" s="355" t="s">
         <v>441</v>
       </c>
-      <c r="V8" s="355"/>
-      <c r="W8" s="355"/>
-      <c r="X8" s="356"/>
+      <c r="V8" s="356"/>
+      <c r="W8" s="356"/>
+      <c r="X8" s="357"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="359" t="s">
+      <c r="A9" s="345" t="s">
         <v>449</v>
       </c>
-      <c r="B9" s="360" t="s">
+      <c r="B9" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="C9" s="360" t="s">
+      <c r="C9" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="D9" s="360" t="s">
+      <c r="D9" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="E9" s="360" t="s">
+      <c r="E9" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="F9" s="361" t="s">
+      <c r="F9" s="347" t="s">
         <v>449</v>
       </c>
-      <c r="G9" s="359" t="s">
+      <c r="G9" s="345" t="s">
         <v>285</v>
       </c>
-      <c r="H9" s="360" t="s">
+      <c r="H9" s="346" t="s">
         <v>285</v>
       </c>
-      <c r="I9" s="361" t="s">
+      <c r="I9" s="347" t="s">
         <v>285</v>
       </c>
-      <c r="J9" s="362" t="s">
+      <c r="J9" s="348" t="s">
         <v>706</v>
       </c>
-      <c r="K9" s="363" t="s">
+      <c r="K9" s="349" t="s">
         <v>451</v>
       </c>
-      <c r="L9" s="363">
+      <c r="L9" s="349">
         <v>43368</v>
       </c>
-      <c r="M9" s="363" t="s">
+      <c r="M9" s="349" t="s">
         <v>450</v>
       </c>
-      <c r="N9" s="364" t="s">
+      <c r="N9" s="350" t="s">
         <v>451</v>
       </c>
-      <c r="O9" s="359" t="s">
+      <c r="O9" s="345" t="s">
         <v>451</v>
       </c>
-      <c r="P9" s="360" t="s">
+      <c r="P9" s="346" t="s">
         <v>451</v>
       </c>
-      <c r="Q9" s="360" t="s">
+      <c r="Q9" s="346" t="s">
         <v>451</v>
       </c>
-      <c r="R9" s="360" t="s">
+      <c r="R9" s="346" t="s">
         <v>451</v>
       </c>
-      <c r="S9" s="360" t="s">
+      <c r="S9" s="346" t="s">
         <v>451</v>
       </c>
-      <c r="T9" s="361" t="s">
+      <c r="T9" s="347" t="s">
         <v>451</v>
       </c>
-      <c r="U9" s="362">
+      <c r="U9" s="348">
         <v>44096</v>
       </c>
-      <c r="V9" s="363" t="s">
+      <c r="V9" s="349" t="s">
         <v>450</v>
       </c>
-      <c r="W9" s="363" t="s">
+      <c r="W9" s="349" t="s">
         <v>451</v>
       </c>
-      <c r="X9" s="364">
+      <c r="X9" s="350">
         <v>43368</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="359" t="s">
+      <c r="A10" s="345" t="s">
         <v>449</v>
       </c>
-      <c r="B10" s="360" t="s">
+      <c r="B10" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="C10" s="360" t="s">
+      <c r="C10" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="D10" s="360" t="s">
+      <c r="D10" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="E10" s="360" t="s">
+      <c r="E10" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="F10" s="361" t="s">
+      <c r="F10" s="347" t="s">
         <v>449</v>
       </c>
-      <c r="G10" s="359" t="s">
+      <c r="G10" s="345" t="s">
         <v>293</v>
       </c>
-      <c r="H10" s="360" t="s">
+      <c r="H10" s="346" t="s">
         <v>293</v>
       </c>
-      <c r="I10" s="361" t="s">
+      <c r="I10" s="347" t="s">
         <v>293</v>
       </c>
-      <c r="J10" s="362" t="s">
+      <c r="J10" s="348" t="s">
         <v>707</v>
       </c>
-      <c r="K10" s="363" t="s">
+      <c r="K10" s="349" t="s">
         <v>451</v>
       </c>
-      <c r="L10" s="363">
+      <c r="L10" s="349">
         <v>43369</v>
       </c>
-      <c r="M10" s="363" t="s">
+      <c r="M10" s="349" t="s">
         <v>708</v>
       </c>
-      <c r="N10" s="364" t="s">
+      <c r="N10" s="350" t="s">
         <v>451</v>
       </c>
-      <c r="O10" s="359" t="s">
+      <c r="O10" s="345" t="s">
         <v>451</v>
       </c>
-      <c r="P10" s="360" t="s">
+      <c r="P10" s="346" t="s">
         <v>451</v>
       </c>
-      <c r="Q10" s="360" t="s">
+      <c r="Q10" s="346" t="s">
         <v>451</v>
       </c>
-      <c r="R10" s="360" t="s">
+      <c r="R10" s="346" t="s">
         <v>451</v>
       </c>
-      <c r="S10" s="360" t="s">
+      <c r="S10" s="346" t="s">
         <v>451</v>
       </c>
-      <c r="T10" s="361" t="s">
+      <c r="T10" s="347" t="s">
         <v>451</v>
       </c>
-      <c r="U10" s="362">
+      <c r="U10" s="348">
         <v>44431</v>
       </c>
-      <c r="V10" s="363" t="s">
+      <c r="V10" s="349" t="s">
         <v>708</v>
       </c>
-      <c r="W10" s="363" t="s">
+      <c r="W10" s="349" t="s">
         <v>451</v>
       </c>
-      <c r="X10" s="364">
+      <c r="X10" s="350">
         <v>43369</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="359" t="s">
+      <c r="A11" s="345" t="s">
         <v>709</v>
       </c>
-      <c r="B11" s="360" t="s">
+      <c r="B11" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="C11" s="360" t="s">
+      <c r="C11" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="360" t="s">
+      <c r="D11" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="E11" s="360" t="s">
+      <c r="E11" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="F11" s="361" t="s">
+      <c r="F11" s="347" t="s">
         <v>449</v>
       </c>
-      <c r="G11" s="359" t="s">
+      <c r="G11" s="345" t="s">
         <v>294</v>
       </c>
-      <c r="H11" s="360" t="s">
+      <c r="H11" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I11" s="361" t="s">
+      <c r="I11" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J11" s="362" t="s">
+      <c r="J11" s="348" t="s">
         <v>698</v>
       </c>
-      <c r="K11" s="363" t="s">
+      <c r="K11" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L11" s="363">
+      <c r="L11" s="349">
         <v>43392</v>
       </c>
-      <c r="M11" s="363" t="s">
+      <c r="M11" s="349" t="s">
         <v>452</v>
       </c>
-      <c r="N11" s="364" t="s">
+      <c r="N11" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O11" s="359" t="s">
+      <c r="O11" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P11" s="360" t="s">
+      <c r="P11" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q11" s="360" t="s">
+      <c r="Q11" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R11" s="360" t="s">
+      <c r="R11" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S11" s="360" t="s">
+      <c r="S11" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T11" s="361" t="s">
+      <c r="T11" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U11" s="362">
+      <c r="U11" s="348">
         <v>44083</v>
       </c>
-      <c r="V11" s="363" t="s">
+      <c r="V11" s="349" t="s">
         <v>452</v>
       </c>
-      <c r="W11" s="363" t="s">
+      <c r="W11" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X11" s="364">
+      <c r="X11" s="350">
         <v>43392</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="359" t="s">
+      <c r="A12" s="345" t="s">
         <v>709</v>
       </c>
-      <c r="B12" s="360" t="s">
+      <c r="B12" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="360" t="s">
+      <c r="C12" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="D12" s="360" t="s">
+      <c r="D12" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="E12" s="360" t="s">
+      <c r="E12" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="F12" s="361" t="s">
+      <c r="F12" s="347" t="s">
         <v>449</v>
       </c>
-      <c r="G12" s="359" t="s">
+      <c r="G12" s="345" t="s">
         <v>477</v>
       </c>
-      <c r="H12" s="360" t="s">
+      <c r="H12" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I12" s="361" t="s">
+      <c r="I12" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J12" s="362" t="s">
+      <c r="J12" s="348" t="s">
         <v>700</v>
       </c>
-      <c r="K12" s="363" t="s">
+      <c r="K12" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L12" s="363">
+      <c r="L12" s="349">
         <v>43393</v>
       </c>
-      <c r="M12" s="363" t="s">
+      <c r="M12" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="N12" s="364" t="s">
+      <c r="N12" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O12" s="359" t="s">
+      <c r="O12" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P12" s="360" t="s">
+      <c r="P12" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q12" s="360" t="s">
+      <c r="Q12" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R12" s="360" t="s">
+      <c r="R12" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S12" s="360" t="s">
+      <c r="S12" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T12" s="361" t="s">
+      <c r="T12" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U12" s="362">
+      <c r="U12" s="348">
         <v>44058</v>
       </c>
-      <c r="V12" s="363" t="s">
+      <c r="V12" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="W12" s="363" t="s">
+      <c r="W12" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X12" s="364">
+      <c r="X12" s="350">
         <v>43393</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="359" t="s">
+      <c r="A13" s="345" t="s">
         <v>465</v>
       </c>
-      <c r="B13" s="360" t="s">
+      <c r="B13" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="C13" s="360" t="s">
+      <c r="C13" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="D13" s="360" t="s">
+      <c r="D13" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="E13" s="360" t="s">
+      <c r="E13" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="F13" s="361" t="s">
+      <c r="F13" s="347" t="s">
         <v>449</v>
       </c>
-      <c r="G13" s="359" t="s">
+      <c r="G13" s="345" t="s">
         <v>463</v>
       </c>
-      <c r="H13" s="360" t="s">
+      <c r="H13" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I13" s="361" t="s">
+      <c r="I13" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J13" s="362" t="s">
+      <c r="J13" s="348" t="s">
         <v>718</v>
       </c>
-      <c r="K13" s="363" t="s">
+      <c r="K13" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L13" s="363">
+      <c r="L13" s="349">
         <v>43393</v>
       </c>
-      <c r="M13" s="363" t="s">
+      <c r="M13" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="N13" s="364" t="s">
+      <c r="N13" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O13" s="359" t="s">
+      <c r="O13" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P13" s="360" t="s">
+      <c r="P13" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q13" s="360" t="s">
+      <c r="Q13" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R13" s="360" t="s">
+      <c r="R13" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S13" s="360" t="s">
+      <c r="S13" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T13" s="361" t="s">
+      <c r="T13" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U13" s="362">
+      <c r="U13" s="348">
         <v>44542</v>
       </c>
-      <c r="V13" s="363" t="s">
+      <c r="V13" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="W13" s="363" t="s">
+      <c r="W13" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X13" s="364">
+      <c r="X13" s="350">
         <v>43393</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="359" t="s">
+      <c r="A14" s="345" t="s">
         <v>710</v>
       </c>
-      <c r="B14" s="360"/>
-      <c r="C14" s="360"/>
-      <c r="D14" s="360"/>
-      <c r="E14" s="360"/>
-      <c r="F14" s="361"/>
-      <c r="G14" s="359" t="s">
+      <c r="B14" s="346"/>
+      <c r="C14" s="346"/>
+      <c r="D14" s="346"/>
+      <c r="E14" s="346"/>
+      <c r="F14" s="347"/>
+      <c r="G14" s="345" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="360" t="s">
+      <c r="H14" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I14" s="361" t="s">
+      <c r="I14" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J14" s="362" t="s">
+      <c r="J14" s="348" t="s">
         <v>711</v>
       </c>
-      <c r="K14" s="363" t="s">
+      <c r="K14" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L14" s="363">
+      <c r="L14" s="349">
         <v>43394</v>
       </c>
-      <c r="M14" s="363" t="s">
+      <c r="M14" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="N14" s="364" t="s">
+      <c r="N14" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O14" s="359" t="s">
+      <c r="O14" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P14" s="360" t="s">
+      <c r="P14" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q14" s="360" t="s">
+      <c r="Q14" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R14" s="360" t="s">
+      <c r="R14" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S14" s="360" t="s">
+      <c r="S14" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T14" s="361" t="s">
+      <c r="T14" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U14" s="362">
+      <c r="U14" s="348">
         <v>44158</v>
       </c>
-      <c r="V14" s="363" t="s">
+      <c r="V14" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="W14" s="363" t="s">
+      <c r="W14" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X14" s="364">
+      <c r="X14" s="350">
         <v>43394</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="359" t="s">
+      <c r="A15" s="345" t="s">
         <v>710</v>
       </c>
-      <c r="B15" s="360"/>
-      <c r="C15" s="360"/>
-      <c r="D15" s="360"/>
-      <c r="E15" s="360"/>
-      <c r="F15" s="361"/>
-      <c r="G15" s="359" t="s">
+      <c r="B15" s="346"/>
+      <c r="C15" s="346"/>
+      <c r="D15" s="346"/>
+      <c r="E15" s="346"/>
+      <c r="F15" s="347"/>
+      <c r="G15" s="345" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="360" t="s">
+      <c r="H15" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I15" s="361" t="s">
+      <c r="I15" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J15" s="362" t="s">
+      <c r="J15" s="348" t="s">
         <v>712</v>
       </c>
-      <c r="K15" s="363" t="s">
+      <c r="K15" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L15" s="363">
+      <c r="L15" s="349">
         <v>43394</v>
       </c>
-      <c r="M15" s="363" t="s">
+      <c r="M15" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="N15" s="364" t="s">
+      <c r="N15" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O15" s="359" t="s">
+      <c r="O15" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P15" s="360" t="s">
+      <c r="P15" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q15" s="360" t="s">
+      <c r="Q15" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R15" s="360" t="s">
+      <c r="R15" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S15" s="360" t="s">
+      <c r="S15" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T15" s="361" t="s">
+      <c r="T15" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U15" s="362">
+      <c r="U15" s="348">
         <v>44331</v>
       </c>
-      <c r="V15" s="363" t="s">
+      <c r="V15" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="W15" s="363" t="s">
+      <c r="W15" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X15" s="364">
+      <c r="X15" s="350">
         <v>43394</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="359" t="s">
+      <c r="A16" s="345" t="s">
         <v>710</v>
       </c>
-      <c r="B16" s="360"/>
-      <c r="C16" s="360"/>
-      <c r="D16" s="360"/>
-      <c r="E16" s="360"/>
-      <c r="F16" s="361"/>
-      <c r="G16" s="359" t="s">
+      <c r="B16" s="346"/>
+      <c r="C16" s="346"/>
+      <c r="D16" s="346"/>
+      <c r="E16" s="346"/>
+      <c r="F16" s="347"/>
+      <c r="G16" s="345" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="360" t="s">
+      <c r="H16" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I16" s="361" t="s">
+      <c r="I16" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J16" s="362" t="s">
+      <c r="J16" s="348" t="s">
         <v>713</v>
       </c>
-      <c r="K16" s="363" t="s">
+      <c r="K16" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L16" s="363">
+      <c r="L16" s="349">
         <v>43394</v>
       </c>
-      <c r="M16" s="363" t="s">
+      <c r="M16" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="N16" s="364" t="s">
+      <c r="N16" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O16" s="359" t="s">
+      <c r="O16" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P16" s="360" t="s">
+      <c r="P16" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q16" s="360" t="s">
+      <c r="Q16" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R16" s="360" t="s">
+      <c r="R16" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S16" s="360" t="s">
+      <c r="S16" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T16" s="361" t="s">
+      <c r="T16" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U16" s="362">
+      <c r="U16" s="348">
         <v>44331</v>
       </c>
-      <c r="V16" s="363" t="s">
+      <c r="V16" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="W16" s="363" t="s">
+      <c r="W16" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X16" s="364">
+      <c r="X16" s="350">
         <v>43394</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="359" t="s">
+      <c r="A17" s="345" t="s">
         <v>710</v>
       </c>
-      <c r="B17" s="360"/>
-      <c r="C17" s="360"/>
-      <c r="D17" s="360"/>
-      <c r="E17" s="360"/>
-      <c r="F17" s="361"/>
-      <c r="G17" s="359" t="s">
+      <c r="B17" s="346"/>
+      <c r="C17" s="346"/>
+      <c r="D17" s="346"/>
+      <c r="E17" s="346"/>
+      <c r="F17" s="347"/>
+      <c r="G17" s="345" t="s">
         <v>311</v>
       </c>
-      <c r="H17" s="360" t="s">
+      <c r="H17" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I17" s="361" t="s">
+      <c r="I17" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J17" s="362" t="s">
+      <c r="J17" s="348" t="s">
         <v>714</v>
       </c>
-      <c r="K17" s="363" t="s">
+      <c r="K17" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L17" s="363">
+      <c r="L17" s="349">
         <v>43394</v>
       </c>
-      <c r="M17" s="363" t="s">
+      <c r="M17" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="N17" s="364" t="s">
+      <c r="N17" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O17" s="359" t="s">
+      <c r="O17" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P17" s="360" t="s">
+      <c r="P17" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q17" s="360" t="s">
+      <c r="Q17" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R17" s="360" t="s">
+      <c r="R17" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S17" s="360" t="s">
+      <c r="S17" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T17" s="361" t="s">
+      <c r="T17" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U17" s="362">
+      <c r="U17" s="348">
         <v>44331</v>
       </c>
-      <c r="V17" s="363" t="s">
+      <c r="V17" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="W17" s="363" t="s">
+      <c r="W17" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X17" s="364">
+      <c r="X17" s="350">
         <v>43394</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="359" t="s">
+      <c r="A18" s="345" t="s">
         <v>470</v>
       </c>
-      <c r="B18" s="360" t="s">
+      <c r="B18" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="C18" s="360" t="s">
+      <c r="C18" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="D18" s="360" t="s">
+      <c r="D18" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="E18" s="360" t="s">
+      <c r="E18" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="F18" s="361" t="s">
+      <c r="F18" s="347" t="s">
         <v>449</v>
       </c>
-      <c r="G18" s="359" t="s">
+      <c r="G18" s="345" t="s">
         <v>467</v>
       </c>
-      <c r="H18" s="360" t="s">
+      <c r="H18" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I18" s="361" t="s">
+      <c r="I18" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J18" s="362" t="s">
+      <c r="J18" s="348" t="s">
         <v>699</v>
       </c>
-      <c r="K18" s="363" t="s">
+      <c r="K18" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L18" s="363">
+      <c r="L18" s="349">
         <v>43394</v>
       </c>
-      <c r="M18" s="363" t="s">
+      <c r="M18" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="N18" s="364" t="s">
+      <c r="N18" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O18" s="359" t="s">
+      <c r="O18" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P18" s="360" t="s">
+      <c r="P18" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q18" s="360" t="s">
+      <c r="Q18" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R18" s="360" t="s">
+      <c r="R18" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S18" s="360" t="s">
+      <c r="S18" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T18" s="361" t="s">
+      <c r="T18" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U18" s="362">
+      <c r="U18" s="348">
         <v>44331</v>
       </c>
-      <c r="V18" s="363" t="s">
+      <c r="V18" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="W18" s="363" t="s">
+      <c r="W18" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X18" s="364">
+      <c r="X18" s="350">
         <v>43394</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A5:X5"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="G10:I10"/>
@@ -44060,41 +44243,11 @@
     <mergeCell ref="J9:N9"/>
     <mergeCell ref="O9:T9"/>
     <mergeCell ref="U9:X9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="U13:X13"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -44190,23 +44343,23 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" s="387" t="s">
+      <c r="H4" s="392" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="388"/>
-      <c r="J4" s="387" t="s">
+      <c r="I4" s="393"/>
+      <c r="J4" s="392" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="388"/>
-      <c r="L4" s="389" t="s">
+      <c r="K4" s="393"/>
+      <c r="L4" s="394" t="s">
         <v>258</v>
       </c>
-      <c r="M4" s="391" t="s">
+      <c r="M4" s="396" t="s">
         <v>116</v>
       </c>
-      <c r="N4" s="392"/>
-      <c r="O4" s="392"/>
-      <c r="P4" s="393"/>
+      <c r="N4" s="397"/>
+      <c r="O4" s="397"/>
+      <c r="P4" s="398"/>
     </row>
     <row r="5" spans="2:23" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B5" s="47" t="s">
@@ -44239,11 +44392,11 @@
       <c r="K5" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="390"/>
-      <c r="M5" s="394"/>
-      <c r="N5" s="395"/>
-      <c r="O5" s="395"/>
-      <c r="P5" s="396"/>
+      <c r="L5" s="395"/>
+      <c r="M5" s="399"/>
+      <c r="N5" s="400"/>
+      <c r="O5" s="400"/>
+      <c r="P5" s="401"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
@@ -44487,26 +44640,26 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="385" t="s">
+      <c r="H13" s="390" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="386"/>
-      <c r="J13" s="385" t="s">
+      <c r="I13" s="391"/>
+      <c r="J13" s="390" t="s">
         <v>292</v>
       </c>
-      <c r="K13" s="386"/>
-      <c r="L13" s="385" t="s">
+      <c r="K13" s="391"/>
+      <c r="L13" s="390" t="s">
         <v>137</v>
       </c>
-      <c r="M13" s="386"/>
-      <c r="N13" s="385" t="s">
+      <c r="M13" s="391"/>
+      <c r="N13" s="390" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="386"/>
-      <c r="P13" s="385" t="s">
+      <c r="O13" s="391"/>
+      <c r="P13" s="390" t="s">
         <v>300</v>
       </c>
-      <c r="Q13" s="386"/>
+      <c r="Q13" s="391"/>
       <c r="T13" s="185" t="s">
         <v>330</v>
       </c>
@@ -46711,205 +46864,229 @@
       <c r="L89"/>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D90" s="382" t="s">
+      <c r="D90" s="402" t="s">
         <v>482</v>
       </c>
-      <c r="E90" s="383"/>
-      <c r="F90" s="383"/>
-      <c r="G90" s="384"/>
+      <c r="E90" s="403"/>
+      <c r="F90" s="403"/>
+      <c r="G90" s="404"/>
       <c r="L90"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D91" s="310" t="s">
+      <c r="D91" s="328" t="s">
         <v>483</v>
       </c>
-      <c r="E91" s="311"/>
-      <c r="F91" s="311"/>
-      <c r="G91" s="312"/>
+      <c r="E91" s="329"/>
+      <c r="F91" s="329"/>
+      <c r="G91" s="330"/>
       <c r="L91"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D92" s="310" t="s">
+      <c r="D92" s="328" t="s">
         <v>484</v>
       </c>
-      <c r="E92" s="311"/>
-      <c r="F92" s="311"/>
-      <c r="G92" s="312"/>
+      <c r="E92" s="329"/>
+      <c r="F92" s="329"/>
+      <c r="G92" s="330"/>
       <c r="L92"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D93" s="310" t="s">
+      <c r="D93" s="328" t="s">
         <v>485</v>
       </c>
-      <c r="E93" s="311"/>
-      <c r="F93" s="311"/>
-      <c r="G93" s="312"/>
+      <c r="E93" s="329"/>
+      <c r="F93" s="329"/>
+      <c r="G93" s="330"/>
       <c r="L93"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D94" s="310" t="s">
+      <c r="D94" s="328" t="s">
         <v>486</v>
       </c>
-      <c r="E94" s="311"/>
-      <c r="F94" s="311"/>
-      <c r="G94" s="312"/>
+      <c r="E94" s="329"/>
+      <c r="F94" s="329"/>
+      <c r="G94" s="330"/>
       <c r="L94"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D95" s="310" t="s">
+      <c r="D95" s="328" t="s">
         <v>487</v>
       </c>
-      <c r="E95" s="311"/>
-      <c r="F95" s="311"/>
-      <c r="G95" s="312"/>
+      <c r="E95" s="329"/>
+      <c r="F95" s="329"/>
+      <c r="G95" s="330"/>
       <c r="L95"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D96" s="310" t="s">
+      <c r="D96" s="328" t="s">
         <v>488</v>
       </c>
-      <c r="E96" s="311"/>
-      <c r="F96" s="311"/>
-      <c r="G96" s="312"/>
+      <c r="E96" s="329"/>
+      <c r="F96" s="329"/>
+      <c r="G96" s="330"/>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D97" s="310" t="s">
+      <c r="D97" s="328" t="s">
         <v>489</v>
       </c>
-      <c r="E97" s="311"/>
-      <c r="F97" s="311"/>
-      <c r="G97" s="312"/>
+      <c r="E97" s="329"/>
+      <c r="F97" s="329"/>
+      <c r="G97" s="330"/>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D98" s="310" t="s">
+      <c r="D98" s="328" t="s">
         <v>490</v>
       </c>
-      <c r="E98" s="311"/>
-      <c r="F98" s="311"/>
-      <c r="G98" s="312"/>
+      <c r="E98" s="329"/>
+      <c r="F98" s="329"/>
+      <c r="G98" s="330"/>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D99" s="310" t="s">
+      <c r="D99" s="328" t="s">
         <v>491</v>
       </c>
-      <c r="E99" s="311"/>
-      <c r="F99" s="311"/>
-      <c r="G99" s="312"/>
+      <c r="E99" s="329"/>
+      <c r="F99" s="329"/>
+      <c r="G99" s="330"/>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D100" s="310" t="s">
+      <c r="D100" s="328" t="s">
         <v>492</v>
       </c>
-      <c r="E100" s="311"/>
-      <c r="F100" s="311"/>
-      <c r="G100" s="312"/>
+      <c r="E100" s="329"/>
+      <c r="F100" s="329"/>
+      <c r="G100" s="330"/>
     </row>
     <row r="101" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D101" s="310" t="s">
+      <c r="D101" s="328" t="s">
         <v>493</v>
       </c>
-      <c r="E101" s="311"/>
-      <c r="F101" s="311"/>
-      <c r="G101" s="312"/>
+      <c r="E101" s="329"/>
+      <c r="F101" s="329"/>
+      <c r="G101" s="330"/>
     </row>
     <row r="102" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D102" s="310" t="s">
+      <c r="D102" s="328" t="s">
         <v>494</v>
       </c>
-      <c r="E102" s="311"/>
-      <c r="F102" s="311"/>
-      <c r="G102" s="312"/>
+      <c r="E102" s="329"/>
+      <c r="F102" s="329"/>
+      <c r="G102" s="330"/>
     </row>
     <row r="103" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D103" s="310" t="s">
+      <c r="D103" s="328" t="s">
         <v>495</v>
       </c>
-      <c r="E103" s="311"/>
-      <c r="F103" s="311"/>
-      <c r="G103" s="312"/>
+      <c r="E103" s="329"/>
+      <c r="F103" s="329"/>
+      <c r="G103" s="330"/>
     </row>
     <row r="104" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D104" s="310" t="s">
+      <c r="D104" s="328" t="s">
         <v>496</v>
       </c>
-      <c r="E104" s="311"/>
-      <c r="F104" s="311"/>
-      <c r="G104" s="312"/>
+      <c r="E104" s="329"/>
+      <c r="F104" s="329"/>
+      <c r="G104" s="330"/>
     </row>
     <row r="105" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D105" s="310" t="s">
+      <c r="D105" s="328" t="s">
         <v>497</v>
       </c>
-      <c r="E105" s="311"/>
-      <c r="F105" s="311"/>
-      <c r="G105" s="312"/>
+      <c r="E105" s="329"/>
+      <c r="F105" s="329"/>
+      <c r="G105" s="330"/>
     </row>
     <row r="106" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D106" s="310" t="s">
+      <c r="D106" s="328" t="s">
         <v>498</v>
       </c>
-      <c r="E106" s="311"/>
-      <c r="F106" s="311"/>
-      <c r="G106" s="312"/>
+      <c r="E106" s="329"/>
+      <c r="F106" s="329"/>
+      <c r="G106" s="330"/>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D107" s="310" t="s">
+      <c r="D107" s="328" t="s">
         <v>499</v>
       </c>
-      <c r="E107" s="311"/>
-      <c r="F107" s="311"/>
-      <c r="G107" s="312"/>
+      <c r="E107" s="329"/>
+      <c r="F107" s="329"/>
+      <c r="G107" s="330"/>
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D108" s="310" t="s">
+      <c r="D108" s="328" t="s">
         <v>500</v>
       </c>
-      <c r="E108" s="311"/>
-      <c r="F108" s="311"/>
-      <c r="G108" s="312"/>
+      <c r="E108" s="329"/>
+      <c r="F108" s="329"/>
+      <c r="G108" s="330"/>
     </row>
     <row r="109" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D109" s="310" t="s">
+      <c r="D109" s="328" t="s">
         <v>501</v>
       </c>
-      <c r="E109" s="311"/>
-      <c r="F109" s="311"/>
-      <c r="G109" s="312"/>
+      <c r="E109" s="329"/>
+      <c r="F109" s="329"/>
+      <c r="G109" s="330"/>
     </row>
     <row r="110" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D110" s="310" t="s">
+      <c r="D110" s="328" t="s">
         <v>502</v>
       </c>
-      <c r="E110" s="311"/>
-      <c r="F110" s="311"/>
-      <c r="G110" s="312"/>
+      <c r="E110" s="329"/>
+      <c r="F110" s="329"/>
+      <c r="G110" s="330"/>
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D111" s="310" t="s">
+      <c r="D111" s="328" t="s">
         <v>503</v>
       </c>
-      <c r="E111" s="311"/>
-      <c r="F111" s="311"/>
-      <c r="G111" s="312"/>
+      <c r="E111" s="329"/>
+      <c r="F111" s="329"/>
+      <c r="G111" s="330"/>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D112" s="310" t="s">
+      <c r="D112" s="328" t="s">
         <v>504</v>
       </c>
-      <c r="E112" s="311"/>
-      <c r="F112" s="311"/>
-      <c r="G112" s="312"/>
+      <c r="E112" s="329"/>
+      <c r="F112" s="329"/>
+      <c r="G112" s="330"/>
     </row>
     <row r="113" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D113" s="313" t="s">
+      <c r="D113" s="331" t="s">
         <v>505</v>
       </c>
-      <c r="E113" s="314"/>
-      <c r="F113" s="314"/>
-      <c r="G113" s="315"/>
+      <c r="E113" s="332"/>
+      <c r="F113" s="332"/>
+      <c r="G113" s="333"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D110:G110"/>
+    <mergeCell ref="D111:G111"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="D113:G113"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D94:G94"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
@@ -46919,30 +47096,6 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D110:G110"/>
-    <mergeCell ref="D111:G111"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="D113:G113"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="D109:G109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/src/modules/mail/templates/excels/ni_mcit_p_01_5.xlsx
+++ b/src/modules/mail/templates/excels/ni_mcit_p_01_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MamaGuevooooo\Desktop\Regxi\Metrocal-admin-backend\src\modules\mail\templates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA508B3-687A-4AD8-8F1B-91F41DA8ED9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0C8F0D-9225-4A0B-97F3-63E1FE6185E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="887" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7781,6 +7781,24 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7811,24 +7829,6 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7850,35 +7850,56 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -7901,71 +7922,53 @@
     <xf numFmtId="164" fontId="47" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7976,26 +7979,32 @@
     <xf numFmtId="0" fontId="52" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8032,15 +8041,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -21952,10 +21952,10 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="N10" s="318" t="s">
+      <c r="N10" s="324" t="s">
         <v>475</v>
       </c>
-      <c r="O10" s="319"/>
+      <c r="O10" s="325"/>
       <c r="P10" s="263" t="str">
         <f>IFERROR(AVERAGE(P3,P5,P7),"")</f>
         <v/>
@@ -21985,10 +21985,10 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="320" t="s">
+      <c r="N11" s="326" t="s">
         <v>476</v>
       </c>
-      <c r="O11" s="321"/>
+      <c r="O11" s="327"/>
       <c r="P11" s="265" t="str">
         <f>IFERROR(AVERAGE(P4,P6,P8),"")</f>
         <v/>
@@ -22213,268 +22213,288 @@
       </c>
     </row>
     <row r="123" spans="23:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Y123" s="322" t="s">
+      <c r="Y123" s="328" t="s">
         <v>482</v>
       </c>
-      <c r="Z123" s="323"/>
-      <c r="AA123" s="323"/>
-      <c r="AB123" s="324"/>
+      <c r="Z123" s="329"/>
+      <c r="AA123" s="329"/>
+      <c r="AB123" s="330"/>
     </row>
     <row r="124" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W124" s="202" t="s">
         <v>276</v>
       </c>
-      <c r="Y124" s="325" t="s">
+      <c r="Y124" s="331" t="s">
         <v>483</v>
       </c>
-      <c r="Z124" s="326"/>
-      <c r="AA124" s="326"/>
-      <c r="AB124" s="327"/>
+      <c r="Z124" s="332"/>
+      <c r="AA124" s="332"/>
+      <c r="AB124" s="333"/>
     </row>
     <row r="125" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W125" s="202" t="s">
         <v>275</v>
       </c>
-      <c r="Y125" s="328" t="s">
+      <c r="Y125" s="318" t="s">
         <v>516</v>
       </c>
-      <c r="Z125" s="329"/>
-      <c r="AA125" s="329"/>
-      <c r="AB125" s="330"/>
+      <c r="Z125" s="319"/>
+      <c r="AA125" s="319"/>
+      <c r="AB125" s="320"/>
     </row>
     <row r="126" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W126" s="202" t="s">
         <v>277</v>
       </c>
-      <c r="Y126" s="328" t="s">
+      <c r="Y126" s="318" t="s">
         <v>485</v>
       </c>
-      <c r="Z126" s="329"/>
-      <c r="AA126" s="329"/>
-      <c r="AB126" s="330"/>
+      <c r="Z126" s="319"/>
+      <c r="AA126" s="319"/>
+      <c r="AB126" s="320"/>
     </row>
     <row r="127" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W127" s="202" t="s">
         <v>338</v>
       </c>
-      <c r="Y127" s="328" t="s">
+      <c r="Y127" s="318" t="s">
         <v>486</v>
       </c>
-      <c r="Z127" s="329"/>
-      <c r="AA127" s="329"/>
-      <c r="AB127" s="330"/>
+      <c r="Z127" s="319"/>
+      <c r="AA127" s="319"/>
+      <c r="AB127" s="320"/>
     </row>
     <row r="128" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W128" s="202" t="s">
         <v>278</v>
       </c>
-      <c r="Y128" s="328" t="s">
+      <c r="Y128" s="318" t="s">
         <v>487</v>
       </c>
-      <c r="Z128" s="329"/>
-      <c r="AA128" s="329"/>
-      <c r="AB128" s="330"/>
+      <c r="Z128" s="319"/>
+      <c r="AA128" s="319"/>
+      <c r="AB128" s="320"/>
     </row>
     <row r="129" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W129" s="202" t="s">
         <v>506</v>
       </c>
-      <c r="Y129" s="328" t="s">
+      <c r="Y129" s="318" t="s">
         <v>488</v>
       </c>
-      <c r="Z129" s="329"/>
-      <c r="AA129" s="329"/>
-      <c r="AB129" s="330"/>
+      <c r="Z129" s="319"/>
+      <c r="AA129" s="319"/>
+      <c r="AB129" s="320"/>
     </row>
     <row r="130" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W130" s="202" t="s">
         <v>507</v>
       </c>
-      <c r="Y130" s="328" t="s">
+      <c r="Y130" s="318" t="s">
         <v>489</v>
       </c>
-      <c r="Z130" s="329"/>
-      <c r="AA130" s="329"/>
-      <c r="AB130" s="330"/>
+      <c r="Z130" s="319"/>
+      <c r="AA130" s="319"/>
+      <c r="AB130" s="320"/>
     </row>
     <row r="131" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W131" s="202" t="s">
         <v>352</v>
       </c>
-      <c r="Y131" s="328" t="s">
+      <c r="Y131" s="318" t="s">
         <v>490</v>
       </c>
-      <c r="Z131" s="329"/>
-      <c r="AA131" s="329"/>
-      <c r="AB131" s="330"/>
+      <c r="Z131" s="319"/>
+      <c r="AA131" s="319"/>
+      <c r="AB131" s="320"/>
     </row>
     <row r="132" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W132" s="202" t="s">
         <v>353</v>
       </c>
-      <c r="Y132" s="328" t="s">
+      <c r="Y132" s="318" t="s">
         <v>491</v>
       </c>
-      <c r="Z132" s="329"/>
-      <c r="AA132" s="329"/>
-      <c r="AB132" s="330"/>
+      <c r="Z132" s="319"/>
+      <c r="AA132" s="319"/>
+      <c r="AB132" s="320"/>
     </row>
     <row r="133" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W133" s="202" t="s">
         <v>354</v>
       </c>
-      <c r="Y133" s="328" t="s">
+      <c r="Y133" s="318" t="s">
         <v>492</v>
       </c>
-      <c r="Z133" s="329"/>
-      <c r="AA133" s="329"/>
-      <c r="AB133" s="330"/>
+      <c r="Z133" s="319"/>
+      <c r="AA133" s="319"/>
+      <c r="AB133" s="320"/>
     </row>
     <row r="134" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W134" s="202" t="s">
         <v>508</v>
       </c>
-      <c r="Y134" s="328" t="s">
+      <c r="Y134" s="318" t="s">
         <v>511</v>
       </c>
-      <c r="Z134" s="329"/>
-      <c r="AA134" s="329"/>
-      <c r="AB134" s="330"/>
+      <c r="Z134" s="319"/>
+      <c r="AA134" s="319"/>
+      <c r="AB134" s="320"/>
     </row>
     <row r="135" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W135" s="202" t="s">
         <v>509</v>
       </c>
-      <c r="Y135" s="328" t="s">
+      <c r="Y135" s="318" t="s">
         <v>512</v>
       </c>
-      <c r="Z135" s="329"/>
-      <c r="AA135" s="329"/>
-      <c r="AB135" s="330"/>
+      <c r="Z135" s="319"/>
+      <c r="AA135" s="319"/>
+      <c r="AB135" s="320"/>
     </row>
     <row r="136" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W136" s="202" t="s">
         <v>510</v>
       </c>
-      <c r="Y136" s="328" t="s">
+      <c r="Y136" s="318" t="s">
         <v>495</v>
       </c>
-      <c r="Z136" s="329"/>
-      <c r="AA136" s="329"/>
-      <c r="AB136" s="330"/>
+      <c r="Z136" s="319"/>
+      <c r="AA136" s="319"/>
+      <c r="AB136" s="320"/>
     </row>
     <row r="137" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W137" s="202" t="s">
         <v>351</v>
       </c>
-      <c r="Y137" s="328" t="s">
+      <c r="Y137" s="318" t="s">
         <v>496</v>
       </c>
-      <c r="Z137" s="329"/>
-      <c r="AA137" s="329"/>
-      <c r="AB137" s="330"/>
+      <c r="Z137" s="319"/>
+      <c r="AA137" s="319"/>
+      <c r="AB137" s="320"/>
     </row>
     <row r="138" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W138" s="202" t="s">
         <v>517</v>
       </c>
-      <c r="Y138" s="328" t="s">
+      <c r="Y138" s="318" t="s">
         <v>518</v>
       </c>
-      <c r="Z138" s="329"/>
-      <c r="AA138" s="329"/>
-      <c r="AB138" s="330"/>
+      <c r="Z138" s="319"/>
+      <c r="AA138" s="319"/>
+      <c r="AB138" s="320"/>
     </row>
     <row r="139" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y139" s="328" t="s">
+      <c r="Y139" s="318" t="s">
         <v>498</v>
       </c>
-      <c r="Z139" s="329"/>
-      <c r="AA139" s="329"/>
-      <c r="AB139" s="330"/>
+      <c r="Z139" s="319"/>
+      <c r="AA139" s="319"/>
+      <c r="AB139" s="320"/>
     </row>
     <row r="140" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y140" s="328" t="s">
+      <c r="Y140" s="318" t="s">
         <v>499</v>
       </c>
-      <c r="Z140" s="329"/>
-      <c r="AA140" s="329"/>
-      <c r="AB140" s="330"/>
+      <c r="Z140" s="319"/>
+      <c r="AA140" s="319"/>
+      <c r="AB140" s="320"/>
     </row>
     <row r="141" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y141" s="328" t="s">
+      <c r="Y141" s="318" t="s">
         <v>500</v>
       </c>
-      <c r="Z141" s="329"/>
-      <c r="AA141" s="329"/>
-      <c r="AB141" s="330"/>
+      <c r="Z141" s="319"/>
+      <c r="AA141" s="319"/>
+      <c r="AB141" s="320"/>
     </row>
     <row r="142" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y142" s="328" t="s">
+      <c r="Y142" s="318" t="s">
         <v>513</v>
       </c>
-      <c r="Z142" s="329"/>
-      <c r="AA142" s="329"/>
-      <c r="AB142" s="330"/>
+      <c r="Z142" s="319"/>
+      <c r="AA142" s="319"/>
+      <c r="AB142" s="320"/>
     </row>
     <row r="143" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y143" s="328" t="s">
+      <c r="Y143" s="318" t="s">
         <v>502</v>
       </c>
-      <c r="Z143" s="329"/>
-      <c r="AA143" s="329"/>
-      <c r="AB143" s="330"/>
+      <c r="Z143" s="319"/>
+      <c r="AA143" s="319"/>
+      <c r="AB143" s="320"/>
     </row>
     <row r="144" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y144" s="328" t="s">
+      <c r="Y144" s="318" t="s">
         <v>503</v>
       </c>
-      <c r="Z144" s="329"/>
-      <c r="AA144" s="329"/>
-      <c r="AB144" s="330"/>
+      <c r="Z144" s="319"/>
+      <c r="AA144" s="319"/>
+      <c r="AB144" s="320"/>
     </row>
     <row r="145" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y145" s="328" t="s">
+      <c r="Y145" s="318" t="s">
         <v>504</v>
       </c>
-      <c r="Z145" s="329"/>
-      <c r="AA145" s="329"/>
-      <c r="AB145" s="330"/>
+      <c r="Z145" s="319"/>
+      <c r="AA145" s="319"/>
+      <c r="AB145" s="320"/>
     </row>
     <row r="146" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y146" s="328" t="s">
+      <c r="Y146" s="318" t="s">
         <v>505</v>
       </c>
-      <c r="Z146" s="329"/>
-      <c r="AA146" s="329"/>
-      <c r="AB146" s="330"/>
+      <c r="Z146" s="319"/>
+      <c r="AA146" s="319"/>
+      <c r="AB146" s="320"/>
     </row>
     <row r="147" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y147" s="328" t="s">
+      <c r="Y147" s="318" t="s">
         <v>514</v>
       </c>
-      <c r="Z147" s="329"/>
-      <c r="AA147" s="329"/>
-      <c r="AB147" s="330"/>
+      <c r="Z147" s="319"/>
+      <c r="AA147" s="319"/>
+      <c r="AB147" s="320"/>
     </row>
     <row r="148" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y148" s="328" t="s">
+      <c r="Y148" s="318" t="s">
         <v>515</v>
       </c>
-      <c r="Z148" s="329"/>
-      <c r="AA148" s="329"/>
-      <c r="AB148" s="330"/>
+      <c r="Z148" s="319"/>
+      <c r="AA148" s="319"/>
+      <c r="AB148" s="320"/>
     </row>
     <row r="149" spans="25:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Y149" s="331" t="s">
+      <c r="Y149" s="321" t="s">
         <v>519</v>
       </c>
-      <c r="Z149" s="332"/>
-      <c r="AA149" s="332"/>
-      <c r="AB149" s="333"/>
+      <c r="Z149" s="322"/>
+      <c r="AA149" s="322"/>
+      <c r="AB149" s="323"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Y123:AB123"/>
+    <mergeCell ref="Y124:AB124"/>
+    <mergeCell ref="Y125:AB125"/>
+    <mergeCell ref="Y126:AB126"/>
+    <mergeCell ref="Y127:AB127"/>
+    <mergeCell ref="Y128:AB128"/>
+    <mergeCell ref="Y129:AB129"/>
+    <mergeCell ref="Y130:AB130"/>
+    <mergeCell ref="Y131:AB131"/>
+    <mergeCell ref="Y132:AB132"/>
+    <mergeCell ref="Y133:AB133"/>
+    <mergeCell ref="Y134:AB134"/>
+    <mergeCell ref="Y135:AB135"/>
+    <mergeCell ref="Y136:AB136"/>
+    <mergeCell ref="Y137:AB137"/>
+    <mergeCell ref="Y138:AB138"/>
+    <mergeCell ref="Y139:AB139"/>
+    <mergeCell ref="Y140:AB140"/>
     <mergeCell ref="Y146:AB146"/>
     <mergeCell ref="Y147:AB147"/>
     <mergeCell ref="Y148:AB148"/>
@@ -22484,26 +22504,6 @@
     <mergeCell ref="Y143:AB143"/>
     <mergeCell ref="Y144:AB144"/>
     <mergeCell ref="Y145:AB145"/>
-    <mergeCell ref="Y136:AB136"/>
-    <mergeCell ref="Y137:AB137"/>
-    <mergeCell ref="Y138:AB138"/>
-    <mergeCell ref="Y139:AB139"/>
-    <mergeCell ref="Y140:AB140"/>
-    <mergeCell ref="Y131:AB131"/>
-    <mergeCell ref="Y132:AB132"/>
-    <mergeCell ref="Y133:AB133"/>
-    <mergeCell ref="Y134:AB134"/>
-    <mergeCell ref="Y135:AB135"/>
-    <mergeCell ref="Y126:AB126"/>
-    <mergeCell ref="Y127:AB127"/>
-    <mergeCell ref="Y128:AB128"/>
-    <mergeCell ref="Y129:AB129"/>
-    <mergeCell ref="Y130:AB130"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Y123:AB123"/>
-    <mergeCell ref="Y124:AB124"/>
-    <mergeCell ref="Y125:AB125"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -36154,10 +36154,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A6:Y116"/>
+  <dimension ref="A6:Y115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B64" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A52" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63:E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36203,20 +36203,20 @@
       <c r="K8" s="227"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="374" t="str">
+      <c r="N8" s="345" t="str">
         <f>General!F3</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O8" s="362"/>
-      <c r="P8" s="362"/>
-      <c r="Q8" s="362"/>
-      <c r="R8" s="362"/>
-      <c r="S8" s="362"/>
-      <c r="T8" s="362"/>
-      <c r="U8" s="362"/>
-      <c r="V8" s="362"/>
-      <c r="W8" s="362"/>
-      <c r="X8" s="362"/>
+      <c r="O8" s="346"/>
+      <c r="P8" s="346"/>
+      <c r="Q8" s="346"/>
+      <c r="R8" s="346"/>
+      <c r="S8" s="346"/>
+      <c r="T8" s="346"/>
+      <c r="U8" s="346"/>
+      <c r="V8" s="346"/>
+      <c r="W8" s="346"/>
+      <c r="X8" s="346"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="224" t="s">
@@ -36233,20 +36233,20 @@
       <c r="K9" s="227"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="373" t="str">
+      <c r="N9" s="347" t="str">
         <f>General!F4</f>
         <v>NI-CS-XXXX-XX</v>
       </c>
-      <c r="O9" s="364"/>
-      <c r="P9" s="364"/>
-      <c r="Q9" s="364"/>
-      <c r="R9" s="364"/>
-      <c r="S9" s="364"/>
-      <c r="T9" s="364"/>
-      <c r="U9" s="364"/>
-      <c r="V9" s="364"/>
-      <c r="W9" s="364"/>
-      <c r="X9" s="364"/>
+      <c r="O9" s="348"/>
+      <c r="P9" s="348"/>
+      <c r="Q9" s="348"/>
+      <c r="R9" s="348"/>
+      <c r="S9" s="348"/>
+      <c r="T9" s="348"/>
+      <c r="U9" s="348"/>
+      <c r="V9" s="348"/>
+      <c r="W9" s="348"/>
+      <c r="X9" s="348"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="224" t="s">
@@ -36263,20 +36263,20 @@
       <c r="K10" s="227"/>
       <c r="L10" s="228"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="375">
+      <c r="N10" s="349">
         <f>General!F5</f>
         <v>43299</v>
       </c>
-      <c r="O10" s="375"/>
-      <c r="P10" s="375"/>
-      <c r="Q10" s="375"/>
-      <c r="R10" s="375"/>
-      <c r="S10" s="375"/>
-      <c r="T10" s="375"/>
-      <c r="U10" s="375"/>
-      <c r="V10" s="375"/>
-      <c r="W10" s="375"/>
-      <c r="X10" s="375"/>
+      <c r="O10" s="349"/>
+      <c r="P10" s="349"/>
+      <c r="Q10" s="349"/>
+      <c r="R10" s="349"/>
+      <c r="S10" s="349"/>
+      <c r="T10" s="349"/>
+      <c r="U10" s="349"/>
+      <c r="V10" s="349"/>
+      <c r="W10" s="349"/>
+      <c r="X10" s="349"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="224" t="s">
@@ -36293,13 +36293,13 @@
       <c r="K11" s="227"/>
       <c r="L11" s="228"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="375">
+      <c r="N11" s="349">
         <f ca="1">NOW()</f>
-        <v>45489.709634606479</v>
-      </c>
-      <c r="O11" s="375"/>
-      <c r="P11" s="375"/>
-      <c r="Q11" s="375"/>
+        <v>45502.460597106481</v>
+      </c>
+      <c r="O11" s="349"/>
+      <c r="P11" s="349"/>
+      <c r="Q11" s="349"/>
       <c r="R11" s="279"/>
       <c r="S11" s="279"/>
       <c r="T11" s="279"/>
@@ -36323,20 +36323,20 @@
       <c r="K12" s="227"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="373" t="str">
+      <c r="N12" s="347" t="str">
         <f>General!F7</f>
         <v xml:space="preserve">Manómetro </v>
       </c>
-      <c r="O12" s="364"/>
-      <c r="P12" s="364"/>
-      <c r="Q12" s="364"/>
-      <c r="R12" s="364"/>
-      <c r="S12" s="364"/>
-      <c r="T12" s="364"/>
-      <c r="U12" s="364"/>
-      <c r="V12" s="364"/>
-      <c r="W12" s="364"/>
-      <c r="X12" s="364"/>
+      <c r="O12" s="348"/>
+      <c r="P12" s="348"/>
+      <c r="Q12" s="348"/>
+      <c r="R12" s="348"/>
+      <c r="S12" s="348"/>
+      <c r="T12" s="348"/>
+      <c r="U12" s="348"/>
+      <c r="V12" s="348"/>
+      <c r="W12" s="348"/>
+      <c r="X12" s="348"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="224" t="s">
@@ -36353,20 +36353,20 @@
       <c r="K13" s="227"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="373" t="str">
+      <c r="N13" s="347" t="str">
         <f>General!F10</f>
         <v>HEISE</v>
       </c>
-      <c r="O13" s="364"/>
-      <c r="P13" s="364"/>
-      <c r="Q13" s="364"/>
-      <c r="R13" s="364"/>
-      <c r="S13" s="364"/>
-      <c r="T13" s="364"/>
-      <c r="U13" s="364"/>
-      <c r="V13" s="364"/>
-      <c r="W13" s="364"/>
-      <c r="X13" s="364"/>
+      <c r="O13" s="348"/>
+      <c r="P13" s="348"/>
+      <c r="Q13" s="348"/>
+      <c r="R13" s="348"/>
+      <c r="S13" s="348"/>
+      <c r="T13" s="348"/>
+      <c r="U13" s="348"/>
+      <c r="V13" s="348"/>
+      <c r="W13" s="348"/>
+      <c r="X13" s="348"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="224" t="s">
@@ -36383,20 +36383,20 @@
       <c r="K14" s="227"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="373" t="str">
+      <c r="N14" s="347" t="str">
         <f>General!F12</f>
         <v>706340</v>
       </c>
-      <c r="O14" s="364"/>
-      <c r="P14" s="364"/>
-      <c r="Q14" s="364"/>
-      <c r="R14" s="364"/>
-      <c r="S14" s="364"/>
-      <c r="T14" s="364"/>
-      <c r="U14" s="364"/>
-      <c r="V14" s="364"/>
-      <c r="W14" s="364"/>
-      <c r="X14" s="364"/>
+      <c r="O14" s="348"/>
+      <c r="P14" s="348"/>
+      <c r="Q14" s="348"/>
+      <c r="R14" s="348"/>
+      <c r="S14" s="348"/>
+      <c r="T14" s="348"/>
+      <c r="U14" s="348"/>
+      <c r="V14" s="348"/>
+      <c r="W14" s="348"/>
+      <c r="X14" s="348"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="224" t="s">
@@ -36413,20 +36413,20 @@
       <c r="K15" s="227"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="373" t="str">
+      <c r="N15" s="347" t="str">
         <f>General!F11</f>
         <v>CC</v>
       </c>
-      <c r="O15" s="364"/>
-      <c r="P15" s="364"/>
-      <c r="Q15" s="364"/>
-      <c r="R15" s="364"/>
-      <c r="S15" s="364"/>
-      <c r="T15" s="364"/>
-      <c r="U15" s="364"/>
-      <c r="V15" s="364"/>
-      <c r="W15" s="364"/>
-      <c r="X15" s="364"/>
+      <c r="O15" s="348"/>
+      <c r="P15" s="348"/>
+      <c r="Q15" s="348"/>
+      <c r="R15" s="348"/>
+      <c r="S15" s="348"/>
+      <c r="T15" s="348"/>
+      <c r="U15" s="348"/>
+      <c r="V15" s="348"/>
+      <c r="W15" s="348"/>
+      <c r="X15" s="348"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="224" t="s">
@@ -36443,20 +36443,20 @@
       <c r="K16" s="227"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="373" t="str">
+      <c r="N16" s="347" t="str">
         <f>General!F18</f>
         <v>0 psi a 200 psi</v>
       </c>
-      <c r="O16" s="364"/>
-      <c r="P16" s="364"/>
-      <c r="Q16" s="364"/>
-      <c r="R16" s="364"/>
-      <c r="S16" s="364"/>
-      <c r="T16" s="364"/>
-      <c r="U16" s="364"/>
-      <c r="V16" s="364"/>
-      <c r="W16" s="364"/>
-      <c r="X16" s="364"/>
+      <c r="O16" s="348"/>
+      <c r="P16" s="348"/>
+      <c r="Q16" s="348"/>
+      <c r="R16" s="348"/>
+      <c r="S16" s="348"/>
+      <c r="T16" s="348"/>
+      <c r="U16" s="348"/>
+      <c r="V16" s="348"/>
+      <c r="W16" s="348"/>
+      <c r="X16" s="348"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="224" t="s">
@@ -36473,16 +36473,16 @@
       <c r="K17" s="227"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="373" t="str">
+      <c r="N17" s="347" t="str">
         <f>General!F15</f>
         <v>1</v>
       </c>
-      <c r="O17" s="364"/>
-      <c r="P17" s="373" t="str">
+      <c r="O17" s="348"/>
+      <c r="P17" s="347" t="str">
         <f>General!F16</f>
         <v>psi</v>
       </c>
-      <c r="Q17" s="364"/>
+      <c r="Q17" s="348"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -36506,20 +36506,20 @@
       <c r="K18" s="227"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="373" t="str">
+      <c r="N18" s="347" t="str">
         <f>General!F6</f>
         <v>706340</v>
       </c>
-      <c r="O18" s="364"/>
-      <c r="P18" s="364"/>
-      <c r="Q18" s="364"/>
-      <c r="R18" s="364"/>
-      <c r="S18" s="364"/>
-      <c r="T18" s="364"/>
-      <c r="U18" s="364"/>
-      <c r="V18" s="364"/>
-      <c r="W18" s="364"/>
-      <c r="X18" s="364"/>
+      <c r="O18" s="348"/>
+      <c r="P18" s="348"/>
+      <c r="Q18" s="348"/>
+      <c r="R18" s="348"/>
+      <c r="S18" s="348"/>
+      <c r="T18" s="348"/>
+      <c r="U18" s="348"/>
+      <c r="V18" s="348"/>
+      <c r="W18" s="348"/>
+      <c r="X18" s="348"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="224" t="s">
@@ -36536,20 +36536,20 @@
       <c r="K19" s="227"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="373" t="str">
+      <c r="N19" s="347" t="str">
         <f>General!L3</f>
         <v xml:space="preserve">A&amp;T Nicaragua S.A. </v>
       </c>
-      <c r="O19" s="364"/>
-      <c r="P19" s="364"/>
-      <c r="Q19" s="364"/>
-      <c r="R19" s="364"/>
-      <c r="S19" s="364"/>
-      <c r="T19" s="364"/>
-      <c r="U19" s="364"/>
-      <c r="V19" s="364"/>
-      <c r="W19" s="364"/>
-      <c r="X19" s="364"/>
+      <c r="O19" s="348"/>
+      <c r="P19" s="348"/>
+      <c r="Q19" s="348"/>
+      <c r="R19" s="348"/>
+      <c r="S19" s="348"/>
+      <c r="T19" s="348"/>
+      <c r="U19" s="348"/>
+      <c r="V19" s="348"/>
+      <c r="W19" s="348"/>
+      <c r="X19" s="348"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
@@ -36566,20 +36566,20 @@
       <c r="K20" s="227"/>
       <c r="L20" s="10"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="364" t="str">
+      <c r="N20" s="348" t="str">
         <f>General!L4</f>
         <v xml:space="preserve">Coyotepe, 800 m norte               </v>
       </c>
-      <c r="O20" s="364"/>
-      <c r="P20" s="364"/>
-      <c r="Q20" s="364"/>
-      <c r="R20" s="364"/>
-      <c r="S20" s="364"/>
-      <c r="T20" s="364"/>
-      <c r="U20" s="364"/>
-      <c r="V20" s="364"/>
-      <c r="W20" s="364"/>
-      <c r="X20" s="364"/>
+      <c r="O20" s="348"/>
+      <c r="P20" s="348"/>
+      <c r="Q20" s="348"/>
+      <c r="R20" s="348"/>
+      <c r="S20" s="348"/>
+      <c r="T20" s="348"/>
+      <c r="U20" s="348"/>
+      <c r="V20" s="348"/>
+      <c r="W20" s="348"/>
+      <c r="X20" s="348"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="224" t="s">
@@ -36596,34 +36596,34 @@
       <c r="K21" s="227"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="376" t="str">
+      <c r="N21" s="350" t="str">
         <f>General!L6</f>
         <v xml:space="preserve">Laboratorio #2 Metrocal </v>
       </c>
-      <c r="O21" s="376"/>
-      <c r="P21" s="376"/>
-      <c r="Q21" s="376"/>
-      <c r="R21" s="376"/>
-      <c r="S21" s="376"/>
-      <c r="T21" s="376"/>
-      <c r="U21" s="376"/>
-      <c r="V21" s="376"/>
-      <c r="W21" s="376"/>
-      <c r="X21" s="376"/>
+      <c r="O21" s="350"/>
+      <c r="P21" s="350"/>
+      <c r="Q21" s="350"/>
+      <c r="R21" s="350"/>
+      <c r="S21" s="350"/>
+      <c r="T21" s="350"/>
+      <c r="U21" s="350"/>
+      <c r="V21" s="350"/>
+      <c r="W21" s="350"/>
+      <c r="X21" s="350"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="224"/>
-      <c r="N22" s="376"/>
-      <c r="O22" s="376"/>
-      <c r="P22" s="376"/>
-      <c r="Q22" s="376"/>
-      <c r="R22" s="376"/>
-      <c r="S22" s="376"/>
-      <c r="T22" s="376"/>
-      <c r="U22" s="376"/>
-      <c r="V22" s="376"/>
-      <c r="W22" s="376"/>
-      <c r="X22" s="376"/>
+      <c r="N22" s="350"/>
+      <c r="O22" s="350"/>
+      <c r="P22" s="350"/>
+      <c r="Q22" s="350"/>
+      <c r="R22" s="350"/>
+      <c r="S22" s="350"/>
+      <c r="T22" s="350"/>
+      <c r="U22" s="350"/>
+      <c r="V22" s="350"/>
+      <c r="W22" s="350"/>
+      <c r="X22" s="350"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="224" t="s">
@@ -36638,478 +36638,478 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="366" t="s">
+      <c r="D24" s="351" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="366"/>
-      <c r="F24" s="366"/>
-      <c r="G24" s="366"/>
-      <c r="H24" s="366"/>
-      <c r="I24" s="366"/>
-      <c r="J24" s="366"/>
-      <c r="K24" s="366"/>
-      <c r="L24" s="366"/>
-      <c r="M24" s="366"/>
-      <c r="N24" s="366"/>
-      <c r="O24" s="366"/>
-      <c r="P24" s="366"/>
-      <c r="Q24" s="366"/>
-      <c r="R24" s="366"/>
-      <c r="S24" s="366"/>
-      <c r="T24" s="366"/>
-      <c r="U24" s="366"/>
-      <c r="V24" s="366"/>
-      <c r="W24" s="366"/>
+      <c r="E24" s="351"/>
+      <c r="F24" s="351"/>
+      <c r="G24" s="351"/>
+      <c r="H24" s="351"/>
+      <c r="I24" s="351"/>
+      <c r="J24" s="351"/>
+      <c r="K24" s="351"/>
+      <c r="L24" s="351"/>
+      <c r="M24" s="351"/>
+      <c r="N24" s="351"/>
+      <c r="O24" s="351"/>
+      <c r="P24" s="351"/>
+      <c r="Q24" s="351"/>
+      <c r="R24" s="351"/>
+      <c r="S24" s="351"/>
+      <c r="T24" s="351"/>
+      <c r="U24" s="351"/>
+      <c r="V24" s="351"/>
+      <c r="W24" s="351"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="367" t="s">
+      <c r="D25" s="352" t="s">
         <v>360</v>
       </c>
-      <c r="E25" s="367"/>
-      <c r="F25" s="368" t="s">
+      <c r="E25" s="352"/>
+      <c r="F25" s="353" t="s">
         <v>425</v>
       </c>
-      <c r="G25" s="368"/>
-      <c r="H25" s="368"/>
-      <c r="I25" s="368"/>
-      <c r="J25" s="368"/>
-      <c r="K25" s="368"/>
-      <c r="L25" s="368" t="s">
+      <c r="G25" s="353"/>
+      <c r="H25" s="353"/>
+      <c r="I25" s="353"/>
+      <c r="J25" s="353"/>
+      <c r="K25" s="353"/>
+      <c r="L25" s="353" t="s">
         <v>96</v>
       </c>
-      <c r="M25" s="368"/>
-      <c r="N25" s="368"/>
-      <c r="O25" s="368"/>
-      <c r="P25" s="368"/>
-      <c r="Q25" s="368"/>
-      <c r="R25" s="367" t="s">
+      <c r="M25" s="353"/>
+      <c r="N25" s="353"/>
+      <c r="O25" s="353"/>
+      <c r="P25" s="353"/>
+      <c r="Q25" s="353"/>
+      <c r="R25" s="352" t="s">
         <v>426</v>
       </c>
-      <c r="S25" s="367"/>
-      <c r="T25" s="367"/>
-      <c r="U25" s="367"/>
-      <c r="V25" s="367"/>
-      <c r="W25" s="367"/>
+      <c r="S25" s="352"/>
+      <c r="T25" s="352"/>
+      <c r="U25" s="352"/>
+      <c r="V25" s="352"/>
+      <c r="W25" s="352"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="367"/>
-      <c r="E26" s="367"/>
-      <c r="F26" s="368"/>
-      <c r="G26" s="368"/>
-      <c r="H26" s="368"/>
-      <c r="I26" s="368"/>
-      <c r="J26" s="368"/>
-      <c r="K26" s="368"/>
-      <c r="L26" s="368"/>
-      <c r="M26" s="368"/>
-      <c r="N26" s="368"/>
-      <c r="O26" s="368"/>
-      <c r="P26" s="368"/>
-      <c r="Q26" s="368"/>
-      <c r="R26" s="367"/>
-      <c r="S26" s="367"/>
-      <c r="T26" s="367"/>
-      <c r="U26" s="367"/>
-      <c r="V26" s="367"/>
-      <c r="W26" s="367"/>
+      <c r="D26" s="352"/>
+      <c r="E26" s="352"/>
+      <c r="F26" s="353"/>
+      <c r="G26" s="353"/>
+      <c r="H26" s="353"/>
+      <c r="I26" s="353"/>
+      <c r="J26" s="353"/>
+      <c r="K26" s="353"/>
+      <c r="L26" s="353"/>
+      <c r="M26" s="353"/>
+      <c r="N26" s="353"/>
+      <c r="O26" s="353"/>
+      <c r="P26" s="353"/>
+      <c r="Q26" s="353"/>
+      <c r="R26" s="352"/>
+      <c r="S26" s="352"/>
+      <c r="T26" s="352"/>
+      <c r="U26" s="352"/>
+      <c r="V26" s="352"/>
+      <c r="W26" s="352"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="369" t="str">
+      <c r="D27" s="354" t="str">
         <f>Calibración!C37</f>
         <v>psi</v>
       </c>
-      <c r="E27" s="369"/>
-      <c r="F27" s="370" t="str">
+      <c r="E27" s="354"/>
+      <c r="F27" s="355" t="str">
         <f>Calibración!D37</f>
         <v>psi</v>
       </c>
-      <c r="G27" s="371"/>
-      <c r="H27" s="371"/>
-      <c r="I27" s="371"/>
-      <c r="J27" s="371"/>
-      <c r="K27" s="372"/>
-      <c r="L27" s="370" t="str">
+      <c r="G27" s="356"/>
+      <c r="H27" s="356"/>
+      <c r="I27" s="356"/>
+      <c r="J27" s="356"/>
+      <c r="K27" s="357"/>
+      <c r="L27" s="355" t="str">
         <f>Calibración!E37</f>
         <v>psi</v>
       </c>
-      <c r="M27" s="371"/>
-      <c r="N27" s="371"/>
-      <c r="O27" s="371"/>
-      <c r="P27" s="371"/>
-      <c r="Q27" s="372"/>
-      <c r="R27" s="370" t="str">
+      <c r="M27" s="356"/>
+      <c r="N27" s="356"/>
+      <c r="O27" s="356"/>
+      <c r="P27" s="356"/>
+      <c r="Q27" s="357"/>
+      <c r="R27" s="355" t="str">
         <f>Calibración!F37</f>
         <v>psi</v>
       </c>
-      <c r="S27" s="371"/>
-      <c r="T27" s="371"/>
-      <c r="U27" s="371"/>
-      <c r="V27" s="371"/>
-      <c r="W27" s="372"/>
+      <c r="S27" s="356"/>
+      <c r="T27" s="356"/>
+      <c r="U27" s="356"/>
+      <c r="V27" s="356"/>
+      <c r="W27" s="357"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="358" t="str">
+      <c r="D28" s="341" t="str">
         <f ca="1">Calibración!C38</f>
         <v/>
       </c>
-      <c r="E28" s="358"/>
-      <c r="F28" s="359" t="str">
+      <c r="E28" s="341"/>
+      <c r="F28" s="342" t="str">
         <f ca="1">Calibración!D38</f>
         <v/>
       </c>
-      <c r="G28" s="360"/>
-      <c r="H28" s="360"/>
-      <c r="I28" s="360"/>
-      <c r="J28" s="360"/>
-      <c r="K28" s="361"/>
-      <c r="L28" s="359" t="str">
+      <c r="G28" s="343"/>
+      <c r="H28" s="343"/>
+      <c r="I28" s="343"/>
+      <c r="J28" s="343"/>
+      <c r="K28" s="344"/>
+      <c r="L28" s="342" t="str">
         <f ca="1">Calibración!E38</f>
         <v/>
       </c>
-      <c r="M28" s="360"/>
-      <c r="N28" s="360"/>
-      <c r="O28" s="360"/>
-      <c r="P28" s="360"/>
-      <c r="Q28" s="361"/>
-      <c r="R28" s="359" t="str">
+      <c r="M28" s="343"/>
+      <c r="N28" s="343"/>
+      <c r="O28" s="343"/>
+      <c r="P28" s="343"/>
+      <c r="Q28" s="344"/>
+      <c r="R28" s="342" t="str">
         <f ca="1">Calibración!F38</f>
         <v/>
       </c>
-      <c r="S28" s="360"/>
-      <c r="T28" s="360"/>
-      <c r="U28" s="360"/>
-      <c r="V28" s="360"/>
-      <c r="W28" s="361"/>
+      <c r="S28" s="343"/>
+      <c r="T28" s="343"/>
+      <c r="U28" s="343"/>
+      <c r="V28" s="343"/>
+      <c r="W28" s="344"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="358" t="str">
+      <c r="D29" s="341" t="str">
         <f ca="1">Calibración!C39</f>
         <v/>
       </c>
-      <c r="E29" s="358"/>
-      <c r="F29" s="359" t="str">
+      <c r="E29" s="341"/>
+      <c r="F29" s="342" t="str">
         <f ca="1">Calibración!D39</f>
         <v/>
       </c>
-      <c r="G29" s="360"/>
-      <c r="H29" s="360"/>
-      <c r="I29" s="360"/>
-      <c r="J29" s="360"/>
-      <c r="K29" s="361"/>
-      <c r="L29" s="359" t="str">
+      <c r="G29" s="343"/>
+      <c r="H29" s="343"/>
+      <c r="I29" s="343"/>
+      <c r="J29" s="343"/>
+      <c r="K29" s="344"/>
+      <c r="L29" s="342" t="str">
         <f ca="1">Calibración!E39</f>
         <v/>
       </c>
-      <c r="M29" s="360"/>
-      <c r="N29" s="360"/>
-      <c r="O29" s="360"/>
-      <c r="P29" s="360"/>
-      <c r="Q29" s="361"/>
-      <c r="R29" s="359" t="str">
+      <c r="M29" s="343"/>
+      <c r="N29" s="343"/>
+      <c r="O29" s="343"/>
+      <c r="P29" s="343"/>
+      <c r="Q29" s="344"/>
+      <c r="R29" s="342" t="str">
         <f ca="1">Calibración!F39</f>
         <v/>
       </c>
-      <c r="S29" s="360"/>
-      <c r="T29" s="360"/>
-      <c r="U29" s="360"/>
-      <c r="V29" s="360"/>
-      <c r="W29" s="361"/>
+      <c r="S29" s="343"/>
+      <c r="T29" s="343"/>
+      <c r="U29" s="343"/>
+      <c r="V29" s="343"/>
+      <c r="W29" s="344"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="358" t="str">
+      <c r="D30" s="341" t="str">
         <f ca="1">Calibración!C40</f>
         <v/>
       </c>
-      <c r="E30" s="358"/>
-      <c r="F30" s="359" t="str">
+      <c r="E30" s="341"/>
+      <c r="F30" s="342" t="str">
         <f ca="1">Calibración!D40</f>
         <v/>
       </c>
-      <c r="G30" s="360"/>
-      <c r="H30" s="360"/>
-      <c r="I30" s="360"/>
-      <c r="J30" s="360"/>
-      <c r="K30" s="361"/>
-      <c r="L30" s="359" t="str">
+      <c r="G30" s="343"/>
+      <c r="H30" s="343"/>
+      <c r="I30" s="343"/>
+      <c r="J30" s="343"/>
+      <c r="K30" s="344"/>
+      <c r="L30" s="342" t="str">
         <f ca="1">Calibración!E40</f>
         <v/>
       </c>
-      <c r="M30" s="360"/>
-      <c r="N30" s="360"/>
-      <c r="O30" s="360"/>
-      <c r="P30" s="360"/>
-      <c r="Q30" s="361"/>
-      <c r="R30" s="359" t="str">
+      <c r="M30" s="343"/>
+      <c r="N30" s="343"/>
+      <c r="O30" s="343"/>
+      <c r="P30" s="343"/>
+      <c r="Q30" s="344"/>
+      <c r="R30" s="342" t="str">
         <f ca="1">Calibración!F40</f>
         <v/>
       </c>
-      <c r="S30" s="360"/>
-      <c r="T30" s="360"/>
-      <c r="U30" s="360"/>
-      <c r="V30" s="360"/>
-      <c r="W30" s="361"/>
+      <c r="S30" s="343"/>
+      <c r="T30" s="343"/>
+      <c r="U30" s="343"/>
+      <c r="V30" s="343"/>
+      <c r="W30" s="344"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="358" t="str">
+      <c r="D31" s="341" t="str">
         <f ca="1">Calibración!C41</f>
         <v/>
       </c>
-      <c r="E31" s="358"/>
-      <c r="F31" s="359" t="str">
+      <c r="E31" s="341"/>
+      <c r="F31" s="342" t="str">
         <f ca="1">Calibración!D41</f>
         <v/>
       </c>
-      <c r="G31" s="360"/>
-      <c r="H31" s="360"/>
-      <c r="I31" s="360"/>
-      <c r="J31" s="360"/>
-      <c r="K31" s="361"/>
-      <c r="L31" s="359" t="str">
+      <c r="G31" s="343"/>
+      <c r="H31" s="343"/>
+      <c r="I31" s="343"/>
+      <c r="J31" s="343"/>
+      <c r="K31" s="344"/>
+      <c r="L31" s="342" t="str">
         <f ca="1">Calibración!E41</f>
         <v/>
       </c>
-      <c r="M31" s="360"/>
-      <c r="N31" s="360"/>
-      <c r="O31" s="360"/>
-      <c r="P31" s="360"/>
-      <c r="Q31" s="361"/>
-      <c r="R31" s="359" t="str">
+      <c r="M31" s="343"/>
+      <c r="N31" s="343"/>
+      <c r="O31" s="343"/>
+      <c r="P31" s="343"/>
+      <c r="Q31" s="344"/>
+      <c r="R31" s="342" t="str">
         <f ca="1">Calibración!F41</f>
         <v/>
       </c>
-      <c r="S31" s="360"/>
-      <c r="T31" s="360"/>
-      <c r="U31" s="360"/>
-      <c r="V31" s="360"/>
-      <c r="W31" s="361"/>
+      <c r="S31" s="343"/>
+      <c r="T31" s="343"/>
+      <c r="U31" s="343"/>
+      <c r="V31" s="343"/>
+      <c r="W31" s="344"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="358" t="str">
+      <c r="D32" s="341" t="str">
         <f ca="1">Calibración!C42</f>
         <v/>
       </c>
-      <c r="E32" s="358"/>
-      <c r="F32" s="359" t="str">
+      <c r="E32" s="341"/>
+      <c r="F32" s="342" t="str">
         <f ca="1">Calibración!D42</f>
         <v/>
       </c>
-      <c r="G32" s="360"/>
-      <c r="H32" s="360"/>
-      <c r="I32" s="360"/>
-      <c r="J32" s="360"/>
-      <c r="K32" s="361"/>
-      <c r="L32" s="359" t="str">
+      <c r="G32" s="343"/>
+      <c r="H32" s="343"/>
+      <c r="I32" s="343"/>
+      <c r="J32" s="343"/>
+      <c r="K32" s="344"/>
+      <c r="L32" s="342" t="str">
         <f ca="1">Calibración!E42</f>
         <v/>
       </c>
-      <c r="M32" s="360"/>
-      <c r="N32" s="360"/>
-      <c r="O32" s="360"/>
-      <c r="P32" s="360"/>
-      <c r="Q32" s="361"/>
-      <c r="R32" s="359" t="str">
+      <c r="M32" s="343"/>
+      <c r="N32" s="343"/>
+      <c r="O32" s="343"/>
+      <c r="P32" s="343"/>
+      <c r="Q32" s="344"/>
+      <c r="R32" s="342" t="str">
         <f ca="1">Calibración!F42</f>
         <v/>
       </c>
-      <c r="S32" s="360"/>
-      <c r="T32" s="360"/>
-      <c r="U32" s="360"/>
-      <c r="V32" s="360"/>
-      <c r="W32" s="361"/>
+      <c r="S32" s="343"/>
+      <c r="T32" s="343"/>
+      <c r="U32" s="343"/>
+      <c r="V32" s="343"/>
+      <c r="W32" s="344"/>
     </row>
     <row r="33" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D33" s="358" t="str">
+      <c r="D33" s="341" t="str">
         <f ca="1">Calibración!C43</f>
         <v/>
       </c>
-      <c r="E33" s="358"/>
-      <c r="F33" s="359" t="str">
+      <c r="E33" s="341"/>
+      <c r="F33" s="342" t="str">
         <f ca="1">Calibración!D43</f>
         <v/>
       </c>
-      <c r="G33" s="360"/>
-      <c r="H33" s="360"/>
-      <c r="I33" s="360"/>
-      <c r="J33" s="360"/>
-      <c r="K33" s="361"/>
-      <c r="L33" s="359" t="str">
+      <c r="G33" s="343"/>
+      <c r="H33" s="343"/>
+      <c r="I33" s="343"/>
+      <c r="J33" s="343"/>
+      <c r="K33" s="344"/>
+      <c r="L33" s="342" t="str">
         <f ca="1">Calibración!E43</f>
         <v/>
       </c>
-      <c r="M33" s="360"/>
-      <c r="N33" s="360"/>
-      <c r="O33" s="360"/>
-      <c r="P33" s="360"/>
-      <c r="Q33" s="361"/>
-      <c r="R33" s="359" t="str">
+      <c r="M33" s="343"/>
+      <c r="N33" s="343"/>
+      <c r="O33" s="343"/>
+      <c r="P33" s="343"/>
+      <c r="Q33" s="344"/>
+      <c r="R33" s="342" t="str">
         <f ca="1">Calibración!F43</f>
         <v/>
       </c>
-      <c r="S33" s="360"/>
-      <c r="T33" s="360"/>
-      <c r="U33" s="360"/>
-      <c r="V33" s="360"/>
-      <c r="W33" s="361"/>
+      <c r="S33" s="343"/>
+      <c r="T33" s="343"/>
+      <c r="U33" s="343"/>
+      <c r="V33" s="343"/>
+      <c r="W33" s="344"/>
     </row>
     <row r="34" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D34" s="358" t="str">
+      <c r="D34" s="341" t="str">
         <f ca="1">Calibración!C44</f>
         <v/>
       </c>
-      <c r="E34" s="358"/>
-      <c r="F34" s="359" t="str">
+      <c r="E34" s="341"/>
+      <c r="F34" s="342" t="str">
         <f ca="1">Calibración!D44</f>
         <v/>
       </c>
-      <c r="G34" s="360"/>
-      <c r="H34" s="360"/>
-      <c r="I34" s="360"/>
-      <c r="J34" s="360"/>
-      <c r="K34" s="361"/>
-      <c r="L34" s="359" t="str">
+      <c r="G34" s="343"/>
+      <c r="H34" s="343"/>
+      <c r="I34" s="343"/>
+      <c r="J34" s="343"/>
+      <c r="K34" s="344"/>
+      <c r="L34" s="342" t="str">
         <f ca="1">Calibración!E44</f>
         <v/>
       </c>
-      <c r="M34" s="360"/>
-      <c r="N34" s="360"/>
-      <c r="O34" s="360"/>
-      <c r="P34" s="360"/>
-      <c r="Q34" s="361"/>
-      <c r="R34" s="359" t="str">
+      <c r="M34" s="343"/>
+      <c r="N34" s="343"/>
+      <c r="O34" s="343"/>
+      <c r="P34" s="343"/>
+      <c r="Q34" s="344"/>
+      <c r="R34" s="342" t="str">
         <f ca="1">Calibración!F44</f>
         <v/>
       </c>
-      <c r="S34" s="360"/>
-      <c r="T34" s="360"/>
-      <c r="U34" s="360"/>
-      <c r="V34" s="360"/>
-      <c r="W34" s="361"/>
+      <c r="S34" s="343"/>
+      <c r="T34" s="343"/>
+      <c r="U34" s="343"/>
+      <c r="V34" s="343"/>
+      <c r="W34" s="344"/>
     </row>
     <row r="35" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D35" s="358" t="str">
+      <c r="D35" s="341" t="str">
         <f ca="1">Calibración!C45</f>
         <v/>
       </c>
-      <c r="E35" s="358"/>
-      <c r="F35" s="359" t="str">
+      <c r="E35" s="341"/>
+      <c r="F35" s="342" t="str">
         <f ca="1">Calibración!D45</f>
         <v/>
       </c>
-      <c r="G35" s="360"/>
-      <c r="H35" s="360"/>
-      <c r="I35" s="360"/>
-      <c r="J35" s="360"/>
-      <c r="K35" s="361"/>
-      <c r="L35" s="359" t="str">
+      <c r="G35" s="343"/>
+      <c r="H35" s="343"/>
+      <c r="I35" s="343"/>
+      <c r="J35" s="343"/>
+      <c r="K35" s="344"/>
+      <c r="L35" s="342" t="str">
         <f ca="1">Calibración!E45</f>
         <v/>
       </c>
-      <c r="M35" s="360"/>
-      <c r="N35" s="360"/>
-      <c r="O35" s="360"/>
-      <c r="P35" s="360"/>
-      <c r="Q35" s="361"/>
-      <c r="R35" s="359" t="str">
+      <c r="M35" s="343"/>
+      <c r="N35" s="343"/>
+      <c r="O35" s="343"/>
+      <c r="P35" s="343"/>
+      <c r="Q35" s="344"/>
+      <c r="R35" s="342" t="str">
         <f ca="1">Calibración!F45</f>
         <v/>
       </c>
-      <c r="S35" s="360"/>
-      <c r="T35" s="360"/>
-      <c r="U35" s="360"/>
-      <c r="V35" s="360"/>
-      <c r="W35" s="361"/>
+      <c r="S35" s="343"/>
+      <c r="T35" s="343"/>
+      <c r="U35" s="343"/>
+      <c r="V35" s="343"/>
+      <c r="W35" s="344"/>
     </row>
     <row r="36" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D36" s="358" t="str">
+      <c r="D36" s="341" t="str">
         <f ca="1">Calibración!C46</f>
         <v/>
       </c>
-      <c r="E36" s="358"/>
-      <c r="F36" s="359" t="str">
+      <c r="E36" s="341"/>
+      <c r="F36" s="342" t="str">
         <f ca="1">Calibración!D46</f>
         <v/>
       </c>
-      <c r="G36" s="360"/>
-      <c r="H36" s="360"/>
-      <c r="I36" s="360"/>
-      <c r="J36" s="360"/>
-      <c r="K36" s="361"/>
-      <c r="L36" s="359" t="str">
+      <c r="G36" s="343"/>
+      <c r="H36" s="343"/>
+      <c r="I36" s="343"/>
+      <c r="J36" s="343"/>
+      <c r="K36" s="344"/>
+      <c r="L36" s="342" t="str">
         <f ca="1">Calibración!E46</f>
         <v/>
       </c>
-      <c r="M36" s="360"/>
-      <c r="N36" s="360"/>
-      <c r="O36" s="360"/>
-      <c r="P36" s="360"/>
-      <c r="Q36" s="361"/>
-      <c r="R36" s="359" t="str">
+      <c r="M36" s="343"/>
+      <c r="N36" s="343"/>
+      <c r="O36" s="343"/>
+      <c r="P36" s="343"/>
+      <c r="Q36" s="344"/>
+      <c r="R36" s="342" t="str">
         <f ca="1">Calibración!F46</f>
         <v/>
       </c>
-      <c r="S36" s="360"/>
-      <c r="T36" s="360"/>
-      <c r="U36" s="360"/>
-      <c r="V36" s="360"/>
-      <c r="W36" s="361"/>
+      <c r="S36" s="343"/>
+      <c r="T36" s="343"/>
+      <c r="U36" s="343"/>
+      <c r="V36" s="343"/>
+      <c r="W36" s="344"/>
     </row>
     <row r="37" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D37" s="358" t="str">
+      <c r="D37" s="341" t="str">
         <f ca="1">Calibración!C47</f>
         <v/>
       </c>
-      <c r="E37" s="358"/>
-      <c r="F37" s="359" t="str">
+      <c r="E37" s="341"/>
+      <c r="F37" s="342" t="str">
         <f ca="1">Calibración!D47</f>
         <v/>
       </c>
-      <c r="G37" s="360"/>
-      <c r="H37" s="360"/>
-      <c r="I37" s="360"/>
-      <c r="J37" s="360"/>
-      <c r="K37" s="361"/>
-      <c r="L37" s="359" t="str">
+      <c r="G37" s="343"/>
+      <c r="H37" s="343"/>
+      <c r="I37" s="343"/>
+      <c r="J37" s="343"/>
+      <c r="K37" s="344"/>
+      <c r="L37" s="342" t="str">
         <f ca="1">Calibración!E47</f>
         <v/>
       </c>
-      <c r="M37" s="360"/>
-      <c r="N37" s="360"/>
-      <c r="O37" s="360"/>
-      <c r="P37" s="360"/>
-      <c r="Q37" s="361"/>
-      <c r="R37" s="359" t="str">
+      <c r="M37" s="343"/>
+      <c r="N37" s="343"/>
+      <c r="O37" s="343"/>
+      <c r="P37" s="343"/>
+      <c r="Q37" s="344"/>
+      <c r="R37" s="342" t="str">
         <f ca="1">Calibración!F47</f>
         <v/>
       </c>
-      <c r="S37" s="360"/>
-      <c r="T37" s="360"/>
-      <c r="U37" s="360"/>
-      <c r="V37" s="360"/>
-      <c r="W37" s="361"/>
+      <c r="S37" s="343"/>
+      <c r="T37" s="343"/>
+      <c r="U37" s="343"/>
+      <c r="V37" s="343"/>
+      <c r="W37" s="344"/>
     </row>
     <row r="38" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D38" s="309"/>
@@ -37574,6 +37574,9 @@
       <c r="W58" s="309"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A59" s="224" t="s">
+        <v>427</v>
+      </c>
       <c r="D59" s="230"/>
       <c r="E59" s="230"/>
       <c r="F59" s="231"/>
@@ -37596,648 +37599,649 @@
       <c r="W59" s="230"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A60" s="224" t="s">
-        <v>427</v>
-      </c>
-      <c r="D60" s="230"/>
-      <c r="E60" s="230"/>
-      <c r="F60" s="231"/>
-      <c r="G60" s="231"/>
-      <c r="H60" s="231"/>
-      <c r="I60" s="231"/>
-      <c r="J60" s="231"/>
-      <c r="K60" s="231"/>
-      <c r="L60" s="230"/>
-      <c r="M60" s="230"/>
-      <c r="N60" s="230"/>
-      <c r="O60" s="230"/>
-      <c r="P60" s="230"/>
-      <c r="Q60" s="230"/>
-      <c r="R60" s="230"/>
-      <c r="S60" s="230"/>
-      <c r="T60" s="230"/>
-      <c r="U60" s="230"/>
-      <c r="V60" s="230"/>
-      <c r="W60" s="230"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="351" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="351"/>
+      <c r="F60" s="351"/>
+      <c r="G60" s="351"/>
+      <c r="H60" s="351"/>
+      <c r="I60" s="351"/>
+      <c r="J60" s="351"/>
+      <c r="K60" s="351"/>
+      <c r="L60" s="351"/>
+      <c r="M60" s="351"/>
+      <c r="N60" s="351"/>
+      <c r="O60" s="351"/>
+      <c r="P60" s="351"/>
+      <c r="Q60" s="351"/>
+      <c r="R60" s="351"/>
+      <c r="S60" s="351"/>
+      <c r="T60" s="351"/>
+      <c r="U60" s="351"/>
+      <c r="V60" s="351"/>
+      <c r="W60" s="351"/>
+    </row>
+    <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="366" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" s="366"/>
-      <c r="F61" s="366"/>
-      <c r="G61" s="366"/>
-      <c r="H61" s="366"/>
-      <c r="I61" s="366"/>
-      <c r="J61" s="366"/>
-      <c r="K61" s="366"/>
-      <c r="L61" s="366"/>
-      <c r="M61" s="366"/>
-      <c r="N61" s="366"/>
-      <c r="O61" s="366"/>
-      <c r="P61" s="366"/>
-      <c r="Q61" s="366"/>
-      <c r="R61" s="366"/>
-      <c r="S61" s="366"/>
-      <c r="T61" s="366"/>
-      <c r="U61" s="366"/>
-      <c r="V61" s="366"/>
-      <c r="W61" s="366"/>
-    </row>
-    <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="352" t="s">
+        <v>360</v>
+      </c>
+      <c r="E61" s="352"/>
+      <c r="F61" s="353" t="s">
+        <v>425</v>
+      </c>
+      <c r="G61" s="353"/>
+      <c r="H61" s="353"/>
+      <c r="I61" s="353"/>
+      <c r="J61" s="353"/>
+      <c r="K61" s="353"/>
+      <c r="L61" s="353" t="s">
+        <v>96</v>
+      </c>
+      <c r="M61" s="353"/>
+      <c r="N61" s="353"/>
+      <c r="O61" s="353"/>
+      <c r="P61" s="353"/>
+      <c r="Q61" s="353"/>
+      <c r="R61" s="352" t="s">
+        <v>426</v>
+      </c>
+      <c r="S61" s="352"/>
+      <c r="T61" s="352"/>
+      <c r="U61" s="352"/>
+      <c r="V61" s="352"/>
+      <c r="W61" s="352"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="367" t="s">
-        <v>360</v>
-      </c>
-      <c r="E62" s="367"/>
-      <c r="F62" s="368" t="s">
-        <v>425</v>
-      </c>
-      <c r="G62" s="368"/>
-      <c r="H62" s="368"/>
-      <c r="I62" s="368"/>
-      <c r="J62" s="368"/>
-      <c r="K62" s="368"/>
-      <c r="L62" s="368" t="s">
-        <v>96</v>
-      </c>
-      <c r="M62" s="368"/>
-      <c r="N62" s="368"/>
-      <c r="O62" s="368"/>
-      <c r="P62" s="368"/>
-      <c r="Q62" s="368"/>
-      <c r="R62" s="367" t="s">
-        <v>426</v>
-      </c>
-      <c r="S62" s="367"/>
-      <c r="T62" s="367"/>
-      <c r="U62" s="367"/>
-      <c r="V62" s="367"/>
-      <c r="W62" s="367"/>
+      <c r="D62" s="352"/>
+      <c r="E62" s="352"/>
+      <c r="F62" s="353"/>
+      <c r="G62" s="353"/>
+      <c r="H62" s="353"/>
+      <c r="I62" s="353"/>
+      <c r="J62" s="353"/>
+      <c r="K62" s="353"/>
+      <c r="L62" s="353"/>
+      <c r="M62" s="353"/>
+      <c r="N62" s="353"/>
+      <c r="O62" s="353"/>
+      <c r="P62" s="353"/>
+      <c r="Q62" s="353"/>
+      <c r="R62" s="352"/>
+      <c r="S62" s="352"/>
+      <c r="T62" s="352"/>
+      <c r="U62" s="352"/>
+      <c r="V62" s="352"/>
+      <c r="W62" s="352"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="367"/>
-      <c r="E63" s="367"/>
-      <c r="F63" s="368"/>
-      <c r="G63" s="368"/>
-      <c r="H63" s="368"/>
-      <c r="I63" s="368"/>
-      <c r="J63" s="368"/>
-      <c r="K63" s="368"/>
-      <c r="L63" s="368"/>
-      <c r="M63" s="368"/>
-      <c r="N63" s="368"/>
-      <c r="O63" s="368"/>
-      <c r="P63" s="368"/>
-      <c r="Q63" s="368"/>
-      <c r="R63" s="367"/>
-      <c r="S63" s="367"/>
-      <c r="T63" s="367"/>
-      <c r="U63" s="367"/>
-      <c r="V63" s="367"/>
-      <c r="W63" s="367"/>
+      <c r="D63" s="354" t="str">
+        <f>Calibración!G37</f>
+        <v>kPa</v>
+      </c>
+      <c r="E63" s="354"/>
+      <c r="F63" s="355" t="str">
+        <f>Calibración!H37</f>
+        <v>kPa</v>
+      </c>
+      <c r="G63" s="356"/>
+      <c r="H63" s="356"/>
+      <c r="I63" s="356"/>
+      <c r="J63" s="356"/>
+      <c r="K63" s="357"/>
+      <c r="L63" s="354" t="str">
+        <f>Calibración!I37</f>
+        <v>kPa</v>
+      </c>
+      <c r="M63" s="354"/>
+      <c r="N63" s="354"/>
+      <c r="O63" s="354"/>
+      <c r="P63" s="354"/>
+      <c r="Q63" s="354"/>
+      <c r="R63" s="354" t="str">
+        <f>Calibración!J37</f>
+        <v>kPa</v>
+      </c>
+      <c r="S63" s="354"/>
+      <c r="T63" s="354"/>
+      <c r="U63" s="354"/>
+      <c r="V63" s="354"/>
+      <c r="W63" s="354"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="369" t="str">
-        <f>Calibración!G37</f>
-        <v>kPa</v>
-      </c>
-      <c r="E64" s="369"/>
-      <c r="F64" s="370" t="str">
-        <f>Calibración!H37</f>
-        <v>kPa</v>
-      </c>
-      <c r="G64" s="371"/>
-      <c r="H64" s="371"/>
-      <c r="I64" s="371"/>
-      <c r="J64" s="371"/>
-      <c r="K64" s="372"/>
-      <c r="L64" s="369" t="str">
-        <f>Calibración!I37</f>
-        <v>kPa</v>
-      </c>
-      <c r="M64" s="369"/>
-      <c r="N64" s="369"/>
-      <c r="O64" s="369"/>
-      <c r="P64" s="369"/>
-      <c r="Q64" s="369"/>
-      <c r="R64" s="369" t="str">
-        <f>Calibración!J37</f>
-        <v>kPa</v>
-      </c>
-      <c r="S64" s="369"/>
-      <c r="T64" s="369"/>
-      <c r="U64" s="369"/>
-      <c r="V64" s="369"/>
-      <c r="W64" s="369"/>
+      <c r="D64" s="341" t="str">
+        <f ca="1">Calibración!G38</f>
+        <v/>
+      </c>
+      <c r="E64" s="341"/>
+      <c r="F64" s="342" t="str">
+        <f ca="1">Calibración!H38</f>
+        <v/>
+      </c>
+      <c r="G64" s="343"/>
+      <c r="H64" s="343"/>
+      <c r="I64" s="343"/>
+      <c r="J64" s="343"/>
+      <c r="K64" s="344"/>
+      <c r="L64" s="341" t="str">
+        <f ca="1">Calibración!I38</f>
+        <v/>
+      </c>
+      <c r="M64" s="341"/>
+      <c r="N64" s="341"/>
+      <c r="O64" s="341"/>
+      <c r="P64" s="341"/>
+      <c r="Q64" s="341"/>
+      <c r="R64" s="341" t="str">
+        <f ca="1">Calibración!J38</f>
+        <v/>
+      </c>
+      <c r="S64" s="341"/>
+      <c r="T64" s="341"/>
+      <c r="U64" s="341"/>
+      <c r="V64" s="341"/>
+      <c r="W64" s="341"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="358" t="str">
-        <f ca="1">Calibración!G38</f>
-        <v/>
-      </c>
-      <c r="E65" s="358"/>
-      <c r="F65" s="359" t="str">
-        <f ca="1">Calibración!H38</f>
-        <v/>
-      </c>
-      <c r="G65" s="360"/>
-      <c r="H65" s="360"/>
-      <c r="I65" s="360"/>
-      <c r="J65" s="360"/>
-      <c r="K65" s="361"/>
-      <c r="L65" s="358" t="str">
-        <f ca="1">Calibración!I38</f>
-        <v/>
-      </c>
-      <c r="M65" s="358"/>
-      <c r="N65" s="358"/>
-      <c r="O65" s="358"/>
-      <c r="P65" s="358"/>
-      <c r="Q65" s="358"/>
-      <c r="R65" s="358" t="str">
-        <f ca="1">Calibración!J38</f>
-        <v/>
-      </c>
-      <c r="S65" s="358"/>
-      <c r="T65" s="358"/>
-      <c r="U65" s="358"/>
-      <c r="V65" s="358"/>
-      <c r="W65" s="358"/>
+      <c r="D65" s="341" t="str">
+        <f ca="1">Calibración!G39</f>
+        <v/>
+      </c>
+      <c r="E65" s="341"/>
+      <c r="F65" s="342" t="str">
+        <f ca="1">Calibración!H39</f>
+        <v/>
+      </c>
+      <c r="G65" s="343"/>
+      <c r="H65" s="343"/>
+      <c r="I65" s="343"/>
+      <c r="J65" s="343"/>
+      <c r="K65" s="344"/>
+      <c r="L65" s="341" t="str">
+        <f ca="1">Calibración!I39</f>
+        <v/>
+      </c>
+      <c r="M65" s="341"/>
+      <c r="N65" s="341"/>
+      <c r="O65" s="341"/>
+      <c r="P65" s="341"/>
+      <c r="Q65" s="341"/>
+      <c r="R65" s="341" t="str">
+        <f ca="1">Calibración!J39</f>
+        <v/>
+      </c>
+      <c r="S65" s="341"/>
+      <c r="T65" s="341"/>
+      <c r="U65" s="341"/>
+      <c r="V65" s="341"/>
+      <c r="W65" s="341"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="358" t="str">
-        <f ca="1">Calibración!G39</f>
-        <v/>
-      </c>
-      <c r="E66" s="358"/>
-      <c r="F66" s="359" t="str">
-        <f ca="1">Calibración!H39</f>
-        <v/>
-      </c>
-      <c r="G66" s="360"/>
-      <c r="H66" s="360"/>
-      <c r="I66" s="360"/>
-      <c r="J66" s="360"/>
-      <c r="K66" s="361"/>
-      <c r="L66" s="358" t="str">
-        <f ca="1">Calibración!I39</f>
-        <v/>
-      </c>
-      <c r="M66" s="358"/>
-      <c r="N66" s="358"/>
-      <c r="O66" s="358"/>
-      <c r="P66" s="358"/>
-      <c r="Q66" s="358"/>
-      <c r="R66" s="358" t="str">
-        <f ca="1">Calibración!J39</f>
-        <v/>
-      </c>
-      <c r="S66" s="358"/>
-      <c r="T66" s="358"/>
-      <c r="U66" s="358"/>
-      <c r="V66" s="358"/>
-      <c r="W66" s="358"/>
+      <c r="D66" s="341" t="str">
+        <f ca="1">Calibración!G40</f>
+        <v/>
+      </c>
+      <c r="E66" s="341"/>
+      <c r="F66" s="342" t="str">
+        <f ca="1">Calibración!H40</f>
+        <v/>
+      </c>
+      <c r="G66" s="343"/>
+      <c r="H66" s="343"/>
+      <c r="I66" s="343"/>
+      <c r="J66" s="343"/>
+      <c r="K66" s="344"/>
+      <c r="L66" s="341" t="str">
+        <f ca="1">Calibración!I40</f>
+        <v/>
+      </c>
+      <c r="M66" s="341"/>
+      <c r="N66" s="341"/>
+      <c r="O66" s="341"/>
+      <c r="P66" s="341"/>
+      <c r="Q66" s="341"/>
+      <c r="R66" s="341" t="str">
+        <f ca="1">Calibración!J40</f>
+        <v/>
+      </c>
+      <c r="S66" s="341"/>
+      <c r="T66" s="341"/>
+      <c r="U66" s="341"/>
+      <c r="V66" s="341"/>
+      <c r="W66" s="341"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="358" t="str">
-        <f ca="1">Calibración!G40</f>
-        <v/>
-      </c>
-      <c r="E67" s="358"/>
-      <c r="F67" s="359" t="str">
-        <f ca="1">Calibración!H40</f>
-        <v/>
-      </c>
-      <c r="G67" s="360"/>
-      <c r="H67" s="360"/>
-      <c r="I67" s="360"/>
-      <c r="J67" s="360"/>
-      <c r="K67" s="361"/>
-      <c r="L67" s="358" t="str">
-        <f ca="1">Calibración!I40</f>
-        <v/>
-      </c>
-      <c r="M67" s="358"/>
-      <c r="N67" s="358"/>
-      <c r="O67" s="358"/>
-      <c r="P67" s="358"/>
-      <c r="Q67" s="358"/>
-      <c r="R67" s="358" t="str">
-        <f ca="1">Calibración!J40</f>
-        <v/>
-      </c>
-      <c r="S67" s="358"/>
-      <c r="T67" s="358"/>
-      <c r="U67" s="358"/>
-      <c r="V67" s="358"/>
-      <c r="W67" s="358"/>
+      <c r="D67" s="341" t="str">
+        <f ca="1">Calibración!G41</f>
+        <v/>
+      </c>
+      <c r="E67" s="341"/>
+      <c r="F67" s="342" t="str">
+        <f ca="1">Calibración!H41</f>
+        <v/>
+      </c>
+      <c r="G67" s="343"/>
+      <c r="H67" s="343"/>
+      <c r="I67" s="343"/>
+      <c r="J67" s="343"/>
+      <c r="K67" s="344"/>
+      <c r="L67" s="341" t="str">
+        <f ca="1">Calibración!I41</f>
+        <v/>
+      </c>
+      <c r="M67" s="341"/>
+      <c r="N67" s="341"/>
+      <c r="O67" s="341"/>
+      <c r="P67" s="341"/>
+      <c r="Q67" s="341"/>
+      <c r="R67" s="341" t="str">
+        <f ca="1">Calibración!J41</f>
+        <v/>
+      </c>
+      <c r="S67" s="341"/>
+      <c r="T67" s="341"/>
+      <c r="U67" s="341"/>
+      <c r="V67" s="341"/>
+      <c r="W67" s="341"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="358" t="str">
-        <f ca="1">Calibración!G41</f>
-        <v/>
-      </c>
-      <c r="E68" s="358"/>
-      <c r="F68" s="359" t="str">
-        <f ca="1">Calibración!H41</f>
-        <v/>
-      </c>
-      <c r="G68" s="360"/>
-      <c r="H68" s="360"/>
-      <c r="I68" s="360"/>
-      <c r="J68" s="360"/>
-      <c r="K68" s="361"/>
-      <c r="L68" s="358" t="str">
-        <f ca="1">Calibración!I41</f>
-        <v/>
-      </c>
-      <c r="M68" s="358"/>
-      <c r="N68" s="358"/>
-      <c r="O68" s="358"/>
-      <c r="P68" s="358"/>
-      <c r="Q68" s="358"/>
-      <c r="R68" s="358" t="str">
-        <f ca="1">Calibración!J41</f>
-        <v/>
-      </c>
-      <c r="S68" s="358"/>
-      <c r="T68" s="358"/>
-      <c r="U68" s="358"/>
-      <c r="V68" s="358"/>
-      <c r="W68" s="358"/>
+      <c r="D68" s="341" t="str">
+        <f ca="1">Calibración!G42</f>
+        <v/>
+      </c>
+      <c r="E68" s="341"/>
+      <c r="F68" s="342" t="str">
+        <f ca="1">Calibración!H42</f>
+        <v/>
+      </c>
+      <c r="G68" s="343"/>
+      <c r="H68" s="343"/>
+      <c r="I68" s="343"/>
+      <c r="J68" s="343"/>
+      <c r="K68" s="344"/>
+      <c r="L68" s="341" t="str">
+        <f ca="1">Calibración!I42</f>
+        <v/>
+      </c>
+      <c r="M68" s="341"/>
+      <c r="N68" s="341"/>
+      <c r="O68" s="341"/>
+      <c r="P68" s="341"/>
+      <c r="Q68" s="341"/>
+      <c r="R68" s="341" t="str">
+        <f ca="1">Calibración!J42</f>
+        <v/>
+      </c>
+      <c r="S68" s="341"/>
+      <c r="T68" s="341"/>
+      <c r="U68" s="341"/>
+      <c r="V68" s="341"/>
+      <c r="W68" s="341"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="358" t="str">
-        <f ca="1">Calibración!G42</f>
-        <v/>
-      </c>
-      <c r="E69" s="358"/>
-      <c r="F69" s="359" t="str">
-        <f ca="1">Calibración!H42</f>
-        <v/>
-      </c>
-      <c r="G69" s="360"/>
-      <c r="H69" s="360"/>
-      <c r="I69" s="360"/>
-      <c r="J69" s="360"/>
-      <c r="K69" s="361"/>
-      <c r="L69" s="358" t="str">
-        <f ca="1">Calibración!I42</f>
-        <v/>
-      </c>
-      <c r="M69" s="358"/>
-      <c r="N69" s="358"/>
-      <c r="O69" s="358"/>
-      <c r="P69" s="358"/>
-      <c r="Q69" s="358"/>
-      <c r="R69" s="358" t="str">
-        <f ca="1">Calibración!J42</f>
-        <v/>
-      </c>
-      <c r="S69" s="358"/>
-      <c r="T69" s="358"/>
-      <c r="U69" s="358"/>
-      <c r="V69" s="358"/>
-      <c r="W69" s="358"/>
+      <c r="D69" s="341" t="str">
+        <f ca="1">Calibración!G43</f>
+        <v/>
+      </c>
+      <c r="E69" s="341"/>
+      <c r="F69" s="342" t="str">
+        <f ca="1">Calibración!H43</f>
+        <v/>
+      </c>
+      <c r="G69" s="343"/>
+      <c r="H69" s="343"/>
+      <c r="I69" s="343"/>
+      <c r="J69" s="343"/>
+      <c r="K69" s="344"/>
+      <c r="L69" s="341" t="str">
+        <f ca="1">Calibración!I43</f>
+        <v/>
+      </c>
+      <c r="M69" s="341"/>
+      <c r="N69" s="341"/>
+      <c r="O69" s="341"/>
+      <c r="P69" s="341"/>
+      <c r="Q69" s="341"/>
+      <c r="R69" s="341" t="str">
+        <f ca="1">Calibración!J43</f>
+        <v/>
+      </c>
+      <c r="S69" s="341"/>
+      <c r="T69" s="341"/>
+      <c r="U69" s="341"/>
+      <c r="V69" s="341"/>
+      <c r="W69" s="341"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D70" s="358" t="str">
-        <f ca="1">Calibración!G43</f>
-        <v/>
-      </c>
-      <c r="E70" s="358"/>
-      <c r="F70" s="359" t="str">
-        <f ca="1">Calibración!H43</f>
-        <v/>
-      </c>
-      <c r="G70" s="360"/>
-      <c r="H70" s="360"/>
-      <c r="I70" s="360"/>
-      <c r="J70" s="360"/>
-      <c r="K70" s="361"/>
-      <c r="L70" s="358" t="str">
-        <f ca="1">Calibración!I43</f>
-        <v/>
-      </c>
-      <c r="M70" s="358"/>
-      <c r="N70" s="358"/>
-      <c r="O70" s="358"/>
-      <c r="P70" s="358"/>
-      <c r="Q70" s="358"/>
-      <c r="R70" s="358" t="str">
-        <f ca="1">Calibración!J43</f>
-        <v/>
-      </c>
-      <c r="S70" s="358"/>
-      <c r="T70" s="358"/>
-      <c r="U70" s="358"/>
-      <c r="V70" s="358"/>
-      <c r="W70" s="358"/>
+      <c r="D70" s="341" t="str">
+        <f ca="1">Calibración!G44</f>
+        <v/>
+      </c>
+      <c r="E70" s="341"/>
+      <c r="F70" s="342" t="str">
+        <f ca="1">Calibración!H44</f>
+        <v/>
+      </c>
+      <c r="G70" s="343"/>
+      <c r="H70" s="343"/>
+      <c r="I70" s="343"/>
+      <c r="J70" s="343"/>
+      <c r="K70" s="344"/>
+      <c r="L70" s="341" t="str">
+        <f ca="1">Calibración!I44</f>
+        <v/>
+      </c>
+      <c r="M70" s="341"/>
+      <c r="N70" s="341"/>
+      <c r="O70" s="341"/>
+      <c r="P70" s="341"/>
+      <c r="Q70" s="341"/>
+      <c r="R70" s="341" t="str">
+        <f ca="1">Calibración!J44</f>
+        <v/>
+      </c>
+      <c r="S70" s="341"/>
+      <c r="T70" s="341"/>
+      <c r="U70" s="341"/>
+      <c r="V70" s="341"/>
+      <c r="W70" s="341"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D71" s="358" t="str">
-        <f ca="1">Calibración!G44</f>
-        <v/>
-      </c>
-      <c r="E71" s="358"/>
-      <c r="F71" s="359" t="str">
-        <f ca="1">Calibración!H44</f>
-        <v/>
-      </c>
-      <c r="G71" s="360"/>
-      <c r="H71" s="360"/>
-      <c r="I71" s="360"/>
-      <c r="J71" s="360"/>
-      <c r="K71" s="361"/>
-      <c r="L71" s="358" t="str">
-        <f ca="1">Calibración!I44</f>
-        <v/>
-      </c>
-      <c r="M71" s="358"/>
-      <c r="N71" s="358"/>
-      <c r="O71" s="358"/>
-      <c r="P71" s="358"/>
-      <c r="Q71" s="358"/>
-      <c r="R71" s="358" t="str">
-        <f ca="1">Calibración!J44</f>
-        <v/>
-      </c>
-      <c r="S71" s="358"/>
-      <c r="T71" s="358"/>
-      <c r="U71" s="358"/>
-      <c r="V71" s="358"/>
-      <c r="W71" s="358"/>
+      <c r="D71" s="341" t="str">
+        <f ca="1">Calibración!G45</f>
+        <v/>
+      </c>
+      <c r="E71" s="341"/>
+      <c r="F71" s="342" t="str">
+        <f ca="1">Calibración!H45</f>
+        <v/>
+      </c>
+      <c r="G71" s="343"/>
+      <c r="H71" s="343"/>
+      <c r="I71" s="343"/>
+      <c r="J71" s="343"/>
+      <c r="K71" s="344"/>
+      <c r="L71" s="341" t="str">
+        <f ca="1">Calibración!I45</f>
+        <v/>
+      </c>
+      <c r="M71" s="341"/>
+      <c r="N71" s="341"/>
+      <c r="O71" s="341"/>
+      <c r="P71" s="341"/>
+      <c r="Q71" s="341"/>
+      <c r="R71" s="341" t="str">
+        <f ca="1">Calibración!J45</f>
+        <v/>
+      </c>
+      <c r="S71" s="341"/>
+      <c r="T71" s="341"/>
+      <c r="U71" s="341"/>
+      <c r="V71" s="341"/>
+      <c r="W71" s="341"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D72" s="358" t="str">
-        <f ca="1">Calibración!G45</f>
-        <v/>
-      </c>
-      <c r="E72" s="358"/>
-      <c r="F72" s="359" t="str">
-        <f ca="1">Calibración!H45</f>
-        <v/>
-      </c>
-      <c r="G72" s="360"/>
-      <c r="H72" s="360"/>
-      <c r="I72" s="360"/>
-      <c r="J72" s="360"/>
-      <c r="K72" s="361"/>
-      <c r="L72" s="358" t="str">
-        <f ca="1">Calibración!I45</f>
-        <v/>
-      </c>
-      <c r="M72" s="358"/>
-      <c r="N72" s="358"/>
-      <c r="O72" s="358"/>
-      <c r="P72" s="358"/>
-      <c r="Q72" s="358"/>
-      <c r="R72" s="358" t="str">
-        <f ca="1">Calibración!J45</f>
-        <v/>
-      </c>
-      <c r="S72" s="358"/>
-      <c r="T72" s="358"/>
-      <c r="U72" s="358"/>
-      <c r="V72" s="358"/>
-      <c r="W72" s="358"/>
+      <c r="D72" s="341" t="str">
+        <f ca="1">Calibración!G46</f>
+        <v/>
+      </c>
+      <c r="E72" s="341"/>
+      <c r="F72" s="342" t="str">
+        <f ca="1">Calibración!H46</f>
+        <v/>
+      </c>
+      <c r="G72" s="343"/>
+      <c r="H72" s="343"/>
+      <c r="I72" s="343"/>
+      <c r="J72" s="343"/>
+      <c r="K72" s="344"/>
+      <c r="L72" s="341" t="str">
+        <f ca="1">Calibración!I46</f>
+        <v/>
+      </c>
+      <c r="M72" s="341"/>
+      <c r="N72" s="341"/>
+      <c r="O72" s="341"/>
+      <c r="P72" s="341"/>
+      <c r="Q72" s="341"/>
+      <c r="R72" s="341" t="str">
+        <f ca="1">Calibración!J46</f>
+        <v/>
+      </c>
+      <c r="S72" s="341"/>
+      <c r="T72" s="341"/>
+      <c r="U72" s="341"/>
+      <c r="V72" s="341"/>
+      <c r="W72" s="341"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D73" s="358" t="str">
-        <f ca="1">Calibración!G46</f>
-        <v/>
-      </c>
-      <c r="E73" s="358"/>
-      <c r="F73" s="359" t="str">
-        <f ca="1">Calibración!H46</f>
-        <v/>
-      </c>
-      <c r="G73" s="360"/>
-      <c r="H73" s="360"/>
-      <c r="I73" s="360"/>
-      <c r="J73" s="360"/>
-      <c r="K73" s="361"/>
-      <c r="L73" s="358" t="str">
-        <f ca="1">Calibración!I46</f>
-        <v/>
-      </c>
-      <c r="M73" s="358"/>
-      <c r="N73" s="358"/>
-      <c r="O73" s="358"/>
-      <c r="P73" s="358"/>
-      <c r="Q73" s="358"/>
-      <c r="R73" s="358" t="str">
-        <f ca="1">Calibración!J46</f>
-        <v/>
-      </c>
-      <c r="S73" s="358"/>
-      <c r="T73" s="358"/>
-      <c r="U73" s="358"/>
-      <c r="V73" s="358"/>
-      <c r="W73" s="358"/>
+      <c r="D73" s="341" t="str">
+        <f ca="1">Calibración!G47</f>
+        <v/>
+      </c>
+      <c r="E73" s="341"/>
+      <c r="F73" s="342" t="str">
+        <f ca="1">Calibración!H47</f>
+        <v/>
+      </c>
+      <c r="G73" s="343"/>
+      <c r="H73" s="343"/>
+      <c r="I73" s="343"/>
+      <c r="J73" s="343"/>
+      <c r="K73" s="344"/>
+      <c r="L73" s="341" t="str">
+        <f ca="1">Calibración!I47</f>
+        <v/>
+      </c>
+      <c r="M73" s="341"/>
+      <c r="N73" s="341"/>
+      <c r="O73" s="341"/>
+      <c r="P73" s="341"/>
+      <c r="Q73" s="341"/>
+      <c r="R73" s="341" t="str">
+        <f ca="1">Calibración!J47</f>
+        <v/>
+      </c>
+      <c r="S73" s="341"/>
+      <c r="T73" s="341"/>
+      <c r="U73" s="341"/>
+      <c r="V73" s="341"/>
+      <c r="W73" s="341"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D74" s="358" t="str">
-        <f ca="1">Calibración!G47</f>
-        <v/>
-      </c>
-      <c r="E74" s="358"/>
-      <c r="F74" s="359" t="str">
-        <f ca="1">Calibración!H47</f>
-        <v/>
-      </c>
-      <c r="G74" s="360"/>
-      <c r="H74" s="360"/>
-      <c r="I74" s="360"/>
-      <c r="J74" s="360"/>
-      <c r="K74" s="361"/>
-      <c r="L74" s="358" t="str">
-        <f ca="1">Calibración!I47</f>
-        <v/>
-      </c>
-      <c r="M74" s="358"/>
-      <c r="N74" s="358"/>
-      <c r="O74" s="358"/>
-      <c r="P74" s="358"/>
-      <c r="Q74" s="358"/>
-      <c r="R74" s="358" t="str">
-        <f ca="1">Calibración!J47</f>
-        <v/>
-      </c>
-      <c r="S74" s="358"/>
-      <c r="T74" s="358"/>
-      <c r="U74" s="358"/>
-      <c r="V74" s="358"/>
-      <c r="W74" s="358"/>
+      <c r="O74" s="232"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O75" s="232"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="O76" s="232"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A77" s="224" t="s">
+      <c r="A76" s="224" t="s">
         <v>411</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="225"/>
-      <c r="D77" s="226"/>
-      <c r="E77" s="226"/>
-      <c r="F77" s="226"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="362" t="str">
+      <c r="B76" s="9"/>
+      <c r="C76" s="225"/>
+      <c r="D76" s="226"/>
+      <c r="E76" s="226"/>
+      <c r="F76" s="226"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="346" t="str">
         <f>N8</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O77" s="362"/>
-      <c r="P77" s="362"/>
-      <c r="Q77" s="362"/>
-      <c r="R77" s="362"/>
-      <c r="S77" s="362"/>
-      <c r="T77" s="362"/>
-      <c r="U77" s="362"/>
-      <c r="V77" s="362"/>
-      <c r="W77" s="362"/>
-      <c r="X77" s="362"/>
+      <c r="O76" s="346"/>
+      <c r="P76" s="346"/>
+      <c r="Q76" s="346"/>
+      <c r="R76" s="346"/>
+      <c r="S76" s="346"/>
+      <c r="T76" s="346"/>
+      <c r="U76" s="346"/>
+      <c r="V76" s="346"/>
+      <c r="W76" s="346"/>
+      <c r="X76" s="346"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="O77" s="232"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="O78" s="232"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A79" s="224" t="s">
+      <c r="A78" s="224" t="s">
         <v>428</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="233" t="s">
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="233" t="s">
         <v>99</v>
       </c>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="233" t="str">
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="233" t="str">
         <f>General!I4</f>
         <v>NI-MCPPT-06</v>
       </c>
-      <c r="L79" s="9"/>
-      <c r="O79" s="224" t="s">
+      <c r="L78" s="9"/>
+      <c r="O78" s="224" t="s">
         <v>429</v>
       </c>
-      <c r="P79" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A79" s="234"/>
+      <c r="B79" s="365" t="s">
+        <v>430</v>
+      </c>
+      <c r="C79" s="365"/>
+      <c r="D79" s="365"/>
+      <c r="E79" s="235" t="str">
+        <f>CertTempC</f>
+        <v/>
+      </c>
+      <c r="F79" s="236" t="s">
+        <v>431</v>
+      </c>
+      <c r="G79" s="237">
+        <f>CertTempIncerti</f>
+        <v>0.42</v>
+      </c>
+      <c r="H79" s="234" t="s">
+        <v>97</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="348"/>
+      <c r="L79" s="348"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="234" t="s">
+        <v>469</v>
+      </c>
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
+      <c r="T79" s="366" t="str">
+        <f>General!I18</f>
+        <v/>
+      </c>
+      <c r="U79" s="366"/>
+      <c r="V79" s="236" t="s">
+        <v>432</v>
+      </c>
+      <c r="W79" s="235">
+        <f>CertPresIncert</f>
+        <v>2.4700000000000002</v>
+      </c>
       <c r="X79" s="9"/>
-      <c r="Y79" s="9"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="234"/>
-      <c r="B80" s="363" t="s">
-        <v>430</v>
-      </c>
-      <c r="C80" s="363"/>
-      <c r="D80" s="363"/>
+      <c r="B80" s="234" t="s">
+        <v>433</v>
+      </c>
+      <c r="C80" s="234"/>
+      <c r="D80" s="234"/>
       <c r="E80" s="235" t="str">
-        <f>CertTempC</f>
+        <f>CertHR</f>
         <v/>
       </c>
       <c r="F80" s="236" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G80" s="237">
-        <f>CertTempIncerti</f>
-        <v>0.42</v>
-      </c>
-      <c r="H80" s="234" t="s">
-        <v>97</v>
+        <f>CertHRIncerti</f>
+        <v>1.3</v>
+      </c>
+      <c r="H80" s="236" t="s">
+        <v>435</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="364"/>
-      <c r="L80" s="364"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
-      <c r="P80" s="234" t="s">
-        <v>469</v>
-      </c>
+      <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
-      <c r="T80" s="365" t="str">
-        <f>General!I18</f>
-        <v/>
-      </c>
-      <c r="U80" s="365"/>
-      <c r="V80" s="236" t="s">
-        <v>432</v>
-      </c>
-      <c r="W80" s="235">
-        <f>CertPresIncert</f>
-        <v>2.4700000000000002</v>
-      </c>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
       <c r="X80" s="9"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" s="234"/>
-      <c r="B81" s="234" t="s">
-        <v>433</v>
-      </c>
+      <c r="B81" s="234"/>
       <c r="C81" s="234"/>
       <c r="D81" s="234"/>
-      <c r="E81" s="235" t="str">
-        <f>CertHR</f>
-        <v/>
-      </c>
-      <c r="F81" s="236" t="s">
-        <v>434</v>
-      </c>
-      <c r="G81" s="237">
-        <f>CertHRIncerti</f>
-        <v>1.3</v>
-      </c>
-      <c r="H81" s="236" t="s">
-        <v>435</v>
-      </c>
+      <c r="E81" s="235"/>
+      <c r="F81" s="236"/>
+      <c r="G81" s="237"/>
+      <c r="H81" s="236"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
@@ -38256,14 +38260,16 @@
       <c r="X81" s="9"/>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A82" s="234"/>
-      <c r="B82" s="234"/>
-      <c r="C82" s="234"/>
-      <c r="D82" s="234"/>
-      <c r="E82" s="235"/>
-      <c r="F82" s="236"/>
-      <c r="G82" s="237"/>
-      <c r="H82" s="236"/>
+      <c r="A82" s="224" t="s">
+        <v>436</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
@@ -38279,64 +38285,63 @@
       <c r="U82" s="9"/>
       <c r="V82" s="9"/>
       <c r="W82" s="9"/>
-      <c r="X82" s="9"/>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A83" s="224" t="s">
-        <v>436</v>
-      </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="9"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
-      <c r="U83" s="9"/>
-      <c r="V83" s="9"/>
-      <c r="W83" s="9"/>
-    </row>
-    <row r="84" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="351" t="s">
+    </row>
+    <row r="83" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="358" t="s">
         <v>715</v>
       </c>
-      <c r="B84" s="351"/>
-      <c r="C84" s="351"/>
-      <c r="D84" s="351"/>
-      <c r="E84" s="351"/>
-      <c r="F84" s="351"/>
-      <c r="G84" s="351"/>
-      <c r="H84" s="351"/>
-      <c r="I84" s="351"/>
-      <c r="J84" s="351"/>
-      <c r="K84" s="351"/>
-      <c r="L84" s="351"/>
-      <c r="M84" s="351"/>
-      <c r="N84" s="351"/>
-      <c r="O84" s="351"/>
-      <c r="P84" s="351"/>
-      <c r="Q84" s="351"/>
-      <c r="R84" s="351"/>
-      <c r="S84" s="351"/>
-      <c r="T84" s="351"/>
-      <c r="U84" s="351"/>
-      <c r="V84" s="351"/>
-      <c r="W84" s="351"/>
-      <c r="X84" s="351"/>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B83" s="358"/>
+      <c r="C83" s="358"/>
+      <c r="D83" s="358"/>
+      <c r="E83" s="358"/>
+      <c r="F83" s="358"/>
+      <c r="G83" s="358"/>
+      <c r="H83" s="358"/>
+      <c r="I83" s="358"/>
+      <c r="J83" s="358"/>
+      <c r="K83" s="358"/>
+      <c r="L83" s="358"/>
+      <c r="M83" s="358"/>
+      <c r="N83" s="358"/>
+      <c r="O83" s="358"/>
+      <c r="P83" s="358"/>
+      <c r="Q83" s="358"/>
+      <c r="R83" s="358"/>
+      <c r="S83" s="358"/>
+      <c r="T83" s="358"/>
+      <c r="U83" s="358"/>
+      <c r="V83" s="358"/>
+      <c r="W83" s="358"/>
+      <c r="X83" s="358"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="14"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="14"/>
+      <c r="W84" s="14"/>
+    </row>
+    <row r="85" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="224" t="s">
+        <v>437</v>
+      </c>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
@@ -38359,169 +38364,169 @@
       <c r="U85" s="14"/>
       <c r="V85" s="14"/>
       <c r="W85" s="14"/>
-    </row>
-    <row r="86" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="224" t="s">
-        <v>437</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="14"/>
-      <c r="Q86" s="14"/>
-      <c r="R86" s="14"/>
-      <c r="S86" s="14"/>
-      <c r="T86" s="14"/>
-      <c r="U86" s="14"/>
-      <c r="V86" s="14"/>
-      <c r="W86" s="14"/>
-      <c r="X86" s="14"/>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A87" s="351" t="s">
+      <c r="X85" s="14"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A86" s="358" t="s">
         <v>438</v>
       </c>
-      <c r="B87" s="351"/>
-      <c r="C87" s="351"/>
-      <c r="D87" s="351"/>
-      <c r="E87" s="351"/>
-      <c r="F87" s="351"/>
-      <c r="G87" s="351"/>
-      <c r="H87" s="351"/>
-      <c r="I87" s="351"/>
-      <c r="J87" s="351"/>
-      <c r="K87" s="351"/>
-      <c r="L87" s="351"/>
-      <c r="M87" s="351"/>
-      <c r="N87" s="351"/>
-      <c r="O87" s="351"/>
-      <c r="P87" s="351"/>
-      <c r="Q87" s="351"/>
-      <c r="R87" s="351"/>
-      <c r="S87" s="351"/>
-      <c r="T87" s="351"/>
-      <c r="U87" s="351"/>
-      <c r="V87" s="351"/>
-      <c r="W87" s="351"/>
-      <c r="X87" s="351"/>
+      <c r="B86" s="358"/>
+      <c r="C86" s="358"/>
+      <c r="D86" s="358"/>
+      <c r="E86" s="358"/>
+      <c r="F86" s="358"/>
+      <c r="G86" s="358"/>
+      <c r="H86" s="358"/>
+      <c r="I86" s="358"/>
+      <c r="J86" s="358"/>
+      <c r="K86" s="358"/>
+      <c r="L86" s="358"/>
+      <c r="M86" s="358"/>
+      <c r="N86" s="358"/>
+      <c r="O86" s="358"/>
+      <c r="P86" s="358"/>
+      <c r="Q86" s="358"/>
+      <c r="R86" s="358"/>
+      <c r="S86" s="358"/>
+      <c r="T86" s="358"/>
+      <c r="U86" s="358"/>
+      <c r="V86" s="358"/>
+      <c r="W86" s="358"/>
+      <c r="X86" s="358"/>
+    </row>
+    <row r="87" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="358"/>
+      <c r="B87" s="358"/>
+      <c r="C87" s="358"/>
+      <c r="D87" s="358"/>
+      <c r="E87" s="358"/>
+      <c r="F87" s="358"/>
+      <c r="G87" s="358"/>
+      <c r="H87" s="358"/>
+      <c r="I87" s="358"/>
+      <c r="J87" s="358"/>
+      <c r="K87" s="358"/>
+      <c r="L87" s="358"/>
+      <c r="M87" s="358"/>
+      <c r="N87" s="358"/>
+      <c r="O87" s="358"/>
+      <c r="P87" s="358"/>
+      <c r="Q87" s="358"/>
+      <c r="R87" s="358"/>
+      <c r="S87" s="358"/>
+      <c r="T87" s="358"/>
+      <c r="U87" s="358"/>
+      <c r="V87" s="358"/>
+      <c r="W87" s="358"/>
+      <c r="X87" s="358"/>
     </row>
     <row r="88" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="351"/>
-      <c r="B88" s="351"/>
-      <c r="C88" s="351"/>
-      <c r="D88" s="351"/>
-      <c r="E88" s="351"/>
-      <c r="F88" s="351"/>
-      <c r="G88" s="351"/>
-      <c r="H88" s="351"/>
-      <c r="I88" s="351"/>
-      <c r="J88" s="351"/>
-      <c r="K88" s="351"/>
-      <c r="L88" s="351"/>
-      <c r="M88" s="351"/>
-      <c r="N88" s="351"/>
-      <c r="O88" s="351"/>
-      <c r="P88" s="351"/>
-      <c r="Q88" s="351"/>
-      <c r="R88" s="351"/>
-      <c r="S88" s="351"/>
-      <c r="T88" s="351"/>
-      <c r="U88" s="351"/>
-      <c r="V88" s="351"/>
-      <c r="W88" s="351"/>
-      <c r="X88" s="351"/>
-    </row>
-    <row r="89" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="351"/>
-      <c r="B89" s="351"/>
-      <c r="C89" s="351"/>
-      <c r="D89" s="351"/>
-      <c r="E89" s="351"/>
-      <c r="F89" s="351"/>
-      <c r="G89" s="351"/>
-      <c r="H89" s="351"/>
-      <c r="I89" s="351"/>
-      <c r="J89" s="351"/>
-      <c r="K89" s="351"/>
-      <c r="L89" s="351"/>
-      <c r="M89" s="351"/>
-      <c r="N89" s="351"/>
-      <c r="O89" s="351"/>
-      <c r="P89" s="351"/>
-      <c r="Q89" s="351"/>
-      <c r="R89" s="351"/>
-      <c r="S89" s="351"/>
-      <c r="T89" s="351"/>
-      <c r="U89" s="351"/>
-      <c r="V89" s="351"/>
-      <c r="W89" s="351"/>
-      <c r="X89" s="351"/>
+      <c r="A88" s="358"/>
+      <c r="B88" s="358"/>
+      <c r="C88" s="358"/>
+      <c r="D88" s="358"/>
+      <c r="E88" s="358"/>
+      <c r="F88" s="358"/>
+      <c r="G88" s="358"/>
+      <c r="H88" s="358"/>
+      <c r="I88" s="358"/>
+      <c r="J88" s="358"/>
+      <c r="K88" s="358"/>
+      <c r="L88" s="358"/>
+      <c r="M88" s="358"/>
+      <c r="N88" s="358"/>
+      <c r="O88" s="358"/>
+      <c r="P88" s="358"/>
+      <c r="Q88" s="358"/>
+      <c r="R88" s="358"/>
+      <c r="S88" s="358"/>
+      <c r="T88" s="358"/>
+      <c r="U88" s="358"/>
+      <c r="V88" s="358"/>
+      <c r="W88" s="358"/>
+      <c r="X88" s="358"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A89" s="358"/>
+      <c r="B89" s="358"/>
+      <c r="C89" s="358"/>
+      <c r="D89" s="358"/>
+      <c r="E89" s="358"/>
+      <c r="F89" s="358"/>
+      <c r="G89" s="358"/>
+      <c r="H89" s="358"/>
+      <c r="I89" s="358"/>
+      <c r="J89" s="358"/>
+      <c r="K89" s="358"/>
+      <c r="L89" s="358"/>
+      <c r="M89" s="358"/>
+      <c r="N89" s="358"/>
+      <c r="O89" s="358"/>
+      <c r="P89" s="358"/>
+      <c r="Q89" s="358"/>
+      <c r="R89" s="358"/>
+      <c r="S89" s="358"/>
+      <c r="T89" s="358"/>
+      <c r="U89" s="358"/>
+      <c r="V89" s="358"/>
+      <c r="W89" s="358"/>
+      <c r="X89" s="358"/>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A90" s="351"/>
-      <c r="B90" s="351"/>
-      <c r="C90" s="351"/>
-      <c r="D90" s="351"/>
-      <c r="E90" s="351"/>
-      <c r="F90" s="351"/>
-      <c r="G90" s="351"/>
-      <c r="H90" s="351"/>
-      <c r="I90" s="351"/>
-      <c r="J90" s="351"/>
-      <c r="K90" s="351"/>
-      <c r="L90" s="351"/>
-      <c r="M90" s="351"/>
-      <c r="N90" s="351"/>
-      <c r="O90" s="351"/>
-      <c r="P90" s="351"/>
-      <c r="Q90" s="351"/>
-      <c r="R90" s="351"/>
-      <c r="S90" s="351"/>
-      <c r="T90" s="351"/>
-      <c r="U90" s="351"/>
-      <c r="V90" s="351"/>
-      <c r="W90" s="351"/>
-      <c r="X90" s="351"/>
+      <c r="A90" s="358"/>
+      <c r="B90" s="358"/>
+      <c r="C90" s="358"/>
+      <c r="D90" s="358"/>
+      <c r="E90" s="358"/>
+      <c r="F90" s="358"/>
+      <c r="G90" s="358"/>
+      <c r="H90" s="358"/>
+      <c r="I90" s="358"/>
+      <c r="J90" s="358"/>
+      <c r="K90" s="358"/>
+      <c r="L90" s="358"/>
+      <c r="M90" s="358"/>
+      <c r="N90" s="358"/>
+      <c r="O90" s="358"/>
+      <c r="P90" s="358"/>
+      <c r="Q90" s="358"/>
+      <c r="R90" s="358"/>
+      <c r="S90" s="358"/>
+      <c r="T90" s="358"/>
+      <c r="U90" s="358"/>
+      <c r="V90" s="358"/>
+      <c r="W90" s="358"/>
+      <c r="X90" s="358"/>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A91" s="351"/>
-      <c r="B91" s="351"/>
-      <c r="C91" s="351"/>
-      <c r="D91" s="351"/>
-      <c r="E91" s="351"/>
-      <c r="F91" s="351"/>
-      <c r="G91" s="351"/>
-      <c r="H91" s="351"/>
-      <c r="I91" s="351"/>
-      <c r="J91" s="351"/>
-      <c r="K91" s="351"/>
-      <c r="L91" s="351"/>
-      <c r="M91" s="351"/>
-      <c r="N91" s="351"/>
-      <c r="O91" s="351"/>
-      <c r="P91" s="351"/>
-      <c r="Q91" s="351"/>
-      <c r="R91" s="351"/>
-      <c r="S91" s="351"/>
-      <c r="T91" s="351"/>
-      <c r="U91" s="351"/>
-      <c r="V91" s="351"/>
-      <c r="W91" s="351"/>
-      <c r="X91" s="351"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A92" s="9"/>
+      <c r="A92" s="224" t="s">
+        <v>439</v>
+      </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -38543,290 +38548,291 @@
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
       <c r="V92" s="9"/>
-      <c r="W92" s="9"/>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A93" s="224" t="s">
-        <v>439</v>
-      </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="9"/>
-      <c r="P93" s="9"/>
-      <c r="Q93" s="9"/>
-      <c r="R93" s="9"/>
-      <c r="S93" s="9"/>
-      <c r="T93" s="9"/>
-      <c r="U93" s="9"/>
-      <c r="V93" s="9"/>
-    </row>
-    <row r="94" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="352" t="s">
+    </row>
+    <row r="93" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="359" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="353"/>
-      <c r="C94" s="353"/>
-      <c r="D94" s="353"/>
-      <c r="E94" s="353"/>
-      <c r="F94" s="354"/>
-      <c r="G94" s="352" t="s">
+      <c r="B93" s="360"/>
+      <c r="C93" s="360"/>
+      <c r="D93" s="360"/>
+      <c r="E93" s="360"/>
+      <c r="F93" s="361"/>
+      <c r="G93" s="359" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="353"/>
-      <c r="I94" s="354"/>
-      <c r="J94" s="355" t="s">
+      <c r="H93" s="360"/>
+      <c r="I93" s="361"/>
+      <c r="J93" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="K94" s="356"/>
-      <c r="L94" s="356"/>
-      <c r="M94" s="356"/>
-      <c r="N94" s="357"/>
-      <c r="O94" s="352" t="s">
+      <c r="K93" s="363"/>
+      <c r="L93" s="363"/>
+      <c r="M93" s="363"/>
+      <c r="N93" s="364"/>
+      <c r="O93" s="359" t="s">
         <v>440</v>
       </c>
-      <c r="P94" s="353"/>
-      <c r="Q94" s="353"/>
-      <c r="R94" s="353"/>
-      <c r="S94" s="353"/>
-      <c r="T94" s="354"/>
-      <c r="U94" s="355" t="s">
+      <c r="P93" s="360"/>
+      <c r="Q93" s="360"/>
+      <c r="R93" s="360"/>
+      <c r="S93" s="360"/>
+      <c r="T93" s="361"/>
+      <c r="U93" s="362" t="s">
         <v>441</v>
       </c>
-      <c r="V94" s="356"/>
-      <c r="W94" s="356"/>
-      <c r="X94" s="357"/>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A95" s="345" t="s">
+      <c r="V93" s="363"/>
+      <c r="W93" s="363"/>
+      <c r="X93" s="364"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A94" s="367" t="s">
         <v>709</v>
       </c>
-      <c r="B95" s="346" t="s">
+      <c r="B94" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="C95" s="346" t="s">
+      <c r="C94" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="D95" s="346" t="s">
+      <c r="D94" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="E95" s="346" t="s">
+      <c r="E94" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="F95" s="347" t="s">
+      <c r="F94" s="369" t="s">
         <v>449</v>
       </c>
-      <c r="G95" s="345" t="s">
+      <c r="G94" s="367" t="s">
         <v>477</v>
       </c>
-      <c r="H95" s="346" t="s">
+      <c r="H94" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I95" s="347" t="s">
+      <c r="I94" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J95" s="348" t="s">
+      <c r="J94" s="370" t="s">
         <v>700</v>
       </c>
-      <c r="K95" s="349" t="s">
+      <c r="K94" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L95" s="349">
+      <c r="L94" s="371">
         <v>43393</v>
       </c>
-      <c r="M95" s="349" t="s">
+      <c r="M94" s="371" t="s">
         <v>466</v>
       </c>
-      <c r="N95" s="350" t="s">
+      <c r="N94" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O95" s="345" t="s">
+      <c r="O94" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P95" s="346" t="s">
+      <c r="P94" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q95" s="346" t="s">
+      <c r="Q94" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R95" s="346" t="s">
+      <c r="R94" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S95" s="346" t="s">
+      <c r="S94" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T95" s="347" t="s">
+      <c r="T94" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U95" s="348">
+      <c r="U94" s="370">
         <v>44878</v>
       </c>
-      <c r="V95" s="349" t="s">
+      <c r="V94" s="371" t="s">
         <v>466</v>
       </c>
-      <c r="W95" s="349" t="s">
+      <c r="W94" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X95" s="350">
+      <c r="X94" s="372">
         <v>43393</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="345" t="s">
+    <row r="95" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="367" t="s">
         <v>710</v>
       </c>
-      <c r="B96" s="346"/>
-      <c r="C96" s="346"/>
-      <c r="D96" s="346"/>
-      <c r="E96" s="346"/>
-      <c r="F96" s="347"/>
-      <c r="G96" s="345" t="s">
+      <c r="B95" s="368"/>
+      <c r="C95" s="368"/>
+      <c r="D95" s="368"/>
+      <c r="E95" s="368"/>
+      <c r="F95" s="369"/>
+      <c r="G95" s="367" t="s">
         <v>311</v>
       </c>
-      <c r="H96" s="346" t="s">
+      <c r="H95" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I96" s="347" t="s">
+      <c r="I95" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J96" s="348" t="s">
+      <c r="J95" s="370" t="s">
         <v>714</v>
       </c>
-      <c r="K96" s="349" t="s">
+      <c r="K95" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L96" s="349">
+      <c r="L95" s="371">
         <v>43394</v>
       </c>
-      <c r="M96" s="349" t="s">
+      <c r="M95" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="N96" s="350" t="s">
+      <c r="N95" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O96" s="345" t="s">
+      <c r="O95" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P96" s="346" t="s">
+      <c r="P95" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q96" s="346" t="s">
+      <c r="Q95" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R96" s="346" t="s">
+      <c r="R95" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S96" s="346" t="s">
+      <c r="S95" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T96" s="347" t="s">
+      <c r="T95" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U96" s="348">
+      <c r="U95" s="370">
         <v>44878</v>
       </c>
-      <c r="V96" s="349" t="s">
+      <c r="V95" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="W96" s="349" t="s">
+      <c r="W95" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X96" s="350">
+      <c r="X95" s="372">
         <v>43394</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="345"/>
-      <c r="B97" s="346"/>
-      <c r="C97" s="346"/>
-      <c r="D97" s="346"/>
-      <c r="E97" s="346"/>
-      <c r="F97" s="347"/>
-      <c r="G97" s="345"/>
-      <c r="H97" s="346"/>
-      <c r="I97" s="347"/>
-      <c r="J97" s="348"/>
-      <c r="K97" s="349"/>
-      <c r="L97" s="349"/>
-      <c r="M97" s="349"/>
-      <c r="N97" s="350"/>
-      <c r="O97" s="345"/>
-      <c r="P97" s="346"/>
-      <c r="Q97" s="346"/>
-      <c r="R97" s="346"/>
-      <c r="S97" s="346"/>
-      <c r="T97" s="347"/>
-      <c r="U97" s="348"/>
-      <c r="V97" s="349"/>
-      <c r="W97" s="349"/>
-      <c r="X97" s="350"/>
-    </row>
-    <row r="98" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="238"/>
-      <c r="B98" s="238"/>
-      <c r="C98" s="238"/>
-      <c r="D98" s="238"/>
-      <c r="E98" s="238"/>
-      <c r="F98" s="238"/>
-      <c r="G98" s="238"/>
-      <c r="H98" s="238"/>
-      <c r="I98" s="238"/>
-      <c r="J98" s="238"/>
-      <c r="K98" s="238"/>
-      <c r="L98" s="238"/>
-      <c r="M98" s="238"/>
-      <c r="N98" s="238"/>
-      <c r="O98" s="238"/>
-      <c r="P98" s="238"/>
-      <c r="Q98" s="238"/>
-      <c r="R98" s="238"/>
-      <c r="S98" s="238"/>
-      <c r="T98" s="238"/>
-      <c r="U98" s="238"/>
-      <c r="V98" s="238"/>
-      <c r="W98" s="238"/>
-      <c r="X98" s="238"/>
+    <row r="96" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="367"/>
+      <c r="B96" s="368"/>
+      <c r="C96" s="368"/>
+      <c r="D96" s="368"/>
+      <c r="E96" s="368"/>
+      <c r="F96" s="369"/>
+      <c r="G96" s="367"/>
+      <c r="H96" s="368"/>
+      <c r="I96" s="369"/>
+      <c r="J96" s="370"/>
+      <c r="K96" s="371"/>
+      <c r="L96" s="371"/>
+      <c r="M96" s="371"/>
+      <c r="N96" s="372"/>
+      <c r="O96" s="367"/>
+      <c r="P96" s="368"/>
+      <c r="Q96" s="368"/>
+      <c r="R96" s="368"/>
+      <c r="S96" s="368"/>
+      <c r="T96" s="369"/>
+      <c r="U96" s="370"/>
+      <c r="V96" s="371"/>
+      <c r="W96" s="371"/>
+      <c r="X96" s="372"/>
+    </row>
+    <row r="97" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="238"/>
+      <c r="B97" s="238"/>
+      <c r="C97" s="238"/>
+      <c r="D97" s="238"/>
+      <c r="E97" s="238"/>
+      <c r="F97" s="238"/>
+      <c r="G97" s="238"/>
+      <c r="H97" s="238"/>
+      <c r="I97" s="238"/>
+      <c r="J97" s="238"/>
+      <c r="K97" s="238"/>
+      <c r="L97" s="238"/>
+      <c r="M97" s="238"/>
+      <c r="N97" s="238"/>
+      <c r="O97" s="238"/>
+      <c r="P97" s="238"/>
+      <c r="Q97" s="238"/>
+      <c r="R97" s="238"/>
+      <c r="S97" s="238"/>
+      <c r="T97" s="238"/>
+      <c r="U97" s="238"/>
+      <c r="V97" s="238"/>
+      <c r="W97" s="238"/>
+      <c r="X97" s="238"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A98" s="224" t="s">
+        <v>442</v>
+      </c>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+      <c r="W98" s="9"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A99" s="224" t="s">
-        <v>442</v>
+      <c r="A99" s="239" t="s">
+        <v>443</v>
       </c>
       <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9"/>
-      <c r="R99" s="9"/>
-      <c r="S99" s="9"/>
-      <c r="T99" s="9"/>
-      <c r="U99" s="9"/>
-      <c r="V99" s="9"/>
-      <c r="W99" s="9"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
+      <c r="Q99" s="14"/>
+      <c r="R99" s="14"/>
+      <c r="S99" s="14"/>
+      <c r="T99" s="14"/>
+      <c r="U99" s="14"/>
+      <c r="V99" s="14"/>
+      <c r="W99" s="14"/>
+      <c r="X99" s="9"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A100" s="239" t="s">
-        <v>443</v>
+      <c r="A100" s="240" t="s">
+        <v>525</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="14"/>
@@ -38852,94 +38858,94 @@
       <c r="W100" s="14"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A101" s="240" t="s">
-        <v>525</v>
-      </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
-      <c r="R101" s="14"/>
-      <c r="S101" s="14"/>
-      <c r="T101" s="14"/>
-      <c r="U101" s="14"/>
-      <c r="V101" s="14"/>
-      <c r="W101" s="14"/>
-      <c r="X101" s="9"/>
-    </row>
-    <row r="102" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="351" t="str">
+    <row r="101" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="358" t="str">
         <f>IF(Calibración!E10="2",Calibración!BJ6,Calibración!BJ7)</f>
         <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
       </c>
-      <c r="B102" s="351"/>
-      <c r="C102" s="351"/>
-      <c r="D102" s="351"/>
-      <c r="E102" s="351"/>
-      <c r="F102" s="351"/>
-      <c r="G102" s="351"/>
-      <c r="H102" s="351"/>
-      <c r="I102" s="351"/>
-      <c r="J102" s="351"/>
-      <c r="K102" s="351"/>
-      <c r="L102" s="351"/>
-      <c r="M102" s="351"/>
-      <c r="N102" s="351"/>
-      <c r="O102" s="351"/>
-      <c r="P102" s="351"/>
-      <c r="Q102" s="351"/>
-      <c r="R102" s="351"/>
-      <c r="S102" s="351"/>
-      <c r="T102" s="351"/>
-      <c r="U102" s="351"/>
-      <c r="V102" s="351"/>
-      <c r="W102" s="351"/>
-      <c r="X102" s="351"/>
+      <c r="B101" s="358"/>
+      <c r="C101" s="358"/>
+      <c r="D101" s="358"/>
+      <c r="E101" s="358"/>
+      <c r="F101" s="358"/>
+      <c r="G101" s="358"/>
+      <c r="H101" s="358"/>
+      <c r="I101" s="358"/>
+      <c r="J101" s="358"/>
+      <c r="K101" s="358"/>
+      <c r="L101" s="358"/>
+      <c r="M101" s="358"/>
+      <c r="N101" s="358"/>
+      <c r="O101" s="358"/>
+      <c r="P101" s="358"/>
+      <c r="Q101" s="358"/>
+      <c r="R101" s="358"/>
+      <c r="S101" s="358"/>
+      <c r="T101" s="358"/>
+      <c r="U101" s="358"/>
+      <c r="V101" s="358"/>
+      <c r="W101" s="358"/>
+      <c r="X101" s="358"/>
+    </row>
+    <row r="102" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="358"/>
+      <c r="B102" s="358"/>
+      <c r="C102" s="358"/>
+      <c r="D102" s="358"/>
+      <c r="E102" s="358"/>
+      <c r="F102" s="358"/>
+      <c r="G102" s="358"/>
+      <c r="H102" s="358"/>
+      <c r="I102" s="358"/>
+      <c r="J102" s="358"/>
+      <c r="K102" s="358"/>
+      <c r="L102" s="358"/>
+      <c r="M102" s="358"/>
+      <c r="N102" s="358"/>
+      <c r="O102" s="358"/>
+      <c r="P102" s="358"/>
+      <c r="Q102" s="358"/>
+      <c r="R102" s="358"/>
+      <c r="S102" s="358"/>
+      <c r="T102" s="358"/>
+      <c r="U102" s="358"/>
+      <c r="V102" s="358"/>
+      <c r="W102" s="358"/>
+      <c r="X102" s="358"/>
     </row>
     <row r="103" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="351"/>
-      <c r="B103" s="351"/>
-      <c r="C103" s="351"/>
-      <c r="D103" s="351"/>
-      <c r="E103" s="351"/>
-      <c r="F103" s="351"/>
-      <c r="G103" s="351"/>
-      <c r="H103" s="351"/>
-      <c r="I103" s="351"/>
-      <c r="J103" s="351"/>
-      <c r="K103" s="351"/>
-      <c r="L103" s="351"/>
-      <c r="M103" s="351"/>
-      <c r="N103" s="351"/>
-      <c r="O103" s="351"/>
-      <c r="P103" s="351"/>
-      <c r="Q103" s="351"/>
-      <c r="R103" s="351"/>
-      <c r="S103" s="351"/>
-      <c r="T103" s="351"/>
-      <c r="U103" s="351"/>
-      <c r="V103" s="351"/>
-      <c r="W103" s="351"/>
-      <c r="X103" s="351"/>
+      <c r="A103" s="239" t="s">
+        <v>444</v>
+      </c>
+      <c r="B103" s="9"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="14"/>
+      <c r="R103" s="14"/>
+      <c r="S103" s="14"/>
+      <c r="T103" s="14"/>
+      <c r="U103" s="14"/>
+      <c r="V103" s="14"/>
+      <c r="W103" s="14"/>
+      <c r="X103" s="9"/>
     </row>
     <row r="104" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="239" t="s">
-        <v>444</v>
-      </c>
-      <c r="B104" s="9"/>
+        <v>445</v>
+      </c>
+      <c r="B104" s="14"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -38963,37 +38969,37 @@
       <c r="W104" s="14"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="239" t="s">
-        <v>445</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="14"/>
-      <c r="N105" s="14"/>
-      <c r="O105" s="14"/>
-      <c r="P105" s="14"/>
-      <c r="Q105" s="14"/>
-      <c r="R105" s="14"/>
-      <c r="S105" s="14"/>
-      <c r="T105" s="14"/>
-      <c r="U105" s="14"/>
-      <c r="V105" s="14"/>
-      <c r="W105" s="14"/>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="9"/>
       <c r="X105" s="9"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -39020,8 +39026,9 @@
       <c r="X106" s="9"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A107" s="9" t="s">
-        <v>696</v>
+      <c r="A107" s="9" t="str">
+        <f>IF(General!F16=General!W124,General!Y131,IF(General!F16=General!W125,General!Y133,IF(General!F16=General!W126,General!Y140,IF(General!F16=General!W127,General!Y121,IF(General!F16=General!W128,General!Y141,IF(General!F16=General!W129,General!Y139,IF(General!F16=General!W130,General!Y125,IF(General!F16=General!W131,General!Y136,IF(General!F16=General!W132,General!Y137,IF(General!F16=General!W133,General!Y138,IF(General!F16=General!W134,General!Y147,IF(General!F16=General!W135,General!Y148,IF(General!F16=General!W136,General!Y134,IF(General!F16=General!W137,General!Y145,IF(General!F16=General!W138,General!Y149)))))))))))))))</f>
+        <v>El factor de conversión al SI corresponde a 1 psi = 6,894 757 kPa</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -39039,8 +39046,8 @@
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
       <c r="Q107" s="9"/>
-      <c r="R107" s="9"/>
-      <c r="S107" s="9"/>
+      <c r="R107" s="14"/>
+      <c r="S107" s="14"/>
       <c r="T107" s="9"/>
       <c r="U107" s="9"/>
       <c r="V107" s="9"/>
@@ -39048,9 +39055,8 @@
       <c r="X107" s="9"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A108" s="9" t="str">
-        <f>IF(General!F16=General!W124,General!Y131,IF(General!F16=General!W125,General!Y133,IF(General!F16=General!W126,General!Y140,IF(General!F16=General!W127,General!Y121,IF(General!F16=General!W128,General!Y141,IF(General!F16=General!W129,General!Y139,IF(General!F16=General!W130,General!Y125,IF(General!F16=General!W131,General!Y136,IF(General!F16=General!W132,General!Y137,IF(General!F16=General!W133,General!Y138,IF(General!F16=General!W134,General!Y147,IF(General!F16=General!W135,General!Y148,IF(General!F16=General!W136,General!Y134,IF(General!F16=General!W137,General!Y145,IF(General!F16=General!W138,General!Y149)))))))))))))))</f>
-        <v>El factor de conversión al SI corresponde a 1 psi = 6,894 757 kPa</v>
+      <c r="A108" s="240" t="s">
+        <v>527</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -39070,136 +39076,148 @@
       <c r="Q108" s="9"/>
       <c r="R108" s="14"/>
       <c r="S108" s="14"/>
-      <c r="T108" s="9"/>
-      <c r="U108" s="9"/>
-      <c r="V108" s="9"/>
+      <c r="T108" s="14"/>
+      <c r="U108" s="14"/>
+      <c r="V108" s="14"/>
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A109" s="240" t="s">
-        <v>527</v>
-      </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-      <c r="M109" s="9"/>
-      <c r="N109" s="9"/>
-      <c r="O109" s="9"/>
-      <c r="P109" s="9"/>
-      <c r="Q109" s="9"/>
-      <c r="R109" s="14"/>
-      <c r="S109" s="14"/>
-      <c r="T109" s="14"/>
-      <c r="U109" s="14"/>
-      <c r="V109" s="14"/>
-      <c r="W109" s="9"/>
-      <c r="X109" s="9"/>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y111" s="9"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I112" s="373" t="s">
+        <v>30</v>
+      </c>
+      <c r="J112" s="373"/>
+      <c r="K112" s="373"/>
+      <c r="L112" s="373"/>
+      <c r="M112" s="373"/>
+      <c r="N112" s="373"/>
+      <c r="O112" s="373"/>
+      <c r="P112" s="373"/>
       <c r="Y112" s="9"/>
     </row>
-    <row r="113" spans="9:25" x14ac:dyDescent="0.3">
-      <c r="I113" s="341" t="s">
-        <v>30</v>
-      </c>
-      <c r="J113" s="341"/>
-      <c r="K113" s="341"/>
-      <c r="L113" s="341"/>
-      <c r="M113" s="341"/>
-      <c r="N113" s="341"/>
-      <c r="O113" s="341"/>
-      <c r="P113" s="341"/>
-      <c r="Y113" s="9"/>
-    </row>
-    <row r="114" spans="9:25" x14ac:dyDescent="0.3">
-      <c r="I114" s="342" t="str">
-        <f>IF(I113=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
+    <row r="113" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I113" s="374" t="str">
+        <f>IF(I112=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
         <v>Director Técnico</v>
       </c>
-      <c r="J114" s="342"/>
-      <c r="K114" s="342"/>
-      <c r="L114" s="342"/>
-      <c r="M114" s="342"/>
-      <c r="N114" s="342"/>
-      <c r="O114" s="342"/>
-      <c r="P114" s="342"/>
-    </row>
-    <row r="115" spans="9:25" x14ac:dyDescent="0.3">
-      <c r="I115" s="343" t="s">
+      <c r="J113" s="374"/>
+      <c r="K113" s="374"/>
+      <c r="L113" s="374"/>
+      <c r="M113" s="374"/>
+      <c r="N113" s="374"/>
+      <c r="O113" s="374"/>
+      <c r="P113" s="374"/>
+    </row>
+    <row r="114" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I114" s="375" t="s">
         <v>446</v>
       </c>
-      <c r="J115" s="343"/>
-      <c r="K115" s="343"/>
-      <c r="L115" s="343"/>
-      <c r="M115" s="343"/>
-      <c r="N115" s="343"/>
-      <c r="O115" s="343"/>
-      <c r="P115" s="343"/>
-    </row>
-    <row r="116" spans="9:25" x14ac:dyDescent="0.3">
-      <c r="I116" s="344" t="s">
+      <c r="J114" s="375"/>
+      <c r="K114" s="375"/>
+      <c r="L114" s="375"/>
+      <c r="M114" s="375"/>
+      <c r="N114" s="375"/>
+      <c r="O114" s="375"/>
+      <c r="P114" s="375"/>
+    </row>
+    <row r="115" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I115" s="376" t="s">
         <v>447</v>
       </c>
-      <c r="J116" s="344"/>
-      <c r="K116" s="344"/>
-      <c r="L116" s="344"/>
-      <c r="M116" s="344"/>
-      <c r="N116" s="344"/>
-      <c r="O116" s="344"/>
-      <c r="P116" s="344"/>
+      <c r="J115" s="376"/>
+      <c r="K115" s="376"/>
+      <c r="L115" s="376"/>
+      <c r="M115" s="376"/>
+      <c r="N115" s="376"/>
+      <c r="O115" s="376"/>
+      <c r="P115" s="376"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="L72:Q72"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="L74:Q74"/>
-    <mergeCell ref="F72:K72"/>
-    <mergeCell ref="F73:K73"/>
-    <mergeCell ref="F74:K74"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="R35:W35"/>
-    <mergeCell ref="R36:W36"/>
-    <mergeCell ref="R37:W37"/>
-    <mergeCell ref="L35:Q35"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="L37:Q37"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N21:X22"/>
-    <mergeCell ref="D24:W24"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="F25:K26"/>
-    <mergeCell ref="L25:Q26"/>
-    <mergeCell ref="R25:W26"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="I112:P112"/>
+    <mergeCell ref="I113:P113"/>
+    <mergeCell ref="I114:P114"/>
+    <mergeCell ref="I115:P115"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="O96:T96"/>
+    <mergeCell ref="U96:X96"/>
+    <mergeCell ref="A101:X102"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="O94:T94"/>
+    <mergeCell ref="U94:X94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="O95:T95"/>
+    <mergeCell ref="U95:X95"/>
+    <mergeCell ref="A83:X83"/>
+    <mergeCell ref="A86:X90"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="O93:T93"/>
+    <mergeCell ref="U93:X93"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:K70"/>
+    <mergeCell ref="L70:Q70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="N76:X76"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="R73:W73"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:K69"/>
+    <mergeCell ref="L69:Q69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:K66"/>
+    <mergeCell ref="L66:Q66"/>
+    <mergeCell ref="R66:W66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:K67"/>
+    <mergeCell ref="L67:Q67"/>
+    <mergeCell ref="R67:W67"/>
+    <mergeCell ref="R64:W64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:K65"/>
+    <mergeCell ref="L65:Q65"/>
+    <mergeCell ref="R65:W65"/>
+    <mergeCell ref="D60:W60"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="F61:K62"/>
+    <mergeCell ref="L61:Q62"/>
+    <mergeCell ref="R61:W62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="R63:W63"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="R32:W32"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:K29"/>
     <mergeCell ref="L29:Q29"/>
@@ -39216,100 +39234,60 @@
     <mergeCell ref="F28:K28"/>
     <mergeCell ref="L28:Q28"/>
     <mergeCell ref="R28:W28"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:K65"/>
-    <mergeCell ref="L65:Q65"/>
-    <mergeCell ref="R65:W65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:K66"/>
-    <mergeCell ref="L66:Q66"/>
-    <mergeCell ref="R66:W66"/>
-    <mergeCell ref="D61:W61"/>
-    <mergeCell ref="D62:E63"/>
-    <mergeCell ref="F62:K63"/>
-    <mergeCell ref="L62:Q63"/>
-    <mergeCell ref="R62:W63"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="F25:K26"/>
+    <mergeCell ref="L25:Q26"/>
+    <mergeCell ref="R25:W26"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N21:X22"/>
+    <mergeCell ref="D24:W24"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="R35:W35"/>
+    <mergeCell ref="R36:W36"/>
+    <mergeCell ref="R37:W37"/>
+    <mergeCell ref="L35:Q35"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="L37:Q37"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="L71:Q71"/>
+    <mergeCell ref="L72:Q72"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="F71:K71"/>
+    <mergeCell ref="F72:K72"/>
+    <mergeCell ref="F73:K73"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="F64:K64"/>
     <mergeCell ref="L64:Q64"/>
-    <mergeCell ref="R64:W64"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:K69"/>
-    <mergeCell ref="L69:Q69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:K70"/>
-    <mergeCell ref="L70:Q70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:K67"/>
-    <mergeCell ref="L67:Q67"/>
-    <mergeCell ref="R67:W67"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="F68:K68"/>
     <mergeCell ref="L68:Q68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="A84:X84"/>
-    <mergeCell ref="A87:X91"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="O94:T94"/>
-    <mergeCell ref="U94:X94"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:K71"/>
-    <mergeCell ref="L71:Q71"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="N77:X77"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="R73:W73"/>
-    <mergeCell ref="R74:W74"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="O95:T95"/>
-    <mergeCell ref="U95:X95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="O96:T96"/>
-    <mergeCell ref="U96:X96"/>
-    <mergeCell ref="I113:P113"/>
-    <mergeCell ref="I114:P114"/>
-    <mergeCell ref="I115:P115"/>
-    <mergeCell ref="I116:P116"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="O97:T97"/>
-    <mergeCell ref="U97:X97"/>
-    <mergeCell ref="A102:X103"/>
   </mergeCells>
-  <conditionalFormatting sqref="A106">
+  <conditionalFormatting sqref="A105">
     <cfRule type="cellIs" priority="1" operator="equal">
       <formula>$D$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
+  <conditionalFormatting sqref="A106">
     <cfRule type="cellIs" priority="2" operator="equal">
       <formula>$F$26</formula>
     </cfRule>
@@ -39331,7 +39309,7 @@
           <x14:formula1>
             <xm:f>'F:\SGC Vigente 2018-07-14\Clientes\Certificados\2018\Dentro de alcance\Presión\[NI-R02-MCIT-P-01 Hoja electrónica para procesamiento de datos manómetros y vacuómetros v2 2018-03-11.xlsx]Generales'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I113:P113</xm:sqref>
+          <xm:sqref>I112:P112</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -39389,20 +39367,20 @@
       <c r="K8" s="227"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="374" t="str">
+      <c r="N8" s="345" t="str">
         <f>General!F3</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O8" s="362"/>
-      <c r="P8" s="362"/>
-      <c r="Q8" s="362"/>
-      <c r="R8" s="362"/>
-      <c r="S8" s="362"/>
-      <c r="T8" s="362"/>
-      <c r="U8" s="362"/>
-      <c r="V8" s="362"/>
-      <c r="W8" s="362"/>
-      <c r="X8" s="362"/>
+      <c r="O8" s="346"/>
+      <c r="P8" s="346"/>
+      <c r="Q8" s="346"/>
+      <c r="R8" s="346"/>
+      <c r="S8" s="346"/>
+      <c r="T8" s="346"/>
+      <c r="U8" s="346"/>
+      <c r="V8" s="346"/>
+      <c r="W8" s="346"/>
+      <c r="X8" s="346"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="224" t="s">
@@ -39419,20 +39397,20 @@
       <c r="K9" s="227"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="373" t="str">
+      <c r="N9" s="347" t="str">
         <f>General!F4</f>
         <v>NI-CS-XXXX-XX</v>
       </c>
-      <c r="O9" s="364"/>
-      <c r="P9" s="364"/>
-      <c r="Q9" s="364"/>
-      <c r="R9" s="364"/>
-      <c r="S9" s="364"/>
-      <c r="T9" s="364"/>
-      <c r="U9" s="364"/>
-      <c r="V9" s="364"/>
-      <c r="W9" s="364"/>
-      <c r="X9" s="364"/>
+      <c r="O9" s="348"/>
+      <c r="P9" s="348"/>
+      <c r="Q9" s="348"/>
+      <c r="R9" s="348"/>
+      <c r="S9" s="348"/>
+      <c r="T9" s="348"/>
+      <c r="U9" s="348"/>
+      <c r="V9" s="348"/>
+      <c r="W9" s="348"/>
+      <c r="X9" s="348"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="224" t="s">
@@ -39449,20 +39427,20 @@
       <c r="K10" s="227"/>
       <c r="L10" s="228"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="375">
+      <c r="N10" s="349">
         <f>General!F5</f>
         <v>43299</v>
       </c>
-      <c r="O10" s="375"/>
-      <c r="P10" s="375"/>
-      <c r="Q10" s="375"/>
-      <c r="R10" s="375"/>
-      <c r="S10" s="375"/>
-      <c r="T10" s="375"/>
-      <c r="U10" s="375"/>
-      <c r="V10" s="375"/>
-      <c r="W10" s="375"/>
-      <c r="X10" s="375"/>
+      <c r="O10" s="349"/>
+      <c r="P10" s="349"/>
+      <c r="Q10" s="349"/>
+      <c r="R10" s="349"/>
+      <c r="S10" s="349"/>
+      <c r="T10" s="349"/>
+      <c r="U10" s="349"/>
+      <c r="V10" s="349"/>
+      <c r="W10" s="349"/>
+      <c r="X10" s="349"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="224" t="s">
@@ -39479,12 +39457,12 @@
       <c r="K11" s="227"/>
       <c r="L11" s="228"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="375">
+      <c r="N11" s="349">
         <v>43610.729139583331</v>
       </c>
-      <c r="O11" s="375"/>
-      <c r="P11" s="375"/>
-      <c r="Q11" s="375"/>
+      <c r="O11" s="349"/>
+      <c r="P11" s="349"/>
+      <c r="Q11" s="349"/>
       <c r="R11" s="279"/>
       <c r="S11" s="279"/>
       <c r="T11" s="279"/>
@@ -39508,20 +39486,20 @@
       <c r="K12" s="227"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="373" t="str">
+      <c r="N12" s="347" t="str">
         <f>General!F7</f>
         <v xml:space="preserve">Manómetro </v>
       </c>
-      <c r="O12" s="364"/>
-      <c r="P12" s="364"/>
-      <c r="Q12" s="364"/>
-      <c r="R12" s="364"/>
-      <c r="S12" s="364"/>
-      <c r="T12" s="364"/>
-      <c r="U12" s="364"/>
-      <c r="V12" s="364"/>
-      <c r="W12" s="364"/>
-      <c r="X12" s="364"/>
+      <c r="O12" s="348"/>
+      <c r="P12" s="348"/>
+      <c r="Q12" s="348"/>
+      <c r="R12" s="348"/>
+      <c r="S12" s="348"/>
+      <c r="T12" s="348"/>
+      <c r="U12" s="348"/>
+      <c r="V12" s="348"/>
+      <c r="W12" s="348"/>
+      <c r="X12" s="348"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="224" t="s">
@@ -39538,20 +39516,20 @@
       <c r="K13" s="227"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="373" t="str">
+      <c r="N13" s="347" t="str">
         <f>General!F10</f>
         <v>HEISE</v>
       </c>
-      <c r="O13" s="364"/>
-      <c r="P13" s="364"/>
-      <c r="Q13" s="364"/>
-      <c r="R13" s="364"/>
-      <c r="S13" s="364"/>
-      <c r="T13" s="364"/>
-      <c r="U13" s="364"/>
-      <c r="V13" s="364"/>
-      <c r="W13" s="364"/>
-      <c r="X13" s="364"/>
+      <c r="O13" s="348"/>
+      <c r="P13" s="348"/>
+      <c r="Q13" s="348"/>
+      <c r="R13" s="348"/>
+      <c r="S13" s="348"/>
+      <c r="T13" s="348"/>
+      <c r="U13" s="348"/>
+      <c r="V13" s="348"/>
+      <c r="W13" s="348"/>
+      <c r="X13" s="348"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="224" t="s">
@@ -39568,20 +39546,20 @@
       <c r="K14" s="227"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="373" t="str">
+      <c r="N14" s="347" t="str">
         <f>General!F12</f>
         <v>706340</v>
       </c>
-      <c r="O14" s="364"/>
-      <c r="P14" s="364"/>
-      <c r="Q14" s="364"/>
-      <c r="R14" s="364"/>
-      <c r="S14" s="364"/>
-      <c r="T14" s="364"/>
-      <c r="U14" s="364"/>
-      <c r="V14" s="364"/>
-      <c r="W14" s="364"/>
-      <c r="X14" s="364"/>
+      <c r="O14" s="348"/>
+      <c r="P14" s="348"/>
+      <c r="Q14" s="348"/>
+      <c r="R14" s="348"/>
+      <c r="S14" s="348"/>
+      <c r="T14" s="348"/>
+      <c r="U14" s="348"/>
+      <c r="V14" s="348"/>
+      <c r="W14" s="348"/>
+      <c r="X14" s="348"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="224" t="s">
@@ -39598,20 +39576,20 @@
       <c r="K15" s="227"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="373" t="str">
+      <c r="N15" s="347" t="str">
         <f>General!F11</f>
         <v>CC</v>
       </c>
-      <c r="O15" s="364"/>
-      <c r="P15" s="364"/>
-      <c r="Q15" s="364"/>
-      <c r="R15" s="364"/>
-      <c r="S15" s="364"/>
-      <c r="T15" s="364"/>
-      <c r="U15" s="364"/>
-      <c r="V15" s="364"/>
-      <c r="W15" s="364"/>
-      <c r="X15" s="364"/>
+      <c r="O15" s="348"/>
+      <c r="P15" s="348"/>
+      <c r="Q15" s="348"/>
+      <c r="R15" s="348"/>
+      <c r="S15" s="348"/>
+      <c r="T15" s="348"/>
+      <c r="U15" s="348"/>
+      <c r="V15" s="348"/>
+      <c r="W15" s="348"/>
+      <c r="X15" s="348"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="224" t="s">
@@ -39628,20 +39606,20 @@
       <c r="K16" s="227"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="373" t="str">
+      <c r="N16" s="347" t="str">
         <f>General!F18</f>
         <v>0 psi a 200 psi</v>
       </c>
-      <c r="O16" s="364"/>
-      <c r="P16" s="364"/>
-      <c r="Q16" s="364"/>
-      <c r="R16" s="364"/>
-      <c r="S16" s="364"/>
-      <c r="T16" s="364"/>
-      <c r="U16" s="364"/>
-      <c r="V16" s="364"/>
-      <c r="W16" s="364"/>
-      <c r="X16" s="364"/>
+      <c r="O16" s="348"/>
+      <c r="P16" s="348"/>
+      <c r="Q16" s="348"/>
+      <c r="R16" s="348"/>
+      <c r="S16" s="348"/>
+      <c r="T16" s="348"/>
+      <c r="U16" s="348"/>
+      <c r="V16" s="348"/>
+      <c r="W16" s="348"/>
+      <c r="X16" s="348"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="224" t="s">
@@ -39658,16 +39636,16 @@
       <c r="K17" s="227"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="373" t="str">
+      <c r="N17" s="347" t="str">
         <f>General!F15</f>
         <v>1</v>
       </c>
-      <c r="O17" s="364"/>
-      <c r="P17" s="373" t="str">
+      <c r="O17" s="348"/>
+      <c r="P17" s="347" t="str">
         <f>General!F16</f>
         <v>psi</v>
       </c>
-      <c r="Q17" s="364"/>
+      <c r="Q17" s="348"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -39691,20 +39669,20 @@
       <c r="K18" s="227"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="373" t="str">
+      <c r="N18" s="347" t="str">
         <f>General!F6</f>
         <v>706340</v>
       </c>
-      <c r="O18" s="364"/>
-      <c r="P18" s="364"/>
-      <c r="Q18" s="364"/>
-      <c r="R18" s="364"/>
-      <c r="S18" s="364"/>
-      <c r="T18" s="364"/>
-      <c r="U18" s="364"/>
-      <c r="V18" s="364"/>
-      <c r="W18" s="364"/>
-      <c r="X18" s="364"/>
+      <c r="O18" s="348"/>
+      <c r="P18" s="348"/>
+      <c r="Q18" s="348"/>
+      <c r="R18" s="348"/>
+      <c r="S18" s="348"/>
+      <c r="T18" s="348"/>
+      <c r="U18" s="348"/>
+      <c r="V18" s="348"/>
+      <c r="W18" s="348"/>
+      <c r="X18" s="348"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="224" t="s">
@@ -39721,20 +39699,20 @@
       <c r="K19" s="227"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="373" t="str">
+      <c r="N19" s="347" t="str">
         <f>General!L3</f>
         <v xml:space="preserve">A&amp;T Nicaragua S.A. </v>
       </c>
-      <c r="O19" s="364"/>
-      <c r="P19" s="364"/>
-      <c r="Q19" s="364"/>
-      <c r="R19" s="364"/>
-      <c r="S19" s="364"/>
-      <c r="T19" s="364"/>
-      <c r="U19" s="364"/>
-      <c r="V19" s="364"/>
-      <c r="W19" s="364"/>
-      <c r="X19" s="364"/>
+      <c r="O19" s="348"/>
+      <c r="P19" s="348"/>
+      <c r="Q19" s="348"/>
+      <c r="R19" s="348"/>
+      <c r="S19" s="348"/>
+      <c r="T19" s="348"/>
+      <c r="U19" s="348"/>
+      <c r="V19" s="348"/>
+      <c r="W19" s="348"/>
+      <c r="X19" s="348"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
@@ -39751,20 +39729,20 @@
       <c r="K20" s="227"/>
       <c r="L20" s="10"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="364" t="str">
+      <c r="N20" s="348" t="str">
         <f>General!L4</f>
         <v xml:space="preserve">Coyotepe, 800 m norte               </v>
       </c>
-      <c r="O20" s="364"/>
-      <c r="P20" s="364"/>
-      <c r="Q20" s="364"/>
-      <c r="R20" s="364"/>
-      <c r="S20" s="364"/>
-      <c r="T20" s="364"/>
-      <c r="U20" s="364"/>
-      <c r="V20" s="364"/>
-      <c r="W20" s="364"/>
-      <c r="X20" s="364"/>
+      <c r="O20" s="348"/>
+      <c r="P20" s="348"/>
+      <c r="Q20" s="348"/>
+      <c r="R20" s="348"/>
+      <c r="S20" s="348"/>
+      <c r="T20" s="348"/>
+      <c r="U20" s="348"/>
+      <c r="V20" s="348"/>
+      <c r="W20" s="348"/>
+      <c r="X20" s="348"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="224" t="s">
@@ -39781,34 +39759,34 @@
       <c r="K21" s="227"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="376" t="str">
+      <c r="N21" s="350" t="str">
         <f>General!L6</f>
         <v xml:space="preserve">Laboratorio #2 Metrocal </v>
       </c>
-      <c r="O21" s="376"/>
-      <c r="P21" s="376"/>
-      <c r="Q21" s="376"/>
-      <c r="R21" s="376"/>
-      <c r="S21" s="376"/>
-      <c r="T21" s="376"/>
-      <c r="U21" s="376"/>
-      <c r="V21" s="376"/>
-      <c r="W21" s="376"/>
-      <c r="X21" s="376"/>
+      <c r="O21" s="350"/>
+      <c r="P21" s="350"/>
+      <c r="Q21" s="350"/>
+      <c r="R21" s="350"/>
+      <c r="S21" s="350"/>
+      <c r="T21" s="350"/>
+      <c r="U21" s="350"/>
+      <c r="V21" s="350"/>
+      <c r="W21" s="350"/>
+      <c r="X21" s="350"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="224"/>
-      <c r="N22" s="376"/>
-      <c r="O22" s="376"/>
-      <c r="P22" s="376"/>
-      <c r="Q22" s="376"/>
-      <c r="R22" s="376"/>
-      <c r="S22" s="376"/>
-      <c r="T22" s="376"/>
-      <c r="U22" s="376"/>
-      <c r="V22" s="376"/>
-      <c r="W22" s="376"/>
-      <c r="X22" s="376"/>
+      <c r="N22" s="350"/>
+      <c r="O22" s="350"/>
+      <c r="P22" s="350"/>
+      <c r="Q22" s="350"/>
+      <c r="R22" s="350"/>
+      <c r="S22" s="350"/>
+      <c r="T22" s="350"/>
+      <c r="U22" s="350"/>
+      <c r="V22" s="350"/>
+      <c r="W22" s="350"/>
+      <c r="X22" s="350"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="224"/>
@@ -39837,376 +39815,376 @@
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="366" t="s">
+      <c r="D25" s="351" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="366"/>
-      <c r="F25" s="366"/>
-      <c r="G25" s="366"/>
-      <c r="H25" s="366"/>
-      <c r="I25" s="366"/>
-      <c r="J25" s="366"/>
-      <c r="K25" s="366"/>
-      <c r="L25" s="366"/>
-      <c r="M25" s="366"/>
-      <c r="N25" s="366"/>
-      <c r="O25" s="366"/>
-      <c r="P25" s="366"/>
-      <c r="Q25" s="366"/>
-      <c r="R25" s="366"/>
-      <c r="S25" s="366"/>
-      <c r="T25" s="366"/>
-      <c r="U25" s="366"/>
-      <c r="V25" s="366"/>
-      <c r="W25" s="366"/>
+      <c r="E25" s="351"/>
+      <c r="F25" s="351"/>
+      <c r="G25" s="351"/>
+      <c r="H25" s="351"/>
+      <c r="I25" s="351"/>
+      <c r="J25" s="351"/>
+      <c r="K25" s="351"/>
+      <c r="L25" s="351"/>
+      <c r="M25" s="351"/>
+      <c r="N25" s="351"/>
+      <c r="O25" s="351"/>
+      <c r="P25" s="351"/>
+      <c r="Q25" s="351"/>
+      <c r="R25" s="351"/>
+      <c r="S25" s="351"/>
+      <c r="T25" s="351"/>
+      <c r="U25" s="351"/>
+      <c r="V25" s="351"/>
+      <c r="W25" s="351"/>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="367" t="s">
+      <c r="D26" s="352" t="s">
         <v>360</v>
       </c>
-      <c r="E26" s="367"/>
-      <c r="F26" s="368" t="s">
+      <c r="E26" s="352"/>
+      <c r="F26" s="353" t="s">
         <v>425</v>
       </c>
-      <c r="G26" s="368"/>
-      <c r="H26" s="368"/>
-      <c r="I26" s="368"/>
-      <c r="J26" s="368"/>
-      <c r="K26" s="368"/>
-      <c r="L26" s="368" t="s">
+      <c r="G26" s="353"/>
+      <c r="H26" s="353"/>
+      <c r="I26" s="353"/>
+      <c r="J26" s="353"/>
+      <c r="K26" s="353"/>
+      <c r="L26" s="353" t="s">
         <v>96</v>
       </c>
-      <c r="M26" s="368"/>
-      <c r="N26" s="368"/>
-      <c r="O26" s="368"/>
-      <c r="P26" s="368"/>
-      <c r="Q26" s="368"/>
-      <c r="R26" s="367" t="s">
+      <c r="M26" s="353"/>
+      <c r="N26" s="353"/>
+      <c r="O26" s="353"/>
+      <c r="P26" s="353"/>
+      <c r="Q26" s="353"/>
+      <c r="R26" s="352" t="s">
         <v>426</v>
       </c>
-      <c r="S26" s="367"/>
-      <c r="T26" s="367"/>
-      <c r="U26" s="367"/>
-      <c r="V26" s="367"/>
-      <c r="W26" s="367"/>
+      <c r="S26" s="352"/>
+      <c r="T26" s="352"/>
+      <c r="U26" s="352"/>
+      <c r="V26" s="352"/>
+      <c r="W26" s="352"/>
     </row>
     <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="367"/>
-      <c r="E27" s="367"/>
-      <c r="F27" s="368"/>
-      <c r="G27" s="368"/>
-      <c r="H27" s="368"/>
-      <c r="I27" s="368"/>
-      <c r="J27" s="368"/>
-      <c r="K27" s="368"/>
-      <c r="L27" s="368"/>
-      <c r="M27" s="368"/>
-      <c r="N27" s="368"/>
-      <c r="O27" s="368"/>
-      <c r="P27" s="368"/>
-      <c r="Q27" s="368"/>
-      <c r="R27" s="367"/>
-      <c r="S27" s="367"/>
-      <c r="T27" s="367"/>
-      <c r="U27" s="367"/>
-      <c r="V27" s="367"/>
-      <c r="W27" s="367"/>
+      <c r="D27" s="352"/>
+      <c r="E27" s="352"/>
+      <c r="F27" s="353"/>
+      <c r="G27" s="353"/>
+      <c r="H27" s="353"/>
+      <c r="I27" s="353"/>
+      <c r="J27" s="353"/>
+      <c r="K27" s="353"/>
+      <c r="L27" s="353"/>
+      <c r="M27" s="353"/>
+      <c r="N27" s="353"/>
+      <c r="O27" s="353"/>
+      <c r="P27" s="353"/>
+      <c r="Q27" s="353"/>
+      <c r="R27" s="352"/>
+      <c r="S27" s="352"/>
+      <c r="T27" s="352"/>
+      <c r="U27" s="352"/>
+      <c r="V27" s="352"/>
+      <c r="W27" s="352"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="369" t="str">
+      <c r="D28" s="354" t="str">
         <f>Calibración!C37</f>
         <v>psi</v>
       </c>
-      <c r="E28" s="369"/>
-      <c r="F28" s="370" t="str">
+      <c r="E28" s="354"/>
+      <c r="F28" s="355" t="str">
         <f>Calibración!D37</f>
         <v>psi</v>
       </c>
-      <c r="G28" s="371"/>
-      <c r="H28" s="371"/>
-      <c r="I28" s="371"/>
-      <c r="J28" s="371"/>
-      <c r="K28" s="372"/>
-      <c r="L28" s="370" t="str">
+      <c r="G28" s="356"/>
+      <c r="H28" s="356"/>
+      <c r="I28" s="356"/>
+      <c r="J28" s="356"/>
+      <c r="K28" s="357"/>
+      <c r="L28" s="355" t="str">
         <f>Calibración!E37</f>
         <v>psi</v>
       </c>
-      <c r="M28" s="371"/>
-      <c r="N28" s="371"/>
-      <c r="O28" s="371"/>
-      <c r="P28" s="371"/>
-      <c r="Q28" s="372"/>
-      <c r="R28" s="370" t="str">
+      <c r="M28" s="356"/>
+      <c r="N28" s="356"/>
+      <c r="O28" s="356"/>
+      <c r="P28" s="356"/>
+      <c r="Q28" s="357"/>
+      <c r="R28" s="355" t="str">
         <f>Calibración!F37</f>
         <v>psi</v>
       </c>
-      <c r="S28" s="371"/>
-      <c r="T28" s="371"/>
-      <c r="U28" s="371"/>
-      <c r="V28" s="371"/>
-      <c r="W28" s="372"/>
+      <c r="S28" s="356"/>
+      <c r="T28" s="356"/>
+      <c r="U28" s="356"/>
+      <c r="V28" s="356"/>
+      <c r="W28" s="357"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="358" t="str">
+      <c r="D29" s="341" t="str">
         <f ca="1">Calibración!C38</f>
         <v/>
       </c>
-      <c r="E29" s="358"/>
-      <c r="F29" s="359" t="str">
+      <c r="E29" s="341"/>
+      <c r="F29" s="342" t="str">
         <f ca="1">Calibración!D38</f>
         <v/>
       </c>
-      <c r="G29" s="360"/>
-      <c r="H29" s="360"/>
-      <c r="I29" s="360"/>
-      <c r="J29" s="360"/>
-      <c r="K29" s="361"/>
-      <c r="L29" s="359" t="str">
+      <c r="G29" s="343"/>
+      <c r="H29" s="343"/>
+      <c r="I29" s="343"/>
+      <c r="J29" s="343"/>
+      <c r="K29" s="344"/>
+      <c r="L29" s="342" t="str">
         <f ca="1">Calibración!E38</f>
         <v/>
       </c>
-      <c r="M29" s="360"/>
-      <c r="N29" s="360"/>
-      <c r="O29" s="360"/>
-      <c r="P29" s="360"/>
-      <c r="Q29" s="361"/>
-      <c r="R29" s="359" t="str">
+      <c r="M29" s="343"/>
+      <c r="N29" s="343"/>
+      <c r="O29" s="343"/>
+      <c r="P29" s="343"/>
+      <c r="Q29" s="344"/>
+      <c r="R29" s="342" t="str">
         <f ca="1">Calibración!F38</f>
         <v/>
       </c>
-      <c r="S29" s="360"/>
-      <c r="T29" s="360"/>
-      <c r="U29" s="360"/>
-      <c r="V29" s="360"/>
-      <c r="W29" s="361"/>
+      <c r="S29" s="343"/>
+      <c r="T29" s="343"/>
+      <c r="U29" s="343"/>
+      <c r="V29" s="343"/>
+      <c r="W29" s="344"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="358" t="str">
+      <c r="D30" s="341" t="str">
         <f ca="1">Calibración!C39</f>
         <v/>
       </c>
-      <c r="E30" s="358"/>
-      <c r="F30" s="359" t="str">
+      <c r="E30" s="341"/>
+      <c r="F30" s="342" t="str">
         <f ca="1">Calibración!D39</f>
         <v/>
       </c>
-      <c r="G30" s="360"/>
-      <c r="H30" s="360"/>
-      <c r="I30" s="360"/>
-      <c r="J30" s="360"/>
-      <c r="K30" s="361"/>
-      <c r="L30" s="359" t="str">
+      <c r="G30" s="343"/>
+      <c r="H30" s="343"/>
+      <c r="I30" s="343"/>
+      <c r="J30" s="343"/>
+      <c r="K30" s="344"/>
+      <c r="L30" s="342" t="str">
         <f ca="1">Calibración!E39</f>
         <v/>
       </c>
-      <c r="M30" s="360"/>
-      <c r="N30" s="360"/>
-      <c r="O30" s="360"/>
-      <c r="P30" s="360"/>
-      <c r="Q30" s="361"/>
-      <c r="R30" s="359" t="str">
+      <c r="M30" s="343"/>
+      <c r="N30" s="343"/>
+      <c r="O30" s="343"/>
+      <c r="P30" s="343"/>
+      <c r="Q30" s="344"/>
+      <c r="R30" s="342" t="str">
         <f ca="1">Calibración!F39</f>
         <v/>
       </c>
-      <c r="S30" s="360"/>
-      <c r="T30" s="360"/>
-      <c r="U30" s="360"/>
-      <c r="V30" s="360"/>
-      <c r="W30" s="361"/>
+      <c r="S30" s="343"/>
+      <c r="T30" s="343"/>
+      <c r="U30" s="343"/>
+      <c r="V30" s="343"/>
+      <c r="W30" s="344"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="358" t="str">
+      <c r="D31" s="341" t="str">
         <f ca="1">Calibración!C40</f>
         <v/>
       </c>
-      <c r="E31" s="358"/>
-      <c r="F31" s="359" t="str">
+      <c r="E31" s="341"/>
+      <c r="F31" s="342" t="str">
         <f ca="1">Calibración!D40</f>
         <v/>
       </c>
-      <c r="G31" s="360"/>
-      <c r="H31" s="360"/>
-      <c r="I31" s="360"/>
-      <c r="J31" s="360"/>
-      <c r="K31" s="361"/>
-      <c r="L31" s="359" t="str">
+      <c r="G31" s="343"/>
+      <c r="H31" s="343"/>
+      <c r="I31" s="343"/>
+      <c r="J31" s="343"/>
+      <c r="K31" s="344"/>
+      <c r="L31" s="342" t="str">
         <f ca="1">Calibración!E40</f>
         <v/>
       </c>
-      <c r="M31" s="360"/>
-      <c r="N31" s="360"/>
-      <c r="O31" s="360"/>
-      <c r="P31" s="360"/>
-      <c r="Q31" s="361"/>
-      <c r="R31" s="359" t="str">
+      <c r="M31" s="343"/>
+      <c r="N31" s="343"/>
+      <c r="O31" s="343"/>
+      <c r="P31" s="343"/>
+      <c r="Q31" s="344"/>
+      <c r="R31" s="342" t="str">
         <f ca="1">Calibración!F40</f>
         <v/>
       </c>
-      <c r="S31" s="360"/>
-      <c r="T31" s="360"/>
-      <c r="U31" s="360"/>
-      <c r="V31" s="360"/>
-      <c r="W31" s="361"/>
+      <c r="S31" s="343"/>
+      <c r="T31" s="343"/>
+      <c r="U31" s="343"/>
+      <c r="V31" s="343"/>
+      <c r="W31" s="344"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="358" t="str">
+      <c r="D32" s="341" t="str">
         <f ca="1">Calibración!C41</f>
         <v/>
       </c>
-      <c r="E32" s="358"/>
-      <c r="F32" s="359" t="str">
+      <c r="E32" s="341"/>
+      <c r="F32" s="342" t="str">
         <f ca="1">Calibración!D41</f>
         <v/>
       </c>
-      <c r="G32" s="360"/>
-      <c r="H32" s="360"/>
-      <c r="I32" s="360"/>
-      <c r="J32" s="360"/>
-      <c r="K32" s="361"/>
-      <c r="L32" s="359" t="str">
+      <c r="G32" s="343"/>
+      <c r="H32" s="343"/>
+      <c r="I32" s="343"/>
+      <c r="J32" s="343"/>
+      <c r="K32" s="344"/>
+      <c r="L32" s="342" t="str">
         <f ca="1">Calibración!E41</f>
         <v/>
       </c>
-      <c r="M32" s="360"/>
-      <c r="N32" s="360"/>
-      <c r="O32" s="360"/>
-      <c r="P32" s="360"/>
-      <c r="Q32" s="361"/>
-      <c r="R32" s="359" t="str">
+      <c r="M32" s="343"/>
+      <c r="N32" s="343"/>
+      <c r="O32" s="343"/>
+      <c r="P32" s="343"/>
+      <c r="Q32" s="344"/>
+      <c r="R32" s="342" t="str">
         <f ca="1">Calibración!F41</f>
         <v/>
       </c>
-      <c r="S32" s="360"/>
-      <c r="T32" s="360"/>
-      <c r="U32" s="360"/>
-      <c r="V32" s="360"/>
-      <c r="W32" s="361"/>
+      <c r="S32" s="343"/>
+      <c r="T32" s="343"/>
+      <c r="U32" s="343"/>
+      <c r="V32" s="343"/>
+      <c r="W32" s="344"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="358" t="str">
+      <c r="D33" s="341" t="str">
         <f ca="1">Calibración!C42</f>
         <v/>
       </c>
-      <c r="E33" s="358"/>
-      <c r="F33" s="359" t="str">
+      <c r="E33" s="341"/>
+      <c r="F33" s="342" t="str">
         <f ca="1">Calibración!D42</f>
         <v/>
       </c>
-      <c r="G33" s="360"/>
-      <c r="H33" s="360"/>
-      <c r="I33" s="360"/>
-      <c r="J33" s="360"/>
-      <c r="K33" s="361"/>
-      <c r="L33" s="359" t="str">
+      <c r="G33" s="343"/>
+      <c r="H33" s="343"/>
+      <c r="I33" s="343"/>
+      <c r="J33" s="343"/>
+      <c r="K33" s="344"/>
+      <c r="L33" s="342" t="str">
         <f ca="1">Calibración!E42</f>
         <v/>
       </c>
-      <c r="M33" s="360"/>
-      <c r="N33" s="360"/>
-      <c r="O33" s="360"/>
-      <c r="P33" s="360"/>
-      <c r="Q33" s="361"/>
-      <c r="R33" s="359" t="str">
+      <c r="M33" s="343"/>
+      <c r="N33" s="343"/>
+      <c r="O33" s="343"/>
+      <c r="P33" s="343"/>
+      <c r="Q33" s="344"/>
+      <c r="R33" s="342" t="str">
         <f ca="1">Calibración!F42</f>
         <v/>
       </c>
-      <c r="S33" s="360"/>
-      <c r="T33" s="360"/>
-      <c r="U33" s="360"/>
-      <c r="V33" s="360"/>
-      <c r="W33" s="361"/>
+      <c r="S33" s="343"/>
+      <c r="T33" s="343"/>
+      <c r="U33" s="343"/>
+      <c r="V33" s="343"/>
+      <c r="W33" s="344"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D34" s="358" t="str">
+      <c r="D34" s="341" t="str">
         <f ca="1">Calibración!C43</f>
         <v/>
       </c>
-      <c r="E34" s="358"/>
-      <c r="F34" s="359" t="str">
+      <c r="E34" s="341"/>
+      <c r="F34" s="342" t="str">
         <f ca="1">Calibración!D43</f>
         <v/>
       </c>
-      <c r="G34" s="360"/>
-      <c r="H34" s="360"/>
-      <c r="I34" s="360"/>
-      <c r="J34" s="360"/>
-      <c r="K34" s="361"/>
-      <c r="L34" s="359" t="str">
+      <c r="G34" s="343"/>
+      <c r="H34" s="343"/>
+      <c r="I34" s="343"/>
+      <c r="J34" s="343"/>
+      <c r="K34" s="344"/>
+      <c r="L34" s="342" t="str">
         <f ca="1">Calibración!E43</f>
         <v/>
       </c>
-      <c r="M34" s="360"/>
-      <c r="N34" s="360"/>
-      <c r="O34" s="360"/>
-      <c r="P34" s="360"/>
-      <c r="Q34" s="361"/>
-      <c r="R34" s="359" t="str">
+      <c r="M34" s="343"/>
+      <c r="N34" s="343"/>
+      <c r="O34" s="343"/>
+      <c r="P34" s="343"/>
+      <c r="Q34" s="344"/>
+      <c r="R34" s="342" t="str">
         <f ca="1">Calibración!F43</f>
         <v/>
       </c>
-      <c r="S34" s="360"/>
-      <c r="T34" s="360"/>
-      <c r="U34" s="360"/>
-      <c r="V34" s="360"/>
-      <c r="W34" s="361"/>
+      <c r="S34" s="343"/>
+      <c r="T34" s="343"/>
+      <c r="U34" s="343"/>
+      <c r="V34" s="343"/>
+      <c r="W34" s="344"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D35" s="358" t="str">
+      <c r="D35" s="341" t="str">
         <f ca="1">Calibración!C44</f>
         <v/>
       </c>
-      <c r="E35" s="358"/>
-      <c r="F35" s="359" t="str">
+      <c r="E35" s="341"/>
+      <c r="F35" s="342" t="str">
         <f ca="1">Calibración!D44</f>
         <v/>
       </c>
-      <c r="G35" s="360"/>
-      <c r="H35" s="360"/>
-      <c r="I35" s="360"/>
-      <c r="J35" s="360"/>
-      <c r="K35" s="361"/>
-      <c r="L35" s="359" t="str">
+      <c r="G35" s="343"/>
+      <c r="H35" s="343"/>
+      <c r="I35" s="343"/>
+      <c r="J35" s="343"/>
+      <c r="K35" s="344"/>
+      <c r="L35" s="342" t="str">
         <f ca="1">Calibración!E44</f>
         <v/>
       </c>
-      <c r="M35" s="360"/>
-      <c r="N35" s="360"/>
-      <c r="O35" s="360"/>
-      <c r="P35" s="360"/>
-      <c r="Q35" s="361"/>
-      <c r="R35" s="359" t="str">
+      <c r="M35" s="343"/>
+      <c r="N35" s="343"/>
+      <c r="O35" s="343"/>
+      <c r="P35" s="343"/>
+      <c r="Q35" s="344"/>
+      <c r="R35" s="342" t="str">
         <f ca="1">Calibración!F44</f>
         <v/>
       </c>
-      <c r="S35" s="360"/>
-      <c r="T35" s="360"/>
-      <c r="U35" s="360"/>
-      <c r="V35" s="360"/>
-      <c r="W35" s="361"/>
+      <c r="S35" s="343"/>
+      <c r="T35" s="343"/>
+      <c r="U35" s="343"/>
+      <c r="V35" s="343"/>
+      <c r="W35" s="344"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D36" s="230"/>
@@ -40259,376 +40237,376 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="366" t="s">
+      <c r="D38" s="351" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="366"/>
-      <c r="F38" s="366"/>
-      <c r="G38" s="366"/>
-      <c r="H38" s="366"/>
-      <c r="I38" s="366"/>
-      <c r="J38" s="366"/>
-      <c r="K38" s="366"/>
-      <c r="L38" s="366"/>
-      <c r="M38" s="366"/>
-      <c r="N38" s="366"/>
-      <c r="O38" s="366"/>
-      <c r="P38" s="366"/>
-      <c r="Q38" s="366"/>
-      <c r="R38" s="366"/>
-      <c r="S38" s="366"/>
-      <c r="T38" s="366"/>
-      <c r="U38" s="366"/>
-      <c r="V38" s="366"/>
-      <c r="W38" s="366"/>
+      <c r="E38" s="351"/>
+      <c r="F38" s="351"/>
+      <c r="G38" s="351"/>
+      <c r="H38" s="351"/>
+      <c r="I38" s="351"/>
+      <c r="J38" s="351"/>
+      <c r="K38" s="351"/>
+      <c r="L38" s="351"/>
+      <c r="M38" s="351"/>
+      <c r="N38" s="351"/>
+      <c r="O38" s="351"/>
+      <c r="P38" s="351"/>
+      <c r="Q38" s="351"/>
+      <c r="R38" s="351"/>
+      <c r="S38" s="351"/>
+      <c r="T38" s="351"/>
+      <c r="U38" s="351"/>
+      <c r="V38" s="351"/>
+      <c r="W38" s="351"/>
     </row>
     <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="367" t="s">
+      <c r="D39" s="352" t="s">
         <v>360</v>
       </c>
-      <c r="E39" s="367"/>
-      <c r="F39" s="368" t="s">
+      <c r="E39" s="352"/>
+      <c r="F39" s="353" t="s">
         <v>425</v>
       </c>
-      <c r="G39" s="368"/>
-      <c r="H39" s="368"/>
-      <c r="I39" s="368"/>
-      <c r="J39" s="368"/>
-      <c r="K39" s="368"/>
-      <c r="L39" s="368" t="s">
+      <c r="G39" s="353"/>
+      <c r="H39" s="353"/>
+      <c r="I39" s="353"/>
+      <c r="J39" s="353"/>
+      <c r="K39" s="353"/>
+      <c r="L39" s="353" t="s">
         <v>96</v>
       </c>
-      <c r="M39" s="368"/>
-      <c r="N39" s="368"/>
-      <c r="O39" s="368"/>
-      <c r="P39" s="368"/>
-      <c r="Q39" s="368"/>
-      <c r="R39" s="367" t="s">
+      <c r="M39" s="353"/>
+      <c r="N39" s="353"/>
+      <c r="O39" s="353"/>
+      <c r="P39" s="353"/>
+      <c r="Q39" s="353"/>
+      <c r="R39" s="352" t="s">
         <v>426</v>
       </c>
-      <c r="S39" s="367"/>
-      <c r="T39" s="367"/>
-      <c r="U39" s="367"/>
-      <c r="V39" s="367"/>
-      <c r="W39" s="367"/>
+      <c r="S39" s="352"/>
+      <c r="T39" s="352"/>
+      <c r="U39" s="352"/>
+      <c r="V39" s="352"/>
+      <c r="W39" s="352"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="367"/>
-      <c r="E40" s="367"/>
-      <c r="F40" s="368"/>
-      <c r="G40" s="368"/>
-      <c r="H40" s="368"/>
-      <c r="I40" s="368"/>
-      <c r="J40" s="368"/>
-      <c r="K40" s="368"/>
-      <c r="L40" s="368"/>
-      <c r="M40" s="368"/>
-      <c r="N40" s="368"/>
-      <c r="O40" s="368"/>
-      <c r="P40" s="368"/>
-      <c r="Q40" s="368"/>
-      <c r="R40" s="367"/>
-      <c r="S40" s="367"/>
-      <c r="T40" s="367"/>
-      <c r="U40" s="367"/>
-      <c r="V40" s="367"/>
-      <c r="W40" s="367"/>
+      <c r="D40" s="352"/>
+      <c r="E40" s="352"/>
+      <c r="F40" s="353"/>
+      <c r="G40" s="353"/>
+      <c r="H40" s="353"/>
+      <c r="I40" s="353"/>
+      <c r="J40" s="353"/>
+      <c r="K40" s="353"/>
+      <c r="L40" s="353"/>
+      <c r="M40" s="353"/>
+      <c r="N40" s="353"/>
+      <c r="O40" s="353"/>
+      <c r="P40" s="353"/>
+      <c r="Q40" s="353"/>
+      <c r="R40" s="352"/>
+      <c r="S40" s="352"/>
+      <c r="T40" s="352"/>
+      <c r="U40" s="352"/>
+      <c r="V40" s="352"/>
+      <c r="W40" s="352"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="369" t="str">
+      <c r="D41" s="354" t="str">
         <f>Calibración!G37</f>
         <v>kPa</v>
       </c>
-      <c r="E41" s="369"/>
-      <c r="F41" s="370" t="str">
+      <c r="E41" s="354"/>
+      <c r="F41" s="355" t="str">
         <f>Calibración!H37</f>
         <v>kPa</v>
       </c>
-      <c r="G41" s="371"/>
-      <c r="H41" s="371"/>
-      <c r="I41" s="371"/>
-      <c r="J41" s="371"/>
-      <c r="K41" s="372"/>
-      <c r="L41" s="369" t="str">
+      <c r="G41" s="356"/>
+      <c r="H41" s="356"/>
+      <c r="I41" s="356"/>
+      <c r="J41" s="356"/>
+      <c r="K41" s="357"/>
+      <c r="L41" s="354" t="str">
         <f>Calibración!I37</f>
         <v>kPa</v>
       </c>
-      <c r="M41" s="369"/>
-      <c r="N41" s="369"/>
-      <c r="O41" s="369"/>
-      <c r="P41" s="369"/>
-      <c r="Q41" s="369"/>
-      <c r="R41" s="369" t="str">
+      <c r="M41" s="354"/>
+      <c r="N41" s="354"/>
+      <c r="O41" s="354"/>
+      <c r="P41" s="354"/>
+      <c r="Q41" s="354"/>
+      <c r="R41" s="354" t="str">
         <f>Calibración!J37</f>
         <v>kPa</v>
       </c>
-      <c r="S41" s="369"/>
-      <c r="T41" s="369"/>
-      <c r="U41" s="369"/>
-      <c r="V41" s="369"/>
-      <c r="W41" s="369"/>
+      <c r="S41" s="354"/>
+      <c r="T41" s="354"/>
+      <c r="U41" s="354"/>
+      <c r="V41" s="354"/>
+      <c r="W41" s="354"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="358" t="str">
+      <c r="D42" s="341" t="str">
         <f ca="1">Calibración!G38</f>
         <v/>
       </c>
-      <c r="E42" s="358"/>
-      <c r="F42" s="359" t="str">
+      <c r="E42" s="341"/>
+      <c r="F42" s="342" t="str">
         <f ca="1">Calibración!H38</f>
         <v/>
       </c>
-      <c r="G42" s="360"/>
-      <c r="H42" s="360"/>
-      <c r="I42" s="360"/>
-      <c r="J42" s="360"/>
-      <c r="K42" s="361"/>
-      <c r="L42" s="358" t="str">
+      <c r="G42" s="343"/>
+      <c r="H42" s="343"/>
+      <c r="I42" s="343"/>
+      <c r="J42" s="343"/>
+      <c r="K42" s="344"/>
+      <c r="L42" s="341" t="str">
         <f ca="1">Calibración!I38</f>
         <v/>
       </c>
-      <c r="M42" s="358"/>
-      <c r="N42" s="358"/>
-      <c r="O42" s="358"/>
-      <c r="P42" s="358"/>
-      <c r="Q42" s="358"/>
-      <c r="R42" s="358" t="str">
+      <c r="M42" s="341"/>
+      <c r="N42" s="341"/>
+      <c r="O42" s="341"/>
+      <c r="P42" s="341"/>
+      <c r="Q42" s="341"/>
+      <c r="R42" s="341" t="str">
         <f ca="1">Calibración!J38</f>
         <v/>
       </c>
-      <c r="S42" s="358"/>
-      <c r="T42" s="358"/>
-      <c r="U42" s="358"/>
-      <c r="V42" s="358"/>
-      <c r="W42" s="358"/>
+      <c r="S42" s="341"/>
+      <c r="T42" s="341"/>
+      <c r="U42" s="341"/>
+      <c r="V42" s="341"/>
+      <c r="W42" s="341"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="358" t="str">
+      <c r="D43" s="341" t="str">
         <f ca="1">Calibración!G39</f>
         <v/>
       </c>
-      <c r="E43" s="358"/>
-      <c r="F43" s="359" t="str">
+      <c r="E43" s="341"/>
+      <c r="F43" s="342" t="str">
         <f ca="1">Calibración!H39</f>
         <v/>
       </c>
-      <c r="G43" s="360"/>
-      <c r="H43" s="360"/>
-      <c r="I43" s="360"/>
-      <c r="J43" s="360"/>
-      <c r="K43" s="361"/>
-      <c r="L43" s="358" t="str">
+      <c r="G43" s="343"/>
+      <c r="H43" s="343"/>
+      <c r="I43" s="343"/>
+      <c r="J43" s="343"/>
+      <c r="K43" s="344"/>
+      <c r="L43" s="341" t="str">
         <f ca="1">Calibración!I39</f>
         <v/>
       </c>
-      <c r="M43" s="358"/>
-      <c r="N43" s="358"/>
-      <c r="O43" s="358"/>
-      <c r="P43" s="358"/>
-      <c r="Q43" s="358"/>
-      <c r="R43" s="358" t="str">
+      <c r="M43" s="341"/>
+      <c r="N43" s="341"/>
+      <c r="O43" s="341"/>
+      <c r="P43" s="341"/>
+      <c r="Q43" s="341"/>
+      <c r="R43" s="341" t="str">
         <f ca="1">Calibración!J39</f>
         <v/>
       </c>
-      <c r="S43" s="358"/>
-      <c r="T43" s="358"/>
-      <c r="U43" s="358"/>
-      <c r="V43" s="358"/>
-      <c r="W43" s="358"/>
+      <c r="S43" s="341"/>
+      <c r="T43" s="341"/>
+      <c r="U43" s="341"/>
+      <c r="V43" s="341"/>
+      <c r="W43" s="341"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="358" t="str">
+      <c r="D44" s="341" t="str">
         <f ca="1">Calibración!G40</f>
         <v/>
       </c>
-      <c r="E44" s="358"/>
-      <c r="F44" s="359" t="str">
+      <c r="E44" s="341"/>
+      <c r="F44" s="342" t="str">
         <f ca="1">Calibración!H40</f>
         <v/>
       </c>
-      <c r="G44" s="360"/>
-      <c r="H44" s="360"/>
-      <c r="I44" s="360"/>
-      <c r="J44" s="360"/>
-      <c r="K44" s="361"/>
-      <c r="L44" s="358" t="str">
+      <c r="G44" s="343"/>
+      <c r="H44" s="343"/>
+      <c r="I44" s="343"/>
+      <c r="J44" s="343"/>
+      <c r="K44" s="344"/>
+      <c r="L44" s="341" t="str">
         <f ca="1">Calibración!I40</f>
         <v/>
       </c>
-      <c r="M44" s="358"/>
-      <c r="N44" s="358"/>
-      <c r="O44" s="358"/>
-      <c r="P44" s="358"/>
-      <c r="Q44" s="358"/>
-      <c r="R44" s="358" t="str">
+      <c r="M44" s="341"/>
+      <c r="N44" s="341"/>
+      <c r="O44" s="341"/>
+      <c r="P44" s="341"/>
+      <c r="Q44" s="341"/>
+      <c r="R44" s="341" t="str">
         <f ca="1">Calibración!J40</f>
         <v/>
       </c>
-      <c r="S44" s="358"/>
-      <c r="T44" s="358"/>
-      <c r="U44" s="358"/>
-      <c r="V44" s="358"/>
-      <c r="W44" s="358"/>
+      <c r="S44" s="341"/>
+      <c r="T44" s="341"/>
+      <c r="U44" s="341"/>
+      <c r="V44" s="341"/>
+      <c r="W44" s="341"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="358" t="str">
+      <c r="D45" s="341" t="str">
         <f ca="1">Calibración!G41</f>
         <v/>
       </c>
-      <c r="E45" s="358"/>
-      <c r="F45" s="359" t="str">
+      <c r="E45" s="341"/>
+      <c r="F45" s="342" t="str">
         <f ca="1">Calibración!H41</f>
         <v/>
       </c>
-      <c r="G45" s="360"/>
-      <c r="H45" s="360"/>
-      <c r="I45" s="360"/>
-      <c r="J45" s="360"/>
-      <c r="K45" s="361"/>
-      <c r="L45" s="358" t="str">
+      <c r="G45" s="343"/>
+      <c r="H45" s="343"/>
+      <c r="I45" s="343"/>
+      <c r="J45" s="343"/>
+      <c r="K45" s="344"/>
+      <c r="L45" s="341" t="str">
         <f ca="1">Calibración!I41</f>
         <v/>
       </c>
-      <c r="M45" s="358"/>
-      <c r="N45" s="358"/>
-      <c r="O45" s="358"/>
-      <c r="P45" s="358"/>
-      <c r="Q45" s="358"/>
-      <c r="R45" s="358" t="str">
+      <c r="M45" s="341"/>
+      <c r="N45" s="341"/>
+      <c r="O45" s="341"/>
+      <c r="P45" s="341"/>
+      <c r="Q45" s="341"/>
+      <c r="R45" s="341" t="str">
         <f ca="1">Calibración!J41</f>
         <v/>
       </c>
-      <c r="S45" s="358"/>
-      <c r="T45" s="358"/>
-      <c r="U45" s="358"/>
-      <c r="V45" s="358"/>
-      <c r="W45" s="358"/>
+      <c r="S45" s="341"/>
+      <c r="T45" s="341"/>
+      <c r="U45" s="341"/>
+      <c r="V45" s="341"/>
+      <c r="W45" s="341"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="358" t="str">
+      <c r="D46" s="341" t="str">
         <f ca="1">Calibración!G42</f>
         <v/>
       </c>
-      <c r="E46" s="358"/>
-      <c r="F46" s="359" t="str">
+      <c r="E46" s="341"/>
+      <c r="F46" s="342" t="str">
         <f ca="1">Calibración!H42</f>
         <v/>
       </c>
-      <c r="G46" s="360"/>
-      <c r="H46" s="360"/>
-      <c r="I46" s="360"/>
-      <c r="J46" s="360"/>
-      <c r="K46" s="361"/>
-      <c r="L46" s="358" t="str">
+      <c r="G46" s="343"/>
+      <c r="H46" s="343"/>
+      <c r="I46" s="343"/>
+      <c r="J46" s="343"/>
+      <c r="K46" s="344"/>
+      <c r="L46" s="341" t="str">
         <f ca="1">Calibración!I42</f>
         <v/>
       </c>
-      <c r="M46" s="358"/>
-      <c r="N46" s="358"/>
-      <c r="O46" s="358"/>
-      <c r="P46" s="358"/>
-      <c r="Q46" s="358"/>
-      <c r="R46" s="358" t="str">
+      <c r="M46" s="341"/>
+      <c r="N46" s="341"/>
+      <c r="O46" s="341"/>
+      <c r="P46" s="341"/>
+      <c r="Q46" s="341"/>
+      <c r="R46" s="341" t="str">
         <f ca="1">Calibración!J42</f>
         <v/>
       </c>
-      <c r="S46" s="358"/>
-      <c r="T46" s="358"/>
-      <c r="U46" s="358"/>
-      <c r="V46" s="358"/>
-      <c r="W46" s="358"/>
+      <c r="S46" s="341"/>
+      <c r="T46" s="341"/>
+      <c r="U46" s="341"/>
+      <c r="V46" s="341"/>
+      <c r="W46" s="341"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D47" s="358" t="str">
+      <c r="D47" s="341" t="str">
         <f ca="1">Calibración!G43</f>
         <v/>
       </c>
-      <c r="E47" s="358"/>
-      <c r="F47" s="359" t="str">
+      <c r="E47" s="341"/>
+      <c r="F47" s="342" t="str">
         <f ca="1">Calibración!H43</f>
         <v/>
       </c>
-      <c r="G47" s="360"/>
-      <c r="H47" s="360"/>
-      <c r="I47" s="360"/>
-      <c r="J47" s="360"/>
-      <c r="K47" s="361"/>
-      <c r="L47" s="358" t="str">
+      <c r="G47" s="343"/>
+      <c r="H47" s="343"/>
+      <c r="I47" s="343"/>
+      <c r="J47" s="343"/>
+      <c r="K47" s="344"/>
+      <c r="L47" s="341" t="str">
         <f ca="1">Calibración!I43</f>
         <v/>
       </c>
-      <c r="M47" s="358"/>
-      <c r="N47" s="358"/>
-      <c r="O47" s="358"/>
-      <c r="P47" s="358"/>
-      <c r="Q47" s="358"/>
-      <c r="R47" s="358" t="str">
+      <c r="M47" s="341"/>
+      <c r="N47" s="341"/>
+      <c r="O47" s="341"/>
+      <c r="P47" s="341"/>
+      <c r="Q47" s="341"/>
+      <c r="R47" s="341" t="str">
         <f ca="1">Calibración!J43</f>
         <v/>
       </c>
-      <c r="S47" s="358"/>
-      <c r="T47" s="358"/>
-      <c r="U47" s="358"/>
-      <c r="V47" s="358"/>
-      <c r="W47" s="358"/>
+      <c r="S47" s="341"/>
+      <c r="T47" s="341"/>
+      <c r="U47" s="341"/>
+      <c r="V47" s="341"/>
+      <c r="W47" s="341"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D48" s="358" t="str">
+      <c r="D48" s="341" t="str">
         <f ca="1">Calibración!G44</f>
         <v/>
       </c>
-      <c r="E48" s="358"/>
-      <c r="F48" s="359" t="str">
+      <c r="E48" s="341"/>
+      <c r="F48" s="342" t="str">
         <f ca="1">Calibración!H44</f>
         <v/>
       </c>
-      <c r="G48" s="360"/>
-      <c r="H48" s="360"/>
-      <c r="I48" s="360"/>
-      <c r="J48" s="360"/>
-      <c r="K48" s="361"/>
-      <c r="L48" s="358" t="str">
+      <c r="G48" s="343"/>
+      <c r="H48" s="343"/>
+      <c r="I48" s="343"/>
+      <c r="J48" s="343"/>
+      <c r="K48" s="344"/>
+      <c r="L48" s="341" t="str">
         <f ca="1">Calibración!I44</f>
         <v/>
       </c>
-      <c r="M48" s="358"/>
-      <c r="N48" s="358"/>
-      <c r="O48" s="358"/>
-      <c r="P48" s="358"/>
-      <c r="Q48" s="358"/>
-      <c r="R48" s="358" t="str">
+      <c r="M48" s="341"/>
+      <c r="N48" s="341"/>
+      <c r="O48" s="341"/>
+      <c r="P48" s="341"/>
+      <c r="Q48" s="341"/>
+      <c r="R48" s="341" t="str">
         <f ca="1">Calibración!J44</f>
         <v/>
       </c>
-      <c r="S48" s="358"/>
-      <c r="T48" s="358"/>
-      <c r="U48" s="358"/>
-      <c r="V48" s="358"/>
-      <c r="W48" s="358"/>
+      <c r="S48" s="341"/>
+      <c r="T48" s="341"/>
+      <c r="U48" s="341"/>
+      <c r="V48" s="341"/>
+      <c r="W48" s="341"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O49" s="232"/>
@@ -40670,20 +40648,20 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
-      <c r="N57" s="362" t="str">
+      <c r="N57" s="346" t="str">
         <f>N8</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O57" s="362"/>
-      <c r="P57" s="362"/>
-      <c r="Q57" s="362"/>
-      <c r="R57" s="362"/>
-      <c r="S57" s="362"/>
-      <c r="T57" s="362"/>
-      <c r="U57" s="362"/>
-      <c r="V57" s="362"/>
-      <c r="W57" s="362"/>
-      <c r="X57" s="362"/>
+      <c r="O57" s="346"/>
+      <c r="P57" s="346"/>
+      <c r="Q57" s="346"/>
+      <c r="R57" s="346"/>
+      <c r="S57" s="346"/>
+      <c r="T57" s="346"/>
+      <c r="U57" s="346"/>
+      <c r="V57" s="346"/>
+      <c r="W57" s="346"/>
+      <c r="X57" s="346"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O58" s="232"/>
@@ -40722,11 +40700,11 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="234"/>
-      <c r="B60" s="363" t="s">
+      <c r="B60" s="365" t="s">
         <v>430</v>
       </c>
-      <c r="C60" s="363"/>
-      <c r="D60" s="363"/>
+      <c r="C60" s="365"/>
+      <c r="D60" s="365"/>
       <c r="E60" s="235" t="str">
         <f>CertTempC</f>
         <v/>
@@ -40743,8 +40721,8 @@
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="364"/>
-      <c r="L60" s="364"/>
+      <c r="K60" s="348"/>
+      <c r="L60" s="348"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
@@ -40754,11 +40732,11 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
-      <c r="T60" s="365" t="str">
+      <c r="T60" s="366" t="str">
         <f>General!I18</f>
         <v/>
       </c>
-      <c r="U60" s="365"/>
+      <c r="U60" s="366"/>
       <c r="V60" s="236" t="s">
         <v>432</v>
       </c>
@@ -40860,58 +40838,58 @@
       <c r="W63" s="9"/>
     </row>
     <row r="64" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="351" t="s">
+      <c r="A64" s="358" t="s">
         <v>715</v>
       </c>
-      <c r="B64" s="351"/>
-      <c r="C64" s="351"/>
-      <c r="D64" s="351"/>
-      <c r="E64" s="351"/>
-      <c r="F64" s="351"/>
-      <c r="G64" s="351"/>
-      <c r="H64" s="351"/>
-      <c r="I64" s="351"/>
-      <c r="J64" s="351"/>
-      <c r="K64" s="351"/>
-      <c r="L64" s="351"/>
-      <c r="M64" s="351"/>
-      <c r="N64" s="351"/>
-      <c r="O64" s="351"/>
-      <c r="P64" s="351"/>
-      <c r="Q64" s="351"/>
-      <c r="R64" s="351"/>
-      <c r="S64" s="351"/>
-      <c r="T64" s="351"/>
-      <c r="U64" s="351"/>
-      <c r="V64" s="351"/>
-      <c r="W64" s="351"/>
-      <c r="X64" s="351"/>
+      <c r="B64" s="358"/>
+      <c r="C64" s="358"/>
+      <c r="D64" s="358"/>
+      <c r="E64" s="358"/>
+      <c r="F64" s="358"/>
+      <c r="G64" s="358"/>
+      <c r="H64" s="358"/>
+      <c r="I64" s="358"/>
+      <c r="J64" s="358"/>
+      <c r="K64" s="358"/>
+      <c r="L64" s="358"/>
+      <c r="M64" s="358"/>
+      <c r="N64" s="358"/>
+      <c r="O64" s="358"/>
+      <c r="P64" s="358"/>
+      <c r="Q64" s="358"/>
+      <c r="R64" s="358"/>
+      <c r="S64" s="358"/>
+      <c r="T64" s="358"/>
+      <c r="U64" s="358"/>
+      <c r="V64" s="358"/>
+      <c r="W64" s="358"/>
+      <c r="X64" s="358"/>
     </row>
     <row r="65" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="351"/>
-      <c r="B65" s="351"/>
-      <c r="C65" s="351"/>
-      <c r="D65" s="351"/>
-      <c r="E65" s="351"/>
-      <c r="F65" s="351"/>
-      <c r="G65" s="351"/>
-      <c r="H65" s="351"/>
-      <c r="I65" s="351"/>
-      <c r="J65" s="351"/>
-      <c r="K65" s="351"/>
-      <c r="L65" s="351"/>
-      <c r="M65" s="351"/>
-      <c r="N65" s="351"/>
-      <c r="O65" s="351"/>
-      <c r="P65" s="351"/>
-      <c r="Q65" s="351"/>
-      <c r="R65" s="351"/>
-      <c r="S65" s="351"/>
-      <c r="T65" s="351"/>
-      <c r="U65" s="351"/>
-      <c r="V65" s="351"/>
-      <c r="W65" s="351"/>
-      <c r="X65" s="351"/>
+      <c r="A65" s="358"/>
+      <c r="B65" s="358"/>
+      <c r="C65" s="358"/>
+      <c r="D65" s="358"/>
+      <c r="E65" s="358"/>
+      <c r="F65" s="358"/>
+      <c r="G65" s="358"/>
+      <c r="H65" s="358"/>
+      <c r="I65" s="358"/>
+      <c r="J65" s="358"/>
+      <c r="K65" s="358"/>
+      <c r="L65" s="358"/>
+      <c r="M65" s="358"/>
+      <c r="N65" s="358"/>
+      <c r="O65" s="358"/>
+      <c r="P65" s="358"/>
+      <c r="Q65" s="358"/>
+      <c r="R65" s="358"/>
+      <c r="S65" s="358"/>
+      <c r="T65" s="358"/>
+      <c r="U65" s="358"/>
+      <c r="V65" s="358"/>
+      <c r="W65" s="358"/>
+      <c r="X65" s="358"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B66" s="14"/>
@@ -40966,136 +40944,136 @@
       <c r="X67" s="14"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A68" s="351" t="s">
+      <c r="A68" s="358" t="s">
         <v>438</v>
       </c>
-      <c r="B68" s="351"/>
-      <c r="C68" s="351"/>
-      <c r="D68" s="351"/>
-      <c r="E68" s="351"/>
-      <c r="F68" s="351"/>
-      <c r="G68" s="351"/>
-      <c r="H68" s="351"/>
-      <c r="I68" s="351"/>
-      <c r="J68" s="351"/>
-      <c r="K68" s="351"/>
-      <c r="L68" s="351"/>
-      <c r="M68" s="351"/>
-      <c r="N68" s="351"/>
-      <c r="O68" s="351"/>
-      <c r="P68" s="351"/>
-      <c r="Q68" s="351"/>
-      <c r="R68" s="351"/>
-      <c r="S68" s="351"/>
-      <c r="T68" s="351"/>
-      <c r="U68" s="351"/>
-      <c r="V68" s="351"/>
-      <c r="W68" s="351"/>
-      <c r="X68" s="351"/>
+      <c r="B68" s="358"/>
+      <c r="C68" s="358"/>
+      <c r="D68" s="358"/>
+      <c r="E68" s="358"/>
+      <c r="F68" s="358"/>
+      <c r="G68" s="358"/>
+      <c r="H68" s="358"/>
+      <c r="I68" s="358"/>
+      <c r="J68" s="358"/>
+      <c r="K68" s="358"/>
+      <c r="L68" s="358"/>
+      <c r="M68" s="358"/>
+      <c r="N68" s="358"/>
+      <c r="O68" s="358"/>
+      <c r="P68" s="358"/>
+      <c r="Q68" s="358"/>
+      <c r="R68" s="358"/>
+      <c r="S68" s="358"/>
+      <c r="T68" s="358"/>
+      <c r="U68" s="358"/>
+      <c r="V68" s="358"/>
+      <c r="W68" s="358"/>
+      <c r="X68" s="358"/>
     </row>
     <row r="69" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="351"/>
-      <c r="B69" s="351"/>
-      <c r="C69" s="351"/>
-      <c r="D69" s="351"/>
-      <c r="E69" s="351"/>
-      <c r="F69" s="351"/>
-      <c r="G69" s="351"/>
-      <c r="H69" s="351"/>
-      <c r="I69" s="351"/>
-      <c r="J69" s="351"/>
-      <c r="K69" s="351"/>
-      <c r="L69" s="351"/>
-      <c r="M69" s="351"/>
-      <c r="N69" s="351"/>
-      <c r="O69" s="351"/>
-      <c r="P69" s="351"/>
-      <c r="Q69" s="351"/>
-      <c r="R69" s="351"/>
-      <c r="S69" s="351"/>
-      <c r="T69" s="351"/>
-      <c r="U69" s="351"/>
-      <c r="V69" s="351"/>
-      <c r="W69" s="351"/>
-      <c r="X69" s="351"/>
+      <c r="A69" s="358"/>
+      <c r="B69" s="358"/>
+      <c r="C69" s="358"/>
+      <c r="D69" s="358"/>
+      <c r="E69" s="358"/>
+      <c r="F69" s="358"/>
+      <c r="G69" s="358"/>
+      <c r="H69" s="358"/>
+      <c r="I69" s="358"/>
+      <c r="J69" s="358"/>
+      <c r="K69" s="358"/>
+      <c r="L69" s="358"/>
+      <c r="M69" s="358"/>
+      <c r="N69" s="358"/>
+      <c r="O69" s="358"/>
+      <c r="P69" s="358"/>
+      <c r="Q69" s="358"/>
+      <c r="R69" s="358"/>
+      <c r="S69" s="358"/>
+      <c r="T69" s="358"/>
+      <c r="U69" s="358"/>
+      <c r="V69" s="358"/>
+      <c r="W69" s="358"/>
+      <c r="X69" s="358"/>
     </row>
     <row r="70" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="351"/>
-      <c r="B70" s="351"/>
-      <c r="C70" s="351"/>
-      <c r="D70" s="351"/>
-      <c r="E70" s="351"/>
-      <c r="F70" s="351"/>
-      <c r="G70" s="351"/>
-      <c r="H70" s="351"/>
-      <c r="I70" s="351"/>
-      <c r="J70" s="351"/>
-      <c r="K70" s="351"/>
-      <c r="L70" s="351"/>
-      <c r="M70" s="351"/>
-      <c r="N70" s="351"/>
-      <c r="O70" s="351"/>
-      <c r="P70" s="351"/>
-      <c r="Q70" s="351"/>
-      <c r="R70" s="351"/>
-      <c r="S70" s="351"/>
-      <c r="T70" s="351"/>
-      <c r="U70" s="351"/>
-      <c r="V70" s="351"/>
-      <c r="W70" s="351"/>
-      <c r="X70" s="351"/>
+      <c r="A70" s="358"/>
+      <c r="B70" s="358"/>
+      <c r="C70" s="358"/>
+      <c r="D70" s="358"/>
+      <c r="E70" s="358"/>
+      <c r="F70" s="358"/>
+      <c r="G70" s="358"/>
+      <c r="H70" s="358"/>
+      <c r="I70" s="358"/>
+      <c r="J70" s="358"/>
+      <c r="K70" s="358"/>
+      <c r="L70" s="358"/>
+      <c r="M70" s="358"/>
+      <c r="N70" s="358"/>
+      <c r="O70" s="358"/>
+      <c r="P70" s="358"/>
+      <c r="Q70" s="358"/>
+      <c r="R70" s="358"/>
+      <c r="S70" s="358"/>
+      <c r="T70" s="358"/>
+      <c r="U70" s="358"/>
+      <c r="V70" s="358"/>
+      <c r="W70" s="358"/>
+      <c r="X70" s="358"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A71" s="351"/>
-      <c r="B71" s="351"/>
-      <c r="C71" s="351"/>
-      <c r="D71" s="351"/>
-      <c r="E71" s="351"/>
-      <c r="F71" s="351"/>
-      <c r="G71" s="351"/>
-      <c r="H71" s="351"/>
-      <c r="I71" s="351"/>
-      <c r="J71" s="351"/>
-      <c r="K71" s="351"/>
-      <c r="L71" s="351"/>
-      <c r="M71" s="351"/>
-      <c r="N71" s="351"/>
-      <c r="O71" s="351"/>
-      <c r="P71" s="351"/>
-      <c r="Q71" s="351"/>
-      <c r="R71" s="351"/>
-      <c r="S71" s="351"/>
-      <c r="T71" s="351"/>
-      <c r="U71" s="351"/>
-      <c r="V71" s="351"/>
-      <c r="W71" s="351"/>
-      <c r="X71" s="351"/>
+      <c r="A71" s="358"/>
+      <c r="B71" s="358"/>
+      <c r="C71" s="358"/>
+      <c r="D71" s="358"/>
+      <c r="E71" s="358"/>
+      <c r="F71" s="358"/>
+      <c r="G71" s="358"/>
+      <c r="H71" s="358"/>
+      <c r="I71" s="358"/>
+      <c r="J71" s="358"/>
+      <c r="K71" s="358"/>
+      <c r="L71" s="358"/>
+      <c r="M71" s="358"/>
+      <c r="N71" s="358"/>
+      <c r="O71" s="358"/>
+      <c r="P71" s="358"/>
+      <c r="Q71" s="358"/>
+      <c r="R71" s="358"/>
+      <c r="S71" s="358"/>
+      <c r="T71" s="358"/>
+      <c r="U71" s="358"/>
+      <c r="V71" s="358"/>
+      <c r="W71" s="358"/>
+      <c r="X71" s="358"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A72" s="351"/>
-      <c r="B72" s="351"/>
-      <c r="C72" s="351"/>
-      <c r="D72" s="351"/>
-      <c r="E72" s="351"/>
-      <c r="F72" s="351"/>
-      <c r="G72" s="351"/>
-      <c r="H72" s="351"/>
-      <c r="I72" s="351"/>
-      <c r="J72" s="351"/>
-      <c r="K72" s="351"/>
-      <c r="L72" s="351"/>
-      <c r="M72" s="351"/>
-      <c r="N72" s="351"/>
-      <c r="O72" s="351"/>
-      <c r="P72" s="351"/>
-      <c r="Q72" s="351"/>
-      <c r="R72" s="351"/>
-      <c r="S72" s="351"/>
-      <c r="T72" s="351"/>
-      <c r="U72" s="351"/>
-      <c r="V72" s="351"/>
-      <c r="W72" s="351"/>
-      <c r="X72" s="351"/>
+      <c r="A72" s="358"/>
+      <c r="B72" s="358"/>
+      <c r="C72" s="358"/>
+      <c r="D72" s="358"/>
+      <c r="E72" s="358"/>
+      <c r="F72" s="358"/>
+      <c r="G72" s="358"/>
+      <c r="H72" s="358"/>
+      <c r="I72" s="358"/>
+      <c r="J72" s="358"/>
+      <c r="K72" s="358"/>
+      <c r="L72" s="358"/>
+      <c r="M72" s="358"/>
+      <c r="N72" s="358"/>
+      <c r="O72" s="358"/>
+      <c r="P72" s="358"/>
+      <c r="Q72" s="358"/>
+      <c r="R72" s="358"/>
+      <c r="S72" s="358"/>
+      <c r="T72" s="358"/>
+      <c r="U72" s="358"/>
+      <c r="V72" s="358"/>
+      <c r="W72" s="358"/>
+      <c r="X72" s="358"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -41149,204 +41127,204 @@
       <c r="V74" s="9"/>
     </row>
     <row r="75" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="352" t="s">
+      <c r="A75" s="359" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="353"/>
-      <c r="C75" s="353"/>
-      <c r="D75" s="353"/>
-      <c r="E75" s="353"/>
-      <c r="F75" s="354"/>
-      <c r="G75" s="352" t="s">
+      <c r="B75" s="360"/>
+      <c r="C75" s="360"/>
+      <c r="D75" s="360"/>
+      <c r="E75" s="360"/>
+      <c r="F75" s="361"/>
+      <c r="G75" s="359" t="s">
         <v>4</v>
       </c>
-      <c r="H75" s="353"/>
-      <c r="I75" s="354"/>
-      <c r="J75" s="355" t="s">
+      <c r="H75" s="360"/>
+      <c r="I75" s="361"/>
+      <c r="J75" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="K75" s="356"/>
-      <c r="L75" s="356"/>
-      <c r="M75" s="356"/>
-      <c r="N75" s="357"/>
-      <c r="O75" s="352" t="s">
+      <c r="K75" s="363"/>
+      <c r="L75" s="363"/>
+      <c r="M75" s="363"/>
+      <c r="N75" s="364"/>
+      <c r="O75" s="359" t="s">
         <v>440</v>
       </c>
-      <c r="P75" s="353"/>
-      <c r="Q75" s="353"/>
-      <c r="R75" s="353"/>
-      <c r="S75" s="353"/>
-      <c r="T75" s="354"/>
-      <c r="U75" s="355" t="s">
+      <c r="P75" s="360"/>
+      <c r="Q75" s="360"/>
+      <c r="R75" s="360"/>
+      <c r="S75" s="360"/>
+      <c r="T75" s="361"/>
+      <c r="U75" s="362" t="s">
         <v>441</v>
       </c>
-      <c r="V75" s="356"/>
-      <c r="W75" s="356"/>
-      <c r="X75" s="357"/>
+      <c r="V75" s="363"/>
+      <c r="W75" s="363"/>
+      <c r="X75" s="364"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A76" s="345" t="s">
+      <c r="A76" s="367" t="s">
         <v>709</v>
       </c>
-      <c r="B76" s="346" t="s">
+      <c r="B76" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="C76" s="346" t="s">
+      <c r="C76" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="D76" s="346" t="s">
+      <c r="D76" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="E76" s="346" t="s">
+      <c r="E76" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="F76" s="347" t="s">
+      <c r="F76" s="369" t="s">
         <v>449</v>
       </c>
-      <c r="G76" s="345" t="s">
+      <c r="G76" s="367" t="s">
         <v>477</v>
       </c>
-      <c r="H76" s="346" t="s">
+      <c r="H76" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I76" s="347" t="s">
+      <c r="I76" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J76" s="348" t="s">
+      <c r="J76" s="370" t="s">
         <v>700</v>
       </c>
-      <c r="K76" s="349" t="s">
+      <c r="K76" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L76" s="349">
+      <c r="L76" s="371">
         <v>43393</v>
       </c>
-      <c r="M76" s="349" t="s">
+      <c r="M76" s="371" t="s">
         <v>466</v>
       </c>
-      <c r="N76" s="350" t="s">
+      <c r="N76" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O76" s="345" t="s">
+      <c r="O76" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P76" s="346" t="s">
+      <c r="P76" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q76" s="346" t="s">
+      <c r="Q76" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R76" s="346" t="s">
+      <c r="R76" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S76" s="346" t="s">
+      <c r="S76" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T76" s="347" t="s">
+      <c r="T76" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U76" s="348">
+      <c r="U76" s="370">
         <v>44878</v>
       </c>
-      <c r="V76" s="349" t="s">
+      <c r="V76" s="371" t="s">
         <v>466</v>
       </c>
-      <c r="W76" s="349" t="s">
+      <c r="W76" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X76" s="350">
+      <c r="X76" s="372">
         <v>43393</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="345" t="s">
+      <c r="A77" s="367" t="s">
         <v>710</v>
       </c>
-      <c r="B77" s="346"/>
-      <c r="C77" s="346"/>
-      <c r="D77" s="346"/>
-      <c r="E77" s="346"/>
-      <c r="F77" s="347"/>
-      <c r="G77" s="345" t="s">
+      <c r="B77" s="368"/>
+      <c r="C77" s="368"/>
+      <c r="D77" s="368"/>
+      <c r="E77" s="368"/>
+      <c r="F77" s="369"/>
+      <c r="G77" s="367" t="s">
         <v>311</v>
       </c>
-      <c r="H77" s="346" t="s">
+      <c r="H77" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I77" s="347" t="s">
+      <c r="I77" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J77" s="348" t="s">
+      <c r="J77" s="370" t="s">
         <v>714</v>
       </c>
-      <c r="K77" s="349" t="s">
+      <c r="K77" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L77" s="349">
+      <c r="L77" s="371">
         <v>43394</v>
       </c>
-      <c r="M77" s="349" t="s">
+      <c r="M77" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="N77" s="350" t="s">
+      <c r="N77" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O77" s="345" t="s">
+      <c r="O77" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P77" s="346" t="s">
+      <c r="P77" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q77" s="346" t="s">
+      <c r="Q77" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R77" s="346" t="s">
+      <c r="R77" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S77" s="346" t="s">
+      <c r="S77" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T77" s="347" t="s">
+      <c r="T77" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U77" s="348">
+      <c r="U77" s="370">
         <v>44878</v>
       </c>
-      <c r="V77" s="349" t="s">
+      <c r="V77" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="W77" s="349" t="s">
+      <c r="W77" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X77" s="350">
+      <c r="X77" s="372">
         <v>43394</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="345"/>
-      <c r="B78" s="346"/>
-      <c r="C78" s="346"/>
-      <c r="D78" s="346"/>
-      <c r="E78" s="346"/>
-      <c r="F78" s="347"/>
-      <c r="G78" s="345"/>
-      <c r="H78" s="346"/>
-      <c r="I78" s="347"/>
-      <c r="J78" s="348"/>
-      <c r="K78" s="349"/>
-      <c r="L78" s="349"/>
-      <c r="M78" s="349"/>
-      <c r="N78" s="350"/>
-      <c r="O78" s="345"/>
-      <c r="P78" s="346"/>
-      <c r="Q78" s="346"/>
-      <c r="R78" s="346"/>
-      <c r="S78" s="346"/>
-      <c r="T78" s="347"/>
-      <c r="U78" s="348"/>
-      <c r="V78" s="349"/>
-      <c r="W78" s="349"/>
-      <c r="X78" s="350"/>
+      <c r="A78" s="367"/>
+      <c r="B78" s="368"/>
+      <c r="C78" s="368"/>
+      <c r="D78" s="368"/>
+      <c r="E78" s="368"/>
+      <c r="F78" s="369"/>
+      <c r="G78" s="367"/>
+      <c r="H78" s="368"/>
+      <c r="I78" s="369"/>
+      <c r="J78" s="370"/>
+      <c r="K78" s="371"/>
+      <c r="L78" s="371"/>
+      <c r="M78" s="371"/>
+      <c r="N78" s="372"/>
+      <c r="O78" s="367"/>
+      <c r="P78" s="368"/>
+      <c r="Q78" s="368"/>
+      <c r="R78" s="368"/>
+      <c r="S78" s="368"/>
+      <c r="T78" s="369"/>
+      <c r="U78" s="370"/>
+      <c r="V78" s="371"/>
+      <c r="W78" s="371"/>
+      <c r="X78" s="372"/>
     </row>
     <row r="79" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="238"/>
@@ -41458,59 +41436,59 @@
       <c r="X82" s="9"/>
     </row>
     <row r="83" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="351" t="str">
+      <c r="A83" s="358" t="str">
         <f>IF(Calibración!E10="2",Calibración!BJ6,Calibración!BJ7)</f>
         <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
       </c>
-      <c r="B83" s="351"/>
-      <c r="C83" s="351"/>
-      <c r="D83" s="351"/>
-      <c r="E83" s="351"/>
-      <c r="F83" s="351"/>
-      <c r="G83" s="351"/>
-      <c r="H83" s="351"/>
-      <c r="I83" s="351"/>
-      <c r="J83" s="351"/>
-      <c r="K83" s="351"/>
-      <c r="L83" s="351"/>
-      <c r="M83" s="351"/>
-      <c r="N83" s="351"/>
-      <c r="O83" s="351"/>
-      <c r="P83" s="351"/>
-      <c r="Q83" s="351"/>
-      <c r="R83" s="351"/>
-      <c r="S83" s="351"/>
-      <c r="T83" s="351"/>
-      <c r="U83" s="351"/>
-      <c r="V83" s="351"/>
-      <c r="W83" s="351"/>
-      <c r="X83" s="351"/>
+      <c r="B83" s="358"/>
+      <c r="C83" s="358"/>
+      <c r="D83" s="358"/>
+      <c r="E83" s="358"/>
+      <c r="F83" s="358"/>
+      <c r="G83" s="358"/>
+      <c r="H83" s="358"/>
+      <c r="I83" s="358"/>
+      <c r="J83" s="358"/>
+      <c r="K83" s="358"/>
+      <c r="L83" s="358"/>
+      <c r="M83" s="358"/>
+      <c r="N83" s="358"/>
+      <c r="O83" s="358"/>
+      <c r="P83" s="358"/>
+      <c r="Q83" s="358"/>
+      <c r="R83" s="358"/>
+      <c r="S83" s="358"/>
+      <c r="T83" s="358"/>
+      <c r="U83" s="358"/>
+      <c r="V83" s="358"/>
+      <c r="W83" s="358"/>
+      <c r="X83" s="358"/>
     </row>
     <row r="84" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="351"/>
-      <c r="B84" s="351"/>
-      <c r="C84" s="351"/>
-      <c r="D84" s="351"/>
-      <c r="E84" s="351"/>
-      <c r="F84" s="351"/>
-      <c r="G84" s="351"/>
-      <c r="H84" s="351"/>
-      <c r="I84" s="351"/>
-      <c r="J84" s="351"/>
-      <c r="K84" s="351"/>
-      <c r="L84" s="351"/>
-      <c r="M84" s="351"/>
-      <c r="N84" s="351"/>
-      <c r="O84" s="351"/>
-      <c r="P84" s="351"/>
-      <c r="Q84" s="351"/>
-      <c r="R84" s="351"/>
-      <c r="S84" s="351"/>
-      <c r="T84" s="351"/>
-      <c r="U84" s="351"/>
-      <c r="V84" s="351"/>
-      <c r="W84" s="351"/>
-      <c r="X84" s="351"/>
+      <c r="A84" s="358"/>
+      <c r="B84" s="358"/>
+      <c r="C84" s="358"/>
+      <c r="D84" s="358"/>
+      <c r="E84" s="358"/>
+      <c r="F84" s="358"/>
+      <c r="G84" s="358"/>
+      <c r="H84" s="358"/>
+      <c r="I84" s="358"/>
+      <c r="J84" s="358"/>
+      <c r="K84" s="358"/>
+      <c r="L84" s="358"/>
+      <c r="M84" s="358"/>
+      <c r="N84" s="358"/>
+      <c r="O84" s="358"/>
+      <c r="P84" s="358"/>
+      <c r="Q84" s="358"/>
+      <c r="R84" s="358"/>
+      <c r="S84" s="358"/>
+      <c r="T84" s="358"/>
+      <c r="U84" s="358"/>
+      <c r="V84" s="358"/>
+      <c r="W84" s="358"/>
+      <c r="X84" s="358"/>
     </row>
     <row r="85" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="239" t="s">
@@ -41685,153 +41663,57 @@
       <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I94" s="341" t="s">
+      <c r="I94" s="373" t="s">
         <v>30</v>
       </c>
-      <c r="J94" s="341"/>
-      <c r="K94" s="341"/>
-      <c r="L94" s="341"/>
-      <c r="M94" s="341"/>
-      <c r="N94" s="341"/>
-      <c r="O94" s="341"/>
-      <c r="P94" s="341"/>
+      <c r="J94" s="373"/>
+      <c r="K94" s="373"/>
+      <c r="L94" s="373"/>
+      <c r="M94" s="373"/>
+      <c r="N94" s="373"/>
+      <c r="O94" s="373"/>
+      <c r="P94" s="373"/>
       <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I95" s="342" t="str">
+      <c r="I95" s="374" t="str">
         <f>IF(I94=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
         <v>Director Técnico</v>
       </c>
-      <c r="J95" s="342"/>
-      <c r="K95" s="342"/>
-      <c r="L95" s="342"/>
-      <c r="M95" s="342"/>
-      <c r="N95" s="342"/>
-      <c r="O95" s="342"/>
-      <c r="P95" s="342"/>
+      <c r="J95" s="374"/>
+      <c r="K95" s="374"/>
+      <c r="L95" s="374"/>
+      <c r="M95" s="374"/>
+      <c r="N95" s="374"/>
+      <c r="O95" s="374"/>
+      <c r="P95" s="374"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I96" s="343" t="s">
+      <c r="I96" s="375" t="s">
         <v>446</v>
       </c>
-      <c r="J96" s="343"/>
-      <c r="K96" s="343"/>
-      <c r="L96" s="343"/>
-      <c r="M96" s="343"/>
-      <c r="N96" s="343"/>
-      <c r="O96" s="343"/>
-      <c r="P96" s="343"/>
+      <c r="J96" s="375"/>
+      <c r="K96" s="375"/>
+      <c r="L96" s="375"/>
+      <c r="M96" s="375"/>
+      <c r="N96" s="375"/>
+      <c r="O96" s="375"/>
+      <c r="P96" s="375"/>
     </row>
     <row r="98" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I98" s="344" t="s">
+      <c r="I98" s="376" t="s">
         <v>447</v>
       </c>
-      <c r="J98" s="344"/>
-      <c r="K98" s="344"/>
-      <c r="L98" s="344"/>
-      <c r="M98" s="344"/>
-      <c r="N98" s="344"/>
-      <c r="O98" s="344"/>
-      <c r="P98" s="344"/>
+      <c r="J98" s="376"/>
+      <c r="K98" s="376"/>
+      <c r="L98" s="376"/>
+      <c r="M98" s="376"/>
+      <c r="N98" s="376"/>
+      <c r="O98" s="376"/>
+      <c r="P98" s="376"/>
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="N21:X22"/>
-    <mergeCell ref="D25:W25"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:K27"/>
-    <mergeCell ref="L26:Q27"/>
-    <mergeCell ref="R26:W27"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="D38:W38"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="F39:K40"/>
-    <mergeCell ref="L39:Q40"/>
-    <mergeCell ref="R39:W40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="L41:Q41"/>
-    <mergeCell ref="R41:W41"/>
-    <mergeCell ref="A64:X65"/>
-    <mergeCell ref="A68:X72"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:T75"/>
-    <mergeCell ref="U75:X75"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="L46:Q46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="L45:Q45"/>
-    <mergeCell ref="R45:W45"/>
-    <mergeCell ref="L42:Q42"/>
-    <mergeCell ref="R42:W42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="R43:W43"/>
-    <mergeCell ref="I94:P94"/>
-    <mergeCell ref="I95:P95"/>
-    <mergeCell ref="I96:P96"/>
-    <mergeCell ref="I98:P98"/>
-    <mergeCell ref="A83:X84"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="O76:T76"/>
-    <mergeCell ref="U76:X76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="O77:T77"/>
-    <mergeCell ref="U77:X77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="O78:T78"/>
-    <mergeCell ref="U78:X78"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:K34"/>
     <mergeCell ref="L34:Q34"/>
@@ -41856,6 +41738,102 @@
     <mergeCell ref="L44:Q44"/>
     <mergeCell ref="R44:W44"/>
     <mergeCell ref="D45:E45"/>
+    <mergeCell ref="I94:P94"/>
+    <mergeCell ref="I95:P95"/>
+    <mergeCell ref="I96:P96"/>
+    <mergeCell ref="I98:P98"/>
+    <mergeCell ref="A83:X84"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="O76:T76"/>
+    <mergeCell ref="U76:X76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="O77:T77"/>
+    <mergeCell ref="U77:X77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="O78:T78"/>
+    <mergeCell ref="U78:X78"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="L45:Q45"/>
+    <mergeCell ref="R45:W45"/>
+    <mergeCell ref="L42:Q42"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="A64:X65"/>
+    <mergeCell ref="A68:X72"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:T75"/>
+    <mergeCell ref="U75:X75"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="L46:Q46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="D38:W38"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="F39:K40"/>
+    <mergeCell ref="L39:Q40"/>
+    <mergeCell ref="R39:W40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="N21:X22"/>
+    <mergeCell ref="D25:W25"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:K27"/>
+    <mergeCell ref="L26:Q27"/>
+    <mergeCell ref="R26:W27"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N11:Q11"/>
   </mergeCells>
   <conditionalFormatting sqref="A87">
     <cfRule type="cellIs" priority="1" operator="equal">
@@ -41911,14 +41889,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B2" s="387" t="s">
+      <c r="B2" s="378" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="387"/>
-      <c r="D2" s="387"/>
-      <c r="E2" s="387"/>
-      <c r="F2" s="387"/>
-      <c r="G2" s="387"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
       <c r="I2" s="268"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
@@ -41938,14 +41916,14 @@
       <c r="E4" s="269"/>
       <c r="F4" s="269"/>
       <c r="G4" s="269"/>
-      <c r="I4" s="388" t="s">
+      <c r="I4" s="380" t="s">
         <v>530</v>
       </c>
-      <c r="J4" s="388"/>
-      <c r="K4" s="388" t="s">
+      <c r="J4" s="380"/>
+      <c r="K4" s="380" t="s">
         <v>531</v>
       </c>
-      <c r="L4" s="388"/>
+      <c r="L4" s="380"/>
       <c r="N4" s="15" t="s">
         <v>532</v>
       </c>
@@ -41958,12 +41936,12 @@
       <c r="C5" s="271" t="s">
         <v>534</v>
       </c>
-      <c r="D5" s="380" t="s">
+      <c r="D5" s="381" t="s">
         <v>535</v>
       </c>
-      <c r="E5" s="381"/>
-      <c r="F5" s="381"/>
-      <c r="G5" s="382"/>
+      <c r="E5" s="382"/>
+      <c r="F5" s="382"/>
+      <c r="G5" s="383"/>
       <c r="I5" s="272" t="s">
         <v>135</v>
       </c>
@@ -41991,32 +41969,32 @@
       <c r="Q5" s="272" t="s">
         <v>540</v>
       </c>
-      <c r="W5" s="386" t="s">
+      <c r="W5" s="377" t="s">
         <v>727</v>
       </c>
-      <c r="X5" s="386"/>
-      <c r="Y5" s="386"/>
-      <c r="Z5" s="386"/>
-      <c r="AA5" s="386"/>
-      <c r="AB5" s="386"/>
-      <c r="AC5" s="386"/>
-      <c r="AD5" s="386"/>
+      <c r="X5" s="377"/>
+      <c r="Y5" s="377"/>
+      <c r="Z5" s="377"/>
+      <c r="AA5" s="377"/>
+      <c r="AB5" s="377"/>
+      <c r="AC5" s="377"/>
+      <c r="AD5" s="377"/>
     </row>
     <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="377">
+      <c r="B6" s="384">
         <v>-82.74</v>
       </c>
-      <c r="C6" s="377">
+      <c r="C6" s="384">
         <v>-0.06</v>
       </c>
-      <c r="D6" s="385" t="s">
+      <c r="D6" s="386" t="s">
         <v>721</v>
       </c>
-      <c r="E6" s="382"/>
-      <c r="F6" s="380" t="s">
+      <c r="E6" s="383"/>
+      <c r="F6" s="381" t="s">
         <v>722</v>
       </c>
-      <c r="G6" s="382"/>
+      <c r="G6" s="383"/>
       <c r="I6" s="27">
         <v>-82.74</v>
       </c>
@@ -42052,16 +42030,16 @@
       <c r="AD6" s="295"/>
     </row>
     <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="378"/>
-      <c r="C7" s="378"/>
-      <c r="D7" s="380" t="s">
+      <c r="B7" s="385"/>
+      <c r="C7" s="385"/>
+      <c r="D7" s="381" t="s">
         <v>541</v>
       </c>
-      <c r="E7" s="382"/>
-      <c r="F7" s="380" t="s">
+      <c r="E7" s="383"/>
+      <c r="F7" s="381" t="s">
         <v>542</v>
       </c>
-      <c r="G7" s="382"/>
+      <c r="G7" s="383"/>
       <c r="I7" s="27">
         <v>0.01</v>
       </c>
@@ -42187,40 +42165,40 @@
       <c r="C10" s="271" t="s">
         <v>534</v>
       </c>
-      <c r="D10" s="380" t="s">
+      <c r="D10" s="381" t="s">
         <v>535</v>
       </c>
-      <c r="E10" s="381"/>
-      <c r="F10" s="381"/>
-      <c r="G10" s="382"/>
+      <c r="E10" s="382"/>
+      <c r="F10" s="382"/>
+      <c r="G10" s="383"/>
     </row>
     <row r="11" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="377">
+      <c r="B11" s="384">
         <v>0.01</v>
       </c>
-      <c r="C11" s="377">
+      <c r="C11" s="384">
         <v>699.75</v>
       </c>
-      <c r="D11" s="385" t="s">
+      <c r="D11" s="386" t="s">
         <v>723</v>
       </c>
-      <c r="E11" s="382"/>
-      <c r="F11" s="380" t="s">
+      <c r="E11" s="383"/>
+      <c r="F11" s="381" t="s">
         <v>724</v>
       </c>
-      <c r="G11" s="382"/>
+      <c r="G11" s="383"/>
     </row>
     <row r="12" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="378"/>
-      <c r="C12" s="378"/>
-      <c r="D12" s="380" t="s">
+      <c r="B12" s="385"/>
+      <c r="C12" s="385"/>
+      <c r="D12" s="381" t="s">
         <v>541</v>
       </c>
-      <c r="E12" s="382"/>
-      <c r="F12" s="380" t="s">
+      <c r="E12" s="383"/>
+      <c r="F12" s="381" t="s">
         <v>542</v>
       </c>
-      <c r="G12" s="382"/>
+      <c r="G12" s="383"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B13" s="269"/>
@@ -42243,38 +42221,38 @@
         <v>532</v>
       </c>
       <c r="J14" s="15"/>
-      <c r="K14" s="383" t="s">
+      <c r="K14" s="387" t="s">
         <v>732</v>
       </c>
-      <c r="L14" s="383"/>
-      <c r="M14" s="383"/>
+      <c r="L14" s="387"/>
+      <c r="M14" s="387"/>
       <c r="P14" s="15" t="s">
         <v>532</v>
       </c>
       <c r="Q14" s="15"/>
-      <c r="R14" s="383" t="s">
+      <c r="R14" s="387" t="s">
         <v>733</v>
       </c>
-      <c r="S14" s="383"/>
-      <c r="T14" s="383"/>
+      <c r="S14" s="387"/>
+      <c r="T14" s="387"/>
       <c r="W14" s="15" t="s">
         <v>532</v>
       </c>
       <c r="X14" s="15"/>
-      <c r="Y14" s="384" t="s">
+      <c r="Y14" s="388" t="s">
         <v>734</v>
       </c>
-      <c r="Z14" s="384"/>
-      <c r="AA14" s="384"/>
+      <c r="Z14" s="388"/>
+      <c r="AA14" s="388"/>
       <c r="AD14" s="15" t="s">
         <v>532</v>
       </c>
       <c r="AE14" s="15"/>
-      <c r="AF14" s="384" t="s">
+      <c r="AF14" s="388" t="s">
         <v>726</v>
       </c>
-      <c r="AG14" s="384"/>
-      <c r="AH14" s="384"/>
+      <c r="AG14" s="388"/>
+      <c r="AH14" s="388"/>
     </row>
     <row r="15" spans="2:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="270" t="s">
@@ -42283,12 +42261,12 @@
       <c r="C15" s="271" t="s">
         <v>534</v>
       </c>
-      <c r="D15" s="380" t="s">
+      <c r="D15" s="381" t="s">
         <v>535</v>
       </c>
-      <c r="E15" s="381"/>
-      <c r="F15" s="381"/>
-      <c r="G15" s="382"/>
+      <c r="E15" s="382"/>
+      <c r="F15" s="382"/>
+      <c r="G15" s="383"/>
       <c r="I15" s="274" t="s">
         <v>543</v>
       </c>
@@ -42351,20 +42329,20 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="377">
+      <c r="B16" s="384">
         <v>700</v>
       </c>
-      <c r="C16" s="377">
+      <c r="C16" s="384">
         <v>7000</v>
       </c>
-      <c r="D16" s="380" t="s">
+      <c r="D16" s="381" t="s">
         <v>547</v>
       </c>
-      <c r="E16" s="382"/>
-      <c r="F16" s="380" t="s">
+      <c r="E16" s="383"/>
+      <c r="F16" s="381" t="s">
         <v>725</v>
       </c>
-      <c r="G16" s="382"/>
+      <c r="G16" s="383"/>
       <c r="I16" s="20" t="s">
         <v>548</v>
       </c>
@@ -42443,16 +42421,16 @@
       </c>
     </row>
     <row r="17" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="378"/>
-      <c r="C17" s="378"/>
-      <c r="D17" s="380" t="s">
+      <c r="B17" s="385"/>
+      <c r="C17" s="385"/>
+      <c r="D17" s="381" t="s">
         <v>541</v>
       </c>
-      <c r="E17" s="382"/>
-      <c r="F17" s="380" t="s">
+      <c r="E17" s="383"/>
+      <c r="F17" s="381" t="s">
         <v>542</v>
       </c>
-      <c r="G17" s="382"/>
+      <c r="G17" s="383"/>
       <c r="I17" s="20" t="s">
         <v>549</v>
       </c>
@@ -42702,12 +42680,12 @@
       <c r="C20" s="271" t="s">
         <v>534</v>
       </c>
-      <c r="D20" s="380" t="s">
+      <c r="D20" s="381" t="s">
         <v>535</v>
       </c>
-      <c r="E20" s="381"/>
-      <c r="F20" s="381"/>
-      <c r="G20" s="382"/>
+      <c r="E20" s="382"/>
+      <c r="F20" s="382"/>
+      <c r="G20" s="383"/>
       <c r="I20" s="20" t="s">
         <v>552</v>
       </c>
@@ -42786,20 +42764,20 @@
       </c>
     </row>
     <row r="21" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="377">
+      <c r="B21" s="384">
         <v>7001</v>
       </c>
-      <c r="C21" s="377">
+      <c r="C21" s="384">
         <v>34500</v>
       </c>
-      <c r="D21" s="380" t="s">
+      <c r="D21" s="381" t="s">
         <v>553</v>
       </c>
-      <c r="E21" s="382"/>
-      <c r="F21" s="380" t="s">
+      <c r="E21" s="383"/>
+      <c r="F21" s="381" t="s">
         <v>726</v>
       </c>
-      <c r="G21" s="382"/>
+      <c r="G21" s="383"/>
       <c r="I21" s="20" t="s">
         <v>554</v>
       </c>
@@ -42878,16 +42856,16 @@
       </c>
     </row>
     <row r="22" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="378"/>
-      <c r="C22" s="378"/>
-      <c r="D22" s="380" t="s">
+      <c r="B22" s="385"/>
+      <c r="C22" s="385"/>
+      <c r="D22" s="381" t="s">
         <v>541</v>
       </c>
-      <c r="E22" s="382"/>
-      <c r="F22" s="380" t="s">
+      <c r="E22" s="383"/>
+      <c r="F22" s="381" t="s">
         <v>542</v>
       </c>
-      <c r="G22" s="382"/>
+      <c r="G22" s="383"/>
       <c r="I22" s="20" t="s">
         <v>555</v>
       </c>
@@ -43244,49 +43222,75 @@
       </c>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="I28" s="377">
+      <c r="I28" s="384">
         <v>-82.74</v>
       </c>
-      <c r="J28" s="377">
+      <c r="J28" s="384">
         <v>-0.06</v>
       </c>
-      <c r="P28" s="377">
+      <c r="P28" s="384">
         <v>0.01</v>
       </c>
-      <c r="Q28" s="377">
+      <c r="Q28" s="384">
         <v>699.75</v>
       </c>
-      <c r="W28" s="377">
+      <c r="W28" s="384">
         <v>700</v>
       </c>
-      <c r="X28" s="377">
+      <c r="X28" s="384">
         <v>7000</v>
       </c>
-      <c r="AD28" s="377">
+      <c r="AD28" s="384">
         <v>7001</v>
       </c>
-      <c r="AE28" s="377">
+      <c r="AE28" s="384">
         <v>34500</v>
       </c>
     </row>
     <row r="29" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I29" s="378"/>
-      <c r="J29" s="378"/>
-      <c r="P29" s="378"/>
-      <c r="Q29" s="378"/>
-      <c r="W29" s="378"/>
-      <c r="X29" s="378"/>
-      <c r="AD29" s="378"/>
-      <c r="AE29" s="378"/>
+      <c r="I29" s="385"/>
+      <c r="J29" s="385"/>
+      <c r="P29" s="385"/>
+      <c r="Q29" s="385"/>
+      <c r="W29" s="385"/>
+      <c r="X29" s="385"/>
+      <c r="AD29" s="385"/>
+      <c r="AE29" s="385"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="W5:AD5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D10:G10"/>
@@ -43301,38 +43305,12 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="W5:AD5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="135" orientation="landscape" r:id="rId1"/>
@@ -43455,778 +43433,748 @@
       <c r="V7" s="9"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="352" t="s">
+      <c r="A8" s="359" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="353"/>
-      <c r="C8" s="353"/>
-      <c r="D8" s="353"/>
-      <c r="E8" s="353"/>
-      <c r="F8" s="354"/>
-      <c r="G8" s="352" t="s">
+      <c r="B8" s="360"/>
+      <c r="C8" s="360"/>
+      <c r="D8" s="360"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="361"/>
+      <c r="G8" s="359" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="353"/>
-      <c r="I8" s="354"/>
-      <c r="J8" s="355" t="s">
+      <c r="H8" s="360"/>
+      <c r="I8" s="361"/>
+      <c r="J8" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="356"/>
-      <c r="L8" s="356"/>
-      <c r="M8" s="356"/>
-      <c r="N8" s="357"/>
-      <c r="O8" s="352" t="s">
+      <c r="K8" s="363"/>
+      <c r="L8" s="363"/>
+      <c r="M8" s="363"/>
+      <c r="N8" s="364"/>
+      <c r="O8" s="359" t="s">
         <v>440</v>
       </c>
-      <c r="P8" s="353"/>
-      <c r="Q8" s="353"/>
-      <c r="R8" s="353"/>
-      <c r="S8" s="353"/>
-      <c r="T8" s="354"/>
-      <c r="U8" s="355" t="s">
+      <c r="P8" s="360"/>
+      <c r="Q8" s="360"/>
+      <c r="R8" s="360"/>
+      <c r="S8" s="360"/>
+      <c r="T8" s="361"/>
+      <c r="U8" s="362" t="s">
         <v>441</v>
       </c>
-      <c r="V8" s="356"/>
-      <c r="W8" s="356"/>
-      <c r="X8" s="357"/>
+      <c r="V8" s="363"/>
+      <c r="W8" s="363"/>
+      <c r="X8" s="364"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="345" t="s">
+      <c r="A9" s="367" t="s">
         <v>449</v>
       </c>
-      <c r="B9" s="346" t="s">
+      <c r="B9" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="C9" s="346" t="s">
+      <c r="C9" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="D9" s="346" t="s">
+      <c r="D9" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="E9" s="346" t="s">
+      <c r="E9" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="F9" s="347" t="s">
+      <c r="F9" s="369" t="s">
         <v>449</v>
       </c>
-      <c r="G9" s="345" t="s">
+      <c r="G9" s="367" t="s">
         <v>285</v>
       </c>
-      <c r="H9" s="346" t="s">
+      <c r="H9" s="368" t="s">
         <v>285</v>
       </c>
-      <c r="I9" s="347" t="s">
+      <c r="I9" s="369" t="s">
         <v>285</v>
       </c>
-      <c r="J9" s="348" t="s">
+      <c r="J9" s="370" t="s">
         <v>706</v>
       </c>
-      <c r="K9" s="349" t="s">
+      <c r="K9" s="371" t="s">
         <v>451</v>
       </c>
-      <c r="L9" s="349">
+      <c r="L9" s="371">
         <v>43368</v>
       </c>
-      <c r="M9" s="349" t="s">
+      <c r="M9" s="371" t="s">
         <v>450</v>
       </c>
-      <c r="N9" s="350" t="s">
+      <c r="N9" s="372" t="s">
         <v>451</v>
       </c>
-      <c r="O9" s="345" t="s">
+      <c r="O9" s="367" t="s">
         <v>451</v>
       </c>
-      <c r="P9" s="346" t="s">
+      <c r="P9" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="Q9" s="346" t="s">
+      <c r="Q9" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="R9" s="346" t="s">
+      <c r="R9" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="S9" s="346" t="s">
+      <c r="S9" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="T9" s="347" t="s">
+      <c r="T9" s="369" t="s">
         <v>451</v>
       </c>
-      <c r="U9" s="348">
+      <c r="U9" s="370">
         <v>44096</v>
       </c>
-      <c r="V9" s="349" t="s">
+      <c r="V9" s="371" t="s">
         <v>450</v>
       </c>
-      <c r="W9" s="349" t="s">
+      <c r="W9" s="371" t="s">
         <v>451</v>
       </c>
-      <c r="X9" s="350">
+      <c r="X9" s="372">
         <v>43368</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="345" t="s">
+      <c r="A10" s="367" t="s">
         <v>449</v>
       </c>
-      <c r="B10" s="346" t="s">
+      <c r="B10" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="C10" s="346" t="s">
+      <c r="C10" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="D10" s="346" t="s">
+      <c r="D10" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="E10" s="346" t="s">
+      <c r="E10" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="F10" s="347" t="s">
+      <c r="F10" s="369" t="s">
         <v>449</v>
       </c>
-      <c r="G10" s="345" t="s">
+      <c r="G10" s="367" t="s">
         <v>293</v>
       </c>
-      <c r="H10" s="346" t="s">
+      <c r="H10" s="368" t="s">
         <v>293</v>
       </c>
-      <c r="I10" s="347" t="s">
+      <c r="I10" s="369" t="s">
         <v>293</v>
       </c>
-      <c r="J10" s="348" t="s">
+      <c r="J10" s="370" t="s">
         <v>707</v>
       </c>
-      <c r="K10" s="349" t="s">
+      <c r="K10" s="371" t="s">
         <v>451</v>
       </c>
-      <c r="L10" s="349">
+      <c r="L10" s="371">
         <v>43369</v>
       </c>
-      <c r="M10" s="349" t="s">
+      <c r="M10" s="371" t="s">
         <v>708</v>
       </c>
-      <c r="N10" s="350" t="s">
+      <c r="N10" s="372" t="s">
         <v>451</v>
       </c>
-      <c r="O10" s="345" t="s">
+      <c r="O10" s="367" t="s">
         <v>451</v>
       </c>
-      <c r="P10" s="346" t="s">
+      <c r="P10" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="Q10" s="346" t="s">
+      <c r="Q10" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="R10" s="346" t="s">
+      <c r="R10" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="S10" s="346" t="s">
+      <c r="S10" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="T10" s="347" t="s">
+      <c r="T10" s="369" t="s">
         <v>451</v>
       </c>
-      <c r="U10" s="348">
+      <c r="U10" s="370">
         <v>44431</v>
       </c>
-      <c r="V10" s="349" t="s">
+      <c r="V10" s="371" t="s">
         <v>708</v>
       </c>
-      <c r="W10" s="349" t="s">
+      <c r="W10" s="371" t="s">
         <v>451</v>
       </c>
-      <c r="X10" s="350">
+      <c r="X10" s="372">
         <v>43369</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="367" t="s">
         <v>709</v>
       </c>
-      <c r="B11" s="346" t="s">
+      <c r="B11" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="C11" s="346" t="s">
+      <c r="C11" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="346" t="s">
+      <c r="D11" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="E11" s="346" t="s">
+      <c r="E11" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="F11" s="347" t="s">
+      <c r="F11" s="369" t="s">
         <v>449</v>
       </c>
-      <c r="G11" s="345" t="s">
+      <c r="G11" s="367" t="s">
         <v>294</v>
       </c>
-      <c r="H11" s="346" t="s">
+      <c r="H11" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I11" s="347" t="s">
+      <c r="I11" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J11" s="348" t="s">
+      <c r="J11" s="370" t="s">
         <v>698</v>
       </c>
-      <c r="K11" s="349" t="s">
+      <c r="K11" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L11" s="349">
+      <c r="L11" s="371">
         <v>43392</v>
       </c>
-      <c r="M11" s="349" t="s">
+      <c r="M11" s="371" t="s">
         <v>452</v>
       </c>
-      <c r="N11" s="350" t="s">
+      <c r="N11" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O11" s="345" t="s">
+      <c r="O11" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P11" s="346" t="s">
+      <c r="P11" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q11" s="346" t="s">
+      <c r="Q11" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R11" s="346" t="s">
+      <c r="R11" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S11" s="346" t="s">
+      <c r="S11" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T11" s="347" t="s">
+      <c r="T11" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U11" s="348">
+      <c r="U11" s="370">
         <v>44083</v>
       </c>
-      <c r="V11" s="349" t="s">
+      <c r="V11" s="371" t="s">
         <v>452</v>
       </c>
-      <c r="W11" s="349" t="s">
+      <c r="W11" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X11" s="350">
+      <c r="X11" s="372">
         <v>43392</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="345" t="s">
+      <c r="A12" s="367" t="s">
         <v>709</v>
       </c>
-      <c r="B12" s="346" t="s">
+      <c r="B12" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="346" t="s">
+      <c r="C12" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="D12" s="346" t="s">
+      <c r="D12" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="E12" s="346" t="s">
+      <c r="E12" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="F12" s="347" t="s">
+      <c r="F12" s="369" t="s">
         <v>449</v>
       </c>
-      <c r="G12" s="345" t="s">
+      <c r="G12" s="367" t="s">
         <v>477</v>
       </c>
-      <c r="H12" s="346" t="s">
+      <c r="H12" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I12" s="347" t="s">
+      <c r="I12" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J12" s="348" t="s">
+      <c r="J12" s="370" t="s">
         <v>700</v>
       </c>
-      <c r="K12" s="349" t="s">
+      <c r="K12" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L12" s="349">
+      <c r="L12" s="371">
         <v>43393</v>
       </c>
-      <c r="M12" s="349" t="s">
+      <c r="M12" s="371" t="s">
         <v>466</v>
       </c>
-      <c r="N12" s="350" t="s">
+      <c r="N12" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O12" s="345" t="s">
+      <c r="O12" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P12" s="346" t="s">
+      <c r="P12" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q12" s="346" t="s">
+      <c r="Q12" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R12" s="346" t="s">
+      <c r="R12" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S12" s="346" t="s">
+      <c r="S12" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T12" s="347" t="s">
+      <c r="T12" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U12" s="348">
+      <c r="U12" s="370">
         <v>44058</v>
       </c>
-      <c r="V12" s="349" t="s">
+      <c r="V12" s="371" t="s">
         <v>466</v>
       </c>
-      <c r="W12" s="349" t="s">
+      <c r="W12" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X12" s="350">
+      <c r="X12" s="372">
         <v>43393</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="345" t="s">
+      <c r="A13" s="367" t="s">
         <v>465</v>
       </c>
-      <c r="B13" s="346" t="s">
+      <c r="B13" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="C13" s="346" t="s">
+      <c r="C13" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="D13" s="346" t="s">
+      <c r="D13" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="E13" s="346" t="s">
+      <c r="E13" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="F13" s="347" t="s">
+      <c r="F13" s="369" t="s">
         <v>449</v>
       </c>
-      <c r="G13" s="345" t="s">
+      <c r="G13" s="367" t="s">
         <v>463</v>
       </c>
-      <c r="H13" s="346" t="s">
+      <c r="H13" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I13" s="347" t="s">
+      <c r="I13" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J13" s="348" t="s">
+      <c r="J13" s="370" t="s">
         <v>718</v>
       </c>
-      <c r="K13" s="349" t="s">
+      <c r="K13" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L13" s="349">
+      <c r="L13" s="371">
         <v>43393</v>
       </c>
-      <c r="M13" s="349" t="s">
+      <c r="M13" s="371" t="s">
         <v>466</v>
       </c>
-      <c r="N13" s="350" t="s">
+      <c r="N13" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O13" s="345" t="s">
+      <c r="O13" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P13" s="346" t="s">
+      <c r="P13" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q13" s="346" t="s">
+      <c r="Q13" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R13" s="346" t="s">
+      <c r="R13" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S13" s="346" t="s">
+      <c r="S13" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T13" s="347" t="s">
+      <c r="T13" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U13" s="348">
+      <c r="U13" s="370">
         <v>44542</v>
       </c>
-      <c r="V13" s="349" t="s">
+      <c r="V13" s="371" t="s">
         <v>466</v>
       </c>
-      <c r="W13" s="349" t="s">
+      <c r="W13" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X13" s="350">
+      <c r="X13" s="372">
         <v>43393</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="345" t="s">
+      <c r="A14" s="367" t="s">
         <v>710</v>
       </c>
-      <c r="B14" s="346"/>
-      <c r="C14" s="346"/>
-      <c r="D14" s="346"/>
-      <c r="E14" s="346"/>
-      <c r="F14" s="347"/>
-      <c r="G14" s="345" t="s">
+      <c r="B14" s="368"/>
+      <c r="C14" s="368"/>
+      <c r="D14" s="368"/>
+      <c r="E14" s="368"/>
+      <c r="F14" s="369"/>
+      <c r="G14" s="367" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="346" t="s">
+      <c r="H14" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I14" s="347" t="s">
+      <c r="I14" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J14" s="348" t="s">
+      <c r="J14" s="370" t="s">
         <v>711</v>
       </c>
-      <c r="K14" s="349" t="s">
+      <c r="K14" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L14" s="349">
+      <c r="L14" s="371">
         <v>43394</v>
       </c>
-      <c r="M14" s="349" t="s">
+      <c r="M14" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="N14" s="350" t="s">
+      <c r="N14" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O14" s="345" t="s">
+      <c r="O14" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P14" s="346" t="s">
+      <c r="P14" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q14" s="346" t="s">
+      <c r="Q14" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R14" s="346" t="s">
+      <c r="R14" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S14" s="346" t="s">
+      <c r="S14" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T14" s="347" t="s">
+      <c r="T14" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U14" s="348">
+      <c r="U14" s="370">
         <v>44158</v>
       </c>
-      <c r="V14" s="349" t="s">
+      <c r="V14" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="W14" s="349" t="s">
+      <c r="W14" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X14" s="350">
+      <c r="X14" s="372">
         <v>43394</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="345" t="s">
+      <c r="A15" s="367" t="s">
         <v>710</v>
       </c>
-      <c r="B15" s="346"/>
-      <c r="C15" s="346"/>
-      <c r="D15" s="346"/>
-      <c r="E15" s="346"/>
-      <c r="F15" s="347"/>
-      <c r="G15" s="345" t="s">
+      <c r="B15" s="368"/>
+      <c r="C15" s="368"/>
+      <c r="D15" s="368"/>
+      <c r="E15" s="368"/>
+      <c r="F15" s="369"/>
+      <c r="G15" s="367" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="346" t="s">
+      <c r="H15" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I15" s="347" t="s">
+      <c r="I15" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J15" s="348" t="s">
+      <c r="J15" s="370" t="s">
         <v>712</v>
       </c>
-      <c r="K15" s="349" t="s">
+      <c r="K15" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L15" s="349">
+      <c r="L15" s="371">
         <v>43394</v>
       </c>
-      <c r="M15" s="349" t="s">
+      <c r="M15" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="N15" s="350" t="s">
+      <c r="N15" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O15" s="345" t="s">
+      <c r="O15" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P15" s="346" t="s">
+      <c r="P15" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q15" s="346" t="s">
+      <c r="Q15" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R15" s="346" t="s">
+      <c r="R15" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S15" s="346" t="s">
+      <c r="S15" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T15" s="347" t="s">
+      <c r="T15" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U15" s="348">
+      <c r="U15" s="370">
         <v>44331</v>
       </c>
-      <c r="V15" s="349" t="s">
+      <c r="V15" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="W15" s="349" t="s">
+      <c r="W15" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X15" s="350">
+      <c r="X15" s="372">
         <v>43394</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="345" t="s">
+      <c r="A16" s="367" t="s">
         <v>710</v>
       </c>
-      <c r="B16" s="346"/>
-      <c r="C16" s="346"/>
-      <c r="D16" s="346"/>
-      <c r="E16" s="346"/>
-      <c r="F16" s="347"/>
-      <c r="G16" s="345" t="s">
+      <c r="B16" s="368"/>
+      <c r="C16" s="368"/>
+      <c r="D16" s="368"/>
+      <c r="E16" s="368"/>
+      <c r="F16" s="369"/>
+      <c r="G16" s="367" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="346" t="s">
+      <c r="H16" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I16" s="347" t="s">
+      <c r="I16" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J16" s="348" t="s">
+      <c r="J16" s="370" t="s">
         <v>713</v>
       </c>
-      <c r="K16" s="349" t="s">
+      <c r="K16" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L16" s="349">
+      <c r="L16" s="371">
         <v>43394</v>
       </c>
-      <c r="M16" s="349" t="s">
+      <c r="M16" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="N16" s="350" t="s">
+      <c r="N16" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O16" s="345" t="s">
+      <c r="O16" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P16" s="346" t="s">
+      <c r="P16" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q16" s="346" t="s">
+      <c r="Q16" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R16" s="346" t="s">
+      <c r="R16" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S16" s="346" t="s">
+      <c r="S16" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T16" s="347" t="s">
+      <c r="T16" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U16" s="348">
+      <c r="U16" s="370">
         <v>44331</v>
       </c>
-      <c r="V16" s="349" t="s">
+      <c r="V16" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="W16" s="349" t="s">
+      <c r="W16" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X16" s="350">
+      <c r="X16" s="372">
         <v>43394</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="345" t="s">
+      <c r="A17" s="367" t="s">
         <v>710</v>
       </c>
-      <c r="B17" s="346"/>
-      <c r="C17" s="346"/>
-      <c r="D17" s="346"/>
-      <c r="E17" s="346"/>
-      <c r="F17" s="347"/>
-      <c r="G17" s="345" t="s">
+      <c r="B17" s="368"/>
+      <c r="C17" s="368"/>
+      <c r="D17" s="368"/>
+      <c r="E17" s="368"/>
+      <c r="F17" s="369"/>
+      <c r="G17" s="367" t="s">
         <v>311</v>
       </c>
-      <c r="H17" s="346" t="s">
+      <c r="H17" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I17" s="347" t="s">
+      <c r="I17" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J17" s="348" t="s">
+      <c r="J17" s="370" t="s">
         <v>714</v>
       </c>
-      <c r="K17" s="349" t="s">
+      <c r="K17" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L17" s="349">
+      <c r="L17" s="371">
         <v>43394</v>
       </c>
-      <c r="M17" s="349" t="s">
+      <c r="M17" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="N17" s="350" t="s">
+      <c r="N17" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O17" s="345" t="s">
+      <c r="O17" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P17" s="346" t="s">
+      <c r="P17" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q17" s="346" t="s">
+      <c r="Q17" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R17" s="346" t="s">
+      <c r="R17" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S17" s="346" t="s">
+      <c r="S17" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T17" s="347" t="s">
+      <c r="T17" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U17" s="348">
+      <c r="U17" s="370">
         <v>44331</v>
       </c>
-      <c r="V17" s="349" t="s">
+      <c r="V17" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="W17" s="349" t="s">
+      <c r="W17" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X17" s="350">
+      <c r="X17" s="372">
         <v>43394</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="345" t="s">
+      <c r="A18" s="367" t="s">
         <v>470</v>
       </c>
-      <c r="B18" s="346" t="s">
+      <c r="B18" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="C18" s="346" t="s">
+      <c r="C18" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="D18" s="346" t="s">
+      <c r="D18" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="E18" s="346" t="s">
+      <c r="E18" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="F18" s="347" t="s">
+      <c r="F18" s="369" t="s">
         <v>449</v>
       </c>
-      <c r="G18" s="345" t="s">
+      <c r="G18" s="367" t="s">
         <v>467</v>
       </c>
-      <c r="H18" s="346" t="s">
+      <c r="H18" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I18" s="347" t="s">
+      <c r="I18" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J18" s="348" t="s">
+      <c r="J18" s="370" t="s">
         <v>699</v>
       </c>
-      <c r="K18" s="349" t="s">
+      <c r="K18" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L18" s="349">
+      <c r="L18" s="371">
         <v>43394</v>
       </c>
-      <c r="M18" s="349" t="s">
+      <c r="M18" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="N18" s="350" t="s">
+      <c r="N18" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O18" s="345" t="s">
+      <c r="O18" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P18" s="346" t="s">
+      <c r="P18" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q18" s="346" t="s">
+      <c r="Q18" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R18" s="346" t="s">
+      <c r="R18" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S18" s="346" t="s">
+      <c r="S18" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T18" s="347" t="s">
+      <c r="T18" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U18" s="348">
+      <c r="U18" s="370">
         <v>44331</v>
       </c>
-      <c r="V18" s="349" t="s">
+      <c r="V18" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="W18" s="349" t="s">
+      <c r="W18" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X18" s="350">
+      <c r="X18" s="372">
         <v>43394</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="U13:X13"/>
     <mergeCell ref="A5:X5"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="G10:I10"/>
@@ -44243,11 +44191,41 @@
     <mergeCell ref="J9:N9"/>
     <mergeCell ref="O9:T9"/>
     <mergeCell ref="U9:X9"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:T12"/>
+    <mergeCell ref="U12:X12"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -44343,23 +44321,23 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" s="392" t="s">
+      <c r="H4" s="395" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="393"/>
-      <c r="J4" s="392" t="s">
+      <c r="I4" s="396"/>
+      <c r="J4" s="395" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="393"/>
-      <c r="L4" s="394" t="s">
+      <c r="K4" s="396"/>
+      <c r="L4" s="397" t="s">
         <v>258</v>
       </c>
-      <c r="M4" s="396" t="s">
+      <c r="M4" s="399" t="s">
         <v>116</v>
       </c>
-      <c r="N4" s="397"/>
-      <c r="O4" s="397"/>
-      <c r="P4" s="398"/>
+      <c r="N4" s="400"/>
+      <c r="O4" s="400"/>
+      <c r="P4" s="401"/>
     </row>
     <row r="5" spans="2:23" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B5" s="47" t="s">
@@ -44392,11 +44370,11 @@
       <c r="K5" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="395"/>
-      <c r="M5" s="399"/>
-      <c r="N5" s="400"/>
-      <c r="O5" s="400"/>
-      <c r="P5" s="401"/>
+      <c r="L5" s="398"/>
+      <c r="M5" s="402"/>
+      <c r="N5" s="403"/>
+      <c r="O5" s="403"/>
+      <c r="P5" s="404"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
@@ -44640,26 +44618,26 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="390" t="s">
+      <c r="H13" s="393" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="391"/>
-      <c r="J13" s="390" t="s">
+      <c r="I13" s="394"/>
+      <c r="J13" s="393" t="s">
         <v>292</v>
       </c>
-      <c r="K13" s="391"/>
-      <c r="L13" s="390" t="s">
+      <c r="K13" s="394"/>
+      <c r="L13" s="393" t="s">
         <v>137</v>
       </c>
-      <c r="M13" s="391"/>
-      <c r="N13" s="390" t="s">
+      <c r="M13" s="394"/>
+      <c r="N13" s="393" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="391"/>
-      <c r="P13" s="390" t="s">
+      <c r="O13" s="394"/>
+      <c r="P13" s="393" t="s">
         <v>300</v>
       </c>
-      <c r="Q13" s="391"/>
+      <c r="Q13" s="394"/>
       <c r="T13" s="185" t="s">
         <v>330</v>
       </c>
@@ -46864,205 +46842,229 @@
       <c r="L89"/>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D90" s="402" t="s">
+      <c r="D90" s="390" t="s">
         <v>482</v>
       </c>
-      <c r="E90" s="403"/>
-      <c r="F90" s="403"/>
-      <c r="G90" s="404"/>
+      <c r="E90" s="391"/>
+      <c r="F90" s="391"/>
+      <c r="G90" s="392"/>
       <c r="L90"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D91" s="328" t="s">
+      <c r="D91" s="318" t="s">
         <v>483</v>
       </c>
-      <c r="E91" s="329"/>
-      <c r="F91" s="329"/>
-      <c r="G91" s="330"/>
+      <c r="E91" s="319"/>
+      <c r="F91" s="319"/>
+      <c r="G91" s="320"/>
       <c r="L91"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D92" s="328" t="s">
+      <c r="D92" s="318" t="s">
         <v>484</v>
       </c>
-      <c r="E92" s="329"/>
-      <c r="F92" s="329"/>
-      <c r="G92" s="330"/>
+      <c r="E92" s="319"/>
+      <c r="F92" s="319"/>
+      <c r="G92" s="320"/>
       <c r="L92"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D93" s="328" t="s">
+      <c r="D93" s="318" t="s">
         <v>485</v>
       </c>
-      <c r="E93" s="329"/>
-      <c r="F93" s="329"/>
-      <c r="G93" s="330"/>
+      <c r="E93" s="319"/>
+      <c r="F93" s="319"/>
+      <c r="G93" s="320"/>
       <c r="L93"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D94" s="328" t="s">
+      <c r="D94" s="318" t="s">
         <v>486</v>
       </c>
-      <c r="E94" s="329"/>
-      <c r="F94" s="329"/>
-      <c r="G94" s="330"/>
+      <c r="E94" s="319"/>
+      <c r="F94" s="319"/>
+      <c r="G94" s="320"/>
       <c r="L94"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D95" s="328" t="s">
+      <c r="D95" s="318" t="s">
         <v>487</v>
       </c>
-      <c r="E95" s="329"/>
-      <c r="F95" s="329"/>
-      <c r="G95" s="330"/>
+      <c r="E95" s="319"/>
+      <c r="F95" s="319"/>
+      <c r="G95" s="320"/>
       <c r="L95"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D96" s="328" t="s">
+      <c r="D96" s="318" t="s">
         <v>488</v>
       </c>
-      <c r="E96" s="329"/>
-      <c r="F96" s="329"/>
-      <c r="G96" s="330"/>
+      <c r="E96" s="319"/>
+      <c r="F96" s="319"/>
+      <c r="G96" s="320"/>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D97" s="328" t="s">
+      <c r="D97" s="318" t="s">
         <v>489</v>
       </c>
-      <c r="E97" s="329"/>
-      <c r="F97" s="329"/>
-      <c r="G97" s="330"/>
+      <c r="E97" s="319"/>
+      <c r="F97" s="319"/>
+      <c r="G97" s="320"/>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D98" s="328" t="s">
+      <c r="D98" s="318" t="s">
         <v>490</v>
       </c>
-      <c r="E98" s="329"/>
-      <c r="F98" s="329"/>
-      <c r="G98" s="330"/>
+      <c r="E98" s="319"/>
+      <c r="F98" s="319"/>
+      <c r="G98" s="320"/>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D99" s="328" t="s">
+      <c r="D99" s="318" t="s">
         <v>491</v>
       </c>
-      <c r="E99" s="329"/>
-      <c r="F99" s="329"/>
-      <c r="G99" s="330"/>
+      <c r="E99" s="319"/>
+      <c r="F99" s="319"/>
+      <c r="G99" s="320"/>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D100" s="328" t="s">
+      <c r="D100" s="318" t="s">
         <v>492</v>
       </c>
-      <c r="E100" s="329"/>
-      <c r="F100" s="329"/>
-      <c r="G100" s="330"/>
+      <c r="E100" s="319"/>
+      <c r="F100" s="319"/>
+      <c r="G100" s="320"/>
     </row>
     <row r="101" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D101" s="328" t="s">
+      <c r="D101" s="318" t="s">
         <v>493</v>
       </c>
-      <c r="E101" s="329"/>
-      <c r="F101" s="329"/>
-      <c r="G101" s="330"/>
+      <c r="E101" s="319"/>
+      <c r="F101" s="319"/>
+      <c r="G101" s="320"/>
     </row>
     <row r="102" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D102" s="328" t="s">
+      <c r="D102" s="318" t="s">
         <v>494</v>
       </c>
-      <c r="E102" s="329"/>
-      <c r="F102" s="329"/>
-      <c r="G102" s="330"/>
+      <c r="E102" s="319"/>
+      <c r="F102" s="319"/>
+      <c r="G102" s="320"/>
     </row>
     <row r="103" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D103" s="328" t="s">
+      <c r="D103" s="318" t="s">
         <v>495</v>
       </c>
-      <c r="E103" s="329"/>
-      <c r="F103" s="329"/>
-      <c r="G103" s="330"/>
+      <c r="E103" s="319"/>
+      <c r="F103" s="319"/>
+      <c r="G103" s="320"/>
     </row>
     <row r="104" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D104" s="328" t="s">
+      <c r="D104" s="318" t="s">
         <v>496</v>
       </c>
-      <c r="E104" s="329"/>
-      <c r="F104" s="329"/>
-      <c r="G104" s="330"/>
+      <c r="E104" s="319"/>
+      <c r="F104" s="319"/>
+      <c r="G104" s="320"/>
     </row>
     <row r="105" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D105" s="328" t="s">
+      <c r="D105" s="318" t="s">
         <v>497</v>
       </c>
-      <c r="E105" s="329"/>
-      <c r="F105" s="329"/>
-      <c r="G105" s="330"/>
+      <c r="E105" s="319"/>
+      <c r="F105" s="319"/>
+      <c r="G105" s="320"/>
     </row>
     <row r="106" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D106" s="328" t="s">
+      <c r="D106" s="318" t="s">
         <v>498</v>
       </c>
-      <c r="E106" s="329"/>
-      <c r="F106" s="329"/>
-      <c r="G106" s="330"/>
+      <c r="E106" s="319"/>
+      <c r="F106" s="319"/>
+      <c r="G106" s="320"/>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D107" s="328" t="s">
+      <c r="D107" s="318" t="s">
         <v>499</v>
       </c>
-      <c r="E107" s="329"/>
-      <c r="F107" s="329"/>
-      <c r="G107" s="330"/>
+      <c r="E107" s="319"/>
+      <c r="F107" s="319"/>
+      <c r="G107" s="320"/>
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D108" s="328" t="s">
+      <c r="D108" s="318" t="s">
         <v>500</v>
       </c>
-      <c r="E108" s="329"/>
-      <c r="F108" s="329"/>
-      <c r="G108" s="330"/>
+      <c r="E108" s="319"/>
+      <c r="F108" s="319"/>
+      <c r="G108" s="320"/>
     </row>
     <row r="109" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D109" s="328" t="s">
+      <c r="D109" s="318" t="s">
         <v>501</v>
       </c>
-      <c r="E109" s="329"/>
-      <c r="F109" s="329"/>
-      <c r="G109" s="330"/>
+      <c r="E109" s="319"/>
+      <c r="F109" s="319"/>
+      <c r="G109" s="320"/>
     </row>
     <row r="110" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D110" s="328" t="s">
+      <c r="D110" s="318" t="s">
         <v>502</v>
       </c>
-      <c r="E110" s="329"/>
-      <c r="F110" s="329"/>
-      <c r="G110" s="330"/>
+      <c r="E110" s="319"/>
+      <c r="F110" s="319"/>
+      <c r="G110" s="320"/>
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D111" s="328" t="s">
+      <c r="D111" s="318" t="s">
         <v>503</v>
       </c>
-      <c r="E111" s="329"/>
-      <c r="F111" s="329"/>
-      <c r="G111" s="330"/>
+      <c r="E111" s="319"/>
+      <c r="F111" s="319"/>
+      <c r="G111" s="320"/>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D112" s="328" t="s">
+      <c r="D112" s="318" t="s">
         <v>504</v>
       </c>
-      <c r="E112" s="329"/>
-      <c r="F112" s="329"/>
-      <c r="G112" s="330"/>
+      <c r="E112" s="319"/>
+      <c r="F112" s="319"/>
+      <c r="G112" s="320"/>
     </row>
     <row r="113" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D113" s="331" t="s">
+      <c r="D113" s="321" t="s">
         <v>505</v>
       </c>
-      <c r="E113" s="332"/>
-      <c r="F113" s="332"/>
-      <c r="G113" s="333"/>
+      <c r="E113" s="322"/>
+      <c r="F113" s="322"/>
+      <c r="G113" s="323"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:P5"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:G104"/>
     <mergeCell ref="D110:G110"/>
     <mergeCell ref="D111:G111"/>
     <mergeCell ref="D112:G112"/>
@@ -47072,30 +47074,6 @@
     <mergeCell ref="D107:G107"/>
     <mergeCell ref="D108:G108"/>
     <mergeCell ref="D109:G109"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:P5"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="N13:O13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/src/modules/mail/templates/excels/ni_mcit_p_01_5.xlsx
+++ b/src/modules/mail/templates/excels/ni_mcit_p_01_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MamaGuevooooo\Desktop\Regxi\Metrocal-admin-backend\src\modules\mail\templates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0C8F0D-9225-4A0B-97F3-63E1FE6185E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD752E5-3A71-449D-84CC-2BE59723CE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="887" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7781,24 +7781,6 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7829,6 +7811,24 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7850,6 +7850,57 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7862,23 +7913,17 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7901,74 +7946,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7979,32 +7976,26 @@
     <xf numFmtId="0" fontId="52" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8041,6 +8032,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -21952,10 +21952,10 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="N10" s="324" t="s">
+      <c r="N10" s="318" t="s">
         <v>475</v>
       </c>
-      <c r="O10" s="325"/>
+      <c r="O10" s="319"/>
       <c r="P10" s="263" t="str">
         <f>IFERROR(AVERAGE(P3,P5,P7),"")</f>
         <v/>
@@ -21985,10 +21985,10 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="326" t="s">
+      <c r="N11" s="320" t="s">
         <v>476</v>
       </c>
-      <c r="O11" s="327"/>
+      <c r="O11" s="321"/>
       <c r="P11" s="265" t="str">
         <f>IFERROR(AVERAGE(P4,P6,P8),"")</f>
         <v/>
@@ -22213,288 +22213,268 @@
       </c>
     </row>
     <row r="123" spans="23:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Y123" s="328" t="s">
+      <c r="Y123" s="322" t="s">
         <v>482</v>
       </c>
-      <c r="Z123" s="329"/>
-      <c r="AA123" s="329"/>
-      <c r="AB123" s="330"/>
+      <c r="Z123" s="323"/>
+      <c r="AA123" s="323"/>
+      <c r="AB123" s="324"/>
     </row>
     <row r="124" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W124" s="202" t="s">
         <v>276</v>
       </c>
-      <c r="Y124" s="331" t="s">
+      <c r="Y124" s="325" t="s">
         <v>483</v>
       </c>
-      <c r="Z124" s="332"/>
-      <c r="AA124" s="332"/>
-      <c r="AB124" s="333"/>
+      <c r="Z124" s="326"/>
+      <c r="AA124" s="326"/>
+      <c r="AB124" s="327"/>
     </row>
     <row r="125" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W125" s="202" t="s">
         <v>275</v>
       </c>
-      <c r="Y125" s="318" t="s">
+      <c r="Y125" s="328" t="s">
         <v>516</v>
       </c>
-      <c r="Z125" s="319"/>
-      <c r="AA125" s="319"/>
-      <c r="AB125" s="320"/>
+      <c r="Z125" s="329"/>
+      <c r="AA125" s="329"/>
+      <c r="AB125" s="330"/>
     </row>
     <row r="126" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W126" s="202" t="s">
         <v>277</v>
       </c>
-      <c r="Y126" s="318" t="s">
+      <c r="Y126" s="328" t="s">
         <v>485</v>
       </c>
-      <c r="Z126" s="319"/>
-      <c r="AA126" s="319"/>
-      <c r="AB126" s="320"/>
+      <c r="Z126" s="329"/>
+      <c r="AA126" s="329"/>
+      <c r="AB126" s="330"/>
     </row>
     <row r="127" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W127" s="202" t="s">
         <v>338</v>
       </c>
-      <c r="Y127" s="318" t="s">
+      <c r="Y127" s="328" t="s">
         <v>486</v>
       </c>
-      <c r="Z127" s="319"/>
-      <c r="AA127" s="319"/>
-      <c r="AB127" s="320"/>
+      <c r="Z127" s="329"/>
+      <c r="AA127" s="329"/>
+      <c r="AB127" s="330"/>
     </row>
     <row r="128" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W128" s="202" t="s">
         <v>278</v>
       </c>
-      <c r="Y128" s="318" t="s">
+      <c r="Y128" s="328" t="s">
         <v>487</v>
       </c>
-      <c r="Z128" s="319"/>
-      <c r="AA128" s="319"/>
-      <c r="AB128" s="320"/>
+      <c r="Z128" s="329"/>
+      <c r="AA128" s="329"/>
+      <c r="AB128" s="330"/>
     </row>
     <row r="129" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W129" s="202" t="s">
         <v>506</v>
       </c>
-      <c r="Y129" s="318" t="s">
+      <c r="Y129" s="328" t="s">
         <v>488</v>
       </c>
-      <c r="Z129" s="319"/>
-      <c r="AA129" s="319"/>
-      <c r="AB129" s="320"/>
+      <c r="Z129" s="329"/>
+      <c r="AA129" s="329"/>
+      <c r="AB129" s="330"/>
     </row>
     <row r="130" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W130" s="202" t="s">
         <v>507</v>
       </c>
-      <c r="Y130" s="318" t="s">
+      <c r="Y130" s="328" t="s">
         <v>489</v>
       </c>
-      <c r="Z130" s="319"/>
-      <c r="AA130" s="319"/>
-      <c r="AB130" s="320"/>
+      <c r="Z130" s="329"/>
+      <c r="AA130" s="329"/>
+      <c r="AB130" s="330"/>
     </row>
     <row r="131" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W131" s="202" t="s">
         <v>352</v>
       </c>
-      <c r="Y131" s="318" t="s">
+      <c r="Y131" s="328" t="s">
         <v>490</v>
       </c>
-      <c r="Z131" s="319"/>
-      <c r="AA131" s="319"/>
-      <c r="AB131" s="320"/>
+      <c r="Z131" s="329"/>
+      <c r="AA131" s="329"/>
+      <c r="AB131" s="330"/>
     </row>
     <row r="132" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W132" s="202" t="s">
         <v>353</v>
       </c>
-      <c r="Y132" s="318" t="s">
+      <c r="Y132" s="328" t="s">
         <v>491</v>
       </c>
-      <c r="Z132" s="319"/>
-      <c r="AA132" s="319"/>
-      <c r="AB132" s="320"/>
+      <c r="Z132" s="329"/>
+      <c r="AA132" s="329"/>
+      <c r="AB132" s="330"/>
     </row>
     <row r="133" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W133" s="202" t="s">
         <v>354</v>
       </c>
-      <c r="Y133" s="318" t="s">
+      <c r="Y133" s="328" t="s">
         <v>492</v>
       </c>
-      <c r="Z133" s="319"/>
-      <c r="AA133" s="319"/>
-      <c r="AB133" s="320"/>
+      <c r="Z133" s="329"/>
+      <c r="AA133" s="329"/>
+      <c r="AB133" s="330"/>
     </row>
     <row r="134" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W134" s="202" t="s">
         <v>508</v>
       </c>
-      <c r="Y134" s="318" t="s">
+      <c r="Y134" s="328" t="s">
         <v>511</v>
       </c>
-      <c r="Z134" s="319"/>
-      <c r="AA134" s="319"/>
-      <c r="AB134" s="320"/>
+      <c r="Z134" s="329"/>
+      <c r="AA134" s="329"/>
+      <c r="AB134" s="330"/>
     </row>
     <row r="135" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W135" s="202" t="s">
         <v>509</v>
       </c>
-      <c r="Y135" s="318" t="s">
+      <c r="Y135" s="328" t="s">
         <v>512</v>
       </c>
-      <c r="Z135" s="319"/>
-      <c r="AA135" s="319"/>
-      <c r="AB135" s="320"/>
+      <c r="Z135" s="329"/>
+      <c r="AA135" s="329"/>
+      <c r="AB135" s="330"/>
     </row>
     <row r="136" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W136" s="202" t="s">
         <v>510</v>
       </c>
-      <c r="Y136" s="318" t="s">
+      <c r="Y136" s="328" t="s">
         <v>495</v>
       </c>
-      <c r="Z136" s="319"/>
-      <c r="AA136" s="319"/>
-      <c r="AB136" s="320"/>
+      <c r="Z136" s="329"/>
+      <c r="AA136" s="329"/>
+      <c r="AB136" s="330"/>
     </row>
     <row r="137" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W137" s="202" t="s">
         <v>351</v>
       </c>
-      <c r="Y137" s="318" t="s">
+      <c r="Y137" s="328" t="s">
         <v>496</v>
       </c>
-      <c r="Z137" s="319"/>
-      <c r="AA137" s="319"/>
-      <c r="AB137" s="320"/>
+      <c r="Z137" s="329"/>
+      <c r="AA137" s="329"/>
+      <c r="AB137" s="330"/>
     </row>
     <row r="138" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W138" s="202" t="s">
         <v>517</v>
       </c>
-      <c r="Y138" s="318" t="s">
+      <c r="Y138" s="328" t="s">
         <v>518</v>
       </c>
-      <c r="Z138" s="319"/>
-      <c r="AA138" s="319"/>
-      <c r="AB138" s="320"/>
+      <c r="Z138" s="329"/>
+      <c r="AA138" s="329"/>
+      <c r="AB138" s="330"/>
     </row>
     <row r="139" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y139" s="318" t="s">
+      <c r="Y139" s="328" t="s">
         <v>498</v>
       </c>
-      <c r="Z139" s="319"/>
-      <c r="AA139" s="319"/>
-      <c r="AB139" s="320"/>
+      <c r="Z139" s="329"/>
+      <c r="AA139" s="329"/>
+      <c r="AB139" s="330"/>
     </row>
     <row r="140" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y140" s="318" t="s">
+      <c r="Y140" s="328" t="s">
         <v>499</v>
       </c>
-      <c r="Z140" s="319"/>
-      <c r="AA140" s="319"/>
-      <c r="AB140" s="320"/>
+      <c r="Z140" s="329"/>
+      <c r="AA140" s="329"/>
+      <c r="AB140" s="330"/>
     </row>
     <row r="141" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y141" s="318" t="s">
+      <c r="Y141" s="328" t="s">
         <v>500</v>
       </c>
-      <c r="Z141" s="319"/>
-      <c r="AA141" s="319"/>
-      <c r="AB141" s="320"/>
+      <c r="Z141" s="329"/>
+      <c r="AA141" s="329"/>
+      <c r="AB141" s="330"/>
     </row>
     <row r="142" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y142" s="318" t="s">
+      <c r="Y142" s="328" t="s">
         <v>513</v>
       </c>
-      <c r="Z142" s="319"/>
-      <c r="AA142" s="319"/>
-      <c r="AB142" s="320"/>
+      <c r="Z142" s="329"/>
+      <c r="AA142" s="329"/>
+      <c r="AB142" s="330"/>
     </row>
     <row r="143" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y143" s="318" t="s">
+      <c r="Y143" s="328" t="s">
         <v>502</v>
       </c>
-      <c r="Z143" s="319"/>
-      <c r="AA143" s="319"/>
-      <c r="AB143" s="320"/>
+      <c r="Z143" s="329"/>
+      <c r="AA143" s="329"/>
+      <c r="AB143" s="330"/>
     </row>
     <row r="144" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y144" s="318" t="s">
+      <c r="Y144" s="328" t="s">
         <v>503</v>
       </c>
-      <c r="Z144" s="319"/>
-      <c r="AA144" s="319"/>
-      <c r="AB144" s="320"/>
+      <c r="Z144" s="329"/>
+      <c r="AA144" s="329"/>
+      <c r="AB144" s="330"/>
     </row>
     <row r="145" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y145" s="318" t="s">
+      <c r="Y145" s="328" t="s">
         <v>504</v>
       </c>
-      <c r="Z145" s="319"/>
-      <c r="AA145" s="319"/>
-      <c r="AB145" s="320"/>
+      <c r="Z145" s="329"/>
+      <c r="AA145" s="329"/>
+      <c r="AB145" s="330"/>
     </row>
     <row r="146" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y146" s="318" t="s">
+      <c r="Y146" s="328" t="s">
         <v>505</v>
       </c>
-      <c r="Z146" s="319"/>
-      <c r="AA146" s="319"/>
-      <c r="AB146" s="320"/>
+      <c r="Z146" s="329"/>
+      <c r="AA146" s="329"/>
+      <c r="AB146" s="330"/>
     </row>
     <row r="147" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y147" s="318" t="s">
+      <c r="Y147" s="328" t="s">
         <v>514</v>
       </c>
-      <c r="Z147" s="319"/>
-      <c r="AA147" s="319"/>
-      <c r="AB147" s="320"/>
+      <c r="Z147" s="329"/>
+      <c r="AA147" s="329"/>
+      <c r="AB147" s="330"/>
     </row>
     <row r="148" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y148" s="318" t="s">
+      <c r="Y148" s="328" t="s">
         <v>515</v>
       </c>
-      <c r="Z148" s="319"/>
-      <c r="AA148" s="319"/>
-      <c r="AB148" s="320"/>
+      <c r="Z148" s="329"/>
+      <c r="AA148" s="329"/>
+      <c r="AB148" s="330"/>
     </row>
     <row r="149" spans="25:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Y149" s="321" t="s">
+      <c r="Y149" s="331" t="s">
         <v>519</v>
       </c>
-      <c r="Z149" s="322"/>
-      <c r="AA149" s="322"/>
-      <c r="AB149" s="323"/>
+      <c r="Z149" s="332"/>
+      <c r="AA149" s="332"/>
+      <c r="AB149" s="333"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Y123:AB123"/>
-    <mergeCell ref="Y124:AB124"/>
-    <mergeCell ref="Y125:AB125"/>
-    <mergeCell ref="Y126:AB126"/>
-    <mergeCell ref="Y127:AB127"/>
-    <mergeCell ref="Y128:AB128"/>
-    <mergeCell ref="Y129:AB129"/>
-    <mergeCell ref="Y130:AB130"/>
-    <mergeCell ref="Y131:AB131"/>
-    <mergeCell ref="Y132:AB132"/>
-    <mergeCell ref="Y133:AB133"/>
-    <mergeCell ref="Y134:AB134"/>
-    <mergeCell ref="Y135:AB135"/>
-    <mergeCell ref="Y136:AB136"/>
-    <mergeCell ref="Y137:AB137"/>
-    <mergeCell ref="Y138:AB138"/>
-    <mergeCell ref="Y139:AB139"/>
-    <mergeCell ref="Y140:AB140"/>
     <mergeCell ref="Y146:AB146"/>
     <mergeCell ref="Y147:AB147"/>
     <mergeCell ref="Y148:AB148"/>
@@ -22504,6 +22484,26 @@
     <mergeCell ref="Y143:AB143"/>
     <mergeCell ref="Y144:AB144"/>
     <mergeCell ref="Y145:AB145"/>
+    <mergeCell ref="Y136:AB136"/>
+    <mergeCell ref="Y137:AB137"/>
+    <mergeCell ref="Y138:AB138"/>
+    <mergeCell ref="Y139:AB139"/>
+    <mergeCell ref="Y140:AB140"/>
+    <mergeCell ref="Y131:AB131"/>
+    <mergeCell ref="Y132:AB132"/>
+    <mergeCell ref="Y133:AB133"/>
+    <mergeCell ref="Y134:AB134"/>
+    <mergeCell ref="Y135:AB135"/>
+    <mergeCell ref="Y126:AB126"/>
+    <mergeCell ref="Y127:AB127"/>
+    <mergeCell ref="Y128:AB128"/>
+    <mergeCell ref="Y129:AB129"/>
+    <mergeCell ref="Y130:AB130"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Y123:AB123"/>
+    <mergeCell ref="Y124:AB124"/>
+    <mergeCell ref="Y125:AB125"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -36154,10 +36154,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A6:Y115"/>
+  <dimension ref="A6:Y116"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A52" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63:E63"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A63" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:X75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36203,20 +36203,20 @@
       <c r="K8" s="227"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="345" t="str">
+      <c r="N8" s="374" t="str">
         <f>General!F3</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O8" s="346"/>
-      <c r="P8" s="346"/>
-      <c r="Q8" s="346"/>
-      <c r="R8" s="346"/>
-      <c r="S8" s="346"/>
-      <c r="T8" s="346"/>
-      <c r="U8" s="346"/>
-      <c r="V8" s="346"/>
-      <c r="W8" s="346"/>
-      <c r="X8" s="346"/>
+      <c r="O8" s="362"/>
+      <c r="P8" s="362"/>
+      <c r="Q8" s="362"/>
+      <c r="R8" s="362"/>
+      <c r="S8" s="362"/>
+      <c r="T8" s="362"/>
+      <c r="U8" s="362"/>
+      <c r="V8" s="362"/>
+      <c r="W8" s="362"/>
+      <c r="X8" s="362"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="224" t="s">
@@ -36233,20 +36233,20 @@
       <c r="K9" s="227"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="347" t="str">
+      <c r="N9" s="373" t="str">
         <f>General!F4</f>
         <v>NI-CS-XXXX-XX</v>
       </c>
-      <c r="O9" s="348"/>
-      <c r="P9" s="348"/>
-      <c r="Q9" s="348"/>
-      <c r="R9" s="348"/>
-      <c r="S9" s="348"/>
-      <c r="T9" s="348"/>
-      <c r="U9" s="348"/>
-      <c r="V9" s="348"/>
-      <c r="W9" s="348"/>
-      <c r="X9" s="348"/>
+      <c r="O9" s="364"/>
+      <c r="P9" s="364"/>
+      <c r="Q9" s="364"/>
+      <c r="R9" s="364"/>
+      <c r="S9" s="364"/>
+      <c r="T9" s="364"/>
+      <c r="U9" s="364"/>
+      <c r="V9" s="364"/>
+      <c r="W9" s="364"/>
+      <c r="X9" s="364"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="224" t="s">
@@ -36263,20 +36263,20 @@
       <c r="K10" s="227"/>
       <c r="L10" s="228"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="349">
+      <c r="N10" s="375">
         <f>General!F5</f>
         <v>43299</v>
       </c>
-      <c r="O10" s="349"/>
-      <c r="P10" s="349"/>
-      <c r="Q10" s="349"/>
-      <c r="R10" s="349"/>
-      <c r="S10" s="349"/>
-      <c r="T10" s="349"/>
-      <c r="U10" s="349"/>
-      <c r="V10" s="349"/>
-      <c r="W10" s="349"/>
-      <c r="X10" s="349"/>
+      <c r="O10" s="375"/>
+      <c r="P10" s="375"/>
+      <c r="Q10" s="375"/>
+      <c r="R10" s="375"/>
+      <c r="S10" s="375"/>
+      <c r="T10" s="375"/>
+      <c r="U10" s="375"/>
+      <c r="V10" s="375"/>
+      <c r="W10" s="375"/>
+      <c r="X10" s="375"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="224" t="s">
@@ -36293,13 +36293,13 @@
       <c r="K11" s="227"/>
       <c r="L11" s="228"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="349">
+      <c r="N11" s="375">
         <f ca="1">NOW()</f>
-        <v>45502.460597106481</v>
-      </c>
-      <c r="O11" s="349"/>
-      <c r="P11" s="349"/>
-      <c r="Q11" s="349"/>
+        <v>45502.468734606482</v>
+      </c>
+      <c r="O11" s="375"/>
+      <c r="P11" s="375"/>
+      <c r="Q11" s="375"/>
       <c r="R11" s="279"/>
       <c r="S11" s="279"/>
       <c r="T11" s="279"/>
@@ -36323,20 +36323,20 @@
       <c r="K12" s="227"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="347" t="str">
+      <c r="N12" s="373" t="str">
         <f>General!F7</f>
         <v xml:space="preserve">Manómetro </v>
       </c>
-      <c r="O12" s="348"/>
-      <c r="P12" s="348"/>
-      <c r="Q12" s="348"/>
-      <c r="R12" s="348"/>
-      <c r="S12" s="348"/>
-      <c r="T12" s="348"/>
-      <c r="U12" s="348"/>
-      <c r="V12" s="348"/>
-      <c r="W12" s="348"/>
-      <c r="X12" s="348"/>
+      <c r="O12" s="364"/>
+      <c r="P12" s="364"/>
+      <c r="Q12" s="364"/>
+      <c r="R12" s="364"/>
+      <c r="S12" s="364"/>
+      <c r="T12" s="364"/>
+      <c r="U12" s="364"/>
+      <c r="V12" s="364"/>
+      <c r="W12" s="364"/>
+      <c r="X12" s="364"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="224" t="s">
@@ -36353,20 +36353,20 @@
       <c r="K13" s="227"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="347" t="str">
+      <c r="N13" s="373" t="str">
         <f>General!F10</f>
         <v>HEISE</v>
       </c>
-      <c r="O13" s="348"/>
-      <c r="P13" s="348"/>
-      <c r="Q13" s="348"/>
-      <c r="R13" s="348"/>
-      <c r="S13" s="348"/>
-      <c r="T13" s="348"/>
-      <c r="U13" s="348"/>
-      <c r="V13" s="348"/>
-      <c r="W13" s="348"/>
-      <c r="X13" s="348"/>
+      <c r="O13" s="364"/>
+      <c r="P13" s="364"/>
+      <c r="Q13" s="364"/>
+      <c r="R13" s="364"/>
+      <c r="S13" s="364"/>
+      <c r="T13" s="364"/>
+      <c r="U13" s="364"/>
+      <c r="V13" s="364"/>
+      <c r="W13" s="364"/>
+      <c r="X13" s="364"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="224" t="s">
@@ -36383,20 +36383,20 @@
       <c r="K14" s="227"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="347" t="str">
+      <c r="N14" s="373" t="str">
         <f>General!F12</f>
         <v>706340</v>
       </c>
-      <c r="O14" s="348"/>
-      <c r="P14" s="348"/>
-      <c r="Q14" s="348"/>
-      <c r="R14" s="348"/>
-      <c r="S14" s="348"/>
-      <c r="T14" s="348"/>
-      <c r="U14" s="348"/>
-      <c r="V14" s="348"/>
-      <c r="W14" s="348"/>
-      <c r="X14" s="348"/>
+      <c r="O14" s="364"/>
+      <c r="P14" s="364"/>
+      <c r="Q14" s="364"/>
+      <c r="R14" s="364"/>
+      <c r="S14" s="364"/>
+      <c r="T14" s="364"/>
+      <c r="U14" s="364"/>
+      <c r="V14" s="364"/>
+      <c r="W14" s="364"/>
+      <c r="X14" s="364"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="224" t="s">
@@ -36413,20 +36413,20 @@
       <c r="K15" s="227"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="347" t="str">
+      <c r="N15" s="373" t="str">
         <f>General!F11</f>
         <v>CC</v>
       </c>
-      <c r="O15" s="348"/>
-      <c r="P15" s="348"/>
-      <c r="Q15" s="348"/>
-      <c r="R15" s="348"/>
-      <c r="S15" s="348"/>
-      <c r="T15" s="348"/>
-      <c r="U15" s="348"/>
-      <c r="V15" s="348"/>
-      <c r="W15" s="348"/>
-      <c r="X15" s="348"/>
+      <c r="O15" s="364"/>
+      <c r="P15" s="364"/>
+      <c r="Q15" s="364"/>
+      <c r="R15" s="364"/>
+      <c r="S15" s="364"/>
+      <c r="T15" s="364"/>
+      <c r="U15" s="364"/>
+      <c r="V15" s="364"/>
+      <c r="W15" s="364"/>
+      <c r="X15" s="364"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="224" t="s">
@@ -36443,20 +36443,20 @@
       <c r="K16" s="227"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="347" t="str">
+      <c r="N16" s="373" t="str">
         <f>General!F18</f>
         <v>0 psi a 200 psi</v>
       </c>
-      <c r="O16" s="348"/>
-      <c r="P16" s="348"/>
-      <c r="Q16" s="348"/>
-      <c r="R16" s="348"/>
-      <c r="S16" s="348"/>
-      <c r="T16" s="348"/>
-      <c r="U16" s="348"/>
-      <c r="V16" s="348"/>
-      <c r="W16" s="348"/>
-      <c r="X16" s="348"/>
+      <c r="O16" s="364"/>
+      <c r="P16" s="364"/>
+      <c r="Q16" s="364"/>
+      <c r="R16" s="364"/>
+      <c r="S16" s="364"/>
+      <c r="T16" s="364"/>
+      <c r="U16" s="364"/>
+      <c r="V16" s="364"/>
+      <c r="W16" s="364"/>
+      <c r="X16" s="364"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="224" t="s">
@@ -36473,16 +36473,16 @@
       <c r="K17" s="227"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="347" t="str">
+      <c r="N17" s="373" t="str">
         <f>General!F15</f>
         <v>1</v>
       </c>
-      <c r="O17" s="348"/>
-      <c r="P17" s="347" t="str">
+      <c r="O17" s="364"/>
+      <c r="P17" s="373" t="str">
         <f>General!F16</f>
         <v>psi</v>
       </c>
-      <c r="Q17" s="348"/>
+      <c r="Q17" s="364"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -36506,20 +36506,20 @@
       <c r="K18" s="227"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="347" t="str">
+      <c r="N18" s="373" t="str">
         <f>General!F6</f>
         <v>706340</v>
       </c>
-      <c r="O18" s="348"/>
-      <c r="P18" s="348"/>
-      <c r="Q18" s="348"/>
-      <c r="R18" s="348"/>
-      <c r="S18" s="348"/>
-      <c r="T18" s="348"/>
-      <c r="U18" s="348"/>
-      <c r="V18" s="348"/>
-      <c r="W18" s="348"/>
-      <c r="X18" s="348"/>
+      <c r="O18" s="364"/>
+      <c r="P18" s="364"/>
+      <c r="Q18" s="364"/>
+      <c r="R18" s="364"/>
+      <c r="S18" s="364"/>
+      <c r="T18" s="364"/>
+      <c r="U18" s="364"/>
+      <c r="V18" s="364"/>
+      <c r="W18" s="364"/>
+      <c r="X18" s="364"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="224" t="s">
@@ -36536,20 +36536,20 @@
       <c r="K19" s="227"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="347" t="str">
+      <c r="N19" s="373" t="str">
         <f>General!L3</f>
         <v xml:space="preserve">A&amp;T Nicaragua S.A. </v>
       </c>
-      <c r="O19" s="348"/>
-      <c r="P19" s="348"/>
-      <c r="Q19" s="348"/>
-      <c r="R19" s="348"/>
-      <c r="S19" s="348"/>
-      <c r="T19" s="348"/>
-      <c r="U19" s="348"/>
-      <c r="V19" s="348"/>
-      <c r="W19" s="348"/>
-      <c r="X19" s="348"/>
+      <c r="O19" s="364"/>
+      <c r="P19" s="364"/>
+      <c r="Q19" s="364"/>
+      <c r="R19" s="364"/>
+      <c r="S19" s="364"/>
+      <c r="T19" s="364"/>
+      <c r="U19" s="364"/>
+      <c r="V19" s="364"/>
+      <c r="W19" s="364"/>
+      <c r="X19" s="364"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
@@ -36566,20 +36566,20 @@
       <c r="K20" s="227"/>
       <c r="L20" s="10"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="348" t="str">
+      <c r="N20" s="364" t="str">
         <f>General!L4</f>
         <v xml:space="preserve">Coyotepe, 800 m norte               </v>
       </c>
-      <c r="O20" s="348"/>
-      <c r="P20" s="348"/>
-      <c r="Q20" s="348"/>
-      <c r="R20" s="348"/>
-      <c r="S20" s="348"/>
-      <c r="T20" s="348"/>
-      <c r="U20" s="348"/>
-      <c r="V20" s="348"/>
-      <c r="W20" s="348"/>
-      <c r="X20" s="348"/>
+      <c r="O20" s="364"/>
+      <c r="P20" s="364"/>
+      <c r="Q20" s="364"/>
+      <c r="R20" s="364"/>
+      <c r="S20" s="364"/>
+      <c r="T20" s="364"/>
+      <c r="U20" s="364"/>
+      <c r="V20" s="364"/>
+      <c r="W20" s="364"/>
+      <c r="X20" s="364"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="224" t="s">
@@ -36596,34 +36596,34 @@
       <c r="K21" s="227"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="350" t="str">
+      <c r="N21" s="376" t="str">
         <f>General!L6</f>
         <v xml:space="preserve">Laboratorio #2 Metrocal </v>
       </c>
-      <c r="O21" s="350"/>
-      <c r="P21" s="350"/>
-      <c r="Q21" s="350"/>
-      <c r="R21" s="350"/>
-      <c r="S21" s="350"/>
-      <c r="T21" s="350"/>
-      <c r="U21" s="350"/>
-      <c r="V21" s="350"/>
-      <c r="W21" s="350"/>
-      <c r="X21" s="350"/>
+      <c r="O21" s="376"/>
+      <c r="P21" s="376"/>
+      <c r="Q21" s="376"/>
+      <c r="R21" s="376"/>
+      <c r="S21" s="376"/>
+      <c r="T21" s="376"/>
+      <c r="U21" s="376"/>
+      <c r="V21" s="376"/>
+      <c r="W21" s="376"/>
+      <c r="X21" s="376"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="224"/>
-      <c r="N22" s="350"/>
-      <c r="O22" s="350"/>
-      <c r="P22" s="350"/>
-      <c r="Q22" s="350"/>
-      <c r="R22" s="350"/>
-      <c r="S22" s="350"/>
-      <c r="T22" s="350"/>
-      <c r="U22" s="350"/>
-      <c r="V22" s="350"/>
-      <c r="W22" s="350"/>
-      <c r="X22" s="350"/>
+      <c r="N22" s="376"/>
+      <c r="O22" s="376"/>
+      <c r="P22" s="376"/>
+      <c r="Q22" s="376"/>
+      <c r="R22" s="376"/>
+      <c r="S22" s="376"/>
+      <c r="T22" s="376"/>
+      <c r="U22" s="376"/>
+      <c r="V22" s="376"/>
+      <c r="W22" s="376"/>
+      <c r="X22" s="376"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="224" t="s">
@@ -36638,478 +36638,478 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="351" t="s">
+      <c r="D24" s="366" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="351"/>
-      <c r="F24" s="351"/>
-      <c r="G24" s="351"/>
-      <c r="H24" s="351"/>
-      <c r="I24" s="351"/>
-      <c r="J24" s="351"/>
-      <c r="K24" s="351"/>
-      <c r="L24" s="351"/>
-      <c r="M24" s="351"/>
-      <c r="N24" s="351"/>
-      <c r="O24" s="351"/>
-      <c r="P24" s="351"/>
-      <c r="Q24" s="351"/>
-      <c r="R24" s="351"/>
-      <c r="S24" s="351"/>
-      <c r="T24" s="351"/>
-      <c r="U24" s="351"/>
-      <c r="V24" s="351"/>
-      <c r="W24" s="351"/>
+      <c r="E24" s="366"/>
+      <c r="F24" s="366"/>
+      <c r="G24" s="366"/>
+      <c r="H24" s="366"/>
+      <c r="I24" s="366"/>
+      <c r="J24" s="366"/>
+      <c r="K24" s="366"/>
+      <c r="L24" s="366"/>
+      <c r="M24" s="366"/>
+      <c r="N24" s="366"/>
+      <c r="O24" s="366"/>
+      <c r="P24" s="366"/>
+      <c r="Q24" s="366"/>
+      <c r="R24" s="366"/>
+      <c r="S24" s="366"/>
+      <c r="T24" s="366"/>
+      <c r="U24" s="366"/>
+      <c r="V24" s="366"/>
+      <c r="W24" s="366"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="352" t="s">
+      <c r="D25" s="367" t="s">
         <v>360</v>
       </c>
-      <c r="E25" s="352"/>
-      <c r="F25" s="353" t="s">
+      <c r="E25" s="367"/>
+      <c r="F25" s="368" t="s">
         <v>425</v>
       </c>
-      <c r="G25" s="353"/>
-      <c r="H25" s="353"/>
-      <c r="I25" s="353"/>
-      <c r="J25" s="353"/>
-      <c r="K25" s="353"/>
-      <c r="L25" s="353" t="s">
+      <c r="G25" s="368"/>
+      <c r="H25" s="368"/>
+      <c r="I25" s="368"/>
+      <c r="J25" s="368"/>
+      <c r="K25" s="368"/>
+      <c r="L25" s="368" t="s">
         <v>96</v>
       </c>
-      <c r="M25" s="353"/>
-      <c r="N25" s="353"/>
-      <c r="O25" s="353"/>
-      <c r="P25" s="353"/>
-      <c r="Q25" s="353"/>
-      <c r="R25" s="352" t="s">
+      <c r="M25" s="368"/>
+      <c r="N25" s="368"/>
+      <c r="O25" s="368"/>
+      <c r="P25" s="368"/>
+      <c r="Q25" s="368"/>
+      <c r="R25" s="367" t="s">
         <v>426</v>
       </c>
-      <c r="S25" s="352"/>
-      <c r="T25" s="352"/>
-      <c r="U25" s="352"/>
-      <c r="V25" s="352"/>
-      <c r="W25" s="352"/>
+      <c r="S25" s="367"/>
+      <c r="T25" s="367"/>
+      <c r="U25" s="367"/>
+      <c r="V25" s="367"/>
+      <c r="W25" s="367"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="352"/>
-      <c r="E26" s="352"/>
-      <c r="F26" s="353"/>
-      <c r="G26" s="353"/>
-      <c r="H26" s="353"/>
-      <c r="I26" s="353"/>
-      <c r="J26" s="353"/>
-      <c r="K26" s="353"/>
-      <c r="L26" s="353"/>
-      <c r="M26" s="353"/>
-      <c r="N26" s="353"/>
-      <c r="O26" s="353"/>
-      <c r="P26" s="353"/>
-      <c r="Q26" s="353"/>
-      <c r="R26" s="352"/>
-      <c r="S26" s="352"/>
-      <c r="T26" s="352"/>
-      <c r="U26" s="352"/>
-      <c r="V26" s="352"/>
-      <c r="W26" s="352"/>
+      <c r="D26" s="367"/>
+      <c r="E26" s="367"/>
+      <c r="F26" s="368"/>
+      <c r="G26" s="368"/>
+      <c r="H26" s="368"/>
+      <c r="I26" s="368"/>
+      <c r="J26" s="368"/>
+      <c r="K26" s="368"/>
+      <c r="L26" s="368"/>
+      <c r="M26" s="368"/>
+      <c r="N26" s="368"/>
+      <c r="O26" s="368"/>
+      <c r="P26" s="368"/>
+      <c r="Q26" s="368"/>
+      <c r="R26" s="367"/>
+      <c r="S26" s="367"/>
+      <c r="T26" s="367"/>
+      <c r="U26" s="367"/>
+      <c r="V26" s="367"/>
+      <c r="W26" s="367"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="354" t="str">
+      <c r="D27" s="369" t="str">
         <f>Calibración!C37</f>
         <v>psi</v>
       </c>
-      <c r="E27" s="354"/>
-      <c r="F27" s="355" t="str">
+      <c r="E27" s="369"/>
+      <c r="F27" s="370" t="str">
         <f>Calibración!D37</f>
         <v>psi</v>
       </c>
-      <c r="G27" s="356"/>
-      <c r="H27" s="356"/>
-      <c r="I27" s="356"/>
-      <c r="J27" s="356"/>
-      <c r="K27" s="357"/>
-      <c r="L27" s="355" t="str">
+      <c r="G27" s="371"/>
+      <c r="H27" s="371"/>
+      <c r="I27" s="371"/>
+      <c r="J27" s="371"/>
+      <c r="K27" s="372"/>
+      <c r="L27" s="370" t="str">
         <f>Calibración!E37</f>
         <v>psi</v>
       </c>
-      <c r="M27" s="356"/>
-      <c r="N27" s="356"/>
-      <c r="O27" s="356"/>
-      <c r="P27" s="356"/>
-      <c r="Q27" s="357"/>
-      <c r="R27" s="355" t="str">
+      <c r="M27" s="371"/>
+      <c r="N27" s="371"/>
+      <c r="O27" s="371"/>
+      <c r="P27" s="371"/>
+      <c r="Q27" s="372"/>
+      <c r="R27" s="370" t="str">
         <f>Calibración!F37</f>
         <v>psi</v>
       </c>
-      <c r="S27" s="356"/>
-      <c r="T27" s="356"/>
-      <c r="U27" s="356"/>
-      <c r="V27" s="356"/>
-      <c r="W27" s="357"/>
+      <c r="S27" s="371"/>
+      <c r="T27" s="371"/>
+      <c r="U27" s="371"/>
+      <c r="V27" s="371"/>
+      <c r="W27" s="372"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="341" t="str">
+      <c r="D28" s="358" t="str">
         <f ca="1">Calibración!C38</f>
         <v/>
       </c>
-      <c r="E28" s="341"/>
-      <c r="F28" s="342" t="str">
+      <c r="E28" s="358"/>
+      <c r="F28" s="359" t="str">
         <f ca="1">Calibración!D38</f>
         <v/>
       </c>
-      <c r="G28" s="343"/>
-      <c r="H28" s="343"/>
-      <c r="I28" s="343"/>
-      <c r="J28" s="343"/>
-      <c r="K28" s="344"/>
-      <c r="L28" s="342" t="str">
+      <c r="G28" s="360"/>
+      <c r="H28" s="360"/>
+      <c r="I28" s="360"/>
+      <c r="J28" s="360"/>
+      <c r="K28" s="361"/>
+      <c r="L28" s="359" t="str">
         <f ca="1">Calibración!E38</f>
         <v/>
       </c>
-      <c r="M28" s="343"/>
-      <c r="N28" s="343"/>
-      <c r="O28" s="343"/>
-      <c r="P28" s="343"/>
-      <c r="Q28" s="344"/>
-      <c r="R28" s="342" t="str">
+      <c r="M28" s="360"/>
+      <c r="N28" s="360"/>
+      <c r="O28" s="360"/>
+      <c r="P28" s="360"/>
+      <c r="Q28" s="361"/>
+      <c r="R28" s="359" t="str">
         <f ca="1">Calibración!F38</f>
         <v/>
       </c>
-      <c r="S28" s="343"/>
-      <c r="T28" s="343"/>
-      <c r="U28" s="343"/>
-      <c r="V28" s="343"/>
-      <c r="W28" s="344"/>
+      <c r="S28" s="360"/>
+      <c r="T28" s="360"/>
+      <c r="U28" s="360"/>
+      <c r="V28" s="360"/>
+      <c r="W28" s="361"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="341" t="str">
+      <c r="D29" s="358" t="str">
         <f ca="1">Calibración!C39</f>
         <v/>
       </c>
-      <c r="E29" s="341"/>
-      <c r="F29" s="342" t="str">
+      <c r="E29" s="358"/>
+      <c r="F29" s="359" t="str">
         <f ca="1">Calibración!D39</f>
         <v/>
       </c>
-      <c r="G29" s="343"/>
-      <c r="H29" s="343"/>
-      <c r="I29" s="343"/>
-      <c r="J29" s="343"/>
-      <c r="K29" s="344"/>
-      <c r="L29" s="342" t="str">
+      <c r="G29" s="360"/>
+      <c r="H29" s="360"/>
+      <c r="I29" s="360"/>
+      <c r="J29" s="360"/>
+      <c r="K29" s="361"/>
+      <c r="L29" s="359" t="str">
         <f ca="1">Calibración!E39</f>
         <v/>
       </c>
-      <c r="M29" s="343"/>
-      <c r="N29" s="343"/>
-      <c r="O29" s="343"/>
-      <c r="P29" s="343"/>
-      <c r="Q29" s="344"/>
-      <c r="R29" s="342" t="str">
+      <c r="M29" s="360"/>
+      <c r="N29" s="360"/>
+      <c r="O29" s="360"/>
+      <c r="P29" s="360"/>
+      <c r="Q29" s="361"/>
+      <c r="R29" s="359" t="str">
         <f ca="1">Calibración!F39</f>
         <v/>
       </c>
-      <c r="S29" s="343"/>
-      <c r="T29" s="343"/>
-      <c r="U29" s="343"/>
-      <c r="V29" s="343"/>
-      <c r="W29" s="344"/>
+      <c r="S29" s="360"/>
+      <c r="T29" s="360"/>
+      <c r="U29" s="360"/>
+      <c r="V29" s="360"/>
+      <c r="W29" s="361"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="341" t="str">
+      <c r="D30" s="358" t="str">
         <f ca="1">Calibración!C40</f>
         <v/>
       </c>
-      <c r="E30" s="341"/>
-      <c r="F30" s="342" t="str">
+      <c r="E30" s="358"/>
+      <c r="F30" s="359" t="str">
         <f ca="1">Calibración!D40</f>
         <v/>
       </c>
-      <c r="G30" s="343"/>
-      <c r="H30" s="343"/>
-      <c r="I30" s="343"/>
-      <c r="J30" s="343"/>
-      <c r="K30" s="344"/>
-      <c r="L30" s="342" t="str">
+      <c r="G30" s="360"/>
+      <c r="H30" s="360"/>
+      <c r="I30" s="360"/>
+      <c r="J30" s="360"/>
+      <c r="K30" s="361"/>
+      <c r="L30" s="359" t="str">
         <f ca="1">Calibración!E40</f>
         <v/>
       </c>
-      <c r="M30" s="343"/>
-      <c r="N30" s="343"/>
-      <c r="O30" s="343"/>
-      <c r="P30" s="343"/>
-      <c r="Q30" s="344"/>
-      <c r="R30" s="342" t="str">
+      <c r="M30" s="360"/>
+      <c r="N30" s="360"/>
+      <c r="O30" s="360"/>
+      <c r="P30" s="360"/>
+      <c r="Q30" s="361"/>
+      <c r="R30" s="359" t="str">
         <f ca="1">Calibración!F40</f>
         <v/>
       </c>
-      <c r="S30" s="343"/>
-      <c r="T30" s="343"/>
-      <c r="U30" s="343"/>
-      <c r="V30" s="343"/>
-      <c r="W30" s="344"/>
+      <c r="S30" s="360"/>
+      <c r="T30" s="360"/>
+      <c r="U30" s="360"/>
+      <c r="V30" s="360"/>
+      <c r="W30" s="361"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="341" t="str">
+      <c r="D31" s="358" t="str">
         <f ca="1">Calibración!C41</f>
         <v/>
       </c>
-      <c r="E31" s="341"/>
-      <c r="F31" s="342" t="str">
+      <c r="E31" s="358"/>
+      <c r="F31" s="359" t="str">
         <f ca="1">Calibración!D41</f>
         <v/>
       </c>
-      <c r="G31" s="343"/>
-      <c r="H31" s="343"/>
-      <c r="I31" s="343"/>
-      <c r="J31" s="343"/>
-      <c r="K31" s="344"/>
-      <c r="L31" s="342" t="str">
+      <c r="G31" s="360"/>
+      <c r="H31" s="360"/>
+      <c r="I31" s="360"/>
+      <c r="J31" s="360"/>
+      <c r="K31" s="361"/>
+      <c r="L31" s="359" t="str">
         <f ca="1">Calibración!E41</f>
         <v/>
       </c>
-      <c r="M31" s="343"/>
-      <c r="N31" s="343"/>
-      <c r="O31" s="343"/>
-      <c r="P31" s="343"/>
-      <c r="Q31" s="344"/>
-      <c r="R31" s="342" t="str">
+      <c r="M31" s="360"/>
+      <c r="N31" s="360"/>
+      <c r="O31" s="360"/>
+      <c r="P31" s="360"/>
+      <c r="Q31" s="361"/>
+      <c r="R31" s="359" t="str">
         <f ca="1">Calibración!F41</f>
         <v/>
       </c>
-      <c r="S31" s="343"/>
-      <c r="T31" s="343"/>
-      <c r="U31" s="343"/>
-      <c r="V31" s="343"/>
-      <c r="W31" s="344"/>
+      <c r="S31" s="360"/>
+      <c r="T31" s="360"/>
+      <c r="U31" s="360"/>
+      <c r="V31" s="360"/>
+      <c r="W31" s="361"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="341" t="str">
+      <c r="D32" s="358" t="str">
         <f ca="1">Calibración!C42</f>
         <v/>
       </c>
-      <c r="E32" s="341"/>
-      <c r="F32" s="342" t="str">
+      <c r="E32" s="358"/>
+      <c r="F32" s="359" t="str">
         <f ca="1">Calibración!D42</f>
         <v/>
       </c>
-      <c r="G32" s="343"/>
-      <c r="H32" s="343"/>
-      <c r="I32" s="343"/>
-      <c r="J32" s="343"/>
-      <c r="K32" s="344"/>
-      <c r="L32" s="342" t="str">
+      <c r="G32" s="360"/>
+      <c r="H32" s="360"/>
+      <c r="I32" s="360"/>
+      <c r="J32" s="360"/>
+      <c r="K32" s="361"/>
+      <c r="L32" s="359" t="str">
         <f ca="1">Calibración!E42</f>
         <v/>
       </c>
-      <c r="M32" s="343"/>
-      <c r="N32" s="343"/>
-      <c r="O32" s="343"/>
-      <c r="P32" s="343"/>
-      <c r="Q32" s="344"/>
-      <c r="R32" s="342" t="str">
+      <c r="M32" s="360"/>
+      <c r="N32" s="360"/>
+      <c r="O32" s="360"/>
+      <c r="P32" s="360"/>
+      <c r="Q32" s="361"/>
+      <c r="R32" s="359" t="str">
         <f ca="1">Calibración!F42</f>
         <v/>
       </c>
-      <c r="S32" s="343"/>
-      <c r="T32" s="343"/>
-      <c r="U32" s="343"/>
-      <c r="V32" s="343"/>
-      <c r="W32" s="344"/>
+      <c r="S32" s="360"/>
+      <c r="T32" s="360"/>
+      <c r="U32" s="360"/>
+      <c r="V32" s="360"/>
+      <c r="W32" s="361"/>
     </row>
     <row r="33" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D33" s="341" t="str">
+      <c r="D33" s="358" t="str">
         <f ca="1">Calibración!C43</f>
         <v/>
       </c>
-      <c r="E33" s="341"/>
-      <c r="F33" s="342" t="str">
+      <c r="E33" s="358"/>
+      <c r="F33" s="359" t="str">
         <f ca="1">Calibración!D43</f>
         <v/>
       </c>
-      <c r="G33" s="343"/>
-      <c r="H33" s="343"/>
-      <c r="I33" s="343"/>
-      <c r="J33" s="343"/>
-      <c r="K33" s="344"/>
-      <c r="L33" s="342" t="str">
+      <c r="G33" s="360"/>
+      <c r="H33" s="360"/>
+      <c r="I33" s="360"/>
+      <c r="J33" s="360"/>
+      <c r="K33" s="361"/>
+      <c r="L33" s="359" t="str">
         <f ca="1">Calibración!E43</f>
         <v/>
       </c>
-      <c r="M33" s="343"/>
-      <c r="N33" s="343"/>
-      <c r="O33" s="343"/>
-      <c r="P33" s="343"/>
-      <c r="Q33" s="344"/>
-      <c r="R33" s="342" t="str">
+      <c r="M33" s="360"/>
+      <c r="N33" s="360"/>
+      <c r="O33" s="360"/>
+      <c r="P33" s="360"/>
+      <c r="Q33" s="361"/>
+      <c r="R33" s="359" t="str">
         <f ca="1">Calibración!F43</f>
         <v/>
       </c>
-      <c r="S33" s="343"/>
-      <c r="T33" s="343"/>
-      <c r="U33" s="343"/>
-      <c r="V33" s="343"/>
-      <c r="W33" s="344"/>
+      <c r="S33" s="360"/>
+      <c r="T33" s="360"/>
+      <c r="U33" s="360"/>
+      <c r="V33" s="360"/>
+      <c r="W33" s="361"/>
     </row>
     <row r="34" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D34" s="341" t="str">
+      <c r="D34" s="358" t="str">
         <f ca="1">Calibración!C44</f>
         <v/>
       </c>
-      <c r="E34" s="341"/>
-      <c r="F34" s="342" t="str">
+      <c r="E34" s="358"/>
+      <c r="F34" s="359" t="str">
         <f ca="1">Calibración!D44</f>
         <v/>
       </c>
-      <c r="G34" s="343"/>
-      <c r="H34" s="343"/>
-      <c r="I34" s="343"/>
-      <c r="J34" s="343"/>
-      <c r="K34" s="344"/>
-      <c r="L34" s="342" t="str">
+      <c r="G34" s="360"/>
+      <c r="H34" s="360"/>
+      <c r="I34" s="360"/>
+      <c r="J34" s="360"/>
+      <c r="K34" s="361"/>
+      <c r="L34" s="359" t="str">
         <f ca="1">Calibración!E44</f>
         <v/>
       </c>
-      <c r="M34" s="343"/>
-      <c r="N34" s="343"/>
-      <c r="O34" s="343"/>
-      <c r="P34" s="343"/>
-      <c r="Q34" s="344"/>
-      <c r="R34" s="342" t="str">
+      <c r="M34" s="360"/>
+      <c r="N34" s="360"/>
+      <c r="O34" s="360"/>
+      <c r="P34" s="360"/>
+      <c r="Q34" s="361"/>
+      <c r="R34" s="359" t="str">
         <f ca="1">Calibración!F44</f>
         <v/>
       </c>
-      <c r="S34" s="343"/>
-      <c r="T34" s="343"/>
-      <c r="U34" s="343"/>
-      <c r="V34" s="343"/>
-      <c r="W34" s="344"/>
+      <c r="S34" s="360"/>
+      <c r="T34" s="360"/>
+      <c r="U34" s="360"/>
+      <c r="V34" s="360"/>
+      <c r="W34" s="361"/>
     </row>
     <row r="35" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D35" s="341" t="str">
+      <c r="D35" s="358" t="str">
         <f ca="1">Calibración!C45</f>
         <v/>
       </c>
-      <c r="E35" s="341"/>
-      <c r="F35" s="342" t="str">
+      <c r="E35" s="358"/>
+      <c r="F35" s="359" t="str">
         <f ca="1">Calibración!D45</f>
         <v/>
       </c>
-      <c r="G35" s="343"/>
-      <c r="H35" s="343"/>
-      <c r="I35" s="343"/>
-      <c r="J35" s="343"/>
-      <c r="K35" s="344"/>
-      <c r="L35" s="342" t="str">
+      <c r="G35" s="360"/>
+      <c r="H35" s="360"/>
+      <c r="I35" s="360"/>
+      <c r="J35" s="360"/>
+      <c r="K35" s="361"/>
+      <c r="L35" s="359" t="str">
         <f ca="1">Calibración!E45</f>
         <v/>
       </c>
-      <c r="M35" s="343"/>
-      <c r="N35" s="343"/>
-      <c r="O35" s="343"/>
-      <c r="P35" s="343"/>
-      <c r="Q35" s="344"/>
-      <c r="R35" s="342" t="str">
+      <c r="M35" s="360"/>
+      <c r="N35" s="360"/>
+      <c r="O35" s="360"/>
+      <c r="P35" s="360"/>
+      <c r="Q35" s="361"/>
+      <c r="R35" s="359" t="str">
         <f ca="1">Calibración!F45</f>
         <v/>
       </c>
-      <c r="S35" s="343"/>
-      <c r="T35" s="343"/>
-      <c r="U35" s="343"/>
-      <c r="V35" s="343"/>
-      <c r="W35" s="344"/>
+      <c r="S35" s="360"/>
+      <c r="T35" s="360"/>
+      <c r="U35" s="360"/>
+      <c r="V35" s="360"/>
+      <c r="W35" s="361"/>
     </row>
     <row r="36" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D36" s="341" t="str">
+      <c r="D36" s="358" t="str">
         <f ca="1">Calibración!C46</f>
         <v/>
       </c>
-      <c r="E36" s="341"/>
-      <c r="F36" s="342" t="str">
+      <c r="E36" s="358"/>
+      <c r="F36" s="359" t="str">
         <f ca="1">Calibración!D46</f>
         <v/>
       </c>
-      <c r="G36" s="343"/>
-      <c r="H36" s="343"/>
-      <c r="I36" s="343"/>
-      <c r="J36" s="343"/>
-      <c r="K36" s="344"/>
-      <c r="L36" s="342" t="str">
+      <c r="G36" s="360"/>
+      <c r="H36" s="360"/>
+      <c r="I36" s="360"/>
+      <c r="J36" s="360"/>
+      <c r="K36" s="361"/>
+      <c r="L36" s="359" t="str">
         <f ca="1">Calibración!E46</f>
         <v/>
       </c>
-      <c r="M36" s="343"/>
-      <c r="N36" s="343"/>
-      <c r="O36" s="343"/>
-      <c r="P36" s="343"/>
-      <c r="Q36" s="344"/>
-      <c r="R36" s="342" t="str">
+      <c r="M36" s="360"/>
+      <c r="N36" s="360"/>
+      <c r="O36" s="360"/>
+      <c r="P36" s="360"/>
+      <c r="Q36" s="361"/>
+      <c r="R36" s="359" t="str">
         <f ca="1">Calibración!F46</f>
         <v/>
       </c>
-      <c r="S36" s="343"/>
-      <c r="T36" s="343"/>
-      <c r="U36" s="343"/>
-      <c r="V36" s="343"/>
-      <c r="W36" s="344"/>
+      <c r="S36" s="360"/>
+      <c r="T36" s="360"/>
+      <c r="U36" s="360"/>
+      <c r="V36" s="360"/>
+      <c r="W36" s="361"/>
     </row>
     <row r="37" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D37" s="341" t="str">
+      <c r="D37" s="358" t="str">
         <f ca="1">Calibración!C47</f>
         <v/>
       </c>
-      <c r="E37" s="341"/>
-      <c r="F37" s="342" t="str">
+      <c r="E37" s="358"/>
+      <c r="F37" s="359" t="str">
         <f ca="1">Calibración!D47</f>
         <v/>
       </c>
-      <c r="G37" s="343"/>
-      <c r="H37" s="343"/>
-      <c r="I37" s="343"/>
-      <c r="J37" s="343"/>
-      <c r="K37" s="344"/>
-      <c r="L37" s="342" t="str">
+      <c r="G37" s="360"/>
+      <c r="H37" s="360"/>
+      <c r="I37" s="360"/>
+      <c r="J37" s="360"/>
+      <c r="K37" s="361"/>
+      <c r="L37" s="359" t="str">
         <f ca="1">Calibración!E47</f>
         <v/>
       </c>
-      <c r="M37" s="343"/>
-      <c r="N37" s="343"/>
-      <c r="O37" s="343"/>
-      <c r="P37" s="343"/>
-      <c r="Q37" s="344"/>
-      <c r="R37" s="342" t="str">
+      <c r="M37" s="360"/>
+      <c r="N37" s="360"/>
+      <c r="O37" s="360"/>
+      <c r="P37" s="360"/>
+      <c r="Q37" s="361"/>
+      <c r="R37" s="359" t="str">
         <f ca="1">Calibración!F47</f>
         <v/>
       </c>
-      <c r="S37" s="343"/>
-      <c r="T37" s="343"/>
-      <c r="U37" s="343"/>
-      <c r="V37" s="343"/>
-      <c r="W37" s="344"/>
+      <c r="S37" s="360"/>
+      <c r="T37" s="360"/>
+      <c r="U37" s="360"/>
+      <c r="V37" s="360"/>
+      <c r="W37" s="361"/>
     </row>
     <row r="38" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D38" s="309"/>
@@ -37602,478 +37602,478 @@
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="351" t="s">
+      <c r="D60" s="366" t="s">
         <v>95</v>
       </c>
-      <c r="E60" s="351"/>
-      <c r="F60" s="351"/>
-      <c r="G60" s="351"/>
-      <c r="H60" s="351"/>
-      <c r="I60" s="351"/>
-      <c r="J60" s="351"/>
-      <c r="K60" s="351"/>
-      <c r="L60" s="351"/>
-      <c r="M60" s="351"/>
-      <c r="N60" s="351"/>
-      <c r="O60" s="351"/>
-      <c r="P60" s="351"/>
-      <c r="Q60" s="351"/>
-      <c r="R60" s="351"/>
-      <c r="S60" s="351"/>
-      <c r="T60" s="351"/>
-      <c r="U60" s="351"/>
-      <c r="V60" s="351"/>
-      <c r="W60" s="351"/>
+      <c r="E60" s="366"/>
+      <c r="F60" s="366"/>
+      <c r="G60" s="366"/>
+      <c r="H60" s="366"/>
+      <c r="I60" s="366"/>
+      <c r="J60" s="366"/>
+      <c r="K60" s="366"/>
+      <c r="L60" s="366"/>
+      <c r="M60" s="366"/>
+      <c r="N60" s="366"/>
+      <c r="O60" s="366"/>
+      <c r="P60" s="366"/>
+      <c r="Q60" s="366"/>
+      <c r="R60" s="366"/>
+      <c r="S60" s="366"/>
+      <c r="T60" s="366"/>
+      <c r="U60" s="366"/>
+      <c r="V60" s="366"/>
+      <c r="W60" s="366"/>
     </row>
     <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="352" t="s">
+      <c r="D61" s="367" t="s">
         <v>360</v>
       </c>
-      <c r="E61" s="352"/>
-      <c r="F61" s="353" t="s">
+      <c r="E61" s="367"/>
+      <c r="F61" s="368" t="s">
         <v>425</v>
       </c>
-      <c r="G61" s="353"/>
-      <c r="H61" s="353"/>
-      <c r="I61" s="353"/>
-      <c r="J61" s="353"/>
-      <c r="K61" s="353"/>
-      <c r="L61" s="353" t="s">
+      <c r="G61" s="368"/>
+      <c r="H61" s="368"/>
+      <c r="I61" s="368"/>
+      <c r="J61" s="368"/>
+      <c r="K61" s="368"/>
+      <c r="L61" s="368" t="s">
         <v>96</v>
       </c>
-      <c r="M61" s="353"/>
-      <c r="N61" s="353"/>
-      <c r="O61" s="353"/>
-      <c r="P61" s="353"/>
-      <c r="Q61" s="353"/>
-      <c r="R61" s="352" t="s">
+      <c r="M61" s="368"/>
+      <c r="N61" s="368"/>
+      <c r="O61" s="368"/>
+      <c r="P61" s="368"/>
+      <c r="Q61" s="368"/>
+      <c r="R61" s="367" t="s">
         <v>426</v>
       </c>
-      <c r="S61" s="352"/>
-      <c r="T61" s="352"/>
-      <c r="U61" s="352"/>
-      <c r="V61" s="352"/>
-      <c r="W61" s="352"/>
+      <c r="S61" s="367"/>
+      <c r="T61" s="367"/>
+      <c r="U61" s="367"/>
+      <c r="V61" s="367"/>
+      <c r="W61" s="367"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="352"/>
-      <c r="E62" s="352"/>
-      <c r="F62" s="353"/>
-      <c r="G62" s="353"/>
-      <c r="H62" s="353"/>
-      <c r="I62" s="353"/>
-      <c r="J62" s="353"/>
-      <c r="K62" s="353"/>
-      <c r="L62" s="353"/>
-      <c r="M62" s="353"/>
-      <c r="N62" s="353"/>
-      <c r="O62" s="353"/>
-      <c r="P62" s="353"/>
-      <c r="Q62" s="353"/>
-      <c r="R62" s="352"/>
-      <c r="S62" s="352"/>
-      <c r="T62" s="352"/>
-      <c r="U62" s="352"/>
-      <c r="V62" s="352"/>
-      <c r="W62" s="352"/>
+      <c r="D62" s="367"/>
+      <c r="E62" s="367"/>
+      <c r="F62" s="368"/>
+      <c r="G62" s="368"/>
+      <c r="H62" s="368"/>
+      <c r="I62" s="368"/>
+      <c r="J62" s="368"/>
+      <c r="K62" s="368"/>
+      <c r="L62" s="368"/>
+      <c r="M62" s="368"/>
+      <c r="N62" s="368"/>
+      <c r="O62" s="368"/>
+      <c r="P62" s="368"/>
+      <c r="Q62" s="368"/>
+      <c r="R62" s="367"/>
+      <c r="S62" s="367"/>
+      <c r="T62" s="367"/>
+      <c r="U62" s="367"/>
+      <c r="V62" s="367"/>
+      <c r="W62" s="367"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="354" t="str">
+      <c r="D63" s="369" t="str">
         <f>Calibración!G37</f>
         <v>kPa</v>
       </c>
-      <c r="E63" s="354"/>
-      <c r="F63" s="355" t="str">
+      <c r="E63" s="369"/>
+      <c r="F63" s="370" t="str">
         <f>Calibración!H37</f>
         <v>kPa</v>
       </c>
-      <c r="G63" s="356"/>
-      <c r="H63" s="356"/>
-      <c r="I63" s="356"/>
-      <c r="J63" s="356"/>
-      <c r="K63" s="357"/>
-      <c r="L63" s="354" t="str">
+      <c r="G63" s="371"/>
+      <c r="H63" s="371"/>
+      <c r="I63" s="371"/>
+      <c r="J63" s="371"/>
+      <c r="K63" s="372"/>
+      <c r="L63" s="369" t="str">
         <f>Calibración!I37</f>
         <v>kPa</v>
       </c>
-      <c r="M63" s="354"/>
-      <c r="N63" s="354"/>
-      <c r="O63" s="354"/>
-      <c r="P63" s="354"/>
-      <c r="Q63" s="354"/>
-      <c r="R63" s="354" t="str">
+      <c r="M63" s="369"/>
+      <c r="N63" s="369"/>
+      <c r="O63" s="369"/>
+      <c r="P63" s="369"/>
+      <c r="Q63" s="369"/>
+      <c r="R63" s="369" t="str">
         <f>Calibración!J37</f>
         <v>kPa</v>
       </c>
-      <c r="S63" s="354"/>
-      <c r="T63" s="354"/>
-      <c r="U63" s="354"/>
-      <c r="V63" s="354"/>
-      <c r="W63" s="354"/>
+      <c r="S63" s="369"/>
+      <c r="T63" s="369"/>
+      <c r="U63" s="369"/>
+      <c r="V63" s="369"/>
+      <c r="W63" s="369"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="341" t="str">
+      <c r="D64" s="358" t="str">
         <f ca="1">Calibración!G38</f>
         <v/>
       </c>
-      <c r="E64" s="341"/>
-      <c r="F64" s="342" t="str">
+      <c r="E64" s="358"/>
+      <c r="F64" s="359" t="str">
         <f ca="1">Calibración!H38</f>
         <v/>
       </c>
-      <c r="G64" s="343"/>
-      <c r="H64" s="343"/>
-      <c r="I64" s="343"/>
-      <c r="J64" s="343"/>
-      <c r="K64" s="344"/>
-      <c r="L64" s="341" t="str">
+      <c r="G64" s="360"/>
+      <c r="H64" s="360"/>
+      <c r="I64" s="360"/>
+      <c r="J64" s="360"/>
+      <c r="K64" s="361"/>
+      <c r="L64" s="358" t="str">
         <f ca="1">Calibración!I38</f>
         <v/>
       </c>
-      <c r="M64" s="341"/>
-      <c r="N64" s="341"/>
-      <c r="O64" s="341"/>
-      <c r="P64" s="341"/>
-      <c r="Q64" s="341"/>
-      <c r="R64" s="341" t="str">
+      <c r="M64" s="358"/>
+      <c r="N64" s="358"/>
+      <c r="O64" s="358"/>
+      <c r="P64" s="358"/>
+      <c r="Q64" s="358"/>
+      <c r="R64" s="358" t="str">
         <f ca="1">Calibración!J38</f>
         <v/>
       </c>
-      <c r="S64" s="341"/>
-      <c r="T64" s="341"/>
-      <c r="U64" s="341"/>
-      <c r="V64" s="341"/>
-      <c r="W64" s="341"/>
+      <c r="S64" s="358"/>
+      <c r="T64" s="358"/>
+      <c r="U64" s="358"/>
+      <c r="V64" s="358"/>
+      <c r="W64" s="358"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="341" t="str">
+      <c r="D65" s="358" t="str">
         <f ca="1">Calibración!G39</f>
         <v/>
       </c>
-      <c r="E65" s="341"/>
-      <c r="F65" s="342" t="str">
+      <c r="E65" s="358"/>
+      <c r="F65" s="359" t="str">
         <f ca="1">Calibración!H39</f>
         <v/>
       </c>
-      <c r="G65" s="343"/>
-      <c r="H65" s="343"/>
-      <c r="I65" s="343"/>
-      <c r="J65" s="343"/>
-      <c r="K65" s="344"/>
-      <c r="L65" s="341" t="str">
+      <c r="G65" s="360"/>
+      <c r="H65" s="360"/>
+      <c r="I65" s="360"/>
+      <c r="J65" s="360"/>
+      <c r="K65" s="361"/>
+      <c r="L65" s="358" t="str">
         <f ca="1">Calibración!I39</f>
         <v/>
       </c>
-      <c r="M65" s="341"/>
-      <c r="N65" s="341"/>
-      <c r="O65" s="341"/>
-      <c r="P65" s="341"/>
-      <c r="Q65" s="341"/>
-      <c r="R65" s="341" t="str">
+      <c r="M65" s="358"/>
+      <c r="N65" s="358"/>
+      <c r="O65" s="358"/>
+      <c r="P65" s="358"/>
+      <c r="Q65" s="358"/>
+      <c r="R65" s="358" t="str">
         <f ca="1">Calibración!J39</f>
         <v/>
       </c>
-      <c r="S65" s="341"/>
-      <c r="T65" s="341"/>
-      <c r="U65" s="341"/>
-      <c r="V65" s="341"/>
-      <c r="W65" s="341"/>
+      <c r="S65" s="358"/>
+      <c r="T65" s="358"/>
+      <c r="U65" s="358"/>
+      <c r="V65" s="358"/>
+      <c r="W65" s="358"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="341" t="str">
+      <c r="D66" s="358" t="str">
         <f ca="1">Calibración!G40</f>
         <v/>
       </c>
-      <c r="E66" s="341"/>
-      <c r="F66" s="342" t="str">
+      <c r="E66" s="358"/>
+      <c r="F66" s="359" t="str">
         <f ca="1">Calibración!H40</f>
         <v/>
       </c>
-      <c r="G66" s="343"/>
-      <c r="H66" s="343"/>
-      <c r="I66" s="343"/>
-      <c r="J66" s="343"/>
-      <c r="K66" s="344"/>
-      <c r="L66" s="341" t="str">
+      <c r="G66" s="360"/>
+      <c r="H66" s="360"/>
+      <c r="I66" s="360"/>
+      <c r="J66" s="360"/>
+      <c r="K66" s="361"/>
+      <c r="L66" s="358" t="str">
         <f ca="1">Calibración!I40</f>
         <v/>
       </c>
-      <c r="M66" s="341"/>
-      <c r="N66" s="341"/>
-      <c r="O66" s="341"/>
-      <c r="P66" s="341"/>
-      <c r="Q66" s="341"/>
-      <c r="R66" s="341" t="str">
+      <c r="M66" s="358"/>
+      <c r="N66" s="358"/>
+      <c r="O66" s="358"/>
+      <c r="P66" s="358"/>
+      <c r="Q66" s="358"/>
+      <c r="R66" s="358" t="str">
         <f ca="1">Calibración!J40</f>
         <v/>
       </c>
-      <c r="S66" s="341"/>
-      <c r="T66" s="341"/>
-      <c r="U66" s="341"/>
-      <c r="V66" s="341"/>
-      <c r="W66" s="341"/>
+      <c r="S66" s="358"/>
+      <c r="T66" s="358"/>
+      <c r="U66" s="358"/>
+      <c r="V66" s="358"/>
+      <c r="W66" s="358"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="341" t="str">
+      <c r="D67" s="358" t="str">
         <f ca="1">Calibración!G41</f>
         <v/>
       </c>
-      <c r="E67" s="341"/>
-      <c r="F67" s="342" t="str">
+      <c r="E67" s="358"/>
+      <c r="F67" s="359" t="str">
         <f ca="1">Calibración!H41</f>
         <v/>
       </c>
-      <c r="G67" s="343"/>
-      <c r="H67" s="343"/>
-      <c r="I67" s="343"/>
-      <c r="J67" s="343"/>
-      <c r="K67" s="344"/>
-      <c r="L67" s="341" t="str">
+      <c r="G67" s="360"/>
+      <c r="H67" s="360"/>
+      <c r="I67" s="360"/>
+      <c r="J67" s="360"/>
+      <c r="K67" s="361"/>
+      <c r="L67" s="358" t="str">
         <f ca="1">Calibración!I41</f>
         <v/>
       </c>
-      <c r="M67" s="341"/>
-      <c r="N67" s="341"/>
-      <c r="O67" s="341"/>
-      <c r="P67" s="341"/>
-      <c r="Q67" s="341"/>
-      <c r="R67" s="341" t="str">
+      <c r="M67" s="358"/>
+      <c r="N67" s="358"/>
+      <c r="O67" s="358"/>
+      <c r="P67" s="358"/>
+      <c r="Q67" s="358"/>
+      <c r="R67" s="358" t="str">
         <f ca="1">Calibración!J41</f>
         <v/>
       </c>
-      <c r="S67" s="341"/>
-      <c r="T67" s="341"/>
-      <c r="U67" s="341"/>
-      <c r="V67" s="341"/>
-      <c r="W67" s="341"/>
+      <c r="S67" s="358"/>
+      <c r="T67" s="358"/>
+      <c r="U67" s="358"/>
+      <c r="V67" s="358"/>
+      <c r="W67" s="358"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="341" t="str">
+      <c r="D68" s="358" t="str">
         <f ca="1">Calibración!G42</f>
         <v/>
       </c>
-      <c r="E68" s="341"/>
-      <c r="F68" s="342" t="str">
+      <c r="E68" s="358"/>
+      <c r="F68" s="359" t="str">
         <f ca="1">Calibración!H42</f>
         <v/>
       </c>
-      <c r="G68" s="343"/>
-      <c r="H68" s="343"/>
-      <c r="I68" s="343"/>
-      <c r="J68" s="343"/>
-      <c r="K68" s="344"/>
-      <c r="L68" s="341" t="str">
+      <c r="G68" s="360"/>
+      <c r="H68" s="360"/>
+      <c r="I68" s="360"/>
+      <c r="J68" s="360"/>
+      <c r="K68" s="361"/>
+      <c r="L68" s="358" t="str">
         <f ca="1">Calibración!I42</f>
         <v/>
       </c>
-      <c r="M68" s="341"/>
-      <c r="N68" s="341"/>
-      <c r="O68" s="341"/>
-      <c r="P68" s="341"/>
-      <c r="Q68" s="341"/>
-      <c r="R68" s="341" t="str">
+      <c r="M68" s="358"/>
+      <c r="N68" s="358"/>
+      <c r="O68" s="358"/>
+      <c r="P68" s="358"/>
+      <c r="Q68" s="358"/>
+      <c r="R68" s="358" t="str">
         <f ca="1">Calibración!J42</f>
         <v/>
       </c>
-      <c r="S68" s="341"/>
-      <c r="T68" s="341"/>
-      <c r="U68" s="341"/>
-      <c r="V68" s="341"/>
-      <c r="W68" s="341"/>
+      <c r="S68" s="358"/>
+      <c r="T68" s="358"/>
+      <c r="U68" s="358"/>
+      <c r="V68" s="358"/>
+      <c r="W68" s="358"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D69" s="341" t="str">
+      <c r="D69" s="358" t="str">
         <f ca="1">Calibración!G43</f>
         <v/>
       </c>
-      <c r="E69" s="341"/>
-      <c r="F69" s="342" t="str">
+      <c r="E69" s="358"/>
+      <c r="F69" s="359" t="str">
         <f ca="1">Calibración!H43</f>
         <v/>
       </c>
-      <c r="G69" s="343"/>
-      <c r="H69" s="343"/>
-      <c r="I69" s="343"/>
-      <c r="J69" s="343"/>
-      <c r="K69" s="344"/>
-      <c r="L69" s="341" t="str">
+      <c r="G69" s="360"/>
+      <c r="H69" s="360"/>
+      <c r="I69" s="360"/>
+      <c r="J69" s="360"/>
+      <c r="K69" s="361"/>
+      <c r="L69" s="358" t="str">
         <f ca="1">Calibración!I43</f>
         <v/>
       </c>
-      <c r="M69" s="341"/>
-      <c r="N69" s="341"/>
-      <c r="O69" s="341"/>
-      <c r="P69" s="341"/>
-      <c r="Q69" s="341"/>
-      <c r="R69" s="341" t="str">
+      <c r="M69" s="358"/>
+      <c r="N69" s="358"/>
+      <c r="O69" s="358"/>
+      <c r="P69" s="358"/>
+      <c r="Q69" s="358"/>
+      <c r="R69" s="358" t="str">
         <f ca="1">Calibración!J43</f>
         <v/>
       </c>
-      <c r="S69" s="341"/>
-      <c r="T69" s="341"/>
-      <c r="U69" s="341"/>
-      <c r="V69" s="341"/>
-      <c r="W69" s="341"/>
+      <c r="S69" s="358"/>
+      <c r="T69" s="358"/>
+      <c r="U69" s="358"/>
+      <c r="V69" s="358"/>
+      <c r="W69" s="358"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D70" s="341" t="str">
+      <c r="D70" s="358" t="str">
         <f ca="1">Calibración!G44</f>
         <v/>
       </c>
-      <c r="E70" s="341"/>
-      <c r="F70" s="342" t="str">
+      <c r="E70" s="358"/>
+      <c r="F70" s="359" t="str">
         <f ca="1">Calibración!H44</f>
         <v/>
       </c>
-      <c r="G70" s="343"/>
-      <c r="H70" s="343"/>
-      <c r="I70" s="343"/>
-      <c r="J70" s="343"/>
-      <c r="K70" s="344"/>
-      <c r="L70" s="341" t="str">
+      <c r="G70" s="360"/>
+      <c r="H70" s="360"/>
+      <c r="I70" s="360"/>
+      <c r="J70" s="360"/>
+      <c r="K70" s="361"/>
+      <c r="L70" s="358" t="str">
         <f ca="1">Calibración!I44</f>
         <v/>
       </c>
-      <c r="M70" s="341"/>
-      <c r="N70" s="341"/>
-      <c r="O70" s="341"/>
-      <c r="P70" s="341"/>
-      <c r="Q70" s="341"/>
-      <c r="R70" s="341" t="str">
+      <c r="M70" s="358"/>
+      <c r="N70" s="358"/>
+      <c r="O70" s="358"/>
+      <c r="P70" s="358"/>
+      <c r="Q70" s="358"/>
+      <c r="R70" s="358" t="str">
         <f ca="1">Calibración!J44</f>
         <v/>
       </c>
-      <c r="S70" s="341"/>
-      <c r="T70" s="341"/>
-      <c r="U70" s="341"/>
-      <c r="V70" s="341"/>
-      <c r="W70" s="341"/>
+      <c r="S70" s="358"/>
+      <c r="T70" s="358"/>
+      <c r="U70" s="358"/>
+      <c r="V70" s="358"/>
+      <c r="W70" s="358"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D71" s="341" t="str">
+      <c r="D71" s="358" t="str">
         <f ca="1">Calibración!G45</f>
         <v/>
       </c>
-      <c r="E71" s="341"/>
-      <c r="F71" s="342" t="str">
+      <c r="E71" s="358"/>
+      <c r="F71" s="359" t="str">
         <f ca="1">Calibración!H45</f>
         <v/>
       </c>
-      <c r="G71" s="343"/>
-      <c r="H71" s="343"/>
-      <c r="I71" s="343"/>
-      <c r="J71" s="343"/>
-      <c r="K71" s="344"/>
-      <c r="L71" s="341" t="str">
+      <c r="G71" s="360"/>
+      <c r="H71" s="360"/>
+      <c r="I71" s="360"/>
+      <c r="J71" s="360"/>
+      <c r="K71" s="361"/>
+      <c r="L71" s="358" t="str">
         <f ca="1">Calibración!I45</f>
         <v/>
       </c>
-      <c r="M71" s="341"/>
-      <c r="N71" s="341"/>
-      <c r="O71" s="341"/>
-      <c r="P71" s="341"/>
-      <c r="Q71" s="341"/>
-      <c r="R71" s="341" t="str">
+      <c r="M71" s="358"/>
+      <c r="N71" s="358"/>
+      <c r="O71" s="358"/>
+      <c r="P71" s="358"/>
+      <c r="Q71" s="358"/>
+      <c r="R71" s="358" t="str">
         <f ca="1">Calibración!J45</f>
         <v/>
       </c>
-      <c r="S71" s="341"/>
-      <c r="T71" s="341"/>
-      <c r="U71" s="341"/>
-      <c r="V71" s="341"/>
-      <c r="W71" s="341"/>
+      <c r="S71" s="358"/>
+      <c r="T71" s="358"/>
+      <c r="U71" s="358"/>
+      <c r="V71" s="358"/>
+      <c r="W71" s="358"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D72" s="341" t="str">
+      <c r="D72" s="358" t="str">
         <f ca="1">Calibración!G46</f>
         <v/>
       </c>
-      <c r="E72" s="341"/>
-      <c r="F72" s="342" t="str">
+      <c r="E72" s="358"/>
+      <c r="F72" s="359" t="str">
         <f ca="1">Calibración!H46</f>
         <v/>
       </c>
-      <c r="G72" s="343"/>
-      <c r="H72" s="343"/>
-      <c r="I72" s="343"/>
-      <c r="J72" s="343"/>
-      <c r="K72" s="344"/>
-      <c r="L72" s="341" t="str">
+      <c r="G72" s="360"/>
+      <c r="H72" s="360"/>
+      <c r="I72" s="360"/>
+      <c r="J72" s="360"/>
+      <c r="K72" s="361"/>
+      <c r="L72" s="358" t="str">
         <f ca="1">Calibración!I46</f>
         <v/>
       </c>
-      <c r="M72" s="341"/>
-      <c r="N72" s="341"/>
-      <c r="O72" s="341"/>
-      <c r="P72" s="341"/>
-      <c r="Q72" s="341"/>
-      <c r="R72" s="341" t="str">
+      <c r="M72" s="358"/>
+      <c r="N72" s="358"/>
+      <c r="O72" s="358"/>
+      <c r="P72" s="358"/>
+      <c r="Q72" s="358"/>
+      <c r="R72" s="358" t="str">
         <f ca="1">Calibración!J46</f>
         <v/>
       </c>
-      <c r="S72" s="341"/>
-      <c r="T72" s="341"/>
-      <c r="U72" s="341"/>
-      <c r="V72" s="341"/>
-      <c r="W72" s="341"/>
+      <c r="S72" s="358"/>
+      <c r="T72" s="358"/>
+      <c r="U72" s="358"/>
+      <c r="V72" s="358"/>
+      <c r="W72" s="358"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D73" s="341" t="str">
+      <c r="D73" s="358" t="str">
         <f ca="1">Calibración!G47</f>
         <v/>
       </c>
-      <c r="E73" s="341"/>
-      <c r="F73" s="342" t="str">
+      <c r="E73" s="358"/>
+      <c r="F73" s="359" t="str">
         <f ca="1">Calibración!H47</f>
         <v/>
       </c>
-      <c r="G73" s="343"/>
-      <c r="H73" s="343"/>
-      <c r="I73" s="343"/>
-      <c r="J73" s="343"/>
-      <c r="K73" s="344"/>
-      <c r="L73" s="341" t="str">
+      <c r="G73" s="360"/>
+      <c r="H73" s="360"/>
+      <c r="I73" s="360"/>
+      <c r="J73" s="360"/>
+      <c r="K73" s="361"/>
+      <c r="L73" s="358" t="str">
         <f ca="1">Calibración!I47</f>
         <v/>
       </c>
-      <c r="M73" s="341"/>
-      <c r="N73" s="341"/>
-      <c r="O73" s="341"/>
-      <c r="P73" s="341"/>
-      <c r="Q73" s="341"/>
-      <c r="R73" s="341" t="str">
+      <c r="M73" s="358"/>
+      <c r="N73" s="358"/>
+      <c r="O73" s="358"/>
+      <c r="P73" s="358"/>
+      <c r="Q73" s="358"/>
+      <c r="R73" s="358" t="str">
         <f ca="1">Calibración!J47</f>
         <v/>
       </c>
-      <c r="S73" s="341"/>
-      <c r="T73" s="341"/>
-      <c r="U73" s="341"/>
-      <c r="V73" s="341"/>
-      <c r="W73" s="341"/>
+      <c r="S73" s="358"/>
+      <c r="T73" s="358"/>
+      <c r="U73" s="358"/>
+      <c r="V73" s="358"/>
+      <c r="W73" s="358"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O74" s="232"/>
@@ -38082,166 +38082,143 @@
       <c r="O75" s="232"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A76" s="224" t="s">
+      <c r="O76" s="232"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A77" s="224" t="s">
         <v>411</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="225"/>
-      <c r="D76" s="226"/>
-      <c r="E76" s="226"/>
-      <c r="F76" s="226"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="346" t="str">
+      <c r="B77" s="9"/>
+      <c r="C77" s="225"/>
+      <c r="D77" s="226"/>
+      <c r="E77" s="226"/>
+      <c r="F77" s="226"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="362" t="str">
         <f>N8</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O76" s="346"/>
-      <c r="P76" s="346"/>
-      <c r="Q76" s="346"/>
-      <c r="R76" s="346"/>
-      <c r="S76" s="346"/>
-      <c r="T76" s="346"/>
-      <c r="U76" s="346"/>
-      <c r="V76" s="346"/>
-      <c r="W76" s="346"/>
-      <c r="X76" s="346"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="O77" s="232"/>
+      <c r="O77" s="362"/>
+      <c r="P77" s="362"/>
+      <c r="Q77" s="362"/>
+      <c r="R77" s="362"/>
+      <c r="S77" s="362"/>
+      <c r="T77" s="362"/>
+      <c r="U77" s="362"/>
+      <c r="V77" s="362"/>
+      <c r="W77" s="362"/>
+      <c r="X77" s="362"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A78" s="224" t="s">
+      <c r="O78" s="232"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A79" s="224" t="s">
         <v>428</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="233" t="s">
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="233" t="s">
         <v>99</v>
       </c>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="233" t="str">
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="233" t="str">
         <f>General!I4</f>
         <v>NI-MCPPT-06</v>
       </c>
-      <c r="L78" s="9"/>
-      <c r="O78" s="224" t="s">
+      <c r="L79" s="9"/>
+      <c r="O79" s="224" t="s">
         <v>429</v>
       </c>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="9"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="9"/>
-      <c r="Y78" s="9"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A79" s="234"/>
-      <c r="B79" s="365" t="s">
-        <v>430</v>
-      </c>
-      <c r="C79" s="365"/>
-      <c r="D79" s="365"/>
-      <c r="E79" s="235" t="str">
-        <f>CertTempC</f>
-        <v/>
-      </c>
-      <c r="F79" s="236" t="s">
-        <v>431</v>
-      </c>
-      <c r="G79" s="237">
-        <f>CertTempIncerti</f>
-        <v>0.42</v>
-      </c>
-      <c r="H79" s="234" t="s">
-        <v>97</v>
-      </c>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="348"/>
-      <c r="L79" s="348"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="234" t="s">
-        <v>469</v>
-      </c>
+      <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
-      <c r="T79" s="366" t="str">
-        <f>General!I18</f>
-        <v/>
-      </c>
-      <c r="U79" s="366"/>
-      <c r="V79" s="236" t="s">
-        <v>432</v>
-      </c>
-      <c r="W79" s="235">
-        <f>CertPresIncert</f>
-        <v>2.4700000000000002</v>
-      </c>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
       <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="234"/>
-      <c r="B80" s="234" t="s">
-        <v>433</v>
-      </c>
-      <c r="C80" s="234"/>
-      <c r="D80" s="234"/>
+      <c r="B80" s="363" t="s">
+        <v>430</v>
+      </c>
+      <c r="C80" s="363"/>
+      <c r="D80" s="363"/>
       <c r="E80" s="235" t="str">
-        <f>CertHR</f>
+        <f>CertTempC</f>
         <v/>
       </c>
       <c r="F80" s="236" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G80" s="237">
-        <f>CertHRIncerti</f>
-        <v>1.3</v>
-      </c>
-      <c r="H80" s="236" t="s">
-        <v>435</v>
+        <f>CertTempIncerti</f>
+        <v>0.42</v>
+      </c>
+      <c r="H80" s="234" t="s">
+        <v>97</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
+      <c r="K80" s="364"/>
+      <c r="L80" s="364"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
+      <c r="P80" s="234" t="s">
+        <v>469</v>
+      </c>
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
+      <c r="T80" s="365" t="str">
+        <f>General!I18</f>
+        <v/>
+      </c>
+      <c r="U80" s="365"/>
+      <c r="V80" s="236" t="s">
+        <v>432</v>
+      </c>
+      <c r="W80" s="235">
+        <f>CertPresIncert</f>
+        <v>2.4700000000000002</v>
+      </c>
       <c r="X80" s="9"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" s="234"/>
-      <c r="B81" s="234"/>
+      <c r="B81" s="234" t="s">
+        <v>433</v>
+      </c>
       <c r="C81" s="234"/>
       <c r="D81" s="234"/>
-      <c r="E81" s="235"/>
-      <c r="F81" s="236"/>
-      <c r="G81" s="237"/>
-      <c r="H81" s="236"/>
+      <c r="E81" s="235" t="str">
+        <f>CertHR</f>
+        <v/>
+      </c>
+      <c r="F81" s="236" t="s">
+        <v>434</v>
+      </c>
+      <c r="G81" s="237">
+        <f>CertHRIncerti</f>
+        <v>1.3</v>
+      </c>
+      <c r="H81" s="236" t="s">
+        <v>435</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
@@ -38260,16 +38237,14 @@
       <c r="X81" s="9"/>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A82" s="224" t="s">
-        <v>436</v>
-      </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
+      <c r="A82" s="234"/>
+      <c r="B82" s="234"/>
+      <c r="C82" s="234"/>
+      <c r="D82" s="234"/>
+      <c r="E82" s="235"/>
+      <c r="F82" s="236"/>
+      <c r="G82" s="237"/>
+      <c r="H82" s="236"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
@@ -38285,63 +38260,64 @@
       <c r="U82" s="9"/>
       <c r="V82" s="9"/>
       <c r="W82" s="9"/>
-    </row>
-    <row r="83" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="358" t="s">
+      <c r="X82" s="9"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A83" s="224" t="s">
+        <v>436</v>
+      </c>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
+    </row>
+    <row r="84" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="351" t="s">
         <v>715</v>
       </c>
-      <c r="B83" s="358"/>
-      <c r="C83" s="358"/>
-      <c r="D83" s="358"/>
-      <c r="E83" s="358"/>
-      <c r="F83" s="358"/>
-      <c r="G83" s="358"/>
-      <c r="H83" s="358"/>
-      <c r="I83" s="358"/>
-      <c r="J83" s="358"/>
-      <c r="K83" s="358"/>
-      <c r="L83" s="358"/>
-      <c r="M83" s="358"/>
-      <c r="N83" s="358"/>
-      <c r="O83" s="358"/>
-      <c r="P83" s="358"/>
-      <c r="Q83" s="358"/>
-      <c r="R83" s="358"/>
-      <c r="S83" s="358"/>
-      <c r="T83" s="358"/>
-      <c r="U83" s="358"/>
-      <c r="V83" s="358"/>
-      <c r="W83" s="358"/>
-      <c r="X83" s="358"/>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="14"/>
-      <c r="Q84" s="14"/>
-      <c r="R84" s="14"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="14"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="14"/>
-      <c r="W84" s="14"/>
-    </row>
-    <row r="85" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="224" t="s">
-        <v>437</v>
-      </c>
+      <c r="B84" s="351"/>
+      <c r="C84" s="351"/>
+      <c r="D84" s="351"/>
+      <c r="E84" s="351"/>
+      <c r="F84" s="351"/>
+      <c r="G84" s="351"/>
+      <c r="H84" s="351"/>
+      <c r="I84" s="351"/>
+      <c r="J84" s="351"/>
+      <c r="K84" s="351"/>
+      <c r="L84" s="351"/>
+      <c r="M84" s="351"/>
+      <c r="N84" s="351"/>
+      <c r="O84" s="351"/>
+      <c r="P84" s="351"/>
+      <c r="Q84" s="351"/>
+      <c r="R84" s="351"/>
+      <c r="S84" s="351"/>
+      <c r="T84" s="351"/>
+      <c r="U84" s="351"/>
+      <c r="V84" s="351"/>
+      <c r="W84" s="351"/>
+      <c r="X84" s="351"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
@@ -38364,169 +38340,169 @@
       <c r="U85" s="14"/>
       <c r="V85" s="14"/>
       <c r="W85" s="14"/>
-      <c r="X85" s="14"/>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A86" s="358" t="s">
+    </row>
+    <row r="86" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="224" t="s">
+        <v>437</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="14"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="14"/>
+      <c r="W86" s="14"/>
+      <c r="X86" s="14"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A87" s="351" t="s">
         <v>438</v>
       </c>
-      <c r="B86" s="358"/>
-      <c r="C86" s="358"/>
-      <c r="D86" s="358"/>
-      <c r="E86" s="358"/>
-      <c r="F86" s="358"/>
-      <c r="G86" s="358"/>
-      <c r="H86" s="358"/>
-      <c r="I86" s="358"/>
-      <c r="J86" s="358"/>
-      <c r="K86" s="358"/>
-      <c r="L86" s="358"/>
-      <c r="M86" s="358"/>
-      <c r="N86" s="358"/>
-      <c r="O86" s="358"/>
-      <c r="P86" s="358"/>
-      <c r="Q86" s="358"/>
-      <c r="R86" s="358"/>
-      <c r="S86" s="358"/>
-      <c r="T86" s="358"/>
-      <c r="U86" s="358"/>
-      <c r="V86" s="358"/>
-      <c r="W86" s="358"/>
-      <c r="X86" s="358"/>
-    </row>
-    <row r="87" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="358"/>
-      <c r="B87" s="358"/>
-      <c r="C87" s="358"/>
-      <c r="D87" s="358"/>
-      <c r="E87" s="358"/>
-      <c r="F87" s="358"/>
-      <c r="G87" s="358"/>
-      <c r="H87" s="358"/>
-      <c r="I87" s="358"/>
-      <c r="J87" s="358"/>
-      <c r="K87" s="358"/>
-      <c r="L87" s="358"/>
-      <c r="M87" s="358"/>
-      <c r="N87" s="358"/>
-      <c r="O87" s="358"/>
-      <c r="P87" s="358"/>
-      <c r="Q87" s="358"/>
-      <c r="R87" s="358"/>
-      <c r="S87" s="358"/>
-      <c r="T87" s="358"/>
-      <c r="U87" s="358"/>
-      <c r="V87" s="358"/>
-      <c r="W87" s="358"/>
-      <c r="X87" s="358"/>
+      <c r="B87" s="351"/>
+      <c r="C87" s="351"/>
+      <c r="D87" s="351"/>
+      <c r="E87" s="351"/>
+      <c r="F87" s="351"/>
+      <c r="G87" s="351"/>
+      <c r="H87" s="351"/>
+      <c r="I87" s="351"/>
+      <c r="J87" s="351"/>
+      <c r="K87" s="351"/>
+      <c r="L87" s="351"/>
+      <c r="M87" s="351"/>
+      <c r="N87" s="351"/>
+      <c r="O87" s="351"/>
+      <c r="P87" s="351"/>
+      <c r="Q87" s="351"/>
+      <c r="R87" s="351"/>
+      <c r="S87" s="351"/>
+      <c r="T87" s="351"/>
+      <c r="U87" s="351"/>
+      <c r="V87" s="351"/>
+      <c r="W87" s="351"/>
+      <c r="X87" s="351"/>
     </row>
     <row r="88" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="358"/>
-      <c r="B88" s="358"/>
-      <c r="C88" s="358"/>
-      <c r="D88" s="358"/>
-      <c r="E88" s="358"/>
-      <c r="F88" s="358"/>
-      <c r="G88" s="358"/>
-      <c r="H88" s="358"/>
-      <c r="I88" s="358"/>
-      <c r="J88" s="358"/>
-      <c r="K88" s="358"/>
-      <c r="L88" s="358"/>
-      <c r="M88" s="358"/>
-      <c r="N88" s="358"/>
-      <c r="O88" s="358"/>
-      <c r="P88" s="358"/>
-      <c r="Q88" s="358"/>
-      <c r="R88" s="358"/>
-      <c r="S88" s="358"/>
-      <c r="T88" s="358"/>
-      <c r="U88" s="358"/>
-      <c r="V88" s="358"/>
-      <c r="W88" s="358"/>
-      <c r="X88" s="358"/>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A89" s="358"/>
-      <c r="B89" s="358"/>
-      <c r="C89" s="358"/>
-      <c r="D89" s="358"/>
-      <c r="E89" s="358"/>
-      <c r="F89" s="358"/>
-      <c r="G89" s="358"/>
-      <c r="H89" s="358"/>
-      <c r="I89" s="358"/>
-      <c r="J89" s="358"/>
-      <c r="K89" s="358"/>
-      <c r="L89" s="358"/>
-      <c r="M89" s="358"/>
-      <c r="N89" s="358"/>
-      <c r="O89" s="358"/>
-      <c r="P89" s="358"/>
-      <c r="Q89" s="358"/>
-      <c r="R89" s="358"/>
-      <c r="S89" s="358"/>
-      <c r="T89" s="358"/>
-      <c r="U89" s="358"/>
-      <c r="V89" s="358"/>
-      <c r="W89" s="358"/>
-      <c r="X89" s="358"/>
+      <c r="A88" s="351"/>
+      <c r="B88" s="351"/>
+      <c r="C88" s="351"/>
+      <c r="D88" s="351"/>
+      <c r="E88" s="351"/>
+      <c r="F88" s="351"/>
+      <c r="G88" s="351"/>
+      <c r="H88" s="351"/>
+      <c r="I88" s="351"/>
+      <c r="J88" s="351"/>
+      <c r="K88" s="351"/>
+      <c r="L88" s="351"/>
+      <c r="M88" s="351"/>
+      <c r="N88" s="351"/>
+      <c r="O88" s="351"/>
+      <c r="P88" s="351"/>
+      <c r="Q88" s="351"/>
+      <c r="R88" s="351"/>
+      <c r="S88" s="351"/>
+      <c r="T88" s="351"/>
+      <c r="U88" s="351"/>
+      <c r="V88" s="351"/>
+      <c r="W88" s="351"/>
+      <c r="X88" s="351"/>
+    </row>
+    <row r="89" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="351"/>
+      <c r="B89" s="351"/>
+      <c r="C89" s="351"/>
+      <c r="D89" s="351"/>
+      <c r="E89" s="351"/>
+      <c r="F89" s="351"/>
+      <c r="G89" s="351"/>
+      <c r="H89" s="351"/>
+      <c r="I89" s="351"/>
+      <c r="J89" s="351"/>
+      <c r="K89" s="351"/>
+      <c r="L89" s="351"/>
+      <c r="M89" s="351"/>
+      <c r="N89" s="351"/>
+      <c r="O89" s="351"/>
+      <c r="P89" s="351"/>
+      <c r="Q89" s="351"/>
+      <c r="R89" s="351"/>
+      <c r="S89" s="351"/>
+      <c r="T89" s="351"/>
+      <c r="U89" s="351"/>
+      <c r="V89" s="351"/>
+      <c r="W89" s="351"/>
+      <c r="X89" s="351"/>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A90" s="358"/>
-      <c r="B90" s="358"/>
-      <c r="C90" s="358"/>
-      <c r="D90" s="358"/>
-      <c r="E90" s="358"/>
-      <c r="F90" s="358"/>
-      <c r="G90" s="358"/>
-      <c r="H90" s="358"/>
-      <c r="I90" s="358"/>
-      <c r="J90" s="358"/>
-      <c r="K90" s="358"/>
-      <c r="L90" s="358"/>
-      <c r="M90" s="358"/>
-      <c r="N90" s="358"/>
-      <c r="O90" s="358"/>
-      <c r="P90" s="358"/>
-      <c r="Q90" s="358"/>
-      <c r="R90" s="358"/>
-      <c r="S90" s="358"/>
-      <c r="T90" s="358"/>
-      <c r="U90" s="358"/>
-      <c r="V90" s="358"/>
-      <c r="W90" s="358"/>
-      <c r="X90" s="358"/>
+      <c r="A90" s="351"/>
+      <c r="B90" s="351"/>
+      <c r="C90" s="351"/>
+      <c r="D90" s="351"/>
+      <c r="E90" s="351"/>
+      <c r="F90" s="351"/>
+      <c r="G90" s="351"/>
+      <c r="H90" s="351"/>
+      <c r="I90" s="351"/>
+      <c r="J90" s="351"/>
+      <c r="K90" s="351"/>
+      <c r="L90" s="351"/>
+      <c r="M90" s="351"/>
+      <c r="N90" s="351"/>
+      <c r="O90" s="351"/>
+      <c r="P90" s="351"/>
+      <c r="Q90" s="351"/>
+      <c r="R90" s="351"/>
+      <c r="S90" s="351"/>
+      <c r="T90" s="351"/>
+      <c r="U90" s="351"/>
+      <c r="V90" s="351"/>
+      <c r="W90" s="351"/>
+      <c r="X90" s="351"/>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
-      <c r="U91" s="9"/>
-      <c r="V91" s="9"/>
-      <c r="W91" s="9"/>
+      <c r="A91" s="351"/>
+      <c r="B91" s="351"/>
+      <c r="C91" s="351"/>
+      <c r="D91" s="351"/>
+      <c r="E91" s="351"/>
+      <c r="F91" s="351"/>
+      <c r="G91" s="351"/>
+      <c r="H91" s="351"/>
+      <c r="I91" s="351"/>
+      <c r="J91" s="351"/>
+      <c r="K91" s="351"/>
+      <c r="L91" s="351"/>
+      <c r="M91" s="351"/>
+      <c r="N91" s="351"/>
+      <c r="O91" s="351"/>
+      <c r="P91" s="351"/>
+      <c r="Q91" s="351"/>
+      <c r="R91" s="351"/>
+      <c r="S91" s="351"/>
+      <c r="T91" s="351"/>
+      <c r="U91" s="351"/>
+      <c r="V91" s="351"/>
+      <c r="W91" s="351"/>
+      <c r="X91" s="351"/>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A92" s="224" t="s">
-        <v>439</v>
-      </c>
+      <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -38548,291 +38524,290 @@
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
       <c r="V92" s="9"/>
-    </row>
-    <row r="93" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="359" t="s">
+      <c r="W92" s="9"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A93" s="224" t="s">
+        <v>439</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="9"/>
+      <c r="V93" s="9"/>
+    </row>
+    <row r="94" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="360"/>
-      <c r="C93" s="360"/>
-      <c r="D93" s="360"/>
-      <c r="E93" s="360"/>
-      <c r="F93" s="361"/>
-      <c r="G93" s="359" t="s">
+      <c r="B94" s="353"/>
+      <c r="C94" s="353"/>
+      <c r="D94" s="353"/>
+      <c r="E94" s="353"/>
+      <c r="F94" s="354"/>
+      <c r="G94" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="H93" s="360"/>
-      <c r="I93" s="361"/>
-      <c r="J93" s="362" t="s">
+      <c r="H94" s="353"/>
+      <c r="I94" s="354"/>
+      <c r="J94" s="355" t="s">
         <v>101</v>
       </c>
-      <c r="K93" s="363"/>
-      <c r="L93" s="363"/>
-      <c r="M93" s="363"/>
-      <c r="N93" s="364"/>
-      <c r="O93" s="359" t="s">
+      <c r="K94" s="356"/>
+      <c r="L94" s="356"/>
+      <c r="M94" s="356"/>
+      <c r="N94" s="357"/>
+      <c r="O94" s="352" t="s">
         <v>440</v>
       </c>
-      <c r="P93" s="360"/>
-      <c r="Q93" s="360"/>
-      <c r="R93" s="360"/>
-      <c r="S93" s="360"/>
-      <c r="T93" s="361"/>
-      <c r="U93" s="362" t="s">
+      <c r="P94" s="353"/>
+      <c r="Q94" s="353"/>
+      <c r="R94" s="353"/>
+      <c r="S94" s="353"/>
+      <c r="T94" s="354"/>
+      <c r="U94" s="355" t="s">
         <v>441</v>
       </c>
-      <c r="V93" s="363"/>
-      <c r="W93" s="363"/>
-      <c r="X93" s="364"/>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A94" s="367" t="s">
+      <c r="V94" s="356"/>
+      <c r="W94" s="356"/>
+      <c r="X94" s="357"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A95" s="345" t="s">
         <v>709</v>
       </c>
-      <c r="B94" s="368" t="s">
+      <c r="B95" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="C94" s="368" t="s">
+      <c r="C95" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="D94" s="368" t="s">
+      <c r="D95" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="E94" s="368" t="s">
+      <c r="E95" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="F94" s="369" t="s">
+      <c r="F95" s="347" t="s">
         <v>449</v>
       </c>
-      <c r="G94" s="367" t="s">
+      <c r="G95" s="345" t="s">
         <v>477</v>
       </c>
-      <c r="H94" s="368" t="s">
+      <c r="H95" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I94" s="369" t="s">
+      <c r="I95" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J94" s="370" t="s">
+      <c r="J95" s="348" t="s">
         <v>700</v>
       </c>
-      <c r="K94" s="371" t="s">
+      <c r="K95" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L94" s="371">
+      <c r="L95" s="349">
         <v>43393</v>
       </c>
-      <c r="M94" s="371" t="s">
+      <c r="M95" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="N94" s="372" t="s">
+      <c r="N95" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O94" s="367" t="s">
+      <c r="O95" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P94" s="368" t="s">
+      <c r="P95" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q94" s="368" t="s">
+      <c r="Q95" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R94" s="368" t="s">
+      <c r="R95" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S94" s="368" t="s">
+      <c r="S95" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T94" s="369" t="s">
+      <c r="T95" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U94" s="370">
+      <c r="U95" s="348">
         <v>44878</v>
       </c>
-      <c r="V94" s="371" t="s">
+      <c r="V95" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="W94" s="371" t="s">
+      <c r="W95" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X94" s="372">
+      <c r="X95" s="350">
         <v>43393</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="367" t="s">
+    <row r="96" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="345" t="s">
         <v>710</v>
       </c>
-      <c r="B95" s="368"/>
-      <c r="C95" s="368"/>
-      <c r="D95" s="368"/>
-      <c r="E95" s="368"/>
-      <c r="F95" s="369"/>
-      <c r="G95" s="367" t="s">
+      <c r="B96" s="346"/>
+      <c r="C96" s="346"/>
+      <c r="D96" s="346"/>
+      <c r="E96" s="346"/>
+      <c r="F96" s="347"/>
+      <c r="G96" s="345" t="s">
         <v>311</v>
       </c>
-      <c r="H95" s="368" t="s">
+      <c r="H96" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I95" s="369" t="s">
+      <c r="I96" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J95" s="370" t="s">
+      <c r="J96" s="348" t="s">
         <v>714</v>
       </c>
-      <c r="K95" s="371" t="s">
+      <c r="K96" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L95" s="371">
+      <c r="L96" s="349">
         <v>43394</v>
       </c>
-      <c r="M95" s="371" t="s">
+      <c r="M96" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="N95" s="372" t="s">
+      <c r="N96" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O95" s="367" t="s">
+      <c r="O96" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P95" s="368" t="s">
+      <c r="P96" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q95" s="368" t="s">
+      <c r="Q96" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R95" s="368" t="s">
+      <c r="R96" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S95" s="368" t="s">
+      <c r="S96" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T95" s="369" t="s">
+      <c r="T96" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U95" s="370">
+      <c r="U96" s="348">
         <v>44878</v>
       </c>
-      <c r="V95" s="371" t="s">
+      <c r="V96" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="W95" s="371" t="s">
+      <c r="W96" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X95" s="372">
+      <c r="X96" s="350">
         <v>43394</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="367"/>
-      <c r="B96" s="368"/>
-      <c r="C96" s="368"/>
-      <c r="D96" s="368"/>
-      <c r="E96" s="368"/>
-      <c r="F96" s="369"/>
-      <c r="G96" s="367"/>
-      <c r="H96" s="368"/>
-      <c r="I96" s="369"/>
-      <c r="J96" s="370"/>
-      <c r="K96" s="371"/>
-      <c r="L96" s="371"/>
-      <c r="M96" s="371"/>
-      <c r="N96" s="372"/>
-      <c r="O96" s="367"/>
-      <c r="P96" s="368"/>
-      <c r="Q96" s="368"/>
-      <c r="R96" s="368"/>
-      <c r="S96" s="368"/>
-      <c r="T96" s="369"/>
-      <c r="U96" s="370"/>
-      <c r="V96" s="371"/>
-      <c r="W96" s="371"/>
-      <c r="X96" s="372"/>
-    </row>
-    <row r="97" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="238"/>
-      <c r="B97" s="238"/>
-      <c r="C97" s="238"/>
-      <c r="D97" s="238"/>
-      <c r="E97" s="238"/>
-      <c r="F97" s="238"/>
-      <c r="G97" s="238"/>
-      <c r="H97" s="238"/>
-      <c r="I97" s="238"/>
-      <c r="J97" s="238"/>
-      <c r="K97" s="238"/>
-      <c r="L97" s="238"/>
-      <c r="M97" s="238"/>
-      <c r="N97" s="238"/>
-      <c r="O97" s="238"/>
-      <c r="P97" s="238"/>
-      <c r="Q97" s="238"/>
-      <c r="R97" s="238"/>
-      <c r="S97" s="238"/>
-      <c r="T97" s="238"/>
-      <c r="U97" s="238"/>
-      <c r="V97" s="238"/>
-      <c r="W97" s="238"/>
-      <c r="X97" s="238"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A98" s="224" t="s">
+    <row r="97" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="345"/>
+      <c r="B97" s="346"/>
+      <c r="C97" s="346"/>
+      <c r="D97" s="346"/>
+      <c r="E97" s="346"/>
+      <c r="F97" s="347"/>
+      <c r="G97" s="345"/>
+      <c r="H97" s="346"/>
+      <c r="I97" s="347"/>
+      <c r="J97" s="348"/>
+      <c r="K97" s="349"/>
+      <c r="L97" s="349"/>
+      <c r="M97" s="349"/>
+      <c r="N97" s="350"/>
+      <c r="O97" s="345"/>
+      <c r="P97" s="346"/>
+      <c r="Q97" s="346"/>
+      <c r="R97" s="346"/>
+      <c r="S97" s="346"/>
+      <c r="T97" s="347"/>
+      <c r="U97" s="348"/>
+      <c r="V97" s="349"/>
+      <c r="W97" s="349"/>
+      <c r="X97" s="350"/>
+    </row>
+    <row r="98" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="238"/>
+      <c r="B98" s="238"/>
+      <c r="C98" s="238"/>
+      <c r="D98" s="238"/>
+      <c r="E98" s="238"/>
+      <c r="F98" s="238"/>
+      <c r="G98" s="238"/>
+      <c r="H98" s="238"/>
+      <c r="I98" s="238"/>
+      <c r="J98" s="238"/>
+      <c r="K98" s="238"/>
+      <c r="L98" s="238"/>
+      <c r="M98" s="238"/>
+      <c r="N98" s="238"/>
+      <c r="O98" s="238"/>
+      <c r="P98" s="238"/>
+      <c r="Q98" s="238"/>
+      <c r="R98" s="238"/>
+      <c r="S98" s="238"/>
+      <c r="T98" s="238"/>
+      <c r="U98" s="238"/>
+      <c r="V98" s="238"/>
+      <c r="W98" s="238"/>
+      <c r="X98" s="238"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A99" s="224" t="s">
         <v>442</v>
       </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="9"/>
-      <c r="R98" s="9"/>
-      <c r="S98" s="9"/>
-      <c r="T98" s="9"/>
-      <c r="U98" s="9"/>
-      <c r="V98" s="9"/>
-      <c r="W98" s="9"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A99" s="239" t="s">
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A100" s="239" t="s">
         <v>443</v>
-      </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="14"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
-      <c r="R99" s="14"/>
-      <c r="S99" s="14"/>
-      <c r="T99" s="14"/>
-      <c r="U99" s="14"/>
-      <c r="V99" s="14"/>
-      <c r="W99" s="14"/>
-      <c r="X99" s="9"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A100" s="240" t="s">
-        <v>525</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="14"/>
@@ -38858,94 +38833,94 @@
       <c r="W100" s="14"/>
       <c r="X100" s="9"/>
     </row>
-    <row r="101" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="358" t="str">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A101" s="240" t="s">
+        <v>525</v>
+      </c>
+      <c r="B101" s="9"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
+      <c r="R101" s="14"/>
+      <c r="S101" s="14"/>
+      <c r="T101" s="14"/>
+      <c r="U101" s="14"/>
+      <c r="V101" s="14"/>
+      <c r="W101" s="14"/>
+      <c r="X101" s="9"/>
+    </row>
+    <row r="102" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="351" t="str">
         <f>IF(Calibración!E10="2",Calibración!BJ6,Calibración!BJ7)</f>
         <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
       </c>
-      <c r="B101" s="358"/>
-      <c r="C101" s="358"/>
-      <c r="D101" s="358"/>
-      <c r="E101" s="358"/>
-      <c r="F101" s="358"/>
-      <c r="G101" s="358"/>
-      <c r="H101" s="358"/>
-      <c r="I101" s="358"/>
-      <c r="J101" s="358"/>
-      <c r="K101" s="358"/>
-      <c r="L101" s="358"/>
-      <c r="M101" s="358"/>
-      <c r="N101" s="358"/>
-      <c r="O101" s="358"/>
-      <c r="P101" s="358"/>
-      <c r="Q101" s="358"/>
-      <c r="R101" s="358"/>
-      <c r="S101" s="358"/>
-      <c r="T101" s="358"/>
-      <c r="U101" s="358"/>
-      <c r="V101" s="358"/>
-      <c r="W101" s="358"/>
-      <c r="X101" s="358"/>
-    </row>
-    <row r="102" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="358"/>
-      <c r="B102" s="358"/>
-      <c r="C102" s="358"/>
-      <c r="D102" s="358"/>
-      <c r="E102" s="358"/>
-      <c r="F102" s="358"/>
-      <c r="G102" s="358"/>
-      <c r="H102" s="358"/>
-      <c r="I102" s="358"/>
-      <c r="J102" s="358"/>
-      <c r="K102" s="358"/>
-      <c r="L102" s="358"/>
-      <c r="M102" s="358"/>
-      <c r="N102" s="358"/>
-      <c r="O102" s="358"/>
-      <c r="P102" s="358"/>
-      <c r="Q102" s="358"/>
-      <c r="R102" s="358"/>
-      <c r="S102" s="358"/>
-      <c r="T102" s="358"/>
-      <c r="U102" s="358"/>
-      <c r="V102" s="358"/>
-      <c r="W102" s="358"/>
-      <c r="X102" s="358"/>
+      <c r="B102" s="351"/>
+      <c r="C102" s="351"/>
+      <c r="D102" s="351"/>
+      <c r="E102" s="351"/>
+      <c r="F102" s="351"/>
+      <c r="G102" s="351"/>
+      <c r="H102" s="351"/>
+      <c r="I102" s="351"/>
+      <c r="J102" s="351"/>
+      <c r="K102" s="351"/>
+      <c r="L102" s="351"/>
+      <c r="M102" s="351"/>
+      <c r="N102" s="351"/>
+      <c r="O102" s="351"/>
+      <c r="P102" s="351"/>
+      <c r="Q102" s="351"/>
+      <c r="R102" s="351"/>
+      <c r="S102" s="351"/>
+      <c r="T102" s="351"/>
+      <c r="U102" s="351"/>
+      <c r="V102" s="351"/>
+      <c r="W102" s="351"/>
+      <c r="X102" s="351"/>
     </row>
     <row r="103" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="239" t="s">
-        <v>444</v>
-      </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="14"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="14"/>
-      <c r="Q103" s="14"/>
-      <c r="R103" s="14"/>
-      <c r="S103" s="14"/>
-      <c r="T103" s="14"/>
-      <c r="U103" s="14"/>
-      <c r="V103" s="14"/>
-      <c r="W103" s="14"/>
-      <c r="X103" s="9"/>
+      <c r="A103" s="351"/>
+      <c r="B103" s="351"/>
+      <c r="C103" s="351"/>
+      <c r="D103" s="351"/>
+      <c r="E103" s="351"/>
+      <c r="F103" s="351"/>
+      <c r="G103" s="351"/>
+      <c r="H103" s="351"/>
+      <c r="I103" s="351"/>
+      <c r="J103" s="351"/>
+      <c r="K103" s="351"/>
+      <c r="L103" s="351"/>
+      <c r="M103" s="351"/>
+      <c r="N103" s="351"/>
+      <c r="O103" s="351"/>
+      <c r="P103" s="351"/>
+      <c r="Q103" s="351"/>
+      <c r="R103" s="351"/>
+      <c r="S103" s="351"/>
+      <c r="T103" s="351"/>
+      <c r="U103" s="351"/>
+      <c r="V103" s="351"/>
+      <c r="W103" s="351"/>
+      <c r="X103" s="351"/>
     </row>
     <row r="104" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="239" t="s">
-        <v>445</v>
-      </c>
-      <c r="B104" s="14"/>
+        <v>444</v>
+      </c>
+      <c r="B104" s="9"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -38969,37 +38944,37 @@
       <c r="W104" s="14"/>
       <c r="X104" s="9"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A105" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="9"/>
-      <c r="O105" s="9"/>
-      <c r="P105" s="9"/>
-      <c r="Q105" s="9"/>
-      <c r="R105" s="9"/>
-      <c r="S105" s="9"/>
-      <c r="T105" s="9"/>
-      <c r="U105" s="9"/>
-      <c r="V105" s="9"/>
-      <c r="W105" s="9"/>
+    <row r="105" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="239" t="s">
+        <v>445</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14"/>
+      <c r="R105" s="14"/>
+      <c r="S105" s="14"/>
+      <c r="T105" s="14"/>
+      <c r="U105" s="14"/>
+      <c r="V105" s="14"/>
+      <c r="W105" s="14"/>
       <c r="X105" s="9"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -39026,9 +39001,8 @@
       <c r="X106" s="9"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A107" s="9" t="str">
-        <f>IF(General!F16=General!W124,General!Y131,IF(General!F16=General!W125,General!Y133,IF(General!F16=General!W126,General!Y140,IF(General!F16=General!W127,General!Y121,IF(General!F16=General!W128,General!Y141,IF(General!F16=General!W129,General!Y139,IF(General!F16=General!W130,General!Y125,IF(General!F16=General!W131,General!Y136,IF(General!F16=General!W132,General!Y137,IF(General!F16=General!W133,General!Y138,IF(General!F16=General!W134,General!Y147,IF(General!F16=General!W135,General!Y148,IF(General!F16=General!W136,General!Y134,IF(General!F16=General!W137,General!Y145,IF(General!F16=General!W138,General!Y149)))))))))))))))</f>
-        <v>El factor de conversión al SI corresponde a 1 psi = 6,894 757 kPa</v>
+      <c r="A107" s="9" t="s">
+        <v>696</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -39046,8 +39020,8 @@
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
       <c r="Q107" s="9"/>
-      <c r="R107" s="14"/>
-      <c r="S107" s="14"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
       <c r="T107" s="9"/>
       <c r="U107" s="9"/>
       <c r="V107" s="9"/>
@@ -39055,8 +39029,9 @@
       <c r="X107" s="9"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A108" s="240" t="s">
-        <v>527</v>
+      <c r="A108" s="9" t="str">
+        <f>IF(General!F16=General!W124,General!Y131,IF(General!F16=General!W125,General!Y133,IF(General!F16=General!W126,General!Y140,IF(General!F16=General!W127,General!Y121,IF(General!F16=General!W128,General!Y141,IF(General!F16=General!W129,General!Y139,IF(General!F16=General!W130,General!Y125,IF(General!F16=General!W131,General!Y136,IF(General!F16=General!W132,General!Y137,IF(General!F16=General!W133,General!Y138,IF(General!F16=General!W134,General!Y147,IF(General!F16=General!W135,General!Y148,IF(General!F16=General!W136,General!Y134,IF(General!F16=General!W137,General!Y145,IF(General!F16=General!W138,General!Y149)))))))))))))))</f>
+        <v>El factor de conversión al SI corresponde a 1 psi = 6,894 757 kPa</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -39076,193 +39051,95 @@
       <c r="Q108" s="9"/>
       <c r="R108" s="14"/>
       <c r="S108" s="14"/>
-      <c r="T108" s="14"/>
-      <c r="U108" s="14"/>
-      <c r="V108" s="14"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="9"/>
+      <c r="V108" s="9"/>
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="Y111" s="9"/>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A109" s="240" t="s">
+        <v>527</v>
+      </c>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="14"/>
+      <c r="S109" s="14"/>
+      <c r="T109" s="14"/>
+      <c r="U109" s="14"/>
+      <c r="V109" s="14"/>
+      <c r="W109" s="9"/>
+      <c r="X109" s="9"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I112" s="373" t="s">
+      <c r="Y112" s="9"/>
+    </row>
+    <row r="113" spans="9:25" x14ac:dyDescent="0.3">
+      <c r="I113" s="341" t="s">
         <v>30</v>
       </c>
-      <c r="J112" s="373"/>
-      <c r="K112" s="373"/>
-      <c r="L112" s="373"/>
-      <c r="M112" s="373"/>
-      <c r="N112" s="373"/>
-      <c r="O112" s="373"/>
-      <c r="P112" s="373"/>
-      <c r="Y112" s="9"/>
-    </row>
-    <row r="113" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I113" s="374" t="str">
-        <f>IF(I112=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
+      <c r="J113" s="341"/>
+      <c r="K113" s="341"/>
+      <c r="L113" s="341"/>
+      <c r="M113" s="341"/>
+      <c r="N113" s="341"/>
+      <c r="O113" s="341"/>
+      <c r="P113" s="341"/>
+      <c r="Y113" s="9"/>
+    </row>
+    <row r="114" spans="9:25" x14ac:dyDescent="0.3">
+      <c r="I114" s="342" t="str">
+        <f>IF(I113=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
         <v>Director Técnico</v>
       </c>
-      <c r="J113" s="374"/>
-      <c r="K113" s="374"/>
-      <c r="L113" s="374"/>
-      <c r="M113" s="374"/>
-      <c r="N113" s="374"/>
-      <c r="O113" s="374"/>
-      <c r="P113" s="374"/>
-    </row>
-    <row r="114" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I114" s="375" t="s">
+      <c r="J114" s="342"/>
+      <c r="K114" s="342"/>
+      <c r="L114" s="342"/>
+      <c r="M114" s="342"/>
+      <c r="N114" s="342"/>
+      <c r="O114" s="342"/>
+      <c r="P114" s="342"/>
+    </row>
+    <row r="115" spans="9:25" x14ac:dyDescent="0.3">
+      <c r="I115" s="343" t="s">
         <v>446</v>
       </c>
-      <c r="J114" s="375"/>
-      <c r="K114" s="375"/>
-      <c r="L114" s="375"/>
-      <c r="M114" s="375"/>
-      <c r="N114" s="375"/>
-      <c r="O114" s="375"/>
-      <c r="P114" s="375"/>
-    </row>
-    <row r="115" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I115" s="376" t="s">
+      <c r="J115" s="343"/>
+      <c r="K115" s="343"/>
+      <c r="L115" s="343"/>
+      <c r="M115" s="343"/>
+      <c r="N115" s="343"/>
+      <c r="O115" s="343"/>
+      <c r="P115" s="343"/>
+    </row>
+    <row r="116" spans="9:25" x14ac:dyDescent="0.3">
+      <c r="I116" s="344" t="s">
         <v>447</v>
       </c>
-      <c r="J115" s="376"/>
-      <c r="K115" s="376"/>
-      <c r="L115" s="376"/>
-      <c r="M115" s="376"/>
-      <c r="N115" s="376"/>
-      <c r="O115" s="376"/>
-      <c r="P115" s="376"/>
+      <c r="J116" s="344"/>
+      <c r="K116" s="344"/>
+      <c r="L116" s="344"/>
+      <c r="M116" s="344"/>
+      <c r="N116" s="344"/>
+      <c r="O116" s="344"/>
+      <c r="P116" s="344"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="I112:P112"/>
-    <mergeCell ref="I113:P113"/>
-    <mergeCell ref="I114:P114"/>
-    <mergeCell ref="I115:P115"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="O96:T96"/>
-    <mergeCell ref="U96:X96"/>
-    <mergeCell ref="A101:X102"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="O94:T94"/>
-    <mergeCell ref="U94:X94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="O95:T95"/>
-    <mergeCell ref="U95:X95"/>
-    <mergeCell ref="A83:X83"/>
-    <mergeCell ref="A86:X90"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="O93:T93"/>
-    <mergeCell ref="U93:X93"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:K70"/>
-    <mergeCell ref="L70:Q70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="N76:X76"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="R73:W73"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:K69"/>
-    <mergeCell ref="L69:Q69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:K66"/>
-    <mergeCell ref="L66:Q66"/>
-    <mergeCell ref="R66:W66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:K67"/>
-    <mergeCell ref="L67:Q67"/>
-    <mergeCell ref="R67:W67"/>
-    <mergeCell ref="R64:W64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:K65"/>
-    <mergeCell ref="L65:Q65"/>
-    <mergeCell ref="R65:W65"/>
-    <mergeCell ref="D60:W60"/>
-    <mergeCell ref="D61:E62"/>
-    <mergeCell ref="F61:K62"/>
-    <mergeCell ref="L61:Q62"/>
-    <mergeCell ref="R61:W62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:K63"/>
-    <mergeCell ref="L63:Q63"/>
-    <mergeCell ref="R63:W63"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="F25:K26"/>
-    <mergeCell ref="L25:Q26"/>
-    <mergeCell ref="R25:W26"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N21:X22"/>
-    <mergeCell ref="D24:W24"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="R35:W35"/>
-    <mergeCell ref="R36:W36"/>
-    <mergeCell ref="R37:W37"/>
-    <mergeCell ref="L35:Q35"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="L37:Q37"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="F37:K37"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
@@ -39281,13 +39158,139 @@
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="F68:K68"/>
     <mergeCell ref="L68:Q68"/>
+    <mergeCell ref="R35:W35"/>
+    <mergeCell ref="R36:W36"/>
+    <mergeCell ref="R37:W37"/>
+    <mergeCell ref="L35:Q35"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="L37:Q37"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N21:X22"/>
+    <mergeCell ref="D24:W24"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="F25:K26"/>
+    <mergeCell ref="L25:Q26"/>
+    <mergeCell ref="R25:W26"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="R64:W64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:K65"/>
+    <mergeCell ref="L65:Q65"/>
+    <mergeCell ref="R65:W65"/>
+    <mergeCell ref="D60:W60"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="F61:K62"/>
+    <mergeCell ref="L61:Q62"/>
+    <mergeCell ref="R61:W62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="R63:W63"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:K69"/>
+    <mergeCell ref="L69:Q69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:K66"/>
+    <mergeCell ref="L66:Q66"/>
+    <mergeCell ref="R66:W66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:K67"/>
+    <mergeCell ref="L67:Q67"/>
+    <mergeCell ref="R67:W67"/>
+    <mergeCell ref="A84:X84"/>
+    <mergeCell ref="A87:X91"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="O94:T94"/>
+    <mergeCell ref="U94:X94"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:K70"/>
+    <mergeCell ref="L70:Q70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="N77:X77"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="R73:W73"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="O95:T95"/>
+    <mergeCell ref="U95:X95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="O96:T96"/>
+    <mergeCell ref="U96:X96"/>
+    <mergeCell ref="I113:P113"/>
+    <mergeCell ref="I114:P114"/>
+    <mergeCell ref="I115:P115"/>
+    <mergeCell ref="I116:P116"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="O97:T97"/>
+    <mergeCell ref="U97:X97"/>
+    <mergeCell ref="A102:X103"/>
   </mergeCells>
-  <conditionalFormatting sqref="A105">
+  <conditionalFormatting sqref="A106">
     <cfRule type="cellIs" priority="1" operator="equal">
       <formula>$D$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
+  <conditionalFormatting sqref="A107">
     <cfRule type="cellIs" priority="2" operator="equal">
       <formula>$F$26</formula>
     </cfRule>
@@ -39309,7 +39312,7 @@
           <x14:formula1>
             <xm:f>'F:\SGC Vigente 2018-07-14\Clientes\Certificados\2018\Dentro de alcance\Presión\[NI-R02-MCIT-P-01 Hoja electrónica para procesamiento de datos manómetros y vacuómetros v2 2018-03-11.xlsx]Generales'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I112:P112</xm:sqref>
+          <xm:sqref>I113:P113</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -39321,7 +39324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A8:Y98"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A43" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="N57" sqref="N57:X57"/>
     </sheetView>
   </sheetViews>
@@ -39367,20 +39370,20 @@
       <c r="K8" s="227"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="345" t="str">
+      <c r="N8" s="374" t="str">
         <f>General!F3</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O8" s="346"/>
-      <c r="P8" s="346"/>
-      <c r="Q8" s="346"/>
-      <c r="R8" s="346"/>
-      <c r="S8" s="346"/>
-      <c r="T8" s="346"/>
-      <c r="U8" s="346"/>
-      <c r="V8" s="346"/>
-      <c r="W8" s="346"/>
-      <c r="X8" s="346"/>
+      <c r="O8" s="362"/>
+      <c r="P8" s="362"/>
+      <c r="Q8" s="362"/>
+      <c r="R8" s="362"/>
+      <c r="S8" s="362"/>
+      <c r="T8" s="362"/>
+      <c r="U8" s="362"/>
+      <c r="V8" s="362"/>
+      <c r="W8" s="362"/>
+      <c r="X8" s="362"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="224" t="s">
@@ -39397,20 +39400,20 @@
       <c r="K9" s="227"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="347" t="str">
+      <c r="N9" s="373" t="str">
         <f>General!F4</f>
         <v>NI-CS-XXXX-XX</v>
       </c>
-      <c r="O9" s="348"/>
-      <c r="P9" s="348"/>
-      <c r="Q9" s="348"/>
-      <c r="R9" s="348"/>
-      <c r="S9" s="348"/>
-      <c r="T9" s="348"/>
-      <c r="U9" s="348"/>
-      <c r="V9" s="348"/>
-      <c r="W9" s="348"/>
-      <c r="X9" s="348"/>
+      <c r="O9" s="364"/>
+      <c r="P9" s="364"/>
+      <c r="Q9" s="364"/>
+      <c r="R9" s="364"/>
+      <c r="S9" s="364"/>
+      <c r="T9" s="364"/>
+      <c r="U9" s="364"/>
+      <c r="V9" s="364"/>
+      <c r="W9" s="364"/>
+      <c r="X9" s="364"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="224" t="s">
@@ -39427,20 +39430,20 @@
       <c r="K10" s="227"/>
       <c r="L10" s="228"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="349">
+      <c r="N10" s="375">
         <f>General!F5</f>
         <v>43299</v>
       </c>
-      <c r="O10" s="349"/>
-      <c r="P10" s="349"/>
-      <c r="Q10" s="349"/>
-      <c r="R10" s="349"/>
-      <c r="S10" s="349"/>
-      <c r="T10" s="349"/>
-      <c r="U10" s="349"/>
-      <c r="V10" s="349"/>
-      <c r="W10" s="349"/>
-      <c r="X10" s="349"/>
+      <c r="O10" s="375"/>
+      <c r="P10" s="375"/>
+      <c r="Q10" s="375"/>
+      <c r="R10" s="375"/>
+      <c r="S10" s="375"/>
+      <c r="T10" s="375"/>
+      <c r="U10" s="375"/>
+      <c r="V10" s="375"/>
+      <c r="W10" s="375"/>
+      <c r="X10" s="375"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="224" t="s">
@@ -39457,12 +39460,12 @@
       <c r="K11" s="227"/>
       <c r="L11" s="228"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="349">
+      <c r="N11" s="375">
         <v>43610.729139583331</v>
       </c>
-      <c r="O11" s="349"/>
-      <c r="P11" s="349"/>
-      <c r="Q11" s="349"/>
+      <c r="O11" s="375"/>
+      <c r="P11" s="375"/>
+      <c r="Q11" s="375"/>
       <c r="R11" s="279"/>
       <c r="S11" s="279"/>
       <c r="T11" s="279"/>
@@ -39486,20 +39489,20 @@
       <c r="K12" s="227"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="347" t="str">
+      <c r="N12" s="373" t="str">
         <f>General!F7</f>
         <v xml:space="preserve">Manómetro </v>
       </c>
-      <c r="O12" s="348"/>
-      <c r="P12" s="348"/>
-      <c r="Q12" s="348"/>
-      <c r="R12" s="348"/>
-      <c r="S12" s="348"/>
-      <c r="T12" s="348"/>
-      <c r="U12" s="348"/>
-      <c r="V12" s="348"/>
-      <c r="W12" s="348"/>
-      <c r="X12" s="348"/>
+      <c r="O12" s="364"/>
+      <c r="P12" s="364"/>
+      <c r="Q12" s="364"/>
+      <c r="R12" s="364"/>
+      <c r="S12" s="364"/>
+      <c r="T12" s="364"/>
+      <c r="U12" s="364"/>
+      <c r="V12" s="364"/>
+      <c r="W12" s="364"/>
+      <c r="X12" s="364"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="224" t="s">
@@ -39516,20 +39519,20 @@
       <c r="K13" s="227"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="347" t="str">
+      <c r="N13" s="373" t="str">
         <f>General!F10</f>
         <v>HEISE</v>
       </c>
-      <c r="O13" s="348"/>
-      <c r="P13" s="348"/>
-      <c r="Q13" s="348"/>
-      <c r="R13" s="348"/>
-      <c r="S13" s="348"/>
-      <c r="T13" s="348"/>
-      <c r="U13" s="348"/>
-      <c r="V13" s="348"/>
-      <c r="W13" s="348"/>
-      <c r="X13" s="348"/>
+      <c r="O13" s="364"/>
+      <c r="P13" s="364"/>
+      <c r="Q13" s="364"/>
+      <c r="R13" s="364"/>
+      <c r="S13" s="364"/>
+      <c r="T13" s="364"/>
+      <c r="U13" s="364"/>
+      <c r="V13" s="364"/>
+      <c r="W13" s="364"/>
+      <c r="X13" s="364"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="224" t="s">
@@ -39546,20 +39549,20 @@
       <c r="K14" s="227"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="347" t="str">
+      <c r="N14" s="373" t="str">
         <f>General!F12</f>
         <v>706340</v>
       </c>
-      <c r="O14" s="348"/>
-      <c r="P14" s="348"/>
-      <c r="Q14" s="348"/>
-      <c r="R14" s="348"/>
-      <c r="S14" s="348"/>
-      <c r="T14" s="348"/>
-      <c r="U14" s="348"/>
-      <c r="V14" s="348"/>
-      <c r="W14" s="348"/>
-      <c r="X14" s="348"/>
+      <c r="O14" s="364"/>
+      <c r="P14" s="364"/>
+      <c r="Q14" s="364"/>
+      <c r="R14" s="364"/>
+      <c r="S14" s="364"/>
+      <c r="T14" s="364"/>
+      <c r="U14" s="364"/>
+      <c r="V14" s="364"/>
+      <c r="W14" s="364"/>
+      <c r="X14" s="364"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="224" t="s">
@@ -39576,20 +39579,20 @@
       <c r="K15" s="227"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="347" t="str">
+      <c r="N15" s="373" t="str">
         <f>General!F11</f>
         <v>CC</v>
       </c>
-      <c r="O15" s="348"/>
-      <c r="P15" s="348"/>
-      <c r="Q15" s="348"/>
-      <c r="R15" s="348"/>
-      <c r="S15" s="348"/>
-      <c r="T15" s="348"/>
-      <c r="U15" s="348"/>
-      <c r="V15" s="348"/>
-      <c r="W15" s="348"/>
-      <c r="X15" s="348"/>
+      <c r="O15" s="364"/>
+      <c r="P15" s="364"/>
+      <c r="Q15" s="364"/>
+      <c r="R15" s="364"/>
+      <c r="S15" s="364"/>
+      <c r="T15" s="364"/>
+      <c r="U15" s="364"/>
+      <c r="V15" s="364"/>
+      <c r="W15" s="364"/>
+      <c r="X15" s="364"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="224" t="s">
@@ -39606,20 +39609,20 @@
       <c r="K16" s="227"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="347" t="str">
+      <c r="N16" s="373" t="str">
         <f>General!F18</f>
         <v>0 psi a 200 psi</v>
       </c>
-      <c r="O16" s="348"/>
-      <c r="P16" s="348"/>
-      <c r="Q16" s="348"/>
-      <c r="R16" s="348"/>
-      <c r="S16" s="348"/>
-      <c r="T16" s="348"/>
-      <c r="U16" s="348"/>
-      <c r="V16" s="348"/>
-      <c r="W16" s="348"/>
-      <c r="X16" s="348"/>
+      <c r="O16" s="364"/>
+      <c r="P16" s="364"/>
+      <c r="Q16" s="364"/>
+      <c r="R16" s="364"/>
+      <c r="S16" s="364"/>
+      <c r="T16" s="364"/>
+      <c r="U16" s="364"/>
+      <c r="V16" s="364"/>
+      <c r="W16" s="364"/>
+      <c r="X16" s="364"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="224" t="s">
@@ -39636,16 +39639,16 @@
       <c r="K17" s="227"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="347" t="str">
+      <c r="N17" s="373" t="str">
         <f>General!F15</f>
         <v>1</v>
       </c>
-      <c r="O17" s="348"/>
-      <c r="P17" s="347" t="str">
+      <c r="O17" s="364"/>
+      <c r="P17" s="373" t="str">
         <f>General!F16</f>
         <v>psi</v>
       </c>
-      <c r="Q17" s="348"/>
+      <c r="Q17" s="364"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -39669,20 +39672,20 @@
       <c r="K18" s="227"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="347" t="str">
+      <c r="N18" s="373" t="str">
         <f>General!F6</f>
         <v>706340</v>
       </c>
-      <c r="O18" s="348"/>
-      <c r="P18" s="348"/>
-      <c r="Q18" s="348"/>
-      <c r="R18" s="348"/>
-      <c r="S18" s="348"/>
-      <c r="T18" s="348"/>
-      <c r="U18" s="348"/>
-      <c r="V18" s="348"/>
-      <c r="W18" s="348"/>
-      <c r="X18" s="348"/>
+      <c r="O18" s="364"/>
+      <c r="P18" s="364"/>
+      <c r="Q18" s="364"/>
+      <c r="R18" s="364"/>
+      <c r="S18" s="364"/>
+      <c r="T18" s="364"/>
+      <c r="U18" s="364"/>
+      <c r="V18" s="364"/>
+      <c r="W18" s="364"/>
+      <c r="X18" s="364"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="224" t="s">
@@ -39699,20 +39702,20 @@
       <c r="K19" s="227"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="347" t="str">
+      <c r="N19" s="373" t="str">
         <f>General!L3</f>
         <v xml:space="preserve">A&amp;T Nicaragua S.A. </v>
       </c>
-      <c r="O19" s="348"/>
-      <c r="P19" s="348"/>
-      <c r="Q19" s="348"/>
-      <c r="R19" s="348"/>
-      <c r="S19" s="348"/>
-      <c r="T19" s="348"/>
-      <c r="U19" s="348"/>
-      <c r="V19" s="348"/>
-      <c r="W19" s="348"/>
-      <c r="X19" s="348"/>
+      <c r="O19" s="364"/>
+      <c r="P19" s="364"/>
+      <c r="Q19" s="364"/>
+      <c r="R19" s="364"/>
+      <c r="S19" s="364"/>
+      <c r="T19" s="364"/>
+      <c r="U19" s="364"/>
+      <c r="V19" s="364"/>
+      <c r="W19" s="364"/>
+      <c r="X19" s="364"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
@@ -39729,20 +39732,20 @@
       <c r="K20" s="227"/>
       <c r="L20" s="10"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="348" t="str">
+      <c r="N20" s="364" t="str">
         <f>General!L4</f>
         <v xml:space="preserve">Coyotepe, 800 m norte               </v>
       </c>
-      <c r="O20" s="348"/>
-      <c r="P20" s="348"/>
-      <c r="Q20" s="348"/>
-      <c r="R20" s="348"/>
-      <c r="S20" s="348"/>
-      <c r="T20" s="348"/>
-      <c r="U20" s="348"/>
-      <c r="V20" s="348"/>
-      <c r="W20" s="348"/>
-      <c r="X20" s="348"/>
+      <c r="O20" s="364"/>
+      <c r="P20" s="364"/>
+      <c r="Q20" s="364"/>
+      <c r="R20" s="364"/>
+      <c r="S20" s="364"/>
+      <c r="T20" s="364"/>
+      <c r="U20" s="364"/>
+      <c r="V20" s="364"/>
+      <c r="W20" s="364"/>
+      <c r="X20" s="364"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="224" t="s">
@@ -39759,34 +39762,34 @@
       <c r="K21" s="227"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="350" t="str">
+      <c r="N21" s="376" t="str">
         <f>General!L6</f>
         <v xml:space="preserve">Laboratorio #2 Metrocal </v>
       </c>
-      <c r="O21" s="350"/>
-      <c r="P21" s="350"/>
-      <c r="Q21" s="350"/>
-      <c r="R21" s="350"/>
-      <c r="S21" s="350"/>
-      <c r="T21" s="350"/>
-      <c r="U21" s="350"/>
-      <c r="V21" s="350"/>
-      <c r="W21" s="350"/>
-      <c r="X21" s="350"/>
+      <c r="O21" s="376"/>
+      <c r="P21" s="376"/>
+      <c r="Q21" s="376"/>
+      <c r="R21" s="376"/>
+      <c r="S21" s="376"/>
+      <c r="T21" s="376"/>
+      <c r="U21" s="376"/>
+      <c r="V21" s="376"/>
+      <c r="W21" s="376"/>
+      <c r="X21" s="376"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="224"/>
-      <c r="N22" s="350"/>
-      <c r="O22" s="350"/>
-      <c r="P22" s="350"/>
-      <c r="Q22" s="350"/>
-      <c r="R22" s="350"/>
-      <c r="S22" s="350"/>
-      <c r="T22" s="350"/>
-      <c r="U22" s="350"/>
-      <c r="V22" s="350"/>
-      <c r="W22" s="350"/>
-      <c r="X22" s="350"/>
+      <c r="N22" s="376"/>
+      <c r="O22" s="376"/>
+      <c r="P22" s="376"/>
+      <c r="Q22" s="376"/>
+      <c r="R22" s="376"/>
+      <c r="S22" s="376"/>
+      <c r="T22" s="376"/>
+      <c r="U22" s="376"/>
+      <c r="V22" s="376"/>
+      <c r="W22" s="376"/>
+      <c r="X22" s="376"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="224"/>
@@ -39815,376 +39818,376 @@
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="351" t="s">
+      <c r="D25" s="366" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="351"/>
-      <c r="F25" s="351"/>
-      <c r="G25" s="351"/>
-      <c r="H25" s="351"/>
-      <c r="I25" s="351"/>
-      <c r="J25" s="351"/>
-      <c r="K25" s="351"/>
-      <c r="L25" s="351"/>
-      <c r="M25" s="351"/>
-      <c r="N25" s="351"/>
-      <c r="O25" s="351"/>
-      <c r="P25" s="351"/>
-      <c r="Q25" s="351"/>
-      <c r="R25" s="351"/>
-      <c r="S25" s="351"/>
-      <c r="T25" s="351"/>
-      <c r="U25" s="351"/>
-      <c r="V25" s="351"/>
-      <c r="W25" s="351"/>
+      <c r="E25" s="366"/>
+      <c r="F25" s="366"/>
+      <c r="G25" s="366"/>
+      <c r="H25" s="366"/>
+      <c r="I25" s="366"/>
+      <c r="J25" s="366"/>
+      <c r="K25" s="366"/>
+      <c r="L25" s="366"/>
+      <c r="M25" s="366"/>
+      <c r="N25" s="366"/>
+      <c r="O25" s="366"/>
+      <c r="P25" s="366"/>
+      <c r="Q25" s="366"/>
+      <c r="R25" s="366"/>
+      <c r="S25" s="366"/>
+      <c r="T25" s="366"/>
+      <c r="U25" s="366"/>
+      <c r="V25" s="366"/>
+      <c r="W25" s="366"/>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="352" t="s">
+      <c r="D26" s="367" t="s">
         <v>360</v>
       </c>
-      <c r="E26" s="352"/>
-      <c r="F26" s="353" t="s">
+      <c r="E26" s="367"/>
+      <c r="F26" s="368" t="s">
         <v>425</v>
       </c>
-      <c r="G26" s="353"/>
-      <c r="H26" s="353"/>
-      <c r="I26" s="353"/>
-      <c r="J26" s="353"/>
-      <c r="K26" s="353"/>
-      <c r="L26" s="353" t="s">
+      <c r="G26" s="368"/>
+      <c r="H26" s="368"/>
+      <c r="I26" s="368"/>
+      <c r="J26" s="368"/>
+      <c r="K26" s="368"/>
+      <c r="L26" s="368" t="s">
         <v>96</v>
       </c>
-      <c r="M26" s="353"/>
-      <c r="N26" s="353"/>
-      <c r="O26" s="353"/>
-      <c r="P26" s="353"/>
-      <c r="Q26" s="353"/>
-      <c r="R26" s="352" t="s">
+      <c r="M26" s="368"/>
+      <c r="N26" s="368"/>
+      <c r="O26" s="368"/>
+      <c r="P26" s="368"/>
+      <c r="Q26" s="368"/>
+      <c r="R26" s="367" t="s">
         <v>426</v>
       </c>
-      <c r="S26" s="352"/>
-      <c r="T26" s="352"/>
-      <c r="U26" s="352"/>
-      <c r="V26" s="352"/>
-      <c r="W26" s="352"/>
+      <c r="S26" s="367"/>
+      <c r="T26" s="367"/>
+      <c r="U26" s="367"/>
+      <c r="V26" s="367"/>
+      <c r="W26" s="367"/>
     </row>
     <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="352"/>
-      <c r="E27" s="352"/>
-      <c r="F27" s="353"/>
-      <c r="G27" s="353"/>
-      <c r="H27" s="353"/>
-      <c r="I27" s="353"/>
-      <c r="J27" s="353"/>
-      <c r="K27" s="353"/>
-      <c r="L27" s="353"/>
-      <c r="M27" s="353"/>
-      <c r="N27" s="353"/>
-      <c r="O27" s="353"/>
-      <c r="P27" s="353"/>
-      <c r="Q27" s="353"/>
-      <c r="R27" s="352"/>
-      <c r="S27" s="352"/>
-      <c r="T27" s="352"/>
-      <c r="U27" s="352"/>
-      <c r="V27" s="352"/>
-      <c r="W27" s="352"/>
+      <c r="D27" s="367"/>
+      <c r="E27" s="367"/>
+      <c r="F27" s="368"/>
+      <c r="G27" s="368"/>
+      <c r="H27" s="368"/>
+      <c r="I27" s="368"/>
+      <c r="J27" s="368"/>
+      <c r="K27" s="368"/>
+      <c r="L27" s="368"/>
+      <c r="M27" s="368"/>
+      <c r="N27" s="368"/>
+      <c r="O27" s="368"/>
+      <c r="P27" s="368"/>
+      <c r="Q27" s="368"/>
+      <c r="R27" s="367"/>
+      <c r="S27" s="367"/>
+      <c r="T27" s="367"/>
+      <c r="U27" s="367"/>
+      <c r="V27" s="367"/>
+      <c r="W27" s="367"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="354" t="str">
+      <c r="D28" s="369" t="str">
         <f>Calibración!C37</f>
         <v>psi</v>
       </c>
-      <c r="E28" s="354"/>
-      <c r="F28" s="355" t="str">
+      <c r="E28" s="369"/>
+      <c r="F28" s="370" t="str">
         <f>Calibración!D37</f>
         <v>psi</v>
       </c>
-      <c r="G28" s="356"/>
-      <c r="H28" s="356"/>
-      <c r="I28" s="356"/>
-      <c r="J28" s="356"/>
-      <c r="K28" s="357"/>
-      <c r="L28" s="355" t="str">
+      <c r="G28" s="371"/>
+      <c r="H28" s="371"/>
+      <c r="I28" s="371"/>
+      <c r="J28" s="371"/>
+      <c r="K28" s="372"/>
+      <c r="L28" s="370" t="str">
         <f>Calibración!E37</f>
         <v>psi</v>
       </c>
-      <c r="M28" s="356"/>
-      <c r="N28" s="356"/>
-      <c r="O28" s="356"/>
-      <c r="P28" s="356"/>
-      <c r="Q28" s="357"/>
-      <c r="R28" s="355" t="str">
+      <c r="M28" s="371"/>
+      <c r="N28" s="371"/>
+      <c r="O28" s="371"/>
+      <c r="P28" s="371"/>
+      <c r="Q28" s="372"/>
+      <c r="R28" s="370" t="str">
         <f>Calibración!F37</f>
         <v>psi</v>
       </c>
-      <c r="S28" s="356"/>
-      <c r="T28" s="356"/>
-      <c r="U28" s="356"/>
-      <c r="V28" s="356"/>
-      <c r="W28" s="357"/>
+      <c r="S28" s="371"/>
+      <c r="T28" s="371"/>
+      <c r="U28" s="371"/>
+      <c r="V28" s="371"/>
+      <c r="W28" s="372"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="341" t="str">
+      <c r="D29" s="358" t="str">
         <f ca="1">Calibración!C38</f>
         <v/>
       </c>
-      <c r="E29" s="341"/>
-      <c r="F29" s="342" t="str">
+      <c r="E29" s="358"/>
+      <c r="F29" s="359" t="str">
         <f ca="1">Calibración!D38</f>
         <v/>
       </c>
-      <c r="G29" s="343"/>
-      <c r="H29" s="343"/>
-      <c r="I29" s="343"/>
-      <c r="J29" s="343"/>
-      <c r="K29" s="344"/>
-      <c r="L29" s="342" t="str">
+      <c r="G29" s="360"/>
+      <c r="H29" s="360"/>
+      <c r="I29" s="360"/>
+      <c r="J29" s="360"/>
+      <c r="K29" s="361"/>
+      <c r="L29" s="359" t="str">
         <f ca="1">Calibración!E38</f>
         <v/>
       </c>
-      <c r="M29" s="343"/>
-      <c r="N29" s="343"/>
-      <c r="O29" s="343"/>
-      <c r="P29" s="343"/>
-      <c r="Q29" s="344"/>
-      <c r="R29" s="342" t="str">
+      <c r="M29" s="360"/>
+      <c r="N29" s="360"/>
+      <c r="O29" s="360"/>
+      <c r="P29" s="360"/>
+      <c r="Q29" s="361"/>
+      <c r="R29" s="359" t="str">
         <f ca="1">Calibración!F38</f>
         <v/>
       </c>
-      <c r="S29" s="343"/>
-      <c r="T29" s="343"/>
-      <c r="U29" s="343"/>
-      <c r="V29" s="343"/>
-      <c r="W29" s="344"/>
+      <c r="S29" s="360"/>
+      <c r="T29" s="360"/>
+      <c r="U29" s="360"/>
+      <c r="V29" s="360"/>
+      <c r="W29" s="361"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="341" t="str">
+      <c r="D30" s="358" t="str">
         <f ca="1">Calibración!C39</f>
         <v/>
       </c>
-      <c r="E30" s="341"/>
-      <c r="F30" s="342" t="str">
+      <c r="E30" s="358"/>
+      <c r="F30" s="359" t="str">
         <f ca="1">Calibración!D39</f>
         <v/>
       </c>
-      <c r="G30" s="343"/>
-      <c r="H30" s="343"/>
-      <c r="I30" s="343"/>
-      <c r="J30" s="343"/>
-      <c r="K30" s="344"/>
-      <c r="L30" s="342" t="str">
+      <c r="G30" s="360"/>
+      <c r="H30" s="360"/>
+      <c r="I30" s="360"/>
+      <c r="J30" s="360"/>
+      <c r="K30" s="361"/>
+      <c r="L30" s="359" t="str">
         <f ca="1">Calibración!E39</f>
         <v/>
       </c>
-      <c r="M30" s="343"/>
-      <c r="N30" s="343"/>
-      <c r="O30" s="343"/>
-      <c r="P30" s="343"/>
-      <c r="Q30" s="344"/>
-      <c r="R30" s="342" t="str">
+      <c r="M30" s="360"/>
+      <c r="N30" s="360"/>
+      <c r="O30" s="360"/>
+      <c r="P30" s="360"/>
+      <c r="Q30" s="361"/>
+      <c r="R30" s="359" t="str">
         <f ca="1">Calibración!F39</f>
         <v/>
       </c>
-      <c r="S30" s="343"/>
-      <c r="T30" s="343"/>
-      <c r="U30" s="343"/>
-      <c r="V30" s="343"/>
-      <c r="W30" s="344"/>
+      <c r="S30" s="360"/>
+      <c r="T30" s="360"/>
+      <c r="U30" s="360"/>
+      <c r="V30" s="360"/>
+      <c r="W30" s="361"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="341" t="str">
+      <c r="D31" s="358" t="str">
         <f ca="1">Calibración!C40</f>
         <v/>
       </c>
-      <c r="E31" s="341"/>
-      <c r="F31" s="342" t="str">
+      <c r="E31" s="358"/>
+      <c r="F31" s="359" t="str">
         <f ca="1">Calibración!D40</f>
         <v/>
       </c>
-      <c r="G31" s="343"/>
-      <c r="H31" s="343"/>
-      <c r="I31" s="343"/>
-      <c r="J31" s="343"/>
-      <c r="K31" s="344"/>
-      <c r="L31" s="342" t="str">
+      <c r="G31" s="360"/>
+      <c r="H31" s="360"/>
+      <c r="I31" s="360"/>
+      <c r="J31" s="360"/>
+      <c r="K31" s="361"/>
+      <c r="L31" s="359" t="str">
         <f ca="1">Calibración!E40</f>
         <v/>
       </c>
-      <c r="M31" s="343"/>
-      <c r="N31" s="343"/>
-      <c r="O31" s="343"/>
-      <c r="P31" s="343"/>
-      <c r="Q31" s="344"/>
-      <c r="R31" s="342" t="str">
+      <c r="M31" s="360"/>
+      <c r="N31" s="360"/>
+      <c r="O31" s="360"/>
+      <c r="P31" s="360"/>
+      <c r="Q31" s="361"/>
+      <c r="R31" s="359" t="str">
         <f ca="1">Calibración!F40</f>
         <v/>
       </c>
-      <c r="S31" s="343"/>
-      <c r="T31" s="343"/>
-      <c r="U31" s="343"/>
-      <c r="V31" s="343"/>
-      <c r="W31" s="344"/>
+      <c r="S31" s="360"/>
+      <c r="T31" s="360"/>
+      <c r="U31" s="360"/>
+      <c r="V31" s="360"/>
+      <c r="W31" s="361"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="341" t="str">
+      <c r="D32" s="358" t="str">
         <f ca="1">Calibración!C41</f>
         <v/>
       </c>
-      <c r="E32" s="341"/>
-      <c r="F32" s="342" t="str">
+      <c r="E32" s="358"/>
+      <c r="F32" s="359" t="str">
         <f ca="1">Calibración!D41</f>
         <v/>
       </c>
-      <c r="G32" s="343"/>
-      <c r="H32" s="343"/>
-      <c r="I32" s="343"/>
-      <c r="J32" s="343"/>
-      <c r="K32" s="344"/>
-      <c r="L32" s="342" t="str">
+      <c r="G32" s="360"/>
+      <c r="H32" s="360"/>
+      <c r="I32" s="360"/>
+      <c r="J32" s="360"/>
+      <c r="K32" s="361"/>
+      <c r="L32" s="359" t="str">
         <f ca="1">Calibración!E41</f>
         <v/>
       </c>
-      <c r="M32" s="343"/>
-      <c r="N32" s="343"/>
-      <c r="O32" s="343"/>
-      <c r="P32" s="343"/>
-      <c r="Q32" s="344"/>
-      <c r="R32" s="342" t="str">
+      <c r="M32" s="360"/>
+      <c r="N32" s="360"/>
+      <c r="O32" s="360"/>
+      <c r="P32" s="360"/>
+      <c r="Q32" s="361"/>
+      <c r="R32" s="359" t="str">
         <f ca="1">Calibración!F41</f>
         <v/>
       </c>
-      <c r="S32" s="343"/>
-      <c r="T32" s="343"/>
-      <c r="U32" s="343"/>
-      <c r="V32" s="343"/>
-      <c r="W32" s="344"/>
+      <c r="S32" s="360"/>
+      <c r="T32" s="360"/>
+      <c r="U32" s="360"/>
+      <c r="V32" s="360"/>
+      <c r="W32" s="361"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="341" t="str">
+      <c r="D33" s="358" t="str">
         <f ca="1">Calibración!C42</f>
         <v/>
       </c>
-      <c r="E33" s="341"/>
-      <c r="F33" s="342" t="str">
+      <c r="E33" s="358"/>
+      <c r="F33" s="359" t="str">
         <f ca="1">Calibración!D42</f>
         <v/>
       </c>
-      <c r="G33" s="343"/>
-      <c r="H33" s="343"/>
-      <c r="I33" s="343"/>
-      <c r="J33" s="343"/>
-      <c r="K33" s="344"/>
-      <c r="L33" s="342" t="str">
+      <c r="G33" s="360"/>
+      <c r="H33" s="360"/>
+      <c r="I33" s="360"/>
+      <c r="J33" s="360"/>
+      <c r="K33" s="361"/>
+      <c r="L33" s="359" t="str">
         <f ca="1">Calibración!E42</f>
         <v/>
       </c>
-      <c r="M33" s="343"/>
-      <c r="N33" s="343"/>
-      <c r="O33" s="343"/>
-      <c r="P33" s="343"/>
-      <c r="Q33" s="344"/>
-      <c r="R33" s="342" t="str">
+      <c r="M33" s="360"/>
+      <c r="N33" s="360"/>
+      <c r="O33" s="360"/>
+      <c r="P33" s="360"/>
+      <c r="Q33" s="361"/>
+      <c r="R33" s="359" t="str">
         <f ca="1">Calibración!F42</f>
         <v/>
       </c>
-      <c r="S33" s="343"/>
-      <c r="T33" s="343"/>
-      <c r="U33" s="343"/>
-      <c r="V33" s="343"/>
-      <c r="W33" s="344"/>
+      <c r="S33" s="360"/>
+      <c r="T33" s="360"/>
+      <c r="U33" s="360"/>
+      <c r="V33" s="360"/>
+      <c r="W33" s="361"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D34" s="341" t="str">
+      <c r="D34" s="358" t="str">
         <f ca="1">Calibración!C43</f>
         <v/>
       </c>
-      <c r="E34" s="341"/>
-      <c r="F34" s="342" t="str">
+      <c r="E34" s="358"/>
+      <c r="F34" s="359" t="str">
         <f ca="1">Calibración!D43</f>
         <v/>
       </c>
-      <c r="G34" s="343"/>
-      <c r="H34" s="343"/>
-      <c r="I34" s="343"/>
-      <c r="J34" s="343"/>
-      <c r="K34" s="344"/>
-      <c r="L34" s="342" t="str">
+      <c r="G34" s="360"/>
+      <c r="H34" s="360"/>
+      <c r="I34" s="360"/>
+      <c r="J34" s="360"/>
+      <c r="K34" s="361"/>
+      <c r="L34" s="359" t="str">
         <f ca="1">Calibración!E43</f>
         <v/>
       </c>
-      <c r="M34" s="343"/>
-      <c r="N34" s="343"/>
-      <c r="O34" s="343"/>
-      <c r="P34" s="343"/>
-      <c r="Q34" s="344"/>
-      <c r="R34" s="342" t="str">
+      <c r="M34" s="360"/>
+      <c r="N34" s="360"/>
+      <c r="O34" s="360"/>
+      <c r="P34" s="360"/>
+      <c r="Q34" s="361"/>
+      <c r="R34" s="359" t="str">
         <f ca="1">Calibración!F43</f>
         <v/>
       </c>
-      <c r="S34" s="343"/>
-      <c r="T34" s="343"/>
-      <c r="U34" s="343"/>
-      <c r="V34" s="343"/>
-      <c r="W34" s="344"/>
+      <c r="S34" s="360"/>
+      <c r="T34" s="360"/>
+      <c r="U34" s="360"/>
+      <c r="V34" s="360"/>
+      <c r="W34" s="361"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D35" s="341" t="str">
+      <c r="D35" s="358" t="str">
         <f ca="1">Calibración!C44</f>
         <v/>
       </c>
-      <c r="E35" s="341"/>
-      <c r="F35" s="342" t="str">
+      <c r="E35" s="358"/>
+      <c r="F35" s="359" t="str">
         <f ca="1">Calibración!D44</f>
         <v/>
       </c>
-      <c r="G35" s="343"/>
-      <c r="H35" s="343"/>
-      <c r="I35" s="343"/>
-      <c r="J35" s="343"/>
-      <c r="K35" s="344"/>
-      <c r="L35" s="342" t="str">
+      <c r="G35" s="360"/>
+      <c r="H35" s="360"/>
+      <c r="I35" s="360"/>
+      <c r="J35" s="360"/>
+      <c r="K35" s="361"/>
+      <c r="L35" s="359" t="str">
         <f ca="1">Calibración!E44</f>
         <v/>
       </c>
-      <c r="M35" s="343"/>
-      <c r="N35" s="343"/>
-      <c r="O35" s="343"/>
-      <c r="P35" s="343"/>
-      <c r="Q35" s="344"/>
-      <c r="R35" s="342" t="str">
+      <c r="M35" s="360"/>
+      <c r="N35" s="360"/>
+      <c r="O35" s="360"/>
+      <c r="P35" s="360"/>
+      <c r="Q35" s="361"/>
+      <c r="R35" s="359" t="str">
         <f ca="1">Calibración!F44</f>
         <v/>
       </c>
-      <c r="S35" s="343"/>
-      <c r="T35" s="343"/>
-      <c r="U35" s="343"/>
-      <c r="V35" s="343"/>
-      <c r="W35" s="344"/>
+      <c r="S35" s="360"/>
+      <c r="T35" s="360"/>
+      <c r="U35" s="360"/>
+      <c r="V35" s="360"/>
+      <c r="W35" s="361"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D36" s="230"/>
@@ -40237,376 +40240,376 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="351" t="s">
+      <c r="D38" s="366" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="351"/>
-      <c r="F38" s="351"/>
-      <c r="G38" s="351"/>
-      <c r="H38" s="351"/>
-      <c r="I38" s="351"/>
-      <c r="J38" s="351"/>
-      <c r="K38" s="351"/>
-      <c r="L38" s="351"/>
-      <c r="M38" s="351"/>
-      <c r="N38" s="351"/>
-      <c r="O38" s="351"/>
-      <c r="P38" s="351"/>
-      <c r="Q38" s="351"/>
-      <c r="R38" s="351"/>
-      <c r="S38" s="351"/>
-      <c r="T38" s="351"/>
-      <c r="U38" s="351"/>
-      <c r="V38" s="351"/>
-      <c r="W38" s="351"/>
+      <c r="E38" s="366"/>
+      <c r="F38" s="366"/>
+      <c r="G38" s="366"/>
+      <c r="H38" s="366"/>
+      <c r="I38" s="366"/>
+      <c r="J38" s="366"/>
+      <c r="K38" s="366"/>
+      <c r="L38" s="366"/>
+      <c r="M38" s="366"/>
+      <c r="N38" s="366"/>
+      <c r="O38" s="366"/>
+      <c r="P38" s="366"/>
+      <c r="Q38" s="366"/>
+      <c r="R38" s="366"/>
+      <c r="S38" s="366"/>
+      <c r="T38" s="366"/>
+      <c r="U38" s="366"/>
+      <c r="V38" s="366"/>
+      <c r="W38" s="366"/>
     </row>
     <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="352" t="s">
+      <c r="D39" s="367" t="s">
         <v>360</v>
       </c>
-      <c r="E39" s="352"/>
-      <c r="F39" s="353" t="s">
+      <c r="E39" s="367"/>
+      <c r="F39" s="368" t="s">
         <v>425</v>
       </c>
-      <c r="G39" s="353"/>
-      <c r="H39" s="353"/>
-      <c r="I39" s="353"/>
-      <c r="J39" s="353"/>
-      <c r="K39" s="353"/>
-      <c r="L39" s="353" t="s">
+      <c r="G39" s="368"/>
+      <c r="H39" s="368"/>
+      <c r="I39" s="368"/>
+      <c r="J39" s="368"/>
+      <c r="K39" s="368"/>
+      <c r="L39" s="368" t="s">
         <v>96</v>
       </c>
-      <c r="M39" s="353"/>
-      <c r="N39" s="353"/>
-      <c r="O39" s="353"/>
-      <c r="P39" s="353"/>
-      <c r="Q39" s="353"/>
-      <c r="R39" s="352" t="s">
+      <c r="M39" s="368"/>
+      <c r="N39" s="368"/>
+      <c r="O39" s="368"/>
+      <c r="P39" s="368"/>
+      <c r="Q39" s="368"/>
+      <c r="R39" s="367" t="s">
         <v>426</v>
       </c>
-      <c r="S39" s="352"/>
-      <c r="T39" s="352"/>
-      <c r="U39" s="352"/>
-      <c r="V39" s="352"/>
-      <c r="W39" s="352"/>
+      <c r="S39" s="367"/>
+      <c r="T39" s="367"/>
+      <c r="U39" s="367"/>
+      <c r="V39" s="367"/>
+      <c r="W39" s="367"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="352"/>
-      <c r="E40" s="352"/>
-      <c r="F40" s="353"/>
-      <c r="G40" s="353"/>
-      <c r="H40" s="353"/>
-      <c r="I40" s="353"/>
-      <c r="J40" s="353"/>
-      <c r="K40" s="353"/>
-      <c r="L40" s="353"/>
-      <c r="M40" s="353"/>
-      <c r="N40" s="353"/>
-      <c r="O40" s="353"/>
-      <c r="P40" s="353"/>
-      <c r="Q40" s="353"/>
-      <c r="R40" s="352"/>
-      <c r="S40" s="352"/>
-      <c r="T40" s="352"/>
-      <c r="U40" s="352"/>
-      <c r="V40" s="352"/>
-      <c r="W40" s="352"/>
+      <c r="D40" s="367"/>
+      <c r="E40" s="367"/>
+      <c r="F40" s="368"/>
+      <c r="G40" s="368"/>
+      <c r="H40" s="368"/>
+      <c r="I40" s="368"/>
+      <c r="J40" s="368"/>
+      <c r="K40" s="368"/>
+      <c r="L40" s="368"/>
+      <c r="M40" s="368"/>
+      <c r="N40" s="368"/>
+      <c r="O40" s="368"/>
+      <c r="P40" s="368"/>
+      <c r="Q40" s="368"/>
+      <c r="R40" s="367"/>
+      <c r="S40" s="367"/>
+      <c r="T40" s="367"/>
+      <c r="U40" s="367"/>
+      <c r="V40" s="367"/>
+      <c r="W40" s="367"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="354" t="str">
+      <c r="D41" s="369" t="str">
         <f>Calibración!G37</f>
         <v>kPa</v>
       </c>
-      <c r="E41" s="354"/>
-      <c r="F41" s="355" t="str">
+      <c r="E41" s="369"/>
+      <c r="F41" s="370" t="str">
         <f>Calibración!H37</f>
         <v>kPa</v>
       </c>
-      <c r="G41" s="356"/>
-      <c r="H41" s="356"/>
-      <c r="I41" s="356"/>
-      <c r="J41" s="356"/>
-      <c r="K41" s="357"/>
-      <c r="L41" s="354" t="str">
+      <c r="G41" s="371"/>
+      <c r="H41" s="371"/>
+      <c r="I41" s="371"/>
+      <c r="J41" s="371"/>
+      <c r="K41" s="372"/>
+      <c r="L41" s="369" t="str">
         <f>Calibración!I37</f>
         <v>kPa</v>
       </c>
-      <c r="M41" s="354"/>
-      <c r="N41" s="354"/>
-      <c r="O41" s="354"/>
-      <c r="P41" s="354"/>
-      <c r="Q41" s="354"/>
-      <c r="R41" s="354" t="str">
+      <c r="M41" s="369"/>
+      <c r="N41" s="369"/>
+      <c r="O41" s="369"/>
+      <c r="P41" s="369"/>
+      <c r="Q41" s="369"/>
+      <c r="R41" s="369" t="str">
         <f>Calibración!J37</f>
         <v>kPa</v>
       </c>
-      <c r="S41" s="354"/>
-      <c r="T41" s="354"/>
-      <c r="U41" s="354"/>
-      <c r="V41" s="354"/>
-      <c r="W41" s="354"/>
+      <c r="S41" s="369"/>
+      <c r="T41" s="369"/>
+      <c r="U41" s="369"/>
+      <c r="V41" s="369"/>
+      <c r="W41" s="369"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="341" t="str">
+      <c r="D42" s="358" t="str">
         <f ca="1">Calibración!G38</f>
         <v/>
       </c>
-      <c r="E42" s="341"/>
-      <c r="F42" s="342" t="str">
+      <c r="E42" s="358"/>
+      <c r="F42" s="359" t="str">
         <f ca="1">Calibración!H38</f>
         <v/>
       </c>
-      <c r="G42" s="343"/>
-      <c r="H42" s="343"/>
-      <c r="I42" s="343"/>
-      <c r="J42" s="343"/>
-      <c r="K42" s="344"/>
-      <c r="L42" s="341" t="str">
+      <c r="G42" s="360"/>
+      <c r="H42" s="360"/>
+      <c r="I42" s="360"/>
+      <c r="J42" s="360"/>
+      <c r="K42" s="361"/>
+      <c r="L42" s="358" t="str">
         <f ca="1">Calibración!I38</f>
         <v/>
       </c>
-      <c r="M42" s="341"/>
-      <c r="N42" s="341"/>
-      <c r="O42" s="341"/>
-      <c r="P42" s="341"/>
-      <c r="Q42" s="341"/>
-      <c r="R42" s="341" t="str">
+      <c r="M42" s="358"/>
+      <c r="N42" s="358"/>
+      <c r="O42" s="358"/>
+      <c r="P42" s="358"/>
+      <c r="Q42" s="358"/>
+      <c r="R42" s="358" t="str">
         <f ca="1">Calibración!J38</f>
         <v/>
       </c>
-      <c r="S42" s="341"/>
-      <c r="T42" s="341"/>
-      <c r="U42" s="341"/>
-      <c r="V42" s="341"/>
-      <c r="W42" s="341"/>
+      <c r="S42" s="358"/>
+      <c r="T42" s="358"/>
+      <c r="U42" s="358"/>
+      <c r="V42" s="358"/>
+      <c r="W42" s="358"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="341" t="str">
+      <c r="D43" s="358" t="str">
         <f ca="1">Calibración!G39</f>
         <v/>
       </c>
-      <c r="E43" s="341"/>
-      <c r="F43" s="342" t="str">
+      <c r="E43" s="358"/>
+      <c r="F43" s="359" t="str">
         <f ca="1">Calibración!H39</f>
         <v/>
       </c>
-      <c r="G43" s="343"/>
-      <c r="H43" s="343"/>
-      <c r="I43" s="343"/>
-      <c r="J43" s="343"/>
-      <c r="K43" s="344"/>
-      <c r="L43" s="341" t="str">
+      <c r="G43" s="360"/>
+      <c r="H43" s="360"/>
+      <c r="I43" s="360"/>
+      <c r="J43" s="360"/>
+      <c r="K43" s="361"/>
+      <c r="L43" s="358" t="str">
         <f ca="1">Calibración!I39</f>
         <v/>
       </c>
-      <c r="M43" s="341"/>
-      <c r="N43" s="341"/>
-      <c r="O43" s="341"/>
-      <c r="P43" s="341"/>
-      <c r="Q43" s="341"/>
-      <c r="R43" s="341" t="str">
+      <c r="M43" s="358"/>
+      <c r="N43" s="358"/>
+      <c r="O43" s="358"/>
+      <c r="P43" s="358"/>
+      <c r="Q43" s="358"/>
+      <c r="R43" s="358" t="str">
         <f ca="1">Calibración!J39</f>
         <v/>
       </c>
-      <c r="S43" s="341"/>
-      <c r="T43" s="341"/>
-      <c r="U43" s="341"/>
-      <c r="V43" s="341"/>
-      <c r="W43" s="341"/>
+      <c r="S43" s="358"/>
+      <c r="T43" s="358"/>
+      <c r="U43" s="358"/>
+      <c r="V43" s="358"/>
+      <c r="W43" s="358"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="341" t="str">
+      <c r="D44" s="358" t="str">
         <f ca="1">Calibración!G40</f>
         <v/>
       </c>
-      <c r="E44" s="341"/>
-      <c r="F44" s="342" t="str">
+      <c r="E44" s="358"/>
+      <c r="F44" s="359" t="str">
         <f ca="1">Calibración!H40</f>
         <v/>
       </c>
-      <c r="G44" s="343"/>
-      <c r="H44" s="343"/>
-      <c r="I44" s="343"/>
-      <c r="J44" s="343"/>
-      <c r="K44" s="344"/>
-      <c r="L44" s="341" t="str">
+      <c r="G44" s="360"/>
+      <c r="H44" s="360"/>
+      <c r="I44" s="360"/>
+      <c r="J44" s="360"/>
+      <c r="K44" s="361"/>
+      <c r="L44" s="358" t="str">
         <f ca="1">Calibración!I40</f>
         <v/>
       </c>
-      <c r="M44" s="341"/>
-      <c r="N44" s="341"/>
-      <c r="O44" s="341"/>
-      <c r="P44" s="341"/>
-      <c r="Q44" s="341"/>
-      <c r="R44" s="341" t="str">
+      <c r="M44" s="358"/>
+      <c r="N44" s="358"/>
+      <c r="O44" s="358"/>
+      <c r="P44" s="358"/>
+      <c r="Q44" s="358"/>
+      <c r="R44" s="358" t="str">
         <f ca="1">Calibración!J40</f>
         <v/>
       </c>
-      <c r="S44" s="341"/>
-      <c r="T44" s="341"/>
-      <c r="U44" s="341"/>
-      <c r="V44" s="341"/>
-      <c r="W44" s="341"/>
+      <c r="S44" s="358"/>
+      <c r="T44" s="358"/>
+      <c r="U44" s="358"/>
+      <c r="V44" s="358"/>
+      <c r="W44" s="358"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="341" t="str">
+      <c r="D45" s="358" t="str">
         <f ca="1">Calibración!G41</f>
         <v/>
       </c>
-      <c r="E45" s="341"/>
-      <c r="F45" s="342" t="str">
+      <c r="E45" s="358"/>
+      <c r="F45" s="359" t="str">
         <f ca="1">Calibración!H41</f>
         <v/>
       </c>
-      <c r="G45" s="343"/>
-      <c r="H45" s="343"/>
-      <c r="I45" s="343"/>
-      <c r="J45" s="343"/>
-      <c r="K45" s="344"/>
-      <c r="L45" s="341" t="str">
+      <c r="G45" s="360"/>
+      <c r="H45" s="360"/>
+      <c r="I45" s="360"/>
+      <c r="J45" s="360"/>
+      <c r="K45" s="361"/>
+      <c r="L45" s="358" t="str">
         <f ca="1">Calibración!I41</f>
         <v/>
       </c>
-      <c r="M45" s="341"/>
-      <c r="N45" s="341"/>
-      <c r="O45" s="341"/>
-      <c r="P45" s="341"/>
-      <c r="Q45" s="341"/>
-      <c r="R45" s="341" t="str">
+      <c r="M45" s="358"/>
+      <c r="N45" s="358"/>
+      <c r="O45" s="358"/>
+      <c r="P45" s="358"/>
+      <c r="Q45" s="358"/>
+      <c r="R45" s="358" t="str">
         <f ca="1">Calibración!J41</f>
         <v/>
       </c>
-      <c r="S45" s="341"/>
-      <c r="T45" s="341"/>
-      <c r="U45" s="341"/>
-      <c r="V45" s="341"/>
-      <c r="W45" s="341"/>
+      <c r="S45" s="358"/>
+      <c r="T45" s="358"/>
+      <c r="U45" s="358"/>
+      <c r="V45" s="358"/>
+      <c r="W45" s="358"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="341" t="str">
+      <c r="D46" s="358" t="str">
         <f ca="1">Calibración!G42</f>
         <v/>
       </c>
-      <c r="E46" s="341"/>
-      <c r="F46" s="342" t="str">
+      <c r="E46" s="358"/>
+      <c r="F46" s="359" t="str">
         <f ca="1">Calibración!H42</f>
         <v/>
       </c>
-      <c r="G46" s="343"/>
-      <c r="H46" s="343"/>
-      <c r="I46" s="343"/>
-      <c r="J46" s="343"/>
-      <c r="K46" s="344"/>
-      <c r="L46" s="341" t="str">
+      <c r="G46" s="360"/>
+      <c r="H46" s="360"/>
+      <c r="I46" s="360"/>
+      <c r="J46" s="360"/>
+      <c r="K46" s="361"/>
+      <c r="L46" s="358" t="str">
         <f ca="1">Calibración!I42</f>
         <v/>
       </c>
-      <c r="M46" s="341"/>
-      <c r="N46" s="341"/>
-      <c r="O46" s="341"/>
-      <c r="P46" s="341"/>
-      <c r="Q46" s="341"/>
-      <c r="R46" s="341" t="str">
+      <c r="M46" s="358"/>
+      <c r="N46" s="358"/>
+      <c r="O46" s="358"/>
+      <c r="P46" s="358"/>
+      <c r="Q46" s="358"/>
+      <c r="R46" s="358" t="str">
         <f ca="1">Calibración!J42</f>
         <v/>
       </c>
-      <c r="S46" s="341"/>
-      <c r="T46" s="341"/>
-      <c r="U46" s="341"/>
-      <c r="V46" s="341"/>
-      <c r="W46" s="341"/>
+      <c r="S46" s="358"/>
+      <c r="T46" s="358"/>
+      <c r="U46" s="358"/>
+      <c r="V46" s="358"/>
+      <c r="W46" s="358"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D47" s="341" t="str">
+      <c r="D47" s="358" t="str">
         <f ca="1">Calibración!G43</f>
         <v/>
       </c>
-      <c r="E47" s="341"/>
-      <c r="F47" s="342" t="str">
+      <c r="E47" s="358"/>
+      <c r="F47" s="359" t="str">
         <f ca="1">Calibración!H43</f>
         <v/>
       </c>
-      <c r="G47" s="343"/>
-      <c r="H47" s="343"/>
-      <c r="I47" s="343"/>
-      <c r="J47" s="343"/>
-      <c r="K47" s="344"/>
-      <c r="L47" s="341" t="str">
+      <c r="G47" s="360"/>
+      <c r="H47" s="360"/>
+      <c r="I47" s="360"/>
+      <c r="J47" s="360"/>
+      <c r="K47" s="361"/>
+      <c r="L47" s="358" t="str">
         <f ca="1">Calibración!I43</f>
         <v/>
       </c>
-      <c r="M47" s="341"/>
-      <c r="N47" s="341"/>
-      <c r="O47" s="341"/>
-      <c r="P47" s="341"/>
-      <c r="Q47" s="341"/>
-      <c r="R47" s="341" t="str">
+      <c r="M47" s="358"/>
+      <c r="N47" s="358"/>
+      <c r="O47" s="358"/>
+      <c r="P47" s="358"/>
+      <c r="Q47" s="358"/>
+      <c r="R47" s="358" t="str">
         <f ca="1">Calibración!J43</f>
         <v/>
       </c>
-      <c r="S47" s="341"/>
-      <c r="T47" s="341"/>
-      <c r="U47" s="341"/>
-      <c r="V47" s="341"/>
-      <c r="W47" s="341"/>
+      <c r="S47" s="358"/>
+      <c r="T47" s="358"/>
+      <c r="U47" s="358"/>
+      <c r="V47" s="358"/>
+      <c r="W47" s="358"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D48" s="341" t="str">
+      <c r="D48" s="358" t="str">
         <f ca="1">Calibración!G44</f>
         <v/>
       </c>
-      <c r="E48" s="341"/>
-      <c r="F48" s="342" t="str">
+      <c r="E48" s="358"/>
+      <c r="F48" s="359" t="str">
         <f ca="1">Calibración!H44</f>
         <v/>
       </c>
-      <c r="G48" s="343"/>
-      <c r="H48" s="343"/>
-      <c r="I48" s="343"/>
-      <c r="J48" s="343"/>
-      <c r="K48" s="344"/>
-      <c r="L48" s="341" t="str">
+      <c r="G48" s="360"/>
+      <c r="H48" s="360"/>
+      <c r="I48" s="360"/>
+      <c r="J48" s="360"/>
+      <c r="K48" s="361"/>
+      <c r="L48" s="358" t="str">
         <f ca="1">Calibración!I44</f>
         <v/>
       </c>
-      <c r="M48" s="341"/>
-      <c r="N48" s="341"/>
-      <c r="O48" s="341"/>
-      <c r="P48" s="341"/>
-      <c r="Q48" s="341"/>
-      <c r="R48" s="341" t="str">
+      <c r="M48" s="358"/>
+      <c r="N48" s="358"/>
+      <c r="O48" s="358"/>
+      <c r="P48" s="358"/>
+      <c r="Q48" s="358"/>
+      <c r="R48" s="358" t="str">
         <f ca="1">Calibración!J44</f>
         <v/>
       </c>
-      <c r="S48" s="341"/>
-      <c r="T48" s="341"/>
-      <c r="U48" s="341"/>
-      <c r="V48" s="341"/>
-      <c r="W48" s="341"/>
+      <c r="S48" s="358"/>
+      <c r="T48" s="358"/>
+      <c r="U48" s="358"/>
+      <c r="V48" s="358"/>
+      <c r="W48" s="358"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O49" s="232"/>
@@ -40648,20 +40651,20 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
-      <c r="N57" s="346" t="str">
+      <c r="N57" s="362" t="str">
         <f>N8</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O57" s="346"/>
-      <c r="P57" s="346"/>
-      <c r="Q57" s="346"/>
-      <c r="R57" s="346"/>
-      <c r="S57" s="346"/>
-      <c r="T57" s="346"/>
-      <c r="U57" s="346"/>
-      <c r="V57" s="346"/>
-      <c r="W57" s="346"/>
-      <c r="X57" s="346"/>
+      <c r="O57" s="362"/>
+      <c r="P57" s="362"/>
+      <c r="Q57" s="362"/>
+      <c r="R57" s="362"/>
+      <c r="S57" s="362"/>
+      <c r="T57" s="362"/>
+      <c r="U57" s="362"/>
+      <c r="V57" s="362"/>
+      <c r="W57" s="362"/>
+      <c r="X57" s="362"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O58" s="232"/>
@@ -40700,11 +40703,11 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="234"/>
-      <c r="B60" s="365" t="s">
+      <c r="B60" s="363" t="s">
         <v>430</v>
       </c>
-      <c r="C60" s="365"/>
-      <c r="D60" s="365"/>
+      <c r="C60" s="363"/>
+      <c r="D60" s="363"/>
       <c r="E60" s="235" t="str">
         <f>CertTempC</f>
         <v/>
@@ -40721,8 +40724,8 @@
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="348"/>
-      <c r="L60" s="348"/>
+      <c r="K60" s="364"/>
+      <c r="L60" s="364"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
@@ -40732,11 +40735,11 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
-      <c r="T60" s="366" t="str">
+      <c r="T60" s="365" t="str">
         <f>General!I18</f>
         <v/>
       </c>
-      <c r="U60" s="366"/>
+      <c r="U60" s="365"/>
       <c r="V60" s="236" t="s">
         <v>432</v>
       </c>
@@ -40838,58 +40841,58 @@
       <c r="W63" s="9"/>
     </row>
     <row r="64" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="358" t="s">
+      <c r="A64" s="351" t="s">
         <v>715</v>
       </c>
-      <c r="B64" s="358"/>
-      <c r="C64" s="358"/>
-      <c r="D64" s="358"/>
-      <c r="E64" s="358"/>
-      <c r="F64" s="358"/>
-      <c r="G64" s="358"/>
-      <c r="H64" s="358"/>
-      <c r="I64" s="358"/>
-      <c r="J64" s="358"/>
-      <c r="K64" s="358"/>
-      <c r="L64" s="358"/>
-      <c r="M64" s="358"/>
-      <c r="N64" s="358"/>
-      <c r="O64" s="358"/>
-      <c r="P64" s="358"/>
-      <c r="Q64" s="358"/>
-      <c r="R64" s="358"/>
-      <c r="S64" s="358"/>
-      <c r="T64" s="358"/>
-      <c r="U64" s="358"/>
-      <c r="V64" s="358"/>
-      <c r="W64" s="358"/>
-      <c r="X64" s="358"/>
+      <c r="B64" s="351"/>
+      <c r="C64" s="351"/>
+      <c r="D64" s="351"/>
+      <c r="E64" s="351"/>
+      <c r="F64" s="351"/>
+      <c r="G64" s="351"/>
+      <c r="H64" s="351"/>
+      <c r="I64" s="351"/>
+      <c r="J64" s="351"/>
+      <c r="K64" s="351"/>
+      <c r="L64" s="351"/>
+      <c r="M64" s="351"/>
+      <c r="N64" s="351"/>
+      <c r="O64" s="351"/>
+      <c r="P64" s="351"/>
+      <c r="Q64" s="351"/>
+      <c r="R64" s="351"/>
+      <c r="S64" s="351"/>
+      <c r="T64" s="351"/>
+      <c r="U64" s="351"/>
+      <c r="V64" s="351"/>
+      <c r="W64" s="351"/>
+      <c r="X64" s="351"/>
     </row>
     <row r="65" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="358"/>
-      <c r="B65" s="358"/>
-      <c r="C65" s="358"/>
-      <c r="D65" s="358"/>
-      <c r="E65" s="358"/>
-      <c r="F65" s="358"/>
-      <c r="G65" s="358"/>
-      <c r="H65" s="358"/>
-      <c r="I65" s="358"/>
-      <c r="J65" s="358"/>
-      <c r="K65" s="358"/>
-      <c r="L65" s="358"/>
-      <c r="M65" s="358"/>
-      <c r="N65" s="358"/>
-      <c r="O65" s="358"/>
-      <c r="P65" s="358"/>
-      <c r="Q65" s="358"/>
-      <c r="R65" s="358"/>
-      <c r="S65" s="358"/>
-      <c r="T65" s="358"/>
-      <c r="U65" s="358"/>
-      <c r="V65" s="358"/>
-      <c r="W65" s="358"/>
-      <c r="X65" s="358"/>
+      <c r="A65" s="351"/>
+      <c r="B65" s="351"/>
+      <c r="C65" s="351"/>
+      <c r="D65" s="351"/>
+      <c r="E65" s="351"/>
+      <c r="F65" s="351"/>
+      <c r="G65" s="351"/>
+      <c r="H65" s="351"/>
+      <c r="I65" s="351"/>
+      <c r="J65" s="351"/>
+      <c r="K65" s="351"/>
+      <c r="L65" s="351"/>
+      <c r="M65" s="351"/>
+      <c r="N65" s="351"/>
+      <c r="O65" s="351"/>
+      <c r="P65" s="351"/>
+      <c r="Q65" s="351"/>
+      <c r="R65" s="351"/>
+      <c r="S65" s="351"/>
+      <c r="T65" s="351"/>
+      <c r="U65" s="351"/>
+      <c r="V65" s="351"/>
+      <c r="W65" s="351"/>
+      <c r="X65" s="351"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B66" s="14"/>
@@ -40944,136 +40947,136 @@
       <c r="X67" s="14"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A68" s="358" t="s">
+      <c r="A68" s="351" t="s">
         <v>438</v>
       </c>
-      <c r="B68" s="358"/>
-      <c r="C68" s="358"/>
-      <c r="D68" s="358"/>
-      <c r="E68" s="358"/>
-      <c r="F68" s="358"/>
-      <c r="G68" s="358"/>
-      <c r="H68" s="358"/>
-      <c r="I68" s="358"/>
-      <c r="J68" s="358"/>
-      <c r="K68" s="358"/>
-      <c r="L68" s="358"/>
-      <c r="M68" s="358"/>
-      <c r="N68" s="358"/>
-      <c r="O68" s="358"/>
-      <c r="P68" s="358"/>
-      <c r="Q68" s="358"/>
-      <c r="R68" s="358"/>
-      <c r="S68" s="358"/>
-      <c r="T68" s="358"/>
-      <c r="U68" s="358"/>
-      <c r="V68" s="358"/>
-      <c r="W68" s="358"/>
-      <c r="X68" s="358"/>
+      <c r="B68" s="351"/>
+      <c r="C68" s="351"/>
+      <c r="D68" s="351"/>
+      <c r="E68" s="351"/>
+      <c r="F68" s="351"/>
+      <c r="G68" s="351"/>
+      <c r="H68" s="351"/>
+      <c r="I68" s="351"/>
+      <c r="J68" s="351"/>
+      <c r="K68" s="351"/>
+      <c r="L68" s="351"/>
+      <c r="M68" s="351"/>
+      <c r="N68" s="351"/>
+      <c r="O68" s="351"/>
+      <c r="P68" s="351"/>
+      <c r="Q68" s="351"/>
+      <c r="R68" s="351"/>
+      <c r="S68" s="351"/>
+      <c r="T68" s="351"/>
+      <c r="U68" s="351"/>
+      <c r="V68" s="351"/>
+      <c r="W68" s="351"/>
+      <c r="X68" s="351"/>
     </row>
     <row r="69" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="358"/>
-      <c r="B69" s="358"/>
-      <c r="C69" s="358"/>
-      <c r="D69" s="358"/>
-      <c r="E69" s="358"/>
-      <c r="F69" s="358"/>
-      <c r="G69" s="358"/>
-      <c r="H69" s="358"/>
-      <c r="I69" s="358"/>
-      <c r="J69" s="358"/>
-      <c r="K69" s="358"/>
-      <c r="L69" s="358"/>
-      <c r="M69" s="358"/>
-      <c r="N69" s="358"/>
-      <c r="O69" s="358"/>
-      <c r="P69" s="358"/>
-      <c r="Q69" s="358"/>
-      <c r="R69" s="358"/>
-      <c r="S69" s="358"/>
-      <c r="T69" s="358"/>
-      <c r="U69" s="358"/>
-      <c r="V69" s="358"/>
-      <c r="W69" s="358"/>
-      <c r="X69" s="358"/>
+      <c r="A69" s="351"/>
+      <c r="B69" s="351"/>
+      <c r="C69" s="351"/>
+      <c r="D69" s="351"/>
+      <c r="E69" s="351"/>
+      <c r="F69" s="351"/>
+      <c r="G69" s="351"/>
+      <c r="H69" s="351"/>
+      <c r="I69" s="351"/>
+      <c r="J69" s="351"/>
+      <c r="K69" s="351"/>
+      <c r="L69" s="351"/>
+      <c r="M69" s="351"/>
+      <c r="N69" s="351"/>
+      <c r="O69" s="351"/>
+      <c r="P69" s="351"/>
+      <c r="Q69" s="351"/>
+      <c r="R69" s="351"/>
+      <c r="S69" s="351"/>
+      <c r="T69" s="351"/>
+      <c r="U69" s="351"/>
+      <c r="V69" s="351"/>
+      <c r="W69" s="351"/>
+      <c r="X69" s="351"/>
     </row>
     <row r="70" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="358"/>
-      <c r="B70" s="358"/>
-      <c r="C70" s="358"/>
-      <c r="D70" s="358"/>
-      <c r="E70" s="358"/>
-      <c r="F70" s="358"/>
-      <c r="G70" s="358"/>
-      <c r="H70" s="358"/>
-      <c r="I70" s="358"/>
-      <c r="J70" s="358"/>
-      <c r="K70" s="358"/>
-      <c r="L70" s="358"/>
-      <c r="M70" s="358"/>
-      <c r="N70" s="358"/>
-      <c r="O70" s="358"/>
-      <c r="P70" s="358"/>
-      <c r="Q70" s="358"/>
-      <c r="R70" s="358"/>
-      <c r="S70" s="358"/>
-      <c r="T70" s="358"/>
-      <c r="U70" s="358"/>
-      <c r="V70" s="358"/>
-      <c r="W70" s="358"/>
-      <c r="X70" s="358"/>
+      <c r="A70" s="351"/>
+      <c r="B70" s="351"/>
+      <c r="C70" s="351"/>
+      <c r="D70" s="351"/>
+      <c r="E70" s="351"/>
+      <c r="F70" s="351"/>
+      <c r="G70" s="351"/>
+      <c r="H70" s="351"/>
+      <c r="I70" s="351"/>
+      <c r="J70" s="351"/>
+      <c r="K70" s="351"/>
+      <c r="L70" s="351"/>
+      <c r="M70" s="351"/>
+      <c r="N70" s="351"/>
+      <c r="O70" s="351"/>
+      <c r="P70" s="351"/>
+      <c r="Q70" s="351"/>
+      <c r="R70" s="351"/>
+      <c r="S70" s="351"/>
+      <c r="T70" s="351"/>
+      <c r="U70" s="351"/>
+      <c r="V70" s="351"/>
+      <c r="W70" s="351"/>
+      <c r="X70" s="351"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A71" s="358"/>
-      <c r="B71" s="358"/>
-      <c r="C71" s="358"/>
-      <c r="D71" s="358"/>
-      <c r="E71" s="358"/>
-      <c r="F71" s="358"/>
-      <c r="G71" s="358"/>
-      <c r="H71" s="358"/>
-      <c r="I71" s="358"/>
-      <c r="J71" s="358"/>
-      <c r="K71" s="358"/>
-      <c r="L71" s="358"/>
-      <c r="M71" s="358"/>
-      <c r="N71" s="358"/>
-      <c r="O71" s="358"/>
-      <c r="P71" s="358"/>
-      <c r="Q71" s="358"/>
-      <c r="R71" s="358"/>
-      <c r="S71" s="358"/>
-      <c r="T71" s="358"/>
-      <c r="U71" s="358"/>
-      <c r="V71" s="358"/>
-      <c r="W71" s="358"/>
-      <c r="X71" s="358"/>
+      <c r="A71" s="351"/>
+      <c r="B71" s="351"/>
+      <c r="C71" s="351"/>
+      <c r="D71" s="351"/>
+      <c r="E71" s="351"/>
+      <c r="F71" s="351"/>
+      <c r="G71" s="351"/>
+      <c r="H71" s="351"/>
+      <c r="I71" s="351"/>
+      <c r="J71" s="351"/>
+      <c r="K71" s="351"/>
+      <c r="L71" s="351"/>
+      <c r="M71" s="351"/>
+      <c r="N71" s="351"/>
+      <c r="O71" s="351"/>
+      <c r="P71" s="351"/>
+      <c r="Q71" s="351"/>
+      <c r="R71" s="351"/>
+      <c r="S71" s="351"/>
+      <c r="T71" s="351"/>
+      <c r="U71" s="351"/>
+      <c r="V71" s="351"/>
+      <c r="W71" s="351"/>
+      <c r="X71" s="351"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A72" s="358"/>
-      <c r="B72" s="358"/>
-      <c r="C72" s="358"/>
-      <c r="D72" s="358"/>
-      <c r="E72" s="358"/>
-      <c r="F72" s="358"/>
-      <c r="G72" s="358"/>
-      <c r="H72" s="358"/>
-      <c r="I72" s="358"/>
-      <c r="J72" s="358"/>
-      <c r="K72" s="358"/>
-      <c r="L72" s="358"/>
-      <c r="M72" s="358"/>
-      <c r="N72" s="358"/>
-      <c r="O72" s="358"/>
-      <c r="P72" s="358"/>
-      <c r="Q72" s="358"/>
-      <c r="R72" s="358"/>
-      <c r="S72" s="358"/>
-      <c r="T72" s="358"/>
-      <c r="U72" s="358"/>
-      <c r="V72" s="358"/>
-      <c r="W72" s="358"/>
-      <c r="X72" s="358"/>
+      <c r="A72" s="351"/>
+      <c r="B72" s="351"/>
+      <c r="C72" s="351"/>
+      <c r="D72" s="351"/>
+      <c r="E72" s="351"/>
+      <c r="F72" s="351"/>
+      <c r="G72" s="351"/>
+      <c r="H72" s="351"/>
+      <c r="I72" s="351"/>
+      <c r="J72" s="351"/>
+      <c r="K72" s="351"/>
+      <c r="L72" s="351"/>
+      <c r="M72" s="351"/>
+      <c r="N72" s="351"/>
+      <c r="O72" s="351"/>
+      <c r="P72" s="351"/>
+      <c r="Q72" s="351"/>
+      <c r="R72" s="351"/>
+      <c r="S72" s="351"/>
+      <c r="T72" s="351"/>
+      <c r="U72" s="351"/>
+      <c r="V72" s="351"/>
+      <c r="W72" s="351"/>
+      <c r="X72" s="351"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -41127,204 +41130,204 @@
       <c r="V74" s="9"/>
     </row>
     <row r="75" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="359" t="s">
+      <c r="A75" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="360"/>
-      <c r="C75" s="360"/>
-      <c r="D75" s="360"/>
-      <c r="E75" s="360"/>
-      <c r="F75" s="361"/>
-      <c r="G75" s="359" t="s">
+      <c r="B75" s="353"/>
+      <c r="C75" s="353"/>
+      <c r="D75" s="353"/>
+      <c r="E75" s="353"/>
+      <c r="F75" s="354"/>
+      <c r="G75" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="H75" s="360"/>
-      <c r="I75" s="361"/>
-      <c r="J75" s="362" t="s">
+      <c r="H75" s="353"/>
+      <c r="I75" s="354"/>
+      <c r="J75" s="355" t="s">
         <v>101</v>
       </c>
-      <c r="K75" s="363"/>
-      <c r="L75" s="363"/>
-      <c r="M75" s="363"/>
-      <c r="N75" s="364"/>
-      <c r="O75" s="359" t="s">
+      <c r="K75" s="356"/>
+      <c r="L75" s="356"/>
+      <c r="M75" s="356"/>
+      <c r="N75" s="357"/>
+      <c r="O75" s="352" t="s">
         <v>440</v>
       </c>
-      <c r="P75" s="360"/>
-      <c r="Q75" s="360"/>
-      <c r="R75" s="360"/>
-      <c r="S75" s="360"/>
-      <c r="T75" s="361"/>
-      <c r="U75" s="362" t="s">
+      <c r="P75" s="353"/>
+      <c r="Q75" s="353"/>
+      <c r="R75" s="353"/>
+      <c r="S75" s="353"/>
+      <c r="T75" s="354"/>
+      <c r="U75" s="355" t="s">
         <v>441</v>
       </c>
-      <c r="V75" s="363"/>
-      <c r="W75" s="363"/>
-      <c r="X75" s="364"/>
+      <c r="V75" s="356"/>
+      <c r="W75" s="356"/>
+      <c r="X75" s="357"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A76" s="367" t="s">
+      <c r="A76" s="345" t="s">
         <v>709</v>
       </c>
-      <c r="B76" s="368" t="s">
+      <c r="B76" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="C76" s="368" t="s">
+      <c r="C76" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="D76" s="368" t="s">
+      <c r="D76" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="E76" s="368" t="s">
+      <c r="E76" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="F76" s="369" t="s">
+      <c r="F76" s="347" t="s">
         <v>449</v>
       </c>
-      <c r="G76" s="367" t="s">
+      <c r="G76" s="345" t="s">
         <v>477</v>
       </c>
-      <c r="H76" s="368" t="s">
+      <c r="H76" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I76" s="369" t="s">
+      <c r="I76" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J76" s="370" t="s">
+      <c r="J76" s="348" t="s">
         <v>700</v>
       </c>
-      <c r="K76" s="371" t="s">
+      <c r="K76" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L76" s="371">
+      <c r="L76" s="349">
         <v>43393</v>
       </c>
-      <c r="M76" s="371" t="s">
+      <c r="M76" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="N76" s="372" t="s">
+      <c r="N76" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O76" s="367" t="s">
+      <c r="O76" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P76" s="368" t="s">
+      <c r="P76" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q76" s="368" t="s">
+      <c r="Q76" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R76" s="368" t="s">
+      <c r="R76" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S76" s="368" t="s">
+      <c r="S76" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T76" s="369" t="s">
+      <c r="T76" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U76" s="370">
+      <c r="U76" s="348">
         <v>44878</v>
       </c>
-      <c r="V76" s="371" t="s">
+      <c r="V76" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="W76" s="371" t="s">
+      <c r="W76" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X76" s="372">
+      <c r="X76" s="350">
         <v>43393</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="367" t="s">
+      <c r="A77" s="345" t="s">
         <v>710</v>
       </c>
-      <c r="B77" s="368"/>
-      <c r="C77" s="368"/>
-      <c r="D77" s="368"/>
-      <c r="E77" s="368"/>
-      <c r="F77" s="369"/>
-      <c r="G77" s="367" t="s">
+      <c r="B77" s="346"/>
+      <c r="C77" s="346"/>
+      <c r="D77" s="346"/>
+      <c r="E77" s="346"/>
+      <c r="F77" s="347"/>
+      <c r="G77" s="345" t="s">
         <v>311</v>
       </c>
-      <c r="H77" s="368" t="s">
+      <c r="H77" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I77" s="369" t="s">
+      <c r="I77" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J77" s="370" t="s">
+      <c r="J77" s="348" t="s">
         <v>714</v>
       </c>
-      <c r="K77" s="371" t="s">
+      <c r="K77" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L77" s="371">
+      <c r="L77" s="349">
         <v>43394</v>
       </c>
-      <c r="M77" s="371" t="s">
+      <c r="M77" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="N77" s="372" t="s">
+      <c r="N77" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O77" s="367" t="s">
+      <c r="O77" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P77" s="368" t="s">
+      <c r="P77" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q77" s="368" t="s">
+      <c r="Q77" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R77" s="368" t="s">
+      <c r="R77" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S77" s="368" t="s">
+      <c r="S77" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T77" s="369" t="s">
+      <c r="T77" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U77" s="370">
+      <c r="U77" s="348">
         <v>44878</v>
       </c>
-      <c r="V77" s="371" t="s">
+      <c r="V77" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="W77" s="371" t="s">
+      <c r="W77" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X77" s="372">
+      <c r="X77" s="350">
         <v>43394</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="367"/>
-      <c r="B78" s="368"/>
-      <c r="C78" s="368"/>
-      <c r="D78" s="368"/>
-      <c r="E78" s="368"/>
-      <c r="F78" s="369"/>
-      <c r="G78" s="367"/>
-      <c r="H78" s="368"/>
-      <c r="I78" s="369"/>
-      <c r="J78" s="370"/>
-      <c r="K78" s="371"/>
-      <c r="L78" s="371"/>
-      <c r="M78" s="371"/>
-      <c r="N78" s="372"/>
-      <c r="O78" s="367"/>
-      <c r="P78" s="368"/>
-      <c r="Q78" s="368"/>
-      <c r="R78" s="368"/>
-      <c r="S78" s="368"/>
-      <c r="T78" s="369"/>
-      <c r="U78" s="370"/>
-      <c r="V78" s="371"/>
-      <c r="W78" s="371"/>
-      <c r="X78" s="372"/>
+      <c r="A78" s="345"/>
+      <c r="B78" s="346"/>
+      <c r="C78" s="346"/>
+      <c r="D78" s="346"/>
+      <c r="E78" s="346"/>
+      <c r="F78" s="347"/>
+      <c r="G78" s="345"/>
+      <c r="H78" s="346"/>
+      <c r="I78" s="347"/>
+      <c r="J78" s="348"/>
+      <c r="K78" s="349"/>
+      <c r="L78" s="349"/>
+      <c r="M78" s="349"/>
+      <c r="N78" s="350"/>
+      <c r="O78" s="345"/>
+      <c r="P78" s="346"/>
+      <c r="Q78" s="346"/>
+      <c r="R78" s="346"/>
+      <c r="S78" s="346"/>
+      <c r="T78" s="347"/>
+      <c r="U78" s="348"/>
+      <c r="V78" s="349"/>
+      <c r="W78" s="349"/>
+      <c r="X78" s="350"/>
     </row>
     <row r="79" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="238"/>
@@ -41436,59 +41439,59 @@
       <c r="X82" s="9"/>
     </row>
     <row r="83" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="358" t="str">
+      <c r="A83" s="351" t="str">
         <f>IF(Calibración!E10="2",Calibración!BJ6,Calibración!BJ7)</f>
         <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
       </c>
-      <c r="B83" s="358"/>
-      <c r="C83" s="358"/>
-      <c r="D83" s="358"/>
-      <c r="E83" s="358"/>
-      <c r="F83" s="358"/>
-      <c r="G83" s="358"/>
-      <c r="H83" s="358"/>
-      <c r="I83" s="358"/>
-      <c r="J83" s="358"/>
-      <c r="K83" s="358"/>
-      <c r="L83" s="358"/>
-      <c r="M83" s="358"/>
-      <c r="N83" s="358"/>
-      <c r="O83" s="358"/>
-      <c r="P83" s="358"/>
-      <c r="Q83" s="358"/>
-      <c r="R83" s="358"/>
-      <c r="S83" s="358"/>
-      <c r="T83" s="358"/>
-      <c r="U83" s="358"/>
-      <c r="V83" s="358"/>
-      <c r="W83" s="358"/>
-      <c r="X83" s="358"/>
+      <c r="B83" s="351"/>
+      <c r="C83" s="351"/>
+      <c r="D83" s="351"/>
+      <c r="E83" s="351"/>
+      <c r="F83" s="351"/>
+      <c r="G83" s="351"/>
+      <c r="H83" s="351"/>
+      <c r="I83" s="351"/>
+      <c r="J83" s="351"/>
+      <c r="K83" s="351"/>
+      <c r="L83" s="351"/>
+      <c r="M83" s="351"/>
+      <c r="N83" s="351"/>
+      <c r="O83" s="351"/>
+      <c r="P83" s="351"/>
+      <c r="Q83" s="351"/>
+      <c r="R83" s="351"/>
+      <c r="S83" s="351"/>
+      <c r="T83" s="351"/>
+      <c r="U83" s="351"/>
+      <c r="V83" s="351"/>
+      <c r="W83" s="351"/>
+      <c r="X83" s="351"/>
     </row>
     <row r="84" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="358"/>
-      <c r="B84" s="358"/>
-      <c r="C84" s="358"/>
-      <c r="D84" s="358"/>
-      <c r="E84" s="358"/>
-      <c r="F84" s="358"/>
-      <c r="G84" s="358"/>
-      <c r="H84" s="358"/>
-      <c r="I84" s="358"/>
-      <c r="J84" s="358"/>
-      <c r="K84" s="358"/>
-      <c r="L84" s="358"/>
-      <c r="M84" s="358"/>
-      <c r="N84" s="358"/>
-      <c r="O84" s="358"/>
-      <c r="P84" s="358"/>
-      <c r="Q84" s="358"/>
-      <c r="R84" s="358"/>
-      <c r="S84" s="358"/>
-      <c r="T84" s="358"/>
-      <c r="U84" s="358"/>
-      <c r="V84" s="358"/>
-      <c r="W84" s="358"/>
-      <c r="X84" s="358"/>
+      <c r="A84" s="351"/>
+      <c r="B84" s="351"/>
+      <c r="C84" s="351"/>
+      <c r="D84" s="351"/>
+      <c r="E84" s="351"/>
+      <c r="F84" s="351"/>
+      <c r="G84" s="351"/>
+      <c r="H84" s="351"/>
+      <c r="I84" s="351"/>
+      <c r="J84" s="351"/>
+      <c r="K84" s="351"/>
+      <c r="L84" s="351"/>
+      <c r="M84" s="351"/>
+      <c r="N84" s="351"/>
+      <c r="O84" s="351"/>
+      <c r="P84" s="351"/>
+      <c r="Q84" s="351"/>
+      <c r="R84" s="351"/>
+      <c r="S84" s="351"/>
+      <c r="T84" s="351"/>
+      <c r="U84" s="351"/>
+      <c r="V84" s="351"/>
+      <c r="W84" s="351"/>
+      <c r="X84" s="351"/>
     </row>
     <row r="85" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="239" t="s">
@@ -41663,57 +41666,153 @@
       <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I94" s="373" t="s">
+      <c r="I94" s="341" t="s">
         <v>30</v>
       </c>
-      <c r="J94" s="373"/>
-      <c r="K94" s="373"/>
-      <c r="L94" s="373"/>
-      <c r="M94" s="373"/>
-      <c r="N94" s="373"/>
-      <c r="O94" s="373"/>
-      <c r="P94" s="373"/>
+      <c r="J94" s="341"/>
+      <c r="K94" s="341"/>
+      <c r="L94" s="341"/>
+      <c r="M94" s="341"/>
+      <c r="N94" s="341"/>
+      <c r="O94" s="341"/>
+      <c r="P94" s="341"/>
       <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I95" s="374" t="str">
+      <c r="I95" s="342" t="str">
         <f>IF(I94=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
         <v>Director Técnico</v>
       </c>
-      <c r="J95" s="374"/>
-      <c r="K95" s="374"/>
-      <c r="L95" s="374"/>
-      <c r="M95" s="374"/>
-      <c r="N95" s="374"/>
-      <c r="O95" s="374"/>
-      <c r="P95" s="374"/>
+      <c r="J95" s="342"/>
+      <c r="K95" s="342"/>
+      <c r="L95" s="342"/>
+      <c r="M95" s="342"/>
+      <c r="N95" s="342"/>
+      <c r="O95" s="342"/>
+      <c r="P95" s="342"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I96" s="375" t="s">
+      <c r="I96" s="343" t="s">
         <v>446</v>
       </c>
-      <c r="J96" s="375"/>
-      <c r="K96" s="375"/>
-      <c r="L96" s="375"/>
-      <c r="M96" s="375"/>
-      <c r="N96" s="375"/>
-      <c r="O96" s="375"/>
-      <c r="P96" s="375"/>
+      <c r="J96" s="343"/>
+      <c r="K96" s="343"/>
+      <c r="L96" s="343"/>
+      <c r="M96" s="343"/>
+      <c r="N96" s="343"/>
+      <c r="O96" s="343"/>
+      <c r="P96" s="343"/>
     </row>
     <row r="98" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I98" s="376" t="s">
+      <c r="I98" s="344" t="s">
         <v>447</v>
       </c>
-      <c r="J98" s="376"/>
-      <c r="K98" s="376"/>
-      <c r="L98" s="376"/>
-      <c r="M98" s="376"/>
-      <c r="N98" s="376"/>
-      <c r="O98" s="376"/>
-      <c r="P98" s="376"/>
+      <c r="J98" s="344"/>
+      <c r="K98" s="344"/>
+      <c r="L98" s="344"/>
+      <c r="M98" s="344"/>
+      <c r="N98" s="344"/>
+      <c r="O98" s="344"/>
+      <c r="P98" s="344"/>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="N21:X22"/>
+    <mergeCell ref="D25:W25"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:K27"/>
+    <mergeCell ref="L26:Q27"/>
+    <mergeCell ref="R26:W27"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="D38:W38"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="F39:K40"/>
+    <mergeCell ref="L39:Q40"/>
+    <mergeCell ref="R39:W40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="A64:X65"/>
+    <mergeCell ref="A68:X72"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:T75"/>
+    <mergeCell ref="U75:X75"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="L46:Q46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="L45:Q45"/>
+    <mergeCell ref="R45:W45"/>
+    <mergeCell ref="L42:Q42"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="I94:P94"/>
+    <mergeCell ref="I95:P95"/>
+    <mergeCell ref="I96:P96"/>
+    <mergeCell ref="I98:P98"/>
+    <mergeCell ref="A83:X84"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="O76:T76"/>
+    <mergeCell ref="U76:X76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="O77:T77"/>
+    <mergeCell ref="U77:X77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="O78:T78"/>
+    <mergeCell ref="U78:X78"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:K34"/>
     <mergeCell ref="L34:Q34"/>
@@ -41738,102 +41837,6 @@
     <mergeCell ref="L44:Q44"/>
     <mergeCell ref="R44:W44"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="I94:P94"/>
-    <mergeCell ref="I95:P95"/>
-    <mergeCell ref="I96:P96"/>
-    <mergeCell ref="I98:P98"/>
-    <mergeCell ref="A83:X84"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="O76:T76"/>
-    <mergeCell ref="U76:X76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="O77:T77"/>
-    <mergeCell ref="U77:X77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="O78:T78"/>
-    <mergeCell ref="U78:X78"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="L45:Q45"/>
-    <mergeCell ref="R45:W45"/>
-    <mergeCell ref="L42:Q42"/>
-    <mergeCell ref="R42:W42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="R43:W43"/>
-    <mergeCell ref="A64:X65"/>
-    <mergeCell ref="A68:X72"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:T75"/>
-    <mergeCell ref="U75:X75"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="L46:Q46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="D38:W38"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="F39:K40"/>
-    <mergeCell ref="L39:Q40"/>
-    <mergeCell ref="R39:W40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="L41:Q41"/>
-    <mergeCell ref="R41:W41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="N21:X22"/>
-    <mergeCell ref="D25:W25"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:K27"/>
-    <mergeCell ref="L26:Q27"/>
-    <mergeCell ref="R26:W27"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N11:Q11"/>
   </mergeCells>
   <conditionalFormatting sqref="A87">
     <cfRule type="cellIs" priority="1" operator="equal">
@@ -41889,14 +41892,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B2" s="378" t="s">
+      <c r="B2" s="387" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="378"/>
-      <c r="D2" s="378"/>
-      <c r="E2" s="378"/>
-      <c r="F2" s="378"/>
-      <c r="G2" s="378"/>
+      <c r="C2" s="387"/>
+      <c r="D2" s="387"/>
+      <c r="E2" s="387"/>
+      <c r="F2" s="387"/>
+      <c r="G2" s="387"/>
       <c r="I2" s="268"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
@@ -41916,14 +41919,14 @@
       <c r="E4" s="269"/>
       <c r="F4" s="269"/>
       <c r="G4" s="269"/>
-      <c r="I4" s="380" t="s">
+      <c r="I4" s="388" t="s">
         <v>530</v>
       </c>
-      <c r="J4" s="380"/>
-      <c r="K4" s="380" t="s">
+      <c r="J4" s="388"/>
+      <c r="K4" s="388" t="s">
         <v>531</v>
       </c>
-      <c r="L4" s="380"/>
+      <c r="L4" s="388"/>
       <c r="N4" s="15" t="s">
         <v>532</v>
       </c>
@@ -41936,12 +41939,12 @@
       <c r="C5" s="271" t="s">
         <v>534</v>
       </c>
-      <c r="D5" s="381" t="s">
+      <c r="D5" s="380" t="s">
         <v>535</v>
       </c>
-      <c r="E5" s="382"/>
-      <c r="F5" s="382"/>
-      <c r="G5" s="383"/>
+      <c r="E5" s="381"/>
+      <c r="F5" s="381"/>
+      <c r="G5" s="382"/>
       <c r="I5" s="272" t="s">
         <v>135</v>
       </c>
@@ -41969,32 +41972,32 @@
       <c r="Q5" s="272" t="s">
         <v>540</v>
       </c>
-      <c r="W5" s="377" t="s">
+      <c r="W5" s="386" t="s">
         <v>727</v>
       </c>
-      <c r="X5" s="377"/>
-      <c r="Y5" s="377"/>
-      <c r="Z5" s="377"/>
-      <c r="AA5" s="377"/>
-      <c r="AB5" s="377"/>
-      <c r="AC5" s="377"/>
-      <c r="AD5" s="377"/>
+      <c r="X5" s="386"/>
+      <c r="Y5" s="386"/>
+      <c r="Z5" s="386"/>
+      <c r="AA5" s="386"/>
+      <c r="AB5" s="386"/>
+      <c r="AC5" s="386"/>
+      <c r="AD5" s="386"/>
     </row>
     <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="384">
+      <c r="B6" s="377">
         <v>-82.74</v>
       </c>
-      <c r="C6" s="384">
+      <c r="C6" s="377">
         <v>-0.06</v>
       </c>
-      <c r="D6" s="386" t="s">
+      <c r="D6" s="385" t="s">
         <v>721</v>
       </c>
-      <c r="E6" s="383"/>
-      <c r="F6" s="381" t="s">
+      <c r="E6" s="382"/>
+      <c r="F6" s="380" t="s">
         <v>722</v>
       </c>
-      <c r="G6" s="383"/>
+      <c r="G6" s="382"/>
       <c r="I6" s="27">
         <v>-82.74</v>
       </c>
@@ -42030,16 +42033,16 @@
       <c r="AD6" s="295"/>
     </row>
     <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="385"/>
-      <c r="C7" s="385"/>
-      <c r="D7" s="381" t="s">
+      <c r="B7" s="378"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="380" t="s">
         <v>541</v>
       </c>
-      <c r="E7" s="383"/>
-      <c r="F7" s="381" t="s">
+      <c r="E7" s="382"/>
+      <c r="F7" s="380" t="s">
         <v>542</v>
       </c>
-      <c r="G7" s="383"/>
+      <c r="G7" s="382"/>
       <c r="I7" s="27">
         <v>0.01</v>
       </c>
@@ -42165,40 +42168,40 @@
       <c r="C10" s="271" t="s">
         <v>534</v>
       </c>
-      <c r="D10" s="381" t="s">
+      <c r="D10" s="380" t="s">
         <v>535</v>
       </c>
-      <c r="E10" s="382"/>
-      <c r="F10" s="382"/>
-      <c r="G10" s="383"/>
+      <c r="E10" s="381"/>
+      <c r="F10" s="381"/>
+      <c r="G10" s="382"/>
     </row>
     <row r="11" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="384">
+      <c r="B11" s="377">
         <v>0.01</v>
       </c>
-      <c r="C11" s="384">
+      <c r="C11" s="377">
         <v>699.75</v>
       </c>
-      <c r="D11" s="386" t="s">
+      <c r="D11" s="385" t="s">
         <v>723</v>
       </c>
-      <c r="E11" s="383"/>
-      <c r="F11" s="381" t="s">
+      <c r="E11" s="382"/>
+      <c r="F11" s="380" t="s">
         <v>724</v>
       </c>
-      <c r="G11" s="383"/>
+      <c r="G11" s="382"/>
     </row>
     <row r="12" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="385"/>
-      <c r="C12" s="385"/>
-      <c r="D12" s="381" t="s">
+      <c r="B12" s="378"/>
+      <c r="C12" s="378"/>
+      <c r="D12" s="380" t="s">
         <v>541</v>
       </c>
-      <c r="E12" s="383"/>
-      <c r="F12" s="381" t="s">
+      <c r="E12" s="382"/>
+      <c r="F12" s="380" t="s">
         <v>542</v>
       </c>
-      <c r="G12" s="383"/>
+      <c r="G12" s="382"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B13" s="269"/>
@@ -42221,38 +42224,38 @@
         <v>532</v>
       </c>
       <c r="J14" s="15"/>
-      <c r="K14" s="387" t="s">
+      <c r="K14" s="383" t="s">
         <v>732</v>
       </c>
-      <c r="L14" s="387"/>
-      <c r="M14" s="387"/>
+      <c r="L14" s="383"/>
+      <c r="M14" s="383"/>
       <c r="P14" s="15" t="s">
         <v>532</v>
       </c>
       <c r="Q14" s="15"/>
-      <c r="R14" s="387" t="s">
+      <c r="R14" s="383" t="s">
         <v>733</v>
       </c>
-      <c r="S14" s="387"/>
-      <c r="T14" s="387"/>
+      <c r="S14" s="383"/>
+      <c r="T14" s="383"/>
       <c r="W14" s="15" t="s">
         <v>532</v>
       </c>
       <c r="X14" s="15"/>
-      <c r="Y14" s="388" t="s">
+      <c r="Y14" s="384" t="s">
         <v>734</v>
       </c>
-      <c r="Z14" s="388"/>
-      <c r="AA14" s="388"/>
+      <c r="Z14" s="384"/>
+      <c r="AA14" s="384"/>
       <c r="AD14" s="15" t="s">
         <v>532</v>
       </c>
       <c r="AE14" s="15"/>
-      <c r="AF14" s="388" t="s">
+      <c r="AF14" s="384" t="s">
         <v>726</v>
       </c>
-      <c r="AG14" s="388"/>
-      <c r="AH14" s="388"/>
+      <c r="AG14" s="384"/>
+      <c r="AH14" s="384"/>
     </row>
     <row r="15" spans="2:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="270" t="s">
@@ -42261,12 +42264,12 @@
       <c r="C15" s="271" t="s">
         <v>534</v>
       </c>
-      <c r="D15" s="381" t="s">
+      <c r="D15" s="380" t="s">
         <v>535</v>
       </c>
-      <c r="E15" s="382"/>
-      <c r="F15" s="382"/>
-      <c r="G15" s="383"/>
+      <c r="E15" s="381"/>
+      <c r="F15" s="381"/>
+      <c r="G15" s="382"/>
       <c r="I15" s="274" t="s">
         <v>543</v>
       </c>
@@ -42329,20 +42332,20 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="384">
+      <c r="B16" s="377">
         <v>700</v>
       </c>
-      <c r="C16" s="384">
+      <c r="C16" s="377">
         <v>7000</v>
       </c>
-      <c r="D16" s="381" t="s">
+      <c r="D16" s="380" t="s">
         <v>547</v>
       </c>
-      <c r="E16" s="383"/>
-      <c r="F16" s="381" t="s">
+      <c r="E16" s="382"/>
+      <c r="F16" s="380" t="s">
         <v>725</v>
       </c>
-      <c r="G16" s="383"/>
+      <c r="G16" s="382"/>
       <c r="I16" s="20" t="s">
         <v>548</v>
       </c>
@@ -42421,16 +42424,16 @@
       </c>
     </row>
     <row r="17" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="385"/>
-      <c r="C17" s="385"/>
-      <c r="D17" s="381" t="s">
+      <c r="B17" s="378"/>
+      <c r="C17" s="378"/>
+      <c r="D17" s="380" t="s">
         <v>541</v>
       </c>
-      <c r="E17" s="383"/>
-      <c r="F17" s="381" t="s">
+      <c r="E17" s="382"/>
+      <c r="F17" s="380" t="s">
         <v>542</v>
       </c>
-      <c r="G17" s="383"/>
+      <c r="G17" s="382"/>
       <c r="I17" s="20" t="s">
         <v>549</v>
       </c>
@@ -42680,12 +42683,12 @@
       <c r="C20" s="271" t="s">
         <v>534</v>
       </c>
-      <c r="D20" s="381" t="s">
+      <c r="D20" s="380" t="s">
         <v>535</v>
       </c>
-      <c r="E20" s="382"/>
-      <c r="F20" s="382"/>
-      <c r="G20" s="383"/>
+      <c r="E20" s="381"/>
+      <c r="F20" s="381"/>
+      <c r="G20" s="382"/>
       <c r="I20" s="20" t="s">
         <v>552</v>
       </c>
@@ -42764,20 +42767,20 @@
       </c>
     </row>
     <row r="21" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="384">
+      <c r="B21" s="377">
         <v>7001</v>
       </c>
-      <c r="C21" s="384">
+      <c r="C21" s="377">
         <v>34500</v>
       </c>
-      <c r="D21" s="381" t="s">
+      <c r="D21" s="380" t="s">
         <v>553</v>
       </c>
-      <c r="E21" s="383"/>
-      <c r="F21" s="381" t="s">
+      <c r="E21" s="382"/>
+      <c r="F21" s="380" t="s">
         <v>726</v>
       </c>
-      <c r="G21" s="383"/>
+      <c r="G21" s="382"/>
       <c r="I21" s="20" t="s">
         <v>554</v>
       </c>
@@ -42856,16 +42859,16 @@
       </c>
     </row>
     <row r="22" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="385"/>
-      <c r="C22" s="385"/>
-      <c r="D22" s="381" t="s">
+      <c r="B22" s="378"/>
+      <c r="C22" s="378"/>
+      <c r="D22" s="380" t="s">
         <v>541</v>
       </c>
-      <c r="E22" s="383"/>
-      <c r="F22" s="381" t="s">
+      <c r="E22" s="382"/>
+      <c r="F22" s="380" t="s">
         <v>542</v>
       </c>
-      <c r="G22" s="383"/>
+      <c r="G22" s="382"/>
       <c r="I22" s="20" t="s">
         <v>555</v>
       </c>
@@ -43222,75 +43225,49 @@
       </c>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="I28" s="384">
+      <c r="I28" s="377">
         <v>-82.74</v>
       </c>
-      <c r="J28" s="384">
+      <c r="J28" s="377">
         <v>-0.06</v>
       </c>
-      <c r="P28" s="384">
+      <c r="P28" s="377">
         <v>0.01</v>
       </c>
-      <c r="Q28" s="384">
+      <c r="Q28" s="377">
         <v>699.75</v>
       </c>
-      <c r="W28" s="384">
+      <c r="W28" s="377">
         <v>700</v>
       </c>
-      <c r="X28" s="384">
+      <c r="X28" s="377">
         <v>7000</v>
       </c>
-      <c r="AD28" s="384">
+      <c r="AD28" s="377">
         <v>7001</v>
       </c>
-      <c r="AE28" s="384">
+      <c r="AE28" s="377">
         <v>34500</v>
       </c>
     </row>
     <row r="29" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I29" s="385"/>
-      <c r="J29" s="385"/>
-      <c r="P29" s="385"/>
-      <c r="Q29" s="385"/>
-      <c r="W29" s="385"/>
-      <c r="X29" s="385"/>
-      <c r="AD29" s="385"/>
-      <c r="AE29" s="385"/>
+      <c r="I29" s="378"/>
+      <c r="J29" s="378"/>
+      <c r="P29" s="378"/>
+      <c r="Q29" s="378"/>
+      <c r="W29" s="378"/>
+      <c r="X29" s="378"/>
+      <c r="AD29" s="378"/>
+      <c r="AE29" s="378"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="W5:AD5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D5:G5"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D10:G10"/>
@@ -43305,12 +43282,38 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="W5:AD5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="135" orientation="landscape" r:id="rId1"/>
@@ -43322,7 +43325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A5:X18"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:X17"/>
     </sheetView>
   </sheetViews>
@@ -43433,748 +43436,778 @@
       <c r="V7" s="9"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="359" t="s">
+      <c r="A8" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="360"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="361"/>
-      <c r="G8" s="359" t="s">
+      <c r="B8" s="353"/>
+      <c r="C8" s="353"/>
+      <c r="D8" s="353"/>
+      <c r="E8" s="353"/>
+      <c r="F8" s="354"/>
+      <c r="G8" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="360"/>
-      <c r="I8" s="361"/>
-      <c r="J8" s="362" t="s">
+      <c r="H8" s="353"/>
+      <c r="I8" s="354"/>
+      <c r="J8" s="355" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="363"/>
-      <c r="L8" s="363"/>
-      <c r="M8" s="363"/>
-      <c r="N8" s="364"/>
-      <c r="O8" s="359" t="s">
+      <c r="K8" s="356"/>
+      <c r="L8" s="356"/>
+      <c r="M8" s="356"/>
+      <c r="N8" s="357"/>
+      <c r="O8" s="352" t="s">
         <v>440</v>
       </c>
-      <c r="P8" s="360"/>
-      <c r="Q8" s="360"/>
-      <c r="R8" s="360"/>
-      <c r="S8" s="360"/>
-      <c r="T8" s="361"/>
-      <c r="U8" s="362" t="s">
+      <c r="P8" s="353"/>
+      <c r="Q8" s="353"/>
+      <c r="R8" s="353"/>
+      <c r="S8" s="353"/>
+      <c r="T8" s="354"/>
+      <c r="U8" s="355" t="s">
         <v>441</v>
       </c>
-      <c r="V8" s="363"/>
-      <c r="W8" s="363"/>
-      <c r="X8" s="364"/>
+      <c r="V8" s="356"/>
+      <c r="W8" s="356"/>
+      <c r="X8" s="357"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="367" t="s">
+      <c r="A9" s="345" t="s">
         <v>449</v>
       </c>
-      <c r="B9" s="368" t="s">
+      <c r="B9" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="C9" s="368" t="s">
+      <c r="C9" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="D9" s="368" t="s">
+      <c r="D9" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="E9" s="368" t="s">
+      <c r="E9" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="F9" s="369" t="s">
+      <c r="F9" s="347" t="s">
         <v>449</v>
       </c>
-      <c r="G9" s="367" t="s">
+      <c r="G9" s="345" t="s">
         <v>285</v>
       </c>
-      <c r="H9" s="368" t="s">
+      <c r="H9" s="346" t="s">
         <v>285</v>
       </c>
-      <c r="I9" s="369" t="s">
+      <c r="I9" s="347" t="s">
         <v>285</v>
       </c>
-      <c r="J9" s="370" t="s">
+      <c r="J9" s="348" t="s">
         <v>706</v>
       </c>
-      <c r="K9" s="371" t="s">
+      <c r="K9" s="349" t="s">
         <v>451</v>
       </c>
-      <c r="L9" s="371">
+      <c r="L9" s="349">
         <v>43368</v>
       </c>
-      <c r="M9" s="371" t="s">
+      <c r="M9" s="349" t="s">
         <v>450</v>
       </c>
-      <c r="N9" s="372" t="s">
+      <c r="N9" s="350" t="s">
         <v>451</v>
       </c>
-      <c r="O9" s="367" t="s">
+      <c r="O9" s="345" t="s">
         <v>451</v>
       </c>
-      <c r="P9" s="368" t="s">
+      <c r="P9" s="346" t="s">
         <v>451</v>
       </c>
-      <c r="Q9" s="368" t="s">
+      <c r="Q9" s="346" t="s">
         <v>451</v>
       </c>
-      <c r="R9" s="368" t="s">
+      <c r="R9" s="346" t="s">
         <v>451</v>
       </c>
-      <c r="S9" s="368" t="s">
+      <c r="S9" s="346" t="s">
         <v>451</v>
       </c>
-      <c r="T9" s="369" t="s">
+      <c r="T9" s="347" t="s">
         <v>451</v>
       </c>
-      <c r="U9" s="370">
+      <c r="U9" s="348">
         <v>44096</v>
       </c>
-      <c r="V9" s="371" t="s">
+      <c r="V9" s="349" t="s">
         <v>450</v>
       </c>
-      <c r="W9" s="371" t="s">
+      <c r="W9" s="349" t="s">
         <v>451</v>
       </c>
-      <c r="X9" s="372">
+      <c r="X9" s="350">
         <v>43368</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="367" t="s">
+      <c r="A10" s="345" t="s">
         <v>449</v>
       </c>
-      <c r="B10" s="368" t="s">
+      <c r="B10" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="C10" s="368" t="s">
+      <c r="C10" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="D10" s="368" t="s">
+      <c r="D10" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="E10" s="368" t="s">
+      <c r="E10" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="F10" s="369" t="s">
+      <c r="F10" s="347" t="s">
         <v>449</v>
       </c>
-      <c r="G10" s="367" t="s">
+      <c r="G10" s="345" t="s">
         <v>293</v>
       </c>
-      <c r="H10" s="368" t="s">
+      <c r="H10" s="346" t="s">
         <v>293</v>
       </c>
-      <c r="I10" s="369" t="s">
+      <c r="I10" s="347" t="s">
         <v>293</v>
       </c>
-      <c r="J10" s="370" t="s">
+      <c r="J10" s="348" t="s">
         <v>707</v>
       </c>
-      <c r="K10" s="371" t="s">
+      <c r="K10" s="349" t="s">
         <v>451</v>
       </c>
-      <c r="L10" s="371">
+      <c r="L10" s="349">
         <v>43369</v>
       </c>
-      <c r="M10" s="371" t="s">
+      <c r="M10" s="349" t="s">
         <v>708</v>
       </c>
-      <c r="N10" s="372" t="s">
+      <c r="N10" s="350" t="s">
         <v>451</v>
       </c>
-      <c r="O10" s="367" t="s">
+      <c r="O10" s="345" t="s">
         <v>451</v>
       </c>
-      <c r="P10" s="368" t="s">
+      <c r="P10" s="346" t="s">
         <v>451</v>
       </c>
-      <c r="Q10" s="368" t="s">
+      <c r="Q10" s="346" t="s">
         <v>451</v>
       </c>
-      <c r="R10" s="368" t="s">
+      <c r="R10" s="346" t="s">
         <v>451</v>
       </c>
-      <c r="S10" s="368" t="s">
+      <c r="S10" s="346" t="s">
         <v>451</v>
       </c>
-      <c r="T10" s="369" t="s">
+      <c r="T10" s="347" t="s">
         <v>451</v>
       </c>
-      <c r="U10" s="370">
+      <c r="U10" s="348">
         <v>44431</v>
       </c>
-      <c r="V10" s="371" t="s">
+      <c r="V10" s="349" t="s">
         <v>708</v>
       </c>
-      <c r="W10" s="371" t="s">
+      <c r="W10" s="349" t="s">
         <v>451</v>
       </c>
-      <c r="X10" s="372">
+      <c r="X10" s="350">
         <v>43369</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="367" t="s">
+      <c r="A11" s="345" t="s">
         <v>709</v>
       </c>
-      <c r="B11" s="368" t="s">
+      <c r="B11" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="C11" s="368" t="s">
+      <c r="C11" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="368" t="s">
+      <c r="D11" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="E11" s="368" t="s">
+      <c r="E11" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="F11" s="369" t="s">
+      <c r="F11" s="347" t="s">
         <v>449</v>
       </c>
-      <c r="G11" s="367" t="s">
+      <c r="G11" s="345" t="s">
         <v>294</v>
       </c>
-      <c r="H11" s="368" t="s">
+      <c r="H11" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I11" s="369" t="s">
+      <c r="I11" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J11" s="370" t="s">
+      <c r="J11" s="348" t="s">
         <v>698</v>
       </c>
-      <c r="K11" s="371" t="s">
+      <c r="K11" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L11" s="371">
+      <c r="L11" s="349">
         <v>43392</v>
       </c>
-      <c r="M11" s="371" t="s">
+      <c r="M11" s="349" t="s">
         <v>452</v>
       </c>
-      <c r="N11" s="372" t="s">
+      <c r="N11" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O11" s="367" t="s">
+      <c r="O11" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P11" s="368" t="s">
+      <c r="P11" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q11" s="368" t="s">
+      <c r="Q11" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R11" s="368" t="s">
+      <c r="R11" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S11" s="368" t="s">
+      <c r="S11" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T11" s="369" t="s">
+      <c r="T11" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U11" s="370">
+      <c r="U11" s="348">
         <v>44083</v>
       </c>
-      <c r="V11" s="371" t="s">
+      <c r="V11" s="349" t="s">
         <v>452</v>
       </c>
-      <c r="W11" s="371" t="s">
+      <c r="W11" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X11" s="372">
+      <c r="X11" s="350">
         <v>43392</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="367" t="s">
+      <c r="A12" s="345" t="s">
         <v>709</v>
       </c>
-      <c r="B12" s="368" t="s">
+      <c r="B12" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="368" t="s">
+      <c r="C12" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="D12" s="368" t="s">
+      <c r="D12" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="E12" s="368" t="s">
+      <c r="E12" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="F12" s="369" t="s">
+      <c r="F12" s="347" t="s">
         <v>449</v>
       </c>
-      <c r="G12" s="367" t="s">
+      <c r="G12" s="345" t="s">
         <v>477</v>
       </c>
-      <c r="H12" s="368" t="s">
+      <c r="H12" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I12" s="369" t="s">
+      <c r="I12" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J12" s="370" t="s">
+      <c r="J12" s="348" t="s">
         <v>700</v>
       </c>
-      <c r="K12" s="371" t="s">
+      <c r="K12" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L12" s="371">
+      <c r="L12" s="349">
         <v>43393</v>
       </c>
-      <c r="M12" s="371" t="s">
+      <c r="M12" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="N12" s="372" t="s">
+      <c r="N12" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O12" s="367" t="s">
+      <c r="O12" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P12" s="368" t="s">
+      <c r="P12" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q12" s="368" t="s">
+      <c r="Q12" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R12" s="368" t="s">
+      <c r="R12" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S12" s="368" t="s">
+      <c r="S12" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T12" s="369" t="s">
+      <c r="T12" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U12" s="370">
+      <c r="U12" s="348">
         <v>44058</v>
       </c>
-      <c r="V12" s="371" t="s">
+      <c r="V12" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="W12" s="371" t="s">
+      <c r="W12" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X12" s="372">
+      <c r="X12" s="350">
         <v>43393</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="367" t="s">
+      <c r="A13" s="345" t="s">
         <v>465</v>
       </c>
-      <c r="B13" s="368" t="s">
+      <c r="B13" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="C13" s="368" t="s">
+      <c r="C13" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="D13" s="368" t="s">
+      <c r="D13" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="E13" s="368" t="s">
+      <c r="E13" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="F13" s="369" t="s">
+      <c r="F13" s="347" t="s">
         <v>449</v>
       </c>
-      <c r="G13" s="367" t="s">
+      <c r="G13" s="345" t="s">
         <v>463</v>
       </c>
-      <c r="H13" s="368" t="s">
+      <c r="H13" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I13" s="369" t="s">
+      <c r="I13" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J13" s="370" t="s">
+      <c r="J13" s="348" t="s">
         <v>718</v>
       </c>
-      <c r="K13" s="371" t="s">
+      <c r="K13" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L13" s="371">
+      <c r="L13" s="349">
         <v>43393</v>
       </c>
-      <c r="M13" s="371" t="s">
+      <c r="M13" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="N13" s="372" t="s">
+      <c r="N13" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O13" s="367" t="s">
+      <c r="O13" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P13" s="368" t="s">
+      <c r="P13" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q13" s="368" t="s">
+      <c r="Q13" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R13" s="368" t="s">
+      <c r="R13" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S13" s="368" t="s">
+      <c r="S13" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T13" s="369" t="s">
+      <c r="T13" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U13" s="370">
+      <c r="U13" s="348">
         <v>44542</v>
       </c>
-      <c r="V13" s="371" t="s">
+      <c r="V13" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="W13" s="371" t="s">
+      <c r="W13" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X13" s="372">
+      <c r="X13" s="350">
         <v>43393</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="367" t="s">
+      <c r="A14" s="345" t="s">
         <v>710</v>
       </c>
-      <c r="B14" s="368"/>
-      <c r="C14" s="368"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="368"/>
-      <c r="F14" s="369"/>
-      <c r="G14" s="367" t="s">
+      <c r="B14" s="346"/>
+      <c r="C14" s="346"/>
+      <c r="D14" s="346"/>
+      <c r="E14" s="346"/>
+      <c r="F14" s="347"/>
+      <c r="G14" s="345" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="368" t="s">
+      <c r="H14" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I14" s="369" t="s">
+      <c r="I14" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J14" s="370" t="s">
+      <c r="J14" s="348" t="s">
         <v>711</v>
       </c>
-      <c r="K14" s="371" t="s">
+      <c r="K14" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L14" s="371">
+      <c r="L14" s="349">
         <v>43394</v>
       </c>
-      <c r="M14" s="371" t="s">
+      <c r="M14" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="N14" s="372" t="s">
+      <c r="N14" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O14" s="367" t="s">
+      <c r="O14" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P14" s="368" t="s">
+      <c r="P14" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q14" s="368" t="s">
+      <c r="Q14" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R14" s="368" t="s">
+      <c r="R14" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S14" s="368" t="s">
+      <c r="S14" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T14" s="369" t="s">
+      <c r="T14" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U14" s="370">
+      <c r="U14" s="348">
         <v>44158</v>
       </c>
-      <c r="V14" s="371" t="s">
+      <c r="V14" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="W14" s="371" t="s">
+      <c r="W14" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X14" s="372">
+      <c r="X14" s="350">
         <v>43394</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="367" t="s">
+      <c r="A15" s="345" t="s">
         <v>710</v>
       </c>
-      <c r="B15" s="368"/>
-      <c r="C15" s="368"/>
-      <c r="D15" s="368"/>
-      <c r="E15" s="368"/>
-      <c r="F15" s="369"/>
-      <c r="G15" s="367" t="s">
+      <c r="B15" s="346"/>
+      <c r="C15" s="346"/>
+      <c r="D15" s="346"/>
+      <c r="E15" s="346"/>
+      <c r="F15" s="347"/>
+      <c r="G15" s="345" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="368" t="s">
+      <c r="H15" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I15" s="369" t="s">
+      <c r="I15" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J15" s="370" t="s">
+      <c r="J15" s="348" t="s">
         <v>712</v>
       </c>
-      <c r="K15" s="371" t="s">
+      <c r="K15" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L15" s="371">
+      <c r="L15" s="349">
         <v>43394</v>
       </c>
-      <c r="M15" s="371" t="s">
+      <c r="M15" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="N15" s="372" t="s">
+      <c r="N15" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O15" s="367" t="s">
+      <c r="O15" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P15" s="368" t="s">
+      <c r="P15" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q15" s="368" t="s">
+      <c r="Q15" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R15" s="368" t="s">
+      <c r="R15" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S15" s="368" t="s">
+      <c r="S15" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T15" s="369" t="s">
+      <c r="T15" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U15" s="370">
+      <c r="U15" s="348">
         <v>44331</v>
       </c>
-      <c r="V15" s="371" t="s">
+      <c r="V15" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="W15" s="371" t="s">
+      <c r="W15" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X15" s="372">
+      <c r="X15" s="350">
         <v>43394</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="367" t="s">
+      <c r="A16" s="345" t="s">
         <v>710</v>
       </c>
-      <c r="B16" s="368"/>
-      <c r="C16" s="368"/>
-      <c r="D16" s="368"/>
-      <c r="E16" s="368"/>
-      <c r="F16" s="369"/>
-      <c r="G16" s="367" t="s">
+      <c r="B16" s="346"/>
+      <c r="C16" s="346"/>
+      <c r="D16" s="346"/>
+      <c r="E16" s="346"/>
+      <c r="F16" s="347"/>
+      <c r="G16" s="345" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="368" t="s">
+      <c r="H16" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I16" s="369" t="s">
+      <c r="I16" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J16" s="370" t="s">
+      <c r="J16" s="348" t="s">
         <v>713</v>
       </c>
-      <c r="K16" s="371" t="s">
+      <c r="K16" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L16" s="371">
+      <c r="L16" s="349">
         <v>43394</v>
       </c>
-      <c r="M16" s="371" t="s">
+      <c r="M16" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="N16" s="372" t="s">
+      <c r="N16" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O16" s="367" t="s">
+      <c r="O16" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P16" s="368" t="s">
+      <c r="P16" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q16" s="368" t="s">
+      <c r="Q16" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R16" s="368" t="s">
+      <c r="R16" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S16" s="368" t="s">
+      <c r="S16" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T16" s="369" t="s">
+      <c r="T16" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U16" s="370">
+      <c r="U16" s="348">
         <v>44331</v>
       </c>
-      <c r="V16" s="371" t="s">
+      <c r="V16" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="W16" s="371" t="s">
+      <c r="W16" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X16" s="372">
+      <c r="X16" s="350">
         <v>43394</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="367" t="s">
+      <c r="A17" s="345" t="s">
         <v>710</v>
       </c>
-      <c r="B17" s="368"/>
-      <c r="C17" s="368"/>
-      <c r="D17" s="368"/>
-      <c r="E17" s="368"/>
-      <c r="F17" s="369"/>
-      <c r="G17" s="367" t="s">
+      <c r="B17" s="346"/>
+      <c r="C17" s="346"/>
+      <c r="D17" s="346"/>
+      <c r="E17" s="346"/>
+      <c r="F17" s="347"/>
+      <c r="G17" s="345" t="s">
         <v>311</v>
       </c>
-      <c r="H17" s="368" t="s">
+      <c r="H17" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I17" s="369" t="s">
+      <c r="I17" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J17" s="370" t="s">
+      <c r="J17" s="348" t="s">
         <v>714</v>
       </c>
-      <c r="K17" s="371" t="s">
+      <c r="K17" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L17" s="371">
+      <c r="L17" s="349">
         <v>43394</v>
       </c>
-      <c r="M17" s="371" t="s">
+      <c r="M17" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="N17" s="372" t="s">
+      <c r="N17" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O17" s="367" t="s">
+      <c r="O17" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P17" s="368" t="s">
+      <c r="P17" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q17" s="368" t="s">
+      <c r="Q17" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R17" s="368" t="s">
+      <c r="R17" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S17" s="368" t="s">
+      <c r="S17" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T17" s="369" t="s">
+      <c r="T17" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U17" s="370">
+      <c r="U17" s="348">
         <v>44331</v>
       </c>
-      <c r="V17" s="371" t="s">
+      <c r="V17" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="W17" s="371" t="s">
+      <c r="W17" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X17" s="372">
+      <c r="X17" s="350">
         <v>43394</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="367" t="s">
+      <c r="A18" s="345" t="s">
         <v>470</v>
       </c>
-      <c r="B18" s="368" t="s">
+      <c r="B18" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="C18" s="368" t="s">
+      <c r="C18" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="D18" s="368" t="s">
+      <c r="D18" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="E18" s="368" t="s">
+      <c r="E18" s="346" t="s">
         <v>449</v>
       </c>
-      <c r="F18" s="369" t="s">
+      <c r="F18" s="347" t="s">
         <v>449</v>
       </c>
-      <c r="G18" s="367" t="s">
+      <c r="G18" s="345" t="s">
         <v>467</v>
       </c>
-      <c r="H18" s="368" t="s">
+      <c r="H18" s="346" t="s">
         <v>294</v>
       </c>
-      <c r="I18" s="369" t="s">
+      <c r="I18" s="347" t="s">
         <v>294</v>
       </c>
-      <c r="J18" s="370" t="s">
+      <c r="J18" s="348" t="s">
         <v>699</v>
       </c>
-      <c r="K18" s="371" t="s">
+      <c r="K18" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="L18" s="371">
+      <c r="L18" s="349">
         <v>43394</v>
       </c>
-      <c r="M18" s="371" t="s">
+      <c r="M18" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="N18" s="372" t="s">
+      <c r="N18" s="350" t="s">
         <v>453</v>
       </c>
-      <c r="O18" s="367" t="s">
+      <c r="O18" s="345" t="s">
         <v>453</v>
       </c>
-      <c r="P18" s="368" t="s">
+      <c r="P18" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="Q18" s="368" t="s">
+      <c r="Q18" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="R18" s="368" t="s">
+      <c r="R18" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="S18" s="368" t="s">
+      <c r="S18" s="346" t="s">
         <v>453</v>
       </c>
-      <c r="T18" s="369" t="s">
+      <c r="T18" s="347" t="s">
         <v>453</v>
       </c>
-      <c r="U18" s="370">
+      <c r="U18" s="348">
         <v>44331</v>
       </c>
-      <c r="V18" s="371" t="s">
+      <c r="V18" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="W18" s="371" t="s">
+      <c r="W18" s="349" t="s">
         <v>453</v>
       </c>
-      <c r="X18" s="372">
+      <c r="X18" s="350">
         <v>43394</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A5:X5"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="G10:I10"/>
@@ -44191,41 +44224,11 @@
     <mergeCell ref="J9:N9"/>
     <mergeCell ref="O9:T9"/>
     <mergeCell ref="U9:X9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="U13:X13"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -44321,23 +44324,23 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" s="395" t="s">
+      <c r="H4" s="392" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="396"/>
-      <c r="J4" s="395" t="s">
+      <c r="I4" s="393"/>
+      <c r="J4" s="392" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="396"/>
-      <c r="L4" s="397" t="s">
+      <c r="K4" s="393"/>
+      <c r="L4" s="394" t="s">
         <v>258</v>
       </c>
-      <c r="M4" s="399" t="s">
+      <c r="M4" s="396" t="s">
         <v>116</v>
       </c>
-      <c r="N4" s="400"/>
-      <c r="O4" s="400"/>
-      <c r="P4" s="401"/>
+      <c r="N4" s="397"/>
+      <c r="O4" s="397"/>
+      <c r="P4" s="398"/>
     </row>
     <row r="5" spans="2:23" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B5" s="47" t="s">
@@ -44370,11 +44373,11 @@
       <c r="K5" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="398"/>
-      <c r="M5" s="402"/>
-      <c r="N5" s="403"/>
-      <c r="O5" s="403"/>
-      <c r="P5" s="404"/>
+      <c r="L5" s="395"/>
+      <c r="M5" s="399"/>
+      <c r="N5" s="400"/>
+      <c r="O5" s="400"/>
+      <c r="P5" s="401"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
@@ -44618,26 +44621,26 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="393" t="s">
+      <c r="H13" s="390" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="394"/>
-      <c r="J13" s="393" t="s">
+      <c r="I13" s="391"/>
+      <c r="J13" s="390" t="s">
         <v>292</v>
       </c>
-      <c r="K13" s="394"/>
-      <c r="L13" s="393" t="s">
+      <c r="K13" s="391"/>
+      <c r="L13" s="390" t="s">
         <v>137</v>
       </c>
-      <c r="M13" s="394"/>
-      <c r="N13" s="393" t="s">
+      <c r="M13" s="391"/>
+      <c r="N13" s="390" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="394"/>
-      <c r="P13" s="393" t="s">
+      <c r="O13" s="391"/>
+      <c r="P13" s="390" t="s">
         <v>300</v>
       </c>
-      <c r="Q13" s="394"/>
+      <c r="Q13" s="391"/>
       <c r="T13" s="185" t="s">
         <v>330</v>
       </c>
@@ -46842,205 +46845,229 @@
       <c r="L89"/>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D90" s="390" t="s">
+      <c r="D90" s="402" t="s">
         <v>482</v>
       </c>
-      <c r="E90" s="391"/>
-      <c r="F90" s="391"/>
-      <c r="G90" s="392"/>
+      <c r="E90" s="403"/>
+      <c r="F90" s="403"/>
+      <c r="G90" s="404"/>
       <c r="L90"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D91" s="318" t="s">
+      <c r="D91" s="328" t="s">
         <v>483</v>
       </c>
-      <c r="E91" s="319"/>
-      <c r="F91" s="319"/>
-      <c r="G91" s="320"/>
+      <c r="E91" s="329"/>
+      <c r="F91" s="329"/>
+      <c r="G91" s="330"/>
       <c r="L91"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D92" s="318" t="s">
+      <c r="D92" s="328" t="s">
         <v>484</v>
       </c>
-      <c r="E92" s="319"/>
-      <c r="F92" s="319"/>
-      <c r="G92" s="320"/>
+      <c r="E92" s="329"/>
+      <c r="F92" s="329"/>
+      <c r="G92" s="330"/>
       <c r="L92"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D93" s="318" t="s">
+      <c r="D93" s="328" t="s">
         <v>485</v>
       </c>
-      <c r="E93" s="319"/>
-      <c r="F93" s="319"/>
-      <c r="G93" s="320"/>
+      <c r="E93" s="329"/>
+      <c r="F93" s="329"/>
+      <c r="G93" s="330"/>
       <c r="L93"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D94" s="318" t="s">
+      <c r="D94" s="328" t="s">
         <v>486</v>
       </c>
-      <c r="E94" s="319"/>
-      <c r="F94" s="319"/>
-      <c r="G94" s="320"/>
+      <c r="E94" s="329"/>
+      <c r="F94" s="329"/>
+      <c r="G94" s="330"/>
       <c r="L94"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D95" s="318" t="s">
+      <c r="D95" s="328" t="s">
         <v>487</v>
       </c>
-      <c r="E95" s="319"/>
-      <c r="F95" s="319"/>
-      <c r="G95" s="320"/>
+      <c r="E95" s="329"/>
+      <c r="F95" s="329"/>
+      <c r="G95" s="330"/>
       <c r="L95"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D96" s="318" t="s">
+      <c r="D96" s="328" t="s">
         <v>488</v>
       </c>
-      <c r="E96" s="319"/>
-      <c r="F96" s="319"/>
-      <c r="G96" s="320"/>
+      <c r="E96" s="329"/>
+      <c r="F96" s="329"/>
+      <c r="G96" s="330"/>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D97" s="318" t="s">
+      <c r="D97" s="328" t="s">
         <v>489</v>
       </c>
-      <c r="E97" s="319"/>
-      <c r="F97" s="319"/>
-      <c r="G97" s="320"/>
+      <c r="E97" s="329"/>
+      <c r="F97" s="329"/>
+      <c r="G97" s="330"/>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D98" s="318" t="s">
+      <c r="D98" s="328" t="s">
         <v>490</v>
       </c>
-      <c r="E98" s="319"/>
-      <c r="F98" s="319"/>
-      <c r="G98" s="320"/>
+      <c r="E98" s="329"/>
+      <c r="F98" s="329"/>
+      <c r="G98" s="330"/>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D99" s="318" t="s">
+      <c r="D99" s="328" t="s">
         <v>491</v>
       </c>
-      <c r="E99" s="319"/>
-      <c r="F99" s="319"/>
-      <c r="G99" s="320"/>
+      <c r="E99" s="329"/>
+      <c r="F99" s="329"/>
+      <c r="G99" s="330"/>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D100" s="318" t="s">
+      <c r="D100" s="328" t="s">
         <v>492</v>
       </c>
-      <c r="E100" s="319"/>
-      <c r="F100" s="319"/>
-      <c r="G100" s="320"/>
+      <c r="E100" s="329"/>
+      <c r="F100" s="329"/>
+      <c r="G100" s="330"/>
     </row>
     <row r="101" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D101" s="318" t="s">
+      <c r="D101" s="328" t="s">
         <v>493</v>
       </c>
-      <c r="E101" s="319"/>
-      <c r="F101" s="319"/>
-      <c r="G101" s="320"/>
+      <c r="E101" s="329"/>
+      <c r="F101" s="329"/>
+      <c r="G101" s="330"/>
     </row>
     <row r="102" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D102" s="318" t="s">
+      <c r="D102" s="328" t="s">
         <v>494</v>
       </c>
-      <c r="E102" s="319"/>
-      <c r="F102" s="319"/>
-      <c r="G102" s="320"/>
+      <c r="E102" s="329"/>
+      <c r="F102" s="329"/>
+      <c r="G102" s="330"/>
     </row>
     <row r="103" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D103" s="318" t="s">
+      <c r="D103" s="328" t="s">
         <v>495</v>
       </c>
-      <c r="E103" s="319"/>
-      <c r="F103" s="319"/>
-      <c r="G103" s="320"/>
+      <c r="E103" s="329"/>
+      <c r="F103" s="329"/>
+      <c r="G103" s="330"/>
     </row>
     <row r="104" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D104" s="318" t="s">
+      <c r="D104" s="328" t="s">
         <v>496</v>
       </c>
-      <c r="E104" s="319"/>
-      <c r="F104" s="319"/>
-      <c r="G104" s="320"/>
+      <c r="E104" s="329"/>
+      <c r="F104" s="329"/>
+      <c r="G104" s="330"/>
     </row>
     <row r="105" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D105" s="318" t="s">
+      <c r="D105" s="328" t="s">
         <v>497</v>
       </c>
-      <c r="E105" s="319"/>
-      <c r="F105" s="319"/>
-      <c r="G105" s="320"/>
+      <c r="E105" s="329"/>
+      <c r="F105" s="329"/>
+      <c r="G105" s="330"/>
     </row>
     <row r="106" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D106" s="318" t="s">
+      <c r="D106" s="328" t="s">
         <v>498</v>
       </c>
-      <c r="E106" s="319"/>
-      <c r="F106" s="319"/>
-      <c r="G106" s="320"/>
+      <c r="E106" s="329"/>
+      <c r="F106" s="329"/>
+      <c r="G106" s="330"/>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D107" s="318" t="s">
+      <c r="D107" s="328" t="s">
         <v>499</v>
       </c>
-      <c r="E107" s="319"/>
-      <c r="F107" s="319"/>
-      <c r="G107" s="320"/>
+      <c r="E107" s="329"/>
+      <c r="F107" s="329"/>
+      <c r="G107" s="330"/>
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D108" s="318" t="s">
+      <c r="D108" s="328" t="s">
         <v>500</v>
       </c>
-      <c r="E108" s="319"/>
-      <c r="F108" s="319"/>
-      <c r="G108" s="320"/>
+      <c r="E108" s="329"/>
+      <c r="F108" s="329"/>
+      <c r="G108" s="330"/>
     </row>
     <row r="109" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D109" s="318" t="s">
+      <c r="D109" s="328" t="s">
         <v>501</v>
       </c>
-      <c r="E109" s="319"/>
-      <c r="F109" s="319"/>
-      <c r="G109" s="320"/>
+      <c r="E109" s="329"/>
+      <c r="F109" s="329"/>
+      <c r="G109" s="330"/>
     </row>
     <row r="110" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D110" s="318" t="s">
+      <c r="D110" s="328" t="s">
         <v>502</v>
       </c>
-      <c r="E110" s="319"/>
-      <c r="F110" s="319"/>
-      <c r="G110" s="320"/>
+      <c r="E110" s="329"/>
+      <c r="F110" s="329"/>
+      <c r="G110" s="330"/>
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D111" s="318" t="s">
+      <c r="D111" s="328" t="s">
         <v>503</v>
       </c>
-      <c r="E111" s="319"/>
-      <c r="F111" s="319"/>
-      <c r="G111" s="320"/>
+      <c r="E111" s="329"/>
+      <c r="F111" s="329"/>
+      <c r="G111" s="330"/>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D112" s="318" t="s">
+      <c r="D112" s="328" t="s">
         <v>504</v>
       </c>
-      <c r="E112" s="319"/>
-      <c r="F112" s="319"/>
-      <c r="G112" s="320"/>
+      <c r="E112" s="329"/>
+      <c r="F112" s="329"/>
+      <c r="G112" s="330"/>
     </row>
     <row r="113" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D113" s="321" t="s">
+      <c r="D113" s="331" t="s">
         <v>505</v>
       </c>
-      <c r="E113" s="322"/>
-      <c r="F113" s="322"/>
-      <c r="G113" s="323"/>
+      <c r="E113" s="332"/>
+      <c r="F113" s="332"/>
+      <c r="G113" s="333"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D110:G110"/>
+    <mergeCell ref="D111:G111"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="D113:G113"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D94:G94"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
@@ -47050,30 +47077,6 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D110:G110"/>
-    <mergeCell ref="D111:G111"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="D113:G113"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="D109:G109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/src/modules/mail/templates/excels/ni_mcit_p_01_5.xlsx
+++ b/src/modules/mail/templates/excels/ni_mcit_p_01_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr showInkAnnotation="0" updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MamaGuevooooo\Desktop\Regxi\Metrocal-admin-backend\src\modules\mail\templates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD752E5-3A71-449D-84CC-2BE59723CE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A5B677-F226-4FFC-88C0-7A6BCA708FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="887" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="887" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="2" r:id="rId1"/>
@@ -7781,6 +7781,24 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7811,24 +7829,6 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7850,35 +7850,56 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -7901,71 +7922,53 @@
     <xf numFmtId="164" fontId="47" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7976,26 +7979,32 @@
     <xf numFmtId="0" fontId="52" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8032,15 +8041,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -13327,7 +13327,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-NI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14002,7 +14002,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-NI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14641,7 +14641,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-NI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -21952,10 +21952,10 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="N10" s="318" t="s">
+      <c r="N10" s="324" t="s">
         <v>475</v>
       </c>
-      <c r="O10" s="319"/>
+      <c r="O10" s="325"/>
       <c r="P10" s="263" t="str">
         <f>IFERROR(AVERAGE(P3,P5,P7),"")</f>
         <v/>
@@ -21985,10 +21985,10 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="320" t="s">
+      <c r="N11" s="326" t="s">
         <v>476</v>
       </c>
-      <c r="O11" s="321"/>
+      <c r="O11" s="327"/>
       <c r="P11" s="265" t="str">
         <f>IFERROR(AVERAGE(P4,P6,P8),"")</f>
         <v/>
@@ -22213,268 +22213,288 @@
       </c>
     </row>
     <row r="123" spans="23:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Y123" s="322" t="s">
+      <c r="Y123" s="328" t="s">
         <v>482</v>
       </c>
-      <c r="Z123" s="323"/>
-      <c r="AA123" s="323"/>
-      <c r="AB123" s="324"/>
+      <c r="Z123" s="329"/>
+      <c r="AA123" s="329"/>
+      <c r="AB123" s="330"/>
     </row>
     <row r="124" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W124" s="202" t="s">
         <v>276</v>
       </c>
-      <c r="Y124" s="325" t="s">
+      <c r="Y124" s="331" t="s">
         <v>483</v>
       </c>
-      <c r="Z124" s="326"/>
-      <c r="AA124" s="326"/>
-      <c r="AB124" s="327"/>
+      <c r="Z124" s="332"/>
+      <c r="AA124" s="332"/>
+      <c r="AB124" s="333"/>
     </row>
     <row r="125" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W125" s="202" t="s">
         <v>275</v>
       </c>
-      <c r="Y125" s="328" t="s">
+      <c r="Y125" s="318" t="s">
         <v>516</v>
       </c>
-      <c r="Z125" s="329"/>
-      <c r="AA125" s="329"/>
-      <c r="AB125" s="330"/>
+      <c r="Z125" s="319"/>
+      <c r="AA125" s="319"/>
+      <c r="AB125" s="320"/>
     </row>
     <row r="126" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W126" s="202" t="s">
         <v>277</v>
       </c>
-      <c r="Y126" s="328" t="s">
+      <c r="Y126" s="318" t="s">
         <v>485</v>
       </c>
-      <c r="Z126" s="329"/>
-      <c r="AA126" s="329"/>
-      <c r="AB126" s="330"/>
+      <c r="Z126" s="319"/>
+      <c r="AA126" s="319"/>
+      <c r="AB126" s="320"/>
     </row>
     <row r="127" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W127" s="202" t="s">
         <v>338</v>
       </c>
-      <c r="Y127" s="328" t="s">
+      <c r="Y127" s="318" t="s">
         <v>486</v>
       </c>
-      <c r="Z127" s="329"/>
-      <c r="AA127" s="329"/>
-      <c r="AB127" s="330"/>
+      <c r="Z127" s="319"/>
+      <c r="AA127" s="319"/>
+      <c r="AB127" s="320"/>
     </row>
     <row r="128" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W128" s="202" t="s">
         <v>278</v>
       </c>
-      <c r="Y128" s="328" t="s">
+      <c r="Y128" s="318" t="s">
         <v>487</v>
       </c>
-      <c r="Z128" s="329"/>
-      <c r="AA128" s="329"/>
-      <c r="AB128" s="330"/>
+      <c r="Z128" s="319"/>
+      <c r="AA128" s="319"/>
+      <c r="AB128" s="320"/>
     </row>
     <row r="129" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W129" s="202" t="s">
         <v>506</v>
       </c>
-      <c r="Y129" s="328" t="s">
+      <c r="Y129" s="318" t="s">
         <v>488</v>
       </c>
-      <c r="Z129" s="329"/>
-      <c r="AA129" s="329"/>
-      <c r="AB129" s="330"/>
+      <c r="Z129" s="319"/>
+      <c r="AA129" s="319"/>
+      <c r="AB129" s="320"/>
     </row>
     <row r="130" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W130" s="202" t="s">
         <v>507</v>
       </c>
-      <c r="Y130" s="328" t="s">
+      <c r="Y130" s="318" t="s">
         <v>489</v>
       </c>
-      <c r="Z130" s="329"/>
-      <c r="AA130" s="329"/>
-      <c r="AB130" s="330"/>
+      <c r="Z130" s="319"/>
+      <c r="AA130" s="319"/>
+      <c r="AB130" s="320"/>
     </row>
     <row r="131" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W131" s="202" t="s">
         <v>352</v>
       </c>
-      <c r="Y131" s="328" t="s">
+      <c r="Y131" s="318" t="s">
         <v>490</v>
       </c>
-      <c r="Z131" s="329"/>
-      <c r="AA131" s="329"/>
-      <c r="AB131" s="330"/>
+      <c r="Z131" s="319"/>
+      <c r="AA131" s="319"/>
+      <c r="AB131" s="320"/>
     </row>
     <row r="132" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W132" s="202" t="s">
         <v>353</v>
       </c>
-      <c r="Y132" s="328" t="s">
+      <c r="Y132" s="318" t="s">
         <v>491</v>
       </c>
-      <c r="Z132" s="329"/>
-      <c r="AA132" s="329"/>
-      <c r="AB132" s="330"/>
+      <c r="Z132" s="319"/>
+      <c r="AA132" s="319"/>
+      <c r="AB132" s="320"/>
     </row>
     <row r="133" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W133" s="202" t="s">
         <v>354</v>
       </c>
-      <c r="Y133" s="328" t="s">
+      <c r="Y133" s="318" t="s">
         <v>492</v>
       </c>
-      <c r="Z133" s="329"/>
-      <c r="AA133" s="329"/>
-      <c r="AB133" s="330"/>
+      <c r="Z133" s="319"/>
+      <c r="AA133" s="319"/>
+      <c r="AB133" s="320"/>
     </row>
     <row r="134" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W134" s="202" t="s">
         <v>508</v>
       </c>
-      <c r="Y134" s="328" t="s">
+      <c r="Y134" s="318" t="s">
         <v>511</v>
       </c>
-      <c r="Z134" s="329"/>
-      <c r="AA134" s="329"/>
-      <c r="AB134" s="330"/>
+      <c r="Z134" s="319"/>
+      <c r="AA134" s="319"/>
+      <c r="AB134" s="320"/>
     </row>
     <row r="135" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W135" s="202" t="s">
         <v>509</v>
       </c>
-      <c r="Y135" s="328" t="s">
+      <c r="Y135" s="318" t="s">
         <v>512</v>
       </c>
-      <c r="Z135" s="329"/>
-      <c r="AA135" s="329"/>
-      <c r="AB135" s="330"/>
+      <c r="Z135" s="319"/>
+      <c r="AA135" s="319"/>
+      <c r="AB135" s="320"/>
     </row>
     <row r="136" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W136" s="202" t="s">
         <v>510</v>
       </c>
-      <c r="Y136" s="328" t="s">
+      <c r="Y136" s="318" t="s">
         <v>495</v>
       </c>
-      <c r="Z136" s="329"/>
-      <c r="AA136" s="329"/>
-      <c r="AB136" s="330"/>
+      <c r="Z136" s="319"/>
+      <c r="AA136" s="319"/>
+      <c r="AB136" s="320"/>
     </row>
     <row r="137" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W137" s="202" t="s">
         <v>351</v>
       </c>
-      <c r="Y137" s="328" t="s">
+      <c r="Y137" s="318" t="s">
         <v>496</v>
       </c>
-      <c r="Z137" s="329"/>
-      <c r="AA137" s="329"/>
-      <c r="AB137" s="330"/>
+      <c r="Z137" s="319"/>
+      <c r="AA137" s="319"/>
+      <c r="AB137" s="320"/>
     </row>
     <row r="138" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W138" s="202" t="s">
         <v>517</v>
       </c>
-      <c r="Y138" s="328" t="s">
+      <c r="Y138" s="318" t="s">
         <v>518</v>
       </c>
-      <c r="Z138" s="329"/>
-      <c r="AA138" s="329"/>
-      <c r="AB138" s="330"/>
+      <c r="Z138" s="319"/>
+      <c r="AA138" s="319"/>
+      <c r="AB138" s="320"/>
     </row>
     <row r="139" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y139" s="328" t="s">
+      <c r="Y139" s="318" t="s">
         <v>498</v>
       </c>
-      <c r="Z139" s="329"/>
-      <c r="AA139" s="329"/>
-      <c r="AB139" s="330"/>
+      <c r="Z139" s="319"/>
+      <c r="AA139" s="319"/>
+      <c r="AB139" s="320"/>
     </row>
     <row r="140" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y140" s="328" t="s">
+      <c r="Y140" s="318" t="s">
         <v>499</v>
       </c>
-      <c r="Z140" s="329"/>
-      <c r="AA140" s="329"/>
-      <c r="AB140" s="330"/>
+      <c r="Z140" s="319"/>
+      <c r="AA140" s="319"/>
+      <c r="AB140" s="320"/>
     </row>
     <row r="141" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y141" s="328" t="s">
+      <c r="Y141" s="318" t="s">
         <v>500</v>
       </c>
-      <c r="Z141" s="329"/>
-      <c r="AA141" s="329"/>
-      <c r="AB141" s="330"/>
+      <c r="Z141" s="319"/>
+      <c r="AA141" s="319"/>
+      <c r="AB141" s="320"/>
     </row>
     <row r="142" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y142" s="328" t="s">
+      <c r="Y142" s="318" t="s">
         <v>513</v>
       </c>
-      <c r="Z142" s="329"/>
-      <c r="AA142" s="329"/>
-      <c r="AB142" s="330"/>
+      <c r="Z142" s="319"/>
+      <c r="AA142" s="319"/>
+      <c r="AB142" s="320"/>
     </row>
     <row r="143" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y143" s="328" t="s">
+      <c r="Y143" s="318" t="s">
         <v>502</v>
       </c>
-      <c r="Z143" s="329"/>
-      <c r="AA143" s="329"/>
-      <c r="AB143" s="330"/>
+      <c r="Z143" s="319"/>
+      <c r="AA143" s="319"/>
+      <c r="AB143" s="320"/>
     </row>
     <row r="144" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y144" s="328" t="s">
+      <c r="Y144" s="318" t="s">
         <v>503</v>
       </c>
-      <c r="Z144" s="329"/>
-      <c r="AA144" s="329"/>
-      <c r="AB144" s="330"/>
+      <c r="Z144" s="319"/>
+      <c r="AA144" s="319"/>
+      <c r="AB144" s="320"/>
     </row>
     <row r="145" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y145" s="328" t="s">
+      <c r="Y145" s="318" t="s">
         <v>504</v>
       </c>
-      <c r="Z145" s="329"/>
-      <c r="AA145" s="329"/>
-      <c r="AB145" s="330"/>
+      <c r="Z145" s="319"/>
+      <c r="AA145" s="319"/>
+      <c r="AB145" s="320"/>
     </row>
     <row r="146" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y146" s="328" t="s">
+      <c r="Y146" s="318" t="s">
         <v>505</v>
       </c>
-      <c r="Z146" s="329"/>
-      <c r="AA146" s="329"/>
-      <c r="AB146" s="330"/>
+      <c r="Z146" s="319"/>
+      <c r="AA146" s="319"/>
+      <c r="AB146" s="320"/>
     </row>
     <row r="147" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y147" s="328" t="s">
+      <c r="Y147" s="318" t="s">
         <v>514</v>
       </c>
-      <c r="Z147" s="329"/>
-      <c r="AA147" s="329"/>
-      <c r="AB147" s="330"/>
+      <c r="Z147" s="319"/>
+      <c r="AA147" s="319"/>
+      <c r="AB147" s="320"/>
     </row>
     <row r="148" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y148" s="328" t="s">
+      <c r="Y148" s="318" t="s">
         <v>515</v>
       </c>
-      <c r="Z148" s="329"/>
-      <c r="AA148" s="329"/>
-      <c r="AB148" s="330"/>
+      <c r="Z148" s="319"/>
+      <c r="AA148" s="319"/>
+      <c r="AB148" s="320"/>
     </row>
     <row r="149" spans="25:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Y149" s="331" t="s">
+      <c r="Y149" s="321" t="s">
         <v>519</v>
       </c>
-      <c r="Z149" s="332"/>
-      <c r="AA149" s="332"/>
-      <c r="AB149" s="333"/>
+      <c r="Z149" s="322"/>
+      <c r="AA149" s="322"/>
+      <c r="AB149" s="323"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Y123:AB123"/>
+    <mergeCell ref="Y124:AB124"/>
+    <mergeCell ref="Y125:AB125"/>
+    <mergeCell ref="Y126:AB126"/>
+    <mergeCell ref="Y127:AB127"/>
+    <mergeCell ref="Y128:AB128"/>
+    <mergeCell ref="Y129:AB129"/>
+    <mergeCell ref="Y130:AB130"/>
+    <mergeCell ref="Y131:AB131"/>
+    <mergeCell ref="Y132:AB132"/>
+    <mergeCell ref="Y133:AB133"/>
+    <mergeCell ref="Y134:AB134"/>
+    <mergeCell ref="Y135:AB135"/>
+    <mergeCell ref="Y136:AB136"/>
+    <mergeCell ref="Y137:AB137"/>
+    <mergeCell ref="Y138:AB138"/>
+    <mergeCell ref="Y139:AB139"/>
+    <mergeCell ref="Y140:AB140"/>
     <mergeCell ref="Y146:AB146"/>
     <mergeCell ref="Y147:AB147"/>
     <mergeCell ref="Y148:AB148"/>
@@ -22484,26 +22504,6 @@
     <mergeCell ref="Y143:AB143"/>
     <mergeCell ref="Y144:AB144"/>
     <mergeCell ref="Y145:AB145"/>
-    <mergeCell ref="Y136:AB136"/>
-    <mergeCell ref="Y137:AB137"/>
-    <mergeCell ref="Y138:AB138"/>
-    <mergeCell ref="Y139:AB139"/>
-    <mergeCell ref="Y140:AB140"/>
-    <mergeCell ref="Y131:AB131"/>
-    <mergeCell ref="Y132:AB132"/>
-    <mergeCell ref="Y133:AB133"/>
-    <mergeCell ref="Y134:AB134"/>
-    <mergeCell ref="Y135:AB135"/>
-    <mergeCell ref="Y126:AB126"/>
-    <mergeCell ref="Y127:AB127"/>
-    <mergeCell ref="Y128:AB128"/>
-    <mergeCell ref="Y129:AB129"/>
-    <mergeCell ref="Y130:AB130"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Y123:AB123"/>
-    <mergeCell ref="Y124:AB124"/>
-    <mergeCell ref="Y125:AB125"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -36154,10 +36154,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A6:Y116"/>
+  <dimension ref="A6:Y126"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A63" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:X75"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A92" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:X113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36203,20 +36203,20 @@
       <c r="K8" s="227"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="374" t="str">
+      <c r="N8" s="345" t="str">
         <f>General!F3</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O8" s="362"/>
-      <c r="P8" s="362"/>
-      <c r="Q8" s="362"/>
-      <c r="R8" s="362"/>
-      <c r="S8" s="362"/>
-      <c r="T8" s="362"/>
-      <c r="U8" s="362"/>
-      <c r="V8" s="362"/>
-      <c r="W8" s="362"/>
-      <c r="X8" s="362"/>
+      <c r="O8" s="346"/>
+      <c r="P8" s="346"/>
+      <c r="Q8" s="346"/>
+      <c r="R8" s="346"/>
+      <c r="S8" s="346"/>
+      <c r="T8" s="346"/>
+      <c r="U8" s="346"/>
+      <c r="V8" s="346"/>
+      <c r="W8" s="346"/>
+      <c r="X8" s="346"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="224" t="s">
@@ -36233,20 +36233,20 @@
       <c r="K9" s="227"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="373" t="str">
+      <c r="N9" s="347" t="str">
         <f>General!F4</f>
         <v>NI-CS-XXXX-XX</v>
       </c>
-      <c r="O9" s="364"/>
-      <c r="P9" s="364"/>
-      <c r="Q9" s="364"/>
-      <c r="R9" s="364"/>
-      <c r="S9" s="364"/>
-      <c r="T9" s="364"/>
-      <c r="U9" s="364"/>
-      <c r="V9" s="364"/>
-      <c r="W9" s="364"/>
-      <c r="X9" s="364"/>
+      <c r="O9" s="348"/>
+      <c r="P9" s="348"/>
+      <c r="Q9" s="348"/>
+      <c r="R9" s="348"/>
+      <c r="S9" s="348"/>
+      <c r="T9" s="348"/>
+      <c r="U9" s="348"/>
+      <c r="V9" s="348"/>
+      <c r="W9" s="348"/>
+      <c r="X9" s="348"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="224" t="s">
@@ -36263,20 +36263,20 @@
       <c r="K10" s="227"/>
       <c r="L10" s="228"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="375">
+      <c r="N10" s="349">
         <f>General!F5</f>
         <v>43299</v>
       </c>
-      <c r="O10" s="375"/>
-      <c r="P10" s="375"/>
-      <c r="Q10" s="375"/>
-      <c r="R10" s="375"/>
-      <c r="S10" s="375"/>
-      <c r="T10" s="375"/>
-      <c r="U10" s="375"/>
-      <c r="V10" s="375"/>
-      <c r="W10" s="375"/>
-      <c r="X10" s="375"/>
+      <c r="O10" s="349"/>
+      <c r="P10" s="349"/>
+      <c r="Q10" s="349"/>
+      <c r="R10" s="349"/>
+      <c r="S10" s="349"/>
+      <c r="T10" s="349"/>
+      <c r="U10" s="349"/>
+      <c r="V10" s="349"/>
+      <c r="W10" s="349"/>
+      <c r="X10" s="349"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="224" t="s">
@@ -36293,13 +36293,13 @@
       <c r="K11" s="227"/>
       <c r="L11" s="228"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="375">
+      <c r="N11" s="349">
         <f ca="1">NOW()</f>
-        <v>45502.468734606482</v>
-      </c>
-      <c r="O11" s="375"/>
-      <c r="P11" s="375"/>
-      <c r="Q11" s="375"/>
+        <v>45735.950283796294</v>
+      </c>
+      <c r="O11" s="349"/>
+      <c r="P11" s="349"/>
+      <c r="Q11" s="349"/>
       <c r="R11" s="279"/>
       <c r="S11" s="279"/>
       <c r="T11" s="279"/>
@@ -36323,20 +36323,20 @@
       <c r="K12" s="227"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="373" t="str">
+      <c r="N12" s="347" t="str">
         <f>General!F7</f>
         <v xml:space="preserve">Manómetro </v>
       </c>
-      <c r="O12" s="364"/>
-      <c r="P12" s="364"/>
-      <c r="Q12" s="364"/>
-      <c r="R12" s="364"/>
-      <c r="S12" s="364"/>
-      <c r="T12" s="364"/>
-      <c r="U12" s="364"/>
-      <c r="V12" s="364"/>
-      <c r="W12" s="364"/>
-      <c r="X12" s="364"/>
+      <c r="O12" s="348"/>
+      <c r="P12" s="348"/>
+      <c r="Q12" s="348"/>
+      <c r="R12" s="348"/>
+      <c r="S12" s="348"/>
+      <c r="T12" s="348"/>
+      <c r="U12" s="348"/>
+      <c r="V12" s="348"/>
+      <c r="W12" s="348"/>
+      <c r="X12" s="348"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="224" t="s">
@@ -36353,20 +36353,20 @@
       <c r="K13" s="227"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="373" t="str">
+      <c r="N13" s="347" t="str">
         <f>General!F10</f>
         <v>HEISE</v>
       </c>
-      <c r="O13" s="364"/>
-      <c r="P13" s="364"/>
-      <c r="Q13" s="364"/>
-      <c r="R13" s="364"/>
-      <c r="S13" s="364"/>
-      <c r="T13" s="364"/>
-      <c r="U13" s="364"/>
-      <c r="V13" s="364"/>
-      <c r="W13" s="364"/>
-      <c r="X13" s="364"/>
+      <c r="O13" s="348"/>
+      <c r="P13" s="348"/>
+      <c r="Q13" s="348"/>
+      <c r="R13" s="348"/>
+      <c r="S13" s="348"/>
+      <c r="T13" s="348"/>
+      <c r="U13" s="348"/>
+      <c r="V13" s="348"/>
+      <c r="W13" s="348"/>
+      <c r="X13" s="348"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="224" t="s">
@@ -36383,20 +36383,20 @@
       <c r="K14" s="227"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="373" t="str">
+      <c r="N14" s="347" t="str">
         <f>General!F12</f>
         <v>706340</v>
       </c>
-      <c r="O14" s="364"/>
-      <c r="P14" s="364"/>
-      <c r="Q14" s="364"/>
-      <c r="R14" s="364"/>
-      <c r="S14" s="364"/>
-      <c r="T14" s="364"/>
-      <c r="U14" s="364"/>
-      <c r="V14" s="364"/>
-      <c r="W14" s="364"/>
-      <c r="X14" s="364"/>
+      <c r="O14" s="348"/>
+      <c r="P14" s="348"/>
+      <c r="Q14" s="348"/>
+      <c r="R14" s="348"/>
+      <c r="S14" s="348"/>
+      <c r="T14" s="348"/>
+      <c r="U14" s="348"/>
+      <c r="V14" s="348"/>
+      <c r="W14" s="348"/>
+      <c r="X14" s="348"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="224" t="s">
@@ -36413,20 +36413,20 @@
       <c r="K15" s="227"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="373" t="str">
+      <c r="N15" s="347" t="str">
         <f>General!F11</f>
         <v>CC</v>
       </c>
-      <c r="O15" s="364"/>
-      <c r="P15" s="364"/>
-      <c r="Q15" s="364"/>
-      <c r="R15" s="364"/>
-      <c r="S15" s="364"/>
-      <c r="T15" s="364"/>
-      <c r="U15" s="364"/>
-      <c r="V15" s="364"/>
-      <c r="W15" s="364"/>
-      <c r="X15" s="364"/>
+      <c r="O15" s="348"/>
+      <c r="P15" s="348"/>
+      <c r="Q15" s="348"/>
+      <c r="R15" s="348"/>
+      <c r="S15" s="348"/>
+      <c r="T15" s="348"/>
+      <c r="U15" s="348"/>
+      <c r="V15" s="348"/>
+      <c r="W15" s="348"/>
+      <c r="X15" s="348"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="224" t="s">
@@ -36443,20 +36443,20 @@
       <c r="K16" s="227"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="373" t="str">
+      <c r="N16" s="347" t="str">
         <f>General!F18</f>
         <v>0 psi a 200 psi</v>
       </c>
-      <c r="O16" s="364"/>
-      <c r="P16" s="364"/>
-      <c r="Q16" s="364"/>
-      <c r="R16" s="364"/>
-      <c r="S16" s="364"/>
-      <c r="T16" s="364"/>
-      <c r="U16" s="364"/>
-      <c r="V16" s="364"/>
-      <c r="W16" s="364"/>
-      <c r="X16" s="364"/>
+      <c r="O16" s="348"/>
+      <c r="P16" s="348"/>
+      <c r="Q16" s="348"/>
+      <c r="R16" s="348"/>
+      <c r="S16" s="348"/>
+      <c r="T16" s="348"/>
+      <c r="U16" s="348"/>
+      <c r="V16" s="348"/>
+      <c r="W16" s="348"/>
+      <c r="X16" s="348"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="224" t="s">
@@ -36473,16 +36473,16 @@
       <c r="K17" s="227"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="373" t="str">
+      <c r="N17" s="347" t="str">
         <f>General!F15</f>
         <v>1</v>
       </c>
-      <c r="O17" s="364"/>
-      <c r="P17" s="373" t="str">
+      <c r="O17" s="348"/>
+      <c r="P17" s="347" t="str">
         <f>General!F16</f>
         <v>psi</v>
       </c>
-      <c r="Q17" s="364"/>
+      <c r="Q17" s="348"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -36506,20 +36506,20 @@
       <c r="K18" s="227"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="373" t="str">
+      <c r="N18" s="347" t="str">
         <f>General!F6</f>
         <v>706340</v>
       </c>
-      <c r="O18" s="364"/>
-      <c r="P18" s="364"/>
-      <c r="Q18" s="364"/>
-      <c r="R18" s="364"/>
-      <c r="S18" s="364"/>
-      <c r="T18" s="364"/>
-      <c r="U18" s="364"/>
-      <c r="V18" s="364"/>
-      <c r="W18" s="364"/>
-      <c r="X18" s="364"/>
+      <c r="O18" s="348"/>
+      <c r="P18" s="348"/>
+      <c r="Q18" s="348"/>
+      <c r="R18" s="348"/>
+      <c r="S18" s="348"/>
+      <c r="T18" s="348"/>
+      <c r="U18" s="348"/>
+      <c r="V18" s="348"/>
+      <c r="W18" s="348"/>
+      <c r="X18" s="348"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="224" t="s">
@@ -36536,20 +36536,20 @@
       <c r="K19" s="227"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="373" t="str">
+      <c r="N19" s="347" t="str">
         <f>General!L3</f>
         <v xml:space="preserve">A&amp;T Nicaragua S.A. </v>
       </c>
-      <c r="O19" s="364"/>
-      <c r="P19" s="364"/>
-      <c r="Q19" s="364"/>
-      <c r="R19" s="364"/>
-      <c r="S19" s="364"/>
-      <c r="T19" s="364"/>
-      <c r="U19" s="364"/>
-      <c r="V19" s="364"/>
-      <c r="W19" s="364"/>
-      <c r="X19" s="364"/>
+      <c r="O19" s="348"/>
+      <c r="P19" s="348"/>
+      <c r="Q19" s="348"/>
+      <c r="R19" s="348"/>
+      <c r="S19" s="348"/>
+      <c r="T19" s="348"/>
+      <c r="U19" s="348"/>
+      <c r="V19" s="348"/>
+      <c r="W19" s="348"/>
+      <c r="X19" s="348"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
@@ -36566,20 +36566,20 @@
       <c r="K20" s="227"/>
       <c r="L20" s="10"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="364" t="str">
+      <c r="N20" s="348" t="str">
         <f>General!L4</f>
         <v xml:space="preserve">Coyotepe, 800 m norte               </v>
       </c>
-      <c r="O20" s="364"/>
-      <c r="P20" s="364"/>
-      <c r="Q20" s="364"/>
-      <c r="R20" s="364"/>
-      <c r="S20" s="364"/>
-      <c r="T20" s="364"/>
-      <c r="U20" s="364"/>
-      <c r="V20" s="364"/>
-      <c r="W20" s="364"/>
-      <c r="X20" s="364"/>
+      <c r="O20" s="348"/>
+      <c r="P20" s="348"/>
+      <c r="Q20" s="348"/>
+      <c r="R20" s="348"/>
+      <c r="S20" s="348"/>
+      <c r="T20" s="348"/>
+      <c r="U20" s="348"/>
+      <c r="V20" s="348"/>
+      <c r="W20" s="348"/>
+      <c r="X20" s="348"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="224" t="s">
@@ -36596,34 +36596,34 @@
       <c r="K21" s="227"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="376" t="str">
+      <c r="N21" s="350" t="str">
         <f>General!L6</f>
         <v xml:space="preserve">Laboratorio #2 Metrocal </v>
       </c>
-      <c r="O21" s="376"/>
-      <c r="P21" s="376"/>
-      <c r="Q21" s="376"/>
-      <c r="R21" s="376"/>
-      <c r="S21" s="376"/>
-      <c r="T21" s="376"/>
-      <c r="U21" s="376"/>
-      <c r="V21" s="376"/>
-      <c r="W21" s="376"/>
-      <c r="X21" s="376"/>
+      <c r="O21" s="350"/>
+      <c r="P21" s="350"/>
+      <c r="Q21" s="350"/>
+      <c r="R21" s="350"/>
+      <c r="S21" s="350"/>
+      <c r="T21" s="350"/>
+      <c r="U21" s="350"/>
+      <c r="V21" s="350"/>
+      <c r="W21" s="350"/>
+      <c r="X21" s="350"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="224"/>
-      <c r="N22" s="376"/>
-      <c r="O22" s="376"/>
-      <c r="P22" s="376"/>
-      <c r="Q22" s="376"/>
-      <c r="R22" s="376"/>
-      <c r="S22" s="376"/>
-      <c r="T22" s="376"/>
-      <c r="U22" s="376"/>
-      <c r="V22" s="376"/>
-      <c r="W22" s="376"/>
-      <c r="X22" s="376"/>
+      <c r="N22" s="350"/>
+      <c r="O22" s="350"/>
+      <c r="P22" s="350"/>
+      <c r="Q22" s="350"/>
+      <c r="R22" s="350"/>
+      <c r="S22" s="350"/>
+      <c r="T22" s="350"/>
+      <c r="U22" s="350"/>
+      <c r="V22" s="350"/>
+      <c r="W22" s="350"/>
+      <c r="X22" s="350"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="224" t="s">
@@ -36638,478 +36638,478 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="366" t="s">
+      <c r="D24" s="351" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="366"/>
-      <c r="F24" s="366"/>
-      <c r="G24" s="366"/>
-      <c r="H24" s="366"/>
-      <c r="I24" s="366"/>
-      <c r="J24" s="366"/>
-      <c r="K24" s="366"/>
-      <c r="L24" s="366"/>
-      <c r="M24" s="366"/>
-      <c r="N24" s="366"/>
-      <c r="O24" s="366"/>
-      <c r="P24" s="366"/>
-      <c r="Q24" s="366"/>
-      <c r="R24" s="366"/>
-      <c r="S24" s="366"/>
-      <c r="T24" s="366"/>
-      <c r="U24" s="366"/>
-      <c r="V24" s="366"/>
-      <c r="W24" s="366"/>
+      <c r="E24" s="351"/>
+      <c r="F24" s="351"/>
+      <c r="G24" s="351"/>
+      <c r="H24" s="351"/>
+      <c r="I24" s="351"/>
+      <c r="J24" s="351"/>
+      <c r="K24" s="351"/>
+      <c r="L24" s="351"/>
+      <c r="M24" s="351"/>
+      <c r="N24" s="351"/>
+      <c r="O24" s="351"/>
+      <c r="P24" s="351"/>
+      <c r="Q24" s="351"/>
+      <c r="R24" s="351"/>
+      <c r="S24" s="351"/>
+      <c r="T24" s="351"/>
+      <c r="U24" s="351"/>
+      <c r="V24" s="351"/>
+      <c r="W24" s="351"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="367" t="s">
+      <c r="D25" s="352" t="s">
         <v>360</v>
       </c>
-      <c r="E25" s="367"/>
-      <c r="F25" s="368" t="s">
+      <c r="E25" s="352"/>
+      <c r="F25" s="353" t="s">
         <v>425</v>
       </c>
-      <c r="G25" s="368"/>
-      <c r="H25" s="368"/>
-      <c r="I25" s="368"/>
-      <c r="J25" s="368"/>
-      <c r="K25" s="368"/>
-      <c r="L25" s="368" t="s">
+      <c r="G25" s="353"/>
+      <c r="H25" s="353"/>
+      <c r="I25" s="353"/>
+      <c r="J25" s="353"/>
+      <c r="K25" s="353"/>
+      <c r="L25" s="353" t="s">
         <v>96</v>
       </c>
-      <c r="M25" s="368"/>
-      <c r="N25" s="368"/>
-      <c r="O25" s="368"/>
-      <c r="P25" s="368"/>
-      <c r="Q25" s="368"/>
-      <c r="R25" s="367" t="s">
+      <c r="M25" s="353"/>
+      <c r="N25" s="353"/>
+      <c r="O25" s="353"/>
+      <c r="P25" s="353"/>
+      <c r="Q25" s="353"/>
+      <c r="R25" s="352" t="s">
         <v>426</v>
       </c>
-      <c r="S25" s="367"/>
-      <c r="T25" s="367"/>
-      <c r="U25" s="367"/>
-      <c r="V25" s="367"/>
-      <c r="W25" s="367"/>
+      <c r="S25" s="352"/>
+      <c r="T25" s="352"/>
+      <c r="U25" s="352"/>
+      <c r="V25" s="352"/>
+      <c r="W25" s="352"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="367"/>
-      <c r="E26" s="367"/>
-      <c r="F26" s="368"/>
-      <c r="G26" s="368"/>
-      <c r="H26" s="368"/>
-      <c r="I26" s="368"/>
-      <c r="J26" s="368"/>
-      <c r="K26" s="368"/>
-      <c r="L26" s="368"/>
-      <c r="M26" s="368"/>
-      <c r="N26" s="368"/>
-      <c r="O26" s="368"/>
-      <c r="P26" s="368"/>
-      <c r="Q26" s="368"/>
-      <c r="R26" s="367"/>
-      <c r="S26" s="367"/>
-      <c r="T26" s="367"/>
-      <c r="U26" s="367"/>
-      <c r="V26" s="367"/>
-      <c r="W26" s="367"/>
+      <c r="D26" s="352"/>
+      <c r="E26" s="352"/>
+      <c r="F26" s="353"/>
+      <c r="G26" s="353"/>
+      <c r="H26" s="353"/>
+      <c r="I26" s="353"/>
+      <c r="J26" s="353"/>
+      <c r="K26" s="353"/>
+      <c r="L26" s="353"/>
+      <c r="M26" s="353"/>
+      <c r="N26" s="353"/>
+      <c r="O26" s="353"/>
+      <c r="P26" s="353"/>
+      <c r="Q26" s="353"/>
+      <c r="R26" s="352"/>
+      <c r="S26" s="352"/>
+      <c r="T26" s="352"/>
+      <c r="U26" s="352"/>
+      <c r="V26" s="352"/>
+      <c r="W26" s="352"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="369" t="str">
+      <c r="D27" s="354" t="str">
         <f>Calibración!C37</f>
         <v>psi</v>
       </c>
-      <c r="E27" s="369"/>
-      <c r="F27" s="370" t="str">
+      <c r="E27" s="354"/>
+      <c r="F27" s="355" t="str">
         <f>Calibración!D37</f>
         <v>psi</v>
       </c>
-      <c r="G27" s="371"/>
-      <c r="H27" s="371"/>
-      <c r="I27" s="371"/>
-      <c r="J27" s="371"/>
-      <c r="K27" s="372"/>
-      <c r="L27" s="370" t="str">
+      <c r="G27" s="356"/>
+      <c r="H27" s="356"/>
+      <c r="I27" s="356"/>
+      <c r="J27" s="356"/>
+      <c r="K27" s="357"/>
+      <c r="L27" s="355" t="str">
         <f>Calibración!E37</f>
         <v>psi</v>
       </c>
-      <c r="M27" s="371"/>
-      <c r="N27" s="371"/>
-      <c r="O27" s="371"/>
-      <c r="P27" s="371"/>
-      <c r="Q27" s="372"/>
-      <c r="R27" s="370" t="str">
+      <c r="M27" s="356"/>
+      <c r="N27" s="356"/>
+      <c r="O27" s="356"/>
+      <c r="P27" s="356"/>
+      <c r="Q27" s="357"/>
+      <c r="R27" s="355" t="str">
         <f>Calibración!F37</f>
         <v>psi</v>
       </c>
-      <c r="S27" s="371"/>
-      <c r="T27" s="371"/>
-      <c r="U27" s="371"/>
-      <c r="V27" s="371"/>
-      <c r="W27" s="372"/>
+      <c r="S27" s="356"/>
+      <c r="T27" s="356"/>
+      <c r="U27" s="356"/>
+      <c r="V27" s="356"/>
+      <c r="W27" s="357"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="358" t="str">
+      <c r="D28" s="341" t="str">
         <f ca="1">Calibración!C38</f>
         <v/>
       </c>
-      <c r="E28" s="358"/>
-      <c r="F28" s="359" t="str">
+      <c r="E28" s="341"/>
+      <c r="F28" s="342" t="str">
         <f ca="1">Calibración!D38</f>
         <v/>
       </c>
-      <c r="G28" s="360"/>
-      <c r="H28" s="360"/>
-      <c r="I28" s="360"/>
-      <c r="J28" s="360"/>
-      <c r="K28" s="361"/>
-      <c r="L28" s="359" t="str">
+      <c r="G28" s="343"/>
+      <c r="H28" s="343"/>
+      <c r="I28" s="343"/>
+      <c r="J28" s="343"/>
+      <c r="K28" s="344"/>
+      <c r="L28" s="342" t="str">
         <f ca="1">Calibración!E38</f>
         <v/>
       </c>
-      <c r="M28" s="360"/>
-      <c r="N28" s="360"/>
-      <c r="O28" s="360"/>
-      <c r="P28" s="360"/>
-      <c r="Q28" s="361"/>
-      <c r="R28" s="359" t="str">
+      <c r="M28" s="343"/>
+      <c r="N28" s="343"/>
+      <c r="O28" s="343"/>
+      <c r="P28" s="343"/>
+      <c r="Q28" s="344"/>
+      <c r="R28" s="342" t="str">
         <f ca="1">Calibración!F38</f>
         <v/>
       </c>
-      <c r="S28" s="360"/>
-      <c r="T28" s="360"/>
-      <c r="U28" s="360"/>
-      <c r="V28" s="360"/>
-      <c r="W28" s="361"/>
+      <c r="S28" s="343"/>
+      <c r="T28" s="343"/>
+      <c r="U28" s="343"/>
+      <c r="V28" s="343"/>
+      <c r="W28" s="344"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="358" t="str">
+      <c r="D29" s="341" t="str">
         <f ca="1">Calibración!C39</f>
         <v/>
       </c>
-      <c r="E29" s="358"/>
-      <c r="F29" s="359" t="str">
+      <c r="E29" s="341"/>
+      <c r="F29" s="342" t="str">
         <f ca="1">Calibración!D39</f>
         <v/>
       </c>
-      <c r="G29" s="360"/>
-      <c r="H29" s="360"/>
-      <c r="I29" s="360"/>
-      <c r="J29" s="360"/>
-      <c r="K29" s="361"/>
-      <c r="L29" s="359" t="str">
+      <c r="G29" s="343"/>
+      <c r="H29" s="343"/>
+      <c r="I29" s="343"/>
+      <c r="J29" s="343"/>
+      <c r="K29" s="344"/>
+      <c r="L29" s="342" t="str">
         <f ca="1">Calibración!E39</f>
         <v/>
       </c>
-      <c r="M29" s="360"/>
-      <c r="N29" s="360"/>
-      <c r="O29" s="360"/>
-      <c r="P29" s="360"/>
-      <c r="Q29" s="361"/>
-      <c r="R29" s="359" t="str">
+      <c r="M29" s="343"/>
+      <c r="N29" s="343"/>
+      <c r="O29" s="343"/>
+      <c r="P29" s="343"/>
+      <c r="Q29" s="344"/>
+      <c r="R29" s="342" t="str">
         <f ca="1">Calibración!F39</f>
         <v/>
       </c>
-      <c r="S29" s="360"/>
-      <c r="T29" s="360"/>
-      <c r="U29" s="360"/>
-      <c r="V29" s="360"/>
-      <c r="W29" s="361"/>
+      <c r="S29" s="343"/>
+      <c r="T29" s="343"/>
+      <c r="U29" s="343"/>
+      <c r="V29" s="343"/>
+      <c r="W29" s="344"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="358" t="str">
+      <c r="D30" s="341" t="str">
         <f ca="1">Calibración!C40</f>
         <v/>
       </c>
-      <c r="E30" s="358"/>
-      <c r="F30" s="359" t="str">
+      <c r="E30" s="341"/>
+      <c r="F30" s="342" t="str">
         <f ca="1">Calibración!D40</f>
         <v/>
       </c>
-      <c r="G30" s="360"/>
-      <c r="H30" s="360"/>
-      <c r="I30" s="360"/>
-      <c r="J30" s="360"/>
-      <c r="K30" s="361"/>
-      <c r="L30" s="359" t="str">
+      <c r="G30" s="343"/>
+      <c r="H30" s="343"/>
+      <c r="I30" s="343"/>
+      <c r="J30" s="343"/>
+      <c r="K30" s="344"/>
+      <c r="L30" s="342" t="str">
         <f ca="1">Calibración!E40</f>
         <v/>
       </c>
-      <c r="M30" s="360"/>
-      <c r="N30" s="360"/>
-      <c r="O30" s="360"/>
-      <c r="P30" s="360"/>
-      <c r="Q30" s="361"/>
-      <c r="R30" s="359" t="str">
+      <c r="M30" s="343"/>
+      <c r="N30" s="343"/>
+      <c r="O30" s="343"/>
+      <c r="P30" s="343"/>
+      <c r="Q30" s="344"/>
+      <c r="R30" s="342" t="str">
         <f ca="1">Calibración!F40</f>
         <v/>
       </c>
-      <c r="S30" s="360"/>
-      <c r="T30" s="360"/>
-      <c r="U30" s="360"/>
-      <c r="V30" s="360"/>
-      <c r="W30" s="361"/>
+      <c r="S30" s="343"/>
+      <c r="T30" s="343"/>
+      <c r="U30" s="343"/>
+      <c r="V30" s="343"/>
+      <c r="W30" s="344"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="358" t="str">
+      <c r="D31" s="341" t="str">
         <f ca="1">Calibración!C41</f>
         <v/>
       </c>
-      <c r="E31" s="358"/>
-      <c r="F31" s="359" t="str">
+      <c r="E31" s="341"/>
+      <c r="F31" s="342" t="str">
         <f ca="1">Calibración!D41</f>
         <v/>
       </c>
-      <c r="G31" s="360"/>
-      <c r="H31" s="360"/>
-      <c r="I31" s="360"/>
-      <c r="J31" s="360"/>
-      <c r="K31" s="361"/>
-      <c r="L31" s="359" t="str">
+      <c r="G31" s="343"/>
+      <c r="H31" s="343"/>
+      <c r="I31" s="343"/>
+      <c r="J31" s="343"/>
+      <c r="K31" s="344"/>
+      <c r="L31" s="342" t="str">
         <f ca="1">Calibración!E41</f>
         <v/>
       </c>
-      <c r="M31" s="360"/>
-      <c r="N31" s="360"/>
-      <c r="O31" s="360"/>
-      <c r="P31" s="360"/>
-      <c r="Q31" s="361"/>
-      <c r="R31" s="359" t="str">
+      <c r="M31" s="343"/>
+      <c r="N31" s="343"/>
+      <c r="O31" s="343"/>
+      <c r="P31" s="343"/>
+      <c r="Q31" s="344"/>
+      <c r="R31" s="342" t="str">
         <f ca="1">Calibración!F41</f>
         <v/>
       </c>
-      <c r="S31" s="360"/>
-      <c r="T31" s="360"/>
-      <c r="U31" s="360"/>
-      <c r="V31" s="360"/>
-      <c r="W31" s="361"/>
+      <c r="S31" s="343"/>
+      <c r="T31" s="343"/>
+      <c r="U31" s="343"/>
+      <c r="V31" s="343"/>
+      <c r="W31" s="344"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="358" t="str">
+      <c r="D32" s="341" t="str">
         <f ca="1">Calibración!C42</f>
         <v/>
       </c>
-      <c r="E32" s="358"/>
-      <c r="F32" s="359" t="str">
+      <c r="E32" s="341"/>
+      <c r="F32" s="342" t="str">
         <f ca="1">Calibración!D42</f>
         <v/>
       </c>
-      <c r="G32" s="360"/>
-      <c r="H32" s="360"/>
-      <c r="I32" s="360"/>
-      <c r="J32" s="360"/>
-      <c r="K32" s="361"/>
-      <c r="L32" s="359" t="str">
+      <c r="G32" s="343"/>
+      <c r="H32" s="343"/>
+      <c r="I32" s="343"/>
+      <c r="J32" s="343"/>
+      <c r="K32" s="344"/>
+      <c r="L32" s="342" t="str">
         <f ca="1">Calibración!E42</f>
         <v/>
       </c>
-      <c r="M32" s="360"/>
-      <c r="N32" s="360"/>
-      <c r="O32" s="360"/>
-      <c r="P32" s="360"/>
-      <c r="Q32" s="361"/>
-      <c r="R32" s="359" t="str">
+      <c r="M32" s="343"/>
+      <c r="N32" s="343"/>
+      <c r="O32" s="343"/>
+      <c r="P32" s="343"/>
+      <c r="Q32" s="344"/>
+      <c r="R32" s="342" t="str">
         <f ca="1">Calibración!F42</f>
         <v/>
       </c>
-      <c r="S32" s="360"/>
-      <c r="T32" s="360"/>
-      <c r="U32" s="360"/>
-      <c r="V32" s="360"/>
-      <c r="W32" s="361"/>
+      <c r="S32" s="343"/>
+      <c r="T32" s="343"/>
+      <c r="U32" s="343"/>
+      <c r="V32" s="343"/>
+      <c r="W32" s="344"/>
     </row>
     <row r="33" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D33" s="358" t="str">
+      <c r="D33" s="341" t="str">
         <f ca="1">Calibración!C43</f>
         <v/>
       </c>
-      <c r="E33" s="358"/>
-      <c r="F33" s="359" t="str">
+      <c r="E33" s="341"/>
+      <c r="F33" s="342" t="str">
         <f ca="1">Calibración!D43</f>
         <v/>
       </c>
-      <c r="G33" s="360"/>
-      <c r="H33" s="360"/>
-      <c r="I33" s="360"/>
-      <c r="J33" s="360"/>
-      <c r="K33" s="361"/>
-      <c r="L33" s="359" t="str">
+      <c r="G33" s="343"/>
+      <c r="H33" s="343"/>
+      <c r="I33" s="343"/>
+      <c r="J33" s="343"/>
+      <c r="K33" s="344"/>
+      <c r="L33" s="342" t="str">
         <f ca="1">Calibración!E43</f>
         <v/>
       </c>
-      <c r="M33" s="360"/>
-      <c r="N33" s="360"/>
-      <c r="O33" s="360"/>
-      <c r="P33" s="360"/>
-      <c r="Q33" s="361"/>
-      <c r="R33" s="359" t="str">
+      <c r="M33" s="343"/>
+      <c r="N33" s="343"/>
+      <c r="O33" s="343"/>
+      <c r="P33" s="343"/>
+      <c r="Q33" s="344"/>
+      <c r="R33" s="342" t="str">
         <f ca="1">Calibración!F43</f>
         <v/>
       </c>
-      <c r="S33" s="360"/>
-      <c r="T33" s="360"/>
-      <c r="U33" s="360"/>
-      <c r="V33" s="360"/>
-      <c r="W33" s="361"/>
+      <c r="S33" s="343"/>
+      <c r="T33" s="343"/>
+      <c r="U33" s="343"/>
+      <c r="V33" s="343"/>
+      <c r="W33" s="344"/>
     </row>
     <row r="34" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D34" s="358" t="str">
+      <c r="D34" s="341" t="str">
         <f ca="1">Calibración!C44</f>
         <v/>
       </c>
-      <c r="E34" s="358"/>
-      <c r="F34" s="359" t="str">
+      <c r="E34" s="341"/>
+      <c r="F34" s="342" t="str">
         <f ca="1">Calibración!D44</f>
         <v/>
       </c>
-      <c r="G34" s="360"/>
-      <c r="H34" s="360"/>
-      <c r="I34" s="360"/>
-      <c r="J34" s="360"/>
-      <c r="K34" s="361"/>
-      <c r="L34" s="359" t="str">
+      <c r="G34" s="343"/>
+      <c r="H34" s="343"/>
+      <c r="I34" s="343"/>
+      <c r="J34" s="343"/>
+      <c r="K34" s="344"/>
+      <c r="L34" s="342" t="str">
         <f ca="1">Calibración!E44</f>
         <v/>
       </c>
-      <c r="M34" s="360"/>
-      <c r="N34" s="360"/>
-      <c r="O34" s="360"/>
-      <c r="P34" s="360"/>
-      <c r="Q34" s="361"/>
-      <c r="R34" s="359" t="str">
+      <c r="M34" s="343"/>
+      <c r="N34" s="343"/>
+      <c r="O34" s="343"/>
+      <c r="P34" s="343"/>
+      <c r="Q34" s="344"/>
+      <c r="R34" s="342" t="str">
         <f ca="1">Calibración!F44</f>
         <v/>
       </c>
-      <c r="S34" s="360"/>
-      <c r="T34" s="360"/>
-      <c r="U34" s="360"/>
-      <c r="V34" s="360"/>
-      <c r="W34" s="361"/>
+      <c r="S34" s="343"/>
+      <c r="T34" s="343"/>
+      <c r="U34" s="343"/>
+      <c r="V34" s="343"/>
+      <c r="W34" s="344"/>
     </row>
     <row r="35" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D35" s="358" t="str">
+      <c r="D35" s="341" t="str">
         <f ca="1">Calibración!C45</f>
         <v/>
       </c>
-      <c r="E35" s="358"/>
-      <c r="F35" s="359" t="str">
+      <c r="E35" s="341"/>
+      <c r="F35" s="342" t="str">
         <f ca="1">Calibración!D45</f>
         <v/>
       </c>
-      <c r="G35" s="360"/>
-      <c r="H35" s="360"/>
-      <c r="I35" s="360"/>
-      <c r="J35" s="360"/>
-      <c r="K35" s="361"/>
-      <c r="L35" s="359" t="str">
+      <c r="G35" s="343"/>
+      <c r="H35" s="343"/>
+      <c r="I35" s="343"/>
+      <c r="J35" s="343"/>
+      <c r="K35" s="344"/>
+      <c r="L35" s="342" t="str">
         <f ca="1">Calibración!E45</f>
         <v/>
       </c>
-      <c r="M35" s="360"/>
-      <c r="N35" s="360"/>
-      <c r="O35" s="360"/>
-      <c r="P35" s="360"/>
-      <c r="Q35" s="361"/>
-      <c r="R35" s="359" t="str">
+      <c r="M35" s="343"/>
+      <c r="N35" s="343"/>
+      <c r="O35" s="343"/>
+      <c r="P35" s="343"/>
+      <c r="Q35" s="344"/>
+      <c r="R35" s="342" t="str">
         <f ca="1">Calibración!F45</f>
         <v/>
       </c>
-      <c r="S35" s="360"/>
-      <c r="T35" s="360"/>
-      <c r="U35" s="360"/>
-      <c r="V35" s="360"/>
-      <c r="W35" s="361"/>
+      <c r="S35" s="343"/>
+      <c r="T35" s="343"/>
+      <c r="U35" s="343"/>
+      <c r="V35" s="343"/>
+      <c r="W35" s="344"/>
     </row>
     <row r="36" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D36" s="358" t="str">
+      <c r="D36" s="341" t="str">
         <f ca="1">Calibración!C46</f>
         <v/>
       </c>
-      <c r="E36" s="358"/>
-      <c r="F36" s="359" t="str">
+      <c r="E36" s="341"/>
+      <c r="F36" s="342" t="str">
         <f ca="1">Calibración!D46</f>
         <v/>
       </c>
-      <c r="G36" s="360"/>
-      <c r="H36" s="360"/>
-      <c r="I36" s="360"/>
-      <c r="J36" s="360"/>
-      <c r="K36" s="361"/>
-      <c r="L36" s="359" t="str">
+      <c r="G36" s="343"/>
+      <c r="H36" s="343"/>
+      <c r="I36" s="343"/>
+      <c r="J36" s="343"/>
+      <c r="K36" s="344"/>
+      <c r="L36" s="342" t="str">
         <f ca="1">Calibración!E46</f>
         <v/>
       </c>
-      <c r="M36" s="360"/>
-      <c r="N36" s="360"/>
-      <c r="O36" s="360"/>
-      <c r="P36" s="360"/>
-      <c r="Q36" s="361"/>
-      <c r="R36" s="359" t="str">
+      <c r="M36" s="343"/>
+      <c r="N36" s="343"/>
+      <c r="O36" s="343"/>
+      <c r="P36" s="343"/>
+      <c r="Q36" s="344"/>
+      <c r="R36" s="342" t="str">
         <f ca="1">Calibración!F46</f>
         <v/>
       </c>
-      <c r="S36" s="360"/>
-      <c r="T36" s="360"/>
-      <c r="U36" s="360"/>
-      <c r="V36" s="360"/>
-      <c r="W36" s="361"/>
+      <c r="S36" s="343"/>
+      <c r="T36" s="343"/>
+      <c r="U36" s="343"/>
+      <c r="V36" s="343"/>
+      <c r="W36" s="344"/>
     </row>
     <row r="37" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D37" s="358" t="str">
+      <c r="D37" s="341" t="str">
         <f ca="1">Calibración!C47</f>
         <v/>
       </c>
-      <c r="E37" s="358"/>
-      <c r="F37" s="359" t="str">
+      <c r="E37" s="341"/>
+      <c r="F37" s="342" t="str">
         <f ca="1">Calibración!D47</f>
         <v/>
       </c>
-      <c r="G37" s="360"/>
-      <c r="H37" s="360"/>
-      <c r="I37" s="360"/>
-      <c r="J37" s="360"/>
-      <c r="K37" s="361"/>
-      <c r="L37" s="359" t="str">
+      <c r="G37" s="343"/>
+      <c r="H37" s="343"/>
+      <c r="I37" s="343"/>
+      <c r="J37" s="343"/>
+      <c r="K37" s="344"/>
+      <c r="L37" s="342" t="str">
         <f ca="1">Calibración!E47</f>
         <v/>
       </c>
-      <c r="M37" s="360"/>
-      <c r="N37" s="360"/>
-      <c r="O37" s="360"/>
-      <c r="P37" s="360"/>
-      <c r="Q37" s="361"/>
-      <c r="R37" s="359" t="str">
+      <c r="M37" s="343"/>
+      <c r="N37" s="343"/>
+      <c r="O37" s="343"/>
+      <c r="P37" s="343"/>
+      <c r="Q37" s="344"/>
+      <c r="R37" s="342" t="str">
         <f ca="1">Calibración!F47</f>
         <v/>
       </c>
-      <c r="S37" s="360"/>
-      <c r="T37" s="360"/>
-      <c r="U37" s="360"/>
-      <c r="V37" s="360"/>
-      <c r="W37" s="361"/>
+      <c r="S37" s="343"/>
+      <c r="T37" s="343"/>
+      <c r="U37" s="343"/>
+      <c r="V37" s="343"/>
+      <c r="W37" s="344"/>
     </row>
     <row r="38" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D38" s="309"/>
@@ -37602,478 +37602,478 @@
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="366" t="s">
+      <c r="D60" s="351" t="s">
         <v>95</v>
       </c>
-      <c r="E60" s="366"/>
-      <c r="F60" s="366"/>
-      <c r="G60" s="366"/>
-      <c r="H60" s="366"/>
-      <c r="I60" s="366"/>
-      <c r="J60" s="366"/>
-      <c r="K60" s="366"/>
-      <c r="L60" s="366"/>
-      <c r="M60" s="366"/>
-      <c r="N60" s="366"/>
-      <c r="O60" s="366"/>
-      <c r="P60" s="366"/>
-      <c r="Q60" s="366"/>
-      <c r="R60" s="366"/>
-      <c r="S60" s="366"/>
-      <c r="T60" s="366"/>
-      <c r="U60" s="366"/>
-      <c r="V60" s="366"/>
-      <c r="W60" s="366"/>
+      <c r="E60" s="351"/>
+      <c r="F60" s="351"/>
+      <c r="G60" s="351"/>
+      <c r="H60" s="351"/>
+      <c r="I60" s="351"/>
+      <c r="J60" s="351"/>
+      <c r="K60" s="351"/>
+      <c r="L60" s="351"/>
+      <c r="M60" s="351"/>
+      <c r="N60" s="351"/>
+      <c r="O60" s="351"/>
+      <c r="P60" s="351"/>
+      <c r="Q60" s="351"/>
+      <c r="R60" s="351"/>
+      <c r="S60" s="351"/>
+      <c r="T60" s="351"/>
+      <c r="U60" s="351"/>
+      <c r="V60" s="351"/>
+      <c r="W60" s="351"/>
     </row>
     <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="367" t="s">
+      <c r="D61" s="352" t="s">
         <v>360</v>
       </c>
-      <c r="E61" s="367"/>
-      <c r="F61" s="368" t="s">
+      <c r="E61" s="352"/>
+      <c r="F61" s="353" t="s">
         <v>425</v>
       </c>
-      <c r="G61" s="368"/>
-      <c r="H61" s="368"/>
-      <c r="I61" s="368"/>
-      <c r="J61" s="368"/>
-      <c r="K61" s="368"/>
-      <c r="L61" s="368" t="s">
+      <c r="G61" s="353"/>
+      <c r="H61" s="353"/>
+      <c r="I61" s="353"/>
+      <c r="J61" s="353"/>
+      <c r="K61" s="353"/>
+      <c r="L61" s="353" t="s">
         <v>96</v>
       </c>
-      <c r="M61" s="368"/>
-      <c r="N61" s="368"/>
-      <c r="O61" s="368"/>
-      <c r="P61" s="368"/>
-      <c r="Q61" s="368"/>
-      <c r="R61" s="367" t="s">
+      <c r="M61" s="353"/>
+      <c r="N61" s="353"/>
+      <c r="O61" s="353"/>
+      <c r="P61" s="353"/>
+      <c r="Q61" s="353"/>
+      <c r="R61" s="352" t="s">
         <v>426</v>
       </c>
-      <c r="S61" s="367"/>
-      <c r="T61" s="367"/>
-      <c r="U61" s="367"/>
-      <c r="V61" s="367"/>
-      <c r="W61" s="367"/>
+      <c r="S61" s="352"/>
+      <c r="T61" s="352"/>
+      <c r="U61" s="352"/>
+      <c r="V61" s="352"/>
+      <c r="W61" s="352"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="367"/>
-      <c r="E62" s="367"/>
-      <c r="F62" s="368"/>
-      <c r="G62" s="368"/>
-      <c r="H62" s="368"/>
-      <c r="I62" s="368"/>
-      <c r="J62" s="368"/>
-      <c r="K62" s="368"/>
-      <c r="L62" s="368"/>
-      <c r="M62" s="368"/>
-      <c r="N62" s="368"/>
-      <c r="O62" s="368"/>
-      <c r="P62" s="368"/>
-      <c r="Q62" s="368"/>
-      <c r="R62" s="367"/>
-      <c r="S62" s="367"/>
-      <c r="T62" s="367"/>
-      <c r="U62" s="367"/>
-      <c r="V62" s="367"/>
-      <c r="W62" s="367"/>
+      <c r="D62" s="352"/>
+      <c r="E62" s="352"/>
+      <c r="F62" s="353"/>
+      <c r="G62" s="353"/>
+      <c r="H62" s="353"/>
+      <c r="I62" s="353"/>
+      <c r="J62" s="353"/>
+      <c r="K62" s="353"/>
+      <c r="L62" s="353"/>
+      <c r="M62" s="353"/>
+      <c r="N62" s="353"/>
+      <c r="O62" s="353"/>
+      <c r="P62" s="353"/>
+      <c r="Q62" s="353"/>
+      <c r="R62" s="352"/>
+      <c r="S62" s="352"/>
+      <c r="T62" s="352"/>
+      <c r="U62" s="352"/>
+      <c r="V62" s="352"/>
+      <c r="W62" s="352"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="369" t="str">
+      <c r="D63" s="354" t="str">
         <f>Calibración!G37</f>
         <v>kPa</v>
       </c>
-      <c r="E63" s="369"/>
-      <c r="F63" s="370" t="str">
+      <c r="E63" s="354"/>
+      <c r="F63" s="355" t="str">
         <f>Calibración!H37</f>
         <v>kPa</v>
       </c>
-      <c r="G63" s="371"/>
-      <c r="H63" s="371"/>
-      <c r="I63" s="371"/>
-      <c r="J63" s="371"/>
-      <c r="K63" s="372"/>
-      <c r="L63" s="369" t="str">
+      <c r="G63" s="356"/>
+      <c r="H63" s="356"/>
+      <c r="I63" s="356"/>
+      <c r="J63" s="356"/>
+      <c r="K63" s="357"/>
+      <c r="L63" s="354" t="str">
         <f>Calibración!I37</f>
         <v>kPa</v>
       </c>
-      <c r="M63" s="369"/>
-      <c r="N63" s="369"/>
-      <c r="O63" s="369"/>
-      <c r="P63" s="369"/>
-      <c r="Q63" s="369"/>
-      <c r="R63" s="369" t="str">
+      <c r="M63" s="354"/>
+      <c r="N63" s="354"/>
+      <c r="O63" s="354"/>
+      <c r="P63" s="354"/>
+      <c r="Q63" s="354"/>
+      <c r="R63" s="354" t="str">
         <f>Calibración!J37</f>
         <v>kPa</v>
       </c>
-      <c r="S63" s="369"/>
-      <c r="T63" s="369"/>
-      <c r="U63" s="369"/>
-      <c r="V63" s="369"/>
-      <c r="W63" s="369"/>
+      <c r="S63" s="354"/>
+      <c r="T63" s="354"/>
+      <c r="U63" s="354"/>
+      <c r="V63" s="354"/>
+      <c r="W63" s="354"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="358" t="str">
+      <c r="D64" s="341" t="str">
         <f ca="1">Calibración!G38</f>
         <v/>
       </c>
-      <c r="E64" s="358"/>
-      <c r="F64" s="359" t="str">
+      <c r="E64" s="341"/>
+      <c r="F64" s="342" t="str">
         <f ca="1">Calibración!H38</f>
         <v/>
       </c>
-      <c r="G64" s="360"/>
-      <c r="H64" s="360"/>
-      <c r="I64" s="360"/>
-      <c r="J64" s="360"/>
-      <c r="K64" s="361"/>
-      <c r="L64" s="358" t="str">
+      <c r="G64" s="343"/>
+      <c r="H64" s="343"/>
+      <c r="I64" s="343"/>
+      <c r="J64" s="343"/>
+      <c r="K64" s="344"/>
+      <c r="L64" s="341" t="str">
         <f ca="1">Calibración!I38</f>
         <v/>
       </c>
-      <c r="M64" s="358"/>
-      <c r="N64" s="358"/>
-      <c r="O64" s="358"/>
-      <c r="P64" s="358"/>
-      <c r="Q64" s="358"/>
-      <c r="R64" s="358" t="str">
+      <c r="M64" s="341"/>
+      <c r="N64" s="341"/>
+      <c r="O64" s="341"/>
+      <c r="P64" s="341"/>
+      <c r="Q64" s="341"/>
+      <c r="R64" s="341" t="str">
         <f ca="1">Calibración!J38</f>
         <v/>
       </c>
-      <c r="S64" s="358"/>
-      <c r="T64" s="358"/>
-      <c r="U64" s="358"/>
-      <c r="V64" s="358"/>
-      <c r="W64" s="358"/>
+      <c r="S64" s="341"/>
+      <c r="T64" s="341"/>
+      <c r="U64" s="341"/>
+      <c r="V64" s="341"/>
+      <c r="W64" s="341"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="358" t="str">
+      <c r="D65" s="341" t="str">
         <f ca="1">Calibración!G39</f>
         <v/>
       </c>
-      <c r="E65" s="358"/>
-      <c r="F65" s="359" t="str">
+      <c r="E65" s="341"/>
+      <c r="F65" s="342" t="str">
         <f ca="1">Calibración!H39</f>
         <v/>
       </c>
-      <c r="G65" s="360"/>
-      <c r="H65" s="360"/>
-      <c r="I65" s="360"/>
-      <c r="J65" s="360"/>
-      <c r="K65" s="361"/>
-      <c r="L65" s="358" t="str">
+      <c r="G65" s="343"/>
+      <c r="H65" s="343"/>
+      <c r="I65" s="343"/>
+      <c r="J65" s="343"/>
+      <c r="K65" s="344"/>
+      <c r="L65" s="341" t="str">
         <f ca="1">Calibración!I39</f>
         <v/>
       </c>
-      <c r="M65" s="358"/>
-      <c r="N65" s="358"/>
-      <c r="O65" s="358"/>
-      <c r="P65" s="358"/>
-      <c r="Q65" s="358"/>
-      <c r="R65" s="358" t="str">
+      <c r="M65" s="341"/>
+      <c r="N65" s="341"/>
+      <c r="O65" s="341"/>
+      <c r="P65" s="341"/>
+      <c r="Q65" s="341"/>
+      <c r="R65" s="341" t="str">
         <f ca="1">Calibración!J39</f>
         <v/>
       </c>
-      <c r="S65" s="358"/>
-      <c r="T65" s="358"/>
-      <c r="U65" s="358"/>
-      <c r="V65" s="358"/>
-      <c r="W65" s="358"/>
+      <c r="S65" s="341"/>
+      <c r="T65" s="341"/>
+      <c r="U65" s="341"/>
+      <c r="V65" s="341"/>
+      <c r="W65" s="341"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="358" t="str">
+      <c r="D66" s="341" t="str">
         <f ca="1">Calibración!G40</f>
         <v/>
       </c>
-      <c r="E66" s="358"/>
-      <c r="F66" s="359" t="str">
+      <c r="E66" s="341"/>
+      <c r="F66" s="342" t="str">
         <f ca="1">Calibración!H40</f>
         <v/>
       </c>
-      <c r="G66" s="360"/>
-      <c r="H66" s="360"/>
-      <c r="I66" s="360"/>
-      <c r="J66" s="360"/>
-      <c r="K66" s="361"/>
-      <c r="L66" s="358" t="str">
+      <c r="G66" s="343"/>
+      <c r="H66" s="343"/>
+      <c r="I66" s="343"/>
+      <c r="J66" s="343"/>
+      <c r="K66" s="344"/>
+      <c r="L66" s="341" t="str">
         <f ca="1">Calibración!I40</f>
         <v/>
       </c>
-      <c r="M66" s="358"/>
-      <c r="N66" s="358"/>
-      <c r="O66" s="358"/>
-      <c r="P66" s="358"/>
-      <c r="Q66" s="358"/>
-      <c r="R66" s="358" t="str">
+      <c r="M66" s="341"/>
+      <c r="N66" s="341"/>
+      <c r="O66" s="341"/>
+      <c r="P66" s="341"/>
+      <c r="Q66" s="341"/>
+      <c r="R66" s="341" t="str">
         <f ca="1">Calibración!J40</f>
         <v/>
       </c>
-      <c r="S66" s="358"/>
-      <c r="T66" s="358"/>
-      <c r="U66" s="358"/>
-      <c r="V66" s="358"/>
-      <c r="W66" s="358"/>
+      <c r="S66" s="341"/>
+      <c r="T66" s="341"/>
+      <c r="U66" s="341"/>
+      <c r="V66" s="341"/>
+      <c r="W66" s="341"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="358" t="str">
+      <c r="D67" s="341" t="str">
         <f ca="1">Calibración!G41</f>
         <v/>
       </c>
-      <c r="E67" s="358"/>
-      <c r="F67" s="359" t="str">
+      <c r="E67" s="341"/>
+      <c r="F67" s="342" t="str">
         <f ca="1">Calibración!H41</f>
         <v/>
       </c>
-      <c r="G67" s="360"/>
-      <c r="H67" s="360"/>
-      <c r="I67" s="360"/>
-      <c r="J67" s="360"/>
-      <c r="K67" s="361"/>
-      <c r="L67" s="358" t="str">
+      <c r="G67" s="343"/>
+      <c r="H67" s="343"/>
+      <c r="I67" s="343"/>
+      <c r="J67" s="343"/>
+      <c r="K67" s="344"/>
+      <c r="L67" s="341" t="str">
         <f ca="1">Calibración!I41</f>
         <v/>
       </c>
-      <c r="M67" s="358"/>
-      <c r="N67" s="358"/>
-      <c r="O67" s="358"/>
-      <c r="P67" s="358"/>
-      <c r="Q67" s="358"/>
-      <c r="R67" s="358" t="str">
+      <c r="M67" s="341"/>
+      <c r="N67" s="341"/>
+      <c r="O67" s="341"/>
+      <c r="P67" s="341"/>
+      <c r="Q67" s="341"/>
+      <c r="R67" s="341" t="str">
         <f ca="1">Calibración!J41</f>
         <v/>
       </c>
-      <c r="S67" s="358"/>
-      <c r="T67" s="358"/>
-      <c r="U67" s="358"/>
-      <c r="V67" s="358"/>
-      <c r="W67" s="358"/>
+      <c r="S67" s="341"/>
+      <c r="T67" s="341"/>
+      <c r="U67" s="341"/>
+      <c r="V67" s="341"/>
+      <c r="W67" s="341"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="358" t="str">
+      <c r="D68" s="341" t="str">
         <f ca="1">Calibración!G42</f>
         <v/>
       </c>
-      <c r="E68" s="358"/>
-      <c r="F68" s="359" t="str">
+      <c r="E68" s="341"/>
+      <c r="F68" s="342" t="str">
         <f ca="1">Calibración!H42</f>
         <v/>
       </c>
-      <c r="G68" s="360"/>
-      <c r="H68" s="360"/>
-      <c r="I68" s="360"/>
-      <c r="J68" s="360"/>
-      <c r="K68" s="361"/>
-      <c r="L68" s="358" t="str">
+      <c r="G68" s="343"/>
+      <c r="H68" s="343"/>
+      <c r="I68" s="343"/>
+      <c r="J68" s="343"/>
+      <c r="K68" s="344"/>
+      <c r="L68" s="341" t="str">
         <f ca="1">Calibración!I42</f>
         <v/>
       </c>
-      <c r="M68" s="358"/>
-      <c r="N68" s="358"/>
-      <c r="O68" s="358"/>
-      <c r="P68" s="358"/>
-      <c r="Q68" s="358"/>
-      <c r="R68" s="358" t="str">
+      <c r="M68" s="341"/>
+      <c r="N68" s="341"/>
+      <c r="O68" s="341"/>
+      <c r="P68" s="341"/>
+      <c r="Q68" s="341"/>
+      <c r="R68" s="341" t="str">
         <f ca="1">Calibración!J42</f>
         <v/>
       </c>
-      <c r="S68" s="358"/>
-      <c r="T68" s="358"/>
-      <c r="U68" s="358"/>
-      <c r="V68" s="358"/>
-      <c r="W68" s="358"/>
+      <c r="S68" s="341"/>
+      <c r="T68" s="341"/>
+      <c r="U68" s="341"/>
+      <c r="V68" s="341"/>
+      <c r="W68" s="341"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D69" s="358" t="str">
+      <c r="D69" s="341" t="str">
         <f ca="1">Calibración!G43</f>
         <v/>
       </c>
-      <c r="E69" s="358"/>
-      <c r="F69" s="359" t="str">
+      <c r="E69" s="341"/>
+      <c r="F69" s="342" t="str">
         <f ca="1">Calibración!H43</f>
         <v/>
       </c>
-      <c r="G69" s="360"/>
-      <c r="H69" s="360"/>
-      <c r="I69" s="360"/>
-      <c r="J69" s="360"/>
-      <c r="K69" s="361"/>
-      <c r="L69" s="358" t="str">
+      <c r="G69" s="343"/>
+      <c r="H69" s="343"/>
+      <c r="I69" s="343"/>
+      <c r="J69" s="343"/>
+      <c r="K69" s="344"/>
+      <c r="L69" s="341" t="str">
         <f ca="1">Calibración!I43</f>
         <v/>
       </c>
-      <c r="M69" s="358"/>
-      <c r="N69" s="358"/>
-      <c r="O69" s="358"/>
-      <c r="P69" s="358"/>
-      <c r="Q69" s="358"/>
-      <c r="R69" s="358" t="str">
+      <c r="M69" s="341"/>
+      <c r="N69" s="341"/>
+      <c r="O69" s="341"/>
+      <c r="P69" s="341"/>
+      <c r="Q69" s="341"/>
+      <c r="R69" s="341" t="str">
         <f ca="1">Calibración!J43</f>
         <v/>
       </c>
-      <c r="S69" s="358"/>
-      <c r="T69" s="358"/>
-      <c r="U69" s="358"/>
-      <c r="V69" s="358"/>
-      <c r="W69" s="358"/>
+      <c r="S69" s="341"/>
+      <c r="T69" s="341"/>
+      <c r="U69" s="341"/>
+      <c r="V69" s="341"/>
+      <c r="W69" s="341"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D70" s="358" t="str">
+      <c r="D70" s="341" t="str">
         <f ca="1">Calibración!G44</f>
         <v/>
       </c>
-      <c r="E70" s="358"/>
-      <c r="F70" s="359" t="str">
+      <c r="E70" s="341"/>
+      <c r="F70" s="342" t="str">
         <f ca="1">Calibración!H44</f>
         <v/>
       </c>
-      <c r="G70" s="360"/>
-      <c r="H70" s="360"/>
-      <c r="I70" s="360"/>
-      <c r="J70" s="360"/>
-      <c r="K70" s="361"/>
-      <c r="L70" s="358" t="str">
+      <c r="G70" s="343"/>
+      <c r="H70" s="343"/>
+      <c r="I70" s="343"/>
+      <c r="J70" s="343"/>
+      <c r="K70" s="344"/>
+      <c r="L70" s="341" t="str">
         <f ca="1">Calibración!I44</f>
         <v/>
       </c>
-      <c r="M70" s="358"/>
-      <c r="N70" s="358"/>
-      <c r="O70" s="358"/>
-      <c r="P70" s="358"/>
-      <c r="Q70" s="358"/>
-      <c r="R70" s="358" t="str">
+      <c r="M70" s="341"/>
+      <c r="N70" s="341"/>
+      <c r="O70" s="341"/>
+      <c r="P70" s="341"/>
+      <c r="Q70" s="341"/>
+      <c r="R70" s="341" t="str">
         <f ca="1">Calibración!J44</f>
         <v/>
       </c>
-      <c r="S70" s="358"/>
-      <c r="T70" s="358"/>
-      <c r="U70" s="358"/>
-      <c r="V70" s="358"/>
-      <c r="W70" s="358"/>
+      <c r="S70" s="341"/>
+      <c r="T70" s="341"/>
+      <c r="U70" s="341"/>
+      <c r="V70" s="341"/>
+      <c r="W70" s="341"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D71" s="358" t="str">
+      <c r="D71" s="341" t="str">
         <f ca="1">Calibración!G45</f>
         <v/>
       </c>
-      <c r="E71" s="358"/>
-      <c r="F71" s="359" t="str">
+      <c r="E71" s="341"/>
+      <c r="F71" s="342" t="str">
         <f ca="1">Calibración!H45</f>
         <v/>
       </c>
-      <c r="G71" s="360"/>
-      <c r="H71" s="360"/>
-      <c r="I71" s="360"/>
-      <c r="J71" s="360"/>
-      <c r="K71" s="361"/>
-      <c r="L71" s="358" t="str">
+      <c r="G71" s="343"/>
+      <c r="H71" s="343"/>
+      <c r="I71" s="343"/>
+      <c r="J71" s="343"/>
+      <c r="K71" s="344"/>
+      <c r="L71" s="341" t="str">
         <f ca="1">Calibración!I45</f>
         <v/>
       </c>
-      <c r="M71" s="358"/>
-      <c r="N71" s="358"/>
-      <c r="O71" s="358"/>
-      <c r="P71" s="358"/>
-      <c r="Q71" s="358"/>
-      <c r="R71" s="358" t="str">
+      <c r="M71" s="341"/>
+      <c r="N71" s="341"/>
+      <c r="O71" s="341"/>
+      <c r="P71" s="341"/>
+      <c r="Q71" s="341"/>
+      <c r="R71" s="341" t="str">
         <f ca="1">Calibración!J45</f>
         <v/>
       </c>
-      <c r="S71" s="358"/>
-      <c r="T71" s="358"/>
-      <c r="U71" s="358"/>
-      <c r="V71" s="358"/>
-      <c r="W71" s="358"/>
+      <c r="S71" s="341"/>
+      <c r="T71" s="341"/>
+      <c r="U71" s="341"/>
+      <c r="V71" s="341"/>
+      <c r="W71" s="341"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D72" s="358" t="str">
+      <c r="D72" s="341" t="str">
         <f ca="1">Calibración!G46</f>
         <v/>
       </c>
-      <c r="E72" s="358"/>
-      <c r="F72" s="359" t="str">
+      <c r="E72" s="341"/>
+      <c r="F72" s="342" t="str">
         <f ca="1">Calibración!H46</f>
         <v/>
       </c>
-      <c r="G72" s="360"/>
-      <c r="H72" s="360"/>
-      <c r="I72" s="360"/>
-      <c r="J72" s="360"/>
-      <c r="K72" s="361"/>
-      <c r="L72" s="358" t="str">
+      <c r="G72" s="343"/>
+      <c r="H72" s="343"/>
+      <c r="I72" s="343"/>
+      <c r="J72" s="343"/>
+      <c r="K72" s="344"/>
+      <c r="L72" s="341" t="str">
         <f ca="1">Calibración!I46</f>
         <v/>
       </c>
-      <c r="M72" s="358"/>
-      <c r="N72" s="358"/>
-      <c r="O72" s="358"/>
-      <c r="P72" s="358"/>
-      <c r="Q72" s="358"/>
-      <c r="R72" s="358" t="str">
+      <c r="M72" s="341"/>
+      <c r="N72" s="341"/>
+      <c r="O72" s="341"/>
+      <c r="P72" s="341"/>
+      <c r="Q72" s="341"/>
+      <c r="R72" s="341" t="str">
         <f ca="1">Calibración!J46</f>
         <v/>
       </c>
-      <c r="S72" s="358"/>
-      <c r="T72" s="358"/>
-      <c r="U72" s="358"/>
-      <c r="V72" s="358"/>
-      <c r="W72" s="358"/>
+      <c r="S72" s="341"/>
+      <c r="T72" s="341"/>
+      <c r="U72" s="341"/>
+      <c r="V72" s="341"/>
+      <c r="W72" s="341"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D73" s="358" t="str">
+      <c r="D73" s="341" t="str">
         <f ca="1">Calibración!G47</f>
         <v/>
       </c>
-      <c r="E73" s="358"/>
-      <c r="F73" s="359" t="str">
+      <c r="E73" s="341"/>
+      <c r="F73" s="342" t="str">
         <f ca="1">Calibración!H47</f>
         <v/>
       </c>
-      <c r="G73" s="360"/>
-      <c r="H73" s="360"/>
-      <c r="I73" s="360"/>
-      <c r="J73" s="360"/>
-      <c r="K73" s="361"/>
-      <c r="L73" s="358" t="str">
+      <c r="G73" s="343"/>
+      <c r="H73" s="343"/>
+      <c r="I73" s="343"/>
+      <c r="J73" s="343"/>
+      <c r="K73" s="344"/>
+      <c r="L73" s="341" t="str">
         <f ca="1">Calibración!I47</f>
         <v/>
       </c>
-      <c r="M73" s="358"/>
-      <c r="N73" s="358"/>
-      <c r="O73" s="358"/>
-      <c r="P73" s="358"/>
-      <c r="Q73" s="358"/>
-      <c r="R73" s="358" t="str">
+      <c r="M73" s="341"/>
+      <c r="N73" s="341"/>
+      <c r="O73" s="341"/>
+      <c r="P73" s="341"/>
+      <c r="Q73" s="341"/>
+      <c r="R73" s="341" t="str">
         <f ca="1">Calibración!J47</f>
         <v/>
       </c>
-      <c r="S73" s="358"/>
-      <c r="T73" s="358"/>
-      <c r="U73" s="358"/>
-      <c r="V73" s="358"/>
-      <c r="W73" s="358"/>
+      <c r="S73" s="341"/>
+      <c r="T73" s="341"/>
+      <c r="U73" s="341"/>
+      <c r="V73" s="341"/>
+      <c r="W73" s="341"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O74" s="232"/>
@@ -38100,20 +38100,20 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
-      <c r="N77" s="362" t="str">
+      <c r="N77" s="346" t="str">
         <f>N8</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O77" s="362"/>
-      <c r="P77" s="362"/>
-      <c r="Q77" s="362"/>
-      <c r="R77" s="362"/>
-      <c r="S77" s="362"/>
-      <c r="T77" s="362"/>
-      <c r="U77" s="362"/>
-      <c r="V77" s="362"/>
-      <c r="W77" s="362"/>
-      <c r="X77" s="362"/>
+      <c r="O77" s="346"/>
+      <c r="P77" s="346"/>
+      <c r="Q77" s="346"/>
+      <c r="R77" s="346"/>
+      <c r="S77" s="346"/>
+      <c r="T77" s="346"/>
+      <c r="U77" s="346"/>
+      <c r="V77" s="346"/>
+      <c r="W77" s="346"/>
+      <c r="X77" s="346"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O78" s="232"/>
@@ -38152,11 +38152,11 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="234"/>
-      <c r="B80" s="363" t="s">
+      <c r="B80" s="365" t="s">
         <v>430</v>
       </c>
-      <c r="C80" s="363"/>
-      <c r="D80" s="363"/>
+      <c r="C80" s="365"/>
+      <c r="D80" s="365"/>
       <c r="E80" s="235" t="str">
         <f>CertTempC</f>
         <v/>
@@ -38173,8 +38173,8 @@
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="364"/>
-      <c r="L80" s="364"/>
+      <c r="K80" s="348"/>
+      <c r="L80" s="348"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
@@ -38184,11 +38184,11 @@
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
-      <c r="T80" s="365" t="str">
+      <c r="T80" s="366" t="str">
         <f>General!I18</f>
         <v/>
       </c>
-      <c r="U80" s="365"/>
+      <c r="U80" s="366"/>
       <c r="V80" s="236" t="s">
         <v>432</v>
       </c>
@@ -38290,32 +38290,32 @@
       <c r="W83" s="9"/>
     </row>
     <row r="84" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="351" t="s">
+      <c r="A84" s="358" t="s">
         <v>715</v>
       </c>
-      <c r="B84" s="351"/>
-      <c r="C84" s="351"/>
-      <c r="D84" s="351"/>
-      <c r="E84" s="351"/>
-      <c r="F84" s="351"/>
-      <c r="G84" s="351"/>
-      <c r="H84" s="351"/>
-      <c r="I84" s="351"/>
-      <c r="J84" s="351"/>
-      <c r="K84" s="351"/>
-      <c r="L84" s="351"/>
-      <c r="M84" s="351"/>
-      <c r="N84" s="351"/>
-      <c r="O84" s="351"/>
-      <c r="P84" s="351"/>
-      <c r="Q84" s="351"/>
-      <c r="R84" s="351"/>
-      <c r="S84" s="351"/>
-      <c r="T84" s="351"/>
-      <c r="U84" s="351"/>
-      <c r="V84" s="351"/>
-      <c r="W84" s="351"/>
-      <c r="X84" s="351"/>
+      <c r="B84" s="358"/>
+      <c r="C84" s="358"/>
+      <c r="D84" s="358"/>
+      <c r="E84" s="358"/>
+      <c r="F84" s="358"/>
+      <c r="G84" s="358"/>
+      <c r="H84" s="358"/>
+      <c r="I84" s="358"/>
+      <c r="J84" s="358"/>
+      <c r="K84" s="358"/>
+      <c r="L84" s="358"/>
+      <c r="M84" s="358"/>
+      <c r="N84" s="358"/>
+      <c r="O84" s="358"/>
+      <c r="P84" s="358"/>
+      <c r="Q84" s="358"/>
+      <c r="R84" s="358"/>
+      <c r="S84" s="358"/>
+      <c r="T84" s="358"/>
+      <c r="U84" s="358"/>
+      <c r="V84" s="358"/>
+      <c r="W84" s="358"/>
+      <c r="X84" s="358"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B85" s="14"/>
@@ -38370,389 +38370,294 @@
       <c r="X86" s="14"/>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A87" s="351" t="s">
+      <c r="A87" s="358" t="s">
         <v>438</v>
       </c>
-      <c r="B87" s="351"/>
-      <c r="C87" s="351"/>
-      <c r="D87" s="351"/>
-      <c r="E87" s="351"/>
-      <c r="F87" s="351"/>
-      <c r="G87" s="351"/>
-      <c r="H87" s="351"/>
-      <c r="I87" s="351"/>
-      <c r="J87" s="351"/>
-      <c r="K87" s="351"/>
-      <c r="L87" s="351"/>
-      <c r="M87" s="351"/>
-      <c r="N87" s="351"/>
-      <c r="O87" s="351"/>
-      <c r="P87" s="351"/>
-      <c r="Q87" s="351"/>
-      <c r="R87" s="351"/>
-      <c r="S87" s="351"/>
-      <c r="T87" s="351"/>
-      <c r="U87" s="351"/>
-      <c r="V87" s="351"/>
-      <c r="W87" s="351"/>
-      <c r="X87" s="351"/>
+      <c r="B87" s="358"/>
+      <c r="C87" s="358"/>
+      <c r="D87" s="358"/>
+      <c r="E87" s="358"/>
+      <c r="F87" s="358"/>
+      <c r="G87" s="358"/>
+      <c r="H87" s="358"/>
+      <c r="I87" s="358"/>
+      <c r="J87" s="358"/>
+      <c r="K87" s="358"/>
+      <c r="L87" s="358"/>
+      <c r="M87" s="358"/>
+      <c r="N87" s="358"/>
+      <c r="O87" s="358"/>
+      <c r="P87" s="358"/>
+      <c r="Q87" s="358"/>
+      <c r="R87" s="358"/>
+      <c r="S87" s="358"/>
+      <c r="T87" s="358"/>
+      <c r="U87" s="358"/>
+      <c r="V87" s="358"/>
+      <c r="W87" s="358"/>
+      <c r="X87" s="358"/>
     </row>
     <row r="88" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="351"/>
-      <c r="B88" s="351"/>
-      <c r="C88" s="351"/>
-      <c r="D88" s="351"/>
-      <c r="E88" s="351"/>
-      <c r="F88" s="351"/>
-      <c r="G88" s="351"/>
-      <c r="H88" s="351"/>
-      <c r="I88" s="351"/>
-      <c r="J88" s="351"/>
-      <c r="K88" s="351"/>
-      <c r="L88" s="351"/>
-      <c r="M88" s="351"/>
-      <c r="N88" s="351"/>
-      <c r="O88" s="351"/>
-      <c r="P88" s="351"/>
-      <c r="Q88" s="351"/>
-      <c r="R88" s="351"/>
-      <c r="S88" s="351"/>
-      <c r="T88" s="351"/>
-      <c r="U88" s="351"/>
-      <c r="V88" s="351"/>
-      <c r="W88" s="351"/>
-      <c r="X88" s="351"/>
+      <c r="A88" s="358"/>
+      <c r="B88" s="358"/>
+      <c r="C88" s="358"/>
+      <c r="D88" s="358"/>
+      <c r="E88" s="358"/>
+      <c r="F88" s="358"/>
+      <c r="G88" s="358"/>
+      <c r="H88" s="358"/>
+      <c r="I88" s="358"/>
+      <c r="J88" s="358"/>
+      <c r="K88" s="358"/>
+      <c r="L88" s="358"/>
+      <c r="M88" s="358"/>
+      <c r="N88" s="358"/>
+      <c r="O88" s="358"/>
+      <c r="P88" s="358"/>
+      <c r="Q88" s="358"/>
+      <c r="R88" s="358"/>
+      <c r="S88" s="358"/>
+      <c r="T88" s="358"/>
+      <c r="U88" s="358"/>
+      <c r="V88" s="358"/>
+      <c r="W88" s="358"/>
+      <c r="X88" s="358"/>
     </row>
     <row r="89" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="351"/>
-      <c r="B89" s="351"/>
-      <c r="C89" s="351"/>
-      <c r="D89" s="351"/>
-      <c r="E89" s="351"/>
-      <c r="F89" s="351"/>
-      <c r="G89" s="351"/>
-      <c r="H89" s="351"/>
-      <c r="I89" s="351"/>
-      <c r="J89" s="351"/>
-      <c r="K89" s="351"/>
-      <c r="L89" s="351"/>
-      <c r="M89" s="351"/>
-      <c r="N89" s="351"/>
-      <c r="O89" s="351"/>
-      <c r="P89" s="351"/>
-      <c r="Q89" s="351"/>
-      <c r="R89" s="351"/>
-      <c r="S89" s="351"/>
-      <c r="T89" s="351"/>
-      <c r="U89" s="351"/>
-      <c r="V89" s="351"/>
-      <c r="W89" s="351"/>
-      <c r="X89" s="351"/>
+      <c r="A89" s="358"/>
+      <c r="B89" s="358"/>
+      <c r="C89" s="358"/>
+      <c r="D89" s="358"/>
+      <c r="E89" s="358"/>
+      <c r="F89" s="358"/>
+      <c r="G89" s="358"/>
+      <c r="H89" s="358"/>
+      <c r="I89" s="358"/>
+      <c r="J89" s="358"/>
+      <c r="K89" s="358"/>
+      <c r="L89" s="358"/>
+      <c r="M89" s="358"/>
+      <c r="N89" s="358"/>
+      <c r="O89" s="358"/>
+      <c r="P89" s="358"/>
+      <c r="Q89" s="358"/>
+      <c r="R89" s="358"/>
+      <c r="S89" s="358"/>
+      <c r="T89" s="358"/>
+      <c r="U89" s="358"/>
+      <c r="V89" s="358"/>
+      <c r="W89" s="358"/>
+      <c r="X89" s="358"/>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A90" s="351"/>
-      <c r="B90" s="351"/>
-      <c r="C90" s="351"/>
-      <c r="D90" s="351"/>
-      <c r="E90" s="351"/>
-      <c r="F90" s="351"/>
-      <c r="G90" s="351"/>
-      <c r="H90" s="351"/>
-      <c r="I90" s="351"/>
-      <c r="J90" s="351"/>
-      <c r="K90" s="351"/>
-      <c r="L90" s="351"/>
-      <c r="M90" s="351"/>
-      <c r="N90" s="351"/>
-      <c r="O90" s="351"/>
-      <c r="P90" s="351"/>
-      <c r="Q90" s="351"/>
-      <c r="R90" s="351"/>
-      <c r="S90" s="351"/>
-      <c r="T90" s="351"/>
-      <c r="U90" s="351"/>
-      <c r="V90" s="351"/>
-      <c r="W90" s="351"/>
-      <c r="X90" s="351"/>
+      <c r="A90" s="358"/>
+      <c r="B90" s="358"/>
+      <c r="C90" s="358"/>
+      <c r="D90" s="358"/>
+      <c r="E90" s="358"/>
+      <c r="F90" s="358"/>
+      <c r="G90" s="358"/>
+      <c r="H90" s="358"/>
+      <c r="I90" s="358"/>
+      <c r="J90" s="358"/>
+      <c r="K90" s="358"/>
+      <c r="L90" s="358"/>
+      <c r="M90" s="358"/>
+      <c r="N90" s="358"/>
+      <c r="O90" s="358"/>
+      <c r="P90" s="358"/>
+      <c r="Q90" s="358"/>
+      <c r="R90" s="358"/>
+      <c r="S90" s="358"/>
+      <c r="T90" s="358"/>
+      <c r="U90" s="358"/>
+      <c r="V90" s="358"/>
+      <c r="W90" s="358"/>
+      <c r="X90" s="358"/>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A91" s="351"/>
-      <c r="B91" s="351"/>
-      <c r="C91" s="351"/>
-      <c r="D91" s="351"/>
-      <c r="E91" s="351"/>
-      <c r="F91" s="351"/>
-      <c r="G91" s="351"/>
-      <c r="H91" s="351"/>
-      <c r="I91" s="351"/>
-      <c r="J91" s="351"/>
-      <c r="K91" s="351"/>
-      <c r="L91" s="351"/>
-      <c r="M91" s="351"/>
-      <c r="N91" s="351"/>
-      <c r="O91" s="351"/>
-      <c r="P91" s="351"/>
-      <c r="Q91" s="351"/>
-      <c r="R91" s="351"/>
-      <c r="S91" s="351"/>
-      <c r="T91" s="351"/>
-      <c r="U91" s="351"/>
-      <c r="V91" s="351"/>
-      <c r="W91" s="351"/>
-      <c r="X91" s="351"/>
+      <c r="A91" s="358"/>
+      <c r="B91" s="358"/>
+      <c r="C91" s="358"/>
+      <c r="D91" s="358"/>
+      <c r="E91" s="358"/>
+      <c r="F91" s="358"/>
+      <c r="G91" s="358"/>
+      <c r="H91" s="358"/>
+      <c r="I91" s="358"/>
+      <c r="J91" s="358"/>
+      <c r="K91" s="358"/>
+      <c r="L91" s="358"/>
+      <c r="M91" s="358"/>
+      <c r="N91" s="358"/>
+      <c r="O91" s="358"/>
+      <c r="P91" s="358"/>
+      <c r="Q91" s="358"/>
+      <c r="R91" s="358"/>
+      <c r="S91" s="358"/>
+      <c r="T91" s="358"/>
+      <c r="U91" s="358"/>
+      <c r="V91" s="358"/>
+      <c r="W91" s="358"/>
+      <c r="X91" s="358"/>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="9"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="9"/>
-      <c r="U92" s="9"/>
-      <c r="V92" s="9"/>
-      <c r="W92" s="9"/>
+      <c r="A92" s="238"/>
+      <c r="B92" s="238"/>
+      <c r="C92" s="238"/>
+      <c r="D92" s="238"/>
+      <c r="E92" s="238"/>
+      <c r="F92" s="238"/>
+      <c r="G92" s="238"/>
+      <c r="H92" s="238"/>
+      <c r="I92" s="238"/>
+      <c r="J92" s="238"/>
+      <c r="K92" s="238"/>
+      <c r="L92" s="238"/>
+      <c r="M92" s="238"/>
+      <c r="N92" s="238"/>
+      <c r="O92" s="238"/>
+      <c r="P92" s="238"/>
+      <c r="Q92" s="238"/>
+      <c r="R92" s="238"/>
+      <c r="S92" s="238"/>
+      <c r="T92" s="238"/>
+      <c r="U92" s="238"/>
+      <c r="V92" s="238"/>
+      <c r="W92" s="238"/>
+      <c r="X92" s="238"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A93" s="224" t="s">
-        <v>439</v>
-      </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="9"/>
-      <c r="P93" s="9"/>
-      <c r="Q93" s="9"/>
-      <c r="R93" s="9"/>
-      <c r="S93" s="9"/>
-      <c r="T93" s="9"/>
-      <c r="U93" s="9"/>
-      <c r="V93" s="9"/>
-    </row>
-    <row r="94" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="352" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" s="353"/>
-      <c r="C94" s="353"/>
-      <c r="D94" s="353"/>
-      <c r="E94" s="353"/>
-      <c r="F94" s="354"/>
-      <c r="G94" s="352" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="353"/>
-      <c r="I94" s="354"/>
-      <c r="J94" s="355" t="s">
-        <v>101</v>
-      </c>
-      <c r="K94" s="356"/>
-      <c r="L94" s="356"/>
-      <c r="M94" s="356"/>
-      <c r="N94" s="357"/>
-      <c r="O94" s="352" t="s">
-        <v>440</v>
-      </c>
-      <c r="P94" s="353"/>
-      <c r="Q94" s="353"/>
-      <c r="R94" s="353"/>
-      <c r="S94" s="353"/>
-      <c r="T94" s="354"/>
-      <c r="U94" s="355" t="s">
-        <v>441</v>
-      </c>
-      <c r="V94" s="356"/>
-      <c r="W94" s="356"/>
-      <c r="X94" s="357"/>
+      <c r="A93" s="238"/>
+      <c r="B93" s="238"/>
+      <c r="C93" s="238"/>
+      <c r="D93" s="238"/>
+      <c r="E93" s="238"/>
+      <c r="F93" s="238"/>
+      <c r="G93" s="238"/>
+      <c r="H93" s="238"/>
+      <c r="I93" s="238"/>
+      <c r="J93" s="238"/>
+      <c r="K93" s="238"/>
+      <c r="L93" s="238"/>
+      <c r="M93" s="238"/>
+      <c r="N93" s="238"/>
+      <c r="O93" s="238"/>
+      <c r="P93" s="238"/>
+      <c r="Q93" s="238"/>
+      <c r="R93" s="238"/>
+      <c r="S93" s="238"/>
+      <c r="T93" s="238"/>
+      <c r="U93" s="238"/>
+      <c r="V93" s="238"/>
+      <c r="W93" s="238"/>
+      <c r="X93" s="238"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A94" s="238"/>
+      <c r="B94" s="238"/>
+      <c r="C94" s="238"/>
+      <c r="D94" s="238"/>
+      <c r="E94" s="238"/>
+      <c r="F94" s="238"/>
+      <c r="G94" s="238"/>
+      <c r="H94" s="238"/>
+      <c r="I94" s="238"/>
+      <c r="J94" s="238"/>
+      <c r="K94" s="238"/>
+      <c r="L94" s="238"/>
+      <c r="M94" s="238"/>
+      <c r="N94" s="238"/>
+      <c r="O94" s="238"/>
+      <c r="P94" s="238"/>
+      <c r="Q94" s="238"/>
+      <c r="R94" s="238"/>
+      <c r="S94" s="238"/>
+      <c r="T94" s="238"/>
+      <c r="U94" s="238"/>
+      <c r="V94" s="238"/>
+      <c r="W94" s="238"/>
+      <c r="X94" s="238"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A95" s="345" t="s">
-        <v>709</v>
-      </c>
-      <c r="B95" s="346" t="s">
-        <v>449</v>
-      </c>
-      <c r="C95" s="346" t="s">
-        <v>449</v>
-      </c>
-      <c r="D95" s="346" t="s">
-        <v>449</v>
-      </c>
-      <c r="E95" s="346" t="s">
-        <v>449</v>
-      </c>
-      <c r="F95" s="347" t="s">
-        <v>449</v>
-      </c>
-      <c r="G95" s="345" t="s">
-        <v>477</v>
-      </c>
-      <c r="H95" s="346" t="s">
-        <v>294</v>
-      </c>
-      <c r="I95" s="347" t="s">
-        <v>294</v>
-      </c>
-      <c r="J95" s="348" t="s">
-        <v>700</v>
-      </c>
-      <c r="K95" s="349" t="s">
-        <v>453</v>
-      </c>
-      <c r="L95" s="349">
-        <v>43393</v>
-      </c>
-      <c r="M95" s="349" t="s">
-        <v>466</v>
-      </c>
-      <c r="N95" s="350" t="s">
-        <v>453</v>
-      </c>
-      <c r="O95" s="345" t="s">
-        <v>453</v>
-      </c>
-      <c r="P95" s="346" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q95" s="346" t="s">
-        <v>453</v>
-      </c>
-      <c r="R95" s="346" t="s">
-        <v>453</v>
-      </c>
-      <c r="S95" s="346" t="s">
-        <v>453</v>
-      </c>
-      <c r="T95" s="347" t="s">
-        <v>453</v>
-      </c>
-      <c r="U95" s="348">
-        <v>44878</v>
-      </c>
-      <c r="V95" s="349" t="s">
-        <v>466</v>
-      </c>
-      <c r="W95" s="349" t="s">
-        <v>453</v>
-      </c>
-      <c r="X95" s="350">
-        <v>43393</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="345" t="s">
-        <v>710</v>
-      </c>
-      <c r="B96" s="346"/>
-      <c r="C96" s="346"/>
-      <c r="D96" s="346"/>
-      <c r="E96" s="346"/>
-      <c r="F96" s="347"/>
-      <c r="G96" s="345" t="s">
-        <v>311</v>
-      </c>
-      <c r="H96" s="346" t="s">
-        <v>294</v>
-      </c>
-      <c r="I96" s="347" t="s">
-        <v>294</v>
-      </c>
-      <c r="J96" s="348" t="s">
-        <v>714</v>
-      </c>
-      <c r="K96" s="349" t="s">
-        <v>453</v>
-      </c>
-      <c r="L96" s="349">
-        <v>43394</v>
-      </c>
-      <c r="M96" s="349" t="s">
-        <v>471</v>
-      </c>
-      <c r="N96" s="350" t="s">
-        <v>453</v>
-      </c>
-      <c r="O96" s="345" t="s">
-        <v>453</v>
-      </c>
-      <c r="P96" s="346" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q96" s="346" t="s">
-        <v>453</v>
-      </c>
-      <c r="R96" s="346" t="s">
-        <v>453</v>
-      </c>
-      <c r="S96" s="346" t="s">
-        <v>453</v>
-      </c>
-      <c r="T96" s="347" t="s">
-        <v>453</v>
-      </c>
-      <c r="U96" s="348">
-        <v>44878</v>
-      </c>
-      <c r="V96" s="349" t="s">
-        <v>471</v>
-      </c>
-      <c r="W96" s="349" t="s">
-        <v>453</v>
-      </c>
-      <c r="X96" s="350">
-        <v>43394</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="345"/>
-      <c r="B97" s="346"/>
-      <c r="C97" s="346"/>
-      <c r="D97" s="346"/>
-      <c r="E97" s="346"/>
-      <c r="F97" s="347"/>
-      <c r="G97" s="345"/>
-      <c r="H97" s="346"/>
-      <c r="I97" s="347"/>
-      <c r="J97" s="348"/>
-      <c r="K97" s="349"/>
-      <c r="L97" s="349"/>
-      <c r="M97" s="349"/>
-      <c r="N97" s="350"/>
-      <c r="O97" s="345"/>
-      <c r="P97" s="346"/>
-      <c r="Q97" s="346"/>
-      <c r="R97" s="346"/>
-      <c r="S97" s="346"/>
-      <c r="T97" s="347"/>
-      <c r="U97" s="348"/>
-      <c r="V97" s="349"/>
-      <c r="W97" s="349"/>
-      <c r="X97" s="350"/>
-    </row>
-    <row r="98" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="238"/>
+      <c r="B95" s="238"/>
+      <c r="C95" s="238"/>
+      <c r="D95" s="238"/>
+      <c r="E95" s="238"/>
+      <c r="F95" s="238"/>
+      <c r="G95" s="238"/>
+      <c r="H95" s="238"/>
+      <c r="I95" s="238"/>
+      <c r="J95" s="238"/>
+      <c r="K95" s="238"/>
+      <c r="L95" s="238"/>
+      <c r="M95" s="238"/>
+      <c r="N95" s="238"/>
+      <c r="O95" s="238"/>
+      <c r="P95" s="238"/>
+      <c r="Q95" s="238"/>
+      <c r="R95" s="238"/>
+      <c r="S95" s="238"/>
+      <c r="T95" s="238"/>
+      <c r="U95" s="238"/>
+      <c r="V95" s="238"/>
+      <c r="W95" s="238"/>
+      <c r="X95" s="238"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A96" s="238"/>
+      <c r="B96" s="238"/>
+      <c r="C96" s="238"/>
+      <c r="D96" s="238"/>
+      <c r="E96" s="238"/>
+      <c r="F96" s="238"/>
+      <c r="G96" s="238"/>
+      <c r="H96" s="238"/>
+      <c r="I96" s="238"/>
+      <c r="J96" s="238"/>
+      <c r="K96" s="238"/>
+      <c r="L96" s="238"/>
+      <c r="M96" s="238"/>
+      <c r="N96" s="238"/>
+      <c r="O96" s="238"/>
+      <c r="P96" s="238"/>
+      <c r="Q96" s="238"/>
+      <c r="R96" s="238"/>
+      <c r="S96" s="238"/>
+      <c r="T96" s="238"/>
+      <c r="U96" s="238"/>
+      <c r="V96" s="238"/>
+      <c r="W96" s="238"/>
+      <c r="X96" s="238"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A97" s="238"/>
+      <c r="B97" s="238"/>
+      <c r="C97" s="238"/>
+      <c r="D97" s="238"/>
+      <c r="E97" s="238"/>
+      <c r="F97" s="238"/>
+      <c r="G97" s="238"/>
+      <c r="H97" s="238"/>
+      <c r="I97" s="238"/>
+      <c r="J97" s="238"/>
+      <c r="K97" s="238"/>
+      <c r="L97" s="238"/>
+      <c r="M97" s="238"/>
+      <c r="N97" s="238"/>
+      <c r="O97" s="238"/>
+      <c r="P97" s="238"/>
+      <c r="Q97" s="238"/>
+      <c r="R97" s="238"/>
+      <c r="S97" s="238"/>
+      <c r="T97" s="238"/>
+      <c r="U97" s="238"/>
+      <c r="V97" s="238"/>
+      <c r="W97" s="238"/>
+      <c r="X97" s="238"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A98" s="238"/>
       <c r="B98" s="238"/>
       <c r="C98" s="238"/>
@@ -38778,288 +38683,365 @@
       <c r="W98" s="238"/>
       <c r="X98" s="238"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A99" s="224" t="s">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A99" s="238"/>
+      <c r="B99" s="238"/>
+      <c r="C99" s="238"/>
+      <c r="D99" s="238"/>
+      <c r="E99" s="238"/>
+      <c r="F99" s="238"/>
+      <c r="G99" s="238"/>
+      <c r="H99" s="238"/>
+      <c r="I99" s="238"/>
+      <c r="J99" s="238"/>
+      <c r="K99" s="238"/>
+      <c r="L99" s="238"/>
+      <c r="M99" s="238"/>
+      <c r="N99" s="238"/>
+      <c r="O99" s="238"/>
+      <c r="P99" s="238"/>
+      <c r="Q99" s="238"/>
+      <c r="R99" s="238"/>
+      <c r="S99" s="238"/>
+      <c r="T99" s="238"/>
+      <c r="U99" s="238"/>
+      <c r="V99" s="238"/>
+      <c r="W99" s="238"/>
+      <c r="X99" s="238"/>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A100" s="238"/>
+      <c r="B100" s="238"/>
+      <c r="C100" s="238"/>
+      <c r="D100" s="238"/>
+      <c r="E100" s="238"/>
+      <c r="F100" s="238"/>
+      <c r="G100" s="238"/>
+      <c r="H100" s="238"/>
+      <c r="I100" s="238"/>
+      <c r="J100" s="238"/>
+      <c r="K100" s="238"/>
+      <c r="L100" s="238"/>
+      <c r="M100" s="238"/>
+      <c r="N100" s="238"/>
+      <c r="O100" s="238"/>
+      <c r="P100" s="238"/>
+      <c r="Q100" s="238"/>
+      <c r="R100" s="238"/>
+      <c r="S100" s="238"/>
+      <c r="T100" s="238"/>
+      <c r="U100" s="238"/>
+      <c r="V100" s="238"/>
+      <c r="W100" s="238"/>
+      <c r="X100" s="238"/>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A101" s="238"/>
+      <c r="B101" s="238"/>
+      <c r="C101" s="238"/>
+      <c r="D101" s="238"/>
+      <c r="E101" s="238"/>
+      <c r="F101" s="238"/>
+      <c r="G101" s="238"/>
+      <c r="H101" s="238"/>
+      <c r="I101" s="238"/>
+      <c r="J101" s="238"/>
+      <c r="K101" s="238"/>
+      <c r="L101" s="238"/>
+      <c r="M101" s="238"/>
+      <c r="N101" s="238"/>
+      <c r="O101" s="238"/>
+      <c r="P101" s="238"/>
+      <c r="Q101" s="238"/>
+      <c r="R101" s="238"/>
+      <c r="S101" s="238"/>
+      <c r="T101" s="238"/>
+      <c r="U101" s="238"/>
+      <c r="V101" s="238"/>
+      <c r="W101" s="238"/>
+      <c r="X101" s="238"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A102" s="238"/>
+      <c r="B102" s="238"/>
+      <c r="C102" s="238"/>
+      <c r="D102" s="238"/>
+      <c r="E102" s="238"/>
+      <c r="F102" s="238"/>
+      <c r="G102" s="238"/>
+      <c r="H102" s="238"/>
+      <c r="I102" s="238"/>
+      <c r="J102" s="238"/>
+      <c r="K102" s="238"/>
+      <c r="L102" s="238"/>
+      <c r="M102" s="238"/>
+      <c r="N102" s="238"/>
+      <c r="O102" s="238"/>
+      <c r="P102" s="238"/>
+      <c r="Q102" s="238"/>
+      <c r="R102" s="238"/>
+      <c r="S102" s="238"/>
+      <c r="T102" s="238"/>
+      <c r="U102" s="238"/>
+      <c r="V102" s="238"/>
+      <c r="W102" s="238"/>
+      <c r="X102" s="238"/>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A103" s="224" t="s">
+        <v>439</v>
+      </c>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9"/>
+    </row>
+    <row r="104" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="359" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="360"/>
+      <c r="C104" s="360"/>
+      <c r="D104" s="360"/>
+      <c r="E104" s="360"/>
+      <c r="F104" s="361"/>
+      <c r="G104" s="359" t="s">
+        <v>4</v>
+      </c>
+      <c r="H104" s="360"/>
+      <c r="I104" s="361"/>
+      <c r="J104" s="362" t="s">
+        <v>101</v>
+      </c>
+      <c r="K104" s="363"/>
+      <c r="L104" s="363"/>
+      <c r="M104" s="363"/>
+      <c r="N104" s="364"/>
+      <c r="O104" s="359" t="s">
+        <v>440</v>
+      </c>
+      <c r="P104" s="360"/>
+      <c r="Q104" s="360"/>
+      <c r="R104" s="360"/>
+      <c r="S104" s="360"/>
+      <c r="T104" s="361"/>
+      <c r="U104" s="362" t="s">
+        <v>441</v>
+      </c>
+      <c r="V104" s="363"/>
+      <c r="W104" s="363"/>
+      <c r="X104" s="364"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A105" s="367" t="s">
+        <v>709</v>
+      </c>
+      <c r="B105" s="368" t="s">
+        <v>449</v>
+      </c>
+      <c r="C105" s="368" t="s">
+        <v>449</v>
+      </c>
+      <c r="D105" s="368" t="s">
+        <v>449</v>
+      </c>
+      <c r="E105" s="368" t="s">
+        <v>449</v>
+      </c>
+      <c r="F105" s="369" t="s">
+        <v>449</v>
+      </c>
+      <c r="G105" s="367" t="s">
+        <v>477</v>
+      </c>
+      <c r="H105" s="368" t="s">
+        <v>294</v>
+      </c>
+      <c r="I105" s="369" t="s">
+        <v>294</v>
+      </c>
+      <c r="J105" s="370" t="s">
+        <v>700</v>
+      </c>
+      <c r="K105" s="371" t="s">
+        <v>453</v>
+      </c>
+      <c r="L105" s="371">
+        <v>43393</v>
+      </c>
+      <c r="M105" s="371" t="s">
+        <v>466</v>
+      </c>
+      <c r="N105" s="372" t="s">
+        <v>453</v>
+      </c>
+      <c r="O105" s="367" t="s">
+        <v>453</v>
+      </c>
+      <c r="P105" s="368" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q105" s="368" t="s">
+        <v>453</v>
+      </c>
+      <c r="R105" s="368" t="s">
+        <v>453</v>
+      </c>
+      <c r="S105" s="368" t="s">
+        <v>453</v>
+      </c>
+      <c r="T105" s="369" t="s">
+        <v>453</v>
+      </c>
+      <c r="U105" s="370">
+        <v>44878</v>
+      </c>
+      <c r="V105" s="371" t="s">
+        <v>466</v>
+      </c>
+      <c r="W105" s="371" t="s">
+        <v>453</v>
+      </c>
+      <c r="X105" s="372">
+        <v>43393</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="367" t="s">
+        <v>710</v>
+      </c>
+      <c r="B106" s="368"/>
+      <c r="C106" s="368"/>
+      <c r="D106" s="368"/>
+      <c r="E106" s="368"/>
+      <c r="F106" s="369"/>
+      <c r="G106" s="367" t="s">
+        <v>311</v>
+      </c>
+      <c r="H106" s="368" t="s">
+        <v>294</v>
+      </c>
+      <c r="I106" s="369" t="s">
+        <v>294</v>
+      </c>
+      <c r="J106" s="370" t="s">
+        <v>714</v>
+      </c>
+      <c r="K106" s="371" t="s">
+        <v>453</v>
+      </c>
+      <c r="L106" s="371">
+        <v>43394</v>
+      </c>
+      <c r="M106" s="371" t="s">
+        <v>471</v>
+      </c>
+      <c r="N106" s="372" t="s">
+        <v>453</v>
+      </c>
+      <c r="O106" s="367" t="s">
+        <v>453</v>
+      </c>
+      <c r="P106" s="368" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q106" s="368" t="s">
+        <v>453</v>
+      </c>
+      <c r="R106" s="368" t="s">
+        <v>453</v>
+      </c>
+      <c r="S106" s="368" t="s">
+        <v>453</v>
+      </c>
+      <c r="T106" s="369" t="s">
+        <v>453</v>
+      </c>
+      <c r="U106" s="370">
+        <v>44878</v>
+      </c>
+      <c r="V106" s="371" t="s">
+        <v>471</v>
+      </c>
+      <c r="W106" s="371" t="s">
+        <v>453</v>
+      </c>
+      <c r="X106" s="372">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="367"/>
+      <c r="B107" s="368"/>
+      <c r="C107" s="368"/>
+      <c r="D107" s="368"/>
+      <c r="E107" s="368"/>
+      <c r="F107" s="369"/>
+      <c r="G107" s="367"/>
+      <c r="H107" s="368"/>
+      <c r="I107" s="369"/>
+      <c r="J107" s="370"/>
+      <c r="K107" s="371"/>
+      <c r="L107" s="371"/>
+      <c r="M107" s="371"/>
+      <c r="N107" s="372"/>
+      <c r="O107" s="367"/>
+      <c r="P107" s="368"/>
+      <c r="Q107" s="368"/>
+      <c r="R107" s="368"/>
+      <c r="S107" s="368"/>
+      <c r="T107" s="369"/>
+      <c r="U107" s="370"/>
+      <c r="V107" s="371"/>
+      <c r="W107" s="371"/>
+      <c r="X107" s="372"/>
+    </row>
+    <row r="108" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="238"/>
+      <c r="B108" s="238"/>
+      <c r="C108" s="238"/>
+      <c r="D108" s="238"/>
+      <c r="E108" s="238"/>
+      <c r="F108" s="238"/>
+      <c r="G108" s="238"/>
+      <c r="H108" s="238"/>
+      <c r="I108" s="238"/>
+      <c r="J108" s="238"/>
+      <c r="K108" s="238"/>
+      <c r="L108" s="238"/>
+      <c r="M108" s="238"/>
+      <c r="N108" s="238"/>
+      <c r="O108" s="238"/>
+      <c r="P108" s="238"/>
+      <c r="Q108" s="238"/>
+      <c r="R108" s="238"/>
+      <c r="S108" s="238"/>
+      <c r="T108" s="238"/>
+      <c r="U108" s="238"/>
+      <c r="V108" s="238"/>
+      <c r="W108" s="238"/>
+      <c r="X108" s="238"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A109" s="224" t="s">
         <v>442</v>
-      </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9"/>
-      <c r="R99" s="9"/>
-      <c r="S99" s="9"/>
-      <c r="T99" s="9"/>
-      <c r="U99" s="9"/>
-      <c r="V99" s="9"/>
-      <c r="W99" s="9"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A100" s="239" t="s">
-        <v>443</v>
-      </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-      <c r="N100" s="14"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="14"/>
-      <c r="Q100" s="14"/>
-      <c r="R100" s="14"/>
-      <c r="S100" s="14"/>
-      <c r="T100" s="14"/>
-      <c r="U100" s="14"/>
-      <c r="V100" s="14"/>
-      <c r="W100" s="14"/>
-      <c r="X100" s="9"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A101" s="240" t="s">
-        <v>525</v>
-      </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
-      <c r="R101" s="14"/>
-      <c r="S101" s="14"/>
-      <c r="T101" s="14"/>
-      <c r="U101" s="14"/>
-      <c r="V101" s="14"/>
-      <c r="W101" s="14"/>
-      <c r="X101" s="9"/>
-    </row>
-    <row r="102" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="351" t="str">
-        <f>IF(Calibración!E10="2",Calibración!BJ6,Calibración!BJ7)</f>
-        <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
-      </c>
-      <c r="B102" s="351"/>
-      <c r="C102" s="351"/>
-      <c r="D102" s="351"/>
-      <c r="E102" s="351"/>
-      <c r="F102" s="351"/>
-      <c r="G102" s="351"/>
-      <c r="H102" s="351"/>
-      <c r="I102" s="351"/>
-      <c r="J102" s="351"/>
-      <c r="K102" s="351"/>
-      <c r="L102" s="351"/>
-      <c r="M102" s="351"/>
-      <c r="N102" s="351"/>
-      <c r="O102" s="351"/>
-      <c r="P102" s="351"/>
-      <c r="Q102" s="351"/>
-      <c r="R102" s="351"/>
-      <c r="S102" s="351"/>
-      <c r="T102" s="351"/>
-      <c r="U102" s="351"/>
-      <c r="V102" s="351"/>
-      <c r="W102" s="351"/>
-      <c r="X102" s="351"/>
-    </row>
-    <row r="103" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="351"/>
-      <c r="B103" s="351"/>
-      <c r="C103" s="351"/>
-      <c r="D103" s="351"/>
-      <c r="E103" s="351"/>
-      <c r="F103" s="351"/>
-      <c r="G103" s="351"/>
-      <c r="H103" s="351"/>
-      <c r="I103" s="351"/>
-      <c r="J103" s="351"/>
-      <c r="K103" s="351"/>
-      <c r="L103" s="351"/>
-      <c r="M103" s="351"/>
-      <c r="N103" s="351"/>
-      <c r="O103" s="351"/>
-      <c r="P103" s="351"/>
-      <c r="Q103" s="351"/>
-      <c r="R103" s="351"/>
-      <c r="S103" s="351"/>
-      <c r="T103" s="351"/>
-      <c r="U103" s="351"/>
-      <c r="V103" s="351"/>
-      <c r="W103" s="351"/>
-      <c r="X103" s="351"/>
-    </row>
-    <row r="104" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="239" t="s">
-        <v>444</v>
-      </c>
-      <c r="B104" s="9"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="14"/>
-      <c r="N104" s="14"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="14"/>
-      <c r="Q104" s="14"/>
-      <c r="R104" s="14"/>
-      <c r="S104" s="14"/>
-      <c r="T104" s="14"/>
-      <c r="U104" s="14"/>
-      <c r="V104" s="14"/>
-      <c r="W104" s="14"/>
-      <c r="X104" s="9"/>
-    </row>
-    <row r="105" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="239" t="s">
-        <v>445</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="14"/>
-      <c r="N105" s="14"/>
-      <c r="O105" s="14"/>
-      <c r="P105" s="14"/>
-      <c r="Q105" s="14"/>
-      <c r="R105" s="14"/>
-      <c r="S105" s="14"/>
-      <c r="T105" s="14"/>
-      <c r="U105" s="14"/>
-      <c r="V105" s="14"/>
-      <c r="W105" s="14"/>
-      <c r="X105" s="9"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A106" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
-      <c r="O106" s="9"/>
-      <c r="P106" s="9"/>
-      <c r="Q106" s="9"/>
-      <c r="R106" s="9"/>
-      <c r="S106" s="9"/>
-      <c r="T106" s="9"/>
-      <c r="U106" s="9"/>
-      <c r="V106" s="9"/>
-      <c r="W106" s="9"/>
-      <c r="X106" s="9"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A107" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
-      <c r="N107" s="9"/>
-      <c r="O107" s="9"/>
-      <c r="P107" s="9"/>
-      <c r="Q107" s="9"/>
-      <c r="R107" s="9"/>
-      <c r="S107" s="9"/>
-      <c r="T107" s="9"/>
-      <c r="U107" s="9"/>
-      <c r="V107" s="9"/>
-      <c r="W107" s="9"/>
-      <c r="X107" s="9"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A108" s="9" t="str">
-        <f>IF(General!F16=General!W124,General!Y131,IF(General!F16=General!W125,General!Y133,IF(General!F16=General!W126,General!Y140,IF(General!F16=General!W127,General!Y121,IF(General!F16=General!W128,General!Y141,IF(General!F16=General!W129,General!Y139,IF(General!F16=General!W130,General!Y125,IF(General!F16=General!W131,General!Y136,IF(General!F16=General!W132,General!Y137,IF(General!F16=General!W133,General!Y138,IF(General!F16=General!W134,General!Y147,IF(General!F16=General!W135,General!Y148,IF(General!F16=General!W136,General!Y134,IF(General!F16=General!W137,General!Y145,IF(General!F16=General!W138,General!Y149)))))))))))))))</f>
-        <v>El factor de conversión al SI corresponde a 1 psi = 6,894 757 kPa</v>
-      </c>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="9"/>
-      <c r="N108" s="9"/>
-      <c r="O108" s="9"/>
-      <c r="P108" s="9"/>
-      <c r="Q108" s="9"/>
-      <c r="R108" s="14"/>
-      <c r="S108" s="14"/>
-      <c r="T108" s="9"/>
-      <c r="U108" s="9"/>
-      <c r="V108" s="9"/>
-      <c r="W108" s="9"/>
-      <c r="X108" s="9"/>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A109" s="240" t="s">
-        <v>527</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -39077,69 +39059,474 @@
       <c r="O109" s="9"/>
       <c r="P109" s="9"/>
       <c r="Q109" s="9"/>
-      <c r="R109" s="14"/>
-      <c r="S109" s="14"/>
-      <c r="T109" s="14"/>
-      <c r="U109" s="14"/>
-      <c r="V109" s="14"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
+      <c r="V109" s="9"/>
       <c r="W109" s="9"/>
-      <c r="X109" s="9"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="Y112" s="9"/>
-    </row>
-    <row r="113" spans="9:25" x14ac:dyDescent="0.3">
-      <c r="I113" s="341" t="s">
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A110" s="239" t="s">
+        <v>443</v>
+      </c>
+      <c r="B110" s="9"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="14"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="14"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="14"/>
+      <c r="Q110" s="14"/>
+      <c r="R110" s="14"/>
+      <c r="S110" s="14"/>
+      <c r="T110" s="14"/>
+      <c r="U110" s="14"/>
+      <c r="V110" s="14"/>
+      <c r="W110" s="14"/>
+      <c r="X110" s="9"/>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A111" s="240" t="s">
+        <v>525</v>
+      </c>
+      <c r="B111" s="9"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="14"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="14"/>
+      <c r="R111" s="14"/>
+      <c r="S111" s="14"/>
+      <c r="T111" s="14"/>
+      <c r="U111" s="14"/>
+      <c r="V111" s="14"/>
+      <c r="W111" s="14"/>
+      <c r="X111" s="9"/>
+    </row>
+    <row r="112" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="358" t="str">
+        <f>IF(Calibración!E10="2",Calibración!BJ6,Calibración!BJ7)</f>
+        <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
+      </c>
+      <c r="B112" s="358"/>
+      <c r="C112" s="358"/>
+      <c r="D112" s="358"/>
+      <c r="E112" s="358"/>
+      <c r="F112" s="358"/>
+      <c r="G112" s="358"/>
+      <c r="H112" s="358"/>
+      <c r="I112" s="358"/>
+      <c r="J112" s="358"/>
+      <c r="K112" s="358"/>
+      <c r="L112" s="358"/>
+      <c r="M112" s="358"/>
+      <c r="N112" s="358"/>
+      <c r="O112" s="358"/>
+      <c r="P112" s="358"/>
+      <c r="Q112" s="358"/>
+      <c r="R112" s="358"/>
+      <c r="S112" s="358"/>
+      <c r="T112" s="358"/>
+      <c r="U112" s="358"/>
+      <c r="V112" s="358"/>
+      <c r="W112" s="358"/>
+      <c r="X112" s="358"/>
+    </row>
+    <row r="113" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="358"/>
+      <c r="B113" s="358"/>
+      <c r="C113" s="358"/>
+      <c r="D113" s="358"/>
+      <c r="E113" s="358"/>
+      <c r="F113" s="358"/>
+      <c r="G113" s="358"/>
+      <c r="H113" s="358"/>
+      <c r="I113" s="358"/>
+      <c r="J113" s="358"/>
+      <c r="K113" s="358"/>
+      <c r="L113" s="358"/>
+      <c r="M113" s="358"/>
+      <c r="N113" s="358"/>
+      <c r="O113" s="358"/>
+      <c r="P113" s="358"/>
+      <c r="Q113" s="358"/>
+      <c r="R113" s="358"/>
+      <c r="S113" s="358"/>
+      <c r="T113" s="358"/>
+      <c r="U113" s="358"/>
+      <c r="V113" s="358"/>
+      <c r="W113" s="358"/>
+      <c r="X113" s="358"/>
+    </row>
+    <row r="114" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="239" t="s">
+        <v>444</v>
+      </c>
+      <c r="B114" s="9"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="14"/>
+      <c r="K114" s="14"/>
+      <c r="L114" s="14"/>
+      <c r="M114" s="14"/>
+      <c r="N114" s="14"/>
+      <c r="O114" s="14"/>
+      <c r="P114" s="14"/>
+      <c r="Q114" s="14"/>
+      <c r="R114" s="14"/>
+      <c r="S114" s="14"/>
+      <c r="T114" s="14"/>
+      <c r="U114" s="14"/>
+      <c r="V114" s="14"/>
+      <c r="W114" s="14"/>
+      <c r="X114" s="9"/>
+    </row>
+    <row r="115" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="239" t="s">
+        <v>445</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="14"/>
+      <c r="L115" s="14"/>
+      <c r="M115" s="14"/>
+      <c r="N115" s="14"/>
+      <c r="O115" s="14"/>
+      <c r="P115" s="14"/>
+      <c r="Q115" s="14"/>
+      <c r="R115" s="14"/>
+      <c r="S115" s="14"/>
+      <c r="T115" s="14"/>
+      <c r="U115" s="14"/>
+      <c r="V115" s="14"/>
+      <c r="W115" s="14"/>
+      <c r="X115" s="9"/>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A116" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
+      <c r="U116" s="9"/>
+      <c r="V116" s="9"/>
+      <c r="W116" s="9"/>
+      <c r="X116" s="9"/>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
+      <c r="V117" s="9"/>
+      <c r="W117" s="9"/>
+      <c r="X117" s="9"/>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A118" s="9" t="str">
+        <f>IF(General!F16=General!W124,General!Y131,IF(General!F16=General!W125,General!Y133,IF(General!F16=General!W126,General!Y140,IF(General!F16=General!W127,General!Y121,IF(General!F16=General!W128,General!Y141,IF(General!F16=General!W129,General!Y139,IF(General!F16=General!W130,General!Y125,IF(General!F16=General!W131,General!Y136,IF(General!F16=General!W132,General!Y137,IF(General!F16=General!W133,General!Y138,IF(General!F16=General!W134,General!Y147,IF(General!F16=General!W135,General!Y148,IF(General!F16=General!W136,General!Y134,IF(General!F16=General!W137,General!Y145,IF(General!F16=General!W138,General!Y149)))))))))))))))</f>
+        <v>El factor de conversión al SI corresponde a 1 psi = 6,894 757 kPa</v>
+      </c>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="14"/>
+      <c r="S118" s="14"/>
+      <c r="T118" s="9"/>
+      <c r="U118" s="9"/>
+      <c r="V118" s="9"/>
+      <c r="W118" s="9"/>
+      <c r="X118" s="9"/>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A119" s="240" t="s">
+        <v>527</v>
+      </c>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+      <c r="R119" s="14"/>
+      <c r="S119" s="14"/>
+      <c r="T119" s="14"/>
+      <c r="U119" s="14"/>
+      <c r="V119" s="14"/>
+      <c r="W119" s="9"/>
+      <c r="X119" s="9"/>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y122" s="9"/>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I123" s="373" t="s">
         <v>30</v>
       </c>
-      <c r="J113" s="341"/>
-      <c r="K113" s="341"/>
-      <c r="L113" s="341"/>
-      <c r="M113" s="341"/>
-      <c r="N113" s="341"/>
-      <c r="O113" s="341"/>
-      <c r="P113" s="341"/>
-      <c r="Y113" s="9"/>
-    </row>
-    <row r="114" spans="9:25" x14ac:dyDescent="0.3">
-      <c r="I114" s="342" t="str">
-        <f>IF(I113=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
+      <c r="J123" s="373"/>
+      <c r="K123" s="373"/>
+      <c r="L123" s="373"/>
+      <c r="M123" s="373"/>
+      <c r="N123" s="373"/>
+      <c r="O123" s="373"/>
+      <c r="P123" s="373"/>
+      <c r="Y123" s="9"/>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I124" s="374" t="str">
+        <f>IF(I123=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
         <v>Director Técnico</v>
       </c>
-      <c r="J114" s="342"/>
-      <c r="K114" s="342"/>
-      <c r="L114" s="342"/>
-      <c r="M114" s="342"/>
-      <c r="N114" s="342"/>
-      <c r="O114" s="342"/>
-      <c r="P114" s="342"/>
-    </row>
-    <row r="115" spans="9:25" x14ac:dyDescent="0.3">
-      <c r="I115" s="343" t="s">
+      <c r="J124" s="374"/>
+      <c r="K124" s="374"/>
+      <c r="L124" s="374"/>
+      <c r="M124" s="374"/>
+      <c r="N124" s="374"/>
+      <c r="O124" s="374"/>
+      <c r="P124" s="374"/>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I125" s="375" t="s">
         <v>446</v>
       </c>
-      <c r="J115" s="343"/>
-      <c r="K115" s="343"/>
-      <c r="L115" s="343"/>
-      <c r="M115" s="343"/>
-      <c r="N115" s="343"/>
-      <c r="O115" s="343"/>
-      <c r="P115" s="343"/>
-    </row>
-    <row r="116" spans="9:25" x14ac:dyDescent="0.3">
-      <c r="I116" s="344" t="s">
+      <c r="J125" s="375"/>
+      <c r="K125" s="375"/>
+      <c r="L125" s="375"/>
+      <c r="M125" s="375"/>
+      <c r="N125" s="375"/>
+      <c r="O125" s="375"/>
+      <c r="P125" s="375"/>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I126" s="376" t="s">
         <v>447</v>
       </c>
-      <c r="J116" s="344"/>
-      <c r="K116" s="344"/>
-      <c r="L116" s="344"/>
-      <c r="M116" s="344"/>
-      <c r="N116" s="344"/>
-      <c r="O116" s="344"/>
-      <c r="P116" s="344"/>
+      <c r="J126" s="376"/>
+      <c r="K126" s="376"/>
+      <c r="L126" s="376"/>
+      <c r="M126" s="376"/>
+      <c r="N126" s="376"/>
+      <c r="O126" s="376"/>
+      <c r="P126" s="376"/>
     </row>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="I123:P123"/>
+    <mergeCell ref="I124:P124"/>
+    <mergeCell ref="I125:P125"/>
+    <mergeCell ref="I126:P126"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="J107:N107"/>
+    <mergeCell ref="O107:T107"/>
+    <mergeCell ref="U107:X107"/>
+    <mergeCell ref="A112:X113"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="J105:N105"/>
+    <mergeCell ref="O105:T105"/>
+    <mergeCell ref="U105:X105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="J106:N106"/>
+    <mergeCell ref="O106:T106"/>
+    <mergeCell ref="U106:X106"/>
+    <mergeCell ref="A84:X84"/>
+    <mergeCell ref="A87:X91"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="J104:N104"/>
+    <mergeCell ref="O104:T104"/>
+    <mergeCell ref="U104:X104"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:K70"/>
+    <mergeCell ref="L70:Q70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="N77:X77"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="R73:W73"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:K69"/>
+    <mergeCell ref="L69:Q69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:K66"/>
+    <mergeCell ref="L66:Q66"/>
+    <mergeCell ref="R66:W66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:K67"/>
+    <mergeCell ref="L67:Q67"/>
+    <mergeCell ref="R67:W67"/>
+    <mergeCell ref="R64:W64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:K65"/>
+    <mergeCell ref="L65:Q65"/>
+    <mergeCell ref="R65:W65"/>
+    <mergeCell ref="D60:W60"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="F61:K62"/>
+    <mergeCell ref="L61:Q62"/>
+    <mergeCell ref="R61:W62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="R63:W63"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="F25:K26"/>
+    <mergeCell ref="L25:Q26"/>
+    <mergeCell ref="R25:W26"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N21:X22"/>
+    <mergeCell ref="D24:W24"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="R35:W35"/>
+    <mergeCell ref="R36:W36"/>
+    <mergeCell ref="R37:W37"/>
+    <mergeCell ref="L35:Q35"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="L37:Q37"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="F37:K37"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
@@ -39158,139 +39545,13 @@
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="F68:K68"/>
     <mergeCell ref="L68:Q68"/>
-    <mergeCell ref="R35:W35"/>
-    <mergeCell ref="R36:W36"/>
-    <mergeCell ref="R37:W37"/>
-    <mergeCell ref="L35:Q35"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="L37:Q37"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N21:X22"/>
-    <mergeCell ref="D24:W24"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="F25:K26"/>
-    <mergeCell ref="L25:Q26"/>
-    <mergeCell ref="R25:W26"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="R64:W64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:K65"/>
-    <mergeCell ref="L65:Q65"/>
-    <mergeCell ref="R65:W65"/>
-    <mergeCell ref="D60:W60"/>
-    <mergeCell ref="D61:E62"/>
-    <mergeCell ref="F61:K62"/>
-    <mergeCell ref="L61:Q62"/>
-    <mergeCell ref="R61:W62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:K63"/>
-    <mergeCell ref="L63:Q63"/>
-    <mergeCell ref="R63:W63"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:K69"/>
-    <mergeCell ref="L69:Q69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:K66"/>
-    <mergeCell ref="L66:Q66"/>
-    <mergeCell ref="R66:W66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:K67"/>
-    <mergeCell ref="L67:Q67"/>
-    <mergeCell ref="R67:W67"/>
-    <mergeCell ref="A84:X84"/>
-    <mergeCell ref="A87:X91"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="O94:T94"/>
-    <mergeCell ref="U94:X94"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:K70"/>
-    <mergeCell ref="L70:Q70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="N77:X77"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="R73:W73"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="O95:T95"/>
-    <mergeCell ref="U95:X95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="O96:T96"/>
-    <mergeCell ref="U96:X96"/>
-    <mergeCell ref="I113:P113"/>
-    <mergeCell ref="I114:P114"/>
-    <mergeCell ref="I115:P115"/>
-    <mergeCell ref="I116:P116"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="O97:T97"/>
-    <mergeCell ref="U97:X97"/>
-    <mergeCell ref="A102:X103"/>
   </mergeCells>
-  <conditionalFormatting sqref="A106">
+  <conditionalFormatting sqref="A116">
     <cfRule type="cellIs" priority="1" operator="equal">
       <formula>$D$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
+  <conditionalFormatting sqref="A117">
     <cfRule type="cellIs" priority="2" operator="equal">
       <formula>$F$26</formula>
     </cfRule>
@@ -39312,7 +39573,7 @@
           <x14:formula1>
             <xm:f>'F:\SGC Vigente 2018-07-14\Clientes\Certificados\2018\Dentro de alcance\Presión\[NI-R02-MCIT-P-01 Hoja electrónica para procesamiento de datos manómetros y vacuómetros v2 2018-03-11.xlsx]Generales'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I113:P113</xm:sqref>
+          <xm:sqref>I123:P123</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -39370,20 +39631,20 @@
       <c r="K8" s="227"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="374" t="str">
+      <c r="N8" s="345" t="str">
         <f>General!F3</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O8" s="362"/>
-      <c r="P8" s="362"/>
-      <c r="Q8" s="362"/>
-      <c r="R8" s="362"/>
-      <c r="S8" s="362"/>
-      <c r="T8" s="362"/>
-      <c r="U8" s="362"/>
-      <c r="V8" s="362"/>
-      <c r="W8" s="362"/>
-      <c r="X8" s="362"/>
+      <c r="O8" s="346"/>
+      <c r="P8" s="346"/>
+      <c r="Q8" s="346"/>
+      <c r="R8" s="346"/>
+      <c r="S8" s="346"/>
+      <c r="T8" s="346"/>
+      <c r="U8" s="346"/>
+      <c r="V8" s="346"/>
+      <c r="W8" s="346"/>
+      <c r="X8" s="346"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="224" t="s">
@@ -39400,20 +39661,20 @@
       <c r="K9" s="227"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="373" t="str">
+      <c r="N9" s="347" t="str">
         <f>General!F4</f>
         <v>NI-CS-XXXX-XX</v>
       </c>
-      <c r="O9" s="364"/>
-      <c r="P9" s="364"/>
-      <c r="Q9" s="364"/>
-      <c r="R9" s="364"/>
-      <c r="S9" s="364"/>
-      <c r="T9" s="364"/>
-      <c r="U9" s="364"/>
-      <c r="V9" s="364"/>
-      <c r="W9" s="364"/>
-      <c r="X9" s="364"/>
+      <c r="O9" s="348"/>
+      <c r="P9" s="348"/>
+      <c r="Q9" s="348"/>
+      <c r="R9" s="348"/>
+      <c r="S9" s="348"/>
+      <c r="T9" s="348"/>
+      <c r="U9" s="348"/>
+      <c r="V9" s="348"/>
+      <c r="W9" s="348"/>
+      <c r="X9" s="348"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="224" t="s">
@@ -39430,20 +39691,20 @@
       <c r="K10" s="227"/>
       <c r="L10" s="228"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="375">
+      <c r="N10" s="349">
         <f>General!F5</f>
         <v>43299</v>
       </c>
-      <c r="O10" s="375"/>
-      <c r="P10" s="375"/>
-      <c r="Q10" s="375"/>
-      <c r="R10" s="375"/>
-      <c r="S10" s="375"/>
-      <c r="T10" s="375"/>
-      <c r="U10" s="375"/>
-      <c r="V10" s="375"/>
-      <c r="W10" s="375"/>
-      <c r="X10" s="375"/>
+      <c r="O10" s="349"/>
+      <c r="P10" s="349"/>
+      <c r="Q10" s="349"/>
+      <c r="R10" s="349"/>
+      <c r="S10" s="349"/>
+      <c r="T10" s="349"/>
+      <c r="U10" s="349"/>
+      <c r="V10" s="349"/>
+      <c r="W10" s="349"/>
+      <c r="X10" s="349"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="224" t="s">
@@ -39460,12 +39721,12 @@
       <c r="K11" s="227"/>
       <c r="L11" s="228"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="375">
+      <c r="N11" s="349">
         <v>43610.729139583331</v>
       </c>
-      <c r="O11" s="375"/>
-      <c r="P11" s="375"/>
-      <c r="Q11" s="375"/>
+      <c r="O11" s="349"/>
+      <c r="P11" s="349"/>
+      <c r="Q11" s="349"/>
       <c r="R11" s="279"/>
       <c r="S11" s="279"/>
       <c r="T11" s="279"/>
@@ -39489,20 +39750,20 @@
       <c r="K12" s="227"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="373" t="str">
+      <c r="N12" s="347" t="str">
         <f>General!F7</f>
         <v xml:space="preserve">Manómetro </v>
       </c>
-      <c r="O12" s="364"/>
-      <c r="P12" s="364"/>
-      <c r="Q12" s="364"/>
-      <c r="R12" s="364"/>
-      <c r="S12" s="364"/>
-      <c r="T12" s="364"/>
-      <c r="U12" s="364"/>
-      <c r="V12" s="364"/>
-      <c r="W12" s="364"/>
-      <c r="X12" s="364"/>
+      <c r="O12" s="348"/>
+      <c r="P12" s="348"/>
+      <c r="Q12" s="348"/>
+      <c r="R12" s="348"/>
+      <c r="S12" s="348"/>
+      <c r="T12" s="348"/>
+      <c r="U12" s="348"/>
+      <c r="V12" s="348"/>
+      <c r="W12" s="348"/>
+      <c r="X12" s="348"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="224" t="s">
@@ -39519,20 +39780,20 @@
       <c r="K13" s="227"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="373" t="str">
+      <c r="N13" s="347" t="str">
         <f>General!F10</f>
         <v>HEISE</v>
       </c>
-      <c r="O13" s="364"/>
-      <c r="P13" s="364"/>
-      <c r="Q13" s="364"/>
-      <c r="R13" s="364"/>
-      <c r="S13" s="364"/>
-      <c r="T13" s="364"/>
-      <c r="U13" s="364"/>
-      <c r="V13" s="364"/>
-      <c r="W13" s="364"/>
-      <c r="X13" s="364"/>
+      <c r="O13" s="348"/>
+      <c r="P13" s="348"/>
+      <c r="Q13" s="348"/>
+      <c r="R13" s="348"/>
+      <c r="S13" s="348"/>
+      <c r="T13" s="348"/>
+      <c r="U13" s="348"/>
+      <c r="V13" s="348"/>
+      <c r="W13" s="348"/>
+      <c r="X13" s="348"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="224" t="s">
@@ -39549,20 +39810,20 @@
       <c r="K14" s="227"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="373" t="str">
+      <c r="N14" s="347" t="str">
         <f>General!F12</f>
         <v>706340</v>
       </c>
-      <c r="O14" s="364"/>
-      <c r="P14" s="364"/>
-      <c r="Q14" s="364"/>
-      <c r="R14" s="364"/>
-      <c r="S14" s="364"/>
-      <c r="T14" s="364"/>
-      <c r="U14" s="364"/>
-      <c r="V14" s="364"/>
-      <c r="W14" s="364"/>
-      <c r="X14" s="364"/>
+      <c r="O14" s="348"/>
+      <c r="P14" s="348"/>
+      <c r="Q14" s="348"/>
+      <c r="R14" s="348"/>
+      <c r="S14" s="348"/>
+      <c r="T14" s="348"/>
+      <c r="U14" s="348"/>
+      <c r="V14" s="348"/>
+      <c r="W14" s="348"/>
+      <c r="X14" s="348"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="224" t="s">
@@ -39579,20 +39840,20 @@
       <c r="K15" s="227"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="373" t="str">
+      <c r="N15" s="347" t="str">
         <f>General!F11</f>
         <v>CC</v>
       </c>
-      <c r="O15" s="364"/>
-      <c r="P15" s="364"/>
-      <c r="Q15" s="364"/>
-      <c r="R15" s="364"/>
-      <c r="S15" s="364"/>
-      <c r="T15" s="364"/>
-      <c r="U15" s="364"/>
-      <c r="V15" s="364"/>
-      <c r="W15" s="364"/>
-      <c r="X15" s="364"/>
+      <c r="O15" s="348"/>
+      <c r="P15" s="348"/>
+      <c r="Q15" s="348"/>
+      <c r="R15" s="348"/>
+      <c r="S15" s="348"/>
+      <c r="T15" s="348"/>
+      <c r="U15" s="348"/>
+      <c r="V15" s="348"/>
+      <c r="W15" s="348"/>
+      <c r="X15" s="348"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="224" t="s">
@@ -39609,20 +39870,20 @@
       <c r="K16" s="227"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="373" t="str">
+      <c r="N16" s="347" t="str">
         <f>General!F18</f>
         <v>0 psi a 200 psi</v>
       </c>
-      <c r="O16" s="364"/>
-      <c r="P16" s="364"/>
-      <c r="Q16" s="364"/>
-      <c r="R16" s="364"/>
-      <c r="S16" s="364"/>
-      <c r="T16" s="364"/>
-      <c r="U16" s="364"/>
-      <c r="V16" s="364"/>
-      <c r="W16" s="364"/>
-      <c r="X16" s="364"/>
+      <c r="O16" s="348"/>
+      <c r="P16" s="348"/>
+      <c r="Q16" s="348"/>
+      <c r="R16" s="348"/>
+      <c r="S16" s="348"/>
+      <c r="T16" s="348"/>
+      <c r="U16" s="348"/>
+      <c r="V16" s="348"/>
+      <c r="W16" s="348"/>
+      <c r="X16" s="348"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="224" t="s">
@@ -39639,16 +39900,16 @@
       <c r="K17" s="227"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="373" t="str">
+      <c r="N17" s="347" t="str">
         <f>General!F15</f>
         <v>1</v>
       </c>
-      <c r="O17" s="364"/>
-      <c r="P17" s="373" t="str">
+      <c r="O17" s="348"/>
+      <c r="P17" s="347" t="str">
         <f>General!F16</f>
         <v>psi</v>
       </c>
-      <c r="Q17" s="364"/>
+      <c r="Q17" s="348"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -39672,20 +39933,20 @@
       <c r="K18" s="227"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="373" t="str">
+      <c r="N18" s="347" t="str">
         <f>General!F6</f>
         <v>706340</v>
       </c>
-      <c r="O18" s="364"/>
-      <c r="P18" s="364"/>
-      <c r="Q18" s="364"/>
-      <c r="R18" s="364"/>
-      <c r="S18" s="364"/>
-      <c r="T18" s="364"/>
-      <c r="U18" s="364"/>
-      <c r="V18" s="364"/>
-      <c r="W18" s="364"/>
-      <c r="X18" s="364"/>
+      <c r="O18" s="348"/>
+      <c r="P18" s="348"/>
+      <c r="Q18" s="348"/>
+      <c r="R18" s="348"/>
+      <c r="S18" s="348"/>
+      <c r="T18" s="348"/>
+      <c r="U18" s="348"/>
+      <c r="V18" s="348"/>
+      <c r="W18" s="348"/>
+      <c r="X18" s="348"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="224" t="s">
@@ -39702,20 +39963,20 @@
       <c r="K19" s="227"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="373" t="str">
+      <c r="N19" s="347" t="str">
         <f>General!L3</f>
         <v xml:space="preserve">A&amp;T Nicaragua S.A. </v>
       </c>
-      <c r="O19" s="364"/>
-      <c r="P19" s="364"/>
-      <c r="Q19" s="364"/>
-      <c r="R19" s="364"/>
-      <c r="S19" s="364"/>
-      <c r="T19" s="364"/>
-      <c r="U19" s="364"/>
-      <c r="V19" s="364"/>
-      <c r="W19" s="364"/>
-      <c r="X19" s="364"/>
+      <c r="O19" s="348"/>
+      <c r="P19" s="348"/>
+      <c r="Q19" s="348"/>
+      <c r="R19" s="348"/>
+      <c r="S19" s="348"/>
+      <c r="T19" s="348"/>
+      <c r="U19" s="348"/>
+      <c r="V19" s="348"/>
+      <c r="W19" s="348"/>
+      <c r="X19" s="348"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
@@ -39732,20 +39993,20 @@
       <c r="K20" s="227"/>
       <c r="L20" s="10"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="364" t="str">
+      <c r="N20" s="348" t="str">
         <f>General!L4</f>
         <v xml:space="preserve">Coyotepe, 800 m norte               </v>
       </c>
-      <c r="O20" s="364"/>
-      <c r="P20" s="364"/>
-      <c r="Q20" s="364"/>
-      <c r="R20" s="364"/>
-      <c r="S20" s="364"/>
-      <c r="T20" s="364"/>
-      <c r="U20" s="364"/>
-      <c r="V20" s="364"/>
-      <c r="W20" s="364"/>
-      <c r="X20" s="364"/>
+      <c r="O20" s="348"/>
+      <c r="P20" s="348"/>
+      <c r="Q20" s="348"/>
+      <c r="R20" s="348"/>
+      <c r="S20" s="348"/>
+      <c r="T20" s="348"/>
+      <c r="U20" s="348"/>
+      <c r="V20" s="348"/>
+      <c r="W20" s="348"/>
+      <c r="X20" s="348"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="224" t="s">
@@ -39762,34 +40023,34 @@
       <c r="K21" s="227"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="376" t="str">
+      <c r="N21" s="350" t="str">
         <f>General!L6</f>
         <v xml:space="preserve">Laboratorio #2 Metrocal </v>
       </c>
-      <c r="O21" s="376"/>
-      <c r="P21" s="376"/>
-      <c r="Q21" s="376"/>
-      <c r="R21" s="376"/>
-      <c r="S21" s="376"/>
-      <c r="T21" s="376"/>
-      <c r="U21" s="376"/>
-      <c r="V21" s="376"/>
-      <c r="W21" s="376"/>
-      <c r="X21" s="376"/>
+      <c r="O21" s="350"/>
+      <c r="P21" s="350"/>
+      <c r="Q21" s="350"/>
+      <c r="R21" s="350"/>
+      <c r="S21" s="350"/>
+      <c r="T21" s="350"/>
+      <c r="U21" s="350"/>
+      <c r="V21" s="350"/>
+      <c r="W21" s="350"/>
+      <c r="X21" s="350"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="224"/>
-      <c r="N22" s="376"/>
-      <c r="O22" s="376"/>
-      <c r="P22" s="376"/>
-      <c r="Q22" s="376"/>
-      <c r="R22" s="376"/>
-      <c r="S22" s="376"/>
-      <c r="T22" s="376"/>
-      <c r="U22" s="376"/>
-      <c r="V22" s="376"/>
-      <c r="W22" s="376"/>
-      <c r="X22" s="376"/>
+      <c r="N22" s="350"/>
+      <c r="O22" s="350"/>
+      <c r="P22" s="350"/>
+      <c r="Q22" s="350"/>
+      <c r="R22" s="350"/>
+      <c r="S22" s="350"/>
+      <c r="T22" s="350"/>
+      <c r="U22" s="350"/>
+      <c r="V22" s="350"/>
+      <c r="W22" s="350"/>
+      <c r="X22" s="350"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="224"/>
@@ -39818,376 +40079,376 @@
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="366" t="s">
+      <c r="D25" s="351" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="366"/>
-      <c r="F25" s="366"/>
-      <c r="G25" s="366"/>
-      <c r="H25" s="366"/>
-      <c r="I25" s="366"/>
-      <c r="J25" s="366"/>
-      <c r="K25" s="366"/>
-      <c r="L25" s="366"/>
-      <c r="M25" s="366"/>
-      <c r="N25" s="366"/>
-      <c r="O25" s="366"/>
-      <c r="P25" s="366"/>
-      <c r="Q25" s="366"/>
-      <c r="R25" s="366"/>
-      <c r="S25" s="366"/>
-      <c r="T25" s="366"/>
-      <c r="U25" s="366"/>
-      <c r="V25" s="366"/>
-      <c r="W25" s="366"/>
+      <c r="E25" s="351"/>
+      <c r="F25" s="351"/>
+      <c r="G25" s="351"/>
+      <c r="H25" s="351"/>
+      <c r="I25" s="351"/>
+      <c r="J25" s="351"/>
+      <c r="K25" s="351"/>
+      <c r="L25" s="351"/>
+      <c r="M25" s="351"/>
+      <c r="N25" s="351"/>
+      <c r="O25" s="351"/>
+      <c r="P25" s="351"/>
+      <c r="Q25" s="351"/>
+      <c r="R25" s="351"/>
+      <c r="S25" s="351"/>
+      <c r="T25" s="351"/>
+      <c r="U25" s="351"/>
+      <c r="V25" s="351"/>
+      <c r="W25" s="351"/>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="367" t="s">
+      <c r="D26" s="352" t="s">
         <v>360</v>
       </c>
-      <c r="E26" s="367"/>
-      <c r="F26" s="368" t="s">
+      <c r="E26" s="352"/>
+      <c r="F26" s="353" t="s">
         <v>425</v>
       </c>
-      <c r="G26" s="368"/>
-      <c r="H26" s="368"/>
-      <c r="I26" s="368"/>
-      <c r="J26" s="368"/>
-      <c r="K26" s="368"/>
-      <c r="L26" s="368" t="s">
+      <c r="G26" s="353"/>
+      <c r="H26" s="353"/>
+      <c r="I26" s="353"/>
+      <c r="J26" s="353"/>
+      <c r="K26" s="353"/>
+      <c r="L26" s="353" t="s">
         <v>96</v>
       </c>
-      <c r="M26" s="368"/>
-      <c r="N26" s="368"/>
-      <c r="O26" s="368"/>
-      <c r="P26" s="368"/>
-      <c r="Q26" s="368"/>
-      <c r="R26" s="367" t="s">
+      <c r="M26" s="353"/>
+      <c r="N26" s="353"/>
+      <c r="O26" s="353"/>
+      <c r="P26" s="353"/>
+      <c r="Q26" s="353"/>
+      <c r="R26" s="352" t="s">
         <v>426</v>
       </c>
-      <c r="S26" s="367"/>
-      <c r="T26" s="367"/>
-      <c r="U26" s="367"/>
-      <c r="V26" s="367"/>
-      <c r="W26" s="367"/>
+      <c r="S26" s="352"/>
+      <c r="T26" s="352"/>
+      <c r="U26" s="352"/>
+      <c r="V26" s="352"/>
+      <c r="W26" s="352"/>
     </row>
     <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="367"/>
-      <c r="E27" s="367"/>
-      <c r="F27" s="368"/>
-      <c r="G27" s="368"/>
-      <c r="H27" s="368"/>
-      <c r="I27" s="368"/>
-      <c r="J27" s="368"/>
-      <c r="K27" s="368"/>
-      <c r="L27" s="368"/>
-      <c r="M27" s="368"/>
-      <c r="N27" s="368"/>
-      <c r="O27" s="368"/>
-      <c r="P27" s="368"/>
-      <c r="Q27" s="368"/>
-      <c r="R27" s="367"/>
-      <c r="S27" s="367"/>
-      <c r="T27" s="367"/>
-      <c r="U27" s="367"/>
-      <c r="V27" s="367"/>
-      <c r="W27" s="367"/>
+      <c r="D27" s="352"/>
+      <c r="E27" s="352"/>
+      <c r="F27" s="353"/>
+      <c r="G27" s="353"/>
+      <c r="H27" s="353"/>
+      <c r="I27" s="353"/>
+      <c r="J27" s="353"/>
+      <c r="K27" s="353"/>
+      <c r="L27" s="353"/>
+      <c r="M27" s="353"/>
+      <c r="N27" s="353"/>
+      <c r="O27" s="353"/>
+      <c r="P27" s="353"/>
+      <c r="Q27" s="353"/>
+      <c r="R27" s="352"/>
+      <c r="S27" s="352"/>
+      <c r="T27" s="352"/>
+      <c r="U27" s="352"/>
+      <c r="V27" s="352"/>
+      <c r="W27" s="352"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="369" t="str">
+      <c r="D28" s="354" t="str">
         <f>Calibración!C37</f>
         <v>psi</v>
       </c>
-      <c r="E28" s="369"/>
-      <c r="F28" s="370" t="str">
+      <c r="E28" s="354"/>
+      <c r="F28" s="355" t="str">
         <f>Calibración!D37</f>
         <v>psi</v>
       </c>
-      <c r="G28" s="371"/>
-      <c r="H28" s="371"/>
-      <c r="I28" s="371"/>
-      <c r="J28" s="371"/>
-      <c r="K28" s="372"/>
-      <c r="L28" s="370" t="str">
+      <c r="G28" s="356"/>
+      <c r="H28" s="356"/>
+      <c r="I28" s="356"/>
+      <c r="J28" s="356"/>
+      <c r="K28" s="357"/>
+      <c r="L28" s="355" t="str">
         <f>Calibración!E37</f>
         <v>psi</v>
       </c>
-      <c r="M28" s="371"/>
-      <c r="N28" s="371"/>
-      <c r="O28" s="371"/>
-      <c r="P28" s="371"/>
-      <c r="Q28" s="372"/>
-      <c r="R28" s="370" t="str">
+      <c r="M28" s="356"/>
+      <c r="N28" s="356"/>
+      <c r="O28" s="356"/>
+      <c r="P28" s="356"/>
+      <c r="Q28" s="357"/>
+      <c r="R28" s="355" t="str">
         <f>Calibración!F37</f>
         <v>psi</v>
       </c>
-      <c r="S28" s="371"/>
-      <c r="T28" s="371"/>
-      <c r="U28" s="371"/>
-      <c r="V28" s="371"/>
-      <c r="W28" s="372"/>
+      <c r="S28" s="356"/>
+      <c r="T28" s="356"/>
+      <c r="U28" s="356"/>
+      <c r="V28" s="356"/>
+      <c r="W28" s="357"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="358" t="str">
+      <c r="D29" s="341" t="str">
         <f ca="1">Calibración!C38</f>
         <v/>
       </c>
-      <c r="E29" s="358"/>
-      <c r="F29" s="359" t="str">
+      <c r="E29" s="341"/>
+      <c r="F29" s="342" t="str">
         <f ca="1">Calibración!D38</f>
         <v/>
       </c>
-      <c r="G29" s="360"/>
-      <c r="H29" s="360"/>
-      <c r="I29" s="360"/>
-      <c r="J29" s="360"/>
-      <c r="K29" s="361"/>
-      <c r="L29" s="359" t="str">
+      <c r="G29" s="343"/>
+      <c r="H29" s="343"/>
+      <c r="I29" s="343"/>
+      <c r="J29" s="343"/>
+      <c r="K29" s="344"/>
+      <c r="L29" s="342" t="str">
         <f ca="1">Calibración!E38</f>
         <v/>
       </c>
-      <c r="M29" s="360"/>
-      <c r="N29" s="360"/>
-      <c r="O29" s="360"/>
-      <c r="P29" s="360"/>
-      <c r="Q29" s="361"/>
-      <c r="R29" s="359" t="str">
+      <c r="M29" s="343"/>
+      <c r="N29" s="343"/>
+      <c r="O29" s="343"/>
+      <c r="P29" s="343"/>
+      <c r="Q29" s="344"/>
+      <c r="R29" s="342" t="str">
         <f ca="1">Calibración!F38</f>
         <v/>
       </c>
-      <c r="S29" s="360"/>
-      <c r="T29" s="360"/>
-      <c r="U29" s="360"/>
-      <c r="V29" s="360"/>
-      <c r="W29" s="361"/>
+      <c r="S29" s="343"/>
+      <c r="T29" s="343"/>
+      <c r="U29" s="343"/>
+      <c r="V29" s="343"/>
+      <c r="W29" s="344"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="358" t="str">
+      <c r="D30" s="341" t="str">
         <f ca="1">Calibración!C39</f>
         <v/>
       </c>
-      <c r="E30" s="358"/>
-      <c r="F30" s="359" t="str">
+      <c r="E30" s="341"/>
+      <c r="F30" s="342" t="str">
         <f ca="1">Calibración!D39</f>
         <v/>
       </c>
-      <c r="G30" s="360"/>
-      <c r="H30" s="360"/>
-      <c r="I30" s="360"/>
-      <c r="J30" s="360"/>
-      <c r="K30" s="361"/>
-      <c r="L30" s="359" t="str">
+      <c r="G30" s="343"/>
+      <c r="H30" s="343"/>
+      <c r="I30" s="343"/>
+      <c r="J30" s="343"/>
+      <c r="K30" s="344"/>
+      <c r="L30" s="342" t="str">
         <f ca="1">Calibración!E39</f>
         <v/>
       </c>
-      <c r="M30" s="360"/>
-      <c r="N30" s="360"/>
-      <c r="O30" s="360"/>
-      <c r="P30" s="360"/>
-      <c r="Q30" s="361"/>
-      <c r="R30" s="359" t="str">
+      <c r="M30" s="343"/>
+      <c r="N30" s="343"/>
+      <c r="O30" s="343"/>
+      <c r="P30" s="343"/>
+      <c r="Q30" s="344"/>
+      <c r="R30" s="342" t="str">
         <f ca="1">Calibración!F39</f>
         <v/>
       </c>
-      <c r="S30" s="360"/>
-      <c r="T30" s="360"/>
-      <c r="U30" s="360"/>
-      <c r="V30" s="360"/>
-      <c r="W30" s="361"/>
+      <c r="S30" s="343"/>
+      <c r="T30" s="343"/>
+      <c r="U30" s="343"/>
+      <c r="V30" s="343"/>
+      <c r="W30" s="344"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="358" t="str">
+      <c r="D31" s="341" t="str">
         <f ca="1">Calibración!C40</f>
         <v/>
       </c>
-      <c r="E31" s="358"/>
-      <c r="F31" s="359" t="str">
+      <c r="E31" s="341"/>
+      <c r="F31" s="342" t="str">
         <f ca="1">Calibración!D40</f>
         <v/>
       </c>
-      <c r="G31" s="360"/>
-      <c r="H31" s="360"/>
-      <c r="I31" s="360"/>
-      <c r="J31" s="360"/>
-      <c r="K31" s="361"/>
-      <c r="L31" s="359" t="str">
+      <c r="G31" s="343"/>
+      <c r="H31" s="343"/>
+      <c r="I31" s="343"/>
+      <c r="J31" s="343"/>
+      <c r="K31" s="344"/>
+      <c r="L31" s="342" t="str">
         <f ca="1">Calibración!E40</f>
         <v/>
       </c>
-      <c r="M31" s="360"/>
-      <c r="N31" s="360"/>
-      <c r="O31" s="360"/>
-      <c r="P31" s="360"/>
-      <c r="Q31" s="361"/>
-      <c r="R31" s="359" t="str">
+      <c r="M31" s="343"/>
+      <c r="N31" s="343"/>
+      <c r="O31" s="343"/>
+      <c r="P31" s="343"/>
+      <c r="Q31" s="344"/>
+      <c r="R31" s="342" t="str">
         <f ca="1">Calibración!F40</f>
         <v/>
       </c>
-      <c r="S31" s="360"/>
-      <c r="T31" s="360"/>
-      <c r="U31" s="360"/>
-      <c r="V31" s="360"/>
-      <c r="W31" s="361"/>
+      <c r="S31" s="343"/>
+      <c r="T31" s="343"/>
+      <c r="U31" s="343"/>
+      <c r="V31" s="343"/>
+      <c r="W31" s="344"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="358" t="str">
+      <c r="D32" s="341" t="str">
         <f ca="1">Calibración!C41</f>
         <v/>
       </c>
-      <c r="E32" s="358"/>
-      <c r="F32" s="359" t="str">
+      <c r="E32" s="341"/>
+      <c r="F32" s="342" t="str">
         <f ca="1">Calibración!D41</f>
         <v/>
       </c>
-      <c r="G32" s="360"/>
-      <c r="H32" s="360"/>
-      <c r="I32" s="360"/>
-      <c r="J32" s="360"/>
-      <c r="K32" s="361"/>
-      <c r="L32" s="359" t="str">
+      <c r="G32" s="343"/>
+      <c r="H32" s="343"/>
+      <c r="I32" s="343"/>
+      <c r="J32" s="343"/>
+      <c r="K32" s="344"/>
+      <c r="L32" s="342" t="str">
         <f ca="1">Calibración!E41</f>
         <v/>
       </c>
-      <c r="M32" s="360"/>
-      <c r="N32" s="360"/>
-      <c r="O32" s="360"/>
-      <c r="P32" s="360"/>
-      <c r="Q32" s="361"/>
-      <c r="R32" s="359" t="str">
+      <c r="M32" s="343"/>
+      <c r="N32" s="343"/>
+      <c r="O32" s="343"/>
+      <c r="P32" s="343"/>
+      <c r="Q32" s="344"/>
+      <c r="R32" s="342" t="str">
         <f ca="1">Calibración!F41</f>
         <v/>
       </c>
-      <c r="S32" s="360"/>
-      <c r="T32" s="360"/>
-      <c r="U32" s="360"/>
-      <c r="V32" s="360"/>
-      <c r="W32" s="361"/>
+      <c r="S32" s="343"/>
+      <c r="T32" s="343"/>
+      <c r="U32" s="343"/>
+      <c r="V32" s="343"/>
+      <c r="W32" s="344"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="358" t="str">
+      <c r="D33" s="341" t="str">
         <f ca="1">Calibración!C42</f>
         <v/>
       </c>
-      <c r="E33" s="358"/>
-      <c r="F33" s="359" t="str">
+      <c r="E33" s="341"/>
+      <c r="F33" s="342" t="str">
         <f ca="1">Calibración!D42</f>
         <v/>
       </c>
-      <c r="G33" s="360"/>
-      <c r="H33" s="360"/>
-      <c r="I33" s="360"/>
-      <c r="J33" s="360"/>
-      <c r="K33" s="361"/>
-      <c r="L33" s="359" t="str">
+      <c r="G33" s="343"/>
+      <c r="H33" s="343"/>
+      <c r="I33" s="343"/>
+      <c r="J33" s="343"/>
+      <c r="K33" s="344"/>
+      <c r="L33" s="342" t="str">
         <f ca="1">Calibración!E42</f>
         <v/>
       </c>
-      <c r="M33" s="360"/>
-      <c r="N33" s="360"/>
-      <c r="O33" s="360"/>
-      <c r="P33" s="360"/>
-      <c r="Q33" s="361"/>
-      <c r="R33" s="359" t="str">
+      <c r="M33" s="343"/>
+      <c r="N33" s="343"/>
+      <c r="O33" s="343"/>
+      <c r="P33" s="343"/>
+      <c r="Q33" s="344"/>
+      <c r="R33" s="342" t="str">
         <f ca="1">Calibración!F42</f>
         <v/>
       </c>
-      <c r="S33" s="360"/>
-      <c r="T33" s="360"/>
-      <c r="U33" s="360"/>
-      <c r="V33" s="360"/>
-      <c r="W33" s="361"/>
+      <c r="S33" s="343"/>
+      <c r="T33" s="343"/>
+      <c r="U33" s="343"/>
+      <c r="V33" s="343"/>
+      <c r="W33" s="344"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D34" s="358" t="str">
+      <c r="D34" s="341" t="str">
         <f ca="1">Calibración!C43</f>
         <v/>
       </c>
-      <c r="E34" s="358"/>
-      <c r="F34" s="359" t="str">
+      <c r="E34" s="341"/>
+      <c r="F34" s="342" t="str">
         <f ca="1">Calibración!D43</f>
         <v/>
       </c>
-      <c r="G34" s="360"/>
-      <c r="H34" s="360"/>
-      <c r="I34" s="360"/>
-      <c r="J34" s="360"/>
-      <c r="K34" s="361"/>
-      <c r="L34" s="359" t="str">
+      <c r="G34" s="343"/>
+      <c r="H34" s="343"/>
+      <c r="I34" s="343"/>
+      <c r="J34" s="343"/>
+      <c r="K34" s="344"/>
+      <c r="L34" s="342" t="str">
         <f ca="1">Calibración!E43</f>
         <v/>
       </c>
-      <c r="M34" s="360"/>
-      <c r="N34" s="360"/>
-      <c r="O34" s="360"/>
-      <c r="P34" s="360"/>
-      <c r="Q34" s="361"/>
-      <c r="R34" s="359" t="str">
+      <c r="M34" s="343"/>
+      <c r="N34" s="343"/>
+      <c r="O34" s="343"/>
+      <c r="P34" s="343"/>
+      <c r="Q34" s="344"/>
+      <c r="R34" s="342" t="str">
         <f ca="1">Calibración!F43</f>
         <v/>
       </c>
-      <c r="S34" s="360"/>
-      <c r="T34" s="360"/>
-      <c r="U34" s="360"/>
-      <c r="V34" s="360"/>
-      <c r="W34" s="361"/>
+      <c r="S34" s="343"/>
+      <c r="T34" s="343"/>
+      <c r="U34" s="343"/>
+      <c r="V34" s="343"/>
+      <c r="W34" s="344"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D35" s="358" t="str">
+      <c r="D35" s="341" t="str">
         <f ca="1">Calibración!C44</f>
         <v/>
       </c>
-      <c r="E35" s="358"/>
-      <c r="F35" s="359" t="str">
+      <c r="E35" s="341"/>
+      <c r="F35" s="342" t="str">
         <f ca="1">Calibración!D44</f>
         <v/>
       </c>
-      <c r="G35" s="360"/>
-      <c r="H35" s="360"/>
-      <c r="I35" s="360"/>
-      <c r="J35" s="360"/>
-      <c r="K35" s="361"/>
-      <c r="L35" s="359" t="str">
+      <c r="G35" s="343"/>
+      <c r="H35" s="343"/>
+      <c r="I35" s="343"/>
+      <c r="J35" s="343"/>
+      <c r="K35" s="344"/>
+      <c r="L35" s="342" t="str">
         <f ca="1">Calibración!E44</f>
         <v/>
       </c>
-      <c r="M35" s="360"/>
-      <c r="N35" s="360"/>
-      <c r="O35" s="360"/>
-      <c r="P35" s="360"/>
-      <c r="Q35" s="361"/>
-      <c r="R35" s="359" t="str">
+      <c r="M35" s="343"/>
+      <c r="N35" s="343"/>
+      <c r="O35" s="343"/>
+      <c r="P35" s="343"/>
+      <c r="Q35" s="344"/>
+      <c r="R35" s="342" t="str">
         <f ca="1">Calibración!F44</f>
         <v/>
       </c>
-      <c r="S35" s="360"/>
-      <c r="T35" s="360"/>
-      <c r="U35" s="360"/>
-      <c r="V35" s="360"/>
-      <c r="W35" s="361"/>
+      <c r="S35" s="343"/>
+      <c r="T35" s="343"/>
+      <c r="U35" s="343"/>
+      <c r="V35" s="343"/>
+      <c r="W35" s="344"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D36" s="230"/>
@@ -40240,376 +40501,376 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="366" t="s">
+      <c r="D38" s="351" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="366"/>
-      <c r="F38" s="366"/>
-      <c r="G38" s="366"/>
-      <c r="H38" s="366"/>
-      <c r="I38" s="366"/>
-      <c r="J38" s="366"/>
-      <c r="K38" s="366"/>
-      <c r="L38" s="366"/>
-      <c r="M38" s="366"/>
-      <c r="N38" s="366"/>
-      <c r="O38" s="366"/>
-      <c r="P38" s="366"/>
-      <c r="Q38" s="366"/>
-      <c r="R38" s="366"/>
-      <c r="S38" s="366"/>
-      <c r="T38" s="366"/>
-      <c r="U38" s="366"/>
-      <c r="V38" s="366"/>
-      <c r="W38" s="366"/>
+      <c r="E38" s="351"/>
+      <c r="F38" s="351"/>
+      <c r="G38" s="351"/>
+      <c r="H38" s="351"/>
+      <c r="I38" s="351"/>
+      <c r="J38" s="351"/>
+      <c r="K38" s="351"/>
+      <c r="L38" s="351"/>
+      <c r="M38" s="351"/>
+      <c r="N38" s="351"/>
+      <c r="O38" s="351"/>
+      <c r="P38" s="351"/>
+      <c r="Q38" s="351"/>
+      <c r="R38" s="351"/>
+      <c r="S38" s="351"/>
+      <c r="T38" s="351"/>
+      <c r="U38" s="351"/>
+      <c r="V38" s="351"/>
+      <c r="W38" s="351"/>
     </row>
     <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="367" t="s">
+      <c r="D39" s="352" t="s">
         <v>360</v>
       </c>
-      <c r="E39" s="367"/>
-      <c r="F39" s="368" t="s">
+      <c r="E39" s="352"/>
+      <c r="F39" s="353" t="s">
         <v>425</v>
       </c>
-      <c r="G39" s="368"/>
-      <c r="H39" s="368"/>
-      <c r="I39" s="368"/>
-      <c r="J39" s="368"/>
-      <c r="K39" s="368"/>
-      <c r="L39" s="368" t="s">
+      <c r="G39" s="353"/>
+      <c r="H39" s="353"/>
+      <c r="I39" s="353"/>
+      <c r="J39" s="353"/>
+      <c r="K39" s="353"/>
+      <c r="L39" s="353" t="s">
         <v>96</v>
       </c>
-      <c r="M39" s="368"/>
-      <c r="N39" s="368"/>
-      <c r="O39" s="368"/>
-      <c r="P39" s="368"/>
-      <c r="Q39" s="368"/>
-      <c r="R39" s="367" t="s">
+      <c r="M39" s="353"/>
+      <c r="N39" s="353"/>
+      <c r="O39" s="353"/>
+      <c r="P39" s="353"/>
+      <c r="Q39" s="353"/>
+      <c r="R39" s="352" t="s">
         <v>426</v>
       </c>
-      <c r="S39" s="367"/>
-      <c r="T39" s="367"/>
-      <c r="U39" s="367"/>
-      <c r="V39" s="367"/>
-      <c r="W39" s="367"/>
+      <c r="S39" s="352"/>
+      <c r="T39" s="352"/>
+      <c r="U39" s="352"/>
+      <c r="V39" s="352"/>
+      <c r="W39" s="352"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="367"/>
-      <c r="E40" s="367"/>
-      <c r="F40" s="368"/>
-      <c r="G40" s="368"/>
-      <c r="H40" s="368"/>
-      <c r="I40" s="368"/>
-      <c r="J40" s="368"/>
-      <c r="K40" s="368"/>
-      <c r="L40" s="368"/>
-      <c r="M40" s="368"/>
-      <c r="N40" s="368"/>
-      <c r="O40" s="368"/>
-      <c r="P40" s="368"/>
-      <c r="Q40" s="368"/>
-      <c r="R40" s="367"/>
-      <c r="S40" s="367"/>
-      <c r="T40" s="367"/>
-      <c r="U40" s="367"/>
-      <c r="V40" s="367"/>
-      <c r="W40" s="367"/>
+      <c r="D40" s="352"/>
+      <c r="E40" s="352"/>
+      <c r="F40" s="353"/>
+      <c r="G40" s="353"/>
+      <c r="H40" s="353"/>
+      <c r="I40" s="353"/>
+      <c r="J40" s="353"/>
+      <c r="K40" s="353"/>
+      <c r="L40" s="353"/>
+      <c r="M40" s="353"/>
+      <c r="N40" s="353"/>
+      <c r="O40" s="353"/>
+      <c r="P40" s="353"/>
+      <c r="Q40" s="353"/>
+      <c r="R40" s="352"/>
+      <c r="S40" s="352"/>
+      <c r="T40" s="352"/>
+      <c r="U40" s="352"/>
+      <c r="V40" s="352"/>
+      <c r="W40" s="352"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="369" t="str">
+      <c r="D41" s="354" t="str">
         <f>Calibración!G37</f>
         <v>kPa</v>
       </c>
-      <c r="E41" s="369"/>
-      <c r="F41" s="370" t="str">
+      <c r="E41" s="354"/>
+      <c r="F41" s="355" t="str">
         <f>Calibración!H37</f>
         <v>kPa</v>
       </c>
-      <c r="G41" s="371"/>
-      <c r="H41" s="371"/>
-      <c r="I41" s="371"/>
-      <c r="J41" s="371"/>
-      <c r="K41" s="372"/>
-      <c r="L41" s="369" t="str">
+      <c r="G41" s="356"/>
+      <c r="H41" s="356"/>
+      <c r="I41" s="356"/>
+      <c r="J41" s="356"/>
+      <c r="K41" s="357"/>
+      <c r="L41" s="354" t="str">
         <f>Calibración!I37</f>
         <v>kPa</v>
       </c>
-      <c r="M41" s="369"/>
-      <c r="N41" s="369"/>
-      <c r="O41" s="369"/>
-      <c r="P41" s="369"/>
-      <c r="Q41" s="369"/>
-      <c r="R41" s="369" t="str">
+      <c r="M41" s="354"/>
+      <c r="N41" s="354"/>
+      <c r="O41" s="354"/>
+      <c r="P41" s="354"/>
+      <c r="Q41" s="354"/>
+      <c r="R41" s="354" t="str">
         <f>Calibración!J37</f>
         <v>kPa</v>
       </c>
-      <c r="S41" s="369"/>
-      <c r="T41" s="369"/>
-      <c r="U41" s="369"/>
-      <c r="V41" s="369"/>
-      <c r="W41" s="369"/>
+      <c r="S41" s="354"/>
+      <c r="T41" s="354"/>
+      <c r="U41" s="354"/>
+      <c r="V41" s="354"/>
+      <c r="W41" s="354"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="358" t="str">
+      <c r="D42" s="341" t="str">
         <f ca="1">Calibración!G38</f>
         <v/>
       </c>
-      <c r="E42" s="358"/>
-      <c r="F42" s="359" t="str">
+      <c r="E42" s="341"/>
+      <c r="F42" s="342" t="str">
         <f ca="1">Calibración!H38</f>
         <v/>
       </c>
-      <c r="G42" s="360"/>
-      <c r="H42" s="360"/>
-      <c r="I42" s="360"/>
-      <c r="J42" s="360"/>
-      <c r="K42" s="361"/>
-      <c r="L42" s="358" t="str">
+      <c r="G42" s="343"/>
+      <c r="H42" s="343"/>
+      <c r="I42" s="343"/>
+      <c r="J42" s="343"/>
+      <c r="K42" s="344"/>
+      <c r="L42" s="341" t="str">
         <f ca="1">Calibración!I38</f>
         <v/>
       </c>
-      <c r="M42" s="358"/>
-      <c r="N42" s="358"/>
-      <c r="O42" s="358"/>
-      <c r="P42" s="358"/>
-      <c r="Q42" s="358"/>
-      <c r="R42" s="358" t="str">
+      <c r="M42" s="341"/>
+      <c r="N42" s="341"/>
+      <c r="O42" s="341"/>
+      <c r="P42" s="341"/>
+      <c r="Q42" s="341"/>
+      <c r="R42" s="341" t="str">
         <f ca="1">Calibración!J38</f>
         <v/>
       </c>
-      <c r="S42" s="358"/>
-      <c r="T42" s="358"/>
-      <c r="U42" s="358"/>
-      <c r="V42" s="358"/>
-      <c r="W42" s="358"/>
+      <c r="S42" s="341"/>
+      <c r="T42" s="341"/>
+      <c r="U42" s="341"/>
+      <c r="V42" s="341"/>
+      <c r="W42" s="341"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="358" t="str">
+      <c r="D43" s="341" t="str">
         <f ca="1">Calibración!G39</f>
         <v/>
       </c>
-      <c r="E43" s="358"/>
-      <c r="F43" s="359" t="str">
+      <c r="E43" s="341"/>
+      <c r="F43" s="342" t="str">
         <f ca="1">Calibración!H39</f>
         <v/>
       </c>
-      <c r="G43" s="360"/>
-      <c r="H43" s="360"/>
-      <c r="I43" s="360"/>
-      <c r="J43" s="360"/>
-      <c r="K43" s="361"/>
-      <c r="L43" s="358" t="str">
+      <c r="G43" s="343"/>
+      <c r="H43" s="343"/>
+      <c r="I43" s="343"/>
+      <c r="J43" s="343"/>
+      <c r="K43" s="344"/>
+      <c r="L43" s="341" t="str">
         <f ca="1">Calibración!I39</f>
         <v/>
       </c>
-      <c r="M43" s="358"/>
-      <c r="N43" s="358"/>
-      <c r="O43" s="358"/>
-      <c r="P43" s="358"/>
-      <c r="Q43" s="358"/>
-      <c r="R43" s="358" t="str">
+      <c r="M43" s="341"/>
+      <c r="N43" s="341"/>
+      <c r="O43" s="341"/>
+      <c r="P43" s="341"/>
+      <c r="Q43" s="341"/>
+      <c r="R43" s="341" t="str">
         <f ca="1">Calibración!J39</f>
         <v/>
       </c>
-      <c r="S43" s="358"/>
-      <c r="T43" s="358"/>
-      <c r="U43" s="358"/>
-      <c r="V43" s="358"/>
-      <c r="W43" s="358"/>
+      <c r="S43" s="341"/>
+      <c r="T43" s="341"/>
+      <c r="U43" s="341"/>
+      <c r="V43" s="341"/>
+      <c r="W43" s="341"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="358" t="str">
+      <c r="D44" s="341" t="str">
         <f ca="1">Calibración!G40</f>
         <v/>
       </c>
-      <c r="E44" s="358"/>
-      <c r="F44" s="359" t="str">
+      <c r="E44" s="341"/>
+      <c r="F44" s="342" t="str">
         <f ca="1">Calibración!H40</f>
         <v/>
       </c>
-      <c r="G44" s="360"/>
-      <c r="H44" s="360"/>
-      <c r="I44" s="360"/>
-      <c r="J44" s="360"/>
-      <c r="K44" s="361"/>
-      <c r="L44" s="358" t="str">
+      <c r="G44" s="343"/>
+      <c r="H44" s="343"/>
+      <c r="I44" s="343"/>
+      <c r="J44" s="343"/>
+      <c r="K44" s="344"/>
+      <c r="L44" s="341" t="str">
         <f ca="1">Calibración!I40</f>
         <v/>
       </c>
-      <c r="M44" s="358"/>
-      <c r="N44" s="358"/>
-      <c r="O44" s="358"/>
-      <c r="P44" s="358"/>
-      <c r="Q44" s="358"/>
-      <c r="R44" s="358" t="str">
+      <c r="M44" s="341"/>
+      <c r="N44" s="341"/>
+      <c r="O44" s="341"/>
+      <c r="P44" s="341"/>
+      <c r="Q44" s="341"/>
+      <c r="R44" s="341" t="str">
         <f ca="1">Calibración!J40</f>
         <v/>
       </c>
-      <c r="S44" s="358"/>
-      <c r="T44" s="358"/>
-      <c r="U44" s="358"/>
-      <c r="V44" s="358"/>
-      <c r="W44" s="358"/>
+      <c r="S44" s="341"/>
+      <c r="T44" s="341"/>
+      <c r="U44" s="341"/>
+      <c r="V44" s="341"/>
+      <c r="W44" s="341"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="358" t="str">
+      <c r="D45" s="341" t="str">
         <f ca="1">Calibración!G41</f>
         <v/>
       </c>
-      <c r="E45" s="358"/>
-      <c r="F45" s="359" t="str">
+      <c r="E45" s="341"/>
+      <c r="F45" s="342" t="str">
         <f ca="1">Calibración!H41</f>
         <v/>
       </c>
-      <c r="G45" s="360"/>
-      <c r="H45" s="360"/>
-      <c r="I45" s="360"/>
-      <c r="J45" s="360"/>
-      <c r="K45" s="361"/>
-      <c r="L45" s="358" t="str">
+      <c r="G45" s="343"/>
+      <c r="H45" s="343"/>
+      <c r="I45" s="343"/>
+      <c r="J45" s="343"/>
+      <c r="K45" s="344"/>
+      <c r="L45" s="341" t="str">
         <f ca="1">Calibración!I41</f>
         <v/>
       </c>
-      <c r="M45" s="358"/>
-      <c r="N45" s="358"/>
-      <c r="O45" s="358"/>
-      <c r="P45" s="358"/>
-      <c r="Q45" s="358"/>
-      <c r="R45" s="358" t="str">
+      <c r="M45" s="341"/>
+      <c r="N45" s="341"/>
+      <c r="O45" s="341"/>
+      <c r="P45" s="341"/>
+      <c r="Q45" s="341"/>
+      <c r="R45" s="341" t="str">
         <f ca="1">Calibración!J41</f>
         <v/>
       </c>
-      <c r="S45" s="358"/>
-      <c r="T45" s="358"/>
-      <c r="U45" s="358"/>
-      <c r="V45" s="358"/>
-      <c r="W45" s="358"/>
+      <c r="S45" s="341"/>
+      <c r="T45" s="341"/>
+      <c r="U45" s="341"/>
+      <c r="V45" s="341"/>
+      <c r="W45" s="341"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="358" t="str">
+      <c r="D46" s="341" t="str">
         <f ca="1">Calibración!G42</f>
         <v/>
       </c>
-      <c r="E46" s="358"/>
-      <c r="F46" s="359" t="str">
+      <c r="E46" s="341"/>
+      <c r="F46" s="342" t="str">
         <f ca="1">Calibración!H42</f>
         <v/>
       </c>
-      <c r="G46" s="360"/>
-      <c r="H46" s="360"/>
-      <c r="I46" s="360"/>
-      <c r="J46" s="360"/>
-      <c r="K46" s="361"/>
-      <c r="L46" s="358" t="str">
+      <c r="G46" s="343"/>
+      <c r="H46" s="343"/>
+      <c r="I46" s="343"/>
+      <c r="J46" s="343"/>
+      <c r="K46" s="344"/>
+      <c r="L46" s="341" t="str">
         <f ca="1">Calibración!I42</f>
         <v/>
       </c>
-      <c r="M46" s="358"/>
-      <c r="N46" s="358"/>
-      <c r="O46" s="358"/>
-      <c r="P46" s="358"/>
-      <c r="Q46" s="358"/>
-      <c r="R46" s="358" t="str">
+      <c r="M46" s="341"/>
+      <c r="N46" s="341"/>
+      <c r="O46" s="341"/>
+      <c r="P46" s="341"/>
+      <c r="Q46" s="341"/>
+      <c r="R46" s="341" t="str">
         <f ca="1">Calibración!J42</f>
         <v/>
       </c>
-      <c r="S46" s="358"/>
-      <c r="T46" s="358"/>
-      <c r="U46" s="358"/>
-      <c r="V46" s="358"/>
-      <c r="W46" s="358"/>
+      <c r="S46" s="341"/>
+      <c r="T46" s="341"/>
+      <c r="U46" s="341"/>
+      <c r="V46" s="341"/>
+      <c r="W46" s="341"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D47" s="358" t="str">
+      <c r="D47" s="341" t="str">
         <f ca="1">Calibración!G43</f>
         <v/>
       </c>
-      <c r="E47" s="358"/>
-      <c r="F47" s="359" t="str">
+      <c r="E47" s="341"/>
+      <c r="F47" s="342" t="str">
         <f ca="1">Calibración!H43</f>
         <v/>
       </c>
-      <c r="G47" s="360"/>
-      <c r="H47" s="360"/>
-      <c r="I47" s="360"/>
-      <c r="J47" s="360"/>
-      <c r="K47" s="361"/>
-      <c r="L47" s="358" t="str">
+      <c r="G47" s="343"/>
+      <c r="H47" s="343"/>
+      <c r="I47" s="343"/>
+      <c r="J47" s="343"/>
+      <c r="K47" s="344"/>
+      <c r="L47" s="341" t="str">
         <f ca="1">Calibración!I43</f>
         <v/>
       </c>
-      <c r="M47" s="358"/>
-      <c r="N47" s="358"/>
-      <c r="O47" s="358"/>
-      <c r="P47" s="358"/>
-      <c r="Q47" s="358"/>
-      <c r="R47" s="358" t="str">
+      <c r="M47" s="341"/>
+      <c r="N47" s="341"/>
+      <c r="O47" s="341"/>
+      <c r="P47" s="341"/>
+      <c r="Q47" s="341"/>
+      <c r="R47" s="341" t="str">
         <f ca="1">Calibración!J43</f>
         <v/>
       </c>
-      <c r="S47" s="358"/>
-      <c r="T47" s="358"/>
-      <c r="U47" s="358"/>
-      <c r="V47" s="358"/>
-      <c r="W47" s="358"/>
+      <c r="S47" s="341"/>
+      <c r="T47" s="341"/>
+      <c r="U47" s="341"/>
+      <c r="V47" s="341"/>
+      <c r="W47" s="341"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D48" s="358" t="str">
+      <c r="D48" s="341" t="str">
         <f ca="1">Calibración!G44</f>
         <v/>
       </c>
-      <c r="E48" s="358"/>
-      <c r="F48" s="359" t="str">
+      <c r="E48" s="341"/>
+      <c r="F48" s="342" t="str">
         <f ca="1">Calibración!H44</f>
         <v/>
       </c>
-      <c r="G48" s="360"/>
-      <c r="H48" s="360"/>
-      <c r="I48" s="360"/>
-      <c r="J48" s="360"/>
-      <c r="K48" s="361"/>
-      <c r="L48" s="358" t="str">
+      <c r="G48" s="343"/>
+      <c r="H48" s="343"/>
+      <c r="I48" s="343"/>
+      <c r="J48" s="343"/>
+      <c r="K48" s="344"/>
+      <c r="L48" s="341" t="str">
         <f ca="1">Calibración!I44</f>
         <v/>
       </c>
-      <c r="M48" s="358"/>
-      <c r="N48" s="358"/>
-      <c r="O48" s="358"/>
-      <c r="P48" s="358"/>
-      <c r="Q48" s="358"/>
-      <c r="R48" s="358" t="str">
+      <c r="M48" s="341"/>
+      <c r="N48" s="341"/>
+      <c r="O48" s="341"/>
+      <c r="P48" s="341"/>
+      <c r="Q48" s="341"/>
+      <c r="R48" s="341" t="str">
         <f ca="1">Calibración!J44</f>
         <v/>
       </c>
-      <c r="S48" s="358"/>
-      <c r="T48" s="358"/>
-      <c r="U48" s="358"/>
-      <c r="V48" s="358"/>
-      <c r="W48" s="358"/>
+      <c r="S48" s="341"/>
+      <c r="T48" s="341"/>
+      <c r="U48" s="341"/>
+      <c r="V48" s="341"/>
+      <c r="W48" s="341"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O49" s="232"/>
@@ -40651,20 +40912,20 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
-      <c r="N57" s="362" t="str">
+      <c r="N57" s="346" t="str">
         <f>N8</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O57" s="362"/>
-      <c r="P57" s="362"/>
-      <c r="Q57" s="362"/>
-      <c r="R57" s="362"/>
-      <c r="S57" s="362"/>
-      <c r="T57" s="362"/>
-      <c r="U57" s="362"/>
-      <c r="V57" s="362"/>
-      <c r="W57" s="362"/>
-      <c r="X57" s="362"/>
+      <c r="O57" s="346"/>
+      <c r="P57" s="346"/>
+      <c r="Q57" s="346"/>
+      <c r="R57" s="346"/>
+      <c r="S57" s="346"/>
+      <c r="T57" s="346"/>
+      <c r="U57" s="346"/>
+      <c r="V57" s="346"/>
+      <c r="W57" s="346"/>
+      <c r="X57" s="346"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O58" s="232"/>
@@ -40703,11 +40964,11 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="234"/>
-      <c r="B60" s="363" t="s">
+      <c r="B60" s="365" t="s">
         <v>430</v>
       </c>
-      <c r="C60" s="363"/>
-      <c r="D60" s="363"/>
+      <c r="C60" s="365"/>
+      <c r="D60" s="365"/>
       <c r="E60" s="235" t="str">
         <f>CertTempC</f>
         <v/>
@@ -40724,8 +40985,8 @@
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="364"/>
-      <c r="L60" s="364"/>
+      <c r="K60" s="348"/>
+      <c r="L60" s="348"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
@@ -40735,11 +40996,11 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
-      <c r="T60" s="365" t="str">
+      <c r="T60" s="366" t="str">
         <f>General!I18</f>
         <v/>
       </c>
-      <c r="U60" s="365"/>
+      <c r="U60" s="366"/>
       <c r="V60" s="236" t="s">
         <v>432</v>
       </c>
@@ -40841,58 +41102,58 @@
       <c r="W63" s="9"/>
     </row>
     <row r="64" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="351" t="s">
+      <c r="A64" s="358" t="s">
         <v>715</v>
       </c>
-      <c r="B64" s="351"/>
-      <c r="C64" s="351"/>
-      <c r="D64" s="351"/>
-      <c r="E64" s="351"/>
-      <c r="F64" s="351"/>
-      <c r="G64" s="351"/>
-      <c r="H64" s="351"/>
-      <c r="I64" s="351"/>
-      <c r="J64" s="351"/>
-      <c r="K64" s="351"/>
-      <c r="L64" s="351"/>
-      <c r="M64" s="351"/>
-      <c r="N64" s="351"/>
-      <c r="O64" s="351"/>
-      <c r="P64" s="351"/>
-      <c r="Q64" s="351"/>
-      <c r="R64" s="351"/>
-      <c r="S64" s="351"/>
-      <c r="T64" s="351"/>
-      <c r="U64" s="351"/>
-      <c r="V64" s="351"/>
-      <c r="W64" s="351"/>
-      <c r="X64" s="351"/>
+      <c r="B64" s="358"/>
+      <c r="C64" s="358"/>
+      <c r="D64" s="358"/>
+      <c r="E64" s="358"/>
+      <c r="F64" s="358"/>
+      <c r="G64" s="358"/>
+      <c r="H64" s="358"/>
+      <c r="I64" s="358"/>
+      <c r="J64" s="358"/>
+      <c r="K64" s="358"/>
+      <c r="L64" s="358"/>
+      <c r="M64" s="358"/>
+      <c r="N64" s="358"/>
+      <c r="O64" s="358"/>
+      <c r="P64" s="358"/>
+      <c r="Q64" s="358"/>
+      <c r="R64" s="358"/>
+      <c r="S64" s="358"/>
+      <c r="T64" s="358"/>
+      <c r="U64" s="358"/>
+      <c r="V64" s="358"/>
+      <c r="W64" s="358"/>
+      <c r="X64" s="358"/>
     </row>
     <row r="65" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="351"/>
-      <c r="B65" s="351"/>
-      <c r="C65" s="351"/>
-      <c r="D65" s="351"/>
-      <c r="E65" s="351"/>
-      <c r="F65" s="351"/>
-      <c r="G65" s="351"/>
-      <c r="H65" s="351"/>
-      <c r="I65" s="351"/>
-      <c r="J65" s="351"/>
-      <c r="K65" s="351"/>
-      <c r="L65" s="351"/>
-      <c r="M65" s="351"/>
-      <c r="N65" s="351"/>
-      <c r="O65" s="351"/>
-      <c r="P65" s="351"/>
-      <c r="Q65" s="351"/>
-      <c r="R65" s="351"/>
-      <c r="S65" s="351"/>
-      <c r="T65" s="351"/>
-      <c r="U65" s="351"/>
-      <c r="V65" s="351"/>
-      <c r="W65" s="351"/>
-      <c r="X65" s="351"/>
+      <c r="A65" s="358"/>
+      <c r="B65" s="358"/>
+      <c r="C65" s="358"/>
+      <c r="D65" s="358"/>
+      <c r="E65" s="358"/>
+      <c r="F65" s="358"/>
+      <c r="G65" s="358"/>
+      <c r="H65" s="358"/>
+      <c r="I65" s="358"/>
+      <c r="J65" s="358"/>
+      <c r="K65" s="358"/>
+      <c r="L65" s="358"/>
+      <c r="M65" s="358"/>
+      <c r="N65" s="358"/>
+      <c r="O65" s="358"/>
+      <c r="P65" s="358"/>
+      <c r="Q65" s="358"/>
+      <c r="R65" s="358"/>
+      <c r="S65" s="358"/>
+      <c r="T65" s="358"/>
+      <c r="U65" s="358"/>
+      <c r="V65" s="358"/>
+      <c r="W65" s="358"/>
+      <c r="X65" s="358"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B66" s="14"/>
@@ -40947,136 +41208,136 @@
       <c r="X67" s="14"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A68" s="351" t="s">
+      <c r="A68" s="358" t="s">
         <v>438</v>
       </c>
-      <c r="B68" s="351"/>
-      <c r="C68" s="351"/>
-      <c r="D68" s="351"/>
-      <c r="E68" s="351"/>
-      <c r="F68" s="351"/>
-      <c r="G68" s="351"/>
-      <c r="H68" s="351"/>
-      <c r="I68" s="351"/>
-      <c r="J68" s="351"/>
-      <c r="K68" s="351"/>
-      <c r="L68" s="351"/>
-      <c r="M68" s="351"/>
-      <c r="N68" s="351"/>
-      <c r="O68" s="351"/>
-      <c r="P68" s="351"/>
-      <c r="Q68" s="351"/>
-      <c r="R68" s="351"/>
-      <c r="S68" s="351"/>
-      <c r="T68" s="351"/>
-      <c r="U68" s="351"/>
-      <c r="V68" s="351"/>
-      <c r="W68" s="351"/>
-      <c r="X68" s="351"/>
+      <c r="B68" s="358"/>
+      <c r="C68" s="358"/>
+      <c r="D68" s="358"/>
+      <c r="E68" s="358"/>
+      <c r="F68" s="358"/>
+      <c r="G68" s="358"/>
+      <c r="H68" s="358"/>
+      <c r="I68" s="358"/>
+      <c r="J68" s="358"/>
+      <c r="K68" s="358"/>
+      <c r="L68" s="358"/>
+      <c r="M68" s="358"/>
+      <c r="N68" s="358"/>
+      <c r="O68" s="358"/>
+      <c r="P68" s="358"/>
+      <c r="Q68" s="358"/>
+      <c r="R68" s="358"/>
+      <c r="S68" s="358"/>
+      <c r="T68" s="358"/>
+      <c r="U68" s="358"/>
+      <c r="V68" s="358"/>
+      <c r="W68" s="358"/>
+      <c r="X68" s="358"/>
     </row>
     <row r="69" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="351"/>
-      <c r="B69" s="351"/>
-      <c r="C69" s="351"/>
-      <c r="D69" s="351"/>
-      <c r="E69" s="351"/>
-      <c r="F69" s="351"/>
-      <c r="G69" s="351"/>
-      <c r="H69" s="351"/>
-      <c r="I69" s="351"/>
-      <c r="J69" s="351"/>
-      <c r="K69" s="351"/>
-      <c r="L69" s="351"/>
-      <c r="M69" s="351"/>
-      <c r="N69" s="351"/>
-      <c r="O69" s="351"/>
-      <c r="P69" s="351"/>
-      <c r="Q69" s="351"/>
-      <c r="R69" s="351"/>
-      <c r="S69" s="351"/>
-      <c r="T69" s="351"/>
-      <c r="U69" s="351"/>
-      <c r="V69" s="351"/>
-      <c r="W69" s="351"/>
-      <c r="X69" s="351"/>
+      <c r="A69" s="358"/>
+      <c r="B69" s="358"/>
+      <c r="C69" s="358"/>
+      <c r="D69" s="358"/>
+      <c r="E69" s="358"/>
+      <c r="F69" s="358"/>
+      <c r="G69" s="358"/>
+      <c r="H69" s="358"/>
+      <c r="I69" s="358"/>
+      <c r="J69" s="358"/>
+      <c r="K69" s="358"/>
+      <c r="L69" s="358"/>
+      <c r="M69" s="358"/>
+      <c r="N69" s="358"/>
+      <c r="O69" s="358"/>
+      <c r="P69" s="358"/>
+      <c r="Q69" s="358"/>
+      <c r="R69" s="358"/>
+      <c r="S69" s="358"/>
+      <c r="T69" s="358"/>
+      <c r="U69" s="358"/>
+      <c r="V69" s="358"/>
+      <c r="W69" s="358"/>
+      <c r="X69" s="358"/>
     </row>
     <row r="70" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="351"/>
-      <c r="B70" s="351"/>
-      <c r="C70" s="351"/>
-      <c r="D70" s="351"/>
-      <c r="E70" s="351"/>
-      <c r="F70" s="351"/>
-      <c r="G70" s="351"/>
-      <c r="H70" s="351"/>
-      <c r="I70" s="351"/>
-      <c r="J70" s="351"/>
-      <c r="K70" s="351"/>
-      <c r="L70" s="351"/>
-      <c r="M70" s="351"/>
-      <c r="N70" s="351"/>
-      <c r="O70" s="351"/>
-      <c r="P70" s="351"/>
-      <c r="Q70" s="351"/>
-      <c r="R70" s="351"/>
-      <c r="S70" s="351"/>
-      <c r="T70" s="351"/>
-      <c r="U70" s="351"/>
-      <c r="V70" s="351"/>
-      <c r="W70" s="351"/>
-      <c r="X70" s="351"/>
+      <c r="A70" s="358"/>
+      <c r="B70" s="358"/>
+      <c r="C70" s="358"/>
+      <c r="D70" s="358"/>
+      <c r="E70" s="358"/>
+      <c r="F70" s="358"/>
+      <c r="G70" s="358"/>
+      <c r="H70" s="358"/>
+      <c r="I70" s="358"/>
+      <c r="J70" s="358"/>
+      <c r="K70" s="358"/>
+      <c r="L70" s="358"/>
+      <c r="M70" s="358"/>
+      <c r="N70" s="358"/>
+      <c r="O70" s="358"/>
+      <c r="P70" s="358"/>
+      <c r="Q70" s="358"/>
+      <c r="R70" s="358"/>
+      <c r="S70" s="358"/>
+      <c r="T70" s="358"/>
+      <c r="U70" s="358"/>
+      <c r="V70" s="358"/>
+      <c r="W70" s="358"/>
+      <c r="X70" s="358"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A71" s="351"/>
-      <c r="B71" s="351"/>
-      <c r="C71" s="351"/>
-      <c r="D71" s="351"/>
-      <c r="E71" s="351"/>
-      <c r="F71" s="351"/>
-      <c r="G71" s="351"/>
-      <c r="H71" s="351"/>
-      <c r="I71" s="351"/>
-      <c r="J71" s="351"/>
-      <c r="K71" s="351"/>
-      <c r="L71" s="351"/>
-      <c r="M71" s="351"/>
-      <c r="N71" s="351"/>
-      <c r="O71" s="351"/>
-      <c r="P71" s="351"/>
-      <c r="Q71" s="351"/>
-      <c r="R71" s="351"/>
-      <c r="S71" s="351"/>
-      <c r="T71" s="351"/>
-      <c r="U71" s="351"/>
-      <c r="V71" s="351"/>
-      <c r="W71" s="351"/>
-      <c r="X71" s="351"/>
+      <c r="A71" s="358"/>
+      <c r="B71" s="358"/>
+      <c r="C71" s="358"/>
+      <c r="D71" s="358"/>
+      <c r="E71" s="358"/>
+      <c r="F71" s="358"/>
+      <c r="G71" s="358"/>
+      <c r="H71" s="358"/>
+      <c r="I71" s="358"/>
+      <c r="J71" s="358"/>
+      <c r="K71" s="358"/>
+      <c r="L71" s="358"/>
+      <c r="M71" s="358"/>
+      <c r="N71" s="358"/>
+      <c r="O71" s="358"/>
+      <c r="P71" s="358"/>
+      <c r="Q71" s="358"/>
+      <c r="R71" s="358"/>
+      <c r="S71" s="358"/>
+      <c r="T71" s="358"/>
+      <c r="U71" s="358"/>
+      <c r="V71" s="358"/>
+      <c r="W71" s="358"/>
+      <c r="X71" s="358"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A72" s="351"/>
-      <c r="B72" s="351"/>
-      <c r="C72" s="351"/>
-      <c r="D72" s="351"/>
-      <c r="E72" s="351"/>
-      <c r="F72" s="351"/>
-      <c r="G72" s="351"/>
-      <c r="H72" s="351"/>
-      <c r="I72" s="351"/>
-      <c r="J72" s="351"/>
-      <c r="K72" s="351"/>
-      <c r="L72" s="351"/>
-      <c r="M72" s="351"/>
-      <c r="N72" s="351"/>
-      <c r="O72" s="351"/>
-      <c r="P72" s="351"/>
-      <c r="Q72" s="351"/>
-      <c r="R72" s="351"/>
-      <c r="S72" s="351"/>
-      <c r="T72" s="351"/>
-      <c r="U72" s="351"/>
-      <c r="V72" s="351"/>
-      <c r="W72" s="351"/>
-      <c r="X72" s="351"/>
+      <c r="A72" s="358"/>
+      <c r="B72" s="358"/>
+      <c r="C72" s="358"/>
+      <c r="D72" s="358"/>
+      <c r="E72" s="358"/>
+      <c r="F72" s="358"/>
+      <c r="G72" s="358"/>
+      <c r="H72" s="358"/>
+      <c r="I72" s="358"/>
+      <c r="J72" s="358"/>
+      <c r="K72" s="358"/>
+      <c r="L72" s="358"/>
+      <c r="M72" s="358"/>
+      <c r="N72" s="358"/>
+      <c r="O72" s="358"/>
+      <c r="P72" s="358"/>
+      <c r="Q72" s="358"/>
+      <c r="R72" s="358"/>
+      <c r="S72" s="358"/>
+      <c r="T72" s="358"/>
+      <c r="U72" s="358"/>
+      <c r="V72" s="358"/>
+      <c r="W72" s="358"/>
+      <c r="X72" s="358"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -41130,204 +41391,204 @@
       <c r="V74" s="9"/>
     </row>
     <row r="75" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="352" t="s">
+      <c r="A75" s="359" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="353"/>
-      <c r="C75" s="353"/>
-      <c r="D75" s="353"/>
-      <c r="E75" s="353"/>
-      <c r="F75" s="354"/>
-      <c r="G75" s="352" t="s">
+      <c r="B75" s="360"/>
+      <c r="C75" s="360"/>
+      <c r="D75" s="360"/>
+      <c r="E75" s="360"/>
+      <c r="F75" s="361"/>
+      <c r="G75" s="359" t="s">
         <v>4</v>
       </c>
-      <c r="H75" s="353"/>
-      <c r="I75" s="354"/>
-      <c r="J75" s="355" t="s">
+      <c r="H75" s="360"/>
+      <c r="I75" s="361"/>
+      <c r="J75" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="K75" s="356"/>
-      <c r="L75" s="356"/>
-      <c r="M75" s="356"/>
-      <c r="N75" s="357"/>
-      <c r="O75" s="352" t="s">
+      <c r="K75" s="363"/>
+      <c r="L75" s="363"/>
+      <c r="M75" s="363"/>
+      <c r="N75" s="364"/>
+      <c r="O75" s="359" t="s">
         <v>440</v>
       </c>
-      <c r="P75" s="353"/>
-      <c r="Q75" s="353"/>
-      <c r="R75" s="353"/>
-      <c r="S75" s="353"/>
-      <c r="T75" s="354"/>
-      <c r="U75" s="355" t="s">
+      <c r="P75" s="360"/>
+      <c r="Q75" s="360"/>
+      <c r="R75" s="360"/>
+      <c r="S75" s="360"/>
+      <c r="T75" s="361"/>
+      <c r="U75" s="362" t="s">
         <v>441</v>
       </c>
-      <c r="V75" s="356"/>
-      <c r="W75" s="356"/>
-      <c r="X75" s="357"/>
+      <c r="V75" s="363"/>
+      <c r="W75" s="363"/>
+      <c r="X75" s="364"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A76" s="345" t="s">
+      <c r="A76" s="367" t="s">
         <v>709</v>
       </c>
-      <c r="B76" s="346" t="s">
+      <c r="B76" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="C76" s="346" t="s">
+      <c r="C76" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="D76" s="346" t="s">
+      <c r="D76" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="E76" s="346" t="s">
+      <c r="E76" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="F76" s="347" t="s">
+      <c r="F76" s="369" t="s">
         <v>449</v>
       </c>
-      <c r="G76" s="345" t="s">
+      <c r="G76" s="367" t="s">
         <v>477</v>
       </c>
-      <c r="H76" s="346" t="s">
+      <c r="H76" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I76" s="347" t="s">
+      <c r="I76" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J76" s="348" t="s">
+      <c r="J76" s="370" t="s">
         <v>700</v>
       </c>
-      <c r="K76" s="349" t="s">
+      <c r="K76" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L76" s="349">
+      <c r="L76" s="371">
         <v>43393</v>
       </c>
-      <c r="M76" s="349" t="s">
+      <c r="M76" s="371" t="s">
         <v>466</v>
       </c>
-      <c r="N76" s="350" t="s">
+      <c r="N76" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O76" s="345" t="s">
+      <c r="O76" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P76" s="346" t="s">
+      <c r="P76" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q76" s="346" t="s">
+      <c r="Q76" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R76" s="346" t="s">
+      <c r="R76" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S76" s="346" t="s">
+      <c r="S76" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T76" s="347" t="s">
+      <c r="T76" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U76" s="348">
+      <c r="U76" s="370">
         <v>44878</v>
       </c>
-      <c r="V76" s="349" t="s">
+      <c r="V76" s="371" t="s">
         <v>466</v>
       </c>
-      <c r="W76" s="349" t="s">
+      <c r="W76" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X76" s="350">
+      <c r="X76" s="372">
         <v>43393</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="345" t="s">
+      <c r="A77" s="367" t="s">
         <v>710</v>
       </c>
-      <c r="B77" s="346"/>
-      <c r="C77" s="346"/>
-      <c r="D77" s="346"/>
-      <c r="E77" s="346"/>
-      <c r="F77" s="347"/>
-      <c r="G77" s="345" t="s">
+      <c r="B77" s="368"/>
+      <c r="C77" s="368"/>
+      <c r="D77" s="368"/>
+      <c r="E77" s="368"/>
+      <c r="F77" s="369"/>
+      <c r="G77" s="367" t="s">
         <v>311</v>
       </c>
-      <c r="H77" s="346" t="s">
+      <c r="H77" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I77" s="347" t="s">
+      <c r="I77" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J77" s="348" t="s">
+      <c r="J77" s="370" t="s">
         <v>714</v>
       </c>
-      <c r="K77" s="349" t="s">
+      <c r="K77" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L77" s="349">
+      <c r="L77" s="371">
         <v>43394</v>
       </c>
-      <c r="M77" s="349" t="s">
+      <c r="M77" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="N77" s="350" t="s">
+      <c r="N77" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O77" s="345" t="s">
+      <c r="O77" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P77" s="346" t="s">
+      <c r="P77" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q77" s="346" t="s">
+      <c r="Q77" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R77" s="346" t="s">
+      <c r="R77" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S77" s="346" t="s">
+      <c r="S77" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T77" s="347" t="s">
+      <c r="T77" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U77" s="348">
+      <c r="U77" s="370">
         <v>44878</v>
       </c>
-      <c r="V77" s="349" t="s">
+      <c r="V77" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="W77" s="349" t="s">
+      <c r="W77" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X77" s="350">
+      <c r="X77" s="372">
         <v>43394</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="345"/>
-      <c r="B78" s="346"/>
-      <c r="C78" s="346"/>
-      <c r="D78" s="346"/>
-      <c r="E78" s="346"/>
-      <c r="F78" s="347"/>
-      <c r="G78" s="345"/>
-      <c r="H78" s="346"/>
-      <c r="I78" s="347"/>
-      <c r="J78" s="348"/>
-      <c r="K78" s="349"/>
-      <c r="L78" s="349"/>
-      <c r="M78" s="349"/>
-      <c r="N78" s="350"/>
-      <c r="O78" s="345"/>
-      <c r="P78" s="346"/>
-      <c r="Q78" s="346"/>
-      <c r="R78" s="346"/>
-      <c r="S78" s="346"/>
-      <c r="T78" s="347"/>
-      <c r="U78" s="348"/>
-      <c r="V78" s="349"/>
-      <c r="W78" s="349"/>
-      <c r="X78" s="350"/>
+      <c r="A78" s="367"/>
+      <c r="B78" s="368"/>
+      <c r="C78" s="368"/>
+      <c r="D78" s="368"/>
+      <c r="E78" s="368"/>
+      <c r="F78" s="369"/>
+      <c r="G78" s="367"/>
+      <c r="H78" s="368"/>
+      <c r="I78" s="369"/>
+      <c r="J78" s="370"/>
+      <c r="K78" s="371"/>
+      <c r="L78" s="371"/>
+      <c r="M78" s="371"/>
+      <c r="N78" s="372"/>
+      <c r="O78" s="367"/>
+      <c r="P78" s="368"/>
+      <c r="Q78" s="368"/>
+      <c r="R78" s="368"/>
+      <c r="S78" s="368"/>
+      <c r="T78" s="369"/>
+      <c r="U78" s="370"/>
+      <c r="V78" s="371"/>
+      <c r="W78" s="371"/>
+      <c r="X78" s="372"/>
     </row>
     <row r="79" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="238"/>
@@ -41439,59 +41700,59 @@
       <c r="X82" s="9"/>
     </row>
     <row r="83" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="351" t="str">
+      <c r="A83" s="358" t="str">
         <f>IF(Calibración!E10="2",Calibración!BJ6,Calibración!BJ7)</f>
         <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
       </c>
-      <c r="B83" s="351"/>
-      <c r="C83" s="351"/>
-      <c r="D83" s="351"/>
-      <c r="E83" s="351"/>
-      <c r="F83" s="351"/>
-      <c r="G83" s="351"/>
-      <c r="H83" s="351"/>
-      <c r="I83" s="351"/>
-      <c r="J83" s="351"/>
-      <c r="K83" s="351"/>
-      <c r="L83" s="351"/>
-      <c r="M83" s="351"/>
-      <c r="N83" s="351"/>
-      <c r="O83" s="351"/>
-      <c r="P83" s="351"/>
-      <c r="Q83" s="351"/>
-      <c r="R83" s="351"/>
-      <c r="S83" s="351"/>
-      <c r="T83" s="351"/>
-      <c r="U83" s="351"/>
-      <c r="V83" s="351"/>
-      <c r="W83" s="351"/>
-      <c r="X83" s="351"/>
+      <c r="B83" s="358"/>
+      <c r="C83" s="358"/>
+      <c r="D83" s="358"/>
+      <c r="E83" s="358"/>
+      <c r="F83" s="358"/>
+      <c r="G83" s="358"/>
+      <c r="H83" s="358"/>
+      <c r="I83" s="358"/>
+      <c r="J83" s="358"/>
+      <c r="K83" s="358"/>
+      <c r="L83" s="358"/>
+      <c r="M83" s="358"/>
+      <c r="N83" s="358"/>
+      <c r="O83" s="358"/>
+      <c r="P83" s="358"/>
+      <c r="Q83" s="358"/>
+      <c r="R83" s="358"/>
+      <c r="S83" s="358"/>
+      <c r="T83" s="358"/>
+      <c r="U83" s="358"/>
+      <c r="V83" s="358"/>
+      <c r="W83" s="358"/>
+      <c r="X83" s="358"/>
     </row>
     <row r="84" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="351"/>
-      <c r="B84" s="351"/>
-      <c r="C84" s="351"/>
-      <c r="D84" s="351"/>
-      <c r="E84" s="351"/>
-      <c r="F84" s="351"/>
-      <c r="G84" s="351"/>
-      <c r="H84" s="351"/>
-      <c r="I84" s="351"/>
-      <c r="J84" s="351"/>
-      <c r="K84" s="351"/>
-      <c r="L84" s="351"/>
-      <c r="M84" s="351"/>
-      <c r="N84" s="351"/>
-      <c r="O84" s="351"/>
-      <c r="P84" s="351"/>
-      <c r="Q84" s="351"/>
-      <c r="R84" s="351"/>
-      <c r="S84" s="351"/>
-      <c r="T84" s="351"/>
-      <c r="U84" s="351"/>
-      <c r="V84" s="351"/>
-      <c r="W84" s="351"/>
-      <c r="X84" s="351"/>
+      <c r="A84" s="358"/>
+      <c r="B84" s="358"/>
+      <c r="C84" s="358"/>
+      <c r="D84" s="358"/>
+      <c r="E84" s="358"/>
+      <c r="F84" s="358"/>
+      <c r="G84" s="358"/>
+      <c r="H84" s="358"/>
+      <c r="I84" s="358"/>
+      <c r="J84" s="358"/>
+      <c r="K84" s="358"/>
+      <c r="L84" s="358"/>
+      <c r="M84" s="358"/>
+      <c r="N84" s="358"/>
+      <c r="O84" s="358"/>
+      <c r="P84" s="358"/>
+      <c r="Q84" s="358"/>
+      <c r="R84" s="358"/>
+      <c r="S84" s="358"/>
+      <c r="T84" s="358"/>
+      <c r="U84" s="358"/>
+      <c r="V84" s="358"/>
+      <c r="W84" s="358"/>
+      <c r="X84" s="358"/>
     </row>
     <row r="85" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="239" t="s">
@@ -41666,153 +41927,57 @@
       <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I94" s="341" t="s">
+      <c r="I94" s="373" t="s">
         <v>30</v>
       </c>
-      <c r="J94" s="341"/>
-      <c r="K94" s="341"/>
-      <c r="L94" s="341"/>
-      <c r="M94" s="341"/>
-      <c r="N94" s="341"/>
-      <c r="O94" s="341"/>
-      <c r="P94" s="341"/>
+      <c r="J94" s="373"/>
+      <c r="K94" s="373"/>
+      <c r="L94" s="373"/>
+      <c r="M94" s="373"/>
+      <c r="N94" s="373"/>
+      <c r="O94" s="373"/>
+      <c r="P94" s="373"/>
       <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I95" s="342" t="str">
+      <c r="I95" s="374" t="str">
         <f>IF(I94=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
         <v>Director Técnico</v>
       </c>
-      <c r="J95" s="342"/>
-      <c r="K95" s="342"/>
-      <c r="L95" s="342"/>
-      <c r="M95" s="342"/>
-      <c r="N95" s="342"/>
-      <c r="O95" s="342"/>
-      <c r="P95" s="342"/>
+      <c r="J95" s="374"/>
+      <c r="K95" s="374"/>
+      <c r="L95" s="374"/>
+      <c r="M95" s="374"/>
+      <c r="N95" s="374"/>
+      <c r="O95" s="374"/>
+      <c r="P95" s="374"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I96" s="343" t="s">
+      <c r="I96" s="375" t="s">
         <v>446</v>
       </c>
-      <c r="J96" s="343"/>
-      <c r="K96" s="343"/>
-      <c r="L96" s="343"/>
-      <c r="M96" s="343"/>
-      <c r="N96" s="343"/>
-      <c r="O96" s="343"/>
-      <c r="P96" s="343"/>
+      <c r="J96" s="375"/>
+      <c r="K96" s="375"/>
+      <c r="L96" s="375"/>
+      <c r="M96" s="375"/>
+      <c r="N96" s="375"/>
+      <c r="O96" s="375"/>
+      <c r="P96" s="375"/>
     </row>
     <row r="98" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I98" s="344" t="s">
+      <c r="I98" s="376" t="s">
         <v>447</v>
       </c>
-      <c r="J98" s="344"/>
-      <c r="K98" s="344"/>
-      <c r="L98" s="344"/>
-      <c r="M98" s="344"/>
-      <c r="N98" s="344"/>
-      <c r="O98" s="344"/>
-      <c r="P98" s="344"/>
+      <c r="J98" s="376"/>
+      <c r="K98" s="376"/>
+      <c r="L98" s="376"/>
+      <c r="M98" s="376"/>
+      <c r="N98" s="376"/>
+      <c r="O98" s="376"/>
+      <c r="P98" s="376"/>
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="N21:X22"/>
-    <mergeCell ref="D25:W25"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:K27"/>
-    <mergeCell ref="L26:Q27"/>
-    <mergeCell ref="R26:W27"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="D38:W38"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="F39:K40"/>
-    <mergeCell ref="L39:Q40"/>
-    <mergeCell ref="R39:W40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="L41:Q41"/>
-    <mergeCell ref="R41:W41"/>
-    <mergeCell ref="A64:X65"/>
-    <mergeCell ref="A68:X72"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="O75:T75"/>
-    <mergeCell ref="U75:X75"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="L46:Q46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="L45:Q45"/>
-    <mergeCell ref="R45:W45"/>
-    <mergeCell ref="L42:Q42"/>
-    <mergeCell ref="R42:W42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="R43:W43"/>
-    <mergeCell ref="I94:P94"/>
-    <mergeCell ref="I95:P95"/>
-    <mergeCell ref="I96:P96"/>
-    <mergeCell ref="I98:P98"/>
-    <mergeCell ref="A83:X84"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="O76:T76"/>
-    <mergeCell ref="U76:X76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="O77:T77"/>
-    <mergeCell ref="U77:X77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="O78:T78"/>
-    <mergeCell ref="U78:X78"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:K34"/>
     <mergeCell ref="L34:Q34"/>
@@ -41837,6 +42002,102 @@
     <mergeCell ref="L44:Q44"/>
     <mergeCell ref="R44:W44"/>
     <mergeCell ref="D45:E45"/>
+    <mergeCell ref="I94:P94"/>
+    <mergeCell ref="I95:P95"/>
+    <mergeCell ref="I96:P96"/>
+    <mergeCell ref="I98:P98"/>
+    <mergeCell ref="A83:X84"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="O76:T76"/>
+    <mergeCell ref="U76:X76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="O77:T77"/>
+    <mergeCell ref="U77:X77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="O78:T78"/>
+    <mergeCell ref="U78:X78"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="L45:Q45"/>
+    <mergeCell ref="R45:W45"/>
+    <mergeCell ref="L42:Q42"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="A64:X65"/>
+    <mergeCell ref="A68:X72"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="O75:T75"/>
+    <mergeCell ref="U75:X75"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="L46:Q46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="D38:W38"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="F39:K40"/>
+    <mergeCell ref="L39:Q40"/>
+    <mergeCell ref="R39:W40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="N21:X22"/>
+    <mergeCell ref="D25:W25"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:K27"/>
+    <mergeCell ref="L26:Q27"/>
+    <mergeCell ref="R26:W27"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N11:Q11"/>
   </mergeCells>
   <conditionalFormatting sqref="A87">
     <cfRule type="cellIs" priority="1" operator="equal">
@@ -41892,14 +42153,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B2" s="387" t="s">
+      <c r="B2" s="378" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="387"/>
-      <c r="D2" s="387"/>
-      <c r="E2" s="387"/>
-      <c r="F2" s="387"/>
-      <c r="G2" s="387"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
       <c r="I2" s="268"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
@@ -41919,14 +42180,14 @@
       <c r="E4" s="269"/>
       <c r="F4" s="269"/>
       <c r="G4" s="269"/>
-      <c r="I4" s="388" t="s">
+      <c r="I4" s="380" t="s">
         <v>530</v>
       </c>
-      <c r="J4" s="388"/>
-      <c r="K4" s="388" t="s">
+      <c r="J4" s="380"/>
+      <c r="K4" s="380" t="s">
         <v>531</v>
       </c>
-      <c r="L4" s="388"/>
+      <c r="L4" s="380"/>
       <c r="N4" s="15" t="s">
         <v>532</v>
       </c>
@@ -41939,12 +42200,12 @@
       <c r="C5" s="271" t="s">
         <v>534</v>
       </c>
-      <c r="D5" s="380" t="s">
+      <c r="D5" s="381" t="s">
         <v>535</v>
       </c>
-      <c r="E5" s="381"/>
-      <c r="F5" s="381"/>
-      <c r="G5" s="382"/>
+      <c r="E5" s="382"/>
+      <c r="F5" s="382"/>
+      <c r="G5" s="383"/>
       <c r="I5" s="272" t="s">
         <v>135</v>
       </c>
@@ -41972,32 +42233,32 @@
       <c r="Q5" s="272" t="s">
         <v>540</v>
       </c>
-      <c r="W5" s="386" t="s">
+      <c r="W5" s="377" t="s">
         <v>727</v>
       </c>
-      <c r="X5" s="386"/>
-      <c r="Y5" s="386"/>
-      <c r="Z5" s="386"/>
-      <c r="AA5" s="386"/>
-      <c r="AB5" s="386"/>
-      <c r="AC5" s="386"/>
-      <c r="AD5" s="386"/>
+      <c r="X5" s="377"/>
+      <c r="Y5" s="377"/>
+      <c r="Z5" s="377"/>
+      <c r="AA5" s="377"/>
+      <c r="AB5" s="377"/>
+      <c r="AC5" s="377"/>
+      <c r="AD5" s="377"/>
     </row>
     <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="377">
+      <c r="B6" s="384">
         <v>-82.74</v>
       </c>
-      <c r="C6" s="377">
+      <c r="C6" s="384">
         <v>-0.06</v>
       </c>
-      <c r="D6" s="385" t="s">
+      <c r="D6" s="386" t="s">
         <v>721</v>
       </c>
-      <c r="E6" s="382"/>
-      <c r="F6" s="380" t="s">
+      <c r="E6" s="383"/>
+      <c r="F6" s="381" t="s">
         <v>722</v>
       </c>
-      <c r="G6" s="382"/>
+      <c r="G6" s="383"/>
       <c r="I6" s="27">
         <v>-82.74</v>
       </c>
@@ -42033,16 +42294,16 @@
       <c r="AD6" s="295"/>
     </row>
     <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="378"/>
-      <c r="C7" s="378"/>
-      <c r="D7" s="380" t="s">
+      <c r="B7" s="385"/>
+      <c r="C7" s="385"/>
+      <c r="D7" s="381" t="s">
         <v>541</v>
       </c>
-      <c r="E7" s="382"/>
-      <c r="F7" s="380" t="s">
+      <c r="E7" s="383"/>
+      <c r="F7" s="381" t="s">
         <v>542</v>
       </c>
-      <c r="G7" s="382"/>
+      <c r="G7" s="383"/>
       <c r="I7" s="27">
         <v>0.01</v>
       </c>
@@ -42168,40 +42429,40 @@
       <c r="C10" s="271" t="s">
         <v>534</v>
       </c>
-      <c r="D10" s="380" t="s">
+      <c r="D10" s="381" t="s">
         <v>535</v>
       </c>
-      <c r="E10" s="381"/>
-      <c r="F10" s="381"/>
-      <c r="G10" s="382"/>
+      <c r="E10" s="382"/>
+      <c r="F10" s="382"/>
+      <c r="G10" s="383"/>
     </row>
     <row r="11" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="377">
+      <c r="B11" s="384">
         <v>0.01</v>
       </c>
-      <c r="C11" s="377">
+      <c r="C11" s="384">
         <v>699.75</v>
       </c>
-      <c r="D11" s="385" t="s">
+      <c r="D11" s="386" t="s">
         <v>723</v>
       </c>
-      <c r="E11" s="382"/>
-      <c r="F11" s="380" t="s">
+      <c r="E11" s="383"/>
+      <c r="F11" s="381" t="s">
         <v>724</v>
       </c>
-      <c r="G11" s="382"/>
+      <c r="G11" s="383"/>
     </row>
     <row r="12" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="378"/>
-      <c r="C12" s="378"/>
-      <c r="D12" s="380" t="s">
+      <c r="B12" s="385"/>
+      <c r="C12" s="385"/>
+      <c r="D12" s="381" t="s">
         <v>541</v>
       </c>
-      <c r="E12" s="382"/>
-      <c r="F12" s="380" t="s">
+      <c r="E12" s="383"/>
+      <c r="F12" s="381" t="s">
         <v>542</v>
       </c>
-      <c r="G12" s="382"/>
+      <c r="G12" s="383"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B13" s="269"/>
@@ -42224,38 +42485,38 @@
         <v>532</v>
       </c>
       <c r="J14" s="15"/>
-      <c r="K14" s="383" t="s">
+      <c r="K14" s="387" t="s">
         <v>732</v>
       </c>
-      <c r="L14" s="383"/>
-      <c r="M14" s="383"/>
+      <c r="L14" s="387"/>
+      <c r="M14" s="387"/>
       <c r="P14" s="15" t="s">
         <v>532</v>
       </c>
       <c r="Q14" s="15"/>
-      <c r="R14" s="383" t="s">
+      <c r="R14" s="387" t="s">
         <v>733</v>
       </c>
-      <c r="S14" s="383"/>
-      <c r="T14" s="383"/>
+      <c r="S14" s="387"/>
+      <c r="T14" s="387"/>
       <c r="W14" s="15" t="s">
         <v>532</v>
       </c>
       <c r="X14" s="15"/>
-      <c r="Y14" s="384" t="s">
+      <c r="Y14" s="388" t="s">
         <v>734</v>
       </c>
-      <c r="Z14" s="384"/>
-      <c r="AA14" s="384"/>
+      <c r="Z14" s="388"/>
+      <c r="AA14" s="388"/>
       <c r="AD14" s="15" t="s">
         <v>532</v>
       </c>
       <c r="AE14" s="15"/>
-      <c r="AF14" s="384" t="s">
+      <c r="AF14" s="388" t="s">
         <v>726</v>
       </c>
-      <c r="AG14" s="384"/>
-      <c r="AH14" s="384"/>
+      <c r="AG14" s="388"/>
+      <c r="AH14" s="388"/>
     </row>
     <row r="15" spans="2:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="270" t="s">
@@ -42264,12 +42525,12 @@
       <c r="C15" s="271" t="s">
         <v>534</v>
       </c>
-      <c r="D15" s="380" t="s">
+      <c r="D15" s="381" t="s">
         <v>535</v>
       </c>
-      <c r="E15" s="381"/>
-      <c r="F15" s="381"/>
-      <c r="G15" s="382"/>
+      <c r="E15" s="382"/>
+      <c r="F15" s="382"/>
+      <c r="G15" s="383"/>
       <c r="I15" s="274" t="s">
         <v>543</v>
       </c>
@@ -42332,20 +42593,20 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="377">
+      <c r="B16" s="384">
         <v>700</v>
       </c>
-      <c r="C16" s="377">
+      <c r="C16" s="384">
         <v>7000</v>
       </c>
-      <c r="D16" s="380" t="s">
+      <c r="D16" s="381" t="s">
         <v>547</v>
       </c>
-      <c r="E16" s="382"/>
-      <c r="F16" s="380" t="s">
+      <c r="E16" s="383"/>
+      <c r="F16" s="381" t="s">
         <v>725</v>
       </c>
-      <c r="G16" s="382"/>
+      <c r="G16" s="383"/>
       <c r="I16" s="20" t="s">
         <v>548</v>
       </c>
@@ -42424,16 +42685,16 @@
       </c>
     </row>
     <row r="17" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="378"/>
-      <c r="C17" s="378"/>
-      <c r="D17" s="380" t="s">
+      <c r="B17" s="385"/>
+      <c r="C17" s="385"/>
+      <c r="D17" s="381" t="s">
         <v>541</v>
       </c>
-      <c r="E17" s="382"/>
-      <c r="F17" s="380" t="s">
+      <c r="E17" s="383"/>
+      <c r="F17" s="381" t="s">
         <v>542</v>
       </c>
-      <c r="G17" s="382"/>
+      <c r="G17" s="383"/>
       <c r="I17" s="20" t="s">
         <v>549</v>
       </c>
@@ -42683,12 +42944,12 @@
       <c r="C20" s="271" t="s">
         <v>534</v>
       </c>
-      <c r="D20" s="380" t="s">
+      <c r="D20" s="381" t="s">
         <v>535</v>
       </c>
-      <c r="E20" s="381"/>
-      <c r="F20" s="381"/>
-      <c r="G20" s="382"/>
+      <c r="E20" s="382"/>
+      <c r="F20" s="382"/>
+      <c r="G20" s="383"/>
       <c r="I20" s="20" t="s">
         <v>552</v>
       </c>
@@ -42767,20 +43028,20 @@
       </c>
     </row>
     <row r="21" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="377">
+      <c r="B21" s="384">
         <v>7001</v>
       </c>
-      <c r="C21" s="377">
+      <c r="C21" s="384">
         <v>34500</v>
       </c>
-      <c r="D21" s="380" t="s">
+      <c r="D21" s="381" t="s">
         <v>553</v>
       </c>
-      <c r="E21" s="382"/>
-      <c r="F21" s="380" t="s">
+      <c r="E21" s="383"/>
+      <c r="F21" s="381" t="s">
         <v>726</v>
       </c>
-      <c r="G21" s="382"/>
+      <c r="G21" s="383"/>
       <c r="I21" s="20" t="s">
         <v>554</v>
       </c>
@@ -42859,16 +43120,16 @@
       </c>
     </row>
     <row r="22" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="378"/>
-      <c r="C22" s="378"/>
-      <c r="D22" s="380" t="s">
+      <c r="B22" s="385"/>
+      <c r="C22" s="385"/>
+      <c r="D22" s="381" t="s">
         <v>541</v>
       </c>
-      <c r="E22" s="382"/>
-      <c r="F22" s="380" t="s">
+      <c r="E22" s="383"/>
+      <c r="F22" s="381" t="s">
         <v>542</v>
       </c>
-      <c r="G22" s="382"/>
+      <c r="G22" s="383"/>
       <c r="I22" s="20" t="s">
         <v>555</v>
       </c>
@@ -43225,49 +43486,75 @@
       </c>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="I28" s="377">
+      <c r="I28" s="384">
         <v>-82.74</v>
       </c>
-      <c r="J28" s="377">
+      <c r="J28" s="384">
         <v>-0.06</v>
       </c>
-      <c r="P28" s="377">
+      <c r="P28" s="384">
         <v>0.01</v>
       </c>
-      <c r="Q28" s="377">
+      <c r="Q28" s="384">
         <v>699.75</v>
       </c>
-      <c r="W28" s="377">
+      <c r="W28" s="384">
         <v>700</v>
       </c>
-      <c r="X28" s="377">
+      <c r="X28" s="384">
         <v>7000</v>
       </c>
-      <c r="AD28" s="377">
+      <c r="AD28" s="384">
         <v>7001</v>
       </c>
-      <c r="AE28" s="377">
+      <c r="AE28" s="384">
         <v>34500</v>
       </c>
     </row>
     <row r="29" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I29" s="378"/>
-      <c r="J29" s="378"/>
-      <c r="P29" s="378"/>
-      <c r="Q29" s="378"/>
-      <c r="W29" s="378"/>
-      <c r="X29" s="378"/>
-      <c r="AD29" s="378"/>
-      <c r="AE29" s="378"/>
+      <c r="I29" s="385"/>
+      <c r="J29" s="385"/>
+      <c r="P29" s="385"/>
+      <c r="Q29" s="385"/>
+      <c r="W29" s="385"/>
+      <c r="X29" s="385"/>
+      <c r="AD29" s="385"/>
+      <c r="AE29" s="385"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="W5:AD5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D10:G10"/>
@@ -43282,38 +43569,12 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="W5:AD5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="135" orientation="landscape" r:id="rId1"/>
@@ -43436,778 +43697,748 @@
       <c r="V7" s="9"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="352" t="s">
+      <c r="A8" s="359" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="353"/>
-      <c r="C8" s="353"/>
-      <c r="D8" s="353"/>
-      <c r="E8" s="353"/>
-      <c r="F8" s="354"/>
-      <c r="G8" s="352" t="s">
+      <c r="B8" s="360"/>
+      <c r="C8" s="360"/>
+      <c r="D8" s="360"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="361"/>
+      <c r="G8" s="359" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="353"/>
-      <c r="I8" s="354"/>
-      <c r="J8" s="355" t="s">
+      <c r="H8" s="360"/>
+      <c r="I8" s="361"/>
+      <c r="J8" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="356"/>
-      <c r="L8" s="356"/>
-      <c r="M8" s="356"/>
-      <c r="N8" s="357"/>
-      <c r="O8" s="352" t="s">
+      <c r="K8" s="363"/>
+      <c r="L8" s="363"/>
+      <c r="M8" s="363"/>
+      <c r="N8" s="364"/>
+      <c r="O8" s="359" t="s">
         <v>440</v>
       </c>
-      <c r="P8" s="353"/>
-      <c r="Q8" s="353"/>
-      <c r="R8" s="353"/>
-      <c r="S8" s="353"/>
-      <c r="T8" s="354"/>
-      <c r="U8" s="355" t="s">
+      <c r="P8" s="360"/>
+      <c r="Q8" s="360"/>
+      <c r="R8" s="360"/>
+      <c r="S8" s="360"/>
+      <c r="T8" s="361"/>
+      <c r="U8" s="362" t="s">
         <v>441</v>
       </c>
-      <c r="V8" s="356"/>
-      <c r="W8" s="356"/>
-      <c r="X8" s="357"/>
+      <c r="V8" s="363"/>
+      <c r="W8" s="363"/>
+      <c r="X8" s="364"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="345" t="s">
+      <c r="A9" s="367" t="s">
         <v>449</v>
       </c>
-      <c r="B9" s="346" t="s">
+      <c r="B9" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="C9" s="346" t="s">
+      <c r="C9" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="D9" s="346" t="s">
+      <c r="D9" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="E9" s="346" t="s">
+      <c r="E9" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="F9" s="347" t="s">
+      <c r="F9" s="369" t="s">
         <v>449</v>
       </c>
-      <c r="G9" s="345" t="s">
+      <c r="G9" s="367" t="s">
         <v>285</v>
       </c>
-      <c r="H9" s="346" t="s">
+      <c r="H9" s="368" t="s">
         <v>285</v>
       </c>
-      <c r="I9" s="347" t="s">
+      <c r="I9" s="369" t="s">
         <v>285</v>
       </c>
-      <c r="J9" s="348" t="s">
+      <c r="J9" s="370" t="s">
         <v>706</v>
       </c>
-      <c r="K9" s="349" t="s">
+      <c r="K9" s="371" t="s">
         <v>451</v>
       </c>
-      <c r="L9" s="349">
+      <c r="L9" s="371">
         <v>43368</v>
       </c>
-      <c r="M9" s="349" t="s">
+      <c r="M9" s="371" t="s">
         <v>450</v>
       </c>
-      <c r="N9" s="350" t="s">
+      <c r="N9" s="372" t="s">
         <v>451</v>
       </c>
-      <c r="O9" s="345" t="s">
+      <c r="O9" s="367" t="s">
         <v>451</v>
       </c>
-      <c r="P9" s="346" t="s">
+      <c r="P9" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="Q9" s="346" t="s">
+      <c r="Q9" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="R9" s="346" t="s">
+      <c r="R9" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="S9" s="346" t="s">
+      <c r="S9" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="T9" s="347" t="s">
+      <c r="T9" s="369" t="s">
         <v>451</v>
       </c>
-      <c r="U9" s="348">
+      <c r="U9" s="370">
         <v>44096</v>
       </c>
-      <c r="V9" s="349" t="s">
+      <c r="V9" s="371" t="s">
         <v>450</v>
       </c>
-      <c r="W9" s="349" t="s">
+      <c r="W9" s="371" t="s">
         <v>451</v>
       </c>
-      <c r="X9" s="350">
+      <c r="X9" s="372">
         <v>43368</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="345" t="s">
+      <c r="A10" s="367" t="s">
         <v>449</v>
       </c>
-      <c r="B10" s="346" t="s">
+      <c r="B10" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="C10" s="346" t="s">
+      <c r="C10" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="D10" s="346" t="s">
+      <c r="D10" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="E10" s="346" t="s">
+      <c r="E10" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="F10" s="347" t="s">
+      <c r="F10" s="369" t="s">
         <v>449</v>
       </c>
-      <c r="G10" s="345" t="s">
+      <c r="G10" s="367" t="s">
         <v>293</v>
       </c>
-      <c r="H10" s="346" t="s">
+      <c r="H10" s="368" t="s">
         <v>293</v>
       </c>
-      <c r="I10" s="347" t="s">
+      <c r="I10" s="369" t="s">
         <v>293</v>
       </c>
-      <c r="J10" s="348" t="s">
+      <c r="J10" s="370" t="s">
         <v>707</v>
       </c>
-      <c r="K10" s="349" t="s">
+      <c r="K10" s="371" t="s">
         <v>451</v>
       </c>
-      <c r="L10" s="349">
+      <c r="L10" s="371">
         <v>43369</v>
       </c>
-      <c r="M10" s="349" t="s">
+      <c r="M10" s="371" t="s">
         <v>708</v>
       </c>
-      <c r="N10" s="350" t="s">
+      <c r="N10" s="372" t="s">
         <v>451</v>
       </c>
-      <c r="O10" s="345" t="s">
+      <c r="O10" s="367" t="s">
         <v>451</v>
       </c>
-      <c r="P10" s="346" t="s">
+      <c r="P10" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="Q10" s="346" t="s">
+      <c r="Q10" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="R10" s="346" t="s">
+      <c r="R10" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="S10" s="346" t="s">
+      <c r="S10" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="T10" s="347" t="s">
+      <c r="T10" s="369" t="s">
         <v>451</v>
       </c>
-      <c r="U10" s="348">
+      <c r="U10" s="370">
         <v>44431</v>
       </c>
-      <c r="V10" s="349" t="s">
+      <c r="V10" s="371" t="s">
         <v>708</v>
       </c>
-      <c r="W10" s="349" t="s">
+      <c r="W10" s="371" t="s">
         <v>451</v>
       </c>
-      <c r="X10" s="350">
+      <c r="X10" s="372">
         <v>43369</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="367" t="s">
         <v>709</v>
       </c>
-      <c r="B11" s="346" t="s">
+      <c r="B11" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="C11" s="346" t="s">
+      <c r="C11" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="346" t="s">
+      <c r="D11" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="E11" s="346" t="s">
+      <c r="E11" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="F11" s="347" t="s">
+      <c r="F11" s="369" t="s">
         <v>449</v>
       </c>
-      <c r="G11" s="345" t="s">
+      <c r="G11" s="367" t="s">
         <v>294</v>
       </c>
-      <c r="H11" s="346" t="s">
+      <c r="H11" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I11" s="347" t="s">
+      <c r="I11" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J11" s="348" t="s">
+      <c r="J11" s="370" t="s">
         <v>698</v>
       </c>
-      <c r="K11" s="349" t="s">
+      <c r="K11" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L11" s="349">
+      <c r="L11" s="371">
         <v>43392</v>
       </c>
-      <c r="M11" s="349" t="s">
+      <c r="M11" s="371" t="s">
         <v>452</v>
       </c>
-      <c r="N11" s="350" t="s">
+      <c r="N11" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O11" s="345" t="s">
+      <c r="O11" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P11" s="346" t="s">
+      <c r="P11" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q11" s="346" t="s">
+      <c r="Q11" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R11" s="346" t="s">
+      <c r="R11" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S11" s="346" t="s">
+      <c r="S11" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T11" s="347" t="s">
+      <c r="T11" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U11" s="348">
+      <c r="U11" s="370">
         <v>44083</v>
       </c>
-      <c r="V11" s="349" t="s">
+      <c r="V11" s="371" t="s">
         <v>452</v>
       </c>
-      <c r="W11" s="349" t="s">
+      <c r="W11" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X11" s="350">
+      <c r="X11" s="372">
         <v>43392</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="345" t="s">
+      <c r="A12" s="367" t="s">
         <v>709</v>
       </c>
-      <c r="B12" s="346" t="s">
+      <c r="B12" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="346" t="s">
+      <c r="C12" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="D12" s="346" t="s">
+      <c r="D12" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="E12" s="346" t="s">
+      <c r="E12" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="F12" s="347" t="s">
+      <c r="F12" s="369" t="s">
         <v>449</v>
       </c>
-      <c r="G12" s="345" t="s">
+      <c r="G12" s="367" t="s">
         <v>477</v>
       </c>
-      <c r="H12" s="346" t="s">
+      <c r="H12" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I12" s="347" t="s">
+      <c r="I12" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J12" s="348" t="s">
+      <c r="J12" s="370" t="s">
         <v>700</v>
       </c>
-      <c r="K12" s="349" t="s">
+      <c r="K12" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L12" s="349">
+      <c r="L12" s="371">
         <v>43393</v>
       </c>
-      <c r="M12" s="349" t="s">
+      <c r="M12" s="371" t="s">
         <v>466</v>
       </c>
-      <c r="N12" s="350" t="s">
+      <c r="N12" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O12" s="345" t="s">
+      <c r="O12" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P12" s="346" t="s">
+      <c r="P12" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q12" s="346" t="s">
+      <c r="Q12" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R12" s="346" t="s">
+      <c r="R12" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S12" s="346" t="s">
+      <c r="S12" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T12" s="347" t="s">
+      <c r="T12" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U12" s="348">
+      <c r="U12" s="370">
         <v>44058</v>
       </c>
-      <c r="V12" s="349" t="s">
+      <c r="V12" s="371" t="s">
         <v>466</v>
       </c>
-      <c r="W12" s="349" t="s">
+      <c r="W12" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X12" s="350">
+      <c r="X12" s="372">
         <v>43393</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="345" t="s">
+      <c r="A13" s="367" t="s">
         <v>465</v>
       </c>
-      <c r="B13" s="346" t="s">
+      <c r="B13" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="C13" s="346" t="s">
+      <c r="C13" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="D13" s="346" t="s">
+      <c r="D13" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="E13" s="346" t="s">
+      <c r="E13" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="F13" s="347" t="s">
+      <c r="F13" s="369" t="s">
         <v>449</v>
       </c>
-      <c r="G13" s="345" t="s">
+      <c r="G13" s="367" t="s">
         <v>463</v>
       </c>
-      <c r="H13" s="346" t="s">
+      <c r="H13" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I13" s="347" t="s">
+      <c r="I13" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J13" s="348" t="s">
+      <c r="J13" s="370" t="s">
         <v>718</v>
       </c>
-      <c r="K13" s="349" t="s">
+      <c r="K13" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L13" s="349">
+      <c r="L13" s="371">
         <v>43393</v>
       </c>
-      <c r="M13" s="349" t="s">
+      <c r="M13" s="371" t="s">
         <v>466</v>
       </c>
-      <c r="N13" s="350" t="s">
+      <c r="N13" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O13" s="345" t="s">
+      <c r="O13" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P13" s="346" t="s">
+      <c r="P13" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q13" s="346" t="s">
+      <c r="Q13" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R13" s="346" t="s">
+      <c r="R13" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S13" s="346" t="s">
+      <c r="S13" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T13" s="347" t="s">
+      <c r="T13" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U13" s="348">
+      <c r="U13" s="370">
         <v>44542</v>
       </c>
-      <c r="V13" s="349" t="s">
+      <c r="V13" s="371" t="s">
         <v>466</v>
       </c>
-      <c r="W13" s="349" t="s">
+      <c r="W13" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X13" s="350">
+      <c r="X13" s="372">
         <v>43393</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="345" t="s">
+      <c r="A14" s="367" t="s">
         <v>710</v>
       </c>
-      <c r="B14" s="346"/>
-      <c r="C14" s="346"/>
-      <c r="D14" s="346"/>
-      <c r="E14" s="346"/>
-      <c r="F14" s="347"/>
-      <c r="G14" s="345" t="s">
+      <c r="B14" s="368"/>
+      <c r="C14" s="368"/>
+      <c r="D14" s="368"/>
+      <c r="E14" s="368"/>
+      <c r="F14" s="369"/>
+      <c r="G14" s="367" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="346" t="s">
+      <c r="H14" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I14" s="347" t="s">
+      <c r="I14" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J14" s="348" t="s">
+      <c r="J14" s="370" t="s">
         <v>711</v>
       </c>
-      <c r="K14" s="349" t="s">
+      <c r="K14" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L14" s="349">
+      <c r="L14" s="371">
         <v>43394</v>
       </c>
-      <c r="M14" s="349" t="s">
+      <c r="M14" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="N14" s="350" t="s">
+      <c r="N14" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O14" s="345" t="s">
+      <c r="O14" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P14" s="346" t="s">
+      <c r="P14" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q14" s="346" t="s">
+      <c r="Q14" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R14" s="346" t="s">
+      <c r="R14" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S14" s="346" t="s">
+      <c r="S14" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T14" s="347" t="s">
+      <c r="T14" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U14" s="348">
+      <c r="U14" s="370">
         <v>44158</v>
       </c>
-      <c r="V14" s="349" t="s">
+      <c r="V14" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="W14" s="349" t="s">
+      <c r="W14" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X14" s="350">
+      <c r="X14" s="372">
         <v>43394</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="345" t="s">
+      <c r="A15" s="367" t="s">
         <v>710</v>
       </c>
-      <c r="B15" s="346"/>
-      <c r="C15" s="346"/>
-      <c r="D15" s="346"/>
-      <c r="E15" s="346"/>
-      <c r="F15" s="347"/>
-      <c r="G15" s="345" t="s">
+      <c r="B15" s="368"/>
+      <c r="C15" s="368"/>
+      <c r="D15" s="368"/>
+      <c r="E15" s="368"/>
+      <c r="F15" s="369"/>
+      <c r="G15" s="367" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="346" t="s">
+      <c r="H15" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I15" s="347" t="s">
+      <c r="I15" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J15" s="348" t="s">
+      <c r="J15" s="370" t="s">
         <v>712</v>
       </c>
-      <c r="K15" s="349" t="s">
+      <c r="K15" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L15" s="349">
+      <c r="L15" s="371">
         <v>43394</v>
       </c>
-      <c r="M15" s="349" t="s">
+      <c r="M15" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="N15" s="350" t="s">
+      <c r="N15" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O15" s="345" t="s">
+      <c r="O15" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P15" s="346" t="s">
+      <c r="P15" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q15" s="346" t="s">
+      <c r="Q15" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R15" s="346" t="s">
+      <c r="R15" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S15" s="346" t="s">
+      <c r="S15" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T15" s="347" t="s">
+      <c r="T15" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U15" s="348">
+      <c r="U15" s="370">
         <v>44331</v>
       </c>
-      <c r="V15" s="349" t="s">
+      <c r="V15" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="W15" s="349" t="s">
+      <c r="W15" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X15" s="350">
+      <c r="X15" s="372">
         <v>43394</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="345" t="s">
+      <c r="A16" s="367" t="s">
         <v>710</v>
       </c>
-      <c r="B16" s="346"/>
-      <c r="C16" s="346"/>
-      <c r="D16" s="346"/>
-      <c r="E16" s="346"/>
-      <c r="F16" s="347"/>
-      <c r="G16" s="345" t="s">
+      <c r="B16" s="368"/>
+      <c r="C16" s="368"/>
+      <c r="D16" s="368"/>
+      <c r="E16" s="368"/>
+      <c r="F16" s="369"/>
+      <c r="G16" s="367" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="346" t="s">
+      <c r="H16" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I16" s="347" t="s">
+      <c r="I16" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J16" s="348" t="s">
+      <c r="J16" s="370" t="s">
         <v>713</v>
       </c>
-      <c r="K16" s="349" t="s">
+      <c r="K16" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L16" s="349">
+      <c r="L16" s="371">
         <v>43394</v>
       </c>
-      <c r="M16" s="349" t="s">
+      <c r="M16" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="N16" s="350" t="s">
+      <c r="N16" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O16" s="345" t="s">
+      <c r="O16" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P16" s="346" t="s">
+      <c r="P16" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q16" s="346" t="s">
+      <c r="Q16" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R16" s="346" t="s">
+      <c r="R16" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S16" s="346" t="s">
+      <c r="S16" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T16" s="347" t="s">
+      <c r="T16" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U16" s="348">
+      <c r="U16" s="370">
         <v>44331</v>
       </c>
-      <c r="V16" s="349" t="s">
+      <c r="V16" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="W16" s="349" t="s">
+      <c r="W16" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X16" s="350">
+      <c r="X16" s="372">
         <v>43394</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="345" t="s">
+      <c r="A17" s="367" t="s">
         <v>710</v>
       </c>
-      <c r="B17" s="346"/>
-      <c r="C17" s="346"/>
-      <c r="D17" s="346"/>
-      <c r="E17" s="346"/>
-      <c r="F17" s="347"/>
-      <c r="G17" s="345" t="s">
+      <c r="B17" s="368"/>
+      <c r="C17" s="368"/>
+      <c r="D17" s="368"/>
+      <c r="E17" s="368"/>
+      <c r="F17" s="369"/>
+      <c r="G17" s="367" t="s">
         <v>311</v>
       </c>
-      <c r="H17" s="346" t="s">
+      <c r="H17" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I17" s="347" t="s">
+      <c r="I17" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J17" s="348" t="s">
+      <c r="J17" s="370" t="s">
         <v>714</v>
       </c>
-      <c r="K17" s="349" t="s">
+      <c r="K17" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L17" s="349">
+      <c r="L17" s="371">
         <v>43394</v>
       </c>
-      <c r="M17" s="349" t="s">
+      <c r="M17" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="N17" s="350" t="s">
+      <c r="N17" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O17" s="345" t="s">
+      <c r="O17" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P17" s="346" t="s">
+      <c r="P17" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q17" s="346" t="s">
+      <c r="Q17" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R17" s="346" t="s">
+      <c r="R17" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S17" s="346" t="s">
+      <c r="S17" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T17" s="347" t="s">
+      <c r="T17" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U17" s="348">
+      <c r="U17" s="370">
         <v>44331</v>
       </c>
-      <c r="V17" s="349" t="s">
+      <c r="V17" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="W17" s="349" t="s">
+      <c r="W17" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X17" s="350">
+      <c r="X17" s="372">
         <v>43394</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="345" t="s">
+      <c r="A18" s="367" t="s">
         <v>470</v>
       </c>
-      <c r="B18" s="346" t="s">
+      <c r="B18" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="C18" s="346" t="s">
+      <c r="C18" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="D18" s="346" t="s">
+      <c r="D18" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="E18" s="346" t="s">
+      <c r="E18" s="368" t="s">
         <v>449</v>
       </c>
-      <c r="F18" s="347" t="s">
+      <c r="F18" s="369" t="s">
         <v>449</v>
       </c>
-      <c r="G18" s="345" t="s">
+      <c r="G18" s="367" t="s">
         <v>467</v>
       </c>
-      <c r="H18" s="346" t="s">
+      <c r="H18" s="368" t="s">
         <v>294</v>
       </c>
-      <c r="I18" s="347" t="s">
+      <c r="I18" s="369" t="s">
         <v>294</v>
       </c>
-      <c r="J18" s="348" t="s">
+      <c r="J18" s="370" t="s">
         <v>699</v>
       </c>
-      <c r="K18" s="349" t="s">
+      <c r="K18" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="L18" s="349">
+      <c r="L18" s="371">
         <v>43394</v>
       </c>
-      <c r="M18" s="349" t="s">
+      <c r="M18" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="N18" s="350" t="s">
+      <c r="N18" s="372" t="s">
         <v>453</v>
       </c>
-      <c r="O18" s="345" t="s">
+      <c r="O18" s="367" t="s">
         <v>453</v>
       </c>
-      <c r="P18" s="346" t="s">
+      <c r="P18" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="Q18" s="346" t="s">
+      <c r="Q18" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="R18" s="346" t="s">
+      <c r="R18" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="S18" s="346" t="s">
+      <c r="S18" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="T18" s="347" t="s">
+      <c r="T18" s="369" t="s">
         <v>453</v>
       </c>
-      <c r="U18" s="348">
+      <c r="U18" s="370">
         <v>44331</v>
       </c>
-      <c r="V18" s="349" t="s">
+      <c r="V18" s="371" t="s">
         <v>471</v>
       </c>
-      <c r="W18" s="349" t="s">
+      <c r="W18" s="371" t="s">
         <v>453</v>
       </c>
-      <c r="X18" s="350">
+      <c r="X18" s="372">
         <v>43394</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="U13:X13"/>
     <mergeCell ref="A5:X5"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="G10:I10"/>
@@ -44224,11 +44455,41 @@
     <mergeCell ref="J9:N9"/>
     <mergeCell ref="O9:T9"/>
     <mergeCell ref="U9:X9"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:T12"/>
+    <mergeCell ref="U12:X12"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -44324,23 +44585,23 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" s="392" t="s">
+      <c r="H4" s="395" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="393"/>
-      <c r="J4" s="392" t="s">
+      <c r="I4" s="396"/>
+      <c r="J4" s="395" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="393"/>
-      <c r="L4" s="394" t="s">
+      <c r="K4" s="396"/>
+      <c r="L4" s="397" t="s">
         <v>258</v>
       </c>
-      <c r="M4" s="396" t="s">
+      <c r="M4" s="399" t="s">
         <v>116</v>
       </c>
-      <c r="N4" s="397"/>
-      <c r="O4" s="397"/>
-      <c r="P4" s="398"/>
+      <c r="N4" s="400"/>
+      <c r="O4" s="400"/>
+      <c r="P4" s="401"/>
     </row>
     <row r="5" spans="2:23" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B5" s="47" t="s">
@@ -44373,11 +44634,11 @@
       <c r="K5" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="395"/>
-      <c r="M5" s="399"/>
-      <c r="N5" s="400"/>
-      <c r="O5" s="400"/>
-      <c r="P5" s="401"/>
+      <c r="L5" s="398"/>
+      <c r="M5" s="402"/>
+      <c r="N5" s="403"/>
+      <c r="O5" s="403"/>
+      <c r="P5" s="404"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
@@ -44621,26 +44882,26 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="390" t="s">
+      <c r="H13" s="393" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="391"/>
-      <c r="J13" s="390" t="s">
+      <c r="I13" s="394"/>
+      <c r="J13" s="393" t="s">
         <v>292</v>
       </c>
-      <c r="K13" s="391"/>
-      <c r="L13" s="390" t="s">
+      <c r="K13" s="394"/>
+      <c r="L13" s="393" t="s">
         <v>137</v>
       </c>
-      <c r="M13" s="391"/>
-      <c r="N13" s="390" t="s">
+      <c r="M13" s="394"/>
+      <c r="N13" s="393" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="391"/>
-      <c r="P13" s="390" t="s">
+      <c r="O13" s="394"/>
+      <c r="P13" s="393" t="s">
         <v>300</v>
       </c>
-      <c r="Q13" s="391"/>
+      <c r="Q13" s="394"/>
       <c r="T13" s="185" t="s">
         <v>330</v>
       </c>
@@ -46845,205 +47106,229 @@
       <c r="L89"/>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D90" s="402" t="s">
+      <c r="D90" s="390" t="s">
         <v>482</v>
       </c>
-      <c r="E90" s="403"/>
-      <c r="F90" s="403"/>
-      <c r="G90" s="404"/>
+      <c r="E90" s="391"/>
+      <c r="F90" s="391"/>
+      <c r="G90" s="392"/>
       <c r="L90"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D91" s="328" t="s">
+      <c r="D91" s="318" t="s">
         <v>483</v>
       </c>
-      <c r="E91" s="329"/>
-      <c r="F91" s="329"/>
-      <c r="G91" s="330"/>
+      <c r="E91" s="319"/>
+      <c r="F91" s="319"/>
+      <c r="G91" s="320"/>
       <c r="L91"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D92" s="328" t="s">
+      <c r="D92" s="318" t="s">
         <v>484</v>
       </c>
-      <c r="E92" s="329"/>
-      <c r="F92" s="329"/>
-      <c r="G92" s="330"/>
+      <c r="E92" s="319"/>
+      <c r="F92" s="319"/>
+      <c r="G92" s="320"/>
       <c r="L92"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D93" s="328" t="s">
+      <c r="D93" s="318" t="s">
         <v>485</v>
       </c>
-      <c r="E93" s="329"/>
-      <c r="F93" s="329"/>
-      <c r="G93" s="330"/>
+      <c r="E93" s="319"/>
+      <c r="F93" s="319"/>
+      <c r="G93" s="320"/>
       <c r="L93"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D94" s="328" t="s">
+      <c r="D94" s="318" t="s">
         <v>486</v>
       </c>
-      <c r="E94" s="329"/>
-      <c r="F94" s="329"/>
-      <c r="G94" s="330"/>
+      <c r="E94" s="319"/>
+      <c r="F94" s="319"/>
+      <c r="G94" s="320"/>
       <c r="L94"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D95" s="328" t="s">
+      <c r="D95" s="318" t="s">
         <v>487</v>
       </c>
-      <c r="E95" s="329"/>
-      <c r="F95" s="329"/>
-      <c r="G95" s="330"/>
+      <c r="E95" s="319"/>
+      <c r="F95" s="319"/>
+      <c r="G95" s="320"/>
       <c r="L95"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D96" s="328" t="s">
+      <c r="D96" s="318" t="s">
         <v>488</v>
       </c>
-      <c r="E96" s="329"/>
-      <c r="F96" s="329"/>
-      <c r="G96" s="330"/>
+      <c r="E96" s="319"/>
+      <c r="F96" s="319"/>
+      <c r="G96" s="320"/>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D97" s="328" t="s">
+      <c r="D97" s="318" t="s">
         <v>489</v>
       </c>
-      <c r="E97" s="329"/>
-      <c r="F97" s="329"/>
-      <c r="G97" s="330"/>
+      <c r="E97" s="319"/>
+      <c r="F97" s="319"/>
+      <c r="G97" s="320"/>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D98" s="328" t="s">
+      <c r="D98" s="318" t="s">
         <v>490</v>
       </c>
-      <c r="E98" s="329"/>
-      <c r="F98" s="329"/>
-      <c r="G98" s="330"/>
+      <c r="E98" s="319"/>
+      <c r="F98" s="319"/>
+      <c r="G98" s="320"/>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D99" s="328" t="s">
+      <c r="D99" s="318" t="s">
         <v>491</v>
       </c>
-      <c r="E99" s="329"/>
-      <c r="F99" s="329"/>
-      <c r="G99" s="330"/>
+      <c r="E99" s="319"/>
+      <c r="F99" s="319"/>
+      <c r="G99" s="320"/>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D100" s="328" t="s">
+      <c r="D100" s="318" t="s">
         <v>492</v>
       </c>
-      <c r="E100" s="329"/>
-      <c r="F100" s="329"/>
-      <c r="G100" s="330"/>
+      <c r="E100" s="319"/>
+      <c r="F100" s="319"/>
+      <c r="G100" s="320"/>
     </row>
     <row r="101" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D101" s="328" t="s">
+      <c r="D101" s="318" t="s">
         <v>493</v>
       </c>
-      <c r="E101" s="329"/>
-      <c r="F101" s="329"/>
-      <c r="G101" s="330"/>
+      <c r="E101" s="319"/>
+      <c r="F101" s="319"/>
+      <c r="G101" s="320"/>
     </row>
     <row r="102" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D102" s="328" t="s">
+      <c r="D102" s="318" t="s">
         <v>494</v>
       </c>
-      <c r="E102" s="329"/>
-      <c r="F102" s="329"/>
-      <c r="G102" s="330"/>
+      <c r="E102" s="319"/>
+      <c r="F102" s="319"/>
+      <c r="G102" s="320"/>
     </row>
     <row r="103" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D103" s="328" t="s">
+      <c r="D103" s="318" t="s">
         <v>495</v>
       </c>
-      <c r="E103" s="329"/>
-      <c r="F103" s="329"/>
-      <c r="G103" s="330"/>
+      <c r="E103" s="319"/>
+      <c r="F103" s="319"/>
+      <c r="G103" s="320"/>
     </row>
     <row r="104" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D104" s="328" t="s">
+      <c r="D104" s="318" t="s">
         <v>496</v>
       </c>
-      <c r="E104" s="329"/>
-      <c r="F104" s="329"/>
-      <c r="G104" s="330"/>
+      <c r="E104" s="319"/>
+      <c r="F104" s="319"/>
+      <c r="G104" s="320"/>
     </row>
     <row r="105" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D105" s="328" t="s">
+      <c r="D105" s="318" t="s">
         <v>497</v>
       </c>
-      <c r="E105" s="329"/>
-      <c r="F105" s="329"/>
-      <c r="G105" s="330"/>
+      <c r="E105" s="319"/>
+      <c r="F105" s="319"/>
+      <c r="G105" s="320"/>
     </row>
     <row r="106" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D106" s="328" t="s">
+      <c r="D106" s="318" t="s">
         <v>498</v>
       </c>
-      <c r="E106" s="329"/>
-      <c r="F106" s="329"/>
-      <c r="G106" s="330"/>
+      <c r="E106" s="319"/>
+      <c r="F106" s="319"/>
+      <c r="G106" s="320"/>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D107" s="328" t="s">
+      <c r="D107" s="318" t="s">
         <v>499</v>
       </c>
-      <c r="E107" s="329"/>
-      <c r="F107" s="329"/>
-      <c r="G107" s="330"/>
+      <c r="E107" s="319"/>
+      <c r="F107" s="319"/>
+      <c r="G107" s="320"/>
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D108" s="328" t="s">
+      <c r="D108" s="318" t="s">
         <v>500</v>
       </c>
-      <c r="E108" s="329"/>
-      <c r="F108" s="329"/>
-      <c r="G108" s="330"/>
+      <c r="E108" s="319"/>
+      <c r="F108" s="319"/>
+      <c r="G108" s="320"/>
     </row>
     <row r="109" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D109" s="328" t="s">
+      <c r="D109" s="318" t="s">
         <v>501</v>
       </c>
-      <c r="E109" s="329"/>
-      <c r="F109" s="329"/>
-      <c r="G109" s="330"/>
+      <c r="E109" s="319"/>
+      <c r="F109" s="319"/>
+      <c r="G109" s="320"/>
     </row>
     <row r="110" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D110" s="328" t="s">
+      <c r="D110" s="318" t="s">
         <v>502</v>
       </c>
-      <c r="E110" s="329"/>
-      <c r="F110" s="329"/>
-      <c r="G110" s="330"/>
+      <c r="E110" s="319"/>
+      <c r="F110" s="319"/>
+      <c r="G110" s="320"/>
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D111" s="328" t="s">
+      <c r="D111" s="318" t="s">
         <v>503</v>
       </c>
-      <c r="E111" s="329"/>
-      <c r="F111" s="329"/>
-      <c r="G111" s="330"/>
+      <c r="E111" s="319"/>
+      <c r="F111" s="319"/>
+      <c r="G111" s="320"/>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D112" s="328" t="s">
+      <c r="D112" s="318" t="s">
         <v>504</v>
       </c>
-      <c r="E112" s="329"/>
-      <c r="F112" s="329"/>
-      <c r="G112" s="330"/>
+      <c r="E112" s="319"/>
+      <c r="F112" s="319"/>
+      <c r="G112" s="320"/>
     </row>
     <row r="113" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D113" s="331" t="s">
+      <c r="D113" s="321" t="s">
         <v>505</v>
       </c>
-      <c r="E113" s="332"/>
-      <c r="F113" s="332"/>
-      <c r="G113" s="333"/>
+      <c r="E113" s="322"/>
+      <c r="F113" s="322"/>
+      <c r="G113" s="323"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:P5"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:G104"/>
     <mergeCell ref="D110:G110"/>
     <mergeCell ref="D111:G111"/>
     <mergeCell ref="D112:G112"/>
@@ -47053,30 +47338,6 @@
     <mergeCell ref="D107:G107"/>
     <mergeCell ref="D108:G108"/>
     <mergeCell ref="D109:G109"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:P5"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="N13:O13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
